--- a/ciq reference/data/FundsValue.xlsx
+++ b/ciq reference/data/FundsValue.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\18613\Desktop\cursor\FundsMonitor-CIQ\ciq reference\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E3DD0E3-F9B6-45A6-B7CD-30059119415E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF667685-5751-4B73-8F58-FE53CE7B3ACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="__snloffice" sheetId="4" state="veryHidden" r:id="rId1"/>
-    <sheet name="_CIQHiddenCacheSheet" sheetId="42" state="veryHidden" r:id="rId2"/>
+    <sheet name="_CIQHiddenCacheSheet" sheetId="43" state="veryHidden" r:id="rId2"/>
     <sheet name="Price" sheetId="1" r:id="rId3"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"1e5caccd-641d-4e27-bc22-5e34fe7c4df8"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"8c4b3de9-1b19-46ff-9bc4-1e6328bafd19"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.51.3510.3078"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -154,688 +154,688 @@
     <t>DB:XB0T</t>
   </si>
   <si>
-    <t>BAABTAVMT0NBTAFI/////wFQlwcAACdDSVEuQVNYOlJCVFouSVFfQ0xPU0VQUklDRS4yMDI1LzIvNS5VU0QBAAAAKe12IgIAAAANOS41NzAyNTEwNDg2NwAr50SYddrdCDv2fKJ12t0IKENJUS5BUkNBOlRITlEuSVFfQ0xPU0VQUklDRS4yMDI1LzIvNC5VU0QBAAAArsN+JAIAAAAFNTMuNTYAK+dEmHXa3Qg79nyiddrdCCZDSVEuREI6WEIwVC5JUV9DTE9TRVBSSUNFLjIwMjUvMi80LlVTRAEAAADTM94pAgAAAA0yMS43MDU3NDgwODcyACvnRJh12t0IO/Z8onXa3QgsQ0lRLk5BU0RBUUdNOkZEVFguSVFfQ0xPU0VQUklDRS4yMDI1LzIvMy5VU0QBAAAAvaWdJgIAAAAFMzYuNTcAK+dEmHXa3Qg79nyiddrdCClDSVEuQVJDQTpMUk5aLklRX0NMT1NFUFJJQ0UuMjAyNS8xLzMxLlVTRAEAAAC1dsMmAgAAAAc0Mi4zMTg4ACvnRJh12t0IO/Z8onXa3QgoQ0lRLkJBVFM6SUdWLklRX0NMT1NFUFJJQ0UuMjAyNS8xLzMwLlVTRAEAAADNOoYAAgAAAAYxMDIuNzYAK+dEmHXa3Qg79nyiddrdCChDSVEuQVJDQTpBSVMuSVFfQ0xPU0VQUklDRS4yMDI1LzEvMzAuVVNEAQAAAJiXn3ACAAAABzI0LjQ5NTkAK+dEmHXa3Qg79nyiddrdCClDSVEuWFRSQTpYQUlYLklRX0NMT1NFUFJJQ0UuMjAyNS8xLzI5LlVTRAEAAAA17OIiAgAAAA8xNDQuOTU4MzMzMzc5NzIAK+dEmHXa3Qguz3yiddrdCC1DSVEuTkFTREFRR006Uk9C</t>
-  </si>
-  <si>
-    <t>VC5JUV9DTE9TRVBSSUNFLjIwMjUvMS8yOC5VU0QBAAAAXGPZIAIAAAAFNDcuNTUAK+dEmHXa3Qguz3yiddrdCChDSVEuQklUOldUQUkuSVFfQ0xPU0VQUklDRS4yMDI1LzEvMjguVVNEAQAAAE26WyMCAAAADjY4Ljk5NTcyNDI0OTkyACvnRJh12t0ILs98onXa3QgpQ0lRLkFSQ0E6SUdQVC5JUV9DTE9TRVBSSUNFLjIwMjUvMS8yNy5VU0QBAAAAzAJeAQIAAAAFNDYuNTYAK+dEmHXa3Qguz3yiddrdCC1DSVEuTkFTREFRR006RkRUWC5JUV9DTE9TRVBSSUNFLjIwMjUvMS8yNC5VU0QBAAAAvaWdJgIAAAAHMzcuMzczNgAr50SYddrdCC7PfKJ12t0ILENJUS5OQVNEQVFHTTpRUVEuSVFfQ0xPU0VQUklDRS4yMDI1LzEvMjMuVVNEAQAAAA66ewACAAAABjUzMi42NAAr50SYddrdCC7PfKJ12t0IKUNJUS5BUkNBOkNIQVQuSVFfQ0xPU0VQUklDRS4yMDI1LzEvMjMuVVNEAQAAAAAwNW0CAAAABTQ0LjE2ACvnRJh12t0ILs98onXa3QgoQ0lRLkFSQ0E6QUlTLklRX0NMT1NFUFJJQ0UuMjAyNS8xLzIyLlVTRAEAAACYl59wAgAAAAcyNi42MzA5ACvnRJh12t0ILs98onXa3QgtQ0lRLk5BU0RBUUdNOkJPVFouSVFfQ0xPU0VQUklDRS4yMDI1LzEvMjEuVVNEAQAAAPf9CBYCAAAABTMzLjk4ACvnRJh12t0ILs98onXa3QgtQ0lRLk5BU0RBUUdNOldJU0UuSVFfQ0xPU0VQUklDRS4yMDI1LzEvMjEuVVNEAQAAAOmwQ24C</t>
-  </si>
-  <si>
-    <t>AAAABTM4LjE2ADkORZh12t0IfKd8onXa3QgsQ0lRLk5BU0RBUUdNOkFJUS5JUV9DTE9TRVBSSUNFLjIwMjUvMS8xNy5VU0QBAAAA6dxiIQIAAAAFMzkuNDYAOQ5FmHXa3Qh8p3yiddrdCClDSVEuQVJDQTpJR1BULklRX0NMT1NFUFJJQ0UuMjAyNS8xLzE2LlVTRAEAAADMAl4BAgAAAAU0Ni44NAA5DkWYddrdCHynfKJ12t0IKENJUS5MU0U6QUlBRy5JUV9DTE9TRVBSSUNFLjIwMjUvMS8xNi5VU0QBAAAA8J2CJAIAAAAPMjIuMzA1Njg3NzU5MTc2ADkORZh12t0IfKd8onXa3QgpQ0lRLkJBVFM6V1RBSS5JUV9DTE9TRVBSSUNFLjIwMjUvMS8xNS5VU0QBAAAAYE5vZAIAAAAEMjIuNwA5DkWYddrdCHynfKJ12t0IKUNJUS5BUkNBOkNIQVQuSVFfQ0xPU0VQUklDRS4yMDI1LzEvMTQuVVNEAQAAAAAwNW0CAAAABTQwLjY4ADkORZh12t0IfKd8onXa3QgtQ0lRLk5BU0RBUUdNOkFHSVguSVFfQ0xPU0VQUklDRS4yMDI1LzEvMTMuVVNEAQAAACP3AHACAAAABTI4LjI0ADkORZh12t0IfKd8onXa3QgpQ0lRLkFSQ0E6TE9VUC5JUV9DTE9TRVBSSUNFLjIwMjUvMS8xMy5VU0QBAAAAWVwPIgIAAAAFNTQuNTYAOQ5FmHXa3Qh8p3yiddrdCCxDSVEuTkFTREFRR006U01ILklRX0NMT1NFUFJJQ0UuMjAyNS8xLzEwLlVTRAEAAABgwjYAAgAAAAYyNDcuMTgAOQ5FmHXa3Qh8p3yiddrdCCtDSVEuTkFTREFRR006QUlRLklR</t>
-  </si>
-  <si>
-    <t>X0NMT1NFUFJJQ0UuMjAyNS8xLzguVVNEAQAAAOncYiECAAAABTM4LjkyADkORZh12t0ICoF8onXa3QgnQ0lRLkxTRTpSQk9ULklRX0NMT1NFUFJJQ0UuMjAyNS8xLzguVVNEAQAAAI57JBQCAAAABjE0LjAwNQA5DkWYddrdCAqBfKJ12t0IKENJUS5BUkNBOkFSVFkuSVFfQ0xPU0VQUklDRS4yMDI1LzEvNy5VU0QBAAAAbh9pIQIAAAAFMzguMjYAOQ5FmHXa3QgKgXyiddrdCChDSVEuQkFUUzpXVEFJLklRX0NMT1NFUFJJQ0UuMjAyNS8xLzYuVVNEAQAAAGBOb2QCAAAABTIzLjIyADkORZh12t0ICoF8onXa3QgnQ0lRLkFTWDpSQlRaLklRX0NMT1NFUFJJQ0UuMjAyNS8xLzYuVVNEAQAAACntdiICAAAADTkuNDc3Njk1ODY2MjEAOQ5FmHXa3QgKgXyiddrdCChDSVEuQVJDQTpUSE5RLklRX0NMT1NFUFJJQ0UuMjAyNS8xLzMuVVNEAQAAAK7DfiQCAAAABTUwLjE3ADkORZh12t0ICoF8onXa3QgmQ0lRLkRCOlhCMFQuSVFfQ0xPU0VQUklDRS4yMDI1LzEvMy5VU0QBAAAA0zPeKQIAAAANMjEuMjc5MzMzMDYxOAA5DkWYddrdCAqBfKJ12t0ILUNJUS5OQVNEQVFHTTpTTUguSVFfQ0xPU0VQUklDRS4yMDI0LzEyLzMxLlVTRAEAAABgwjYAAgAAAAYyNDIuMTcAOQ5FmHXa3QgKgXyiddrdCCpDSVEuQVJDQTpMUk5aLklRX0NMT1NFUFJJQ0UuMjAyNC8xMi8zMS5VU0QBAAAAtXbDJgIAAAAHMzguOTc4NAA5DkWYddrd</t>
-  </si>
-  <si>
-    <t>CPpZfKJ12t0IKUNJUS5CQVRTOklHVi5JUV9DTE9TRVBSSUNFLjIwMjQvMTIvMjAuVVNEAQAAAM06hgACAAAABjEwMy42MgA5DkWYddrdCPpZfKJ12t0ILENJUS5OQVNEQVFHTTpBR0lYLklRX0NMT1NFUFJJQ0UuMjAyNS80LzguVVNEAQAAACP3AHACAAAABTIxLjU5ANgqbph12t0IJAt8onXa3QgrQ0lRLk5BU0RBUUdNOlNNSC5JUV9DTE9TRVBSSUNFLjIwMjUvNC84LlVTRAEAAABgwjYAAgAAAAYxNzkuOTUA2CpumHXa3QgjLH6iddrdCChDSVEuQVJDQTpBUlRZLklRX0NMT1NFUFJJQ0UuMjAyNS80LzguVVNEAQAAAG4faSECAAAABTI3Ljg1ANgqbph12t0ITpfpo3Xa3QgoQ0lRLkFSQ0E6TE9VUC5JUV9DTE9TRVBSSUNFLjIwMjUvNC84LlVTRAEAAABZXA8iAgAAAAYzOS45MTcA2CpumHXa3QgkC3yiddrdCChDSVEuQVJDQTpMUk5aLklRX0NMT1NFUFJJQ0UuMjAyNS80LzguVVNEAQAAALV2wyYCAAAABzMwLjEyOTkA2CpumHXa3QgjLH6iddrdCCdDSVEuQVJDQTpBSVMuSVFfQ0xPU0VQUklDRS4yMDI1LzQvOC5VU0QBAAAAmJefcAIAAAAHMTcuOTAyMgDYKm6YddrdCG0/6KN12t0IKENJUS5YVFJBOlhBSVguSVFfQ0xPU0VQUklDRS4yMDI1LzQvOC5VU0QBAAAANeziIgIAAAAPMTIxLjIzMDYzNTAwODMyANgqbph12t0IOMfko3Xa3QgrQ0lRLk5BU0RBUUdNOlFRUS5JUV9DTE9TRVBSSUNFLjIwMjUvNC83</t>
-  </si>
-  <si>
-    <t>LlVTRAEAAAAOunsAAgAAAAY0MjMuNjkA2CpumHXa3QjIWOajddrdCCtDSVEuTkFTREFRR006U01ILklRX0NMT1NFUFJJQ0UuMjAyNS80LzcuVVNEAQAAAGDCNgACAAAABTE4NC45ANgqbph12t0II+R7onXa3QgnQ0lRLkJBVFM6SUdWLklRX0NMT1NFUFJJQ0UuMjAyNS80LzcuVVNEAQAAAM06hgACAAAABTgxLjI1ANgqbph12t0IIyx+onXa3QgsQ0lRLk5BU0RBUUdNOkJPVFouSVFfQ0xPU0VQUklDRS4yMDI1LzQvNy5VU0QBAAAA9/0IFgIAAAAEMjQuOADYKm6YddrdCDXy4qN12t0IKENJUS5BUkNBOkNIQVQuSVFfQ0xPU0VQUklDRS4yMDI1LzQvNy5VU0QBAAAAADA1bQIAAAAFMzEuMDcA2CpumHXa3Qhq9uCjddrdCCdDSVEuQVJDQTpBSVMuSVFfQ0xPU0VQUklDRS4yMDI1LzQvNy5VU0QBAAAAmJefcAIAAAAHMTguNTMzNQDYKm6YddrdCA8HfqJ12t0ILENJUS5OQVNEQVFHTTpXSVNFLklRX0NMT1NFUFJJQ0UuMjAyNS80LzcuVVNEAQAAAOmwQ24CAAAABTI2LjU0ANgqbph12t0IzQmJonXa3QgnQ0lRLkFTWDpSQlRaLklRX0NMT1NFUFJJQ0UuMjAyNS80LzcuVVNEAQAAACntdiICAAAADDYuODcyMDUyMDYwNwDYKm6YddrdCPW636N12t0ILENJUS5OQVNEQVFHTTpBR0lYLklRX0NMT1NFUFJJQ0UuMjAyNS80LzQuVVNEAQAAACP3AHACAAAABTIyLjExANgqbph12t0IqPiFonXa3QgrQ0lRLk5BU0RBUUdN</t>
-  </si>
-  <si>
-    <t>OkFJUS5JUV9DTE9TRVBSSUNFLjIwMjUvNC80LlVTRAEAAADp3GIhAgAAAAQzMi40ANgqbph12t0II+R7onXa3QgoQ0lRLkFSQ0E6VEhOUS5JUV9DTE9TRVBSSUNFLjIwMjUvNC80LlVTRAEAAACuw34kAgAAAAUzOS40NQDYKm6YddrdCIN9hKJ12t0IKENJUS5BUkNBOkxPVVAuSVFfQ0xPU0VQUklDRS4yMDI1LzQvNC5VU0QBAAAAWVwPIgIAAAAHMzkuNDcyMgDYKm6YddrdCHG/gKJ12t0IJ0NJUS5MU0U6UkJPVC5JUV9DTE9TRVBSSUNFLjIwMjUvNC80LlVTRAEAAACOeyQUAgAAAAUxMS42NwDYKm6YddrdCCPke6J12t0IKENJUS5YVFJBOlhBSVguSVFfQ0xPU0VQUklDRS4yMDI1LzQvNC5VU0QBAAAANeziIgIAAAAOMTIwLjUwOTcyMjA0NzEA2CpumHXa3QgPB36iddrdCCdDSVEuQklUOldUQUkuSVFfQ0xPU0VQUklDRS4yMDI1LzQvNC5VU0QBAAAATbpbIwIAAAAONTEuNzE5MjEzNDM2NDQA2CpumHXa3QjjHoKiddrdCCZDSVEuREI6WEIwVC5JUV9DTE9TRVBSSUNFLjIwMjUvNC80LlVTRAEAAADTM94pAgAAAA4xNy4wNjAzMDk3ODQ3OQDYKm6YddrdCImSfqJ12t0IKENJUS5BUkNBOkFSVFkuSVFfQ0xPU0VQUklDRS4yMDI1LzQvMy5VU0QBAAAAbh9pIQIAAAAFMjkuOTYA2CpumHXa3Qgj5HuiddrdCCxDSVEuTkFTREFRR006Uk9CVC5JUV9DTE9TRVBSSUNFLjIwMjUvNC8zLlVTRAEAAABcY9kgAgAAAAUz</t>
-  </si>
-  <si>
-    <t>OC45NgDYKm6YddrdCA8HfqJ12t0IKENJUS5BUkNBOklHUFQuSVFfQ0xPU0VQUklDRS4yMDI1LzQvMy5VU0QBAAAAzAJeAQIAAAAFMzguMzUA2CpumHXa3QhNXOyjddrdCCxDSVEuTkFTREFRR006RkRUWC5JUV9DTE9TRVBSSUNFLjIwMjUvNC8zLlVTRAEAAAC9pZ0mAgAAAAUyOS45NwDYKm6YddrdCBwk66N12t0ILENJUS5OQVNEQVFHTTpXSVNFLklRX0NMT1NFUFJJQ0UuMjAyNS80LzMuVVNEAQAAAOmwQ24CAAAABzI4Ljc1MTQA2CpumHXa3QhZkIWkddrdCChDSVEuWFRSQTpYQUlYLklRX0NMT1NFUFJJQ0UuMjAyNS80LzMuVVNEAQAAADXs4iICAAAADjEyNy4xODYxODU1MzIyANgqbph12t0II+R7onXa3QgnQ0lRLkJJVDpXVEFJLklRX0NMT1NFUFJJQ0UuMjAyNS80LzMuVVNEAQAAAE26WyMCAAAACjU1LjM0NjQ2ODkA2CpumHXa3QgPB36iddrdCCdDSVEuTFNFOkFJQUcuSVFfQ0xPU0VQUklDRS4yMDI1LzQvMy5VU0QBAAAA8J2CJAIAAAAOMTguNzI1ODA1Mzg4MDQA2CpumHXa3QhOl+mjddrdCCtDSVEuTkFTREFRR006QUlRLklRX0NMT1NFUFJJQ0UuMjAyNS80LzIuVVNEAQAAAOncYiECAAAABTM2Ljk5ANgqbph12t0IbT/oo3Xa3QgoQ0lRLkJBVFM6V1RBSS5JUV9DTE9TRVBSSUNFLjIwMjUvNC8yLlVTRAEAAABgTm9kAgAAAAQxOS41ANgqbph12t0IOMfko3Xa3QgoQ0lRLkFSQ0E6TFJOWi5JUV9D</t>
-  </si>
-  <si>
-    <t>TE9TRVBSSUNFLjIwMjUvNC8yLlVTRAEAAAC1dsMmAgAAAAczNS4yOTc2ANgqbph12t0IyFjmo3Xa3QgnQ0lRLkxTRTpSQk9ULklRX0NMT1NFUFJJQ0UuMjAyNS80LzIuVVNEAQAAAI57JBQCAAAABjEzLjAxNQDYKm6YddrdCEPM4qN12t0IJ0NJUS5BU1g6UkJUWi5JUV9DTE9TRVBSSUNFLjIwMjUvNC8yLlVTRAEAAAAp7XYiAgAAAAw4LjIxOTk1NDY0NTEA2CpumHXa3Qgj5HuiddrdCCZDSVEuREI6WEIwVC5JUV9DTE9TRVBSSUNFLjIwMjUvNC8yLlVTRAEAAADTM94pAgAAAA0xOC44OTA0NTcwNjQ4ANgqbph12t0IDwd+onXa3QgnQ0lRLkJBVFM6SUdWLklRX0NMT1NFUFJJQ0UuMjAyNS80LzEuVVNEAQAAAM06hgACAAAABTkwLjMyANgqbph12t0Iavbgo3Xa3QgoQ0lRLkFSQ0E6VEhOUS5JUV9DTE9TRVBSSUNFLjIwMjUvNC8xLlVTRAEAAACuw34kAgAAAAU0NC42NADYKm6YddrdCCPke6J12t0ILENJUS5OQVNEQVFHTTpGRFRYLklRX0NMT1NFUFJJQ0UuMjAyNS80LzEuVVNEAQAAAL2lnSYCAAAABzMxLjg1OTQA2CpumHXa3QgPB36iddrdCChDSVEuQVJDQTpDSEFULklRX0NMT1NFUFJJQ0UuMjAyNS80LzEuVVNEAQAAAAAwNW0CAAAABDM1LjMA2CpumHXa3Qj1ut+jddrdCCdDSVEuQVJDQTpBSVMuSVFfQ0xPU0VQUklDRS4yMDI1LzQvMS5VU0QBAAAAmJefcAIAAAAHMjEuNjgxNADYKm6YddrdCKj4haJ1</t>
-  </si>
-  <si>
-    <t>2t0IJ0NJUS5MU0U6QUlBRy5JUV9DTE9TRVBSSUNFLjIwMjUvNC8xLlVTRAEAAADwnYIkAgAAAA4xOS43MTIyNjU1NDkyNQDYKm6YddrdCM0JiaJ12t0IJkNJUS5EQjpYQjBULklRX0NMT1NFUFJJQ0UuMjAyNS80LzEuVVNEAQAAANMz3ikCAAAADzE4LjU3NzkxMjI2MDQ4OADYKm6YddrdCCPke6J12t0ILENJUS5OQVNEQVFHTTpRUVEuSVFfQ0xPU0VQUklDRS4yMDI1LzMvMzEuVVNEAQAAAA66ewACAAAABjQ2OC45MgDYKm6YddrdCA8HfqJ12t0ILUNJUS5OQVNEQVFHTTpBR0lYLklRX0NMT1NFUFJJQ0UuMjAyNS8zLzMxLlVTRAEAAAAj9wBwAgAAAAUyNC41MwDYKm6YddrdCIN9hKJ12t0IKUNJUS5CQVRTOldUQUkuSVFfQ0xPU0VQUklDRS4yMDI1LzMvMzEuVVNEAQAAAGBOb2QCAAAAAjE5AC1Abph12t0I4x6ConXa3QgpQ0lRLkFSQ0E6Q0hBVC5JUV9DTE9TRVBSSUNFLjIwMjUvMy8zMS5VU0QBAAAAADA1bQIAAAAFMzQuODUALUBumHXa3QgPB36iddrdCClDSVEuQVJDQTpMT1VQLklRX0NMT1NFUFJJQ0UuMjAyNS8zLzMxLlVTRAEAAABZXA8iAgAAAAc0NS40MTMxAC1Abph12t0IiZJ+onXa3QgpQ0lRLlhUUkE6WEFJWC5JUV9DTE9TRVBSSUNFLjIwMjUvMy8zMS5VU0QBAAAANeziIgIAAAAPMTMwLjUwMTUxMzE0NDE2AC1Abph12t0Icb+AonXa3QgoQ0lRLkFTWDpSQlRaLklRX0NMT1NFUFJJQ0UuMjAy</t>
-  </si>
-  <si>
-    <t>NS8zLzMxLlVTRAEAAAAp7XYiAgAAAAs4LjEwNzc3MDk4MwAtQG6YddrdCE1c7KN12t0ILENJUS5OQVNEQVFHTTpTTUguSVFfQ0xPU0VQUklDRS4yMDI1LzMvMjguVVNEAQAAAGDCNgACAAAABjIxMi4xNwAtQG6YddrdCBK9e6J12t0ILUNJUS5OQVNEQVFHTTpST0JULklRX0NMT1NFUFJJQ0UuMjAyNS8zLzI4LlVTRAEAAABcY9kgAgAAAAU0MS4yMwAtQG6YddrdCEaU7aN12t0IKUNJUS5BUkNBOlRITlEuSVFfQ0xPU0VQUklDRS4yMDI1LzMvMjguVVNEAQAAAK7DfiQCAAAABzQ0LjgyNTIALUBumHXa3QhOl+mjddrdCClDSVEuQVJDQTpMUk5aLklRX0NMT1NFUFJJQ0UuMjAyNS8zLzI4LlVTRAEAAAC1dsMmAgAAAAczNS4wNTc3AC1Abph12t0IEr17onXa3QgoQ0lRLkFSQ0E6QUlTLklRX0NMT1NFUFJJQ0UuMjAyNS8zLzI4LlVTRAEAAACYl59wAgAAAAcyMS43NjAxAC1Abph12t0I9N99onXa3QgtQ0lRLk5BU0RBUUdNOldJU0UuSVFfQ0xPU0VQUklDRS4yMDI1LzMvMjguVVNEAQAAAOmwQ24CAAAABTMwLjgyAC1Abph12t0IHCTro3Xa3QgoQ0lRLkJJVDpXVEFJLklRX0NMT1NFUFJJQ0UuMjAyNS8zLzI4LlVTRAEAAABNulsjAgAAAA01OC41NDYzNjA0Nzc0AC1Abph12t0IbT/oo3Xa3QgoQ0lRLkJBVFM6SUdWLklRX0NMT1NFUFJJQ0UuMjAyNS8zLzI3LlVTRAEAAADNOoYAAgAAAAU5Mi41MgAtQG6Yddrd</t>
-  </si>
-  <si>
-    <t>CBK9e6J12t0ILUNJUS5OQVNEQVFHTTpCT1RaLklRX0NMT1NFUFJJQ0UuMjAyNS8zLzI3LlVTRAEAAAD3/QgWAgAAAAUyOS44NgAtQG6YddrdCPTffaJ12t0ILENJUS5OQVNEQVFHTTpBSVEuSVFfQ0xPU0VQUklDRS4yMDI1LzMvMjcuVVNEAQAAAOncYiECAAAABTM3LjYyAC1Abph12t0IGETmo3Xa3QgpQ0lRLkFSQ0E6SUdQVC5JUV9DTE9TRVBSSUNFLjIwMjUvMy8yNy5VU0QBAAAAzAJeAQIAAAAFNDIuMTcALUBumHXa3QhDzOKjddrdCClDSVEuQVJDQTpMT1VQLklRX0NMT1NFUFJJQ0UuMjAyNS8zLzI3LlVTRAEAAABZXA8iAgAAAAc0Ny42NTM2AC1Abph12t0IOMfko3Xa3QgoQ0lRLkFSQ0E6QUlTLklRX0NMT1NFUFJJQ0UuMjAyNS8zLzI3LlVTRAEAAACYl59wAgAAAAYyMi41MDMALUBumHXa3QgSvXuiddrdCC1DSVEuTkFTREFRR006V0lTRS5JUV9DTE9TRVBSSUNFLjIwMjUvMy8yNy5VU0QBAAAA6bBDbgIAAAAFMzEuOTQALUBumHXa3Qj0332iddrdCCxDSVEuTkFTREFRR006U01ILklRX0NMT1NFUFJJQ0UuMjAyNS8zLzI2LlVTRAEAAABgwjYAAgAAAAYyMjIuMDEALUBumHXa3Qhq9uCjddrdCC1DSVEuTkFTREFRR006RkRUWC5JUV9DTE9TRVBSSUNFLjIwMjUvMy8yNi5VU0QBAAAAvaWdJgIAAAAFMzMuMDgALUBumHXa3Qj1ut+jddrdCClDSVEuQVJDQTpMUk5aLklRX0NMT1NFUFJJQ0UuMjAyNS8z</t>
-  </si>
-  <si>
-    <t>LzI2LlVTRAEAAAC1dsMmAgAAAAUzNi43OAAtQG6YddrdCKLiiKJ12t0IKUNJUS5YVFJBOlhBSVguSVFfQ0xPU0VQUklDRS4yMDI1LzMvMjYuVVNEAQAAADXs4iICAAAADzEzNy41MzIzNTU0NzQyNAAtQG6YddrdCBK9e6J12t0IKENJUS5CSVQ6V1RBSS5JUV9DTE9TRVBSSUNFLjIwMjUvMy8yNi5VU0QBAAAATbpbIwIAAAAONjEuODA5NzQ5NzgyMjIALUBumHXa3Qj0332iddrdCC1DSVEuTkFTREFRR006Uk9CVC5JUV9DTE9TRVBSSUNFLjIwMjUvMy8yNS5VU0QBAAAAXGPZIAIAAAAENDMuNwAtQG6YddrdCBK9e6J12t0IKUNJUS5BUkNBOklHUFQuSVFfQ0xPU0VQUklDRS4yMDI1LzMvMjUuVVNEAQAAAMwCXgECAAAABTQzLjgxAC1Abph12t0I9N99onXa3QgoQ0lRLkxTRTpSQk9ULklRX0NMT1NFUFJJQ0UuMjAyNS8zLzI1LlVTRAEAAACOeyQUAgAAAAUxMy43NQAtQG6YddrdCKj4haJ12t0IKENJUS5CSVQ6V1RBSS5JUV9DTE9TRVBSSUNFLjIwMjUvMy8yNS5VU0QBAAAATbpbIwIAAAAONjIuOTU4MTU3NjE4NDEALUBumHXa3QgSvXuiddrdCChDSVEuTFNFOkFJQUcuSVFfQ0xPU0VQUklDRS4yMDI1LzMvMjUuVVNEAQAAAPCdgiQCAAAADzIxLjM4NDcwNzA3NDQxNgAtQG6YddrdCPTffaJ12t0IKUNJUS5BUkNBOkFSVFkuSVFfQ0xPU0VQUklDRS4yMDI1LzMvMjQuVVNEAQAAAG4faSECAAAABTM0LjczAC1A</t>
-  </si>
-  <si>
-    <t>bph12t0Ig32EonXa3QgpQ0lRLkJBVFM6V1RBSS5JUV9DTE9TRVBSSUNFLjIwMjUvMy8yNC5VU0QBAAAAYE5vZAIAAAAEMjAuOAAtQG6YddrdCPTffaJ12t0IKUNJUS5YVFJBOlhBSVguSVFfQ0xPU0VQUklDRS4yMDI1LzMvMjQuVVNEAQAAADXs4iICAAAADjEzOC43MzU4MTg1MjM2AC1Abph12t0I4x6ConXa3QgnQ0lRLkRCOlhCMFQuSVFfQ0xPU0VQUklDRS4yMDI1LzMvMjQuVVNEAQAAANMz3ikCAAAADzE5Ljc4NjA2MTU5NTA0OAAtQG6YddrdCBK9e6J12t0ILUNJUS5OQVNEQVFHTTpST0JULklRX0NMT1NFUFJJQ0UuMjAyNS8zLzIxLlVTRAEAAABcY9kgAgAAAAU0Mi42NAAtQG6YddrdCHG/gKJ12t0ILUNJUS5OQVNEQVFHTTpGRFRYLklRX0NMT1NFUFJJQ0UuMjAyNS8zLzIxLlVTRAEAAAC9pZ0mAgAAAAQzMy4yAC1Abph12t0IEr17onXa3QgpQ0lRLkFSQ0E6Q0hBVC5JUV9DTE9TRVBSSUNFLjIwMjUvMy8yMS5VU0QBAAAAADA1bQIAAAAFMzcuMTYALUBumHXa3Qj0332iddrdCC1DSVEuTkFTREFRR006QUdJWC5JUV9DTE9TRVBSSUNFLjIwMjUvMy8yMC5VU0QBAAAAI/cAcAIAAAAFMjUuODMALUBumHXa3QjYuH2iddrdCClDSVEuQVJDQTpUSE5RLklRX0NMT1NFUFJJQ0UuMjAyNS8zLzIwLlVTRAEAAACuw34kAgAAAAU0Ni45NgAtQG6YddrdCImSfqJ12t0IKUNJUS5BUkNBOkxPVVAuSVFfQ0xPU0VQ</t>
-  </si>
-  <si>
-    <t>UklDRS4yMDI1LzMvMjAuVVNEAQAAAFlcDyICAAAABzQ5LjM1ODgALUBumHXa3QjYuH2iddrdCC1DSVEuTkFTREFRR006V0lTRS5JUV9DTE9TRVBSSUNFLjIwMjUvMy8xOS5VU0QBAAAA6bBDbgIAAAAFMzIuOTcA/1VumHXa3QjYuH2iddrdCCxDSVEuTkFTREFRR006QUlRLklRX0NMT1NFUFJJQ0UuMjAyNS8zLzE4LlVTRAEAAADp3GIhAgAAAAUzNy42OQD/VW6YddrdCNi4faJ12t0IKENJUS5MU0U6UkJPVC5JUV9DTE9TRVBSSUNFLjIwMjUvMy8xOC5VU0QBAAAAjnskFAIAAAAFMTMuNTEA/1VumHXa3QjYuH2iddrdCClDSVEuQVJDQTpBUlRZLklRX0NMT1NFUFJJQ0UuMjAyNS8zLzE3LlVTRAEAAABuH2khAgAAAAUzNC4yOQD/VW6YddrdCNi4faJ12t0IKUNJUS5BUkNBOklHUFQuSVFfQ0xPU0VQUklDRS4yMDI1LzMvMTQuVVNEAQAAAMwCXgECAAAABTQyLjYxAP9Vbph12t0I+pV7onXa3QgpQ0lRLkJBVFM6V1RBSS5JUV9DTE9TRVBSSUNFLjIwMjUvMy8xNC5VU0QBAAAAYE5vZAIAAAAFMjAuMDMA/1VumHXa3QjYuH2iddrdCChDSVEuTFNFOkFJQUcuSVFfQ0xPU0VQUklDRS4yMDI1LzMvMTQuVVNEAQAAAPCdgiQCAAAADzIwLjU0NTM0NDE2ODgyMgD/VW6YddrdCPqVe6J12t0IKENJUS5BU1g6UkJUWi5JUV9DTE9TRVBSSUNFLjIwMjUvMy8xNC5VU0QBAAAAKe12IgIAAAANOC42MjcwMDUxODI5NgD/VW6Y</t>
-  </si>
-  <si>
-    <t>ddrdCNi4faJ12t0IKUNJUS5CQVRTOldUQUkuSVFfQ0xPU0VQUklDRS4yMDI1LzMvMTMuVVNEAQAAAGBOb2QCAAAABTE5LjMzAP9Vbph12t0I+pV7onXa3QgpQ0lRLkFSQ0E6VEhOUS5JUV9DTE9TRVBSSUNFLjIwMjUvMy8xMy5VU0QBAAAArsN+JAIAAAAFNDUuMjcA/1VumHXa3QjYuH2iddrdCClDSVEuQVJDQTpMT1VQLklRX0NMT1NFUFJJQ0UuMjAyNS8zLzEyLlVTRAEAAABZXA8iAgAAAAc0OC41ODg5AP9Vbph12t0I75F9onXa3QgsQ0lRLk5BU0RBUUdNOlNNSC5JUV9DTE9TRVBSSUNFLjIwMjUvMy8xMS5VU0QBAAAAYMI2AAIAAAAGMjE0LjIyAP9Vbph12t0I75F9onXa3QgpQ0lRLkFSQ0E6TFJOWi5JUV9DTE9TRVBSSUNFLjIwMjUvMy8xMS5VU0QBAAAAtXbDJgIAAAAHMzUuMTY0MwD/VW6YddrdCO+RfaJ12t0IKENJUS5CQVRTOklHVi5JUV9DTE9TRVBSSUNFLjIwMjUvMy8xMC5VU0QBAAAAzTqGAAIAAAAFODguNjgADmpumHXa3QjvkX2iddrdCChDSVEuQVJDQTpBUlRZLklRX0NMT1NFUFJJQ0UuMjAyNS8zLzcuVVNEAQAAAG4faSECAAAABTM0LjE3AA5qbph12t0I75F9onXa3QgoQ0lRLlhUUkE6WEFJWC5JUV9DTE9TRVBSSUNFLjIwMjUvMy83LlVTRAEAAAA17OIiAgAAAA8xMzQuNjUwNDU1ODk5OTYADmpumHXa3QjvkX2iddrdCCxDSVEuTkFTREFRR006Uk9CVC5JUV9DTE9TRVBSSUNFLjIwMjUv</t>
-  </si>
-  <si>
-    <t>My82LlVTRAEAAABcY9kgAgAAAAU0My4yNAAOam6YddrdCO+RfaJ12t0IKENJUS5BUkNBOlRITlEuSVFfQ0xPU0VQUklDRS4yMDI1LzMvNS5VU0QBAAAArsN+JAIAAAAFNDkuNzUADmpumHXa3QjvkX2iddrdCCZDSVEuREI6WEIwVC5JUV9DTE9TRVBSSUNFLjIwMjUvMy81LlVTRAEAAADTM94pAgAAAAwyMC44NzA1OTU4MzcADmpumHXa3QjvkX2iddrdCCxDSVEuTkFTREFRR006RkRUWC5JUV9DTE9TRVBSSUNFLjIwMjUvMy80LlVTRAEAAAC9pZ0mAgAAAAUzNC4wNAAOam6YddrdCGtrfaJ12t0IK0NJUS5OQVNEQVFHTTpRUVEuSVFfQ0xPU0VQUklDRS4yMDI1LzMvMy5VU0QBAAAADrp7AAIAAAAGNDk3LjA1AA5qbph12t0Ia2t9onXa3QgoQ0lRLkJBVFM6SUdWLklRX0NMT1NFUFJJQ0UuMjAyNS8yLzI4LlVTRAEAAADNOoYAAgAAAAU5Ny40NwAOam6YddrdCGtrfaJ12t0IKENJUS5BUkNBOkFJUy5JUV9DTE9TRVBSSUNFLjIwMjUvMi8yOC5VU0QBAAAAmJefcAIAAAAHMjQuMTMxOQC4f26YddrdCGtrfaJ12t0ILUNJUS5OQVNEQVFHTTpCT1RaLklRX0NMT1NFUFJJQ0UuMjAyNS8yLzI3LlVTRAEAAAD3/QgWAgAAAAUzMi4yMgC4f26YddrdCGtrfaJ12t0ILUNJUS5OQVNEQVFHTTpST0JULklRX0NMT1NFUFJJQ0UuMjAyNS8yLzI2LlVTRAEAAABcY9kgAgAAAAQ0NS44ALh/bph12t0Ia2t9onXa3QgoQ0lRLkJJ</t>
-  </si>
-  <si>
-    <t>VDpXVEFJLklRX0NMT1NFUFJJQ0UuMjAyNS8yLzI2LlVTRAEAAABNulsjAgAAAA02Ny42NzU0OTM5MzA4ALh/bph12t0Ia2t9onXa3QgpQ0lRLkFSQ0E6SUdQVC5JUV9DTE9TRVBSSUNFLjIwMjUvMi8yNS5VU0QBAAAAzAJeAQIAAAAFNDUuMTcAuH9umHXa3QhcRH2iddrdCChDSVEuTFNFOkFJQUcuSVFfQ0xPU0VQUklDRS4yMDI1LzIvMjUuVVNEAQAAAPCdgiQCAAAADjIyLjIzNzY4OTY3NjI0ALh/bph12t0IXER9onXa3QgsQ0lRLk5BU0RBUUdNOlFRUS5JUV9DTE9TRVBSSUNFLjIwMjUvMi8yMS5VU0QBAAAADrp7AAIAAAAGNTI2LjA4ALh/bph12t0IXER9onXa3QgpQ0lRLkFSQ0E6Q0hBVC5JUV9DTE9TRVBSSUNFLjIwMjUvMi8yMS5VU0QBAAAAADA1bQIAAAAFNDEuNzUAuH9umHXa3QhcRH2iddrdCC1DSVEuTkFTREFRR006QUdJWC5JUV9DTE9TRVBSSUNFLjIwMjUvMi8yMC5VU0QBAAAAI/cAcAIAAAAFMzAuNjMAuH9umHXa3QhcRH2iddrdCC1DSVEuTkFTREFRR006Qk9UWi5JUV9DTE9TRVBSSUNFLjIwMjUvMi8xOS5VU0QBAAAA9/0IFgIAAAAFMzQuMzMAuH9umHXa3QhcRH2iddrdCC1DSVEuTkFTREFRR006V0lTRS5JUV9DTE9TRVBSSUNFLjIwMjUvMi8xOS5VU0QBAAAA6bBDbgIAAAAFNDAuMjUAuH9umHXa3QhcRH2iddrdCCxDSVEuTkFTREFRR006QUlRLklRX0NMT1NFUFJJQ0UuMjAyNS8yLzE4</t>
-  </si>
-  <si>
-    <t>LlVTRAEAAADp3GIhAgAAAAU0Mi43NwCOlG6YddrdCFxEfaJ12t0IKENJUS5MU0U6UkJPVC5JUV9DTE9TRVBSSUNFLjIwMjUvMi8xOC5VU0QBAAAAjnskFAIAAAAFMTQuOTIAjpRumHXa3QhcRH2iddrdCChDSVEuTFNFOkFJQUcuSVFfQ0xPU0VQUklDRS4yMDI1LzIvMTQuVVNEAQAAAPCdgiQCAAAADjI0LjE1ODI4MTAwOTcxAI6Ubph12t0IgB19onXa3QgpQ0lRLkJBVFM6V1RBSS5JUV9DTE9TRVBSSUNFLjIwMjUvMi8xMy5VU0QBAAAAYE5vZAIAAAAHMjQuMDU5MgCOlG6YddrdCIAdfaJ12t0IKENJUS5BU1g6UkJUWi5JUV9DTE9TRVBSSUNFLjIwMjUvMi8xMy5VU0QBAAAAKe12IgIAAAALOS44MjkyNDgzMTIAjpRumHXa3QiAHX2iddrdCC1DSVEuTkFTREFRR006QUdJWC5JUV9DTE9TRVBSSUNFLjIwMjUvMi8xMS5VU0QBAAAAI/cAcAIAAAAFMzAuODIAjpRumHXa3QiAHX2iddrdCClDSVEuQVJDQTpMT1VQLklRX0NMT1NFUFJJQ0UuMjAyNS8yLzExLlVTRAEAAABZXA8iAgAAAAc1OS43MjQ0AI6Ubph12t0IgB19onXa3QgsQ0lRLk5BU0RBUUdNOlNNSC5JUV9DTE9TRVBSSUNFLjIwMjUvMi8xMC5VU0QBAAAAYMI2AAIAAAAGMjQ5LjYyAI6Ubph12t0IgB19onXa3QgpQ0lRLkFSQ0E6TFJOWi5JUV9DTE9TRVBSSUNFLjIwMjUvMi8xMC5VU0QBAAAAtXbDJgIAAAAFNDQuNDUAjpRumHXa3QiAHX2iddrdCCdD</t>
-  </si>
-  <si>
-    <t>SVEuTFNFOlJCT1QuSVFfQ0xPU0VQUklDRS4yMDI1LzIvNy5VU0QBAAAAjnskFAIAAAAFMTQuNTIAjpRumHXa3QiAHX2iddrdCChDSVEuQVJDQTpBUlRZLklRX0NMT1NFUFJJQ0UuMjAyNS8yLzYuVVNEAQAAAG4faSECAAAABTQwLjE0AI6Ubph12t0IgB19onXa3QgoQ0lRLlhUUkE6WEFJWC5JUV9DTE9TRVBSSUNFLjIwMjUvMi82LlVTRAEAAAA17OIiAgAAAA4xNDguMDE4MjYxMDk1NgBuqW6YddrdCDv2fKJ12t0IKUNJUS5BUkNBOkNIQVQuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMTEuVVNEAQAAAAAwNW0CAAAABTQ1LjI1ABNpeZh12t0IQYJ/onXa3QgpQ0lRLkFSQ0E6TE9VUC5JUV9DTE9TRVBSSUNFLjIwMjUvNi8xMS5VU0QBAAAAWVwPIgIAAAAHNTcuNDYzOQATaXmYddrdCK2CgaJ12t0IKUNJUS5BUkNBOkxSTlouSVFfQ0xPU0VQUklDRS4yMDI1LzYvMTEuVVNEAQAAALV2wyYCAAAABzQyLjk4NzUAE2l5mHXa3QhKCoeiddrdCChDSVEuQVJDQTpBSVMuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMTEuVVNEAQAAAJiXn3ACAAAABzI2LjMxOTUAE2l5mHXa3QjmzImiddrdCC1DSVEuTkFTREFRR006V0lTRS5JUV9DTE9TRVBSSUNFLjIwMjUvNi8xMS5VU0QBAAAA6bBDbgIAAAAFMzQuMjQAE2l5mHXa3QidgOCjddrdCChDSVEuTFNFOlJCT1QuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMTEuVVNEAQAAAI57JBQCAAAA</t>
-  </si>
-  <si>
-    <t>BTE0LjU5ABNpeZh12t0I5bnho3Xa3QgpQ0lRLlhUUkE6WEFJWC5JUV9DTE9TRVBSSUNFLjIwMjUvNi8xMS5VU0QBAAAANeziIgIAAAANMTUzLjg4MTQ4ODM0NAATaXmYddrdCDDd46N12t0IKENJUS5CSVQ6V1RBSS5JUV9DTE9TRVBSSUNFLjIwMjUvNi8xMS5VU0QBAAAATbpbIwIAAAAONjkuOTI0MjA3NjUxMjQAE2l5mHXa3Qh6tOWjddrdCChDSVEuTFNFOkFJQUcuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMTEuVVNEAQAAAPCdgiQCAAAADzIzLjQ1NzIyNDkwNDA2NAATaXmYddrdCBEp56N12t0IKENJUS5BU1g6UkJUWi5JUV9DTE9TRVBSSUNFLjIwMjUvNi8xMS5VU0QBAAAAKe12IgIAAAANOS4wNjYwMjM1OTQyOQATaXmYddrdCIPf66N12t0IJ0NJUS5EQjpYQjBULklRX0NMT1NFUFJJQ0UuMjAyNS82LzExLlVTRAEAAADTM94pAgAAAA4yMC44NjU4NzA0NzE3MgATaXmYddrdCH+ri6R12t0ILENJUS5OQVNEQVFHTTpRUVEuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMTAuVVNEAQAAAA66ewACAAAABjUzNC4yMQATaXmYddrdCKYW7aN12t0ILUNJUS5OQVNEQVFHTTpBR0lYLklRX0NMT1NFUFJJQ0UuMjAyNS82LzEwLlVTRAEAAAAj9wBwAgAAAAYzMC40NzUAE2l5mHXa3QhBgn+iddrdCCxDSVEuTkFTREFRR006U01ILklRX0NMT1NFUFJJQ0UuMjAyNS82LzEwLlVTRAEAAABgwjYAAgAAAAYyNjIuMDcAE2l5mHXa</t>
-  </si>
-  <si>
-    <t>3QitgoGiddrdCChDSVEuQkFUUzpJR1YuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMTAuVVNEAQAAAM06hgACAAAABjEwNS44OAATaXmYddrdCDvigqJ12t0ILUNJUS5OQVNEQVFHTTpCT1RaLklRX0NMT1NFUFJJQ0UuMjAyNS82LzEwLlVTRAEAAAD3/QgWAgAAAAQzMS42ABNpeZh12t0IazWFonXa3QgsQ0lRLk5BU0RBUUdNOkFJUS5JUV9DTE9TRVBSSUNFLjIwMjUvNi8xMC5VU0QBAAAA6dxiIQIAAAAFNDIuMDgAE2l5mHXa3QidgOCjddrdCClDSVEuQVJDQTpBUlRZLklRX0NMT1NFUFJJQ0UuMjAyNS82LzEwLlVTRAEAAABuH2khAgAAAAUzOC4zMwATaXmYddrdCOW54aN12t0ILUNJUS5OQVNEQVFHTTpST0JULklRX0NMT1NFUFJJQ0UuMjAyNS82LzEwLlVTRAEAAABcY9kgAgAAAAU0Ni41OAATaXmYddrdCDDd46N12t0IKUNJUS5BUkNBOklHUFQuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMTAuVVNEAQAAAMwCXgECAAAABTQ3LjQxABNpeZh12t0IerTlo3Xa3QgpQ0lRLkJBVFM6V1RBSS5JUV9DTE9TRVBSSUNFLjIwMjUvNi8xMC5VU0QBAAAAYE5vZAIAAAAFMjMuMDQAE2l5mHXa3QgRKeejddrdCClDSVEuQVJDQTpUSE5RLklRX0NMT1NFUFJJQ0UuMjAyNS82LzEwLlVTRAEAAACuw34kAgAAAAc1Mi42MTU3ABNpeZh12t0Idxrpo3Xa3QgtQ0lRLk5BU0RBUUdNOkZEVFguSVFfQ0xPU0VQUklDRS4yMDI1LzYvMTAu</t>
-  </si>
-  <si>
-    <t>VVNEAQAAAL2lnSYCAAAABTM3LjI3ABNpeZh12t0InYDqo3Xa3QgpQ0lRLkFSQ0E6Q0hBVC5JUV9DTE9TRVBSSUNFLjIwMjUvNi8xMC5VU0QBAAAAADA1bQIAAAAFNDUuNDEAE2l5mHXa3QimFu2jddrdCClDSVEuQVJDQTpMT1VQLklRX0NMT1NFUFJJQ0UuMjAyNS82LzEwLlVTRAEAAABZXA8iAgAAAAc1Ni44MjQyABNpeZh12t0IQYJ/onXa3QgpQ0lRLkFSQ0E6TFJOWi5JUV9DTE9TRVBSSUNFLjIwMjUvNi8xMC5VU0QBAAAAtXbDJgIAAAAHNDIuOTI3NgATaXmYddrdCK2CgaJ12t0IKENJUS5BUkNBOkFJUy5JUV9DTE9TRVBSSUNFLjIwMjUvNi8xMC5VU0QBAAAAmJefcAIAAAAHMjYuMjk2OQATaXmYddrdCDvigqJ12t0ILUNJUS5OQVNEQVFHTTpXSVNFLklRX0NMT1NFUFJJQ0UuMjAyNS82LzEwLlVTRAEAAADpsENuAgAAAAUzNC40NwATaXmYddrdCGs1haJ12t0IKENJUS5MU0U6UkJPVC5JUV9DTE9TRVBSSUNFLjIwMjUvNi8xMC5VU0QBAAAAjnskFAIAAAAFMTQuNTEAE2l5mHXa3QhKCoeiddrdCClDSVEuWFRSQTpYQUlYLklRX0NMT1NFUFJJQ0UuMjAyNS82LzEwLlVTRAEAAAA17OIiAgAAAA8xNTIuNTIzNDA3MTIyNDIAE2l5mHXa3QjmzImiddrdCChDSVEuQklUOldUQUkuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMTAuVVNEAQAAAE26WyMCAAAADjY5LjAxMTE4OTc0NzU2ABNpeZh12t0IELbjo3Xa3Qgo</t>
-  </si>
-  <si>
-    <t>Q0lRLkxTRTpBSUFHLklRX0NMT1NFUFJJQ0UuMjAyNS82LzEwLlVTRAEAAADwnYIkAgAAAA8yMy4xMzAzMzYxMDE0NzQAE2l5mHXa3Qh6tOWjddrdCChDSVEuQVNYOlJCVFouSVFfQ0xPU0VQUklDRS4yMDI1LzYvMTAuVVNEAQAAACntdiICAAAADDkuMDY0ODIzMjcwMQATaXmYddrdCBEp56N12t0IJ0NJUS5EQjpYQjBULklRX0NMT1NFUFJJQ0UuMjAyNS82LzEwLlVTRAEAAADTM94pAgAAAA8yMC43Mzc2MTEzMjAyMzgAE2l5mHXa3Qh3GumjddrdCCtDSVEuTkFTREFRR006UVFRLklRX0NMT1NFUFJJQ0UuMjAyNS82LzkuVVNEAQAAAA66ewACAAAABTUzMC43ABNpeZh12t0IPUTqo3Xa3QgsQ0lRLk5BU0RBUUdNOkFHSVguSVFfQ0xPU0VQUklDRS4yMDI1LzYvOS5VU0QBAAAAI/cAcAIAAAAFMzAuNDUAE2l5mHXa3QiD3+ujddrdCCtDSVEuTkFTREFRR006U01ILklRX0NMT1NFUFJJQ0UuMjAyNS82LzkuVVNEAQAAAGDCNgACAAAABjI1Ni45NgATaXmYddrdCBc2i6R12t0IJ0NJUS5CQVRTOklHVi5JUV9DTE9TRVBSSUNFLjIwMjUvNi85LlVTRAEAAADNOoYAAgAAAAYxMDYuMTMAE2l5mHXa3QitgoGiddrdCCxDSVEuTkFTREFRR006Qk9UWi5JUV9DTE9TRVBSSUNFLjIwMjUvNi85LlVTRAEAAAD3/QgWAgAAAAQzMS40ABNpeZh12t0IO+KConXa3QgrQ0lRLk5BU0RBUUdNOkFJUS5JUV9DTE9TRVBSSUNFLjIw</t>
-  </si>
-  <si>
-    <t>MjUvNi85LlVTRAEAAADp3GIhAgAAAAQ0MS45ABNpeZh12t0IazWFonXa3QgoQ0lRLkFSQ0E6QVJUWS5JUV9DTE9TRVBSSUNFLjIwMjUvNi85LlVTRAEAAABuH2khAgAAAAUzOC4zOQATaXmYddrdCEoKh6J12t0ILENJUS5OQVNEQVFHTTpST0JULklRX0NMT1NFUFJJQ0UuMjAyNS82LzkuVVNEAQAAAFxj2SACAAAABTQ2LjQzABNpeZh12t0I5syJonXa3QgoQ0lRLkFSQ0E6SUdQVC5JUV9DTE9TRVBSSUNFLjIwMjUvNi85LlVTRAEAAADMAl4BAgAAAAU0Ni45MQATaXmYddrdCJ2A4KN12t0IKENJUS5CQVRTOldUQUkuSVFfQ0xPU0VQUklDRS4yMDI1LzYvOS5VU0QBAAAAYE5vZAIAAAAFMjMuMDUAE2l5mHXa3QjlueGjddrdCChDSVEuQVJDQTpUSE5RLklRX0NMT1NFUFJJQ0UuMjAyNS82LzkuVVNEAQAAAK7DfiQCAAAABTUyLjQyABNpeZh12t0IFRTno3Xa3QgsQ0lRLk5BU0RBUUdNOkZEVFguSVFfQ0xPU0VQUklDRS4yMDI1LzYvOS5VU0QBAAAAvaWdJgIAAAAHMzcuMTYyMwATaXmYddrdCHca6aN12t0IKENJUS5BUkNBOkNIQVQuSVFfQ0xPU0VQUklDRS4yMDI1LzYvOS5VU0QBAAAAADA1bQIAAAAFNDUuNDMAE2l5mHXa3Qg9ROqjddrdCChDSVEuQVJDQTpMT1VQLklRX0NMT1NFUFJJQ0UuMjAyNS82LzkuVVNEAQAAAFlcDyICAAAABzU3LjMxMzYAE2l5mHXa3QiD3+ujddrdCChDSVEuQVJDQTpMUk5aLklR</t>
-  </si>
-  <si>
-    <t>X0NMT1NFUFJJQ0UuMjAyNS82LzkuVVNEAQAAALV2wyYCAAAABTQyLjg2ABNpeZh12t0IDZqKpHXa3QgnQ0lRLkFSQ0E6QUlTLklRX0NMT1NFUFJJQ0UuMjAyNS82LzkuVVNEAQAAAJiXn3ACAAAABTI2LjIxABNpeZh12t0Iphbto3Xa3QgsQ0lRLk5BU0RBUUdNOldJU0UuSVFfQ0xPU0VQUklDRS4yMDI1LzYvOS5VU0QBAAAA6bBDbgIAAAAEMzQuMgATaXmYddrdCEGCf6J12t0IJ0NJUS5MU0U6UkJPVC5JUV9DTE9TRVBSSUNFLjIwMjUvNi85LlVTRAEAAACOeyQUAgAAAAYxNC41MjUAE2l5mHXa3QhrNYWiddrdCChDSVEuWFRSQTpYQUlYLklRX0NMT1NFUFJJQ0UuMjAyNS82LzkuVVNEAQAAADXs4iICAAAADzE1My4yNzcwMDM4MzM3NgBLfXmYddrdCEoKh6J12t0IJ0NJUS5CSVQ6V1RBSS5JUV9DTE9TRVBSSUNFLjIwMjUvNi85LlVTRAEAAABNulsjAgAAAA42OC42MDAxMzY5OTU5MgBLfXmYddrdCObMiaJ12t0IJ0NJUS5MU0U6QUlBRy5JUV9DTE9TRVBSSUNFLjIwMjUvNi85LlVTRAEAAADwnYIkAgAAAA4yMy4wMTk5ODMxODg3NABLfXmYddrdCJ2A4KN12t0IJ0NJUS5BU1g6UkJUWi5JUV9DTE9TRVBSSUNFLjIwMjUvNi85LlVTRAEAAAAp7XYiAwAAAAAAS315mHXa3QjlueGjddrdCCZDSVEuREI6WEIwVC5JUV9DTE9TRVBSSUNFLjIwMjUvNi85LlVTRAEAAADTM94pAgAAAA8yMC42MzcxMzE3NTg3MjYA</t>
-  </si>
-  <si>
-    <t>S315mHXa3QgQtuOjddrdCCtDSVEuTkFTREFRR006UVFRLklRX0NMT1NFUFJJQ0UuMjAyNS82LzYuVVNEAQAAAA66ewACAAAABjUyOS45MgBLfXmYddrdCHq05aN12t0ILENJUS5OQVNEQVFHTTpBR0lYLklRX0NMT1NFUFJJQ0UuMjAyNS82LzYuVVNEAQAAACP3AHACAAAABTMwLjMyAEt9eZh12t0IPUTqo3Xa3QgrQ0lRLk5BU0RBUUdNOlNNSC5JUV9DTE9TRVBSSUNFLjIwMjUvNi82LlVTRAEAAABgwjYAAgAAAAYyNTIuNzMAS315mHXa3QiD3+ujddrdCCdDSVEuQkFUUzpJR1YuSVFfQ0xPU0VQUklDRS4yMDI1LzYvNi5VU0QBAAAAzTqGAAIAAAAGMTA1Ljk4AEt9eZh12t0IvkuKpHXa3QgsQ0lRLk5BU0RBUUdNOkJPVFouSVFfQ0xPU0VQUklDRS4yMDI1LzYvNi5VU0QBAAAA9/0IFgIAAAAEMzEuNABLfXmYddrdCKYW7aN12t0IK0NJUS5OQVNEQVFHTTpBSVEuSVFfQ0xPU0VQUklDRS4yMDI1LzYvNi5VU0QBAAAA6dxiIQIAAAAFNDEuNjIAS315mHXa3QiVRn+iddrdCChDSVEuQVJDQTpBUlRZLklRX0NMT1NFUFJJQ0UuMjAyNS82LzYuVVNEAQAAAG4faSECAAAABTM4LjE0AEt9eZh12t0IrYKBonXa3QgsQ0lRLk5BU0RBUUdNOlJPQlQuSVFfQ0xPU0VQUklDRS4yMDI1LzYvNi5VU0QBAAAAXGPZIAIAAAAFNDYuMDYAS315mHXa3Qg74oKiddrdCChDSVEuQVJDQTpJR1BULklRX0NMT1NFUFJJQ0UuMjAyNS82</t>
-  </si>
-  <si>
-    <t>LzYuVVNEAQAAAMwCXgECAAAABTQ2LjQ5AEt9eZh12t0I5syJonXa3QgoQ0lRLkJBVFM6V1RBSS5JUV9DTE9TRVBSSUNFLjIwMjUvNi82LlVTRAEAAABgTm9kAgAAAAcyMi45NDg0AEt9eZh12t0IiVngo3Xa3QgoQ0lRLkFSQ0E6VEhOUS5JUV9DTE9TRVBSSUNFLjIwMjUvNi82LlVTRAEAAACuw34kAgAAAAQ1Mi4xAEt9eZh12t0I5bnho3Xa3QgsQ0lRLk5BU0RBUUdNOkZEVFguSVFfQ0xPU0VQUklDRS4yMDI1LzYvNi5VU0QBAAAAvaWdJgIAAAAFMzcuMTUAS315mHXa3QgQtuOjddrdCChDSVEuQVJDQTpDSEFULklRX0NMT1NFUFJJQ0UuMjAyNS82LzYuVVNEAQAAAAAwNW0CAAAABTQ0LjM0AEt9eZh12t0I6Z/lo3Xa3QgoQ0lRLkFSQ0E6TE9VUC5JUV9DTE9TRVBSSUNFLjIwMjUvNi82LlVTRAEAAABZXA8iAgAAAAY1Ny4yMTMAS315mHXa3QgVFOejddrdCChDSVEuQVJDQTpMUk5aLklRX0NMT1NFUFJJQ0UuMjAyNS82LzYuVVNEAQAAALV2wyYCAAAABzQyLjg1MzkAS315mHXa3Qh3GumjddrdCCdDSVEuQVJDQTpBSVMuSVFfQ0xPU0VQUklDRS4yMDI1LzYvNi5VU0QBAAAAmJefcAIAAAAGMjUuODU3AEt9eZh12t0IzP2JpHXa3QgsQ0lRLk5BU0RBUUdNOldJU0UuSVFfQ0xPU0VQUklDRS4yMDI1LzYvNi5VU0QBAAAA6bBDbgIAAAAFMzMuNTkAS315mHXa3QimFu2jddrdCCdDSVEuTFNFOlJCT1QuSVFfQ0xP</t>
-  </si>
-  <si>
-    <t>U0VQUklDRS4yMDI1LzYvNi5VU0QBAAAAjnskFAIAAAAFMTQuNDQAS315mHXa3QiVRn+iddrdCChDSVEuWFRSQTpYQUlYLklRX0NMT1NFUFJJQ0UuMjAyNS82LzYuVVNEAQAAADXs4iICAAAADzE1MS45ODcyNDUyNDQ2OABLfXmYddrdCK2CgaJ12t0IJ0NJUS5CSVQ6V1RBSS5JUV9DTE9TRVBSSUNFLjIwMjUvNi82LlVTRAEAAABNulsjAgAAAA42Ny43NDg1NDgwMjY0MgBLfXmYddrdCDvigqJ12t0IJ0NJUS5MU0U6QUlBRy5JUV9DTE9TRVBSSUNFLjIwMjUvNi82LlVTRAEAAADwnYIkAgAAAA8yMi44OTQwMTA3MTU1NzYAS315mHXa3QhrNYWiddrdCCdDSVEuQVNYOlJCVFouSVFfQ0xPU0VQUklDRS4yMDI1LzYvNi5VU0QBAAAAKe12IgIAAAALOC45ODgyNTM2MTMAS315mHXa3QhKCoeiddrdCCZDSVEuREI6WEIwVC5JUV9DTE9TRVBSSUNFLjIwMjUvNi82LlVTRAEAAADTM94pAgAAAA8yMC40NTc4MDY2MzU1MTIAS315mHXa3QjlueGjddrdCCtDSVEuTkFTREFRR006UVFRLklRX0NMT1NFUFJJQ0UuMjAyNS82LzUuVVNEAQAAAA66ewACAAAABjUyNC43OQBLfXmYddrdCBC246N12t0ILENJUS5OQVNEQVFHTTpBR0lYLklRX0NMT1NFUFJJQ0UuMjAyNS82LzUuVVNEAQAAACP3AHACAAAABTI5Ljg3AEt9eZh12t0I6Z/lo3Xa3QgrQ0lRLk5BU0RBUUdNOlNNSC5JUV9DTE9TRVBSSUNFLjIwMjUvNi81LlVTRAEA</t>
-  </si>
-  <si>
-    <t>AABgwjYAAgAAAAUyNTEuMwBLfXmYddrdCBUU56N12t0IJ0NJUS5CQVRTOklHVi5JUV9DTE9TRVBSSUNFLjIwMjUvNi81LlVTRAEAAADNOoYAAgAAAAYxMDQuNjYAS315mHXa3QiF8+ijddrdCCxDSVEuTkFTREFRR006Qk9UWi5JUV9DTE9TRVBSSUNFLjIwMjUvNi81LlVTRAEAAAD3/QgWAgAAAAUzMS4yOABLfXmYddrdCD1E6qN12t0IK0NJUS5OQVNEQVFHTTpBSVEuSVFfQ0xPU0VQUklDRS4yMDI1LzYvNS5VU0QBAAAA6dxiIQIAAAAENDEuMgBLfXmYddrdCIPf66N12t0IKENJUS5BUkNBOkFSVFkuSVFfQ0xPU0VQUklDRS4yMDI1LzYvNS5VU0QBAAAAbh9pIQIAAAAFMzcuNjkAS315mHXa3QiVRn+iddrdCCxDSVEuTkFTREFRR006Uk9CVC5JUV9DTE9TRVBSSUNFLjIwMjUvNi81LlVTRAEAAABcY9kgAgAAAAU0NS40MQBLfXmYddrdCK2CgaJ12t0IKENJUS5BUkNBOklHUFQuSVFfQ0xPU0VQUklDRS4yMDI1LzYvNS5VU0QBAAAAzAJeAQIAAAAFNDYuMTYAS315mHXa3Qg74oKiddrdCChDSVEuQkFUUzpXVEFJLklRX0NMT1NFUFJJQ0UuMjAyNS82LzUuVVNEAQAAAGBOb2QCAAAABTIyLjY4AEt9eZh12t0IazWFonXa3QgoQ0lRLkFSQ0E6VEhOUS5JUV9DTE9TRVBSSUNFLjIwMjUvNi81LlVTRAEAAACuw34kAgAAAAQ1MS4yAEt9eZh12t0IPuOGonXa3QgsQ0lRLk5BU0RBUUdNOkZEVFguSVFfQ0xPU0VQUklD</t>
-  </si>
-  <si>
-    <t>RS4yMDI1LzYvNS5VU0QBAAAAvaWdJgIAAAAFMzYuNzEAS315mHXa3QjSpYmiddrdCChDSVEuQVJDQTpDSEFULklRX0NMT1NFUFJJQ0UuMjAyNS82LzUuVVNEAQAAAAAwNW0CAAAABTQzLjYzAEt9eZh12t0IiVngo3Xa3QgoQ0lRLkFSQ0E6TE9VUC5JUV9DTE9TRVBSSUNFLjIwMjUvNi81LlVTRAEAAABZXA8iAgAAAAc1Ni42NjQxAEt9eZh12t0I6Z/lo3Xa3QgoQ0lRLkFSQ0E6TFJOWi5JUV9DTE9TRVBSSUNFLjIwMjUvNi81LlVTRAEAAAC1dsMmAgAAAAc0Mi42Mjk2AEt9eZh12t0IFRTno3Xa3QgnQ0lRLkFSQ0E6QUlTLklRX0NMT1NFUFJJQ0UuMjAyNS82LzUuVVNEAQAAAJiXn3ACAAAABzI1LjY0NDUAS315mHXa3QiF8+ijddrdCCxDSVEuTkFTREFRR006V0lTRS5JUV9DTE9TRVBSSUNFLjIwMjUvNi81LlVTRAEAAADpsENuAgAAAAUzMi45NwBLfXmYddrdCD1E6qN12t0IJ0NJUS5MU0U6UkJPVC5JUV9DTE9TRVBSSUNFLjIwMjUvNi81LlVTRAEAAACOeyQUAgAAAAYxNC40NjUAS315mHXa3QiD3+ujddrdCChDSVEuWFRSQTpYQUlYLklRX0NMT1NFUFJJQ0UuMjAyNS82LzUuVVNEAQAAADXs4iICAAAADzE1Mi4wODk3NzQzNzE4NgBLfXmYddrdCLs5iaR12t0IJ0NJUS5CSVQ6V1RBSS5JUV9DTE9TRVBSSUNFLjIwMjUvNi81LlVTRAEAAABNulsjAgAAAA02OC4wMTc4NjMyNTYyAEt9eZh12t0Iphbto3Xa</t>
-  </si>
-  <si>
-    <t>3QgnQ0lRLkxTRTpBSUFHLklRX0NMT1NFUFJJQ0UuMjAyNS82LzUuVVNEAQAAAPCdgiQCAAAADjIyLjkxNjcyMzMwNzg3AEt9eZh12t0IO+KConXa3QgnQ0lRLkFTWDpSQlRaLklRX0NMT1NFUFJJQ0UuMjAyNS82LzUuVVNEAQAAACntdiICAAAADTkuMDQ4Nzk5NTgxNDUAS315mHXa3QhrNYWiddrdCCZDSVEuREI6WEIwVC5JUV9DTE9TRVBSSUNFLjIwMjUvNi81LlVTRAEAAADTM94pAgAAAA8yMC42NTQ5ODY4MjUxNzQAS315mHXa3Qg+44aiddrdCCtDSVEuTkFTREFRR006UVFRLklRX0NMT1NFUFJJQ0UuMjAyNS82LzQuVVNEAQAAAA66ewACAAAABjUyOC43NwBLfXmYddrdCNKliaJ12t0ILENJUS5OQVNEQVFHTTpBR0lYLklRX0NMT1NFUFJJQ0UuMjAyNS82LzQuVVNEAQAAACP3AHACAAAABDI5LjgAS315mHXa3QiJWeCjddrdCCtDSVEuTkFTREFRR006U01ILklRX0NMT1NFUFJJQ0UuMjAyNS82LzQuVVNEAQAAAGDCNgACAAAABjI1MS43NQBLfXmYddrdCOW54aN12t0IJ0NJUS5CQVRTOklHVi5JUV9DTE9TRVBSSUNFLjIwMjUvNi80LlVTRAEAAADNOoYAAgAAAAUxMDQuOABLfXmYddrdCPyO46N12t0ILENJUS5OQVNEQVFHTTpCT1RaLklRX0NMT1NFUFJJQ0UuMjAyNS82LzQuVVNEAQAAAPf9CBYCAAAABDMxLjQAS315mHXa3QiF8+ijddrdCCtDSVEuTkFTREFRR006QUlRLklRX0NMT1NFUFJJQ0UuMjAy</t>
-  </si>
-  <si>
-    <t>NS82LzQuVVNEAQAAAOncYiECAAAABTQxLjM1AEt9eZh12t0IPUTqo3Xa3QgoQ0lRLkFSQ0E6QVJUWS5JUV9DTE9TRVBSSUNFLjIwMjUvNi80LlVTRAEAAABuH2khAgAAAAUzNy45NQBLfXmYddrdCIPf66N12t0ILENJUS5OQVNEQVFHTTpST0JULklRX0NMT1NFUFJJQ0UuMjAyNS82LzQuVVNEAQAAAFxj2SACAAAABTQ1LjYzAEt9eZh12t0IiZ2IpHXa3QgoQ0lRLkFSQ0E6SUdQVC5JUV9DTE9TRVBSSUNFLjIwMjUvNi80LlVTRAEAAADMAl4BAgAAAAU0Ni4zNABLfXmYddrdCNHX7KN12t0IKENJUS5CQVRTOldUQUkuSVFfQ0xPU0VQUklDRS4yMDI1LzYvNC5VU0QBAAAAYE5vZAIAAAAFMjIuNzcAS315mHXa3QiVRn+iddrdCChDSVEuQVJDQTpUSE5RLklRX0NMT1NFUFJJQ0UuMjAyNS82LzQuVVNEAQAAAK7DfiQCAAAABzUxLjUxOTEAS315mHXa3QitgoGiddrdCCxDSVEuTkFTREFRR006RkRUWC5JUV9DTE9TRVBSSUNFLjIwMjUvNi80LlVTRAEAAAC9pZ0mAgAAAAczNi4zOTg4AEt9eZh12t0IPuOGonXa3QgoQ0lRLkFSQ0E6Q0hBVC5JUV9DTE9TRVBSSUNFLjIwMjUvNi80LlVTRAEAAAAAMDVtAgAAAAQ0NC4xAEt9eZh12t0I0qWJonXa3QgoQ0lRLkFSQ0E6TE9VUC5JUV9DTE9TRVBSSUNFLjIwMjUvNi80LlVTRAEAAABZXA8iAgAAAAU1Ni4zNQBLfXmYddrdCIlZ4KN12t0IKENJUS5BUkNBOkxSTlouSVFf</t>
-  </si>
-  <si>
-    <t>Q0xPU0VQUklDRS4yMDI1LzYvNC5VU0QBAAAAtXbDJgIAAAAHNDIuMjA4MQBLfXmYddrdCOW54aN12t0IJ0NJUS5BUkNBOkFJUy5JUV9DTE9TRVBSSUNFLjIwMjUvNi80LlVTRAEAAACYl59wAgAAAAUyNS41OABLfXmYddrdCPyO46N12t0ILENJUS5OQVNEQVFHTTpXSVNFLklRX0NMT1NFUFJJQ0UuMjAyNS82LzQuVVNEAQAAAOmwQ24CAAAABTMzLjcxAEt9eZh12t0I6Z/lo3Xa3QgnQ0lRLkxTRTpSQk9ULklRX0NMT1NFUFJJQ0UuMjAyNS82LzQuVVNEAQAAAI57JBQCAAAABTE0LjM2AEt9eZh12t0IwP7mo3Xa3QgoQ0lRLlhUUkE6WEFJWC5JUV9DTE9TRVBSSUNFLjIwMjUvNi80LlVTRAEAAAA17OIiAgAAAA4xNTAuMzk0MTUwNTIxNgBLfXmYddrdCIPf66N12t0IJ0NJUS5CSVQ6V1RBSS5JUV9DTE9TRVBSSUNFLjIwMjUvNi80LlVTRAEAAABNulsjAgAAAA02Ni45ODI3NDg3NDcyAEt9eZh12t0Ick+IpHXa3QgnQ0lRLkxTRTpBSUFHLklRX0NMT1NFUFJJQ0UuMjAyNS82LzQuVVNEAQAAAPCdgiQCAAAADzIyLjY4OTc4MjQwMDg3NABLfXmYddrdCNHX7KN12t0IJ0NJUS5BU1g6UkJUWi5JUV9DTE9TRVBSSUNFLjIwMjUvNi80LlVTRAEAAAAp7XYiAgAAAA05LjAxNTM4MjYxNzM2AEt9eZh12t0IlUZ/onXa3QgmQ0lRLkRCOlhCMFQuSVFfQ0xPU0VQUklDRS4yMDI1LzYvNC5VU0QBAAAA0zPeKQIAAAAOMjAu</t>
-  </si>
-  <si>
-    <t>NjMwNjQwOTE1NTIAS315mHXa3QiaW4GiddrdCCtDSVEuTkFTREFRR006UVFRLklRX0NMT1NFUFJJQ0UuMjAyNS82LzMuVVNEAQAAAA66ewACAAAABTUyNy4zAEt9eZh12t0IO+KConXa3QgsQ0lRLk5BU0RBUUdNOkFHSVguSVFfQ0xPU0VQUklDRS4yMDI1LzYvMy5VU0QBAAAAI/cAcAIAAAAHMjkuNTY1NgBLfXmYddrdCGs1haJ12t0IK0NJUS5OQVNEQVFHTTpTTUguSVFfQ0xPU0VQUklDRS4yMDI1LzYvMy5VU0QBAAAAYMI2AAIAAAAGMjQ4Ljc5AEt9eZh12t0IiVngo3Xa3QgnQ0lRLkJBVFM6SUdWLklRX0NMT1NFUFJJQ0UuMjAyNS82LzMuVVNEAQAAAM06hgACAAAABjEwNC45OQBLfXmYddrdCPOR4aN12t0ILENJUS5OQVNEQVFHTTpCT1RaLklRX0NMT1NFUFJJQ0UuMjAyNS82LzMuVVNEAQAAAPf9CBYCAAAABDMxLjMAS315mHXa3Qj8juOjddrdCCtDSVEuTkFTREFRR006QUlRLklRX0NMT1NFUFJJQ0UuMjAyNS82LzMuVVNEAQAAAOncYiECAAAABTQwLjk2AEt9eZh12t0I6Z/lo3Xa3QgoQ0lRLkFSQ0E6QVJUWS5JUV9DTE9TRVBSSUNFLjIwMjUvNi8zLlVTRAEAAABuH2khAgAAAAUzNy42NwBLfXmYddrdCMD+5qN12t0ILENJUS5OQVNEQVFHTTpST0JULklRX0NMT1NFUFJJQ0UuMjAyNS82LzMuVVNEAQAAAFxj2SACAAAABTQ1LjMyAEt9eZh12t0IhfPoo3Xa3QgoQ0lRLkFSQ0E6SUdQVC5JUV9DTE9T</t>
-  </si>
-  <si>
-    <t>RVBSSUNFLjIwMjUvNi8zLlVTRAEAAADMAl4BAgAAAAU0NS44MwBLfXmYddrdCD1E6qN12t0IKENJUS5CQVRTOldUQUkuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMy5VU0QBAAAAYE5vZAIAAAAFMjIuNjYAS315mHXa3QjR1+yjddrdCChDSVEuQVJDQTpUSE5RLklRX0NMT1NFUFJJQ0UuMjAyNS82LzMuVVNEAQAAAK7DfiQCAAAABzUxLjEyODQAS315mHXa3QiVRn+iddrdCCxDSVEuTkFTREFRR006RkRUWC5JUV9DTE9TRVBSSUNFLjIwMjUvNi8zLlVTRAEAAAC9pZ0mAgAAAAUzNi4xMQBLfXmYddrdCJpbgaJ12t0IKENJUS5BUkNBOkNIQVQuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMy5VU0QBAAAAADA1bQIAAAAFNDMuMzEAS315mHXa3Qgzu4KiddrdCChDSVEuQVJDQTpMT1VQLklRX0NMT1NFUFJJQ0UuMjAyNS82LzMuVVNEAQAAAFlcDyICAAAABzU1LjgyMTkAS315mHXa3QhrNYWiddrdCChDSVEuQVJDQTpMUk5aLklRX0NMT1NFUFJJQ0UuMjAyNS82LzMuVVNEAQAAALV2wyYCAAAABjQyLjE3NgBLfXmYddrdCD7jhqJ12t0IJ0NJUS5BUkNBOkFJUy5JUV9DTE9TRVBSSUNFLjIwMjUvNi8zLlVTRAEAAACYl59wAgAAAAcyNS4yNzI3AEt9eZh12t0I0qWJonXa3QgsQ0lRLk5BU0RBUUdNOldJU0UuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMy5VU0QBAAAA6bBDbgIAAAAHMzMuMDUzOQBLfXmYddrdCPyO46N12t0IJ0NJ</t>
-  </si>
-  <si>
-    <t>US5MU0U6UkJPVC5JUV9DTE9TRVBSSUNFLjIwMjUvNi8zLlVTRAEAAACOeyQUAgAAAAYxNC4yNDUAS315mHXa3Qgci+WjddrdCChDSVEuWFRSQTpYQUlYLklRX0NMT1NFUFJJQ0UuMjAyNS82LzMuVVNEAQAAADXs4iICAAAADzE0OS42NDE1OTc0OTA4OABLfXmYddrdCMD+5qN12t0IJ0NJUS5CSVQ6V1RBSS5JUV9DTE9TRVBSSUNFLjIwMjUvNi8zLlVTRAEAAABNulsjAgAAAA42Ni4wNTk4NDc1NTQxNABLfXmYddrdCIXz6KN12t0IJ0NJUS5MU0U6QUlBRy5JUV9DTE9TRVBSSUNFLjIwMjUvNi8zLlVTRAEAAADwnYIkAgAAAA4yMi40Mjc0MDQ5NjM1MwBLfXmYddrdCD1E6qN12t0IJ0NJUS5BU1g6UkJUWi5JUV9DTE9TRVBSSUNFLjIwMjUvNi8zLlVTRAEAAAAp7XYiAgAAAA04Ljg0NzY3MDEzODg5AEt9eZh12t0Ig9/ro3Xa3QgmQ0lRLkRCOlhCMFQuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMy5VU0QBAAAA0zPeKQIAAAAPMjAuMTUyNDYzMzExNzI4AEt9eZh12t0IUbOHpHXa3QgrQ0lRLk5BU0RBUUdNOlFRUS5JUV9DTE9TRVBSSUNFLjIwMjUvNi8yLlVTRAEAAAAOunsAAgAAAAY1MjMuMjEAS315mHXa3QiaW4GiddrdCCxDSVEuTkFTREFRR006QUdJWC5JUV9DTE9TRVBSSUNFLjIwMjUvNi8yLlVTRAEAAAAj9wBwAgAAAAUyOS4zNABLfXmYddrdCDO7gqJ12t0IK0NJUS5OQVNEQVFHTTpTTUguSVFfQ0xPU0VQ</t>
-  </si>
-  <si>
-    <t>UklDRS4yMDI1LzYvMi5VU0QBAAAAYMI2AAIAAAAFMjQzLjMAS315mHXa3QgYDoWiddrdCCdDSVEuQkFUUzpJR1YuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMi5VU0QBAAAAzTqGAAIAAAAGMTAzLjk0AEt9eZh12t0IPuOGonXa3QgsQ0lRLk5BU0RBUUdNOkJPVFouSVFfQ0xPU0VQUklDRS4yMDI1LzYvMi5VU0QBAAAA9/0IFgIAAAAFMzAuOTcAS315mHXa3QjSpYmiddrdCCtDSVEuTkFTREFRR006QUlRLklRX0NMT1NFUFJJQ0UuMjAyNS82LzIuVVNEAQAAAOncYiECAAAABTQwLjczAEt9eZh12t0IiVngo3Xa3QgoQ0lRLkFSQ0E6QVJUWS5JUV9DTE9TRVBSSUNFLjIwMjUvNi8yLlVTRAEAAABuH2khAgAAAAQzNy4xAEt9eZh12t0I85Hho3Xa3QgsQ0lRLk5BU0RBUUdNOlJPQlQuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMi5VU0QBAAAAXGPZIAIAAAAFNDQuNzYAS315mHXa3QjA/uajddrdCChDSVEuQVJDQTpJR1BULklRX0NMT1NFUFJJQ0UuMjAyNS82LzIuVVNEAQAAAMwCXgECAAAABTQ1LjI5AEt9eZh12t0IhfPoo3Xa3QgoQ0lRLkJBVFM6V1RBSS5JUV9DTE9TRVBSSUNFLjIwMjUvNi8yLlVTRAEAAABgTm9kAgAAAAUyMi4zNQBLfXmYddrdCD1E6qN12t0IKENJUS5BUkNBOlRITlEuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMi5VU0QBAAAArsN+JAIAAAAHNTAuNjY0OQBLfXmYddrdCLGg66N12t0ILENJUS5OQVNE</t>
-  </si>
-  <si>
-    <t>QVFHTTpGRFRYLklRX0NMT1NFUFJJQ0UuMjAyNS82LzIuVVNEAQAAAL2lnSYCAAAABTM1LjcxAEt9eZh12t0I/T2HpHXa3QgoQ0lRLkFSQ0E6Q0hBVC5JUV9DTE9TRVBSSUNFLjIwMjUvNi8yLlVTRAEAAAAAMDVtAgAAAAU0Mi4zMQBLfXmYddrdCNHX7KN12t0IKENJUS5BUkNBOkxPVVAuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMi5VU0QBAAAAWVwPIgIAAAAFNTUuMTMAS315mHXa3QiVRn+iddrdCChDSVEuQVJDQTpMUk5aLklRX0NMT1NFUFJJQ0UuMjAyNS82LzIuVVNEAQAAALV2wyYCAAAABzQxLjY1MDcAS315mHXa3QgYDoWiddrdCCdDSVEuQVJDQTpBSVMuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMi5VU0QBAAAAmJefcAIAAAAHMjQuODMyMgBLfXmYddrdCBq8hqJ12t0ILENJUS5OQVNEQVFHTTpXSVNFLklRX0NMT1NFUFJJQ0UuMjAyNS82LzIuVVNEAQAAAOmwQ24CAAAABDMyLjYAS315mHXa3QjSpYmiddrdCCdDSVEuTFNFOlJCT1QuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMi5VU0QBAAAAjnskFAIAAAAFMTQuMDMAS315mHXa3QiJWeCjddrdCChDSVEuWFRSQTpYQUlYLklRX0NMT1NFUFJJQ0UuMjAyNS82LzIuVVNEAQAAADXs4iICAAAADzE0Ny43MTI3MTcyODI2NABLfXmYddrdCPOR4aN12t0IJ0NJUS5CSVQ6V1RBSS5JUV9DTE9TRVBSSUNFLjIwMjUvNi8yLlVTRAEAAABNulsjAgAAAA42NC43NDE1Mzcw</t>
-  </si>
-  <si>
-    <t>NDk5NABLfXmYddrdCPyO46N12t0IJ0NJUS5MU0U6QUlBRy5JUV9DTE9TRVBSSUNFLjIwMjUvNi8yLlVTRAEAAADwnYIkAgAAAA8yMi4xMDM1ODAwMzY4NjQAS315mHXa3Qgci+WjddrdCCdDSVEuQVNYOlJCVFouSVFfQ0xPU0VQUklDRS4yMDI1LzYvMi5VU0QBAAAAKe12IgIAAAANOC44NDY0NTM2Mjg3MgBLfXmYddrdCD1E6qN12t0IJkNJUS5EQjpYQjBULklRX0NMT1NFUFJJQ0UuMjAyNS82LzIuVVNEAQAAANMz3ikCAAAADzIwLjM0MDgwNTEyMjI0NABLfXmYddrdCLGg66N12t0ILENJUS5OQVNEQVFHTTpRUVEuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMzAuVVNEAQAAAA66ewACAAAABjUxOS4xMQBLfXmYddrdCNHIhqR12t0ILUNJUS5OQVNEQVFHTTpBR0lYLklRX0NMT1NFUFJJQ0UuMjAyNS81LzMwLlVTRAEAAAAj9wBwAgAAAAUyOC45NwBLfXmYddrdCNHX7KN12t0ILENJUS5OQVNEQVFHTTpTTUguSVFfQ0xPU0VQUklDRS4yMDI1LzUvMzAuVVNEAQAAAGDCNgACAAAABjIzOS43NQBLfXmYddrdCJVGf6J12t0IKENJUS5CQVRTOklHVi5JUV9DTE9TRVBSSUNFLjIwMjUvNS8zMC5VU0QBAAAAzTqGAAIAAAAGMTAzLjY1AEt9eZh12t0ImluBonXa3QgtQ0lRLk5BU0RBUUdNOkJPVFouSVFfQ0xPU0VQUklDRS4yMDI1LzUvMzAuVVNEAQAAAPf9CBYCAAAABDMwLjkAS315mHXa3Qgzu4KiddrdCCxDSVEuTkFT</t>
-  </si>
-  <si>
-    <t>REFRR006QUlRLklRX0NMT1NFUFJJQ0UuMjAyNS81LzMwLlVTRAEAAADp3GIhAgAAAAQ0MC4zAEt9eZh12t0I0qWJonXa3QgpQ0lRLkFSQ0E6QVJUWS5JUV9DTE9TRVBSSUNFLjIwMjUvNS8zMC5VU0QBAAAAbh9pIQIAAAAFMzYuODIAS315mHXa3QiJWeCjddrdCC1DSVEuTkFTREFRR006Uk9CVC5JUV9DTE9TRVBSSUNFLjIwMjUvNS8zMC5VU0QBAAAAXGPZIAIAAAAFNDQuNTcAS315mHXa3QjzkeGjddrdCClDSVEuQVJDQTpJR1BULklRX0NMT1NFUFJJQ0UuMjAyNS81LzMwLlVTRAEAAADMAl4BAgAAAAU0NC43MQBLfXmYddrdCGNn46N12t0IKUNJUS5CQVRTOldUQUkuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMzAuVVNEAQAAAGBOb2QCAAAABTIyLjA4AEt9eZh12t0IHIvlo3Xa3QgpQ0lRLkFSQ0E6VEhOUS5JUV9DTE9TRVBSSUNFLjIwMjUvNS8zMC5VU0QBAAAArsN+JAIAAAAHNTAuMTYzNwBLfXmYddrdCMD+5qN12t0ILUNJUS5OQVNEQVFHTTpGRFRYLklRX0NMT1NFUFJJQ0UuMjAyNS81LzMwLlVTRAEAAAC9pZ0mAgAAAAczNS40NzEyAEt9eZh12t0IhfPoo3Xa3QgpQ0lRLkFSQ0E6Q0hBVC5JUV9DTE9TRVBSSUNFLjIwMjUvNS8zMC5VU0QBAAAAADA1bQIAAAAFNDEuNzYAS315mHXa3QiuU4akddrdCClDSVEuQVJDQTpMT1VQLklRX0NMT1NFUFJJQ0UuMjAyNS81LzMwLlVTRAEAAABZXA8iAgAAAAc1NC4x</t>
-  </si>
-  <si>
-    <t>NDUxAEt9eZh12t0I0dfso3Xa3QgpQ0lRLkFSQ0E6TFJOWi5JUV9DTE9TRVBSSUNFLjIwMjUvNS8zMC5VU0QBAAAAtXbDJgIAAAAHNDEuMDU5OABLfXmYddrdCJVGf6J12t0IKENJUS5BUkNBOkFJUy5JUV9DTE9TRVBSSUNFLjIwMjUvNS8zMC5VU0QBAAAAmJefcAIAAAAHMjQuMjMyNQBLfXmYddrdCJpbgaJ12t0ILUNJUS5OQVNEQVFHTTpXSVNFLklRX0NMT1NFUFJJQ0UuMjAyNS81LzMwLlVTRAEAAADpsENuAgAAAAczMi42MDQ5AEt9eZh12t0IM7uConXa3QgoQ0lRLkxTRTpSQk9ULklRX0NMT1NFUFJJQ0UuMjAyNS81LzMwLlVTRAEAAACOeyQUAgAAAAUxNC4wNQBLfXmYddrdCBgOhaJ12t0IKUNJUS5YVFJBOlhBSVguSVFfQ0xPU0VQUklDRS4yMDI1LzUvMzAuVVNEAQAAADXs4iICAAAADzE0Ni43NjA0Njc1Mzk5NgBLfXmYddrdCBq8hqJ12t0IKENJUS5CSVQ6V1RBSS5JUV9DTE9TRVBSSUNFLjIwMjUvNS8zMC5VU0QBAAAATbpbIwIAAAAONjQuNDYxNTkwODUzMTQAS315mHXa3QjzkeGjddrdCChDSVEuTFNFOkFJQUcuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMzAuVVNEAQAAAPCdgiQCAAAADjIyLjAwODQwODc5Njg2AEt9eZh12t0IY2fjo3Xa3QgoQ0lRLkFTWDpSQlRaLklRX0NMT1NFUFJJQ0UuMjAyNS81LzMwLlVTRAEAAAAp7XYiAgAAAAs5LjAwODQyOTMxOABLfXmYddrdCByL5aN12t0IJ0NJUS5E</t>
-  </si>
-  <si>
-    <t>QjpYQjBULklRX0NMT1NFUFJJQ0UuMjAyNS81LzMwLlVTRAEAAADTM94pAgAAAA8yMC41NTM3Mjc0NTQ5MTYAS315mHXa3Qif6eajddrdCCxDSVEuTkFTREFRR006UVFRLklRX0NMT1NFUFJJQ0UuMjAyNS81LzI5LlVTRAEAAAAOunsAAgAAAAY1MTkuOTMAS315mHXa3QiF8+ijddrdCC1DSVEuTkFTREFRR006QUdJWC5JUV9DTE9TRVBSSUNFLjIwMjUvNS8yOS5VU0QBAAAAI/cAcAIAAAAFMjguNzIAS315mHXa3Qg9ROqjddrdCCxDSVEuTkFTREFRR006U01ILklRX0NMT1NFUFJJQ0UuMjAyNS81LzI5LlVTRAEAAABgwjYAAgAAAAYyNDQuMDgAS315mHXa3QixoOujddrdCChDSVEuQkFUUzpJR1YuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMjkuVVNEAQAAAM06hgACAAAABjEwMi4zNQBLfXmYddrdCJVGf6J12t0ILUNJUS5OQVNEQVFHTTpCT1RaLklRX0NMT1NFUFJJQ0UuMjAyNS81LzI5LlVTRAEAAAD3/QgWAgAAAAUzMS4zMQBLfXmYddrdCJpbgaJ12t0ILENJUS5OQVNEQVFHTTpBSVEuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMjkuVVNEAQAAAOncYiECAAAABTQwLjQ1AEt9eZh12t0IM7uConXa3QgpQ0lRLkFSQ0E6QVJUWS5JUV9DTE9TRVBSSUNFLjIwMjUvNS8yOS5VU0QBAAAAbh9pIQIAAAAFMzYuODkAS315mHXa3QgYDoWiddrdCC1DSVEuTkFTREFRR006Uk9CVC5JUV9DTE9TRVBSSUNFLjIwMjUvNS8yOS5V</t>
-  </si>
-  <si>
-    <t>U0QBAAAAXGPZIAIAAAAFNDQuODUAS315mHXa3QgavIaiddrdCClDSVEuQVJDQTpJR1BULklRX0NMT1NFUFJJQ0UuMjAyNS81LzI5LlVTRAEAAADMAl4BAgAAAAU0NS4yMgBLfXmYddrdCNKliaJ12t0IKUNJUS5CQVRTOldUQUkuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMjkuVVNEAQAAAGBOb2QCAAAABTIyLjE2AEt9eZh12t0IaDLgo3Xa3QgpQ0lRLkFSQ0E6VEhOUS5JUV9DTE9TRVBSSUNFLjIwMjUvNS8yOS5VU0QBAAAArsN+JAIAAAAHNTAuNjgzNwBLfXmYddrdCKh25aN12t0ILUNJUS5OQVNEQVFHTTpGRFRYLklRX0NMT1NFUFJJQ0UuMjAyNS81LzI5LlVTRAEAAAC9pZ0mAgAAAAUzNS4zNQBLfXmYddrdCJ/p5qN12t0IKUNJUS5BUkNBOkNIQVQuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMjkuVVNEAQAAAAAwNW0CAAAABDQyLjIAS315mHXa3QgmzOijddrdCClDSVEuQVJDQTpMT1VQLklRX0NMT1NFUFJJQ0UuMjAyNS81LzI5LlVTRAEAAABZXA8iAgAAAAc1NC40MDc5AEt9eZh12t0IPUTqo3Xa3QgpQ0lRLkFSQ0E6TFJOWi5JUV9DTE9TRVBSSUNFLjIwMjUvNS8yOS5VU0QBAAAAtXbDJgIAAAAHNDAuOTUxNgBLfXmYddrdCLGg66N12t0IKENJUS5BUkNBOkFJUy5JUV9DTE9TRVBSSUNFLjIwMjUvNS8yOS5VU0QBAAAAmJefcAIAAAAHMjQuNTc1NABLfXmYddrdCCIbhaR12t0ILUNJUS5OQVNEQVFHTTpXSVNF</t>
-  </si>
-  <si>
-    <t>LklRX0NMT1NFUFJJQ0UuMjAyNS81LzI5LlVTRAEAAADpsENuAgAAAAQzMi44AEt9eZh12t0I0dfso3Xa3QgoQ0lRLkxTRTpSQk9ULklRX0NMT1NFUFJJQ0UuMjAyNS81LzI5LlVTRAEAAACOeyQUAgAAAAUxNC4xNQBLfXmYddrdCDO7gqJ12t0IKUNJUS5YVFJBOlhBSVguSVFfQ0xPU0VQUklDRS4yMDI1LzUvMjkuVVNEAQAAADXs4iICAAAADzE0Ni44MjQyMjQ1NDUxOABLfXmYddrdCBgOhaJ12t0IKENJUS5CSVQ6V1RBSS5JUV9DTE9TRVBSSUNFLjIwMjUvNS8yOS5VU0QBAAAATbpbIwIAAAAONjUuNjUxNjMwNTA3ODIAS315mHXa3QgavIaiddrdCChDSVEuTFNFOkFJQUcuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMjkuVVNEAQAAAPCdgiQCAAAADjIyLjMzMDQzNzU5OTI1AEt9eZh12t0I0qWJonXa3QgoQ0lRLkFTWDpSQlRaLklRX0NMT1NFUFJJQ0UuMjAyNS81LzI5LlVTRAEAAAAp7XYiAgAAAA05LjE1NzY5ODAwNDQ5AEt9eZh12t0IaDLgo3Xa3QgnQ0lRLkRCOlhCMFQuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMjkuVVNEAQAAANMz3ikCAAAADzIwLjk0NzYxOTU5MjI4NABLfXmYddrdCPOR4aN12t0ILENJUS5OQVNEQVFHTTpRUVEuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMjguVVNEAQAAAA66ewACAAAABjUxOC45MQBLfXmYddrdCGNn46N12t0ILUNJUS5OQVNEQVFHTTpBR0lYLklRX0NMT1NFUFJJQ0UuMjAy</t>
-  </si>
-  <si>
-    <t>NS81LzI4LlVTRAEAAAAj9wBwAgAAAAUyOS4wNQBLfXmYddrdCCbM6KN12t0ILENJUS5OQVNEQVFHTTpTTUguSVFfQ0xPU0VQUklDRS4yMDI1LzUvMjguVVNEAQAAAGDCNgACAAAABjI0Mi4zNgBLfXmYddrdCO8c6qN12t0IKENJUS5CQVRTOklHVi5JUV9DTE9TRVBSSUNFLjIwMjUvNS8yOC5VU0QBAAAAzTqGAAIAAAAGMTAzLjA4AEt9eZh12t0IsaDro3Xa3QgtQ0lRLk5BU0RBUUdNOkJPVFouSVFfQ0xPU0VQUklDRS4yMDI1LzUvMjguVVNEAQAAAPf9CBYCAAAABTMxLjA4AEt9eZh12t0IRpTto3Xa3QgsQ0lRLk5BU0RBUUdNOkFJUS5JUV9DTE9TRVBSSUNFLjIwMjUvNS8yOC5VU0QBAAAA6dxiIQIAAAAFNDAuNTIAS315mHXa3QjR1+yjddrdCClDSVEuQVJDQTpBUlRZLklRX0NMT1NFUFJJQ0UuMjAyNS81LzI4LlVTRAEAAABuH2khAgAAAAUzNi45MQBLfXmYddrdCJVGf6J12t0ILUNJUS5OQVNEQVFHTTpST0JULklRX0NMT1NFUFJJQ0UuMjAyNS81LzI4LlVTRAEAAABcY9kgAgAAAAU0NC43NQBLfXmYddrdCJpbgaJ12t0IKUNJUS5BUkNBOklHUFQuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMjguVVNEAQAAAMwCXgECAAAABTQ1LjE0AEt9eZh12t0IGryGonXa3QgpQ0lRLkJBVFM6V1RBSS5JUV9DTE9TRVBSSUNFLjIwMjUvNS8yOC5VU0QBAAAAYE5vZAIAAAAFMjIuMzUAS315mHXa3QjNfomiddrdCClDSVEu</t>
-  </si>
-  <si>
-    <t>QVJDQTpUSE5RLklRX0NMT1NFUFJJQ0UuMjAyNS81LzI4LlVTRAEAAACuw34kAgAAAAc1MC44NjUyAEt9eZh12t0IaDLgo3Xa3QgtQ0lRLk5BU0RBUUdNOkZEVFguSVFfQ0xPU0VQUklDRS4yMDI1LzUvMjguVVNEAQAAAL2lnSYCAAAABzM1LjU0NjcAS315mHXa3QjzkeGjddrdCClDSVEuQVJDQTpDSEFULklRX0NMT1NFUFJJQ0UuMjAyNS81LzI4LlVTRAEAAAAAMDVtAgAAAAc0Mi40NzA5AACTeZh12t0IY2fjo3Xa3QgpQ0lRLkFSQ0E6TE9VUC5JUV9DTE9TRVBSSUNFLjIwMjUvNS8yOC5VU0QBAAAAWVwPIgIAAAAHNTQuODYxNwAAk3mYddrdCKh25aN12t0IKUNJUS5BUkNBOkxSTlouSVFfQ0xPU0VQUklDRS4yMDI1LzUvMjguVVNEAQAAALV2wyYCAAAABzQxLjE1NzMAAJN5mHXa3Qif6eajddrdCChDSVEuQVJDQTpBSVMuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMjguVVNEAQAAAJiXn3ACAAAABzI0Ljc1OTkAAJN5mHXa3QixoOujddrdCC1DSVEuTkFTREFRR006V0lTRS5JUV9DTE9TRVBSSUNFLjIwMjUvNS8yOC5VU0QBAAAA6bBDbgIAAAAHMzIuNzUzNAAAk3mYddrdCH+ri6R12t0IKENJUS5MU0U6UkJPVC5JUV9DTE9TRVBSSUNFLjIwMjUvNS8yOC5VU0QBAAAAjnskFAIAAAAFMTQuMTYAAJN5mHXa3QjR1+yjddrdCClDSVEuWFRSQTpYQUlYLklRX0NMT1NFUFJJQ0UuMjAyNS81LzI4LlVTRAEAAAA17OIi</t>
-  </si>
-  <si>
-    <t>AgAAAA4xNDcuNDM2MTg3MDgzNQAAk3mYddrdCJVGf6J12t0IKENJUS5CSVQ6V1RBSS5JUV9DTE9TRVBSSUNFLjIwMjUvNS8yOC5VU0QBAAAATbpbIwIAAAAONjUuNTQwOTk4NDQwNzUAAJN5mHXa3QiaW4GiddrdCChDSVEuTFNFOkFJQUcuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMjguVVNEAQAAAPCdgiQCAAAADzIyLjQzMjU5OTg2MjQ3NAAAk3mYddrdCDO7gqJ12t0IKENJUS5BU1g6UkJUWi5JUV9DTE9TRVBSSUNFLjIwMjUvNS8yOC5VU0QBAAAAKe12IgIAAAANOC45NDMyNDYwMjEyMgAAk3mYddrdCBgOhaJ12t0IJ0NJUS5EQjpYQjBULklRX0NMT1NFUFJJQ0UuMjAyNS81LzI4LlVTRAEAAADTM94pAgAAAA0yMC40NTYyOTA5NDg4AACTeZh12t0IaDLgo3Xa3QgsQ0lRLk5BU0RBUUdNOlFRUS5JUV9DTE9TRVBSSUNFLjIwMjUvNS8yNy5VU0QBAAAADrp7AAIAAAAGNTIxLjIyAACTeZh12t0I85Hho3Xa3QgtQ0lRLk5BU0RBUUdNOkFHSVguSVFfQ0xPU0VQUklDRS4yMDI1LzUvMjcuVVNEAQAAACP3AHACAAAABTI5LjI3AACTeZh12t0IY2fjo3Xa3QgsQ0lRLk5BU0RBUUdNOlNNSC5JUV9DTE9TRVBSSUNFLjIwMjUvNS8yNy5VU0QBAAAAYMI2AAIAAAAGMjQ0Ljk3AACTeZh12t0IqHblo3Xa3QgoQ0lRLkJBVFM6SUdWLklRX0NMT1NFUFJJQ0UuMjAyNS81LzI3LlVTRAEAAADNOoYAAgAAAAUxMDMuOAAAk3mY</t>
-  </si>
-  <si>
-    <t>ddrdCJ/p5qN12t0ILUNJUS5OQVNEQVFHTTpCT1RaLklRX0NMT1NFUFJJQ0UuMjAyNS81LzI3LlVTRAEAAAD3/QgWAgAAAAUzMS41MQAAk3mYddrdCCbM6KN12t0ILENJUS5OQVNEQVFHTTpBSVEuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMjcuVVNEAQAAAOncYiECAAAABTQwLjc5AACTeZh12t0I7xzqo3Xa3QgpQ0lRLkFSQ0E6QVJUWS5JUV9DTE9TRVBSSUNFLjIwMjUvNS8yNy5VU0QBAAAAbh9pIQIAAAAFMzcuMTQAAJN5mHXa3QjR1+yjddrdCC1DSVEuTkFTREFRR006Uk9CVC5JUV9DTE9TRVBSSUNFLjIwMjUvNS8yNy5VU0QBAAAAXGPZIAIAAAAFNDUuMzgAAJN5mHXa3QiVRn+iddrdCClDSVEuQVJDQTpJR1BULklRX0NMT1NFUFJJQ0UuMjAyNS81LzI3LlVTRAEAAADMAl4BAgAAAAU0NS41NAAAk3mYddrdCKk0gaJ12t0IKUNJUS5CQVRTOldUQUkuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMjcuVVNEAQAAAGBOb2QCAAAABTIyLjU2AACTeZh12t0IM7uConXa3QgpQ0lRLkFSQ0E6VEhOUS5JUV9DTE9TRVBSSUNFLjIwMjUvNS8yNy5VU0QBAAAArsN+JAIAAAAHNTEuMTQ2MgAAk3mYddrdCBgOhaJ12t0ILUNJUS5OQVNEQVFHTTpGRFRYLklRX0NMT1NFUFJJQ0UuMjAyNS81LzI3LlVTRAEAAAC9pZ0mAgAAAAUzNS42NQAAk3mYddrdCBaVhqJ12t0IKUNJUS5BUkNBOkNIQVQuSVFfQ0xPU0VQUklDRS4yMDI1LzUv</t>
-  </si>
-  <si>
-    <t>MjcuVVNEAQAAAAAwNW0CAAAABTQyLjY4AACTeZh12t0IzX6JonXa3QgpQ0lRLkFSQ0E6TE9VUC5JUV9DTE9TRVBSSUNFLjIwMjUvNS8yNy5VU0QBAAAAWVwPIgIAAAAHNTQuOTQ3MwAAk3mYddrdCGNn46N12t0IKUNJUS5BUkNBOkxSTlouSVFfQ0xPU0VQUklDRS4yMDI1LzUvMjcuVVNEAQAAALV2wyYCAAAABzQxLjQ4MjUAAJN5mHXa3QioduWjddrdCChDSVEuQVJDQTpBSVMuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMjcuVVNEAQAAAJiXn3ACAAAABzI0Ljc4NzcAAJN5mHXa3Qif6eajddrdCC1DSVEuTkFTREFRR006V0lTRS5JUV9DTE9TRVBSSUNFLjIwMjUvNS8yNy5VU0QBAAAA6bBDbgIAAAAGMzMuMDQ1AACTeZh12t0IJszoo3Xa3QgoQ0lRLkxTRTpSQk9ULklRX0NMT1NFUFJJQ0UuMjAyNS81LzI3LlVTRAEAAACOeyQUAgAAAAQxNC4yAACTeZh12t0I7xzqo3Xa3QgpQ0lRLlhUUkE6WEFJWC5JUV9DTE9TRVBSSUNFLjIwMjUvNS8yNy5VU0QBAAAANeziIgIAAAAPMTQ3LjM4MTU0NjE1NjI0AACTeZh12t0IsaDro3Xa3QgoQ0lRLkJJVDpXVEFJLklRX0NMT1NFUFJJQ0UuMjAyNS81LzI3LlVTRAEAAABNulsjAgAAAA42NS43Nzg3MzQ5OTAzNgAAk3mYddrdCO8Wh6R12t0IKENJUS5MU0U6QUlBRy5JUV9DTE9TRVBSSUNFLjIwMjUvNS8yNy5VU0QBAAAA8J2CJAIAAAAPMjIuNTQ0NjczMDIxNzAyAACTeZh1</t>
-  </si>
-  <si>
-    <t>2t0IqTSBonXa3QgoQ0lRLkFTWDpSQlRaLklRX0NMT1NFUFJJQ0UuMjAyNS81LzI3LlVTRAEAAAAp7XYiAgAAAAw4Ljg2MTk4MjM1MDQAAJN5mHXa3Qgzu4KiddrdCCdDSVEuREI6WEIwVC5JUV9DTE9TRVBSSUNFLjIwMjUvNS8yNy5VU0QBAAAA0zPeKQIAAAAOMjAuNDE0ODcxOTE0MTIAAJN5mHXa3QgYDoWiddrdCCxDSVEuTkFTREFRR006UVFRLklRX0NMT1NFUFJJQ0UuMjAyNS81LzIzLlVTRAEAAAAOunsAAgAAAAY1MDkuMjQAAJN5mHXa3QgWlYaiddrdCC1DSVEuTkFTREFRR006QUdJWC5JUV9DTE9TRVBSSUNFLjIwMjUvNS8yMy5VU0QBAAAAI/cAcAIAAAAEMjguNQAAk3mYddrdCM1+iaJ12t0ILENJUS5OQVNEQVFHTTpTTUguSVFfQ0xPU0VQUklDRS4yMDI1LzUvMjMuVVNEAQAAAGDCNgACAAAABjIzNy40NAAAk3mYddrdCGgy4KN12t0IKENJUS5CQVRTOklHVi5JUV9DTE9TRVBSSUNFLjIwMjUvNS8yMy5VU0QBAAAAzTqGAAIAAAAGMTAxLjkzAACTeZh12t0I85Hho3Xa3QgtQ0lRLk5BU0RBUUdNOkJPVFouSVFfQ0xPU0VQUklDRS4yMDI1LzUvMjMuVVNEAQAAAPf9CBYCAAAABTMwLjU3AACTeZh12t0IBtXmo3Xa3QgsQ0lRLk5BU0RBUUdNOkFJUS5JUV9DTE9TRVBSSUNFLjIwMjUvNS8yMy5VU0QBAAAA6dxiIQIAAAAFMzkuOTUAAJN5mHXa3QgmzOijddrdCClDSVEuQVJDQTpBUlRZLklRX0NMT1NF</t>
-  </si>
-  <si>
-    <t>UFJJQ0UuMjAyNS81LzIzLlVTRAEAAABuH2khAgAAAAUzNi4xNAAAk3mYddrdCO8c6qN12t0ILUNJUS5OQVNEQVFHTTpST0JULklRX0NMT1NFUFJJQ0UuMjAyNS81LzIzLlVTRAEAAABcY9kgAgAAAAU0NC4yMQAAk3mYddrdCLGg66N12t0IKUNJUS5BUkNBOklHUFQuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMjMuVVNEAQAAAMwCXgECAAAABTQ0LjQ5AACTeZh12t0If6uLpHXa3QgpQ0lRLkJBVFM6V1RBSS5JUV9DTE9TRVBSSUNFLjIwMjUvNS8yMy5VU0QBAAAAYE5vZAIAAAAFMjIuMDEAAJN5mHXa3QjR1+yjddrdCClDSVEuQVJDQTpUSE5RLklRX0NMT1NFUFJJQ0UuMjAyNS81LzIzLlVTRAEAAACuw34kAgAAAAc1MC4yNzI1AACTeZh12t0I1Qp/onXa3QgtQ0lRLk5BU0RBUUdNOkZEVFguSVFfQ0xPU0VQUklDRS4yMDI1LzUvMjMuVVNEAQAAAL2lnSYCAAAABzM0Ljk5NDQAAJN5mHXa3Qh++YSiddrdCClDSVEuQVJDQTpDSEFULklRX0NMT1NFUFJJQ0UuMjAyNS81LzIzLlVTRAEAAAAAMDVtAgAAAAU0MS40OAAAk3mYddrdCBaVhqJ12t0IKUNJUS5BUkNBOkxPVVAuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMjMuVVNEAQAAAFlcDyICAAAABzUzLjc1MjIAAJN5mHXa3QjNfomiddrdCClDSVEuQVJDQTpMUk5aLklRX0NMT1NFUFJJQ0UuMjAyNS81LzIzLlVTRAEAAAC1dsMmAgAAAAc0MC41Njk3AACTeZh12t0IaDLg</t>
-  </si>
-  <si>
-    <t>o3Xa3QgoQ0lRLkFSQ0E6QUlTLklRX0NMT1NFUFJJQ0UuMjAyNS81LzIzLlVTRAEAAACYl59wAgAAAAYyNC4wOTUAAJN5mHXa3QjvauGjddrdCC1DSVEuTkFTREFRR006V0lTRS5JUV9DTE9TRVBSSUNFLjIwMjUvNS8yMy5VU0QBAAAA6bBDbgIAAAAHMzEuOTAzNAAAk3mYddrdCGNn46N12t0IKENJUS5MU0U6UkJPVC5JUV9DTE9TRVBSSUNFLjIwMjUvNS8yMy5VU0QBAAAAjnskFAIAAAAFMTMuOTIAAJN5mHXa3QioduWjddrdCClDSVEuWFRSQTpYQUlYLklRX0NMT1NFUFJJQ0UuMjAyNS81LzIzLlVTRAEAAAA17OIiAgAAAA8xNDQuODAzMzU0ODE1MTIAAJN5mHXa3QjvHOqjddrdCChDSVEuQklUOldUQUkuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMjMuVVNEAQAAAE26WyMCAAAADjYzLjk4MDUwNTQ3MzY1AACTeZh12t0IsaDro3Xa3QgoQ0lRLkxTRTpBSUFHLklRX0NMT1NFUFJJQ0UuMjAyNS81LzIzLlVTRAEAAADwnYIkAgAAAA8yMi4wNDM0NjA2NDk1ODQAAJN5mHXa3QgXNoukddrdCChDSVEuQVNYOlJCVFouSVFfQ0xPU0VQUklDRS4yMDI1LzUvMjMuVVNEAQAAACntdiICAAAADTguODg5NjA4Mjk0MjUAAJN5mHXa3QjR1+yjddrdCCdDSVEuREI6WEIwVC5JUV9DTE9TRVBSSUNFLjIwMjUvNS8yMy5VU0QBAAAA0zPeKQIAAAAPMjAuMjA2Mjc5MDM2MDM2AACTeZh12t0I1Qp/onXa3QgsQ0lRLk5BU0RBUUdN</t>
-  </si>
-  <si>
-    <t>OlFRUS5JUV9DTE9TRVBSSUNFLjIwMjUvNS8yMi5VU0QBAAAADrp7AAIAAAADNTE0AACTeZh12t0IqTSBonXa3QgtQ0lRLk5BU0RBUUdNOkFHSVguSVFfQ0xPU0VQUklDRS4yMDI1LzUvMjIuVVNEAQAAACP3AHACAAAABTI4LjgzAACTeZh12t0IHJSConXa3QgsQ0lRLk5BU0RBUUdNOlNNSC5JUV9DTE9TRVBSSUNFLjIwMjUvNS8yMi5VU0QBAAAAYMI2AAIAAAAGMjQwLjgxAACTeZh12t0IzX6JonXa3QgoQ0lRLkJBVFM6SUdWLklRX0NMT1NFUFJJQ0UuMjAyNS81LzIyLlVTRAEAAADNOoYAAgAAAAYxMDIuNzEAAJN5mHXa3QhoMuCjddrdCC1DSVEuTkFTREFRR006Qk9UWi5JUV9DTE9TRVBSSUNFLjIwMjUvNS8yMi5VU0QBAAAA9/0IFgIAAAAFMzAuNzUAAJN5mHXa3QjvauGjddrdCCxDSVEuTkFTREFRR006QUlRLklRX0NMT1NFUFJJQ0UuMjAyNS81LzIyLlVTRAEAAADp3GIhAgAAAAQ0MC4zAACTeZh12t0Ig0Djo3Xa3QgpQ0lRLkFSQ0E6QVJUWS5JUV9DTE9TRVBSSUNFLjIwMjUvNS8yMi5VU0QBAAAAbh9pIQIAAAAFMzYuMzYAAJN5mHXa3Qg6YuWjddrdCC1DSVEuTkFTREFRR006Uk9CVC5JUV9DTE9TRVBSSUNFLjIwMjUvNS8yMi5VU0QBAAAAXGPZIAIAAAAFNDQuNTcAAJN5mHXa3QgG1eajddrdCClDSVEuQVJDQTpJR1BULklRX0NMT1NFUFJJQ0UuMjAyNS81LzIyLlVTRAEAAADMAl4BAgAAAAU0NC45</t>
-  </si>
-  <si>
-    <t>MQAAk3mYddrdCCbM6KN12t0IKUNJUS5CQVRTOldUQUkuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMjIuVVNEAQAAAGBOb2QCAAAABTIyLjIxAACTeZh12t0IDZqKpHXa3QgpQ0lRLkFSQ0E6VEhOUS5JUV9DTE9TRVBSSUNFLjIwMjUvNS8yMi5VU0QBAAAArsN+JAIAAAAFNTAuMzUAAJN5mHXa3QjR1+yjddrdCC1DSVEuTkFTREFRR006RkRUWC5JUV9DTE9TRVBSSUNFLjIwMjUvNS8yMi5VU0QBAAAAvaWdJgIAAAAFMzUuMjQAAJN5mHXa3QjVCn+iddrdCClDSVEuQVJDQTpDSEFULklRX0NMT1NFUFJJQ0UuMjAyNS81LzIyLlVTRAEAAAAAMDVtAgAAAAU0MS43MQAAk3mYddrdCKk0gaJ12t0IKUNJUS5BUkNBOkxPVVAuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMjIuVVNEAQAAAFlcDyICAAAABzUzLjgyNDcAAJN5mHXa3QgclIKiddrdCClDSVEuQVJDQTpMUk5aLklRX0NMT1NFUFJJQ0UuMjAyNS81LzIyLlVTRAEAAAC1dsMmAgAAAAc0MC42ODc0AACTeZh12t0IfvmEonXa3QgoQ0lRLkFSQ0E6QUlTLklRX0NMT1NFUFJJQ0UuMjAyNS81LzIyLlVTRAEAAACYl59wAgAAAAcyNC4zMDg4AACTeZh12t0IFpWGonXa3QgtQ0lRLk5BU0RBUUdNOldJU0UuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMjIuVVNEAQAAAOmwQ24CAAAABTMyLjE3AACTeZh12t0I72rho3Xa3QgoQ0lRLkxTRTpSQk9ULklRX0NMT1NFUFJJQ0UuMjAyNS81</t>
-  </si>
-  <si>
-    <t>LzIyLlVTRAEAAACOeyQUAgAAAAUxNC4xMgAAk3mYddrdCINA46N12t0IKUNJUS5YVFJBOlhBSVguSVFfQ0xPU0VQUklDRS4yMDI1LzUvMjIuVVNEAQAAADXs4iICAAAADzE0Ni4zMTYxNDU3Mjc0NAAAk3mYddrdCDpi5aN12t0IKENJUS5CSVQ6V1RBSS5JUV9DTE9TRVBSSUNFLjIwMjUvNS8yMi5VU0QBAAAATbpbIwIAAAAONjUuMDAwNTY0MTIyMTMAAJN5mHXa3QgG1eajddrdCChDSVEuTFNFOkFJQUcuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMjIuVVNEAQAAAPCdgiQCAAAADzIyLjMwMTE0Mzk4NDQ3OQAAk3mYddrdCCbM6KN12t0IKENJUS5BU1g6UkJUWi5JUV9DTE9TRVBSSUNFLjIwMjUvNS8yMi5VU0QBAAAAKe12IgIAAAAMOC43NjI1ODkwMDE5AACTeZh12t0I7xzqo3Xa3QgnQ0lRLkRCOlhCMFQuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMjIuVVNEAQAAANMz3ikCAAAADzIwLjEyNjM2ODA0MDQ1NAAAk3mYddrdCLGg66N12t0ILENJUS5OQVNEQVFHTTpRUVEuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMjEuVVNEAQAAAA66ewACAAAABjUxMy4wNAAAk3mYddrdCNUKf6J12t0ILUNJUS5OQVNEQVFHTTpBR0lYLklRX0NMT1NFUFJJQ0UuMjAyNS81LzIxLlVTRAEAAAAj9wBwAgAAAAUyOC43MQAAk3mYddrdCKk0gaJ12t0ILENJUS5OQVNEQVFHTTpTTUguSVFfQ0xPU0VQUklDRS4yMDI1LzUvMjEuVVNEAQAAAGDC</t>
-  </si>
-  <si>
-    <t>NgACAAAABjI0MS40NwAAk3mYddrdCByUgqJ12t0IKENJUS5CQVRTOklHVi5JUV9DTE9TRVBSSUNFLjIwMjUvNS8yMS5VU0QBAAAAzTqGAAIAAAAGMTAyLjE3AACTeZh12t0IfvmEonXa3QgtQ0lRLk5BU0RBUUdNOkJPVFouSVFfQ0xPU0VQUklDRS4yMDI1LzUvMjEuVVNEAQAAAPf9CBYCAAAABTMwLjY2AACTeZh12t0IFpWGonXa3QgsQ0lRLk5BU0RBUUdNOkFJUS5JUV9DTE9TRVBSSUNFLjIwMjUvNS8yMS5VU0QBAAAA6dxiIQIAAAAFNDAuMjIAAJN5mHXa3QjNfomiddrdCClDSVEuQVJDQTpBUlRZLklRX0NMT1NFUFJJQ0UuMjAyNS81LzIxLlVTRAEAAABuH2khAgAAAAUzNi4xMgAAk3mYddrdCF8L4KN12t0ILUNJUS5OQVNEQVFHTTpST0JULklRX0NMT1NFUFJJQ0UuMjAyNS81LzIxLlVTRAEAAABcY9kgAgAAAAU0NC4yNQAAk3mYddrdCDpi5aN12t0IKUNJUS5BUkNBOklHUFQuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMjEuVVNEAQAAAMwCXgECAAAABTQ0Ljg4AACTeZh12t0IBtXmo3Xa3QgpQ0lRLkJBVFM6V1RBSS5JUV9DTE9TRVBSSUNFLjIwMjUvNS8yMS5VU0QBAAAAYE5vZAIAAAAHMjEuOTE1NgAAk3mYddrdCCbM6KN12t0IKUNJUS5BUkNBOlRITlEuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMjEuVVNEAQAAAK7DfiQCAAAABjUwLjQzNQAAk3mYddrdCO8c6qN12t0ILUNJUS5OQVNEQVFHTTpGRFRYLklR</t>
-  </si>
-  <si>
-    <t>X0NMT1NFUFJJQ0UuMjAyNS81LzIxLlVTRAEAAAC9pZ0mAgAAAAczNS4xMzUzAACTeZh12t0IsaDro3Xa3QgpQ0lRLkFSQ0E6Q0hBVC5JUV9DTE9TRVBSSUNFLjIwMjUvNS8yMS5VU0QBAAAAADA1bQIAAAAFNDEuNzQAAJN5mHXa3Qi+S4qkddrdCClDSVEuQVJDQTpMT1VQLklRX0NMT1NFUFJJQ0UuMjAyNS81LzIxLlVTRAEAAABZXA8iAgAAAAc1My4wMzg5AACTeZh12t0I0dfso3Xa3QgpQ0lRLkFSQ0E6TFJOWi5JUV9DTE9TRVBSSUNFLjIwMjUvNS8yMS5VU0QBAAAAtXbDJgIAAAAFMzkuOTEAAJN5mHXa3QgclIKiddrdCChDSVEuQVJDQTpBSVMuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMjEuVVNEAQAAAJiXn3ACAAAABzI0LjAyODIAAJN5mHXa3Qh++YSiddrdCC1DSVEuTkFTREFRR006V0lTRS5JUV9DTE9TRVBSSUNFLjIwMjUvNS8yMS5VU0QBAAAA6bBDbgIAAAAFMzEuODMAAJN5mHXa3QgWlYaiddrdCChDSVEuTFNFOlJCT1QuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMjEuVVNEAQAAAI57JBQCAAAABTE0LjIzAACTeZh12t0IzX6JonXa3QgpQ0lRLlhUUkE6WEFJWC5JUV9DTE9TRVBSSUNFLjIwMjUvNS8yMS5VU0QBAAAANeziIgIAAAAOMTQ3LjQzMTY4MTYwODIAAJN5mHXa3QhfC+CjddrdCChDSVEuQklUOldUQUkuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMjEuVVNEAQAAAE26WyMCAAAADTY2LjA3MzI1MDk0</t>
-  </si>
-  <si>
-    <t>MDcAAJN5mHXa3QjvauGjddrdCChDSVEuTFNFOkFJQUcuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMjEuVVNEAQAAAPCdgiQCAAAADzIyLjU1NTc1NDIwNjE2NwAAk3mYddrdCINA46N12t0IKENJUS5BU1g6UkJUWi5JUV9DTE9TRVBSSUNFLjIwMjUvNS8yMS5VU0QBAAAAKe12IgIAAAAMOC45MjA0OTEyNzE4AACTeZh12t0IMKToo3Xa3QgnQ0lRLkRCOlhCMFQuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMjEuVVNEAQAAANMz3ikCAAAADjIwLjM3NDE5MjA4Njg4AACTeZh12t0I7xzqo3Xa3QgsQ0lRLk5BU0RBUUdNOlFRUS5JUV9DTE9TRVBSSUNFLjIwMjUvNS8yMC5VU0QBAAAADrp7AAIAAAAGNTIwLjI3AACTeZh12t0IsaDro3Xa3QgtQ0lRLk5BU0RBUUdNOkFHSVguSVFfQ0xPU0VQUklDRS4yMDI1LzUvMjAuVVNEAQAAACP3AHACAAAABTI5LjE5AACTeZh12t0IvdaJpHXa3QgsQ0lRLk5BU0RBUUdNOlNNSC5JUV9DTE9TRVBSSUNFLjIwMjUvNS8yMC5VU0QBAAAAYMI2AAIAAAAGMjQ1LjU0AACTeZh12t0I5Zjso3Xa3QgoQ0lRLkJBVFM6SUdWLklRX0NMT1NFUFJJQ0UuMjAyNS81LzIwLlVTRAEAAADNOoYAAgAAAAYxMDQuNjkAAJN5mHXa3QjVCn+iddrdCC1DSVEuTkFTREFRR006Qk9UWi5JUV9DTE9TRVBSSUNFLjIwMjUvNS8yMC5VU0QBAAAA9/0IFgIAAAAFMzEuMTkAAJN5mHXa3QipNIGiddrdCCxDSVEuTkFT</t>
-  </si>
-  <si>
-    <t>REFRR006QUlRLklRX0NMT1NFUFJJQ0UuMjAyNS81LzIwLlVTRAEAAADp3GIhAgAAAAU0MC43MgAAk3mYddrdCBaVhqJ12t0IKUNJUS5BUkNBOkFSVFkuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMjAuVVNEAQAAAG4faSECAAAABTM2Ljc4AACTeZh12t0IzX6JonXa3QgtQ0lRLk5BU0RBUUdNOlJPQlQuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMjAuVVNEAQAAAFxj2SACAAAABTQ1LjMzAACTeZh12t0IXwvgo3Xa3QgpQ0lRLkFSQ0E6SUdQVC5JUV9DTE9TRVBSSUNFLjIwMjUvNS8yMC5VU0QBAAAAzAJeAQIAAAAFNDUuNDgAAJN5mHXa3QjvauGjddrdCClDSVEuQkFUUzpXVEFJLklRX0NMT1NFUFJJQ0UuMjAyNS81LzIwLlVTRAEAAABgTm9kAgAAAAQyMi4zAACTeZh12t0Ig0Djo3Xa3QgpQ0lRLkFSQ0E6VEhOUS5JUV9DTE9TRVBSSUNFLjIwMjUvNS8yMC5VU0QBAAAArsN+JAIAAAAFNTEuMzMAAJN5mHXa3Qg6YuWjddrdCC1DSVEuTkFTREFRR006RkRUWC5JUV9DTE9TRVBSSUNFLjIwMjUvNS8yMC5VU0QBAAAAvaWdJgIAAAAFMzUuNjQAAJN5mHXa3Qh6v+ajddrdCClDSVEuQVJDQTpDSEFULklRX0NMT1NFUFJJQ0UuMjAyNS81LzIwLlVTRAEAAAAAMDVtAgAAAAU0MS43MgAAk3mYddrdCLGg66N12t0IKUNJUS5BUkNBOkxPVVAuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMjAuVVNEAQAAAFlcDyICAAAABzU0LjA0ODIA</t>
-  </si>
-  <si>
-    <t>AJN5mHXa3Qi5EomkddrdCClDSVEuQVJDQTpMUk5aLklRX0NMT1NFUFJJQ0UuMjAyNS81LzIwLlVTRAEAAAC1dsMmAgAAAAU0MC42NwAAk3mYddrdCOWY7KN12t0IKENJUS5BUkNBOkFJUy5JUV9DTE9TRVBSSUNFLjIwMjUvNS8yMC5VU0QBAAAAmJefcAIAAAAGMjQuNDc1AACTeZh12t0I1Qp/onXa3QgtQ0lRLk5BU0RBUUdNOldJU0UuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMjAuVVNEAQAAAOmwQ24CAAAABTMyLjQzAACTeZh12t0IqTSBonXa3QgoQ0lRLkxTRTpSQk9ULklRX0NMT1NFUFJJQ0UuMjAyNS81LzIwLlVTRAEAAACOeyQUAgAAAAYxNC4yMzUAAJN5mHXa3QgclIKiddrdCClDSVEuWFRSQTpYQUlYLklRX0NMT1NFUFJJQ0UuMjAyNS81LzIwLlVTRAEAAAA17OIiAgAAAA8xNDcuMjQxNjEyMjE5NzgAAJN5mHXa3Qjg5ISiddrdCChDSVEuQklUOldUQUkuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMjAuVVNEAQAAAE26WyMCAAAADTY1Ljk3NjEzMTQ4ODYAAJN5mHXa3QhfC+CjddrdCChDSVEuTFNFOkFJQUcuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMjAuVVNEAQAAAPCdgiQCAAAADzIyLjU5OTc5MTQ1MjM5NgAAk3mYddrdCO9q4aN12t0IKENJUS5BU1g6UkJUWi5JUV9DTE9TRVBSSUNFLjIwMjUvNS8yMC5VU0QBAAAAKe12IgIAAAAGOC44ODMyAACTeZh12t0Ig0Djo3Xa3QgnQ0lRLkRCOlhCMFQuSVFfQ0xP</t>
-  </si>
-  <si>
-    <t>U0VQUklDRS4yMDI1LzUvMjAuVVNEAQAAANMz3ikCAAAADzIwLjM0MjI2NTI1MTQ2OAAAk3mYddrdCMZN5aN12t0ILENJUS5OQVNEQVFHTTpRUVEuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMTkuVVNEAQAAAA66ewACAAAABjUyMi4wMQAAk3mYddrdCHq/5qN12t0ILUNJUS5OQVNEQVFHTTpBR0lYLklRX0NMT1NFUFJJQ0UuMjAyNS81LzE5LlVTRAEAAAAj9wBwAgAAAAUyOS4yMQAAk3mYddrdCDCk6KN12t0ILENJUS5OQVNEQVFHTTpTTUguSVFfQ0xPU0VQUklDRS4yMDI1LzUvMTkuVVNEAQAAAGDCNgACAAAABjI0Ni4wMQAAk3mYddrdCH8M6qN12t0IKENJUS5CQVRTOklHVi5JUV9DTE9TRVBSSUNFLjIwMjUvNS8xOS5VU0QBAAAAzTqGAAIAAAAGMTA0Ljk0AACTeZh12t0I5Zjso3Xa3QgtQ0lRLk5BU0RBUUdNOkJPVFouSVFfQ0xPU0VQUklDRS4yMDI1LzUvMTkuVVNEAQAAAPf9CBYCAAAABTMwLjk5AACTeZh12t0I1Qp/onXa3QgsQ0lRLk5BU0RBUUdNOkFJUS5JUV9DTE9TRVBSSUNFLjIwMjUvNS8xOS5VU0QBAAAA6dxiIQIAAAAFNDAuODgAAJN5mHXa3QipNIGiddrdCClDSVEuQVJDQTpBUlRZLklRX0NMT1NFUFJJQ0UuMjAyNS81LzE5LlVTRAEAAABuH2khAgAAAAUzNi44MgAAk3mYddrdCByUgqJ12t0ILUNJUS5OQVNEQVFHTTpST0JULklRX0NMT1NFUFJJQ0UuMjAyNS81LzE5LlVTRAEAAABcY9kgAgAA</t>
-  </si>
-  <si>
-    <t>AAU0NS4wNgAAk3mYddrdCODkhKJ12t0IKUNJUS5BUkNBOklHUFQuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMTkuVVNEAQAAAMwCXgECAAAABTQ1LjY1AACTeZh12t0IIG6GonXa3QgpQ0lRLkJBVFM6V1RBSS5JUV9DTE9TRVBSSUNFLjIwMjUvNS8xOS5VU0QBAAAAYE5vZAIAAAAEMjIuMgAAk3mYddrdCM1+iaJ12t0IKUNJUS5BUkNBOlRITlEuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMTkuVVNEAQAAAK7DfiQCAAAABzUxLjM1OTYAAJN5mHXa3QiDQOOjddrdCC1DSVEuTkFTREFRR006RkRUWC5JUV9DTE9TRVBSSUNFLjIwMjUvNS8xOS5VU0QBAAAAvaWdJgIAAAAFMzUuODYAAJN5mHXa3QjGTeWjddrdCClDSVEuQVJDQTpDSEFULklRX0NMT1NFUFJJQ0UuMjAyNS81LzE5LlVTRAEAAAAAMDVtAgAAAAU0MS43MwAAk3mYddrdCHq/5qN12t0IKUNJUS5BUkNBOkxPVVAuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMTkuVVNEAQAAAFlcDyICAAAABzUzLjkyMTYAAJN5mHXa3QgwpOijddrdCClDSVEuQVJDQTpMUk5aLklRX0NMT1NFUFJJQ0UuMjAyNS81LzE5LlVTRAEAAAC1dsMmAgAAAAU0MC44MwAAk3mYddrdCH8M6qN12t0IKENJUS5BUkNBOkFJUy5JUV9DTE9TRVBSSUNFLjIwMjUvNS8xOS5VU0QBAAAAmJefcAIAAAAHMjQuNTI1OQAAk3mYddrdCLGg66N12t0ILUNJUS5OQVNEQVFHTTpXSVNFLklRX0NMT1NFUFJJQ0Uu</t>
-  </si>
-  <si>
-    <t>MjAyNS81LzE5LlVTRAEAAADpsENuAgAAAAUzMi42MgAAk3mYddrdCImdiKR12t0IKENJUS5MU0U6UkJPVC5JUV9DTE9TRVBSSUNFLjIwMjUvNS8xOS5VU0QBAAAAjnskFAIAAAAGMTQuMjA1AACTeZh12t0IgQ2BonXa3QgpQ0lRLlhUUkE6WEFJWC5JUV9DTE9TRVBSSUNFLjIwMjUvNS8xOS5VU0QBAAAANeziIgIAAAAPMTQ3LjM5OTIzNDM3NjkyAACTeZh12t0IHJSConXa3QgoQ0lRLkJJVDpXVEFJLklRX0NMT1NFUFJJQ0UuMjAyNS81LzE5LlVTRAEAAABNulsjAgAAAA42NS42MjcxMTA5OTc3OQAAk3mYddrdCODkhKJ12t0IKENJUS5MU0U6QUlBRy5JUV9DTE9TRVBSSUNFLjIwMjUvNS8xOS5VU0QBAAAA8J2CJAIAAAANMjIuNTIwMTE0NDA2MQAAk3mYddrdCCBuhqJ12t0IKENJUS5BU1g6UkJUWi5JUV9DTE9TRVBSSUNFLjIwMjUvNS8xOS5VU0QBAAAAKe12IgIAAAAMOC45MTkzMzgxNTc2AACTeZh12t0IzFeJonXa3QgnQ0lRLkRCOlhCMFQuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMTkuVVNEAQAAANMz3ikCAAAADjIwLjAxODAxMzk1Njc4AACTeZh12t0IXwvgo3Xa3QgsQ0lRLk5BU0RBUUdNOlFRUS5JUV9DTE9TRVBSSUNFLjIwMjUvNS8xNi5VU0QBAAAADrp7AAIAAAAGNTIxLjUxAACTeZh12t0I72rho3Xa3QgtQ0lRLk5BU0RBUUdNOkFHSVguSVFfQ0xPU0VQUklDRS4yMDI1LzUvMTYuVVNEAQAAACP3</t>
-  </si>
-  <si>
-    <t>AHACAAAABzI5LjMwNTQAAJN5mHXa3Qh6v+ajddrdCCxDSVEuTkFTREFRR006U01ILklRX0NMT1NFUFJJQ0UuMjAyNS81LzE2LlVTRAEAAABgwjYAAgAAAAYyNDYuNDIAAJN5mHXa3QgwpOijddrdCChDSVEuQkFUUzpJR1YuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMTYuVVNEAQAAAM06hgACAAAABjEwNS4xNgAAk3mYddrdCH8M6qN12t0ILUNJUS5OQVNEQVFHTTpCT1RaLklRX0NMT1NFUFJJQ0UuMjAyNS81LzE2LlVTRAEAAAD3/QgWAgAAAAYzMS4yMDUAAJN5mHXa3QjSYeujddrdCCxDSVEuTkFTREFRR006QUlRLklRX0NMT1NFUFJJQ0UuMjAyNS81LzE2LlVTRAEAAADp3GIhAgAAAAU0MC45MwAAk3mYddrdCKQoiKR12t0IKUNJUS5BUkNBOkFSVFkuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMTYuVVNEAQAAAG4faSECAAAABTM3LjA4AACTeZh12t0I5Zjso3Xa3QgtQ0lRLk5BU0RBUUdNOlJPQlQuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMTYuVVNEAQAAAFxj2SACAAAABTQ1LjI5AACTeZh12t0I1Qp/onXa3QgpQ0lRLkFSQ0E6SUdQVC5JUV9DTE9TRVBSSUNFLjIwMjUvNS8xNi5VU0QBAAAAzAJeAQIAAAAFNDUuNzUAAJN5mHXa3Qjg5ISiddrdCClDSVEuQkFUUzpXVEFJLklRX0NMT1NFUFJJQ0UuMjAyNS81LzE2LlVTRAEAAABgTm9kAgAAAAUyMi4zMgAAk3mYddrdCCBuhqJ12t0IKUNJUS5BUkNBOlRITlEuSVFf</t>
-  </si>
-  <si>
-    <t>Q0xPU0VQUklDRS4yMDI1LzUvMTYuVVNEAQAAAK7DfiQCAAAABjUxLjIyMwAAk3mYddrdCMxXiaJ12t0ILUNJUS5OQVNEQVFHTTpGRFRYLklRX0NMT1NFUFJJQ0UuMjAyNS81LzE2LlVTRAEAAAC9pZ0mAgAAAAczNS44NjYyAACTeZh12t0IXwvgo3Xa3QgpQ0lRLkFSQ0E6Q0hBVC5JUV9DTE9TRVBSSUNFLjIwMjUvNS8xNi5VU0QBAAAAADA1bQIAAAAFNDEuNzEAAJN5mHXa3QjvauGjddrdCClDSVEuQVJDQTpMT1VQLklRX0NMT1NFUFJJQ0UuMjAyNS81LzE2LlVTRAEAAABZXA8iAgAAAAc1NC4yNDEyAACTeZh12t0Ig0Djo3Xa3QgpQ0lRLkFSQ0E6TFJOWi5JUV9DTE9TRVBSSUNFLjIwMjUvNS8xNi5VU0QBAAAAtXbDJgIAAAAHNDAuODg1OAAAk3mYddrdCMZN5aN12t0IKENJUS5BUkNBOkFJUy5JUV9DTE9TRVBSSUNFLjIwMjUvNS8xNi5VU0QBAAAAmJefcAIAAAAHMjQuNjEwMwBNqHmYddrdCH8M6qN12t0ILUNJUS5OQVNEQVFHTTpXSVNFLklRX0NMT1NFUFJJQ0UuMjAyNS81LzE2LlVTRAEAAADpsENuAgAAAAUzMy4xNwBNqHmYddrdCNJh66N12t0IKENJUS5MU0U6UkJPVC5JUV9DTE9TRVBSSUNFLjIwMjUvNS8xNi5VU0QBAAAAjnskFAIAAAAGMTQuMjE1AE2oeZh12t0IUbOHpHXa3QgpQ0lRLlhUUkE6WEFJWC5JUV9DTE9TRVBSSUNFLjIwMjUvNS8xNi5VU0QBAAAANeziIgIAAAAOMTQ3LjM1MzE3MDY4</t>
-  </si>
-  <si>
-    <t>NDUATah5mHXa3QjlmOyjddrdCChDSVEuQklUOldUQUkuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMTYuVVNEAQAAAE26WyMCAAAADTY1Ljk1MzQxNTgzMDUATah5mHXa3QjVCn+iddrdCChDSVEuTFNFOkFJQUcuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMTYuVVNEAQAAAPCdgiQCAAAADzIyLjYxMzM2NTE1MjU4NQBNqHmYddrdCIENgaJ12t0IKENJUS5BU1g6UkJUWi5JUV9DTE9TRVBSSUNFLjIwMjUvNS8xNi5VU0QBAAAAKe12IgIAAAAMOC44ODE3ODkxNDA0AE2oeZh12t0IHJSConXa3QgnQ0lRLkRCOlhCMFQuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMTYuVVNEAQAAANMz3ikCAAAADjIwLjMxNjUwNTA3OTI1AE2oeZh12t0IzFeJonXa3QgsQ0lRLk5BU0RBUUdNOlFRUS5JUV9DTE9TRVBSSUNFLjIwMjUvNS8xNS5VU0QBAAAADrp7AAIAAAAGNTE5LjI1AE2oeZh12t0IXwvgo3Xa3QgtQ0lRLk5BU0RBUUdNOkFHSVguSVFfQ0xPU0VQUklDRS4yMDI1LzUvMTUuVVNEAQAAACP3AHACAAAABTI5LjIxAE2oeZh12t0I72rho3Xa3QgsQ0lRLk5BU0RBUUdNOlNNSC5JUV9DTE9TRVBSSUNFLjIwMjUvNS8xNS5VU0QBAAAAYMI2AAIAAAAGMjQ3LjEzAE2oeZh12t0Ig0Djo3Xa3QgoQ0lRLkJBVFM6SUdWLklRX0NMT1NFUFJJQ0UuMjAyNS81LzE1LlVTRAEAAADNOoYAAgAAAAUxMDQuNABNqHmYddrdCMZN5aN12t0ILUNJUS5O</t>
-  </si>
-  <si>
-    <t>QVNEQVFHTTpCT1RaLklRX0NMT1NFUFJJQ0UuMjAyNS81LzE1LlVTRAEAAAD3/QgWAgAAAAUzMS4wNQBNqHmYddrdCHq/5qN12t0ILENJUS5OQVNEQVFHTTpBSVEuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMTUuVVNEAQAAAOncYiECAAAABTQwLjgxAE2oeZh12t0IMKToo3Xa3QgpQ0lRLkFSQ0E6QVJUWS5JUV9DTE9TRVBSSUNFLjIwMjUvNS8xNS5VU0QBAAAAbh9pIQIAAAAFMzYuODEATah5mHXa3Qj9PYekddrdCC1DSVEuTkFTREFRR006Uk9CVC5JUV9DTE9TRVBSSUNFLjIwMjUvNS8xNS5VU0QBAAAAXGPZIAIAAAAENDUuMQBNqHmYddrdCOWY7KN12t0IKUNJUS5BUkNBOklHUFQuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMTUuVVNEAQAAAMwCXgECAAAABTQ1LjI4AE2oeZh12t0I1Qp/onXa3QgpQ0lRLkJBVFM6V1RBSS5JUV9DTE9TRVBSSUNFLjIwMjUvNS8xNS5VU0QBAAAAYE5vZAIAAAAFMjIuMTIATah5mHXa3QiBDYGiddrdCClDSVEuQVJDQTpUSE5RLklRX0NMT1NFUFJJQ0UuMjAyNS81LzE1LlVTRAEAAACuw34kAgAAAAc1MC45NjE5AE2oeZh12t0IIG2ConXa3QgtQ0lRLk5BU0RBUUdNOkZEVFguSVFfQ0xPU0VQUklDRS4yMDI1LzUvMTUuVVNEAQAAAL2lnSYCAAAABzM1LjgzMzUATah5mHXa3QhK0ISiddrdCClDSVEuQVJDQTpDSEFULklRX0NMT1NFUFJJQ0UuMjAyNS81LzE1LlVTRAEAAAAAMDVtAgAA</t>
-  </si>
-  <si>
-    <t>AAU0MS4yNQBNqHmYddrdCCBuhqJ12t0IKUNJUS5BUkNBOkxPVVAuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMTUuVVNEAQAAAFlcDyICAAAABzU0LjA3ODYATah5mHXa3QiDROGjddrdCClDSVEuQVJDQTpMUk5aLklRX0NMT1NFUFJJQ0UuMjAyNS81LzE1LlVTRAEAAAC1dsMmAgAAAAc0MC4zODg2AE2oeZh12t0Ig0Djo3Xa3QgoQ0lRLkFSQ0E6QUlTLklRX0NMT1NFUFJJQ0UuMjAyNS81LzE1LlVTRAEAAACYl59wAgAAAAcyNC40NTk5AE2oeZh12t0Ixk3lo3Xa3QgtQ0lRLk5BU0RBUUdNOldJU0UuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMTUuVVNEAQAAAOmwQ24CAAAABTMyLjc0AE2oeZh12t0IzZbmo3Xa3QgoQ0lRLkxTRTpSQk9ULklRX0NMT1NFUFJJQ0UuMjAyNS81LzE1LlVTRAEAAACOeyQUAgAAAAUxNC4yNABNqHmYddrdCDCk6KN12t0IKUNJUS5YVFJBOlhBSVguSVFfQ0xPU0VQUklDRS4yMDI1LzUvMTUuVVNEAQAAADXs4iICAAAADzE0Ny4xMTQwOTQwMDQxNgBNqHmYddrdCKLl6aN12t0IKENJUS5CSVQ6V1RBSS5JUV9DTE9TRVBSSUNFLjIwMjUvNS8xNS5VU0QBAAAATbpbIwIAAAAONjUuNzgyOTk3NzgyNzMATah5mHXa3QjSYeujddrdCChDSVEuTFNFOkFJQUcuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMTUuVVNEAQAAAPCdgiQCAAAADjIyLjQ2NTEwNTc3ODY2AE2oeZh12t0I1Qp/onXa3QgoQ0lRLkFT</t>
-  </si>
-  <si>
-    <t>WDpSQlRaLklRX0NMT1NFUFJJQ0UuMjAyNS81LzE1LlVTRAEAAAAp7XYiAgAAAAw4Ljg4ODYwNDY4NTcATah5mHXa3QiBDYGiddrdCCdDSVEuREI6WEIwVC5JUV9DTE9TRVBSSUNFLjIwMjUvNS8xNS5VU0QBAAAA0zPeKQIAAAAPMjAuMjk1MzAyMDE5NTUyAE2oeZh12t0IIG2ConXa3QgsQ0lRLk5BU0RBUUdNOlFRUS5JUV9DTE9TRVBSSUNFLjIwMjUvNS8xNC5VU0QBAAAADrp7AAIAAAAGNTE4LjY4AE2oeZh12t0IStCEonXa3QgtQ0lRLk5BU0RBUUdNOkFHSVguSVFfQ0xPU0VQUklDRS4yMDI1LzUvMTQuVVNEAQAAACP3AHACAAAABTI5LjQ3AE2oeZh12t0IIG6GonXa3QgsQ0lRLk5BU0RBUUdNOlNNSC5JUV9DTE9TRVBSSUNFLjIwMjUvNS8xNC5VU0QBAAAAYMI2AAIAAAAGMjQ3Ljk5AE2oeZh12t0IzFeJonXa3QgoQ0lRLkJBVFM6SUdWLklRX0NMT1NFUFJJQ0UuMjAyNS81LzE0LlVTRAEAAADNOoYAAgAAAAUxMDQuOABNqHmYddrdCF8L4KN12t0ILUNJUS5OQVNEQVFHTTpCT1RaLklRX0NMT1NFUFJJQ0UuMjAyNS81LzE0LlVTRAEAAAD3/QgWAgAAAAUzMS4wOQBNqHmYddrdCIE45aN12t0ILENJUS5OQVNEQVFHTTpBSVEuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMTQuVVNEAQAAAOncYiECAAAABTQwLjk5AE2oeZh12t0IzZbmo3Xa3QgpQ0lRLkFSQ0E6QVJUWS5JUV9DTE9TRVBSSUNFLjIwMjUvNS8xNC5V</t>
-  </si>
-  <si>
-    <t>U0QBAAAAbh9pIQIAAAAFMzcuMTQATah5mHXa3QgwpOijddrdCC1DSVEuTkFTREFRR006Uk9CVC5JUV9DTE9TRVBSSUNFLjIwMjUvNS8xNC5VU0QBAAAAXGPZIAIAAAAFNDUuMTgATah5mHXa3Qii5emjddrdCClDSVEuQVJDQTpJR1BULklRX0NMT1NFUFJJQ0UuMjAyNS81LzE0LlVTRAEAAADMAl4BAgAAAAU0NS42NgBNqHmYddrdCNJh66N12t0IKUNJUS5CQVRTOldUQUkuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMTQuVVNEAQAAAGBOb2QCAAAABDIyLjMATah5mHXa3QjRyIakddrdCClDSVEuQVJDQTpUSE5RLklRX0NMT1NFUFJJQ0UuMjAyNS81LzE0LlVTRAEAAACuw34kAgAAAAU1MS40NABNqHmYddrdCOWY7KN12t0ILUNJUS5OQVNEQVFHTTpGRFRYLklRX0NMT1NFUFJJQ0UuMjAyNS81LzE0LlVTRAEAAAC9pZ0mAgAAAAUzNS45MwBNqHmYddrdCCBtgqJ12t0IKUNJUS5BUkNBOkNIQVQuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMTQuVVNEAQAAAAAwNW0CAAAABTQxLjY3AE2oeZh12t0IStCEonXa3QgpQ0lRLkFSQ0E6TE9VUC5JUV9DTE9TRVBSSUNFLjIwMjUvNS8xNC5VU0QBAAAAWVwPIgIAAAAGNTQuODgyAE2oeZh12t0IIG6GonXa3QgpQ0lRLkFSQ0E6TFJOWi5JUV9DTE9TRVBSSUNFLjIwMjUvNS8xNC5VU0QBAAAAtXbDJgIAAAAFNDAuNjcATah5mHXa3QjMV4middrdCChDSVEuQVJDQTpBSVMuSVFfQ0xP</t>
-  </si>
-  <si>
-    <t>U0VQUklDRS4yMDI1LzUvMTQuVVNEAQAAAJiXn3ACAAAABTI0LjY1AE2oeZh12t0IXwvgo3Xa3QgtQ0lRLk5BU0RBUUdNOldJU0UuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMTQuVVNEAQAAAOmwQ24CAAAABTMzLjEzAE2oeZh12t0Ig0Tho3Xa3QgoQ0lRLkxTRTpSQk9ULklRX0NMT1NFUFJJQ0UuMjAyNS81LzE0LlVTRAEAAACOeyQUAgAAAAYxNC4yOTUATah5mHXa3QhzGeOjddrdCClDSVEuWFRSQTpYQUlYLklRX0NMT1NFUFJJQ0UuMjAyNS81LzE0LlVTRAEAAAA17OIiAgAAAA4xNDcuMDE0Njc0NjIyMgBNqHmYddrdCDCk6KN12t0IKENJUS5CSVQ6V1RBSS5JUV9DTE9TRVBSSUNFLjIwMjUvNS8xNC5VU0QBAAAATbpbIwIAAAANNjYuMzgyODgzNDA1MwBNqHmYddrdCKLl6aN12t0IKENJUS5MU0U6QUlBRy5JUV9DTE9TRVBSSUNFLjIwMjUvNS8xNC5VU0QBAAAA8J2CJAIAAAAOMjIuNzMyMTA5NjA0NTUATah5mHXa3QjSYeujddrdCChDSVEuQVNYOlJCVFouSVFfQ0xPU0VQUklDRS4yMDI1LzUvMTQuVVNEAQAAACntdiICAAAADTguOTIyMTI0ODA2NDgATah5mHXa3QiuU4akddrdCCdDSVEuREI6WEIwVC5JUV9DTE9TRVBSSUNFLjIwMjUvNS8xNC5VU0QBAAAA0zPeKQIAAAAOMjAuNDI1Njc0OTI0MjcATah5mHXa3QjlmOyjddrdCCxDSVEuTkFTREFRR006UVFRLklRX0NMT1NFUFJJQ0UuMjAyNS81LzEzLlVT</t>
-  </si>
-  <si>
-    <t>RAEAAAAOunsAAgAAAAY1MTUuNTkATah5mHXa3QjVCn+iddrdCC1DSVEuTkFTREFRR006QUdJWC5JUV9DTE9TRVBSSUNFLjIwMjUvNS8xMy5VU0QBAAAAI/cAcAIAAAAFMjkuMDMATah5mHXa3QiBDYGiddrdCCxDSVEuTkFTREFRR006U01ILklRX0NMT1NFUFJJQ0UuMjAyNS81LzEzLlVTRAEAAABgwjYAAgAAAAYyNDUuNTYATah5mHXa3QggboaiddrdCChDSVEuQkFUUzpJR1YuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMTMuVVNEAQAAAM06hgACAAAABjEwNC43MwBNqHmYddrdCMxXiaJ12t0ILUNJUS5OQVNEQVFHTTpCT1RaLklRX0NMT1NFUFJJQ0UuMjAyNS81LzEzLlVTRAEAAAD3/QgWAgAAAAUzMS4wMwBNqHmYddrdCBDk36N12t0ILENJUS5OQVNEQVFHTTpBSVEuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMTMuVVNEAQAAAOncYiECAAAABTQwLjcxAE2oeZh12t0Ig0Tho3Xa3QgpQ0lRLkFSQ0E6QVJUWS5JUV9DTE9TRVBSSUNFLjIwMjUvNS8xMy5VU0QBAAAAbh9pIQIAAAAFMzYuNjcATah5mHXa3QhzGeOjddrdCC1DSVEuTkFTREFRR006Uk9CVC5JUV9DTE9TRVBSSUNFLjIwMjUvNS8xMy5VU0QBAAAAXGPZIAIAAAAFNDUuMjIATah5mHXa3QiBOOWjddrdCClDSVEuQVJDQTpJR1BULklRX0NMT1NFUFJJQ0UuMjAyNS81LzEzLlVTRAEAAADMAl4BAgAAAAQ0NS4zAE2oeZh12t0IzZbmo3Xa3QgpQ0lRLkJBVFM6</t>
-  </si>
-  <si>
-    <t>V1RBSS5JUV9DTE9TRVBSSUNFLjIwMjUvNS8xMy5VU0QBAAAAYE5vZAIAAAAFMjIuMTEATah5mHXa3QjSYeujddrdCClDSVEuQVJDQTpUSE5RLklRX0NMT1NFUFJJQ0UuMjAyNS81LzEzLlVTRAEAAACuw34kAgAAAAc1MS4xNDA1AE2oeZh12t0IIhuFpHXa3QgtQ0lRLk5BU0RBUUdNOkZEVFguSVFfQ0xPU0VQUklDRS4yMDI1LzUvMTMuVVNEAQAAAL2lnSYCAAAABTM2LjAyAE2oeZh12t0I5Zjso3Xa3QgpQ0lRLkFSQ0E6Q0hBVC5JUV9DTE9TRVBSSUNFLjIwMjUvNS8xMy5VU0QBAAAAADA1bQIAAAAFNDAuOTIATah5mHXa3QjVCn+iddrdCClDSVEuQVJDQTpMT1VQLklRX0NMT1NFUFJJQ0UuMjAyNS81LzEzLlVTRAEAAABZXA8iAgAAAAc1NC43NDg0AE2oeZh12t0IgQ2BonXa3QgpQ0lRLkFSQ0E6TFJOWi5JUV9DTE9TRVBSSUNFLjIwMjUvNS8xMy5VU0QBAAAAtXbDJgIAAAAHNDAuMzQyMgBNqHmYddrdCCBtgqJ12t0IKENJUS5BUkNBOkFJUy5JUV9DTE9TRVBSSUNFLjIwMjUvNS8xMy5VU0QBAAAAmJefcAIAAAAHMjQuNDQ5NwBNqHmYddrdCErQhKJ12t0ILUNJUS5OQVNEQVFHTTpXSVNFLklRX0NMT1NFUFJJQ0UuMjAyNS81LzEzLlVTRAEAAADpsENuAgAAAAUzMy4yMwBNqHmYddrdCBDk36N12t0IKENJUS5MU0U6UkJPVC5JUV9DTE9TRVBSSUNFLjIwMjUvNS8xMy5VU0QBAAAAjnskFAIAAAAGMTQuMzA1</t>
-  </si>
-  <si>
-    <t>AE2oeZh12t0Ig0Tho3Xa3QgpQ0lRLlhUUkE6WEFJWC5JUV9DTE9TRVBSSUNFLjIwMjUvNS8xMy5VU0QBAAAANeziIgIAAAAPMTQ2LjEyMjkwNTA2MDA4AE2oeZh12t0Icxnjo3Xa3QgoQ0lRLkJJVDpXVEFJLklRX0NMT1NFUFJJQ0UuMjAyNS81LzEzLlVTRAEAAABNulsjAgAAAA42NS45MTA2MTQ1Mzk2NABNqHmYddrdCIE45aN12t0IKENJUS5MU0U6QUlBRy5JUV9DTE9TRVBSSUNFLjIwMjUvNS8xMy5VU0QBAAAA8J2CJAIAAAAPMjIuNTQyMzU0ODgxMjI4AE2oeZh12t0IzZbmo3Xa3QgoQ0lRLkFTWDpSQlRaLklRX0NMT1NFUFJJQ0UuMjAyNS81LzEzLlVTRAEAAAAp7XYiAgAAAA04Ljg4NTg3MzA4MTI1AE2oeZh12t0IMKToo3Xa3QgnQ0lRLkRCOlhCMFQuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMTMuVVNEAQAAANMz3ikCAAAADzIwLjE1NDE4OTk0ODU2OABNqHmYddrdCKLl6aN12t0ILENJUS5OQVNEQVFHTTpRUVEuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMTIuVVNEAQAAAA66ewACAAAABjUwNy44NQBNqHmYddrdCOWY7KN12t0ILUNJUS5OQVNEQVFHTTpBR0lYLklRX0NMT1NFUFJJQ0UuMjAyNS81LzEyLlVTRAEAAAAj9wBwAgAAAAYyOC40MDUATah5mHXa3QjVCn+iddrdCCxDSVEuTkFTREFRR006U01ILklRX0NMT1NFUFJJQ0UuMjAyNS81LzEyLlVTRAEAAABgwjYAAgAAAAYyMzcuNDEATah5mHXa3QiB</t>
-  </si>
-  <si>
-    <t>DYGiddrdCChDSVEuQkFUUzpJR1YuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMTIuVVNEAQAAAM06hgACAAAABjEwMi43OABNqHmYddrdCCBtgqJ12t0ILUNJUS5OQVNEQVFHTTpCT1RaLklRX0NMT1NFUFJJQ0UuMjAyNS81LzEyLlVTRAEAAAD3/QgWAgAAAAUzMC42MQBNqHmYddrdCErQhKJ12t0ILENJUS5OQVNEQVFHTTpBSVEuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMTIuVVNEAQAAAOncYiECAAAABTM5LjkyAE2oeZh12t0IIG6GonXa3QgpQ0lRLkFSQ0E6QVJUWS5JUV9DTE9TRVBSSUNFLjIwMjUvNS8xMi5VU0QBAAAAbh9pIQIAAAAFMzUuNzYATah5mHXa3QjMV4middrdCC1DSVEuTkFTREFRR006Uk9CVC5JUV9DTE9TRVBSSUNFLjIwMjUvNS8xMi5VU0QBAAAAXGPZIAIAAAAFNDQuNTMATah5mHXa3QhzGeOjddrdCClDSVEuQVJDQTpJR1BULklRX0NMT1NFUFJJQ0UuMjAyNS81LzEyLlVTRAEAAADMAl4BAgAAAAU0NC4zNgBNqHmYddrdCIE45aN12t0IKUNJUS5CQVRTOldUQUkuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMTIuVVNEAQAAAGBOb2QCAAAABTIxLjU4AE2oeZh12t0IzZbmo3Xa3QgpQ0lRLkFSQ0E6VEhOUS5JUV9DTE9TRVBSSUNFLjIwMjUvNS8xMi5VU0QBAAAArsN+JAIAAAAFNDkuODgATah5mHXa3Qh/ZuijddrdCC1DSVEuTkFTREFRR006RkRUWC5JUV9DTE9TRVBSSUNFLjIwMjUvNS8xMi5VU0QB</t>
-  </si>
-  <si>
-    <t>AAAAvaWdJgIAAAAFMzUuMTIATah5mHXa3Qii5emjddrdCClDSVEuQVJDQTpDSEFULklRX0NMT1NFUFJJQ0UuMjAyNS81LzEyLlVTRAEAAAAAMDVtAgAAAAUzOS43NQBNqHmYddrdCNJh66N12t0IKUNJUS5BUkNBOkxPVVAuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMTIuVVNEAQAAAFlcDyICAAAABzUyLjg4NDIATah5mHXa3QhGlO2jddrdCClDSVEuQVJDQTpMUk5aLklRX0NMT1NFUFJJQ0UuMjAyNS81LzEyLlVTRAEAAAC1dsMmAgAAAAYzOS41NzUATah5mHXa3QiBDYGiddrdCChDSVEuQVJDQTpBSVMuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMTIuVVNEAQAAAJiXn3ACAAAABzIzLjY1MDgATah5mHXa3QggbYKiddrdCC1DSVEuTkFTREFRR006V0lTRS5JUV9DTE9TRVBSSUNFLjIwMjUvNS8xMi5VU0QBAAAA6bBDbgIAAAAFMzIuNTEATah5mHXa3QhYu4SiddrdCChDSVEuTFNFOlJCT1QuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMTIuVVNEAQAAAI57JBQCAAAABTE0LjA0AE2oeZh12t0IEEeGonXa3QgpQ0lRLlhUUkE6WEFJWC5JUV9DTE9TRVBSSUNFLjIwMjUvNS8xMi5VU0QBAAAANeziIgIAAAAPMTQzLjEzMzU0ODI3NDMyAE2oeZh12t0I0zCJonXa3QgoQ0lRLkJJVDpXVEFJLklRX0NMT1NFUFJJQ0UuMjAyNS81LzEyLlVTRAEAAABNulsjAgAAAA42NC4xMTY1MzUwNjQ0NgBNqHmYddrdCBDk36N12t0IKENJUS5M</t>
-  </si>
-  <si>
-    <t>U0U6QUlBRy5JUV9DTE9TRVBSSUNFLjIwMjUvNS8xMi5VU0QBAAAA8J2CJAIAAAAPMjEuNzc3MzI1Njg5NTI1AE2oeZh12t0Ig0Tho3Xa3QgoQ0lRLkFTWDpSQlRaLklRX0NMT1NFUFJJQ0UuMjAyNS81LzEyLlVTRAEAAAAp7XYiAgAAAA04LjUxMDIzMTQwMTk1AE2oeZh12t0IzZbmo3Xa3QgnQ0lRLkRCOlhCMFQuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMTIuVVNEAQAAANMz3ikCAAAADzIwLjIxMzQ5OTM4MjYxOABNqHmYddrdCH9m6KN12t0IK0NJUS5OQVNEQVFHTTpRUVEuSVFfQ0xPU0VQUklDRS4yMDI1LzUvOS5VU0QBAAAADrp7AAIAAAAGNDg3Ljk3AE2oeZh12t0IouXpo3Xa3QgsQ0lRLk5BU0RBUUdNOkFHSVguSVFfQ0xPU0VQUklDRS4yMDI1LzUvOS5VU0QBAAAAI/cAcAIAAAAHMjYuOTg5NQBNqHmYddrdCNJh66N12t0IK0NJUS5OQVNEQVFHTTpTTUguSVFfQ0xPU0VQUklDRS4yMDI1LzUvOS5VU0QBAAAAYMI2AAIAAAAFMjIzLjQATah5mHXa3Qh/q4ukddrdCCdDSVEuQkFUUzpJR1YuSVFfQ0xPU0VQUklDRS4yMDI1LzUvOS5VU0QBAAAAzTqGAAIAAAAFOTkuNjkATah5mHXa3QjlmOyjddrdCCxDSVEuTkFTREFRR006Qk9UWi5JUV9DTE9TRVBSSUNFLjIwMjUvNS85LlVTRAEAAAD3/QgWAgAAAAUyOS4zNABNqHmYddrdCEbOfqJ12t0IK0NJUS5OQVNEQVFHTTpBSVEuSVFfQ0xPU0VQUklDRS4yMDI1</t>
-  </si>
-  <si>
-    <t>LzUvOS5VU0QBAAAA6dxiIQIAAAAFMzguMzIATah5mHXa3QhYu4SiddrdCChDSVEuQVJDQTpBUlRZLklRX0NMT1NFUFJJQ0UuMjAyNS81LzkuVVNEAQAAAG4faSECAAAABTM0LjA4AE2oeZh12t0IEEeGonXa3QgsQ0lRLk5BU0RBUUdNOlJPQlQuSVFfQ0xPU0VQUklDRS4yMDI1LzUvOS5VU0QBAAAAXGPZIAIAAAAFNDIuOTcATah5mHXa3QjTMImiddrdCChDSVEuQVJDQTpJR1BULklRX0NMT1NFUFJJQ0UuMjAyNS81LzkuVVNEAQAAAMwCXgECAAAABTQyLjQ4AE2oeZh12t0IEOTfo3Xa3QgoQ0lRLkJBVFM6V1RBSS5JUV9DTE9TRVBSSUNFLjIwMjUvNS85LlVTRAEAAABgTm9kAgAAAAUyMC41OABNqHmYddrdCINE4aN12t0IKENJUS5BUkNBOlRITlEuSVFfQ0xPU0VQUklDRS4yMDI1LzUvOS5VU0QBAAAArsN+JAIAAAAFNDcuMjUATah5mHXa3QhzGeOjddrdCCxDSVEuTkFTREFRR006RkRUWC5JUV9DTE9TRVBSSUNFLjIwMjUvNS85LlVTRAEAAAC9pZ0mAgAAAAUzMy43NwBNqHmYddrdCBsj5aN12t0IKENJUS5BUkNBOkNIQVQuSVFfQ0xPU0VQUklDRS4yMDI1LzUvOS5VU0QBAAAAADA1bQIAAAAHMzcuNTU1OABNqHmYddrdCKLl6aN12t0IKENJUS5BUkNBOkxPVVAuSVFfQ0xPU0VQUklDRS4yMDI1LzUvOS5VU0QBAAAAWVwPIgIAAAAHNTAuMzk1NgBNqHmYddrdCNJh66N12t0IKENJUS5BUkNBOkxSTlouSVFf</t>
-  </si>
-  <si>
-    <t>Q0xPU0VQUklDRS4yMDI1LzUvOS5VU0QBAAAAtXbDJgIAAAAHMzcuNzE2MwBNqHmYddrdCFAPi6R12t0IJ0NJUS5BUkNBOkFJUy5JUV9DTE9TRVBSSUNFLjIwMjUvNS85LlVTRAEAAACYl59wAgAAAAcyMi42MjUzAE2oeZh12t0I5Zjso3Xa3QgsQ0lRLk5BU0RBUUdNOldJU0UuSVFfQ0xPU0VQUklDRS4yMDI1LzUvOS5VU0QBAAAA6bBDbgIAAAAFMzAuODUATah5mHXa3QhGzn6iddrdCCdDSVEuTFNFOlJCT1QuSVFfQ0xPU0VQUklDRS4yMDI1LzUvOS5VU0QBAAAAjnskFAIAAAAFMTMuNjgATah5mHXa3Qh35oCiddrdCChDSVEuWFRSQTpYQUlYLklRX0NMT1NFUFJJQ0UuMjAyNS81LzkuVVNEAQAAADXs4iICAAAADzEzOS4yMDY4NDk5NjM2NABNqHmYddrdCCBtgqJ12t0IJ0NJUS5CSVQ6V1RBSS5JUV9DTE9TRVBSSUNFLjIwMjUvNS85LlVTRAEAAABNulsjAgAAAA42MS42NjA2NTc5Njc4NwBNqHmYddrdCNMwiaJ12t0IJ0NJUS5MU0U6QUlBRy5JUV9DTE9TRVBSSUNFLjIwMjUvNS85LlVTRAEAAADwnYIkAgAAAA8yMC44NTc5MzMwODE3NDQATah5mHXa3QgQ5N+jddrdCCdDSVEuQVNYOlJCVFouSVFfQ0xPU0VQUklDRS4yMDI1LzUvOS5VU0QBAAAAKe12IgIAAAANOC40OTY0Mzg0MzA2OABNqHmYddrdCINE4aN12t0IJkNJUS5EQjpYQjBULklRX0NMT1NFUFJJQ0UuMjAyNS81LzkuVVNEAQAAANMz3ikCAAAA</t>
-  </si>
-  <si>
-    <t>DzE5LjMzOTc5MjcwMzc1NABNqHmYddrdCHMZ46N12t0IK0NJUS5OQVNEQVFHTTpRUVEuSVFfQ0xPU0VQUklDRS4yMDI1LzUvOC5VU0QBAAAADrp7AAIAAAAGNDg4LjI5AE2oeZh12t0IGyPlo3Xa3QgsQ0lRLk5BU0RBUUdNOkFHSVguSVFfQ0xPU0VQUklDRS4yMDI1LzUvOC5VU0QBAAAAI/cAcAIAAAAEMjcuMQBNqHmYddrdCM2W5qN12t0IK0NJUS5OQVNEQVFHTTpTTUguSVFfQ0xPU0VQUklDRS4yMDI1LzUvOC5VU0QBAAAAYMI2AAIAAAAGMjIxLjk1AE2oeZh12t0If2boo3Xa3QgnQ0lRLkJBVFM6SUdWLklRX0NMT1NFUFJJQ0UuMjAyNS81LzguVVNEAQAAAM06hgACAAAABjEwMC40MQBNqHmYddrdCH+ri6R12t0ILENJUS5OQVNEQVFHTTpCT1RaLklRX0NMT1NFUFJJQ0UuMjAyNS81LzguVVNEAQAAAPf9CBYCAAAABTI5LjQ5AE2oeZh12t0I5Zjso3Xa3QgrQ0lRLk5BU0RBUUdNOkFJUS5JUV9DTE9TRVBSSUNFLjIwMjUvNS84LlVTRAEAAADp3GIhAgAAAAUzOC4zMQBNqHmYddrdCEbOfqJ12t0IKENJUS5BUkNBOkFSVFkuSVFfQ0xPU0VQUklDRS4yMDI1LzUvOC5VU0QBAAAAbh9pIQIAAAAEMzQuNABNqHmYddrdCHfmgKJ12t0ILENJUS5OQVNEQVFHTTpST0JULklRX0NMT1NFUFJJQ0UuMjAyNS81LzguVVNEAQAAAFxj2SACAAAABTQzLjEyAE2oeZh12t0ICEaConXa3QgoQ0lRLkFSQ0E6SUdQVC5JUV9D</t>
-  </si>
-  <si>
-    <t>TE9TRVBSSUNFLjIwMjUvNS84LlVTRAEAAADMAl4BAgAAAAQ0Mi41AE2oeZh12t0IWLuEonXa3QgoQ0lRLkJBVFM6V1RBSS5JUV9DTE9TRVBSSUNFLjIwMjUvNS84LlVTRAEAAABgTm9kAgAAAAUyMC42MQBNqHmYddrdCBBHhqJ12t0IKENJUS5BUkNBOlRITlEuSVFfQ0xPU0VQUklDRS4yMDI1LzUvOC5VU0QBAAAArsN+JAIAAAAFNDcuMzcATah5mHXa3QhzGeOjddrdCCxDSVEuTkFTREFRR006RkRUWC5JUV9DTE9TRVBSSUNFLjIwMjUvNS84LlVTRAEAAAC9pZ0mAgAAAAQzMy45AE2oeZh12t0IiZJ+onXa3QgoQ0lRLkFSQ0E6Q0hBVC5JUV9DTE9TRVBSSUNFLjIwMjUvNS84LlVTRAEAAAAAMDVtAgAAAAUzNy43NQBNqHmYddrdCBsj5aN12t0IKENJUS5BUkNBOkxPVVAuSVFfQ0xPU0VQUklDRS4yMDI1LzUvOC5VU0QBAAAAWVwPIgIAAAAHNTEuMDkwMQBNqHmYddrdCM2W5qN12t0IKENJUS5BUkNBOkxSTlouSVFfQ0xPU0VQUklDRS4yMDI1LzUvOC5VU0QBAAAAtXbDJgIAAAAHMzcuOTcwOQBNqHmYddrdCH9m6KN12t0IJ0NJUS5BUkNBOkFJUy5JUV9DTE9TRVBSSUNFLjIwMjUvNS84LlVTRAEAAACYl59wAgAAAAcyMi43MjE1AE2oeZh12t0IouXpo3Xa3QgsQ0lRLk5BU0RBUUdNOldJU0UuSVFfQ0xPU0VQUklDRS4yMDI1LzUvOC5VU0QBAAAA6bBDbgIAAAAFMzAuOTgATah5mHXa3QjSYeujddrdCChDSVEu</t>
-  </si>
-  <si>
-    <t>WFRSQTpYQUlYLklRX0NMT1NFUFJJQ0UuMjAyNS81LzguVVNEAQAAADXs4iICAAAADzEzOS43MjI2MjkzNDE0NABNqHmYddrdCNMwiaJ12t0IJ0NJUS5MU0U6QUlBRy5JUV9DTE9TRVBSSUNFLjIwMjUvNS84LlVTRAEAAADwnYIkAgAAAA8yMC44NTUzODc0MDQ5MjYATah5mHXa3QgQ5N+jddrdCCtDSVEuTkFTREFRR006UVFRLklRX0NMT1NFUFJJQ0UuMjAyNS81LzcuVVNEAQAAAA66ewACAAAABTQ4My4zAE2oeZh12t0Ig0Tho3Xa3QgsQ0lRLk5BU0RBUUdNOkFHSVguSVFfQ0xPU0VQUklDRS4yMDI1LzUvNy5VU0QBAAAAI/cAcAIAAAAFMjYuMzUATah5mHXa3QjlmOyjddrdCCdDSVEuQkFUUzpJR1YuSVFfQ0xPU0VQUklDRS4yMDI1LzUvNy5VU0QBAAAAzTqGAAIAAAAFOTguNzgATah5mHXa3QhGzn6iddrdCCxDSVEuTkFTREFRR006Qk9UWi5JUV9DTE9TRVBSSUNFLjIwMjUvNS83LlVTRAEAAAD3/QgWAgAAAAUyOS4xMgBNqHmYddrdCHfmgKJ12t0IK0NJUS5OQVNEQVFHTTpBSVEuSVFfQ0xPU0VQUklDRS4yMDI1LzUvNy5VU0QBAAAA6dxiIQIAAAAFMzcuODkATah5mHXa3QgIRoKiddrdCChDSVEuQVJDQTpBUlRZLklRX0NMT1NFUFJJQ0UuMjAyNS81LzcuVVNEAQAAAG4faSECAAAABDMzLjcATah5mHXa3QhYu4SiddrdCCxDSVEuTkFTREFRR006Uk9CVC5JUV9DTE9TRVBSSUNFLjIwMjUvNS83LlVTRAEA</t>
-  </si>
-  <si>
-    <t>AABcY9kgAgAAAAU0Mi4zMgBNqHmYddrdCBBHhqJ12t0IKENJUS5CQVRTOldUQUkuSVFfQ0xPU0VQUklDRS4yMDI1LzUvNy5VU0QBAAAAYE5vZAIAAAAFMjAuMTgATah5mHXa3QiPvumjddrdCChDSVEuQVJDQTpDSEFULklRX0NMT1NFUFJJQ0UuMjAyNS81LzcuVVNEAQAAAAAwNW0CAAAABzM3LjI1NDcATah5mHXa3QjSYeujddrdCChDSVEuQVJDQTpMT1VQLklRX0NMT1NFUFJJQ0UuMjAyNS81LzcuVVNEAQAAAFlcDyICAAAABzQ5LjU2OTcATah5mHXa3QgXNoukddrdCChDSVEuQVJDQTpMUk5aLklRX0NMT1NFUFJJQ0UuMjAyNS81LzcuVVNEAQAAALV2wyYCAAAABzM3LjU1MzYATah5mHXa3QiJkn6iddrdCCdDSVEuQVJDQTpBSVMuSVFfQ0xPU0VQUklDRS4yMDI1LzUvNy5VU0QBAAAAmJefcAIAAAAHMjIuNDUzOABNqHmYddrdCBDk36N12t0ILENJUS5OQVNEQVFHTTpXSVNFLklRX0NMT1NFUFJJQ0UuMjAyNS81LzcuVVNEAQAAAOmwQ24CAAAABTMwLjI2AE2oeZh12t0Idh3ho3Xa3QgnQ0lRLkxTRTpSQk9ULklRX0NMT1NFUFJJQ0UuMjAyNS81LzcuVVNEAQAAAI57JBQCAAAABjEzLjM3NQBNqHmYddrdCHMZ46N12t0IKENJUS5YVFJBOlhBSVguSVFfQ0xPU0VQUklDRS4yMDI1LzUvNy5VU0QBAAAANeziIgIAAAAOMTM3LjQxOTEzNTE1MTQATah5mHXa3QgbI+WjddrdCCdDSVEuQklUOldUQUkuSVFfQ0xP</t>
-  </si>
-  <si>
-    <t>U0VQUklDRS4yMDI1LzUvNy5VU0QBAAAATbpbIwIAAAAONTkuNjg2NzU1MTgzNDUATah5mHXa3QgqguajddrdCCdDSVEuQVNYOlJCVFouSVFfQ0xPU0VQUklDRS4yMDI1LzUvNy5VU0QBAAAAKe12IgIAAAANOC4zNTcwMTM2ODU5NABNqHmYddrdCH9m6KN12t0ILENJUS5OQVNEQVFHTTpBR0lYLklRX0NMT1NFUFJJQ0UuMjAyNS81LzYuVVNEAQAAACP3AHACAAAABTI2LjM5AE2oeZh12t0IoqaEonXa3QgrQ0lRLk5BU0RBUUdNOlNNSC5JUV9DTE9TRVBSSUNFLjIwMjUvNS82LlVTRAEAAABgwjYAAgAAAAYyMTUuNTkATah5mHXa3QgQR4aiddrdCCdDSVEuQkFUUzpJR1YuSVFfQ0xPU0VQUklDRS4yMDI1LzUvNi5VU0QBAAAAzTqGAAIAAAAFOTcuOTYATah5mHXa3QiJkn6iddrdCCxDSVEuTkFTREFRR006Qk9UWi5JUV9DTE9TRVBSSUNFLjIwMjUvNS82LlVTRAEAAAD3/QgWAgAAAAUyOS4yNABNqHmYddrdCNMwiaJ12t0IKENJUS5BUkNBOkFSVFkuSVFfQ0xPU0VQUklDRS4yMDI1LzUvNi5VU0QBAAAAbh9pIQIAAAAFMzMuNjIATah5mHXa3QgNmoqkddrdCCxDSVEuTkFTREFRR006Uk9CVC5JUV9DTE9TRVBSSUNFLjIwMjUvNS82LlVTRAEAAABcY9kgAgAAAAU0Mi4wNABNqHmYddrdCE1c7KN12t0IKENJUS5BUkNBOklHUFQuSVFfQ0xPU0VQUklDRS4yMDI1LzUvNi5VU0QBAAAAzAJeAQIAAAAFNDEuODgATah5</t>
-  </si>
-  <si>
-    <t>mHXa3QhGzn6iddrdCChDSVEuQVJDQTpUSE5RLklRX0NMT1NFUFJJQ0UuMjAyNS81LzYuVVNEAQAAAK7DfiQCAAAABTQ1LjkzAE2oeZh12t0Id+aAonXa3QgoQ0lRLkFSQ0E6Q0hBVC5JUV9DTE9TRVBSSUNFLjIwMjUvNS82LlVTRAEAAAAAMDVtAgAAAAczNy40ODExAE2oeZh12t0ICEaConXa3QgoQ0lRLkFSQ0E6TE9VUC5JUV9DTE9TRVBSSUNFLjIwMjUvNS82LlVTRAEAAABZXA8iAgAAAAc0OS42NjY4AE2oeZh12t0INw/lo3Xa3QgoQ0lRLkFSQ0E6TFJOWi5JUV9DTE9TRVBSSUNFLjIwMjUvNS82LlVTRAEAAAC1dsMmAgAAAAczNy40MDIzAE2oeZh12t0IKoLmo3Xa3QgnQ0lRLkFSQ0E6QUlTLklRX0NMT1NFUFJJQ0UuMjAyNS81LzYuVVNEAQAAAJiXn3ACAAAABzIyLjQ3ODEAlb15mHXa3QiJkn6iddrdCCxDSVEuTkFTREFRR006V0lTRS5JUV9DTE9TRVBSSUNFLjIwMjUvNS82LlVTRAEAAADpsENuAgAAAAUzMC4yNQCVvXmYddrdCH9m6KN12t0IKENJUS5YVFJBOlhBSVguSVFfQ0xPU0VQUklDRS4yMDI1LzUvNi5VU0QBAAAANeziIgIAAAANMTM4LjIyMDYwODI4OACVvXmYddrdCI++6aN12t0IJ0NJUS5CSVQ6V1RBSS5JUV9DTE9TRVBSSUNFLjIwMjUvNS82LlVTRAEAAABNulsjAgAAAA02MC4yNzAwODYyNTc2AJW9eZh12t0I0mHro3Xa3QgnQ0lRLkxTRTpBSUFHLklRX0NMT1NFUFJJQ0UuMjAyNS81</t>
-  </si>
-  <si>
-    <t>LzYuVVNEAQAAAPCdgiQCAAAADzIwLjQzODI1ODcyMzcxNwCVvXmYddrdCBDk36N12t0IJkNJUS5EQjpYQjBULklRX0NMT1NFUFJJQ0UuMjAyNS81LzYuVVNEAQAAANMz3ikCAAAADjE5LjIwNzg5ODMyNDE2AJW9eZh12t0Idh3ho3Xa3QgsQ0lRLk5BU0RBUUdNOkFHSVguSVFfQ0xPU0VQUklDRS4yMDI1LzUvNS5VU0QBAAAAI/cAcAIAAAAFMjYuNzIAlb15mHXa3QhzGeOjddrdCCxDSVEuTkFTREFRR006Qk9UWi5JUV9DTE9TRVBSSUNFLjIwMjUvNS81LlVTRAEAAAD3/QgWAgAAAAUyOS4yNwCVvXmYddrdCImSfqJ12t0IK0NJUS5OQVNEQVFHTTpBSVEuSVFfQ0xPU0VQUklDRS4yMDI1LzUvNS5VU0QBAAAA6dxiIQIAAAAEMzguMQCVvXmYddrdCAhGgqJ12t0ILENJUS5OQVNEQVFHTTpST0JULklRX0NMT1NFUFJJQ0UuMjAyNS81LzUuVVNEAQAAAFxj2SACAAAABTQyLjQ3AJW9eZh12t0IoqaEonXa3QgoQ0lRLkJBVFM6V1RBSS5JUV9DTE9TRVBSSUNFLjIwMjUvNS81LlVTRAEAAABgTm9kAgAAAAUyMC40MQCVvXmYddrdCBBHhqJ12t0IKENJUS5BUkNBOlRITlEuSVFfQ0xPU0VQUklDRS4yMDI1LzUvNS5VU0QBAAAArsN+JAIAAAAFNDYuNTQAlb15mHXa3QjTMImiddrdCCxDSVEuTkFTREFRR006RkRUWC5JUV9DTE9TRVBSSUNFLjIwMjUvNS81LlVTRAEAAAC9pZ0mAgAAAAQzMy41AJW9eZh12t0IvkuKpHXa</t>
-  </si>
-  <si>
-    <t>3QgoQ0lRLkFSQ0E6TE9VUC5JUV9DTE9TRVBSSUNFLjIwMjUvNS81LlVTRAEAAABZXA8iAgAAAAc0OS44MDc0AJW9eZh12t0ITVzso3Xa3QgsQ0lRLk5BU0RBUUdNOldJU0UuSVFfQ0xPU0VQUklDRS4yMDI1LzUvNS5VU0QBAAAA6bBDbgIAAAAEMzAuNgCVvXmYddrdCEbOfqJ12t0IJ0NJUS5MU0U6UkJPVC5JUV9DTE9TRVBSSUNFLjIwMjUvNS81LlVTRAEAAACOeyQUAgAAAAcxMy4zNzYxAJW9eZh12t0Id+aAonXa3QgnQ0lRLkFTWDpSQlRaLklRX0NMT1NFUFJJQ0UuMjAyNS81LzUuVVNEAQAAACntdiICAAAADDguMzg1MTMzMzkxNgCVvXmYddrdCH9m6KN12t0IJkNJUS5EQjpYQjBULklRX0NMT1NFUFJJQ0UuMjAyNS81LzUuVVNEAQAAANMz3ikCAAAADzE5LjIwMDE4MTI2NDk4OACVvXmYddrdCI++6aN12t0IK0NJUS5OQVNEQVFHTTpRUVEuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMi5VU0QBAAAADrp7AAIAAAAGNDg4LjgzAJW9eZh12t0I0mHro3Xa3QgrQ0lRLk5BU0RBUUdNOlNNSC5JUV9DTE9TRVBSSUNFLjIwMjUvNS8yLlVTRAEAAABgwjYAAgAAAAYyMTkuMDMAlb15mHXa3Qh2HeGjddrdCCtDSVEuTkFTREFRR006QUlRLklRX0NMT1NFUFJJQ0UuMjAyNS81LzIuVVNEAQAAAOncYiECAAAABTM4LjE2AJW9eZh12t0INfLio3Xa3QgoQ0lRLkFSQ0E6QVJUWS5JUV9DTE9TRVBSSUNFLjIwMjUvNS8yLlVT</t>
-  </si>
-  <si>
-    <t>RAEAAABuH2khAgAAAAUzMy45NQCVvXmYddrdCDcP5aN12t0ILENJUS5OQVNEQVFHTTpST0JULklRX0NMT1NFUFJJQ0UuMjAyNS81LzIuVVNEAQAAAFxj2SACAAAABTQyLjU3AJW9eZh12t0IiZJ+onXa3QgoQ0lRLkFSQ0E6SUdQVC5JUV9DTE9TRVBSSUNFLjIwMjUvNS8yLlVTRAEAAADMAl4BAgAAAAU0MS45OQCVvXmYddrdCCqC5qN12t0IKENJUS5BUkNBOlRITlEuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMi5VU0QBAAAArsN+JAIAAAAFNDYuNjEAlb15mHXa3QiipoSiddrdCCxDSVEuTkFTREFRR006RkRUWC5JUV9DTE9TRVBSSUNFLjIwMjUvNS8yLlVTRAEAAAC9pZ0mAgAAAAUzMy43MQCVvXmYddrdCPUfhqJ12t0IKENJUS5BUkNBOkNIQVQuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMi5VU0QBAAAAADA1bQIAAAAFMzcuNzcAlb15mHXa3QjTMImiddrdCChDSVEuQVJDQTpMUk5aLklRX0NMT1NFUFJJQ0UuMjAyNS81LzIuVVNEAQAAALV2wyYCAAAABzM3Ljc5NjQAlb15mHXa3QgQ5N+jddrdCCdDSVEuTFNFOlJCT1QuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMi5VU0QBAAAAjnskFAIAAAAGMTMuNDQ1AJW9eZh12t0IRs5+onXa3QgoQ0lRLlhUUkE6WEFJWC5JUV9DTE9TRVBSSUNFLjIwMjUvNS8yLlVTRAEAAAA17OIiAgAAAA4xMzguODM2NjAyODAwNACVvXmYddrdCHfmgKJ12t0IJ0NJUS5CSVQ6V1RBSS5JUV9D</t>
-  </si>
-  <si>
-    <t>TE9TRVBSSUNFLjIwMjUvNS8yLlVTRAEAAABNulsjAgAAAA02MC44Njg1NzkyMDg4AJW9eZh12t0IiZJ+onXa3QgnQ0lRLkxTRTpBSUFHLklRX0NMT1NFUFJJQ0UuMjAyNS81LzIuVVNEAQAAAPCdgiQCAAAADjIwLjQ2ODIzMjc1MzY2AJW9eZh12t0ICEaConXa3QgrQ0lRLk5BU0RBUUdNOlFRUS5JUV9DTE9TRVBSSUNFLjIwMjUvNS8xLlVTRAEAAAAOunsAAgAAAAY0ODEuNjgAlb15mHXa3QiPvumjddrdCCxDSVEuTkFTREFRR006QUdJWC5JUV9DTE9TRVBSSUNFLjIwMjUvNS8xLlVTRAEAAAAj9wBwAgAAAAUyNS45NwCVvXmYddrdCNJh66N12t0IJ0NJUS5CQVRTOklHVi5JUV9DTE9TRVBSSUNFLjIwMjUvNS8xLlVTRAEAAADNOoYAAgAAAAU5Ny4wMQCVvXmYddrdCL3WiaR12t0IK0NJUS5OQVNEQVFHTTpBSVEuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMS5VU0QBAAAA6dxiIQIAAAAFMzcuMTcAlb15mHXa3QhNXOyjddrdCCxDSVEuTkFTREFRR006Uk9CVC5JUV9DTE9TRVBSSUNFLjIwMjUvNS8xLlVTRAEAAABcY9kgAgAAAAU0MS42OACVvXmYddrdCDcP5aN12t0IKENJUS5BUkNBOklHUFQuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMS5VU0QBAAAAzAJeAQIAAAAFNDAuOTEAlb15mHXa3QiJkn6iddrdCChDSVEuQkFUUzpXVEFJLklRX0NMT1NFUFJJQ0UuMjAyNS81LzEuVVNEAQAAAGBOb2QCAAAABTE5Ljg3AJW9</t>
-  </si>
-  <si>
-    <t>eZh12t0IKoLmo3Xa3QgoQ0lRLkFSQ0E6TE9VUC5JUV9DTE9TRVBSSUNFLjIwMjUvNS8xLlVTRAEAAABZXA8iAgAAAAc0OC43MDg0AJW9eZh12t0If2boo3Xa3QgnQ0lRLkFSQ0E6QUlTLklRX0NMT1NFUFJJQ0UuMjAyNS81LzEuVVNEAQAAAJiXn3ACAAAABzIxLjg5NTQAlb15mHXa3Qinz9+jddrdCCdDSVEuTFNFOlJCT1QuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMS5VU0QBAAAAjnskFAIAAAAFMTMuMzIAlb15mHXa3Qh2HeGjddrdCCdDSVEuTFNFOkFJQUcuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMS5VU0QBAAAA8J2CJAIAAAAPMjAuMjQxODYwNDU3NzI4AJW9eZh12t0INfLio3Xa3QgnQ0lRLkFTWDpSQlRaLklRX0NMT1NFUFJJQ0UuMjAyNS81LzEuVVNEAQAAACntdiICAAAADTguMjU4ODE0NTA5MjIAlb15mHXa3QgIRoKiddrdCCxDSVEuTkFTREFRR006U01ILklRX0NMT1NFUFJJQ0UuMjAyNS80LzMwLlVTRAEAAABgwjYAAgAAAAYyMTEuMjgAlb15mHXa3QiipoSiddrdCChDSVEuQkFUUzpJR1YuSVFfQ0xPU0VQUklDRS4yMDI1LzQvMzAuVVNEAQAAAM06hgACAAAABTk2LjA3AJW9eZh12t0I9R+GonXa3QgtQ0lRLk5BU0RBUUdNOkJPVFouSVFfQ0xPU0VQUklDRS4yMDI1LzQvMzAuVVNEAQAAAPf9CBYCAAAABTI4LjU2AJW9eZh12t0I0zCJonXa3QgpQ0lRLkFSQ0E6QVJUWS5JUV9DTE9TRVBSSUNFLjIw</t>
-  </si>
-  <si>
-    <t>MjUvNC8zMC5VU0QBAAAAbh9pIQIAAAAFMzIuMzYAlb15mHXa3QhGzn6iddrdCClDSVEuQkFUUzpXVEFJLklRX0NMT1NFUFJJQ0UuMjAyNS80LzMwLlVTRAEAAABgTm9kAgAAAAUxOS42NACVvXmYddrdCHfmgKJ12t0IKUNJUS5BUkNBOlRITlEuSVFfQ0xPU0VQUklDRS4yMDI1LzQvMzAuVVNEAQAAAK7DfiQCAAAABTQ0Ljk3AJW9eZh12t0I+ll8onXa3QgtQ0lRLk5BU0RBUUdNOkZEVFguSVFfQ0xPU0VQUklDRS4yMDI1LzQvMzAuVVNEAQAAAL2lnSYCAAAABTMyLjUyAJW9eZh12t0IiZJ+onXa3QgpQ0lRLkFSQ0E6TFJOWi5JUV9DTE9TRVBSSUNFLjIwMjUvNC8zMC5VU0QBAAAAtXbDJgIAAAAFMzcuMDcAlb15mHXa3QiPvumjddrdCChDSVEuQVJDQTpBSVMuSVFfQ0xPU0VQUklDRS4yMDI1LzQvMzAuVVNEAQAAAJiXn3ACAAAABzIxLjQxODkAlb15mHXa3QgcJOujddrdCC1DSVEuTkFTREFRR006V0lTRS5JUV9DTE9TRVBSSUNFLjIwMjUvNC8zMC5VU0QBAAAA6bBDbgIAAAAFMzAuNDEAlb15mHXa3Qi5EomkddrdCClDSVEuWFRSQTpYQUlYLklRX0NMT1NFUFJJQ0UuMjAyNS80LzMwLlVTRAEAAAA17OIiAgAAAA4xMzMuNjUxMDA5Nzk0NgCVvXmYddrdCE1c7KN12t0IKENJUS5BU1g6UkJUWi5JUV9DTE9TRVBSSUNFLjIwMjUvNC8zMC5VU0QBAAAAKe12IgIAAAANOC4xNjM3ODc1OTQxNgCVvXmYddrdCCqC</t>
-  </si>
-  <si>
-    <t>5qN12t0IJ0NJUS5EQjpYQjBULklRX0NMT1NFUFJJQ0UuMjAyNS80LzMwLlVTRAEAAADTM94pAgAAAA8xOC43MTU2Nzk2MDU4NzIAlb15mHXa3Qj6WXyiddrdCCxDSVEuTkFTREFRR006UVFRLklRX0NMT1NFUFJJQ0UuMjAyNS80LzI5LlVTRAEAAAAOunsAAgAAAAY0NzUuNTMAlb15mHXa3QgCVX6iddrdCC1DSVEuTkFTREFRR006QUdJWC5JUV9DTE9TRVBSSUNFLjIwMjUvNC8yOS5VU0QBAAAAI/cAcAIAAAAFMjUuNzUAlb15mHXa3Qh/ZuijddrdCChDSVEuQkFUUzpJR1YuSVFfQ0xPU0VQUklDRS4yMDI1LzQvMjkuVVNEAQAAAM06hgACAAAABDk2LjEAlb15mHXa3QjNCYmiddrdCC1DSVEuTkFTREFRR006Qk9UWi5JUV9DTE9TRVBSSUNFLjIwMjUvNC8yOS5VU0QBAAAA9/0IFgIAAAAFMjguNjQAlb15mHXa3Qinz9+jddrdCCxDSVEuTkFTREFRR006QUlRLklRX0NMT1NFUFJJQ0UuMjAyNS80LzI5LlVTRAEAAADp3GIhAgAAAAUzNi45NQCVvXmYddrdCHYd4aN12t0ILUNJUS5OQVNEQVFHTTpST0JULklRX0NMT1NFUFJJQ0UuMjAyNS80LzI5LlVTRAEAAABcY9kgAgAAAAU0MS43MgCVvXmYddrdCDXy4qN12t0IKUNJUS5CQVRTOldUQUkuSVFfQ0xPU0VQUklDRS4yMDI1LzQvMjkuVVNEAQAAAGBOb2QCAAAABjE5LjY3NQCVvXmYddrdCD/u5KN12t0IKUNJUS5BUkNBOlRITlEuSVFfQ0xPU0VQUklDRS4yMDI1</t>
-  </si>
-  <si>
-    <t>LzQvMjkuVVNEAQAAAK7DfiQCAAAAAjQ1AJW9eZh12t0IoqaEonXa3QgtQ0lRLk5BU0RBUUdNOkZEVFguSVFfQ0xPU0VQUklDRS4yMDI1LzQvMjkuVVNEAQAAAL2lnSYCAAAABTMyLjM5AJW9eZh12t0I+ll8onXa3QgpQ0lRLkFSQ0E6Q0hBVC5JUV9DTE9TRVBSSUNFLjIwMjUvNC8yOS5VU0QBAAAAADA1bQIAAAAHMzUuNzc0MwCVvXmYddrdCAJVfqJ12t0IKUNJUS5BUkNBOkxPVVAuSVFfQ0xPU0VQUklDRS4yMDI1LzQvMjkuVVNEAQAAAFlcDyICAAAABzQ4LjUzMTUAlb15mHXa3Qj1H4aiddrdCChDSVEuTFNFOlJCT1QuSVFfQ0xPU0VQUklDRS4yMDI1LzQvMjkuVVNEAQAAAI57JBQCAAAABTEzLjExAJW9eZh12t0IRs5+onXa3QgoQ0lRLkJJVDpXVEFJLklRX0NMT1NFUFJJQ0UuMjAyNS80LzI5LlVTRAEAAABNulsjAgAAAA01OC44MzQ5MjkzMTY4AJW9eZh12t0Id+aAonXa3QgoQ0lRLkFTWDpSQlRaLklRX0NMT1NFUFJJQ0UuMjAyNS80LzI5LlVTRAEAAAAp7XYiAgAAAA04LjIwNDQ3Mjg0NjI0AJW9eZh12t0ICEaConXa3QgtQ0lRLk5BU0RBUUdNOkFHSVguSVFfQ0xPU0VQUklDRS4yMDI1LzQvMjguVVNEAQAAACP3AHACAAAABzI1LjU5MzEAlb15mHXa3QgCVX6iddrdCCxDSVEuTkFTREFRR006U01ILklRX0NMT1NFUFJJQ0UuMjAyNS80LzI4LlVTRAEAAABgwjYAAgAAAAYyMTAuNjUAlb15mHXa3Qgc</t>
-  </si>
-  <si>
-    <t>JOujddrdCClDSVEuQVJDQTpBUlRZLklRX0NMT1NFUFJJQ0UuMjAyNS80LzI4LlVTRAEAAABuH2khAgAAAAUzMi40MQCVvXmYddrdCImdiKR12t0ILUNJUS5OQVNEQVFHTTpST0JULklRX0NMT1NFUFJJQ0UuMjAyNS80LzI4LlVTRAEAAABcY9kgAgAAAAU0MS40NgCVvXmYddrdCE1c7KN12t0IKUNJUS5BUkNBOklHUFQuSVFfQ0xPU0VQUklDRS4yMDI1LzQvMjguVVNEAQAAAMwCXgECAAAABTQwLjU4AJW9eZh12t0IeG3mo3Xa3QgpQ0lRLkFSQ0E6VEhOUS5JUV9DTE9TRVBSSUNFLjIwMjUvNC8yOC5VU0QBAAAArsN+JAIAAAAHNDQuODg2OQCVvXmYddrdCH9m6KN12t0IKUNJUS5BUkNBOkxPVVAuSVFfQ0xPU0VQUklDRS4yMDI1LzQvMjguVVNEAQAAAFlcDyICAAAABjQ4LjE5MgCVvXmYddrdCI++6aN12t0IKUNJUS5BUkNBOkxSTlouSVFfQ0xPU0VQUklDRS4yMDI1LzQvMjguVVNEAQAAALV2wyYCAAAABzM2LjY2NDkAlb15mHXa3Qj6WXyiddrdCClDSVEuWFRSQTpYQUlYLklRX0NMT1NFUFJJQ0UuMjAyNS80LzI4LlVTRAEAAAA17OIiAgAAAA8xMzIuMzcwMDA3OTk5NDYAlb15mHXa3Qh2HeGjddrdCChDSVEuQklUOldUQUkuSVFfQ0xPU0VQUklDRS4yMDI1LzQvMjguVVNEAQAAAE26WyMCAAAADjU4LjQwMjU0ODY1NTc3AJW9eZh12t0INfLio3Xa3QgoQ0lRLkxTRTpBSUFHLklRX0NMT1NFUFJJQ0UuMjAy</t>
-  </si>
-  <si>
-    <t>NS80LzI4LlVTRAEAAADwnYIkAgAAAA8xOS42MDYxMTA1MTEwOTIAlb15mHXa3Qg/7uSjddrdCCdDSVEuREI6WEIwVC5JUV9DTE9TRVBSSUNFLjIwMjUvNC8yOC5VU0QBAAAA0zPeKQIAAAAOMTguNjM2OTMyNTM0MjIAlb15mHXa3QjNCYmiddrdCChDSVEuQkFUUzpJR1YuSVFfQ0xPU0VQUklDRS4yMDI1LzQvMjUuVVNEAQAAAM06hgACAAAABTk0Ljc2AJW9eZh12t0I+ll8onXa3QgtQ0lRLk5BU0RBUUdNOkJPVFouSVFfQ0xPU0VQUklDRS4yMDI1LzQvMjUuVVNEAQAAAPf9CBYCAAAABTI4LjU5AJW9eZh12t0IAlV+onXa3QgsQ0lRLk5BU0RBUUdNOkFJUS5JUV9DTE9TRVBSSUNFLjIwMjUvNC8yNS5VU0QBAAAA6dxiIQIAAAAFMzYuNzcAlb15mHXa3Qinz9+jddrdCC1DSVEuTkFTREFRR006Uk9CVC5JUV9DTE9TRVBSSUNFLjIwMjUvNC8yNS5VU0QBAAAAXGPZIAIAAAAFNDEuMzMAlb15mHXa3Qh35oCiddrdCClDSVEuQVJDQTpJR1BULklRX0NMT1NFUFJJQ0UuMjAyNS80LzI1LlVTRAEAAADMAl4BAgAAAAU0MC43NQCVvXmYddrdCAhGgqJ12t0IKUNJUS5CQVRTOldUQUkuSVFfQ0xPU0VQUklDRS4yMDI1LzQvMjUuVVNEAQAAAGBOb2QCAAAABTE5LjU5AJW9eZh12t0ICZKEonXa3QgtQ0lRLk5BU0RBUUdNOkZEVFguSVFfQ0xPU0VQUklDRS4yMDI1LzQvMjUuVVNEAQAAAL2lnSYCAAAABTMyLjIyAN3SeZh1</t>
-  </si>
-  <si>
-    <t>2t0I9R+GonXa3QgoQ0lRLkFSQ0E6QUlTLklRX0NMT1NFUFJJQ0UuMjAyNS80LzI1LlVTRAEAAACYl59wAgAAAAcyMS4yODgyAN3SeZh12t0I+ll8onXa3QgtQ0lRLk5BU0RBUUdNOldJU0UuSVFfQ0xPU0VQUklDRS4yMDI1LzQvMjUuVVNEAQAAAOmwQ24CAAAABTMwLjQ0AN3SeZh12t0IAlV+onXa3QgoQ0lRLkxTRTpSQk9ULklRX0NMT1NFUFJJQ0UuMjAyNS80LzI1LlVTRAEAAACOeyQUAgAAAAUxMy4wMQDd0nmYddrdCEbOfqJ12t0IKENJUS5MU0U6QUlBRy5JUV9DTE9TRVBSSUNFLjIwMjUvNC8yNS5VU0QBAAAA8J2CJAIAAAAOMTkuNjg1NjE1Nzg4OTUA3dJ5mHXa3QiPvumjddrdCChDSVEuQVNYOlJCVFouSVFfQ0xPU0VQUklDRS4yMDI1LzQvMjUuVVNEAQAAACntdiIDAAAAAADd0nmYddrdCBwk66N12t0ILENJUS5OQVNEQVFHTTpRUVEuSVFfQ0xPU0VQUklDRS4yMDI1LzQvMjQuVVNEAQAAAA66ewACAAAABjQ2Ny4zNQDd0nmYddrdCKQoiKR12t0ILENJUS5OQVNEQVFHTTpTTUguSVFfQ0xPU0VQUklDRS4yMDI1LzQvMjQuVVNEAQAAAGDCNgACAAAABjIwOC45NwDd0nmYddrdCE1c7KN12t0ILUNJUS5OQVNEQVFHTTpCT1RaLklRX0NMT1NFUFJJQ0UuMjAyNS80LzI0LlVTRAEAAAD3/QgWAgAAAAUyOC4xNQDd0nmYddrdCAozfKJ12t0ILENJUS5OQVNEQVFHTTpBSVEuSVFfQ0xPU0VQUklDRS4yMDI1</t>
-  </si>
-  <si>
-    <t>LzQvMjQuVVNEAQAAAOncYiECAAAABDM2LjIA3dJ5mHXa3QgCVX6iddrdCClDSVEuQVJDQTpBUlRZLklRX0NMT1NFUFJJQ0UuMjAyNS80LzI0LlVTRAEAAABuH2khAgAAAAUzMS45NADd0nmYddrdCHht5qN12t0IKUNJUS5BUkNBOlRITlEuSVFfQ0xPU0VQUklDRS4yMDI1LzQvMjQuVVNEAQAAAK7DfiQCAAAABTQ0LjIxAN3SeZh12t0If2boo3Xa3QgpQ0lRLkFSQ0E6Q0hBVC5JUV9DTE9TRVBSSUNFLjIwMjUvNC8yNC5VU0QBAAAAADA1bQIAAAAFMzUuMjMA3dJ5mHXa3Qg18uKjddrdCClDSVEuQVJDQTpMUk5aLklRX0NMT1NFUFJJQ0UuMjAyNS80LzI0LlVTRAEAAAC1dsMmAgAAAAUzNi4xMwDd0nmYddrdCD/u5KN12t0IKUNJUS5YVFJBOlhBSVguSVFfQ0xPU0VQUklDRS4yMDI1LzQvMjQuVVNEAQAAADXs4iICAAAADzEzMC42MjMzNjc3NTIxNgDd0nmYddrdCPUfhqJ12t0IJ0NJUS5EQjpYQjBULklRX0NMT1NFUFJJQ0UuMjAyNS80LzI0LlVTRAEAAADTM94pAgAAAA8xNy45Nzg4ODA0MzI3ODYA3dJ5mHXa3QjNCYmiddrdCCxDSVEuTkFTREFRR006UVFRLklRX0NMT1NFUFJJQ0UuMjAyNS80LzIzLlVTRAEAAAAOunsAAgAAAAY0NTQuNTYA3dJ5mHXa3Qinz9+jddrdCC1DSVEuTkFTREFRR006QUdJWC5JUV9DTE9TRVBSSUNFLjIwMjUvNC8yMy5VU0QBAAAAI/cAcAIAAAAEMjQuMQDd0nmYddrdCHYd4aN1</t>
-  </si>
-  <si>
-    <t>2t0IKENJUS5CQVRTOklHVi5JUV9DTE9TRVBSSUNFLjIwMjUvNC8yMy5VU0QBAAAAzTqGAAIAAAAFODguODEA3dJ5mHXa3QgJkoSiddrdCC1DSVEuTkFTREFRR006Uk9CVC5JUV9DTE9TRVBSSUNFLjIwMjUvNC8yMy5VU0QBAAAAXGPZIAIAAAAEMzkuNQDd0nmYddrdCAozfKJ12t0IKUNJUS5BUkNBOklHUFQuSVFfQ0xPU0VQUklDRS4yMDI1LzQvMjMuVVNEAQAAAMwCXgECAAAABTM4LjcyAN3SeZh12t0IAlV+onXa3QgpQ0lRLkFSQ0E6Q0hBVC5JUV9DTE9TRVBSSUNFLjIwMjUvNC8yMy5VU0QBAAAAADA1bQIAAAAFMzMuNzUA3dJ5mHXa3QhGzn6iddrdCClDSVEuQVJDQTpMT1VQLklRX0NMT1NFUFJJQ0UuMjAyNS80LzIzLlVTRAEAAABZXA8iAgAAAAY0NS4yNzMA3dJ5mHXa3Qhxv4CiddrdCChDSVEuQVJDQTpBSVMuSVFfQ0xPU0VQUklDRS4yMDI1LzQvMjMuVVNEAQAAAJiXn3ACAAAABjIwLjI0NQDd0nmYddrdCAhGgqJ12t0IKENJUS5CSVQ6V1RBSS5JUV9DTE9TRVBSSUNFLjIwMjUvNC8yMy5VU0QBAAAATbpbIwIAAAAPNTYuMjk3NjAxNDQ2NjI1AN3SeZh12t0ICjN8onXa3QgoQ0lRLkxTRTpBSUFHLklRX0NMT1NFUFJJQ0UuMjAyNS80LzIzLlVTRAEAAADwnYIkAgAAAA8xOS4wNTc3MzkwNDkyMjgA3dJ5mHXa3QgCVX6iddrdCChDSVEuQVNYOlJCVFouSVFfQ0xPU0VQUklDRS4yMDI1LzQvMjMuVVNE</t>
-  </si>
-  <si>
-    <t>AQAAACntdiICAAAADDcuODI1ODY0OTI5MQDd0nmYddrdCE1c7KN12t0ILUNJUS5OQVNEQVFHTTpBR0lYLklRX0NMT1NFUFJJQ0UuMjAyNS80LzIyLlVTRAEAAAAj9wBwAgAAAAcyMi44OTQ3AN3SeZh12t0If2boo3Xa3QgsQ0lRLk5BU0RBUUdNOlNNSC5JUV9DTE9TRVBSSUNFLjIwMjUvNC8yMi5VU0QBAAAAYMI2AAIAAAAFMTkxLjkA3dJ5mHXa3QiPvumjddrdCC1DSVEuTkFTREFRR006Qk9UWi5JUV9DTE9TRVBSSUNFLjIwMjUvNC8yMi5VU0QBAAAA9/0IFgIAAAAFMjYuNjgA3dJ5mHXa3QgcJOujddrdCClDSVEuQVJDQTpBUlRZLklRX0NMT1NFUFJJQ0UuMjAyNS80LzIyLlVTRAEAAABuH2khAgAAAAUyOS42MQDd0nmYddrdCFGzh6R12t0IKUNJUS5BUkNBOklHUFQuSVFfQ0xPU0VQUklDRS4yMDI1LzQvMjIuVVNEAQAAAMwCXgECAAAABTM3LjYxAN3SeZh12t0ICjN8onXa3QgpQ0lRLkJBVFM6V1RBSS5JUV9DTE9TRVBSSUNFLjIwMjUvNC8yMi5VU0QBAAAAYE5vZAIAAAAFMTcuNzkA3dJ5mHXa3QgCVX6iddrdCClDSVEuQVJDQTpUSE5RLklRX0NMT1NFUFJJQ0UuMjAyNS80LzIyLlVTRAEAAACuw34kAgAAAAU0MS40NwDd0nmYddrdCHht5qN12t0IKUNJUS5BUkNBOkxSTlouSVFfQ0xPU0VQUklDRS4yMDI1LzQvMjIuVVNEAQAAALV2wyYCAAAABTMzLjAzAN3SeZh12t0Idh3ho3Xa3QgtQ0lRLk5BU0RB</t>
-  </si>
-  <si>
-    <t>UUdNOldJU0UuSVFfQ0xPU0VQUklDRS4yMDI1LzQvMjIuVVNEAQAAAOmwQ24CAAAABTI3LjgxAN3SeZh12t0INfLio3Xa3QgpQ0lRLlhUUkE6WEFJWC5JUV9DTE9TRVBSSUNFLjIwMjUvNC8yMi5VU0QBAAAANeziIgIAAAAPMTIzLjgyMDQ1Njg3MjM2AN3SeZh12t0IP+7ko3Xa3QgoQ0lRLkFTWDpSQlRaLklRX0NMT1NFUFJJQ0UuMjAyNS80LzIyLlVTRAEAAAAp7XYiAgAAAA03LjU1MjcxNTY1NzUyAN3SeZh12t0IAlV+onXa3QgnQ0lRLkRCOlhCMFQuSVFfQ0xPU0VQUklDRS4yMDI1LzQvMjIuVVNEAQAAANMz3ikCAAAADzE3LjAxOTg1OTk0NDI3NgDd0nmYddrdCM0JiaJ12t0ILUNJUS5OQVNEQVFHTTpCT1RaLklRX0NMT1NFUFJJQ0UuMjAyNS80LzIxLlVTRAEAAAD3/QgWAgAAAAUyNi4xNwDd0nmYddrdCKfP36N12t0ILENJUS5OQVNEQVFHTTpBSVEuSVFfQ0xPU0VQUklDRS4yMDI1LzQvMjEuVVNEAQAAAOncYiECAAAABTMzLjIzAN3SeZh12t0ICZKEonXa3QgtQ0lRLk5BU0RBUUdNOlJPQlQuSVFfQ0xPU0VQUklDRS4yMDI1LzQvMjEuVVNEAQAAAFxj2SACAAAABTM3LjQyAN3SeZh12t0I9R+GonXa3QgtQ0lRLk5BU0RBUUdNOkZEVFguSVFfQ0xPU0VQUklDRS4yMDI1LzQvMjEuVVNEAQAAAL2lnSYCAAAABTI5LjAzAN3SeZh12t0ICjN8onXa3QgtQ0lRLk5BU0RBUUdNOldJU0UuSVFfQ0xPU0VQUklD</t>
-  </si>
-  <si>
-    <t>RS4yMDI1LzQvMjEuVVNEAQAAAOmwQ24CAAAABTI3LjEzAN3SeZh12t0Icb+AonXa3QgoQ0lRLkxTRTpSQk9ULklRX0NMT1NFUFJJQ0UuMjAyNS80LzIxLlVTRAEAAACOeyQUAwAAAAAA3dJ5mHXa3QjjHoKiddrdCChDSVEuQklUOldUQUkuSVFfQ0xPU0VQUklDRS4yMDI1LzQvMjEuVVNEAQAAAE26WyMDAAAAAADd0nmYddrdCE1c7KN12t0ILENJUS5OQVNEQVFHTTpRUVEuSVFfQ0xPU0VQUklDRS4yMDI1LzQvMTcuVVNEAQAAAA66ewACAAAABTQ0NC4xAN3SeZh12t0ICjN8onXa3QgtQ0lRLk5BU0RBUUdNOkFHSVguSVFfQ0xPU0VQUklDRS4yMDI1LzQvMTcuVVNEAQAAACP3AHACAAAABzIzLjIxMjMA3dJ5mHXa3QgCVX6iddrdCCxDSVEuTkFTREFRR006U01ILklRX0NMT1NFUFJJQ0UuMjAyNS80LzE3LlVTRAEAAABgwjYAAgAAAAYxOTIuNTMA3dJ5mHXa3QhGzn6iddrdCCxDSVEuTkFTREFRR006QUlRLklRX0NMT1NFUFJJQ0UuMjAyNS80LzE3LlVTRAEAAADp3GIhAgAAAAQzMy45AN3SeZh12t0ITpfpo3Xa3QgpQ0lRLkFSQ0E6QVJUWS5JUV9DTE9TRVBSSUNFLjIwMjUvNC8xNy5VU0QBAAAAbh9pIQIAAAAEMjkuOADd0nmYddrdCBwk66N12t0IKUNJUS5BUkNBOklHUFQuSVFfQ0xPU0VQUklDRS4yMDI1LzQvMTcuVVNEAQAAAMwCXgECAAAABTM3LjU4AN3SeZh12t0I/T2HpHXa3QgpQ0lRLkFSQ0E6Q0hB</t>
-  </si>
-  <si>
-    <t>VC5JUV9DTE9TRVBSSUNFLjIwMjUvNC8xNy5VU0QBAAAAADA1bQIAAAAFMzIuNjMA3dJ5mHXa3QgKM3yiddrdCClDSVEuQVJDQTpMT1VQLklRX0NMT1NFUFJJQ0UuMjAyNS80LzE3LlVTRAEAAABZXA8iAgAAAAc0My43MTAxAN3SeZh12t0IAlV+onXa3QgpQ0lRLkFSQ0E6TFJOWi5JUV9DTE9TRVBSSUNFLjIwMjUvNC8xNy5VU0QBAAAAtXbDJgIAAAAGMzMuNTE5AN3SeZh12t0If2boo3Xa3QgoQ0lRLkxTRTpSQk9ULklRX0NMT1NFUFJJQ0UuMjAyNS80LzE3LlVTRAEAAACOeyQUAgAAAAQxMi4yAN3SeZh12t0Idh3ho3Xa3QgpQ0lRLlhUUkE6WEFJWC5JUV9DTE9TRVBSSUNFLjIwMjUvNC8xNy5VU0QBAAAANeziIgIAAAAPMTI0LjY3NTkxNTM1NTEyAN3SeZh12t0INfLio3Xa3QgoQ0lRLkxTRTpBSUFHLklRX0NMT1NFUFJJQ0UuMjAyNS80LzE3LlVTRAEAAADwnYIkAgAAAA8xOC4yOTEwMDE2NDk1NTYA3dJ5mHXa3Qg/7uSjddrdCCdDSVEuREI6WEIwVC5JUV9DTE9TRVBSSUNFLjIwMjUvNC8xNy5VU0QBAAAA0zPeKQIAAAAPMTcuNjUwNjcwOTA2MDc2AN3SeZh12t0IeG3mo3Xa3QgtQ0lRLk5BU0RBUUdNOkFHSVguSVFfQ0xPU0VQUklDRS4yMDI1LzQvMTYuVVNEAQAAACP3AHACAAAABTIzLjQ2AN3SeZh12t0ICjN8onXa3QgsQ0lRLk5BU0RBUUdNOlNNSC5JUV9DTE9TRVBSSUNFLjIwMjUvNC8xNi5VU0QB</t>
-  </si>
-  <si>
-    <t>AAAAYMI2AAIAAAAGMTk0LjM1AN3SeZh12t0IAlV+onXa3QgoQ0lRLkJBVFM6SUdWLklRX0NMT1NFUFJJQ0UuMjAyNS80LzE2LlVTRAEAAADNOoYAAgAAAAU4Ni45NADd0nmYddrdCPW636N12t0ILUNJUS5OQVNEQVFHTTpGRFRYLklRX0NMT1NFUFJJQ0UuMjAyNS80LzE2LlVTRAEAAAC9pZ0mAgAAAAUyOS44NQDd0nmYddrdCM0JiaJ12t0IKENJUS5BUkNBOkFJUy5JUV9DTE9TRVBSSUNFLjIwMjUvNC8xNi5VU0QBAAAAmJefcAIAAAAGMTkuNTk5AN3SeZh12t0ICZKEonXa3QgoQ0lRLkxTRTpBSUFHLklRX0NMT1NFUFJJQ0UuMjAyNS80LzE2LlVTRAEAAADwnYIkAgAAAA4xOC43ODE5MjA2NTg1OQDd0nmYddrdCPUfhqJ12t0ILENJUS5OQVNEQVFHTTpRUVEuSVFfQ0xPU0VQUklDRS4yMDI1LzQvMTUuVVNEAQAAAA66ewACAAAABjQ1Ny45OQDd0nmYddrdCOMegqJ12t0ILUNJUS5OQVNEQVFHTTpCT1RaLklRX0NMT1NFUFJJQ0UuMjAyNS80LzE1LlVTRAEAAAD3/QgWAgAAAAQyNy4xAN3SeZh12t0IJAt8onXa3QgsQ0lRLk5BU0RBUUdNOkFJUS5JUV9DTE9TRVBSSUNFLjIwMjUvNC8xNS5VU0QBAAAA6dxiIQIAAAAFMzQuODYA3dJ5mHXa3QgCVX6iddrdCClDSVEuQkFUUzpXVEFJLklRX0NMT1NFUFJJQ0UuMjAyNS80LzE1LlVTRAEAAABgTm9kAgAAAAUxOC41MQDd0nmYddrdCHG/gKJ12t0ILUNJUS5OQVNE</t>
-  </si>
-  <si>
-    <t>QVFHTTpXSVNFLklRX0NMT1NFUFJJQ0UuMjAyNS80LzE1LlVTRAEAAADpsENuAgAAAAcyOC45MzY5AN3SeZh12t0IJAt8onXa3QgoQ0lRLkxTRTpSQk9ULklRX0NMT1NFUFJJQ0UuMjAyNS80LzE1LlVTRAEAAACOeyQUAgAAAAUxMi40MwDd0nmYddrdCCMsfqJ12t0IKUNJUS5YVFJBOlhBSVguSVFfQ0xPU0VQUklDRS4yMDI1LzQvMTUuVVNEAQAAADXs4iICAAAADjEyOC43NzY3MzQyMzYyAN3SeZh12t0IRs5+onXa3QgoQ0lRLkFTWDpSQlRaLklRX0NMT1NFUFJJQ0UuMjAyNS80LzE1LlVTRAEAAAAp7XYiAgAAAAw3Ljc2Mjc4OTUwODQAJOh5mHXa3Qjf74akddrdCChDSVEuQkFUUzpJR1YuSVFfQ0xPU0VQUklDRS4yMDI1LzQvMTQuVVNEAQAAAM06hgACAAAABTg3Ljk4ACToeZh12t0ITVzso3Xa3QgsQ0lRLk5BU0RBUUdNOkFJUS5JUV9DTE9TRVBSSUNFLjIwMjUvNC8xNC5VU0QBAAAA6dxiIQIAAAAFMzQuNzMAJOh5mHXa3QgkC3yiddrdCClDSVEuQVJDQTpBUlRZLklRX0NMT1NFUFJJQ0UuMjAyNS80LzE0LlVTRAEAAABuH2khAgAAAAUzMC42OQAk6HmYddrdCCMsfqJ12t0ILUNJUS5OQVNEQVFHTTpST0JULklRX0NMT1NFUFJJQ0UuMjAyNS80LzE0LlVTRAEAAABcY9kgAgAAAAUzOC43OAAk6HmYddrdCBwk66N12t0IKENJUS5BUkNBOkFJUy5JUV9DTE9TRVBSSUNFLjIwMjUvNC8xNC5VU0QBAAAAmJef</t>
-  </si>
-  <si>
-    <t>cAIAAAAHMjAuMDc0OQAk6HmYddrdCE6X6aN12t0IKUNJUS5YVFJBOlhBSVguSVFfQ0xPU0VQUklDRS4yMDI1LzQvMTQuVVNEAQAAADXs4iICAAAADzEyNy43MzczOTIwODEzMgAk6HmYddrdCCMsfqJ12t0IKENJUS5CSVQ6V1RBSS5JUV9DTE9TRVBSSUNFLjIwMjUvNC8xNC5VU0QBAAAATbpbIwIAAAAONTUuMzg5NTk1NjMyNjMAJOh5mHXa3QjIWOajddrdCC1DSVEuTkFTREFRR006QUdJWC5JUV9DTE9TRVBSSUNFLjIwMjUvNC8xMS5VU0QBAAAAI/cAcAIAAAAFMjMuOTcAJOh5mHXa3QhtP+ijddrdCC1DSVEuTkFTREFRR006Qk9UWi5JUV9DTE9TRVBSSUNFLjIwMjUvNC8xMS5VU0QBAAAA9/0IFgIAAAAFMjYuODcAJOh5mHXa3Qg4x+SjddrdCClDSVEuQVJDQTpJR1BULklRX0NMT1NFUFJJQ0UuMjAyNS80LzExLlVTRAEAAADMAl4BAgAAAAUzOC4zNwAk6HmYddrdCCQLfKJ12t0IKUNJUS5BUkNBOkxPVVAuSVFfQ0xPU0VQUklDRS4yMDI1LzQvMTEuVVNEAQAAAFlcDyICAAAABzQ0LjI3NjcAJOh5mHXa3Qg18uKjddrdCC1DSVEuTkFTREFRR006V0lTRS5JUV9DTE9TRVBSSUNFLjIwMjUvNC8xMS5VU0QBAAAA6bBDbgIAAAAFMjguNjkAJOh5mHXa3Qj1ut+jddrdCChDSVEuTFNFOkFJQUcuSVFfQ0xPU0VQUklDRS4yMDI1LzQvMTEuVVNEAQAAAPCdgiQCAAAADzE4LjI1NzYyNDIwMTc3NAAk6HmYddrdCCQL</t>
-  </si>
-  <si>
-    <t>fKJ12t0IKENJUS5BU1g6UkJUWi5JUV9DTE9TRVBSSUNFLjIwMjUvNC8xMS5VU0QBAAAAKe12IgIAAAANNy43NDMwNTk4NzcwNAAk6HmYddrdCCMsfqJ12t0IJ0NJUS5EQjpYQjBULklRX0NMT1NFUFJJQ0UuMjAyNS80LzExLlVTRAEAAADTM94pAgAAAA4xNy40NTE4Njg2MjU3MQAk6HmYddrdCGr24KN12t0ILENJUS5OQVNEQVFHTTpTTUguSVFfQ0xPU0VQUklDRS4yMDI1LzQvMTAuVVNEAQAAAGDCNgACAAAABjE5Ni4yMQAk6HmYddrdCM0JiaJ12t0IKUNJUS5CQVRTOldUQUkuSVFfQ0xPU0VQUklDRS4yMDI1LzQvMTAuVVNEAQAAAGBOb2QCAAAABTE3LjkxACToeZh12t0IJAt8onXa3QgpQ0lRLkFSQ0E6VEhOUS5JUV9DTE9TRVBSSUNFLjIwMjUvNC8xMC5VU0QBAAAArsN+JAIAAAAFNDEuNjYAJOh5mHXa3QgjLH6iddrdCC1DSVEuTkFTREFRR006RkRUWC5JUV9DTE9TRVBSSUNFLjIwMjUvNC8xMC5VU0QBAAAAvaWdJgIAAAAFMjkuODkAJOh5mHXa3Qj1H4aiddrdCClDSVEuQVJDQTpMUk5aLklRX0NMT1NFUFJJQ0UuMjAyNS80LzEwLlVTRAEAAAC1dsMmAgAAAAczMi44MzM1ACToeZh12t0I4x6ConXa3QgoQ0lRLkJJVDpXVEFJLklRX0NMT1NFUFJJQ0UuMjAyNS80LzEwLlVTRAEAAABNulsjAgAAAAw1My42ODUyNzAwOTYAJOh5mHXa3QiDfYSiddrdCChDSVEuQVNYOlJCVFouSVFfQ0xPU0VQUklDRS4y</t>
-  </si>
-  <si>
-    <t>MDI1LzQvMTAuVVNEAQAAACntdiICAAAADDcuNzc1MDE1NTQwNAAk6HmYddrdCCQLfKJ12t0IJ0NJUS5EQjpYQjBULklRX0NMT1NFUFJJQ0UuMjAyNS80LzEwLlVTRAEAAADTM94pAgAAAA0xNy41NTk1NTcwOTM5ACToeZh12t0IIyx+onXa3QgrQ0lRLk5BU0RBUUdNOlFRUS5JUV9DTE9TRVBSSUNFLjIwMjUvNC85LlVTRAEAAAAOunsAAgAAAAM0NjYAJOh5mHXa3Qhxv4CiddrdCChDSVEuQVJDQTpJR1BULklRX0NMT1NFUFJJQ0UuMjAyNS80LzkuVVNEAQAAAMwCXgECAAAABTM5Ljg4ACToeZh12t0IiZJ+onXa3QgoQ0lRLkFSQ0E6Q0hBVC5JUV9DTE9TRVBSSUNFLjIwMjUvNC85LlVTRAEAAAAAMDVtAgAAAAUzNC43MgAk6HmYddrdCK5ThqR12t0IJ0NJUS5MU0U6UkJPVC5JUV9DTE9TRVBSSUNFLjIwMjUvNC85LlVTRAEAAACOeyQUAgAAAAUxMS4xOAAk6HmYddrdCE1c7KN12t0IJ0NJUS5MU0U6QUlBRy5JUV9DTE9TRVBSSUNFLjIwMjUvNC85LlVTRAEAAADwnYIkAgAAAA4xNy4xMjEyMjk1NjIxOQAk6HmYddrdCBwk66N12t0ILENJUS5OQVNEQVFHTTpRUVEuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMTEuVVNEAQAAAA66ewACAAAABjU3Mi44NQARdtaZddrdCNHIhqR12t0ILUNJUS5OQVNEQVFHTTpBR0lYLklRX0NMT1NFUFJJQ0UuMjAyNS84LzExLlVTRAEAAAAj9wBwAgAAAAczMi42NTgzABF21pl12t0I</t>
-  </si>
-  <si>
-    <t>NwaGpHXa3QgsQ0lRLk5BU0RBUUdNOlNNSC5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xMS5VU0QBAAAAYMI2AAIAAAAFMjkzLjQAEXbWmXXa3QhgmICiddrdCChDSVEuQkFUUzpJR1YuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMTEuVVNEAQAAAM06hgACAAAABjEwOC4zNwARdtaZddrdCO8Wh6R12t0ILUNJUS5OQVNEQVFHTTpCT1RaLklRX0NMT1NFUFJJQ0UuMjAyNS84LzExLlVTRAEAAAD3/QgWAgAAAAUzMy4zMQARdtaZddrdCNEphKJ12t0ILENJUS5OQVNEQVFHTTpBSVEuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMTEuVVNEAQAAAOncYiECAAAABTQ0LjY4ABF21pl12t0ITAGIpHXa3QgpQ0lRLkFSQ0E6QVJUWS5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xMS5VU0QBAAAAbh9pIQIAAAAFNDIuMzkAEXbWmXXa3QiflIiiddrdCC1DSVEuTkFTREFRR006Uk9CVC5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xMS5VU0QBAAAAXGPZIAIAAAAFNDkuMDcAEXbWmXXa3Qii4oiiddrdCClDSVEuQVJDQTpJR1BULklRX0NMT1NFUFJJQ0UuMjAyNS84LzExLlVTRAEAAADMAl4BAgAAAAU1MC4yMgARdtaZddrdCH2viaR12t0IKUNJUS5CQVRTOldUQUkuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMTEuVVNEAQAAAGBOb2QCAAAABDI1LjQAEXbWmXXa3Qgx6IqkddrdCClDSVEuQVJDQTpUSE5RLklRX0NMT1NFUFJJQ0UuMjAyNS84LzExLlVTRAEA</t>
-  </si>
-  <si>
-    <t>AACuw34kAgAAAAU1NS44MQARdtaZddrdCIwshqR12t0ILUNJUS5OQVNEQVFHTTpGRFRYLklRX0NMT1NFUFJJQ0UuMjAyNS84LzExLlVTRAEAAAC9pZ0mAgAAAAczOC43NzA5ABF21pl12t0IjCyGpHXa3QgpQ0lRLkFSQ0E6Q0hBVC5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xMS5VU0QBAAAAADA1bQIAAAAFNTMuODcAEXbWmXXa3QgNmoqkddrdCClDSVEuQVJDQTpMT1VQLklRX0NMT1NFUFJJQ0UuMjAyNS84LzExLlVTRAEAAABZXA8iAgAAAAc2NC4wOTM2ABF21pl12t0I/T2HpHXa3QgpQ0lRLkFSQ0E6TFJOWi5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xMS5VU0QBAAAAtXbDJgIAAAAFNDEuNTcAEXbWmXXa3QgiG4WkddrdCChDSVEuQVJDQTpBSVMuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMTEuVVNEAQAAAJiXn3ACAAAABzI5LjczNzYAEXbWmXXa3QgwQoWkddrdCC1DSVEuTkFTREFRR006V0lTRS5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xMS5VU0QBAAAA6bBDbgIAAAAHMzguOTYzNAARdtaZddrdCEwBiKR12t0IKENJUS5MU0U6UkJPVC5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xMS5VU0QBAAAAjnskFAIAAAAFMTUuMDcAEXbWmXXa3Qic64ikddrdCClDSVEuWFRSQTpYQUlYLklRX0NMT1NFUFJJQ0UuMjAyNS84LzExLlVTRAEAAAA17OIiAgAAAA8xNjMuNzk4NzAxMzAxMDYAEXbWmXXa3QhgmICiddrdCChDSVEuQklU</t>
-  </si>
-  <si>
-    <t>OldUQUkuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMTEuVVNEAQAAAE26WyMCAAAADjc2LjAyMDQwODE2NDM2ABF21pl12t0IuRKJpHXa3QgoQ0lRLkxTRTpBSUFHLklRX0NMT1NFUFJJQ0UuMjAyNS84LzExLlVTRAEAAADwnYIkAgAAAA8yNC44MTY5NzAxNTM1NTYAEXbWmXXa3QgsFYSiddrdCChDSVEuQVNYOlJCVFouSVFfQ0xPU0VQUklDRS4yMDI1LzgvMTEuVVNEAQAAACntdiICAAAADTkuNDU4NDAzODU4NzEAEXbWmXXa3QhuiImkddrdCCdDSVEuREI6WEIwVC5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xMS5VU0QBAAAA0zPeKQIAAAAPMjEuOTMxODE4MTgyMTM0ABF21pl12t0In5SIonXa3QgrQ0lRLk5BU0RBUUdNOlFRUS5JUV9DTE9TRVBSSUNFLjIwMjUvOC84LlVTRAEAAAAOunsAAgAAAAY1NzQuNTUAEXbWmXXa3Qii4oiiddrdCCxDSVEuTkFTREFRR006QUdJWC5JUV9DTE9TRVBSSUNFLjIwMjUvOC84LlVTRAEAAAAj9wBwAgAAAAczMi44NTg1ABF21pl12t0IpCiIpHXa3QgrQ0lRLk5BU0RBUUdNOlNNSC5JUV9DTE9TRVBSSUNFLjIwMjUvOC84LlVTRAEAAABgwjYAAgAAAAYyOTMuNTMAEXbWmXXa3QikKIikddrdCCdDSVEuQkFUUzpJR1YuSVFfQ0xPU0VQUklDRS4yMDI1LzgvOC5VU0QBAAAAzTqGAAIAAAAGMTA5LjYzABF21pl12t0IIhuFpHXa3QgsQ0lRLk5BU0RBUUdNOkJPVFouSVFfQ0xPU0VQUklD</t>
-  </si>
-  <si>
-    <t>RS4yMDI1LzgvOC5VU0QBAAAA9/0IFgIAAAAEMzMuNgARdtaZddrdCKy3haR12t0IK0NJUS5OQVNEQVFHTTpBSVEuSVFfQ0xPU0VQUklDRS4yMDI1LzgvOC5VU0QBAAAA6dxiIQIAAAAFNDQuOTEAEXbWmXXa3QjRyIakddrdCChDSVEuQVJDQTpBUlRZLklRX0NMT1NFUFJJQ0UuMjAyNS84LzguVVNEAQAAAG4faSECAAAABTQyLjUxABF21pl12t0IPGmFpHXa3QgsQ0lRLk5BU0RBUUdNOlJPQlQuSVFfQ0xPU0VQUklDRS4yMDI1LzgvOC5VU0QBAAAAXGPZIAIAAAAFNDkuOTYAEXbWmXXa3Qg3BoakddrdCChDSVEuQVJDQTpJR1BULklRX0NMT1NFUFJJQ0UuMjAyNS84LzguVVNEAQAAAMwCXgECAAAABjUwLjE2NQARdtaZddrdCIwshqR12t0IKENJUS5CQVRTOldUQUkuSVFfQ0xPU0VQUklDRS4yMDI1LzgvOC5VU0QBAAAAYE5vZAIAAAAFMjUuNTMAEXbWmXXa3QikKIikddrdCChDSVEuQVJDQTpUSE5RLklRX0NMT1NFUFJJQ0UuMjAyNS84LzguVVNEAQAAAK7DfiQCAAAABTU2LjIxABF21pl12t0IMeiKpHXa3QgsQ0lRLk5BU0RBUUdNOkZEVFguSVFfQ0xPU0VQUklDRS4yMDI1LzgvOC5VU0QBAAAAvaWdJgIAAAAHMzkuNTI3MQARdtaZddrdCGCYgKJ12t0IKENJUS5BUkNBOkNIQVQuSVFfQ0xPU0VQUklDRS4yMDI1LzgvOC5VU0QBAAAAADA1bQIAAAAENTMuOAARdtaZddrdCD6Ei6R12t0IKENJUS5BUkNBOkxP</t>
-  </si>
-  <si>
-    <t>VVAuSVFfQ0xPU0VQUklDRS4yMDI1LzgvOC5VU0QBAAAAWVwPIgIAAAAFNjQuNTcAEXbWmXXa3QgsFYSiddrdCChDSVEuQVJDQTpMUk5aLklRX0NMT1NFUFJJQ0UuMjAyNS84LzguVVNEAQAAALV2wyYCAAAABjQxLjY4MgARdtaZddrdCL3WiaR12t0IJ0NJUS5BUkNBOkFJUy5JUV9DTE9TRVBSSUNFLjIwMjUvOC84LlVTRAEAAACYl59wAgAAAAcyOS43MjkyABF21pl12t0In5SIonXa3QgsQ0lRLk5BU0RBUUdNOldJU0UuSVFfQ0xPU0VQUklDRS4yMDI1LzgvOC5VU0QBAAAA6bBDbgIAAAAFMzguOTQAEXbWmXXa3QiEpt+jddrdCCdDSVEuTFNFOlJCT1QuSVFfQ0xPU0VQUklDRS4yMDI1LzgvOC5VU0QBAAAAjnskFAIAAAAGMTUuMTY1ABF21pl12t0I0ciGpHXa3QgoQ0lRLlhUUkE6WEFJWC5JUV9DTE9TRVBSSUNFLjIwMjUvOC84LlVTRAEAAAA17OIiAgAAAA8xNjMuNjQ5MDkwMDUwMzIAEXbWmXXa3Qg3BoakddrdCCdDSVEuQklUOldUQUkuSVFfQ0xPU0VQUklDRS4yMDI1LzgvOC5VU0QBAAAATbpbIwIAAAAONzYuMzQxNTc3MjIzMzYAEXbWmXXa3QjvFoekddrdCCdDSVEuTFNFOkFJQUcuSVFfQ0xPU0VQUklDRS4yMDI1LzgvOC5VU0QBAAAA8J2CJAIAAAAOMjQuNjg2MjA5MzYzNTUAEXbWmXXa3QhMAYikddrdCCdDSVEuQVNYOlJCVFouSVFfQ0xPU0VQUklDRS4yMDI1LzgvOC5VU0QBAAAAKe12IgIAAAAM</t>
-  </si>
-  <si>
-    <t>OS40OTczODkwMjg3ABF21pl12t0IjCyGpHXa3QgmQ0lRLkRCOlhCMFQuSVFfQ0xPU0VQUklDRS4yMDI1LzgvOC5VU0QBAAAA0zPeKQIAAAAPMjIuMTYyODU1ODA4MjEyABF21pl12t0InOuIpHXa3QgrQ0lRLk5BU0RBUUdNOlFRUS5JUV9DTE9TRVBSSUNFLjIwMjUvOC83LlVTRAEAAAAOunsAAgAAAAY1NjkuMjQAEXbWmXXa3Qi5EomkddrdCCxDSVEuTkFTREFRR006QUdJWC5JUV9DTE9TRVBSSUNFLjIwMjUvOC83LlVTRAEAAAAj9wBwAgAAAAczMi44MTc0ABF21pl12t0IboiJpHXa3QgrQ0lRLk5BU0RBUUdNOlNNSC5JUV9DTE9TRVBSSUNFLjIwMjUvOC83LlVTRAEAAABgwjYAAgAAAAYyOTEuMTIAEXbWmXXa3Qj9PYekddrdCCdDSVEuQkFUUzpJR1YuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNy5VU0QBAAAAzTqGAAIAAAAFMTA5LjYAEXbWmXXa3Qi91omkddrdCCxDSVEuTkFTREFRR006Qk9UWi5JUV9DTE9TRVBSSUNFLjIwMjUvOC83LlVTRAEAAAD3/QgWAgAAAAUzMy40MwARdtaZddrdCGCYgKJ12t0IK0NJUS5OQVNEQVFHTTpBSVEuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNy5VU0QBAAAA6dxiIQIAAAAFNDQuNzEAEXbWmXXa3QgiG4WkddrdCChDSVEuQVJDQTpBUlRZLklRX0NMT1NFUFJJQ0UuMjAyNS84LzcuVVNEAQAAAG4faSECAAAABDQyLjUAEXbWmXXa3QgsFYSiddrdCCxDSVEuTkFTREFRR006Uk9C</t>
-  </si>
-  <si>
-    <t>VC5JUV9DTE9TRVBSSUNFLjIwMjUvOC83LlVTRAEAAABcY9kgAgAAAAc0OS43MzgxABF21pl12t0IMEKFpHXa3QgoQ0lRLkFSQ0E6SUdQVC5JUV9DTE9TRVBSSUNFLjIwMjUvOC83LlVTRAEAAADMAl4BAgAAAAU1MC4yNAARdtaZddrdCJ+UiKJ12t0IKENJUS5CQVRTOldUQUkuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNy5VU0QBAAAAYE5vZAIAAAAFMjUuNDcAEXbWmXXa3Qii4oiiddrdCChDSVEuQVJDQTpUSE5RLklRX0NMT1NFUFJJQ0UuMjAyNS84LzcuVVNEAQAAAK7DfiQCAAAABDU2LjIAEXbWmXXa3QhMAYikddrdCCxDSVEuTkFTREFRR006RkRUWC5JUV9DTE9TRVBSSUNFLjIwMjUvOC83LlVTRAEAAAC9pZ0mAgAAAAczOS42MzkxABF21pl12t0InOuIpHXa3QgoQ0lRLkFSQ0E6Q0hBVC5JUV9DTE9TRVBSSUNFLjIwMjUvOC83LlVTRAEAAAAAMDVtAgAAAAU1My4wOAARdtaZddrdCLkSiaR12t0IKENJUS5BUkNBOkxPVVAuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNy5VU0QBAAAAWVwPIgIAAAAHNjQuOTEzNwARdtaZddrdCG6IiaR12t0IKENJUS5BUkNBOkxSTlouSVFfQ0xPU0VQUklDRS4yMDI1LzgvNy5VU0QBAAAAtXbDJgIAAAAHNDIuMzQ5NAARdtaZddrdCH2viaR12t0IJ0NJUS5BUkNBOkFJUy5JUV9DTE9TRVBSSUNFLjIwMjUvOC83LlVTRAEAAACYl59wAgAAAAcyOS41Mjk4ABF21pl12t0IMeiKpHXa</t>
-  </si>
-  <si>
-    <t>3QgsQ0lRLk5BU0RBUUdNOldJU0UuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNy5VU0QBAAAA6bBDbgIAAAAHMzguMDg3NAARdtaZddrdCFAPi6R12t0IJ0NJUS5MU0U6UkJPVC5JUV9DTE9TRVBSSUNFLjIwMjUvOC83LlVTRAEAAACOeyQUAgAAAAUxNS4xNAARdtaZddrdCL3WiaR12t0IKENJUS5YVFJBOlhBSVguSVFfQ0xPU0VQUklDRS4yMDI1LzgvNy5VU0QBAAAANeziIgIAAAAPMTYzLjEzMDk2MDY4NjAyABF21pl12t0I0ciGpHXa3QgnQ0lRLkJJVDpXVEFJLklRX0NMT1NFUFJJQ0UuMjAyNS84LzcuVVNEAQAAAE26WyMCAAAADjc2LjEzMzk4NDY0NjQyABF21pl12t0I3++GpHXa3QgnQ0lRLkxTRTpBSUFHLklRX0NMT1NFUFJJQ0UuMjAyNS84LzcuVVNEAQAAAPCdgiQCAAAADzI0LjgxNDU0MTU0NTgxMgARdtaZddrdCGCYgKJ12t0IJ0NJUS5BU1g6UkJUWi5JUV9DTE9TRVBSSUNFLjIwMjUvOC83LlVTRAEAAAAp7XYiAgAAAAw5LjQ2MzE0ODMxMjgAEXbWmXXa3Qg3BoakddrdCCZDSVEuREI6WEIwVC5JUV9DTE9TRVBSSUNFLjIwMjUvOC83LlVTRAEAAADTM94pAgAAAA8yMi4xMDA0ODg0ODUzNTQAEXbWmXXa3QgsFYSiddrdCCtDSVEuTkFTREFRR006UVFRLklRX0NMT1NFUFJJQ0UuMjAyNS84LzYuVVNEAQAAAA66ewACAAAABjU2Ny4zMgARdtaZddrdCEwBiKR12t0ILENJUS5OQVNEQVFHTTpBR0lYLklR</t>
-  </si>
-  <si>
-    <t>X0NMT1NFUFJJQ0UuMjAyNS84LzYuVVNEAQAAACP3AHACAAAABzMyLjcwMDIAEXbWmXXa3QiflIiiddrdCCtDSVEuTkFTREFRR006U01ILklRX0NMT1NFUFJJQ0UuMjAyNS84LzYuVVNEAQAAAGDCNgACAAAABjI4Ni42MgARdtaZddrdCKLiiKJ12t0IJ0NJUS5CQVRTOklHVi5JUV9DTE9TRVBSSUNFLjIwMjUvOC82LlVTRAEAAADNOoYAAgAAAAYxMTEuODEAEXbWmXXa3Qh9r4mkddrdCCxDSVEuTkFTREFRR006Qk9UWi5JUV9DTE9TRVBSSUNFLjIwMjUvOC82LlVTRAEAAAD3/QgWAgAAAAQzMy42ABF21pl12t0IMeiKpHXa3QgrQ0lRLk5BU0RBUUdNOkFJUS5JUV9DTE9TRVBSSUNFLjIwMjUvOC82LlVTRAEAAADp3GIhAgAAAAU0NC42NAARdtaZddrdCFAPi6R12t0IKENJUS5BUkNBOkFSVFkuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNi5VU0QBAAAAbh9pIQIAAAAFNDIuNTcAEXbWmXXa3Qh9r4mkddrdCCxDSVEuTkFTREFRR006Uk9CVC5JUV9DTE9TRVBSSUNFLjIwMjUvOC82LlVTRAEAAABcY9kgAgAAAAU0OS44OQARdtaZddrdCP09h6R12t0IKENJUS5BUkNBOklHUFQuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNi5VU0QBAAAAzAJeAQIAAAAFNTAuMDcAEXbWmXXa3QhRs4ekddrdCChDSVEuQkFUUzpXVEFJLklRX0NMT1NFUFJJQ0UuMjAyNS84LzYuVVNEAQAAAGBOb2QCAAAABTI1LjY2ABF21pl12t0IDPSEpHXa</t>
-  </si>
-  <si>
-    <t>3QgoQ0lRLkFSQ0E6VEhOUS5JUV9DTE9TRVBSSUNFLjIwMjUvOC82LlVTRAEAAACuw34kAgAAAAU1Ni4xMQARdtaZddrdCKy3haR12t0ILENJUS5OQVNEQVFHTTpGRFRYLklRX0NMT1NFUFJJQ0UuMjAyNS84LzYuVVNEAQAAAL2lnSYCAAAABzM5LjgxMzEAEXbWmXXa3QiMLIakddrdCChDSVEuQVJDQTpDSEFULklRX0NMT1NFUFJJQ0UuMjAyNS84LzYuVVNEAQAAAAAwNW0CAAAABTUyLjQ4ABF21pl12t0InOuIpHXa3QgoQ0lRLkFSQ0E6TE9VUC5JUV9DTE9TRVBSSUNFLjIwMjUvOC82LlVTRAEAAABZXA8iAgAAAAU2NS4yNwARdtaZddrdCGCYgKJ12t0IKENJUS5BUkNBOkxSTlouSVFfQ0xPU0VQUklDRS4yMDI1LzgvNi5VU0QBAAAAtXbDJgIAAAAHNDMuNTgyNwARdtaZddrdCLkSiaR12t0IJ0NJUS5BUkNBOkFJUy5JUV9DTE9TRVBSSUNFLjIwMjUvOC82LlVTRAEAAACYl59wAgAAAAcyOS40MjQ1ABF21pl12t0ILBWEonXa3QgsQ0lRLk5BU0RBUUdNOldJU0UuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNi5VU0QBAAAA6bBDbgIAAAAFMzguMDEAEXbWmXXa3QhuiImkddrdCCdDSVEuTFNFOlJCT1QuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNi5VU0QBAAAAjnskFAIAAAAGMTQuOTg1ABF21pl12t0IcG2IonXa3QgoQ0lRLlhUUkE6WEFJWC5JUV9DTE9TRVBSSUNFLjIwMjUvOC82LlVTRAEAAAA17OIiAgAAAA4xNjIu</t>
-  </si>
-  <si>
-    <t>ODA2OTM1ODQ3NAARdtaZddrdCKLiiKJ12t0IJ0NJUS5CSVQ6V1RBSS5JUV9DTE9TRVBSSUNFLjIwMjUvOC82LlVTRAEAAABNulsjAgAAAA43NS43MzYwNjQyMjQwOAARdtaZddrdCLkSiaR12t0IJ0NJUS5MU0U6QUlBRy5JUV9DTE9TRVBSSUNFLjIwMjUvOC82LlVTRAEAAADwnYIkAgAAAA4yNC41NjQzNTMwMDAyNQARdtaZddrdCAz0hKR12t0IJ0NJUS5BU1g6UkJUWi5JUV9DTE9TRVBSSUNFLjIwMjUvOC82LlVTRAEAAAAp7XYiAgAAAAw5LjY1MjI1ODY4NzUAEXbWmXXa3QgwQoWkddrdCCZDSVEuREI6WEIwVC5JUV9DTE9TRVBSSUNFLjIwMjUvOC82LlVTRAEAAADTM94pAgAAAA8yMi40NjI0Njk0NDc2NTIAEXbWmXXa3QjAoYakddrdCCtDSVEuTkFTREFRR006UVFRLklRX0NMT1NFUFJJQ0UuMjAyNS84LzUuVVNEAQAAAA66ewACAAAABjU2MC4yNwARdtaZddrdCG0/6KN12t0ILENJUS5OQVNEQVFHTTpBR0lYLklRX0NMT1NFUFJJQ0UuMjAyNS84LzUuVVNEAQAAACP3AHACAAAABzMxLjk1MzEAEXbWmXXa3Qjf74akddrdCCtDSVEuTkFTREFRR006U01ILklRX0NMT1NFUFJJQ0UuMjAyNS84LzUuVVNEAQAAAGDCNgACAAAABTI4Ny4xABF21pl12t0I7xaHpHXa3QgnQ0lRLkJBVFM6SUdWLklRX0NMT1NFUFJJQ0UuMjAyNS84LzUuVVNEAQAAAM06hgACAAAABjExMC41NQARdtaZddrdCO8Wh6R12t0ILENJ</t>
-  </si>
-  <si>
-    <t>US5OQVNEQVFHTTpCT1RaLklRX0NMT1NFUFJJQ0UuMjAyNS84LzUuVVNEAQAAAPf9CBYCAAAABTMzLjkzABF21pl12t0IMeiKpHXa3QgrQ0lRLk5BU0RBUUdNOkFJUS5JUV9DTE9TRVBSSUNFLjIwMjUvOC81LlVTRAEAAADp3GIhAgAAAAU0NC4xNwARdtaZddrdCD6Ei6R12t0IKENJUS5BUkNBOkFSVFkuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNS5VU0QBAAAAbh9pIQIAAAAFNDIuNjcAEXbWmXXa3QhgmICiddrdCCxDSVEuTkFTREFRR006Uk9CVC5JUV9DTE9TRVBSSUNFLjIwMjUvOC81LlVTRAEAAABcY9kgAgAAAAc1MC4wMTY5ABF21pl12t0IjCyGpHXa3QgoQ0lRLkFSQ0E6SUdQVC5JUV9DTE9TRVBSSUNFLjIwMjUvOC81LlVTRAEAAADMAl4BAgAAAAU1MC4yMgARdtaZddrdCJYAhKJ12t0IKENJUS5CQVRTOldUQUkuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNS5VU0QBAAAAYE5vZAIAAAAFMjUuMTgAEXbWmXXa3Qi91omkddrdCChDSVEuQVJDQTpUSE5RLklRX0NMT1NFUFJJQ0UuMjAyNS84LzUuVVNEAQAAAK7DfiQCAAAABTU1LjUzABF21pl12t0IcG2IonXa3QgsQ0lRLk5BU0RBUUdNOkZEVFguSVFfQ0xPU0VQUklDRS4yMDI1LzgvNS5VU0QBAAAAvaWdJgIAAAAHMzkuMDM0NwARdtaZddrdCLy7iKJ12t0IKENJUS5BUkNBOkNIQVQuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNS5VU0QBAAAAADA1bQIAAAAENTEu</t>
-  </si>
-  <si>
-    <t>MgARdtaZddrdCN/vhqR12t0IKENJUS5BUkNBOkxPVVAuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNS5VU0QBAAAAWVwPIgIAAAAGNjIuOTM4ABF21pl12t0IPGmFpHXa3QgoQ0lRLkFSQ0E6TFJOWi5JUV9DTE9TRVBSSUNFLjIwMjUvOC81LlVTRAEAAAC1dsMmAgAAAAc0Mi45MjQxABF21pl12t0IiZ2IpHXa3QgnQ0lRLkFSQ0E6QUlTLklRX0NMT1NFUFJJQ0UuMjAyNS84LzUuVVNEAQAAAJiXn3ACAAAABzI5LjE3NzgAEXbWmXXa3Qic64ikddrdCCxDSVEuTkFTREFRR006V0lTRS5JUV9DTE9TRVBSSUNFLjIwMjUvOC81LlVTRAEAAADpsENuAgAAAAUzOC4yOAARdtaZddrdCG0/6KN12t0IJ0NJUS5MU0U6UkJPVC5JUV9DTE9TRVBSSUNFLjIwMjUvOC81LlVTRAEAAACOeyQUAgAAAAUxNS4xMQARdtaZddrdCG6IiaR12t0IKENJUS5YVFJBOlhBSVguSVFfQ0xPU0VQUklDRS4yMDI1LzgvNS5VU0QBAAAANeziIgIAAAANMTYwLjkzNTUxMDA3NQARdtaZddrdCL5LiqR12t0IJ0NJUS5CSVQ6V1RBSS5JUV9DTE9TRVBSSUNFLjIwMjUvOC81LlVTRAEAAABNulsjAgAAAA43NS4xOTk3MjIxNTM3NQARdtaZddrdCH2viaR12t0IJ0NJUS5MU0U6QUlBRy5JUV9DTE9TRVBSSUNFLjIwMjUvOC81LlVTRAEAAADwnYIkAgAAAA4yNC40MTgwNzg3ODgzOAARdtaZddrdCAz0hKR12t0IJ0NJUS5BU1g6UkJUWi5JUV9DTE9TRVBS</t>
-  </si>
-  <si>
-    <t>SUNFLjIwMjUvOC81LlVTRAEAAAAp7XYiAgAAAA05LjY2MTc3MzI2NzcyABF21pl12t0IMEKFpHXa3QgmQ0lRLkRCOlhCMFQuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNS5VU0QBAAAA0zPeKQIAAAAOMjIuMzYxOTMxMjM0NDUAEXbWmXXa3QhgmICiddrdCCtDSVEuTkFTREFRR006UVFRLklRX0NMT1NFUFJJQ0UuMjAyNS84LzQuVVNEAQAAAA66ewACAAAABTU2NC4xABF21pl12t0IwKGGpHXa3QgsQ0lRLk5BU0RBUUdNOkFHSVguSVFfQ0xPU0VQUklDRS4yMDI1LzgvNC5VU0QBAAAAI/cAcAIAAAAHMzIuMDIyNwARdtaZddrdCJYAhKJ12t0IK0NJUS5OQVNEQVFHTTpTTUguSVFfQ0xPU0VQUklDRS4yMDI1LzgvNC5VU0QBAAAAYMI2AAIAAAAGMjkwLjE5ABF21pl12t0INwaGpHXa3QgnQ0lRLkJBVFM6SUdWLklRX0NMT1NFUFJJQ0UuMjAyNS84LzQuVVNEAQAAAM06hgACAAAABjExMC45OAARdtaZddrdCHBtiKJ12t0ILENJUS5OQVNEQVFHTTpCT1RaLklRX0NMT1NFUFJJQ0UuMjAyNS84LzQuVVNEAQAAAPf9CBYCAAAABTMzLjk3ABF21pl12t0IvLuIonXa3QgrQ0lRLk5BU0RBUUdNOkFJUS5JUV9DTE9TRVBSSUNFLjIwMjUvOC80LlVTRAEAAADp3GIhAgAAAAU0NC4zMwARdtaZddrdCL5LiqR12t0IKENJUS5BUkNBOkFSVFkuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNC5VU0QBAAAAbh9pIQIAAAAFNDMuMTMAEXbW</t>
-  </si>
-  <si>
-    <t>mXXa3Qh9r4mkddrdCCxDSVEuTkFTREFRR006Uk9CVC5JUV9DTE9TRVBSSUNFLjIwMjUvOC80LlVTRAEAAABcY9kgAgAAAAU1MC4xMQARdtaZddrdCDHoiqR12t0IKENJUS5BUkNBOklHUFQuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNC5VU0QBAAAAzAJeAQIAAAAFNTAuNjQAEXbWmXXa3QhQD4ukddrdCChDSVEuQkFUUzpXVEFJLklRX0NMT1NFUFJJQ0UuMjAyNS84LzQuVVNEAQAAAGBOb2QCAAAABTI1LjMxABF21pl12t0IbT/oo3Xa3QgoQ0lRLkFSQ0E6VEhOUS5JUV9DTE9TRVBSSUNFLjIwMjUvOC80LlVTRAEAAACuw34kAgAAAAc1NS41MTM5ABF21pl12t0IpCiIpHXa3QgsQ0lRLk5BU0RBUUdNOkZEVFguSVFfQ0xPU0VQUklDRS4yMDI1LzgvNC5VU0QBAAAAvaWdJgIAAAAGMzkuMjY1ABF21pl12t0I/T2HpHXa3QgoQ0lRLkFSQ0E6Q0hBVC5JUV9DTE9TRVBSSUNFLjIwMjUvOC80LlVTRAEAAAAAMDVtAgAAAAU1MS4xMQARdtaZddrdCL3WiaR12t0IKENJUS5BUkNBOkxPVVAuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNC5VU0QBAAAAWVwPIgIAAAAHNjMuNDUxMwARdtaZddrdCHx2iKR12t0IKENJUS5BUkNBOkxSTlouSVFfQ0xPU0VQUklDRS4yMDI1LzgvNC5VU0QBAAAAtXbDJgIAAAAFNDMuNjIAEXbWmXXa3Qic64ikddrdCCdDSVEuQVJDQTpBSVMuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNC5VU0QBAAAAmJef</t>
-  </si>
-  <si>
-    <t>cAIAAAAHMjkuNDgzOQARdtaZddrdCEBxgKJ12t0ILENJUS5OQVNEQVFHTTpXSVNFLklRX0NMT1NFUFJJQ0UuMjAyNS84LzQuVVNEAQAAAOmwQ24CAAAABzM3Ljk3OTcAEXbWmXXa3QheYYmkddrdCCdDSVEuTFNFOlJCT1QuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNC5VU0QBAAAAjnskFAIAAAAGMTUuMTM1ABF21pl12t0IlgCEonXa3QgoQ0lRLlhUUkE6WEFJWC5JUV9DTE9TRVBSSUNFLjIwMjUvOC80LlVTRAEAAAA17OIiAgAAAA8xNjAuODA5NzE2NjIwOTgAEXbWmXXa3Qio+IWiddrdCCdDSVEuQklUOldUQUkuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNC5VU0QBAAAATbpbIwIAAAAONzUuMDgzODYzNTE1MDkAEXbWmXXa3QhwbYiiddrdCCdDSVEuTFNFOkFJQUcuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNC5VU0QBAAAA8J2CJAIAAAAPMjQuNDAyNzQ2MjM0MjE2ABF21pl12t0IvLuIonXa3QgnQ0lRLkFTWDpSQlRaLklRX0NMT1NFUFJJQ0UuMjAyNS84LzQuVVNEAQAAACntdiICAAAADTkuMzk2MDE2NTU3NTQAEXbWmXXa3Qif+YukddrdCCZDSVEuREI6WEIwVC5JUV9DTE9TRVBSSUNFLjIwMjUvOC80LlVTRAEAAADTM94pAgAAAA4yMi4wODIxMjg0MDA5MQARdtaZddrdCAz0hKR12t0IK0NJUS5OQVNEQVFHTTpRUVEuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMS5VU0QBAAAADrp7AAIAAAAGNTUzLjg4ABF21pl12t0I</t>
-  </si>
-  <si>
-    <t>rLeFpHXa3QgsQ0lRLk5BU0RBUUdNOkFHSVguSVFfQ0xPU0VQUklDRS4yMDI1LzgvMS5VU0QBAAAAI/cAcAIAAAAHMzEuMzkwMQARdtaZddrdCMChhqR12t0IK0NJUS5OQVNEQVFHTTpTTUguSVFfQ0xPU0VQUklDRS4yMDI1LzgvMS5VU0QBAAAAYMI2AAIAAAAGMjgzLjk1ABF21pl12t0IbT/oo3Xa3QgnQ0lRLkJBVFM6SUdWLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAAM06hgACAAAABjEwOC42MwARdtaZddrdCDxphaR12t0ILENJUS5OQVNEQVFHTTpCT1RaLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAAPf9CBYCAAAABTMzLjEyABF21pl12t0IHoyHpHXa3QgrQ0lRLk5BU0RBUUdNOkFJUS5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xLlVTRAEAAADp3GIhAgAAAAU0My40NwARdtaZddrdCEwBiKR12t0IKENJUS5BUkNBOkFSVFkuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMS5VU0QBAAAAbh9pIQIAAAAFNDIuMjYAEXbWmXXa3Qg+hIukddrdCCxDSVEuTkFTREFRR006Uk9CVC5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xLlVTRAEAAABcY9kgAgAAAAc0OS4wMjMyABF21pl12t0IPoSLpHXa3QgoQ0lRLkFSQ0E6SUdQVC5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xLlVTRAEAAADMAl4BAgAAAAY0OS41NzgAEXbWmXXa3QhAcYCiddrdCChDSVEuQkFUUzpXVEFJLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNE</t>
-  </si>
-  <si>
-    <t>AQAAAGBOb2QCAAAABTI0LjY2ABF21pl12t0IvdaJpHXa3QgoQ0lRLkFSQ0E6VEhOUS5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xLlVTRAEAAACuw34kAgAAAAU1NC40MwARdtaZddrdCJYAhKJ12t0ILENJUS5OQVNEQVFHTTpGRFRYLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAAL2lnSYCAAAABzM4LjQ1OTgAEXbWmXXa3Qio+IWiddrdCChDSVEuQVJDQTpDSEFULklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAAAAwNW0CAAAABTQ5LjkxABF21pl12t0IcG2IonXa3QgoQ0lRLkFSQ0E6TE9VUC5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xLlVTRAEAAABZXA8iAgAAAAU2Mi4wNwARdtaZddrdCLy7iKJ12t0IKENJUS5BUkNBOkxSTlouSVFfQ0xPU0VQUklDRS4yMDI1LzgvMS5VU0QBAAAAtXbDJgIAAAAHNDMuNjU5MwARdtaZddrdCO8Wh6R12t0IJ0NJUS5BUkNBOkFJUy5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xLlVTRAEAAACYl59wAgAAAAcyOC45ODMzABF21pl12t0IfHaIpHXa3QgsQ0lRLk5BU0RBUUdNOldJU0UuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMS5VU0QBAAAA6bBDbgIAAAAHMzYuODkwOQARdtaZddrdCJzriKR12t0IJ0NJUS5MU0U6UkJPVC5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xLlVTRAEAAACOeyQUAgAAAAUxNC44OACpi9aZddrdCF5hiaR12t0IKENJUS5YVFJBOlhBSVguSVFfQ0xPU0VQ</t>
-  </si>
-  <si>
-    <t>UklDRS4yMDI1LzgvMS5VU0QBAAAANeziIgIAAAAOMTU5LjAzNDc1MzQ0NzkAqYvWmXXa3QhlGOijddrdCCdDSVEuQklUOldUQUkuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMS5VU0QBAAAATbpbIwIAAAANNzMuNjE3MzY1MTc5NgCpi9aZddrdCFwkiqR12t0IJ0NJUS5MU0U6QUlBRy5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xLlVTRAEAAADwnYIkAgAAAA8yMy45MzAzNzg1NzAxNDgAqYvWmXXa3QhuiImkddrdCCdDSVEuQVNYOlJCVFouSVFfQ0xPU0VQUklDRS4yMDI1LzgvMS5VU0QBAAAAKe12IgIAAAANOS40OTkyMjU2MTM0NACpi9aZddrdCDHoiqR12t0IJkNJUS5EQjpYQjBULklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAANMz3ikCAAAADjIyLjE5Mzc0MjA1NTg3AKmL1pl12t0IwKGGpHXa3QgsQ0lRLk5BU0RBUUdNOlFRUS5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMS5VU0QBAAAADrp7AAIAAAAGNTY1LjAxAKmL1pl12t0Itd6FpHXa3QgtQ0lRLk5BU0RBUUdNOkFHSVguSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzEuVVNEAQAAACP3AHACAAAABzMyLjQ1OTUAqYvWmXXa3QhAcYCiddrdCCxDSVEuTkFTREFRR006U01ILklRX0NMT1NFUFJJQ0UuMjAyNS83LzMxLlVTRAEAAABgwjYAAgAAAAYyODguNzgAqYvWmXXa3QgejIekddrdCChDSVEuQkFUUzpJR1YuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzEuVVNE</t>
-  </si>
-  <si>
-    <t>AQAAAM06hgACAAAABjExMS42NgCpi9aZddrdCJYAhKJ12t0ILUNJUS5OQVNEQVFHTTpCT1RaLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMxLlVTRAEAAAD3/QgWAgAAAAUzMy40NwCpi9aZddrdCKj4haJ12t0ILENJUS5OQVNEQVFHTTpBSVEuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzEuVVNEAQAAAOncYiECAAAABTQ0LjU3AKmL1pl12t0IcG2IonXa3QgpQ0lRLkFSQ0E6QVJUWS5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMS5VU0QBAAAAbh9pIQIAAAAFNDMuNDUAqYvWmXXa3Qi8u4iiddrdCC1DSVEuTkFTREFRR006Uk9CVC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMS5VU0QBAAAAXGPZIAIAAAAHNDkuOTY1NQCpi9aZddrdCDHoiqR12t0IKUNJUS5BUkNBOklHUFQuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzEuVVNEAQAAAMwCXgECAAAABTUwLjY3AKmL1pl12t0IPoSLpHXa3QgpQ0lRLkJBVFM6V1RBSS5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMS5VU0QBAAAAYE5vZAIAAAAFMjUuNDYAqYvWmXXa3Qh9r4mkddrdCClDSVEuQVJDQTpUSE5RLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMxLlVTRAEAAACuw34kAgAAAAU1Ni4xMgCpi9aZddrdCKQoiKR12t0ILUNJUS5OQVNEQVFHTTpGRFRYLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMxLlVTRAEAAAC9pZ0mAgAAAAczOS42NDY1AKmL1pl12t0IZRjoo3Xa3QgpQ0lRLkFSQ0E6</t>
-  </si>
-  <si>
-    <t>Q0hBVC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMS5VU0QBAAAAADA1bQIAAAAFNTEuNTQAqYvWmXXa3Qj9PYekddrdCClDSVEuQVJDQTpMT1VQLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMxLlVTRAEAAABZXA8iAgAAAAU2NC4yNQCpi9aZddrdCAz0hKR12t0IKUNJUS5BUkNBOkxSTlouSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzEuVVNEAQAAALV2wyYCAAAABzQ0LjQyMzIAqYvWmXXa3QgwQoWkddrdCChDSVEuQVJDQTpBSVMuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzEuVVNEAQAAAJiXn3ACAAAABTI5LjY3AKmL1pl12t0IXmGJpHXa3QgtQ0lRLk5BU0RBUUdNOldJU0UuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzEuVVNEAQAAAOmwQ24CAAAABzM3LjgzNjMAqYvWmXXa3Qi5EomkddrdCChDSVEuTFNFOlJCT1QuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzEuVVNEAQAAAI57JBQCAAAABTE1LjMyAKmL1pl12t0IQHGAonXa3QgpQ0lRLlhUUkE6WEFJWC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMS5VU0QBAAAANeziIgIAAAAPMTY0LjQ0NzQ5NDg0ODcyAKmL1pl12t0IboiJpHXa3QgoQ0lRLkJJVDpXVEFJLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMxLlVTRAEAAABNulsjAgAAAA03Ni41MjcxMTA0OTkzAKmL1pl12t0INOyDonXa3QgoQ0lRLkxTRTpBSUFHLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMxLlVTRAEAAADwnYIkAgAA</t>
-  </si>
-  <si>
-    <t>AA8yNC45NTczNTMxMTg3NjIAqYvWmXXa3QiDfYSiddrdCChDSVEuQVNYOlJCVFouSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzEuVVNEAQAAACntdiICAAAADTkuNjAwNjY4NzYyNTkAqYvWmXXa3QhwbYiiddrdCCdDSVEuREI6WEIwVC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMS5VU0QBAAAA0zPeKQIAAAAPMjIuMzI2Njk4Njk1NDQ2AKmL1pl12t0IvLuIonXa3QgsQ0lRLk5BU0RBUUdNOlFRUS5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMC5VU0QBAAAADrp7AAIAAAAGNTY4LjAyAKmL1pl12t0IwKGGpHXa3QgtQ0lRLk5BU0RBUUdNOkFHSVguSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzAuVVNEAQAAACP3AHACAAAABzMyLjQxNjIAqYvWmXXa3Qg8aYWkddrdCCxDSVEuTkFTREFRR006U01ILklRX0NMT1NFUFJJQ0UuMjAyNS83LzMwLlVTRAEAAABgwjYAAgAAAAYyOTYuMjYAqYvWmXXa3QgejIekddrdCChDSVEuQkFUUzpJR1YuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzAuVVNEAQAAAM06hgACAAAABjExMi43MgCpi9aZddrdCGUY6KN12t0ILUNJUS5OQVNEQVFHTTpCT1RaLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMwLlVTRAEAAAD3/QgWAgAAAAQzMy43AKmL1pl12t0ITAGIpHXa3QgsQ0lRLk5BU0RBUUdNOkFJUS5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMC5VU0QBAAAA6dxiIQIAAAAFNDQuODIAqYvWmXXa3Qh8doik</t>
-  </si>
-  <si>
-    <t>ddrdCClDSVEuQVJDQTpBUlRZLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMwLlVTRAEAAABuH2khAgAAAAU0My43OQCpi9aZddrdCJzriKR12t0ILUNJUS5OQVNEQVFHTTpST0JULklRX0NMT1NFUFJJQ0UuMjAyNS83LzMwLlVTRAEAAABcY9kgAgAAAAU1MC4zMgCpi9aZddrdCEBxgKJ12t0IKUNJUS5BUkNBOklHUFQuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzAuVVNEAQAAAMwCXgECAAAAAjUxAKmL1pl12t0IDPSEpHXa3QgpQ0lRLkJBVFM6V1RBSS5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMC5VU0QBAAAAYE5vZAIAAAAFMjUuODEAqYvWmXXa3Qg07IOiddrdCClDSVEuQVJDQTpUSE5RLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMwLlVTRAEAAACuw34kAgAAAAU1Ni40OQCpi9aZddrdCKj4haJ12t0ILUNJUS5OQVNEQVFHTTpGRFRYLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMwLlVTRAEAAAC9pZ0mAgAAAAczOS44NjYzAKmL1pl12t0I0kKIonXa3QgpQ0lRLkFSQ0E6Q0hBVC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMC5VU0QBAAAAADA1bQIAAAAFNTEuMjcAqYvWmXXa3QiflIiiddrdCClDSVEuQVJDQTpMT1VQLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMwLlVTRAEAAABZXA8iAgAAAAU2NS4xNACpi9aZddrdCDBChaR12t0IKUNJUS5BUkNBOkxSTlouSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzAuVVNEAQAAALV2wyYCAAAA</t>
-  </si>
-  <si>
-    <t>BzQ1LjE1MTcAqYvWmXXa3QhuiImkddrdCChDSVEuQVJDQTpBSVMuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzAuVVNEAQAAAJiXn3ACAAAABzI5Ljc3NDMAqYvWmXXa3QhlGOijddrdCC1DSVEuTkFTREFRR006V0lTRS5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMC5VU0QBAAAA6bBDbgIAAAAHMzcuOTA4NQCpi9aZddrdCB3BiqR12t0IKENJUS5MU0U6UkJPVC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMC5VU0QBAAAAjnskFAIAAAAFMTUuNDEAqYvWmXXa3QjBXIukddrdCClDSVEuWFRSQTpYQUlYLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMwLlVTRAEAAAA17OIiAgAAAA8xNjMuOTkxMjczNDY1OTIAqYvWmXXa3QhQD4ukddrdCChDSVEuQklUOldUQUkuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzAuVVNEAQAAAE26WyMCAAAADTc2LjUzMDAyNjQ0MjQAqYvWmXXa3QhRs4ekddrdCChDSVEuTFNFOkFJQUcuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzAuVVNEAQAAAPCdgiQCAAAADzI0Ljk0Mjg3MDgwNDIyMgCpi9aZddrdCJ/5i6R12t0IKENJUS5BU1g6UkJUWi5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMC5VU0QBAAAAKe12IgIAAAAMOS40MjMwMDI0NTQyAKmL1pl12t0INOyDonXa3QgnQ0lRLkRCOlhCMFQuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzAuVVNEAQAAANMz3ikCAAAADzIyLjE4MTY1MTE3NTAwOACpi9aZddrdCKj4</t>
-  </si>
-  <si>
-    <t>haJ12t0ILENJUS5OQVNEQVFHTTpRUVEuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjkuVVNEAQAAAA66ewACAAAABjU2Ny4yNgCpi9aZddrdCNJCiKJ12t0ILUNJUS5OQVNEQVFHTTpBR0lYLklRX0NMT1NFUFJJQ0UuMjAyNS83LzI5LlVTRAEAAAAj9wBwAgAAAAczMi42MDUzAKmL1pl12t0In5SIonXa3QgsQ0lRLk5BU0RBUUdNOlNNSC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yOS5VU0QBAAAAYMI2AAIAAAAFMjkyLjkAqYvWmXXa3Qic64ikddrdCChDSVEuQkFUUzpJR1YuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjkuVVNEAQAAAM06hgACAAAABjExMy4wMQCpi9aZddrdCF5hiaR12t0ILUNJUS5OQVNEQVFHTTpCT1RaLklRX0NMT1NFUFJJQ0UuMjAyNS83LzI5LlVTRAEAAAD3/QgWAgAAAAUzMy44NgCpi9aZddrdCFwkiqR12t0ILENJUS5OQVNEQVFHTTpBSVEuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjkuVVNEAQAAAOncYiECAAAABTQ0Ljg4AKmL1pl12t0IMEKFpHXa3QgpQ0lRLkFSQ0E6QVJUWS5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yOS5VU0QBAAAAbh9pIQIAAAAFNDMuNjUAqYvWmXXa3QjAoYakddrdCC1DSVEuTkFTREFRR006Uk9CVC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yOS5VU0QBAAAAXGPZIAIAAAAHNTAuNDkwMwCpi9aZddrdCN/vhqR12t0IKUNJUS5BUkNBOklHUFQuSVFfQ0xPU0VQUklDRS4yMDI1</t>
-  </si>
-  <si>
-    <t>LzcvMjkuVVNEAQAAAMwCXgECAAAABTUwLjg4AKmL1pl12t0IHoyHpHXa3QgpQ0lRLkJBVFM6V1RBSS5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yOS5VU0QBAAAAYE5vZAIAAAAFMjUuNjQAqYvWmXXa3QhMAYikddrdCClDSVEuQVJDQTpUSE5RLklRX0NMT1NFUFJJQ0UuMjAyNS83LzI5LlVTRAEAAACuw34kAgAAAAU1Ni4yNACpi9aZddrdCEBxgKJ12t0ILUNJUS5OQVNEQVFHTTpGRFRYLklRX0NMT1NFUFJJQ0UuMjAyNS83LzI5LlVTRAEAAAC9pZ0mAgAAAAczOS43NTAyAKmL1pl12t0IfHaIpHXa3QgpQ0lRLkFSQ0E6Q0hBVC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yOS5VU0QBAAAAADA1bQIAAAAFNTAuOTUAqYvWmXXa3QjSQoiiddrdCClDSVEuQVJDQTpMT1VQLklRX0NMT1NFUFJJQ0UuMjAyNS83LzI5LlVTRAEAAABZXA8iAgAAAAc2NC41NTIxAKmL1pl12t0IhKbfo3Xa3QgpQ0lRLkFSQ0E6TFJOWi5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yOS5VU0QBAAAAtXbDJgIAAAAHNDUuMTMyNgCpi9aZddrdCD6Ei6R12t0IKENJUS5BUkNBOkFJUy5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yOS5VU0QBAAAAmJefcAIAAAAHMjkuNjI1NQCpi9aZddrdCNJyiqR12t0ILUNJUS5OQVNEQVFHTTpXSVNFLklRX0NMT1NFUFJJQ0UuMjAyNS83LzI5LlVTRAEAAADpsENuAgAAAAczNy45MzM1AKmL1pl12t0In/mLpHXa3QgoQ0lR</t>
-  </si>
-  <si>
-    <t>LkxTRTpSQk9ULklRX0NMT1NFUFJJQ0UuMjAyNS83LzI5LlVTRAEAAACOeyQUAgAAAAUxNS40MwCpi9aZddrdCAz0hKR12t0IKUNJUS5YVFJBOlhBSVguSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjkuVVNEAQAAADXs4iICAAAADzE2My41ODgxNDcwNzkxMgCpi9aZddrdCGUY6KN12t0IKENJUS5CSVQ6V1RBSS5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yOS5VU0QBAAAATbpbIwIAAAAONzUuOTk0NDY1NTYyMzQAqYvWmXXa3QhcJIqkddrdCChDSVEuTFNFOkFJQUcuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjkuVVNEAQAAAPCdgiQCAAAADzI0LjczMjIyOTc4OTY5NgCpi9aZddrdCNJyiqR12t0IKENJUS5BU1g6UkJUWi5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yOS5VU0QBAAAAKe12IgIAAAAMOS42MzI5MDgxMDEyAKmL1pl12t0IHcGKpHXa3QgnQ0lRLkRCOlhCMFQuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjkuVVNEAQAAANMz3ikCAAAADzIyLjUyNzM4MzgyODgxMgCpi9aZddrdCEBxgKJ12t0ILENJUS5OQVNEQVFHTTpRUVEuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjguVVNEAQAAAA66ewACAAAABjU2OC4xNACpi9aZddrdCMFci6R12t0ILUNJUS5OQVNEQVFHTTpBR0lYLklRX0NMT1NFUFJJQ0UuMjAyNS83LzI4LlVTRAEAAAAj9wBwAgAAAAczMi43MzQ2AKmL1pl12t0INOyDonXa3QgsQ0lRLk5BU0RBUUdNOlNNSC5J</t>
-  </si>
-  <si>
-    <t>UV9DTE9TRVBSSUNFLjIwMjUvNy8yOC5VU0QBAAAAYMI2AAIAAAAGMjkxLjQxAKmL1pl12t0Ip9GFonXa3QgoQ0lRLkJBVFM6SUdWLklRX0NMT1NFUFJJQ0UuMjAyNS83LzI4LlVTRAEAAADNOoYAAgAAAAYxMTIuODgAqYvWmXXa3Qg8aYWkddrdCC1DSVEuTkFTREFRR006Qk9UWi5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yOC5VU0QBAAAA9/0IFgIAAAAFMzQuMjYAqYvWmXXa3QgejIekddrdCCxDSVEuTkFTREFRR006QUlRLklRX0NMT1NFUFJJQ0UuMjAyNS83LzI4LlVTRAEAAADp3GIhAgAAAAU0NC45MwCpi9aZddrdCEwBiKR12t0IKUNJUS5BUkNBOkFSVFkuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjguVVNEAQAAAG4faSECAAAABTQzLjQ3AKmL1pl12t0IfHaIpHXa3QgtQ0lRLk5BU0RBUUdNOlJPQlQuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjguVVNEAQAAAFxj2SACAAAABzUxLjA1NzYAqYvWmXXa3QhlGOijddrdCClDSVEuQVJDQTpJR1BULklRX0NMT1NFUFJJQ0UuMjAyNS83LzI4LlVTRAEAAADMAl4BAgAAAAU1MC44MgCpi9aZddrdCH7EiKR12t0IKUNJUS5CQVRTOldUQUkuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjguVVNEAQAAAGBOb2QCAAAABTI1LjYzAKmL1pl12t0IXmGJpHXa3QgpQ0lRLkFSQ0E6VEhOUS5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yOC5VU0QBAAAArsN+JAIAAAAFNTYuOTEAqYvWmXXa</t>
-  </si>
-  <si>
-    <t>3Qist4WkddrdCC1DSVEuTkFTREFRR006RkRUWC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yOC5VU0QBAAAAvaWdJgIAAAAGNDAuMDA1AKmL1pl12t0IQHGAonXa3QgpQ0lRLkFSQ0E6Q0hBVC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yOC5VU0QBAAAAADA1bQIAAAAENTEuMwCpi9aZddrdCMChhqR12t0IKUNJUS5BUkNBOkxPVVAuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjguVVNEAQAAAFlcDyICAAAABzY0LjI4ODYAqYvWmXXa3Qg07IOiddrdCClDSVEuQVJDQTpMUk5aLklRX0NMT1NFUFJJQ0UuMjAyNS83LzI4LlVTRAEAAAC1dsMmAgAAAAc0NS43Nzc5AKmL1pl12t0Ip9GFonXa3QgoQ0lRLkFSQ0E6QUlTLklRX0NMT1NFUFJJQ0UuMjAyNS83LzI4LlVTRAEAAACYl59wAgAAAAcyOS4zNjI2AKmL1pl12t0I0kKIonXa3QgtQ0lRLk5BU0RBUUdNOldJU0UuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjguVVNEAQAAAOmwQ24CAAAABzM4LjQ4MDMAqYvWmXXa3QiEpt+jddrdCChDSVEuTFNFOlJCT1QuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjguVVNEAQAAAI57JBQCAAAABjE1LjQ3NQCpi9aZddrdCDjH5KN12t0IKUNJUS5YVFJBOlhBSVguSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjguVVNEAQAAADXs4iICAAAADzE2My42NTMyNjUxNzE3NgCpi9aZddrdCMFci6R12t0IKENJUS5CSVQ6V1RBSS5JUV9DTE9TRVBSSUNFLjIw</t>
-  </si>
-  <si>
-    <t>MjUvNy8yOC5VU0QBAAAATbpbIwIAAAAONzYuMDc0ODMxNTE2NTgAqYvWmXXa3QhlGOijddrdCChDSVEuTFNFOkFJQUcuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjguVVNEAQAAAPCdgiQCAAAADzI0LjkxNDg3NzA4MjYxOACpi9aZddrdCO8Wh6R12t0IKENJUS5BU1g6UkJUWi5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yOC5VU0QBAAAAKe12IgIAAAANOS43MjQ3NTg2NzgzOQCpi9aZddrdCD6Ei6R12t0IJ0NJUS5EQjpYQjBULklRX0NMT1NFUFJJQ0UuMjAyNS83LzI4LlVTRAEAAADTM94pAgAAAA8yMi41Nzk1OTU2MzIwNDgAqYvWmXXa3Qif+YukddrdCCxDSVEuTkFTREFRR006UVFRLklRX0NMT1NFUFJJQ0UuMjAyNS83LzI1LlVTRAEAAAAOunsAAgAAAAY1NjYuMzcAqYvWmXXa3QgM9ISkddrdCC1DSVEuTkFTREFRR006QUdJWC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yNS5VU0QBAAAAI/cAcAIAAAAHMzIuNDY4MgCpi9aZddrdCFwkiqR12t0ILENJUS5OQVNEQVFHTTpTTUguSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjUuVVNEAQAAAGDCNgACAAAABjI4Ny40OQCpi9aZddrdCH3Xg6J12t0IKENJUS5CQVRTOklHVi5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yNS5VU0QBAAAAzTqGAAIAAAAGMTEyLjY5AKmL1pl12t0Ip9GFonXa3QgtQ0lRLk5BU0RBUUdNOkJPVFouSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjUuVVNEAQAA</t>
-  </si>
-  <si>
-    <t>APf9CBYCAAAABTM0LjMzAKmL1pl12t0I0kKIonXa3QgsQ0lRLk5BU0RBUUdNOkFJUS5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yNS5VU0QBAAAA6dxiIQIAAAAFNDQuNzQAqYvWmXXa3QiflIiiddrdCClDSVEuQVJDQTpBUlRZLklRX0NMT1NFUFJJQ0UuMjAyNS83LzI1LlVTRAEAAABuH2khAgAAAAU0My4wNACpi9aZddrdCNJyiqR12t0ILUNJUS5OQVNEQVFHTTpST0JULklRX0NMT1NFUFJJQ0UuMjAyNS83LzI1LlVTRAEAAABcY9kgAgAAAAU1MS4xNgCpi9aZddrdCB3BiqR12t0IKUNJUS5BUkNBOklHUFQuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjUuVVNEAQAAAMwCXgECAAAABTUwLjU1AKmL1pl12t0IZRjoo3Xa3QgpQ0lRLkJBVFM6V1RBSS5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yNS5VU0QBAAAAYE5vZAIAAAAEMjUuNQCpi9aZddrdCB6Mh6R12t0IKUNJUS5BUkNBOlRITlEuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjUuVVNEAQAAAK7DfiQCAAAABDU2LjUAqYvWmXXa3Qg72oekddrdCC1DSVEuTkFTREFRR006RkRUWC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yNS5VU0QBAAAAvaWdJgIAAAAHMzkuOTIxNwCpi9aZddrdCHx2iKR12t0IKUNJUS5BUkNBOkNIQVQuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjUuVVNEAQAAAAAwNW0CAAAABTUxLjE1AKmL1pl12t0IfsSIpHXa3QgpQ0lRLkFSQ0E6TE9VUC5JUV9DTE9T</t>
-  </si>
-  <si>
-    <t>RVBSSUNFLjIwMjUvNy8yNS5VU0QBAAAAWVwPIgIAAAAGNjMuOTM0AKmL1pl12t0IXmGJpHXa3QgpQ0lRLkFSQ0E6TFJOWi5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yNS5VU0QBAAAAtXbDJgIAAAAHNDUuNDYyNACpi9aZddrdCEBxgKJ12t0IKENJUS5BUkNBOkFJUy5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yNS5VU0QBAAAAmJefcAIAAAAHMjkuMTA3MgCpi9aZddrdCKfRhaJ12t0ILUNJUS5OQVNEQVFHTTpXSVNFLklRX0NMT1NFUFJJQ0UuMjAyNS83LzI1LlVTRAEAAADpsENuAgAAAAUzOC41NgCpi9aZddrdCNJCiKJ12t0IKENJUS5MU0U6UkJPVC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yNS5VU0QBAAAAjnskFAIAAAAGMTUuNDg1AKmL1pl12t0IDpLfo3Xa3QgpQ0lRLlhUUkE6WEFJWC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yNS5VU0QBAAAANeziIgIAAAAOMTYzLjc1NTg2ODUxODQAqYvWmXXa3QgiG4WkddrdCChDSVEuQklUOldUQUkuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjUuVVNEAQAAAE26WyMCAAAADDc1LjY0NTUzOTg5NACpi9aZddrdCMChhqR12t0IKENJUS5MU0U6QUlBRy5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yNS5VU0QBAAAA8J2CJAIAAAAPMjQuNzU0NzYzNjMxMzk2AKmL1pl12t0IOMfko3Xa3QgoQ0lRLkFTWDpSQlRaLklRX0NMT1NFUFJJQ0UuMjAyNS83LzI1LlVTRAEAAAAp7XYiAgAAAA05</t>
-  </si>
-  <si>
-    <t>LjY3MzM5OTc5NjI1AKmL1pl12t0I3++GpHXa3QgnQ0lRLkRCOlhCMFQuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjUuVVNEAQAAANMz3ikCAAAADjIyLjU0MjI1MzUxNzUyAKmL1pl12t0IwVyLpHXa3QgsQ0lRLk5BU0RBUUdNOlFRUS5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yNC5VU0QBAAAADrp7AAIAAAAGNTY1LjAxAKmL1pl12t0IPGmFpHXa3QgtQ0lRLk5BU0RBUUdNOkFHSVguSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjQuVVNEAQAAACP3AHACAAAABTMyLjI4AKmL1pl12t0IUA+LpHXa3QgsQ0lRLk5BU0RBUUdNOlNNSC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yNC5VU0QBAAAAYMI2AAIAAAAFMjg3LjgAqYvWmXXa3Qif+YukddrdCChDSVEuQkFUUzpJR1YuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjQuVVNEAQAAAM06hgACAAAABjExMi4wOQCpi9aZddrdCERKgKJ12t0ILUNJUS5OQVNEQVFHTTpCT1RaLklRX0NMT1NFUFJJQ0UuMjAyNS83LzI0LlVTRAEAAAD3/QgWAgAAAAUzNC40OQCpi9aZddrdCAXNhKR12t0ILENJUS5OQVNEQVFHTTpBSVEuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjQuVVNEAQAAAOncYiECAAAABTQ0LjU5AKmL1pl12t0IfdeDonXa3QgpQ0lRLkFSQ0E6QVJUWS5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yNC5VU0QBAAAAbh9pIQIAAAAFNDIuNjIAqYvWmXXa3QgOkt+jddrdCC1DSVEuTkFTREFR</t>
-  </si>
-  <si>
-    <t>R006Uk9CVC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yNC5VU0QBAAAAXGPZIAIAAAAFNTAuODQAqYvWmXXa3QheYYmkddrdCClDSVEuQVJDQTpJR1BULklRX0NMT1NFUFJJQ0UuMjAyNS83LzI0LlVTRAEAAADMAl4BAgAAAAU1MC40NQCpi9aZddrdCFwkiqR12t0IKUNJUS5CQVRTOldUQUkuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjQuVVNEAQAAAGBOb2QCAAAABTI1LjM2AKmL1pl12t0IKqDko3Xa3QgpQ0lRLkFSQ0E6VEhOUS5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yNC5VU0QBAAAArsN+JAIAAAAHNTUuODU5OACpi9aZddrdCG6IiaR12t0ILUNJUS5OQVNEQVFHTTpGRFRYLklRX0NMT1NFUFJJQ0UuMjAyNS83LzI0LlVTRAEAAAC9pZ0mAgAAAAczOS43NTQ4AKmL1pl12t0IZRjoo3Xa3QgpQ0lRLkFSQ0E6Q0hBVC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yNC5VU0QBAAAAADA1bQIAAAAFNTAuOTEAqYvWmXXa3QgdwYqkddrdCClDSVEuQVJDQTpMT1VQLklRX0NMT1NFUFJJQ0UuMjAyNS83LzI0LlVTRAEAAABZXA8iAgAAAAY2My40NDIAqYvWmXXa3Qg72oekddrdCClDSVEuQVJDQTpMUk5aLklRX0NMT1NFUFJJQ0UuMjAyNS83LzI0LlVTRAEAAAC1dsMmAgAAAAc0NC45MDIxAKmL1pl12t0IfHaIpHXa3QgoQ0lRLkFSQ0E6QUlTLklRX0NMT1NFUFJJQ0UuMjAyNS83LzI0LlVTRAEAAACYl59wAgAAAAcyOS4wNTgx</t>
-  </si>
-  <si>
-    <t>AKmL1pl12t0IREqAonXa3QgtQ0lRLk5BU0RBUUdNOldJU0UuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjQuVVNEAQAAAOmwQ24CAAAABzM4LjcwMzgAqYvWmXXa3Qh+xIikddrdCChDSVEuTFNFOlJCT1QuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjQuVVNEAQAAAI57JBQCAAAABTE1LjU0AKmL1pl12t0IfdeDonXa3QgpQ0lRLlhUUkE6WEFJWC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yNC5VU0QBAAAANeziIgIAAAAPMTYzLjU4Mjg2MjUwODM2AKmL1pl12t0Ip9GFonXa3QgoQ0lRLkJJVDpXVEFJLklRX0NMT1NFUFJJQ0UuMjAyNS83LzI0LlVTRAEAAABNulsjAgAAAA43NS42NDczNjM0NTgxNACpi9aZddrdCMkbiKJ12t0IKENJUS5MU0U6QUlBRy5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yNC5VU0QBAAAA8J2CJAIAAAAPMjQuNjIwMzE5OTg2NTI2AKmL1pl12t0IBc2EpHXa3QgoQ0lRLkFTWDpSQlRaLklRX0NMT1NFUFJJQ0UuMjAyNS83LzI0LlVTRAEAAAAp7XYiAgAAAAw5Ljg0MzQzMDAwMTQAqYvWmXXa3QgqoOSjddrdCCdDSVEuREI6WEIwVC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yNC5VU0QBAAAA0zPeKQIAAAAPMjIuODQzNjkxMTQ2NjU2AKmL1pl12t0IWZCFpHXa3QgsQ0lRLk5BU0RBUUdNOlFRUS5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yMy5VU0QBAAAADrp7AAIAAAAGNTYzLjgxAKmL1pl12t0IWPHno3Xa</t>
-  </si>
-  <si>
-    <t>3QgtQ0lRLk5BU0RBUUdNOkFHSVguSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjMuVVNEAQAAACP3AHACAAAABzMyLjI2MzgAqYvWmXXa3QiueoakddrdCCxDSVEuTkFTREFRR006U01ILklRX0NMT1NFUFJJQ0UuMjAyNS83LzIzLlVTRAEAAABgwjYAAgAAAAYyODYuNjEAqYvWmXXa3Qg8aYWkddrdCChDSVEuQkFUUzpJR1YuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjMuVVNEAQAAAM06hgACAAAABjExMS44MQCpi9aZddrdCB6Mh6R12t0ILUNJUS5OQVNEQVFHTTpCT1RaLklRX0NMT1NFUFJJQ0UuMjAyNS83LzIzLlVTRAEAAAD3/QgWAgAAAAUzNC41MwCpi9aZddrdCERKgKJ12t0ILENJUS5OQVNEQVFHTTpBSVEuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjMuVVNEAQAAAOncYiECAAAABTQ0Ljc3AKmL1pl12t0IrlOGpHXa3QgpQ0lRLkFSQ0E6QVJUWS5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yMy5VU0QBAAAAbh9pIQIAAAAFNDIuNjUAqYvWmXXa3Qh914OiddrdCC1DSVEuTkFTREFRR006Uk9CVC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yMy5VU0QBAAAAXGPZIAIAAAAFNTEuMzgAqYvWmXXa3QjYZ4SiddrdCClDSVEuQVJDQTpJR1BULklRX0NMT1NFUFJJQ0UuMjAyNS83LzIzLlVTRAEAAADMAl4BAgAAAAU1MC40NACpi9aZddrdCMkbiKJ12t0IKUNJUS5CQVRTOldUQUkuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjMuVVNE</t>
-  </si>
-  <si>
-    <t>AQAAAGBOb2QCAAAABTI1LjMxAKmL1pl12t0IDpLfo3Xa3QgpQ0lRLkFSQ0E6VEhOUS5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yMy5VU0QBAAAArsN+JAIAAAAFNTUuODcAqYvWmXXa3Qif+YukddrdCC1DSVEuTkFTREFRR006RkRUWC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yMy5VU0QBAAAAvaWdJgIAAAAHMzkuNTc3MgCpi9aZddrdCF5hiaR12t0IKUNJUS5BUkNBOkNIQVQuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjMuVVNEAQAAAAAwNW0CAAAABTUwLjU5AKmL1pl12t0IWPHno3Xa3QgpQ0lRLkFSQ0E6TE9VUC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yMy5VU0QBAAAAWVwPIgIAAAAHNjMuMzUzNQCpi9aZddrdCFwkiqR12t0IKUNJUS5BUkNBOkxSTlouSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjMuVVNEAQAAALV2wyYCAAAABzQ0LjQwODQAqYvWmXXa3QjScoqkddrdCChDSVEuQVJDQTpBSVMuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjMuVVNEAQAAAJiXn3ACAAAABzI5LjA1NTcAqYvWmXXa3QgdwYqkddrdCC1DSVEuTkFTREFRR006V0lTRS5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yMy5VU0QBAAAA6bBDbgIAAAAFMzkuMTIAqYvWmXXa3QjBXIukddrdCChDSVEuTFNFOlJCT1QuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjMuVVNEAQAAAI57JBQCAAAABjE1LjUyNQCpi9aZddrdCH2viaR12t0IKUNJUS5YVFJBOlhBSVgu</t>
-  </si>
-  <si>
-    <t>SVFfQ0xPU0VQUklDRS4yMDI1LzcvMjMuVVNEAQAAADXs4iICAAAADTE2My4wMjgxNjg5ODgAqYvWmXXa3QgAw4OiddrdCChDSVEuQklUOldUQUkuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjMuVVNEAQAAAE26WyMCAAAADTc1Ljg5MjAxODc2NzIAqYvWmXXa3QjYZ4SiddrdCChDSVEuTFNFOkFJQUcuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjMuVVNEAQAAAPCdgiQCAAAADzI0LjUxNTAxNzQ5Mjc1NQCpi9aZddrdCMkbiKJ12t0IKENJUS5BU1g6UkJUWi5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yMy5VU0QBAAAAKe12IgIAAAANOS41NjkyODM0NTExMQCpi9aZddrdCA6S36N12t0IJ0NJUS5EQjpYQjBULklRX0NMT1NFUFJJQ0UuMjAyNS83LzIzLlVTRAEAAADTM94pAgAAAA4yMi4xNjQzMTkyNDUyOACpi9aZddrdCHx2iKR12t0ILENJUS5OQVNEQVFHTTpRUVEuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjIuVVNEAQAAAA66ewACAAAABjU2MS4yNQCpi9aZddrdCH7EiKR12t0ILUNJUS5OQVNEQVFHTTpBR0lYLklRX0NMT1NFUFJJQ0UuMjAyNS83LzIyLlVTRAEAAAAj9wBwAgAAAAczMS45NzQ5AKmL1pl12t0IKqDko3Xa3QgsQ0lRLk5BU0RBUUdNOlNNSC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yMi5VU0QBAAAAYMI2AAIAAAAGMjg1LjM3AKmL1pl12t0IBc2EpHXa3QgoQ0lRLkJBVFM6SUdWLklRX0NMT1NFUFJJQ0Uu</t>
-  </si>
-  <si>
-    <t>MjAyNS83LzIyLlVTRAEAAADNOoYAAgAAAAUxMTAuOQCpi9aZddrdCFmQhaR12t0ILUNJUS5OQVNEQVFHTTpCT1RaLklRX0NMT1NFUFJJQ0UuMjAyNS83LzIyLlVTRAEAAAD3/QgWAgAAAAUzMi44OACpi9aZddrdCK56hqR12t0ILENJUS5OQVNEQVFHTTpBSVEuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjIuVVNEAQAAAOncYiECAAAABTQ0LjE4AKmL1pl12t0IPGmFpHXa3QgpQ0lRLkFSQ0E6QVJUWS5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yMi5VU0QBAAAAbh9pIQIAAAAFNDEuOTUAqYvWmXXa3QgOZYekddrdCC1DSVEuTkFTREFRR006Uk9CVC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yMi5VU0QBAAAAXGPZIAIAAAAFNDkuODQAqYvWmXXa3QhESoCiddrdCClDSVEuQVJDQTpJR1BULklRX0NMT1NFUFJJQ0UuMjAyNS83LzIyLlVTRAEAAADMAl4BAgAAAAU0OS45NACpi9aZddrdCDvah6R12t0IKUNJUS5CQVRTOldUQUkuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjIuVVNEAQAAAGBOb2QCAAAABjI0Ljg3NQCpi9aZddrdCMkbiKJ12t0IKUNJUS5BUkNBOlRITlEuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjIuVVNEAQAAAK7DfiQCAAAABTU1LjM4AKmL1pl12t0IuXzfo3Xa3QgtQ0lRLk5BU0RBUUdNOkZEVFguSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjIuVVNEAQAAAL2lnSYCAAAABzM5LjM2OTYAqYvWmXXa3Qg+hIukddrd</t>
-  </si>
-  <si>
-    <t>CClDSVEuQVJDQTpDSEFULklRX0NMT1NFUFJJQ0UuMjAyNS83LzIyLlVTRAEAAAAAMDVtAgAAAAQ0OS44APCg1pl12t0IUbOHpHXa3QgpQ0lRLkFSQ0E6TE9VUC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yMi5VU0QBAAAAWVwPIgIAAAAHNjIuODAxNwDwoNaZddrdCCqg5KN12t0IKUNJUS5BUkNBOkxSTlouSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjIuVVNEAQAAALV2wyYCAAAABzQ0LjI0MTQA8KDWmXXa3Qif+YukddrdCChDSVEuQVJDQTpBSVMuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjIuVVNEAQAAAJiXn3ACAAAABTI4LjI2APCg1pl12t0IWPHno3Xa3QgtQ0lRLk5BU0RBUUdNOldJU0UuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjIuVVNEAQAAAOmwQ24CAAAABzM4LjI1NjYA8KDWmXXa3QhcJIqkddrdCChDSVEuTFNFOlJCT1QuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjIuVVNEAQAAAI57JBQCAAAABjE1LjM1NQDwoNaZddrdCNJyiqR12t0IKUNJUS5YVFJBOlhBSVguSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjIuVVNEAQAAADXs4iICAAAADjE2Mi41MTE3MzcwNjMyAPCg1pl12t0IHcGKpHXa3QgoQ0lRLkJJVDpXVEFJLklRX0NMT1NFUFJJQ0UuMjAyNS83LzIyLlVTRAEAAABNulsjAgAAAAs3NS4xMTczNzA4OADwoNaZddrdCERKgKJ12t0IKENJUS5MU0U6QUlBRy5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yMi5VU0QB</t>
-  </si>
-  <si>
-    <t>AAAA8J2CJAIAAAAPMjQuNDM2NzYwNDk3NjQ0APCg1pl12t0IwVyLpHXa3QgoQ0lRLkFTWDpSQlRaLklRX0NMT1NFUFJJQ0UuMjAyNS83LzIyLlVTRAEAAAAp7XYiAgAAAA05LjM2NzAyMjMyNzQ5APCg1pl12t0IAMODonXa3QgnQ0lRLkRCOlhCMFQuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjIuVVNEAQAAANMz3ikCAAAADjIxLjcxMTI2NzYwMjE2APCg1pl12t0Ip9GFonXa3QgsQ0lRLk5BU0RBUUdNOlFRUS5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yMS5VU0QBAAAADrp7AAIAAAAGNTY0LjE3APCg1pl12t0IDmWHpHXa3QgtQ0lRLk5BU0RBUUdNOkFHSVguSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjEuVVNEAQAAACP3AHACAAAABTMyLjI2APCg1pl12t0IO9qHpHXa3QgsQ0lRLk5BU0RBUUdNOlNNSC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yMS5VU0QBAAAAYMI2AAIAAAAGMjkwLjUxAPCg1pl12t0IKqDko3Xa3QgoQ0lRLkJBVFM6SUdWLklRX0NMT1NFUFJJQ0UuMjAyNS83LzIxLlVTRAEAAADNOoYAAgAAAAYxMTEuMjEA8KDWmXXa3Qh8doikddrdCC1DSVEuTkFTREFRR006Qk9UWi5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yMS5VU0QBAAAA9/0IFgIAAAAFMzMuMDEA8KDWmXXa3QhY8eejddrdCCxDSVEuTkFTREFRR006QUlRLklRX0NMT1NFUFJJQ0UuMjAyNS83LzIxLlVTRAEAAADp3GIhAgAAAAU0NC41MwDwoNaZ</t>
-  </si>
-  <si>
-    <t>ddrdCH7EiKR12t0IKUNJUS5BUkNBOkFSVFkuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjEuVVNEAQAAAG4faSECAAAABTQyLjI4APCg1pl12t0IXmGJpHXa3QgtQ0lRLk5BU0RBUUdNOlJPQlQuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjEuVVNEAQAAAFxj2SACAAAABzQ5LjYyMTgA8KDWmXXa3QiueoakddrdCClDSVEuQVJDQTpJR1BULklRX0NMT1NFUFJJQ0UuMjAyNS83LzIxLlVTRAEAAADMAl4BAgAAAAU1MC4xNwDwoNaZddrdCERKgKJ12t0IKUNJUS5CQVRTOldUQUkuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjEuVVNEAQAAAGBOb2QCAAAABTI1LjIxAPCg1pl12t0Itd6FpHXa3QgpQ0lRLkFSQ0E6VEhOUS5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yMS5VU0QBAAAArsN+JAIAAAAFNTUuODkA8KDWmXXa3QgAw4OiddrdCC1DSVEuTkFTREFRR006RkRUWC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yMS5VU0QBAAAAvaWdJgIAAAAHMzkuNjc2NQDwoNaZddrdCNhnhKJ12t0IKUNJUS5BUkNBOkNIQVQuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjEuVVNEAQAAAAAwNW0CAAAABTUwLjQ2APCg1pl12t0IyRuIonXa3QgpQ0lRLkFSQ0E6TE9VUC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yMS5VU0QBAAAAWVwPIgIAAAAHNjMuNjIyOADwoNaZddrdCLl836N12t0IKUNJUS5BUkNBOkxSTlouSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjEu</t>
-  </si>
-  <si>
-    <t>VVNEAQAAALV2wyYCAAAABzQ0LjgzOTEA8KDWmXXa3QgqoOSjddrdCChDSVEuQVJDQTpBSVMuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjEuVVNEAQAAAJiXn3ACAAAABTI4Ljg4APCg1pl12t0IjCyGpHXa3QgtQ0lRLk5BU0RBUUdNOldJU0UuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjEuVVNEAQAAAOmwQ24CAAAABjM4LjUyNQDwoNaZddrdCFjx56N12t0IKENJUS5MU0U6UkJPVC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yMS5VU0QBAAAAjnskFAIAAAAGMTUuNDU1APCg1pl12t0IpCiIpHXa3QgpQ0lRLlhUUkE6WEFJWC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yMS5VU0QBAAAANeziIgIAAAAPMTY0LjE3MTA2MDM1OTU2APCg1pl12t0In/mLpHXa3QgoQ0lRLkJJVDpXVEFJLklRX0NMT1NFUFJJQ0UuMjAyNS83LzIxLlVTRAEAAABNulsjAgAAAA43Ni4yNjI0NDg3NDk2NwDwoNaZddrdCAXNhKR12t0IKENJUS5MU0U6QUlBRy5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yMS5VU0QBAAAA8J2CJAIAAAAOMjQuNzI5MjA3NzQyOTMA8KDWmXXa3QhZkIWkddrdCChDSVEuQVNYOlJCVFouSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjEuVVNEAQAAACntdiICAAAADTkuNDgzMDQwMzE4MDUA8KDWmXXa3QjScoqkddrdCCdDSVEuREI6WEIwVC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yMS5VU0QBAAAA0zPeKQIAAAAPMjIuMDg3ODczNDY0</t>
-  </si>
-  <si>
-    <t>ODc2APCg1pl12t0IAMODonXa3QgsQ0lRLk5BU0RBUUdNOlFRUS5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xOC5VU0QBAAAADrp7AAIAAAAGNTYxLjI2APCg1pl12t0I2GeEonXa3QgtQ0lRLk5BU0RBUUdNOkFHSVguSVFfQ0xPU0VQUklDRS4yMDI1LzcvMTguVVNEAQAAACP3AHACAAAABzMyLjExOTUA8KDWmXXa3QjJG4iiddrdCCxDSVEuTkFTREFRR006U01ILklRX0NMT1NFUFJJQ0UuMjAyNS83LzE4LlVTRAEAAABgwjYAAgAAAAYyOTAuMzEA8KDWmXXa3Qi5fN+jddrdCChDSVEuQkFUUzpJR1YuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMTguVVNEAQAAAM06hgACAAAABjExMS4wNgDwoNaZddrdCB3BiqR12t0ILUNJUS5OQVNEQVFHTTpCT1RaLklRX0NMT1NFUFJJQ0UuMjAyNS83LzE4LlVTRAEAAAD3/QgWAgAAAAUzMy4xNgDwoNaZddrdCMFci6R12t0ILENJUS5OQVNEQVFHTTpBSVEuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMTguVVNEAQAAAOncYiECAAAABTQ0LjM2APCg1pl12t0IWPHno3Xa3QgpQ0lRLkFSQ0E6QVJUWS5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xOC5VU0QBAAAAbh9pIQIAAAAFNDIuMjUA8KDWmXXa3QhyT4ikddrdCC1DSVEuTkFTREFRR006Uk9CVC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xOC5VU0QBAAAAXGPZIAIAAAAHNDkuNDQ1NADwoNaZddrdCBwk66N12t0IKUNJUS5BUkNBOklHUFQuSVFf</t>
-  </si>
-  <si>
-    <t>Q0xPU0VQUklDRS4yMDI1LzcvMTguVVNEAQAAAMwCXgECAAAABTQ5Ljg4APCg1pl12t0IfsSIpHXa3QgpQ0lRLkJBVFM6V1RBSS5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xOC5VU0QBAAAAYE5vZAIAAAAFMjUuMDYA8KDWmXXa3Qi7OYmkddrdCClDSVEuQVJDQTpUSE5RLklRX0NMT1NFUFJJQ0UuMjAyNS83LzE4LlVTRAEAAACuw34kAgAAAAU1NS41MQDwoNaZddrdCFwkiqR12t0ILUNJUS5OQVNEQVFHTTpGRFRYLklRX0NMT1NFUFJJQ0UuMjAyNS83LzE4LlVTRAEAAAC9pZ0mAgAAAAYzOS41NzUA8KDWmXXa3QhESoCiddrdCClDSVEuQVJDQTpDSEFULklRX0NMT1NFUFJJQ0UuMjAyNS83LzE4LlVTRAEAAAAAMDVtAgAAAAU0OS45MQDwoNaZddrdCC9ThKJ12t0IKUNJUS5BUkNBOkxPVVAuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMTguVVNEAQAAAFlcDyICAAAABjYyLjg2NADwoNaZddrdCMkbiKJ12t0IKUNJUS5BUkNBOkxSTlouSVFfQ0xPU0VQUklDRS4yMDI1LzcvMTguVVNEAQAAALV2wyYCAAAABzQ0LjUzOTQA8KDWmXXa3Qi5fN+jddrdCChDSVEuQVJDQTpBSVMuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMTguVVNEAQAAAJiXn3ACAAAABjI4LjU5NQDwoNaZddrdCN/vhqR12t0ILUNJUS5OQVNEQVFHTTpXSVNFLklRX0NMT1NFUFJJQ0UuMjAyNS83LzE4LlVTRAEAAADpsENuAgAAAAczOC41MTQ5APCg1pl12t0I</t>
-  </si>
-  <si>
-    <t>DmWHpHXa3QgoQ0lRLkxTRTpSQk9ULklRX0NMT1NFUFJJQ0UuMjAyNS83LzE4LlVTRAEAAACOeyQUAgAAAAYxNS4zOTUA8KDWmXXa3Qh1eOSjddrdCClDSVEuWFRSQTpYQUlYLklRX0NMT1NFUFJJQ0UuMjAyNS83LzE4LlVTRAEAAAA17OIiAgAAAA8xNjIuODQzODIyOTEzNTIA8KDWmXXa3Qg72oekddrdCChDSVEuQklUOldUQUkuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMTguVVNEAQAAAE26WyMCAAAADjc0LjkzMDA2OTk2MjE0APCg1pl12t0IHCTro3Xa3QgoQ0lRLkxTRTpBSUFHLklRX0NMT1NFUFJJQ0UuMjAyNS83LzE4LlVTRAEAAADwnYIkAgAAAA8yNC4zOTI2Mzc3MTE2NDQA8KDWmXXa3Qif+YukddrdCChDSVEuQVNYOlJCVFouSVFfQ0xPU0VQUklDRS4yMDI1LzcvMTguVVNEAQAAACntdiICAAAADDkuMzMyMzc2MTY3NADwoNaZddrdCAXNhKR12t0IJ0NJUS5EQjpYQjBULklRX0NMT1NFUFJJQ0UuMjAyNS83LzE4LlVTRAEAAADTM94pAgAAAA8yMS45MTYwODM5MjU0NjQA8KDWmXXa3QhZkIWkddrdCCxDSVEuTkFTREFRR006UVFRLklRX0NMT1NFUFJJQ0UuMjAyNS83LzE3LlVTRAEAAAAOunsAAgAAAAU1NjEuOADwoNaZddrdCERKgKJ12t0ILUNJUS5OQVNEQVFHTTpBR0lYLklRX0NMT1NFUFJJQ0UuMjAyNS83LzE3LlVTRAEAAAAj9wBwAgAAAAYzMS45NTUA8KDWmXXa3QiueoakddrdCCxDSVEuTkFT</t>
-  </si>
-  <si>
-    <t>REFRR006U01ILklRX0NMT1NFUFJJQ0UuMjAyNS83LzE3LlVTRAEAAABgwjYAAgAAAAYyOTEuNzEA8KDWmXXa3QharoOiddrdCChDSVEuQkFUUzpJR1YuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMTcuVVNEAQAAAM06hgACAAAABjExMS4zMQDwoNaZddrdCLl836N12t0ILUNJUS5OQVNEQVFHTTpCT1RaLklRX0NMT1NFUFJJQ0UuMjAyNS83LzE3LlVTRAEAAAD3/QgWAgAAAAUzMy4yMgDwoNaZddrdCB3BiqR12t0ILENJUS5OQVNEQVFHTTpBSVEuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMTcuVVNEAQAAAOncYiECAAAABTQ0LjQzAPCg1pl12t0IwVyLpHXa3QgpQ0lRLkFSQ0E6QVJUWS5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xNy5VU0QBAAAAbh9pIQIAAAAENDIuMwDwoNaZddrdCHV45KN12t0ILUNJUS5OQVNEQVFHTTpST0JULklRX0NMT1NFUFJJQ0UuMjAyNS83LzE3LlVTRAEAAABcY9kgAgAAAAc0OS4zNTA4APCg1pl12t0Ifa+JpHXa3QgpQ0lRLkFSQ0E6SUdQVC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xNy5VU0QBAAAAzAJeAQIAAAAFNDkuOTEA8KDWmXXa3QhY8eejddrdCClDSVEuQkFUUzpXVEFJLklRX0NMT1NFUFJJQ0UuMjAyNS83LzE3LlVTRAEAAABgTm9kAgAAAAUyNC45OQDwoNaZddrdCL3WiaR12t0IKUNJUS5BUkNBOlRITlEuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMTcuVVNEAQAAAK7DfiQCAAAABTU1</t>
-  </si>
-  <si>
-    <t>LjE1APCg1pl12t0IuzmJpHXa3QgtQ0lRLk5BU0RBUUdNOkZEVFguSVFfQ0xPU0VQUklDRS4yMDI1LzcvMTcuVVNEAQAAAL2lnSYCAAAABzM5LjYwNDUA8KDWmXXa3QjM/YmkddrdCClDSVEuQVJDQTpDSEFULklRX0NMT1NFUFJJQ0UuMjAyNS83LzE3LlVTRAEAAAAAMDVtAgAAAAU0OS44NQDwoNaZddrdCERKgKJ12t0IKUNJUS5BUkNBOkxPVVAuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMTcuVVNEAQAAAFlcDyICAAAABzYyLjcxMTcA8KDWmXXa3QjScoqkddrdCClDSVEuQVJDQTpMUk5aLklRX0NMT1NFUFJJQ0UuMjAyNS83LzE3LlVTRAEAAAC1dsMmAgAAAAQ0NC4xAPCg1pl12t0IWq6DonXa3QgoQ0lRLkFSQ0E6QUlTLklRX0NMT1NFUFJJQ0UuMjAyNS83LzE3LlVTRAEAAACYl59wAgAAAAUyOC41MwDwoNaZddrdCKfRhaJ12t0ILUNJUS5OQVNEQVFHTTpXSVNFLklRX0NMT1NFUFJJQ0UuMjAyNS83LzE3LlVTRAEAAADpsENuAgAAAAczOC41MjQ0APCg1pl12t0IyRuIonXa3QgoQ0lRLkxTRTpSQk9ULklRX0NMT1NFUFJJQ0UuMjAyNS83LzE3LlVTRAEAAACOeyQUAgAAAAUxNS40MgDwoNaZddrdCA5lh6R12t0IKUNJUS5YVFJBOlhBSVguSVFfQ0xPU0VQUklDRS4yMDI1LzcvMTcuVVNEAQAAADXs4iICAAAADzE2Mi41MjE3MjkwNjA4OADwoNaZddrdCHV45KN12t0IKENJUS5CSVQ6V1RBSS5JUV9DTE9TRVBS</t>
-  </si>
-  <si>
-    <t>SUNFLjIwMjUvNy8xNy5VU0QBAAAATbpbIwIAAAAONzQuNzAxNTg3NjczMDIA8KDWmXXa3Qg72oekddrdCChDSVEuTFNFOkFJQUcuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMTcuVVNEAQAAAPCdgiQCAAAADjI0LjMxNTMzNDg4NDMzAPCg1pl12t0IXMnno3Xa3QgoQ0lRLkFTWDpSQlRaLklRX0NMT1NFUFJJQ0UuMjAyNS83LzE3LlVTRAEAAAAp7XYiAgAAAA05LjIzODI0OTU5MjI1APCg1pl12t0Ick+IpHXa3QgnQ0lRLkRCOlhCMFQuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMTcuVVNEAQAAANMz3ikCAAAADzIxLjU3NjA4MDY1OTI2NgDwoNaZddrdCBwk66N12t0ILENJUS5OQVNEQVFHTTpRUVEuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMTYuVVNEAQAAAA66ewACAAAABjU1Ny4yOQDwoNaZddrdCH7EiKR12t0ILUNJUS5OQVNEQVFHTTpBR0lYLklRX0NMT1NFUFJJQ0UuMjAyNS83LzE2LlVTRAEAAAAj9wBwAgAAAAczMS43NzEyAPCg1pl12t0IMiOAonXa3QgsQ0lRLk5BU0RBUUdNOlNNSC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xNi5VU0QBAAAAYMI2AAIAAAAGMjg5LjI4APCg1pl12t0IrnqGpHXa3QgoQ0lRLkJBVFM6SUdWLklRX0NMT1NFUFJJQ0UuMjAyNS83LzE2LlVTRAEAAADNOoYAAgAAAAYxMDkuODEA8KDWmXXa3QharoOiddrdCC1DSVEuTkFTREFRR006Qk9UWi5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xNi5V</t>
-  </si>
-  <si>
-    <t>U0QBAAAA9/0IFgIAAAAFMzIuNTYA8KDWmXXa3QgvU4SiddrdCCxDSVEuTkFTREFRR006QUlRLklRX0NMT1NFUFJJQ0UuMjAyNS83LzE2LlVTRAEAAADp3GIhAgAAAAU0My45OADwoNaZddrdCLP0h6J12t0IKUNJUS5BUkNBOkFSVFkuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMTYuVVNEAQAAAG4faSECAAAABTQxLjgzAPCg1pl12t0I62jfo3Xa3QgtQ0lRLk5BU0RBUUdNOlJPQlQuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMTYuVVNEAQAAAFxj2SACAAAABDQ4LjUA8KDWmXXa3QgwQoWkddrdCClDSVEuQVJDQTpJR1BULklRX0NMT1NFUFJJQ0UuMjAyNS83LzE2LlVTRAEAAADMAl4BAgAAAAU0OS43NQDwoNaZddrdCO8Wh6R12t0IKUNJUS5CQVRTOldUQUkuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMTYuVVNEAQAAAGBOb2QCAAAABTI0Ljc1APCg1pl12t0IXMnno3Xa3QgpQ0lRLkFSQ0E6VEhOUS5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xNi5VU0QBAAAArsN+JAIAAAAFNTQuNjEA8KDWmXXa3QiuU4akddrdCC1DSVEuTkFTREFRR006RkRUWC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xNi5VU0QBAAAAvaWdJgIAAAAGMzkuMDQ1APCg1pl12t0IHCTro3Xa3QgpQ0lRLkFSQ0E6Q0hBVC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xNi5VU0QBAAAAADA1bQIAAAAENDkuNQDwoNaZddrdCMnhi6R12t0IKUNJUS5BUkNBOkxPVVAuSVFf</t>
-  </si>
-  <si>
-    <t>Q0xPU0VQUklDRS4yMDI1LzcvMTYuVVNEAQAAAFlcDyICAAAABzYyLjA4OTYA8KDWmXXa3QgFzYSkddrdCClDSVEuQVJDQTpMUk5aLklRX0NMT1NFUFJJQ0UuMjAyNS83LzE2LlVTRAEAAAC1dsMmAgAAAAY0My45NDMA8KDWmXXa3QhZkIWkddrdCChDSVEuQVJDQTpBSVMuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMTYuVVNEAQAAAJiXn3ACAAAABTI4LjE1APCg1pl12t0IWq6DonXa3QgtQ0lRLk5BU0RBUUdNOldJU0UuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMTYuVVNEAQAAAOmwQ24CAAAABzM3LjU1ODcA8KDWmXXa3Qin0YWiddrdCChDSVEuTFNFOlJCT1QuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMTYuVVNEAQAAAI57JBQCAAAABTE1LjEzAPCg1pl12t0Is/SHonXa3QgpQ0lRLlhUUkE6WEFJWC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xNi5VU0QBAAAANeziIgIAAAANMTU5LjM1MDkyMjI3NgDwoNaZddrdCOto36N12t0IKENJUS5CSVQ6V1RBSS5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xNi5VU0QBAAAATbpbIwIAAAAONzIuNzQxMDY5MzU1NDQA8KDWmXXa3QgdwYqkddrdCChDSVEuTFNFOkFJQUcuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMTYuVVNEAQAAAPCdgiQCAAAADzIzLjgwMjk4NzQ4MDg4OADwoNaZddrdCMFci6R12t0IKENJUS5BU1g6UkJUWi5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xNi5VU0QBAAAAKe12IgIA</t>
-  </si>
-  <si>
-    <t>AAANOS4xMDE2MTYxNjg0NQDwoNaZddrdCHV45KN12t0IJ0NJUS5EQjpYQjBULklRX0NMT1NFUFJJQ0UuMjAyNS83LzE2LlVTRAEAAADTM94pAgAAAA8yMS4zMzU1MTI0OTQ2MjQA8KDWmXXa3QhyT4ikddrdCCxDSVEuTkFTREFRR006UVFRLklRX0NMT1NFUFJJQ0UuMjAyNS83LzE1LlVTRAEAAAAOunsAAgAAAAY1NTYuNzIA8KDWmXXa3QgcJOujddrdCC1DSVEuTkFTREFRR006QUdJWC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xNS5VU0QBAAAAI/cAcAIAAAAFMzEuNzkA8KDWmXXa3Qh+xIikddrdCCxDSVEuTkFTREFRR006U01ILklRX0NMT1NFUFJJQ0UuMjAyNS83LzE1LlVTRAEAAABgwjYAAgAAAAUyOTAuOADwoNaZddrdCLs5iaR12t0IKENJUS5CQVRTOklHVi5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xNS5VU0QBAAAAzTqGAAIAAAAGMTA4Ljk5APCg1pl12t0IzP2JpHXa3QgtQ0lRLk5BU0RBUUdNOkJPVFouSVFfQ0xPU0VQUklDRS4yMDI1LzcvMTUuVVNEAQAAAPf9CBYCAAAABTMyLjMzAPCg1pl12t0IMiOAonXa3QgsQ0lRLk5BU0RBUUdNOkFJUS5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xNS5VU0QBAAAA6dxiIQIAAAAFNDMuNzkA8KDWmXXa3QjScoqkddrdCClDSVEuQVJDQTpBUlRZLklRX0NMT1NFUFJJQ0UuMjAyNS83LzE1LlVTRAEAAABuH2khAgAAAAU0MS43MwDwoNaZddrdCLP0h6J12t0ILUNJUS5O</t>
-  </si>
-  <si>
-    <t>QVNEQVFHTTpST0JULklRX0NMT1NFUFJJQ0UuMjAyNS83LzE1LlVTRAEAAABcY9kgAgAAAAU0OC4xNADwoNaZddrdCOto36N12t0IKUNJUS5BUkNBOklHUFQuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMTUuVVNEAQAAAMwCXgECAAAABDQ5LjYA8KDWmXXa3Qi13oWkddrdCClDSVEuQkFUUzpXVEFJLklRX0NMT1NFUFJJQ0UuMjAyNS83LzE1LlVTRAEAAABgTm9kAgAAAAUyNC41OADwoNaZddrdCA5lh6R12t0IKUNJUS5BUkNBOlRITlEuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMTUuVVNEAQAAAK7DfiQCAAAABDU0LjQA8KDWmXXa3Qh1eOSjddrdCC1DSVEuTkFTREFRR006RkRUWC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xNS5VU0QBAAAAvaWdJgIAAAAHMzguOTU1OQDwoNaZddrdCDvah6R12t0IKUNJUS5BUkNBOkNIQVQuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMTUuVVNEAQAAAAAwNW0CAAAABDQ5LjQA8KDWmXXa3QhcyeejddrdCClDSVEuQVJDQTpMT1VQLklRX0NMT1NFUFJJQ0UuMjAyNS83LzE1LlVTRAEAAABZXA8iAgAAAAc2MS44NDk3APCg1pl12t0IyeGLpHXa3QgpQ0lRLkFSQ0E6TFJOWi5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xNS5VU0QBAAAAtXbDJgIAAAAHNDMuNjk1OADwoNaZddrdCAXNhKR12t0IKENJUS5BUkNBOkFJUy5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xNS5VU0QBAAAAmJefcAIAAAAHMjguMjU5</t>
-  </si>
-  <si>
-    <t>MwDwoNaZddrdCCIbhaR12t0ILUNJUS5OQVNEQVFHTTpXSVNFLklRX0NMT1NFUFJJQ0UuMjAyNS83LzE1LlVTRAEAAADpsENuAgAAAAUzNy4wOQDwoNaZddrdCDIjgKJ12t0IKENJUS5MU0U6UkJPVC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xNS5VU0QBAAAAjnskFAIAAAAGMTUuMjQ1APCg1pl12t0IrnqGpHXa3QgpQ0lRLlhUUkE6WEFJWC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xNS5VU0QBAAAANeziIgIAAAAMMTYxLjQwMjY5Mzk0APCg1pl12t0IWq6DonXa3QgoQ0lRLkJJVDpXVEFJLklRX0NMT1NFUFJJQ0UuMjAyNS83LzE1LlVTRAEAAABNulsjAgAAAA03My45NTQ5NDY1OTc0APCg1pl12t0IL1OEonXa3QgoQ0lRLkxTRTpBSUFHLklRX0NMT1NFUFJJQ0UuMjAyNS83LzE1LlVTRAEAAADwnYIkAgAAAA8yNC4wMjQ5NjUxODQwMjQA8KDWmXXa3QgNmoqkddrdCChDSVEuQVNYOlJCVFouSVFfQ0xPU0VQUklDRS4yMDI1LzcvMTUuVVNEAQAAACntdiICAAAADTkuMTI4MjI1MTgwOTEA8KDWmXXa3QgXNoukddrdCCdDSVEuREI6WEIwVC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xNS5VU0QBAAAA0zPeKQIAAAAOMjEuMTA1NDM0MjgwOTYA8KDWmXXa3Qh1eOSjddrdCCxDSVEuTkFTREFRR006UVFRLklRX0NMT1NFUFJJQ0UuMjAyNS83LzE0LlVTRAEAAAAOunsAAgAAAAY1NTYuMjEA8KDWmXXa3QhQD4ukddrdCC1D</t>
-  </si>
-  <si>
-    <t>SVEuTkFTREFRR006QUdJWC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xNC5VU0QBAAAAI/cAcAIAAAAFMzEuNTUA8KDWmXXa3QhcyeejddrdCCxDSVEuTkFTREFRR006U01ILklRX0NMT1NFUFJJQ0UuMjAyNS83LzE0LlVTRAEAAABgwjYAAgAAAAYyODUuMzIA8KDWmXXa3QjvFoekddrdCChDSVEuQkFUUzpJR1YuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMTQuVVNEAQAAAM06hgACAAAABjEwOS4wNQDwoNaZddrdCBPn6qN12t0ILUNJUS5OQVNEQVFHTTpCT1RaLklRX0NMT1NFUFJJQ0UuMjAyNS83LzE0LlVTRAEAAAD3/QgWAgAAAAUzMi4yOADwoNaZddrdCMz9iaR12t0ILENJUS5OQVNEQVFHTTpBSVEuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMTQuVVNEAQAAAOncYiECAAAABTQzLjUxAPCg1pl12t0IMiOAonXa3QgpQ0lRLkFSQ0E6QVJUWS5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xNC5VU0QBAAAAbh9pIQIAAAAFNDEuMjgA8KDWmXXa3Qi+S4qkddrdCC1DSVEuTkFTREFRR006Uk9CVC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xNC5VU0QBAAAAXGPZIAIAAAAFNDguMjgA8KDWmXXa3QiWmYOiddrdCClDSVEuQVJDQTpJR1BULklRX0NMT1NFUFJJQ0UuMjAyNS83LzE0LlVTRAEAAADMAl4BAgAAAAY0OS4yMzUA8KDWmXXa3QgvU4SiddrdCClDSVEuQkFUUzpXVEFJLklRX0NMT1NFUFJJQ0UuMjAyNS83LzE0LlVTRAEAAABg</t>
-  </si>
-  <si>
-    <t>Tm9kAgAAAAUyNC40OADwoNaZddrdCLP0h6J12t0IKUNJUS5BUkNBOlRITlEuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMTQuVVNEAQAAAK7DfiQCAAAABzU0LjAxMTcA8KDWmXXa3QhARN+jddrdCC1DSVEuTkFTREFRR006RkRUWC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xNC5VU0QBAAAAvaWdJgIAAAAEMzguNwDwoNaZddrdCHV45KN12t0IKUNJUS5BUkNBOkNIQVQuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMTQuVVNEAQAAAAAwNW0CAAAABDQ4LjUA8KDWmXXa3Qg72oekddrdCClDSVEuQVJDQTpMT1VQLklRX0NMT1NFUFJJQ0UuMjAyNS83LzE0LlVTRAEAAABZXA8iAgAAAAc2MS42ODQ1APCg1pl12t0IXMnno3Xa3QgpQ0lRLkFSQ0E6TFJOWi5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xNC5VU0QBAAAAtXbDJgIAAAAHNDMuNDY4MgDwoNaZddrdCHJPiKR12t0IKENJUS5BUkNBOkFJUy5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xNC5VU0QBAAAAmJefcAIAAAAHMjcuOTI5NQDwoNaZddrdCBPn6qN12t0ILUNJUS5OQVNEQVFHTTpXSVNFLklRX0NMT1NFUFJJQ0UuMjAyNS83LzE0LlVTRAEAAADpsENuAgAAAAUzNi43NADwoNaZddrdCImdiKR12t0IKENJUS5MU0U6UkJPVC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xNC5VU0QBAAAAjnskFAIAAAAFMTUuMTgA8KDWmXXa3Qi7OYmkddrdCClDSVEuWFRSQTpYQUlYLklRX0NMT1NF</t>
-  </si>
-  <si>
-    <t>UFJJQ0UuMjAyNS83LzE0LlVTRAEAAAA17OIiAgAAAA4xNjAuMTU4ODk3MDkzMgDwoNaZddrdCK56hqR12t0IKENJUS5CSVQ6V1RBSS5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xNC5VU0QBAAAATbpbIwIAAAANNzMuMDgwOTY3NDE0NQDwoNaZddrdCJaZg6J12t0IKENJUS5MU0U6QUlBRy5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xNC5VU0QBAAAA8J2CJAIAAAAPMjMuODIyNTg4MDE0NTEyAPCg1pl12t0Ip9GFonXa3QgoQ0lRLkFTWDpSQlRaLklRX0NMT1NFUFJJQ0UuMjAyNS83LzE0LlVTRAEAAAAp7XYiAgAAAAw5LjA1MDk2MDg0NjQA8KDWmXXa3Qiz9IeiddrdCCdDSVEuREI6WEIwVC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xNC5VU0QBAAAA0zPeKQIAAAAOMjEuMTIxNjI2MzYxNjIA8KDWmXXa3QhARN+jddrdCCxDSVEuTkFTREFRR006UVFRLklRX0NMT1NFUFJJQ0UuMjAyNS83LzExLlVTRAEAAAAOunsAAgAAAAU1NTQuMgDwoNaZddrdCN/vhqR12t0ILUNJUS5OQVNEQVFHTTpBR0lYLklRX0NMT1NFUFJJQ0UuMjAyNS83LzExLlVTRAEAAAAj9wBwAgAAAAUzMC45MgDwoNaZddrdCA5lh6R12t0ILENJUS5OQVNEQVFHTTpTTUguSVFfQ0xPU0VQUklDRS4yMDI1LzcvMTEuVVNEAQAAAGDCNgACAAAABjI4Ny40OQDwoNaZddrdCFzJ56N12t0IKENJUS5CQVRTOklHVi5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xMS5V</t>
-  </si>
-  <si>
-    <t>U0QBAAAAzTqGAAIAAAAGMTA3LjQ4APCg1pl12t0IHoyHpHXa3QgtQ0lRLk5BU0RBUUdNOkJPVFouSVFfQ0xPU0VQUklDRS4yMDI1LzcvMTEuVVNEAQAAAPf9CBYCAAAABTMyLjI3APCg1pl12t0IE+fqo3Xa3QgsQ0lRLk5BU0RBUUdNOkFJUS5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xMS5VU0QBAAAA6dxiIQIAAAAFNDMuMjgA8KDWmXXa3QjJ4YukddrdCClDSVEuQVJDQTpBUlRZLklRX0NMT1NFUFJJQ0UuMjAyNS83LzExLlVTRAEAAABuH2khAgAAAAU0MS4xOQDwoNaZddrdCAXNhKR12t0ILUNJUS5OQVNEQVFHTTpST0JULklRX0NMT1NFUFJJQ0UuMjAyNS83LzExLlVTRAEAAABcY9kgAgAAAAU0OC4zOQDwoNaZddrdCFmQhaR12t0IKUNJUS5BUkNBOklHUFQuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMTEuVVNEAQAAAMwCXgECAAAABTQ5LjIyAPCg1pl12t0IMiOAonXa3QgpQ0lRLkJBVFM6V1RBSS5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xMS5VU0QBAAAAYE5vZAIAAAAFMjQuMzcA8KDWmXXa3QiKqoWiddrdCClDSVEuQVJDQTpUSE5RLklRX0NMT1NFUFJJQ0UuMjAyNS83LzExLlVTRAEAAACuw34kAgAAAAU1My45NQDwoNaZddrdCLP0h6J12t0ILUNJUS5OQVNEQVFHTTpGRFRYLklRX0NMT1NFUFJJQ0UuMjAyNS83LzExLlVTRAEAAAC9pZ0mAgAAAAUzOC41NQDwoNaZddrdCEBE36N12t0IKUNJUS5BUkNBOkNI</t>
-  </si>
-  <si>
-    <t>QVQuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMTEuVVNEAQAAAAAwNW0CAAAABTQ4LjE2APCg1pl12t0IDZqKpHXa3QgpQ0lRLkFSQ0E6TE9VUC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xMS5VU0QBAAAAWVwPIgIAAAAHNjEuMzM2NADwoNaZddrdCBc2i6R12t0IKUNJUS5BUkNBOkxSTlouSVFfQ0xPU0VQUklDRS4yMDI1LzcvMTEuVVNEAQAAALV2wyYCAAAABzQzLjI2ODkA8KDWmXXa3Qh1eOSjddrdCChDSVEuQVJDQTpBSVMuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMTEuVVNEAQAAAJiXn3ACAAAABjI4LjAyNQDwoNaZddrdCKQoiKR12t0ILUNJUS5OQVNEQVFHTTpXSVNFLklRX0NMT1NFUFJJQ0UuMjAyNS83LzExLlVTRAEAAADpsENuAgAAAAYzNi41ODUA8KDWmXXa3QgT5+qjddrdCChDSVEuTFNFOlJCT1QuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMTEuVVNEAQAAAI57JBQCAAAABjE1LjIxNQDwoNaZddrdCImdiKR12t0IKUNJUS5YVFJBOlhBSVguSVFfQ0xPU0VQUklDRS4yMDI1LzcvMTEuVVNEAQAAADXs4iICAAAADjE2MC4yODUzNDY3MzY5APCg1pl12t0IuzmJpHXa3QgoQ0lRLkJJVDpXVEFJLklRX0NMT1NFUFJJQ0UuMjAyNS83LzExLlVTRAEAAABNulsjAgAAAA43My45MjExNzg4MDY2NQDwoNaZddrdCMz9iaR12t0IKENJUS5MU0U6QUlBRy5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xMS5VU0QBAAAA8J2CJAIA</t>
-  </si>
-  <si>
-    <t>AAAOMjMuODQ2NTQ4NDExMjkA8KDWmXXa3QgyI4CiddrdCChDSVEuQVNYOlJCVFouSVFfQ0xPU0VQUklDRS4yMDI1LzcvMTEuVVNEAQAAACntdiICAAAADDkuMTcwMzkxNzk2MgDwoNaZddrdCL5LiqR12t0IJ0NJUS5EQjpYQjBULklRX0NMT1NFUFJJQ0UuMjAyNS83LzExLlVTRAEAAADTM94pAgAAAA4yMS4zNTg5MDUzOTAzNgDwoNaZddrdCJaZg6J12t0ILENJUS5OQVNEQVFHTTpRUVEuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMTAuVVNEAQAAAA66ewACAAAABjU1NS40NQDwoNaZddrdCEBE36N12t0ILUNJUS5OQVNEQVFHTTpBR0lYLklRX0NMT1NFUFJJQ0UuMjAyNS83LzEwLlVTRAEAAAAj9wBwAgAAAAUzMS4zOADwoNaZddrdCA5lh6R12t0ILENJUS5OQVNEQVFHTTpTTUguSVFfQ0xPU0VQUklDRS4yMDI1LzcvMTAuVVNEAQAAAGDCNgACAAAABjI4Ny41MgDwoNaZddrdCDvah6R12t0IKENJUS5CQVRTOklHVi5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xMC5VU0QBAAAAzTqGAAIAAAAGMTA5LjE1APCg1pl12t0I9VHko3Xa3QgtQ0lRLk5BU0RBUUdNOkJPVFouSVFfQ0xPU0VQUklDRS4yMDI1LzcvMTAuVVNEAQAAAPf9CBYCAAAABTMyLjU0APCg1pl12t0IGETmo3Xa3QgsQ0lRLk5BU0RBUUdNOkFJUS5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xMC5VU0QBAAAA6dxiIQIAAAAFNDMuNjUAPbbWmXXa3Qhcyeejddrd</t>
-  </si>
-  <si>
-    <t>CClDSVEuQVJDQTpBUlRZLklRX0NMT1NFUFJJQ0UuMjAyNS83LzEwLlVTRAEAAABuH2khAgAAAAU0MS4zOAA9ttaZddrdCHJPiKR12t0ILUNJUS5OQVNEQVFHTTpST0JULklRX0NMT1NFUFJJQ0UuMjAyNS83LzEwLlVTRAEAAABcY9kgAgAAAAU0OC45MwA9ttaZddrdCCIbhaR12t0IKUNJUS5BUkNBOklHUFQuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMTAuVVNEAQAAAMwCXgECAAAABTQ5LjQ2AD221pl12t0IrlOGpHXa3QgpQ0lRLkJBVFM6V1RBSS5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xMC5VU0QBAAAAYE5vZAIAAAAEMjQuNgA9ttaZddrdCDIjgKJ12t0IKUNJUS5BUkNBOlRITlEuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMTAuVVNEAQAAAK7DfiQCAAAABTU0LjU2AD221pl12t0I3++GpHXa3QgtQ0lRLk5BU0RBUUdNOkZEVFguSVFfQ0xPU0VQUklDRS4yMDI1LzcvMTAuVVNEAQAAAL2lnSYCAAAABzM4Ljg2MjQAPbbWmXXa3QiWmYOiddrdCClDSVEuQVJDQTpDSEFULklRX0NMT1NFUFJJQ0UuMjAyNS83LzEwLlVTRAEAAAAAMDVtAgAAAAU0OC40OQA9ttaZddrdCIqqhaJ12t0IKUNJUS5BUkNBOkxPVVAuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMTAuVVNEAQAAAFlcDyICAAAABzYxLjQzMzIAPbbWmXXa3Qiz9IeiddrdCClDSVEuQVJDQTpMUk5aLklRX0NMT1NFUFJJQ0UuMjAyNS83LzEwLlVTRAEAAAC1dsMmAgAA</t>
-  </si>
-  <si>
-    <t>AAc0My43NDYxAD221pl12t0I0nKKpHXa3QgoQ0lRLkFSQ0E6QUlTLklRX0NMT1NFUFJJQ0UuMjAyNS83LzEwLlVTRAEAAACYl59wAgAAAAYyOC4xNTUAPbbWmXXa3Qj1UeSjddrdCC1DSVEuTkFTREFRR006V0lTRS5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xMC5VU0QBAAAA6bBDbgIAAAAEMzcuMQA9ttaZddrdCBhE5qN12t0IKENJUS5MU0U6UkJPVC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xMC5VU0QBAAAAjnskFAIAAAAFMTUuMzEAPbbWmXXa3QhcyeejddrdCClDSVEuWFRSQTpYQUlYLklRX0NMT1NFUFJJQ0UuMjAyNS83LzEwLlVTRAEAAAA17OIiAgAAAA8xNjEuNDMwNTc0OTY4MzYAPbbWmXXa3QjJ4YukddrdCChDSVEuQklUOldUQUkuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMTAuVVNEAQAAAE26WyMCAAAADjc0LjU5MDkzMDMxMDQ2AD221pl12t0IE+fqo3Xa3QgoQ0lRLkxTRTpBSUFHLklRX0NMT1NFUFJJQ0UuMjAyNS83LzEwLlVTRAEAAADwnYIkAgAAAA8yNC4wODcxODUzMzc3NTQAPbbWmXXa3QhGlO2jddrdCChDSVEuQVNYOlJCVFouSVFfQ0xPU0VQUklDRS4yMDI1LzcvMTAuVVNEAQAAACntdiICAAAADTkuMjAxODkwMjYyOTQAPbbWmXXa3QgyI4CiddrdCCdDSVEuREI6WEIwVC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xMC5VU0QBAAAA0zPeKQIAAAAPMjEuMzY3NDYxNDIxNzQ2AD221pl12t0Icb+A</t>
-  </si>
-  <si>
-    <t>onXa3QgrQ0lRLk5BU0RBUUdNOlFRUS5JUV9DTE9TRVBSSUNFLjIwMjUvNy85LlVTRAEAAAAOunsAAgAAAAY1NTYuMjUAPbbWmXXa3QiWmYOiddrdCCxDSVEuTkFTREFRR006QUdJWC5JUV9DTE9TRVBSSUNFLjIwMjUvNy85LlVTRAEAAAAj9wBwAgAAAAUzMS42OAA9ttaZddrdCIqqhaJ12t0IK0NJUS5OQVNEQVFHTTpTTUguSVFfQ0xPU0VQUklDRS4yMDI1LzcvOS5VU0QBAAAAYMI2AAIAAAAGMjg1LjQyAD221pl12t0I182HonXa3QgnQ0lRLkJBVFM6SUdWLklRX0NMT1NFUFJJQ0UuMjAyNS83LzkuVVNEAQAAAM06hgACAAAABjExMS40MgA9ttaZddrdCEBE36N12t0ILENJUS5OQVNEQVFHTTpCT1RaLklRX0NMT1NFUFJJQ0UuMjAyNS83LzkuVVNEAQAAAPf9CBYCAAAABTMyLjc3AD221pl12t0IPGmFpHXa3QgrQ0lRLk5BU0RBUUdNOkFJUS5JUV9DTE9TRVBSSUNFLjIwMjUvNy85LlVTRAEAAADp3GIhAgAAAAU0My43NwA9ttaZddrdCBhE5qN12t0IKENJUS5BUkNBOkFSVFkuSVFfQ0xPU0VQUklDRS4yMDI1LzcvOS5VU0QBAAAAbh9pIQIAAAAFNDEuNjcAPbbWmXXa3QhcyeejddrdCCxDSVEuTkFTREFRR006Uk9CVC5JUV9DTE9TRVBSSUNFLjIwMjUvNy85LlVTRAEAAABcY9kgAgAAAAU0OS4wOAA9ttaZddrdCMz9iaR12t0IKENJUS5BUkNBOklHUFQuSVFfQ0xPU0VQUklDRS4yMDI1LzcvOS5VU0QBAAAA</t>
-  </si>
-  <si>
-    <t>zAJeAQIAAAAFNDkuMjkAPbbWmXXa3QgT5+qjddrdCChDSVEuQkFUUzpXVEFJLklRX0NMT1NFUFJJQ0UuMjAyNS83LzkuVVNEAQAAAGBOb2QCAAAABTI0LjgzAD221pl12t0IvkuKpHXa3QgoQ0lRLkFSQ0E6VEhOUS5JUV9DTE9TRVBSSUNFLjIwMjUvNy85LlVTRAEAAACuw34kAgAAAAU1NS4wNQA9ttaZddrdCA2aiqR12t0ILENJUS5OQVNEQVFHTTpGRFRYLklRX0NMT1NFUFJJQ0UuMjAyNS83LzkuVVNEAQAAAL2lnSYCAAAABjM5LjIyNQA9ttaZddrdCBc2i6R12t0IKENJUS5BUkNBOkNIQVQuSVFfQ0xPU0VQUklDRS4yMDI1LzcvOS5VU0QBAAAAADA1bQIAAAAFNDguNjIAPbbWmXXa3QiXhIOiddrdCChDSVEuQVJDQTpMT1VQLklRX0NMT1NFUFJJQ0UuMjAyNS83LzkuVVNEAQAAAFlcDyICAAAABzYyLjUzNDUAPbbWmXXa3QikPoSiddrdCChDSVEuQVJDQTpMUk5aLklRX0NMT1NFUFJJQ0UuMjAyNS83LzkuVVNEAQAAALV2wyYCAAAABzQ0Ljg5ODcAPbbWmXXa3QjXzYeiddrdCCdDSVEuQVJDQTpBSVMuSVFfQ0xPU0VQUklDRS4yMDI1LzcvOS5VU0QBAAAAmJefcAIAAAAFMjguMDYAPbbWmXXa3QgiaYqiddrdCCxDSVEuTkFTREFRR006V0lTRS5JUV9DTE9TRVBSSUNFLjIwMjUvNy85LlVTRAEAAADpsENuAgAAAAUzNy41MQA9ttaZddrdCLs5iaR12t0IJ0NJUS5MU0U6UkJPVC5JUV9DTE9TRVBSSUNFLjIw</t>
-  </si>
-  <si>
-    <t>MjUvNy85LlVTRAEAAACOeyQUAgAAAAYxNS4yMzUAPbbWmXXa3QhDzOKjddrdCChDSVEuWFRSQTpYQUlYLklRX0NMT1NFUFJJQ0UuMjAyNS83LzkuVVNEAQAAADXs4iICAAAADzE2MS42MjQ5MTIxOTczMgA9ttaZddrdCPVR5KN12t0IJ0NJUS5CSVQ6V1RBSS5JUV9DTE9TRVBSSUNFLjIwMjUvNy85LlVTRAEAAABNulsjAgAAAA43My45NjM5NDI4Njk5NgA9ttaZddrdCA5lh6R12t0IJ0NJUS5MU0U6QUlBRy5JUV9DTE9TRVBSSUNFLjIwMjUvNy85LlVTRAEAAADwnYIkAgAAAA8yNC4xMTkxNDkxNzI5OTQAPbbWmXXa3QgT5+qjddrdCCdDSVEuQVNYOlJCVFouSVFfQ0xPU0VQUklDRS4yMDI1LzcvOS5VU0QBAAAAKe12IgIAAAAMOS4xMjY1MTc4MjUyAD221pl12t0IUbOHpHXa3QgmQ0lRLkRCOlhCMFQuSVFfQ0xPU0VQUklDRS4yMDI1LzcvOS5VU0QBAAAA0zPeKQIAAAAPMjEuNDQyMjg1MTc4OTUyAD221pl12t0Ick+IpHXa3QgrQ0lRLk5BU0RBUUdNOlFRUS5JUV9DTE9TRVBSSUNFLjIwMjUvNy84LlVTRAEAAAAOunsAAgAAAAY1NTIuMzQAPbbWmXXa3QiJnYikddrdCCxDSVEuTkFTREFRR006QUdJWC5JUV9DTE9TRVBSSUNFLjIwMjUvNy84LlVTRAEAAAAj9wBwAgAAAAUzMS4yOAA9ttaZddrdCM37f6J12t0IK0NJUS5OQVNEQVFHTTpTTUguSVFfQ0xPU0VQUklDRS4yMDI1LzcvOC5VU0QBAAAAYMI2AAIA</t>
-  </si>
-  <si>
-    <t>AAAGMjgzLjQ4AD221pl12t0I4x6ConXa3QgnQ0lRLkJBVFM6SUdWLklRX0NMT1NFUFJJQ0UuMjAyNS83LzguVVNEAQAAAM06hgACAAAABjExMS4wOAA9ttaZddrdCNfNh6J12t0ILENJUS5OQVNEQVFHTTpCT1RaLklRX0NMT1NFUFJJQ0UuMjAyNS83LzguVVNEAQAAAPf9CBYCAAAABTMyLjM2AD221pl12t0IG0KKonXa3QgrQ0lRLk5BU0RBUUdNOkFJUS5JUV9DTE9TRVBSSUNFLjIwMjUvNy84LlVTRAEAAADp3GIhAgAAAAU0My42OAA9ttaZddrdCNHIhqR12t0IKENJUS5BUkNBOkFSVFkuSVFfQ0xPU0VQUklDRS4yMDI1LzcvOC5VU0QBAAAAbh9pIQIAAAAFNDEuMjEAPbbWmXXa3QhDzOKjddrdCCxDSVEuTkFTREFRR006Uk9CVC5JUV9DTE9TRVBSSUNFLjIwMjUvNy84LlVTRAEAAABcY9kgAgAAAAU0OC43MgA9ttaZddrdCPVR5KN12t0IKENJUS5BUkNBOklHUFQuSVFfQ0xPU0VQUklDRS4yMDI1LzcvOC5VU0QBAAAAzAJeAQIAAAAFNDguOTcAPbbWmXXa3QiLL+ajddrdCChDSVEuQkFUUzpXVEFJLklRX0NMT1NFUFJJQ0UuMjAyNS83LzguVVNEAQAAAGBOb2QCAAAABTI0LjU5AD221pl12t0IfqLno3Xa3QgoQ0lRLkFSQ0E6VEhOUS5JUV9DTE9TRVBSSUNFLjIwMjUvNy84LlVTRAEAAACuw34kAgAAAAU1NC43NgA9ttaZddrdCEaU7aN12t0ILENJUS5OQVNEQVFHTTpGRFRYLklRX0NMT1NFUFJJQ0UuMjAy</t>
-  </si>
-  <si>
-    <t>NS83LzguVVNEAQAAAL2lnSYCAAAABTM5LjA2AD221pl12t0IWZCFpHXa3QgoQ0lRLkFSQ0E6Q0hBVC5JUV9DTE9TRVBSSUNFLjIwMjUvNy84LlVTRAEAAAAAMDVtAgAAAAU0OC4yNAA9ttaZddrdCK5ThqR12t0IKENJUS5BUkNBOkxPVVAuSVFfQ0xPU0VQUklDRS4yMDI1LzcvOC5VU0QBAAAAWVwPIgIAAAAHNjEuODQ0OAA9ttaZddrdCM37f6J12t0IKENJUS5BUkNBOkxSTlouSVFfQ0xPU0VQUklDRS4yMDI1LzcvOC5VU0QBAAAAtXbDJgIAAAAHNDQuNDc1NQA9ttaZddrdCHG/gKJ12t0IJ0NJUS5BUkNBOkFJUy5JUV9DTE9TRVBSSUNFLjIwMjUvNy84LlVTRAEAAACYl59wAgAAAAcyOC4wNTQ2AD221pl12t0Il4SDonXa3QgsQ0lRLk5BU0RBUUdNOldJU0UuSVFfQ0xPU0VQUklDRS4yMDI1LzcvOC5VU0QBAAAA6bBDbgIAAAAFMzYuODkAPbbWmXXa3QiKqoWiddrdCCdDSVEuTFNFOlJCT1QuSVFfQ0xPU0VQUklDRS4yMDI1LzcvOC5VU0QBAAAAjnskFAIAAAAFMTUuMTkAPbbWmXXa3QiEpt+jddrdCChDSVEuWFRSQTpYQUlYLklRX0NMT1NFUFJJQ0UuMjAyNS83LzguVVNEAQAAADXs4iICAAAADzE2MC45NjQ3NTgyNzU3MgA9ttaZddrdCEPM4qN12t0IJ0NJUS5CSVQ6V1RBSS5JUV9DTE9TRVBSSUNFLjIwMjUvNy84LlVTRAEAAABNulsjAgAAAA43My45MDIzNTMzNzc2OAA9ttaZddrdCPVR5KN12t0IJ0NJ</t>
-  </si>
-  <si>
-    <t>US5MU0U6QUlBRy5JUV9DTE9TRVBSSUNFLjIwMjUvNy84LlVTRAEAAADwnYIkAgAAAA0yMy45NzY2MTYxMjcyAD221pl12t0Iiy/mo3Xa3QgnQ0lRLkFTWDpSQlRaLklRX0NMT1NFUFJJQ0UuMjAyNS83LzguVVNEAQAAACntdiICAAAACzkuMDgwODI3MTg4AD221pl12t0IfqLno3Xa3QgmQ0lRLkRCOlhCMFQuSVFfQ0xPU0VQUklDRS4yMDI1LzcvOC5VU0QBAAAA0zPeKQIAAAAPMjEuMjIyMzM5MzExMjE0AD221pl12t0ITpfpo3Xa3QgrQ0lRLk5BU0RBUUdNOlFRUS5JUV9DTE9TRVBSSUNFLjIwMjUvNy83LlVTRAEAAAAOunsAAgAAAAY1NTIuMDMAPbbWmXXa3QgT5+qjddrdCCxDSVEuTkFTREFRR006QUdJWC5JUV9DTE9TRVBSSUNFLjIwMjUvNy83LlVTRAEAAAAj9wBwAgAAAAUzMS40NAA9ttaZddrdCEaU7aN12t0IK0NJUS5OQVNEQVFHTTpTTUguSVFfQ0xPU0VQUklDRS4yMDI1LzcvNy5VU0QBAAAAYMI2AAIAAAAGMjc5Ljc2AD221pl12t0Izft/onXa3QgnQ0lRLkJBVFM6SUdWLklRX0NMT1NFUFJJQ0UuMjAyNS83LzcuVVNEAQAAAM06hgACAAAABjExMC43MQA9ttaZddrdCOMegqJ12t0ILENJUS5OQVNEQVFHTTpCT1RaLklRX0NMT1NFUFJJQ0UuMjAyNS83LzcuVVNEAQAAAPf9CBYCAAAABTMyLjE2AD221pl12t0Il4SDonXa3QgrQ0lRLk5BU0RBUUdNOkFJUS5JUV9DTE9TRVBSSUNFLjIwMjUvNy83</t>
-  </si>
-  <si>
-    <t>LlVTRAEAAADp3GIhAgAAAAU0My41NAA9ttaZddrdCIqqhaJ12t0IKENJUS5BUkNBOkFSVFkuSVFfQ0xPU0VQUklDRS4yMDI1LzcvNy5VU0QBAAAAbh9pIQIAAAAFNDAuOTIAPbbWmXXa3QjXzYeiddrdCCxDSVEuTkFTREFRR006Uk9CVC5JUV9DTE9TRVBSSUNFLjIwMjUvNy83LlVTRAEAAABcY9kgAgAAAAU0OC41MQA9ttaZddrdCBtCiqJ12t0IKENJUS5BUkNBOklHUFQuSVFfQ0xPU0VQUklDRS4yMDI1LzcvNy5VU0QBAAAAzAJeAQIAAAAFNDguNDQAPbbWmXXa3Qj1UeSjddrdCChDSVEuQkFUUzpXVEFJLklRX0NMT1NFUFJJQ0UuMjAyNS83LzcuVVNEAQAAAGBOb2QCAAAABTI0LjQ4AD221pl12t0Iiy/mo3Xa3QgoQ0lRLkFSQ0E6VEhOUS5JUV9DTE9TRVBSSUNFLjIwMjUvNy83LlVTRAEAAACuw34kAgAAAAU1NC40OQA9ttaZddrdCH6i56N12t0ILENJUS5OQVNEQVFHTTpGRFRYLklRX0NMT1NFUFJJQ0UuMjAyNS83LzcuVVNEAQAAAL2lnSYCAAAABTM4LjkzAD221pl12t0ITpfpo3Xa3QgoQ0lRLkFSQ0E6Q0hBVC5JUV9DTE9TRVBSSUNFLjIwMjUvNy83LlVTRAEAAAAAMDVtAgAAAAQ0OC4xAD221pl12t0IE+fqo3Xa3QgoQ0lRLkFSQ0E6TE9VUC5JUV9DTE9TRVBSSUNFLjIwMjUvNy83LlVTRAEAAABZXA8iAgAAAAc2MS43OTkzAD221pl12t0IUA+LpHXa3QgoQ0lRLkFSQ0E6TFJOWi5JUV9DTE9TRVBS</t>
-  </si>
-  <si>
-    <t>SUNFLjIwMjUvNy83LlVTRAEAAAC1dsMmAgAAAAc0NC41NjM1AD221pl12t0IyeGLpHXa3QgnQ0lRLkFSQ0E6QUlTLklRX0NMT1NFUFJJQ0UuMjAyNS83LzcuVVNEAQAAAJiXn3ACAAAABTI3LjU4AD221pl12t0I3veBonXa3QgsQ0lRLk5BU0RBUUdNOldJU0UuSVFfQ0xPU0VQUklDRS4yMDI1LzcvNy5VU0QBAAAA6bBDbgIAAAAEMzYuNAA9ttaZddrdCP1vg6J12t0IJ0NJUS5MU0U6UkJPVC5JUV9DTE9TRVBSSUNFLjIwMjUvNy83LlVTRAEAAACOeyQUAgAAAAYxNS4xMzUAPbbWmXXa3QikPoSiddrdCChDSVEuWFRSQTpYQUlYLklRX0NMT1NFUFJJQ0UuMjAyNS83LzcuVVNEAQAAADXs4iICAAAADzE2MS4zNzUxMDI2ODE1MgA9ttaZddrdCNfNh6J12t0IJ0NJUS5CSVQ6V1RBSS5JUV9DTE9TRVBSSUNFLjIwMjUvNy83LlVTRAEAAABNulsjAgAAAA03Mi44NjE2Njg0MzQ4AD221pl12t0IG0KKonXa3QgnQ0lRLkxTRTpBSUFHLklRX0NMT1NFUFJJQ0UuMjAyNS83LzcuVVNEAQAAAPCdgiQCAAAADzI0LjA1MzEwMjY1NTU2OAA9ttaZddrdCKLiiKJ12t0IJ0NJUS5BU1g6UkJUWi5JUV9DTE9TRVBSSUNFLjIwMjUvNy83LlVTRAEAAAAp7XYiAgAAAAw5LjExMzQxMjgwNjQAPbbWmXXa3QhDzOKjddrdCCZDSVEuREI6WEIwVC5JUV9DTE9TRVBSSUNFLjIwMjUvNy83LlVTRAEAAADTM94pAgAAAA8yMS4xOTIwNjg1</t>
-  </si>
-  <si>
-    <t>MjI4NTYAPbbWmXXa3Qh+ouejddrdCCtDSVEuTkFTREFRR006UVFRLklRX0NMT1NFUFJJQ0UuMjAyNS83LzQuVVNEAQAAAA66ewADAAAAAAA9ttaZddrdCE6X6aN12t0ILENJUS5OQVNEQVFHTTpBR0lYLklRX0NMT1NFUFJJQ0UuMjAyNS83LzQuVVNEAQAAACP3AHADAAAAAAA9ttaZddrdCBPn6qN12t0IK0NJUS5OQVNEQVFHTTpTTUguSVFfQ0xPU0VQUklDRS4yMDI1LzcvNC5VU0QBAAAAYMI2AAMAAAAAAD221pl12t0IFzaLpHXa3QgnQ0lRLkJBVFM6SUdWLklRX0NMT1NFUFJJQ0UuMjAyNS83LzQuVVNEAQAAAM06hgADAAAAAAA9ttaZddrdCH+ri6R12t0ILENJUS5OQVNEQVFHTTpCT1RaLklRX0NMT1NFUFJJQ0UuMjAyNS83LzQuVVNEAQAAAPf9CBYDAAAAAAA9ttaZddrdCEaU7aN12t0IK0NJUS5OQVNEQVFHTTpBSVEuSVFfQ0xPU0VQUklDRS4yMDI1LzcvNC5VU0QBAAAA6dxiIQMAAAAAAD221pl12t0Izft/onXa3QgoQ0lRLkFSQ0E6QVJUWS5JUV9DTE9TRVBSSUNFLjIwMjUvNy80LlVTRAEAAABuH2khAwAAAAAAPbbWmXXa3QikPoSiddrdCCxDSVEuTkFTREFRR006Uk9CVC5JUV9DTE9TRVBSSUNFLjIwMjUvNy80LlVTRAEAAABcY9kgAwAAAAAAPbbWmXXa3QjXzYeiddrdCChDSVEuQVJDQTpJR1BULklRX0NMT1NFUFJJQ0UuMjAyNS83LzQuVVNEAQAAAMwCXgEDAAAAAAA9ttaZddrdCBtCiqJ12t0I</t>
-  </si>
-  <si>
-    <t>KENJUS5CQVRTOldUQUkuSVFfQ0xPU0VQUklDRS4yMDI1LzcvNC5VU0QBAAAAYE5vZAMAAAAAAD221pl12t0Iavbgo3Xa3QgoQ0lRLkFSQ0E6VEhOUS5JUV9DTE9TRVBSSUNFLjIwMjUvNy80LlVTRAEAAACuw34kAwAAAAAAPbbWmXXa3QhDzOKjddrdCCxDSVEuTkFTREFRR006RkRUWC5JUV9DTE9TRVBSSUNFLjIwMjUvNy80LlVTRAEAAAC9pZ0mAwAAAAAAPbbWmXXa3Qj1UeSjddrdCChDSVEuQVJDQTpDSEFULklRX0NMT1NFUFJJQ0UuMjAyNS83LzQuVVNEAQAAAAAwNW0DAAAAAAA9ttaZddrdCIsv5qN12t0IKENJUS5BUkNBOkxPVVAuSVFfQ0xPU0VQUklDRS4yMDI1LzcvNC5VU0QBAAAAWVwPIgMAAAAAAD221pl12t0IE+fqo3Xa3QgoQ0lRLkFSQ0E6TFJOWi5JUV9DTE9TRVBSSUNFLjIwMjUvNy80LlVTRAEAAAC1dsMmAwAAAAAAPbbWmXXa3Qi+S4qkddrdCCdDSVEuQVJDQTpBSVMuSVFfQ0xPU0VQUklDRS4yMDI1LzcvNC5VU0QBAAAAmJefcAMAAAAAAD221pl12t0IDZqKpHXa3QgsQ0lRLk5BU0RBUUdNOldJU0UuSVFfQ0xPU0VQUklDRS4yMDI1LzcvNC5VU0QBAAAA6bBDbgMAAAAAAD221pl12t0IRpTto3Xa3QgnQ0lRLkxTRTpSQk9ULklRX0NMT1NFUFJJQ0UuMjAyNS83LzQuVVNEAQAAAI57JBQCAAAABjE1LjE3NQA9ttaZddrdCM37f6J12t0IKENJUS5YVFJBOlhBSVguSVFfQ0xPU0VQUklDRS4y</t>
-  </si>
-  <si>
-    <t>MDI1LzcvNC5VU0QBAAAANeziIgIAAAAPMTYxLjEyMTU4MzQxMTM2AD221pl12t0I3veBonXa3QgnQ0lRLkJJVDpXVEFJLklRX0NMT1NFUFJJQ0UuMjAyNS83LzQuVVNEAQAAAE26WyMCAAAADTczLjQ1NjY0NDY3NDYAPbbWmXXa3Qj9b4OiddrdCCdDSVEuTFNFOkFJQUcuSVFfQ0xPU0VQUklDRS4yMDI1LzcvNC5VU0QBAAAA8J2CJAIAAAAPMjQuMTM4NDk1NTMzMzU4AD221pl12t0IG0KKonXa3QgnQ0lRLkFTWDpSQlRaLklRX0NMT1NFUFJJQ0UuMjAyNS83LzQuVVNEAQAAACntdiICAAAADTkuMjE1OTU1OTg5MzEAPbbWmXXa3Qhq9uCjddrdCCZDSVEuREI6WEIwVC5JUV9DTE9TRVBSSUNFLjIwMjUvNy80LlVTRAEAAADTM94pAgAAAA8yMS41MTUwODAxMTMwMzIAPbbWmXXa3QgwpeKjddrdCCtDSVEuTkFTREFRR006UVFRLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMuVVNEAQAAAA66ewACAAAABjU1Ni4yMgA9ttaZddrdCPVR5KN12t0ILENJUS5OQVNEQVFHTTpBR0lYLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMuVVNEAQAAACP3AHACAAAABTMxLjU0AD221pl12t0I1xrmo3Xa3QgrQ0lRLk5BU0RBUUdNOlNNSC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zLlVTRAEAAABgwjYAAgAAAAYyODMuNjIAPbbWmXXa3Qh+ouejddrdCCdDSVEuQkFUUzpJR1YuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMy5VU0QBAAAAzTqGAAIA</t>
-  </si>
-  <si>
-    <t>AAAGMTExLjI3AD221pl12t0ITpfpo3Xa3QgsQ0lRLk5BU0RBUUdNOkJPVFouSVFfQ0xPU0VQUklDRS4yMDI1LzcvMy5VU0QBAAAA9/0IFgIAAAAFMzIuNzkAPbbWmXXa3QjM/YmkddrdCCtDSVEuTkFTREFRR006QUlRLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMuVVNEAQAAAOncYiECAAAAAjQ0AD221pl12t0IRpTto3Xa3QgoQ0lRLkFSQ0E6QVJUWS5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zLlVTRAEAAABuH2khAgAAAAQ0MS4zAD221pl12t0Izft/onXa3QgsQ0lRLk5BU0RBUUdNOlJPQlQuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMy5VU0QBAAAAXGPZIAIAAAAFNDkuMTcAPbbWmXXa3Qje94GiddrdCChDSVEuQVJDQTpJR1BULklRX0NMT1NFUFJJQ0UuMjAyNS83LzMuVVNEAQAAAMwCXgECAAAABTQ5LjE5AD221pl12t0I/W+DonXa3QgoQ0lRLkJBVFM6V1RBSS5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zLlVTRAEAAABgTm9kAgAAAAUyNC43OQA9ttaZddrdCKQ+hKJ12t0IKENJUS5BUkNBOlRITlEuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMy5VU0QBAAAArsN+JAIAAAAFNTUuMzUAPbbWmXXa3QgXqIeiddrdCCxDSVEuTkFTREFRR006RkRUWC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zLlVTRAEAAAC9pZ0mAgAAAAUzOS4yNQA9ttaZddrdCDCl4qN12t0IKENJUS5BUkNBOkNIQVQuSVFfQ0xPU0VQUklDRS4yMDI1Lzcv</t>
-  </si>
-  <si>
-    <t>My5VU0QBAAAAADA1bQIAAAAFNDguNzcAPbbWmXXa3Qj1UeSjddrdCChDSVEuQVJDQTpMT1VQLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMuVVNEAQAAAFlcDyICAAAABTYyLjIzAD221pl12t0I1xrmo3Xa3QgoQ0lRLkFSQ0E6TFJOWi5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zLlVTRAEAAAC1dsMmAgAAAAc0NC44NzUxAD221pl12t0IfqLno3Xa3QgnQ0lRLkFSQ0E6QUlTLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMuVVNEAQAAAJiXn3ACAAAABzI4LjA4NzkAPbbWmXXa3Qhab+mjddrdCCxDSVEuTkFTREFRR006V0lTRS5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zLlVTRAEAAADpsENuAgAAAAczNi41ODY5AD221pl12t0IE+fqo3Xa3QgnQ0lRLkxTRTpSQk9ULklRX0NMT1NFUFJJQ0UuMjAyNS83LzMuVVNEAQAAAI57JBQCAAAABTE1LjMyAD221pl12t0IuzmJpHXa3QgoQ0lRLlhUUkE6WEFJWC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zLlVTRAEAAAA17OIiAgAAAA0xNjIuMzE0NzQ5NTA2AD221pl12t0Izft/onXa3QgnQ0lRLkJJVDpXVEFJLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMuVVNEAQAAAE26WyMCAAAADjc0LjMxMTkyNjYyMTY2AD221pl12t0I3veBonXa3QgnQ0lRLkxTRTpBSUFHLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMuVVNEAQAAAPCdgiQCAAAADzI0LjM5MzY3NDU1NTMxNwA9ttaZddrdCP1vg6J12t0I</t>
-  </si>
-  <si>
-    <t>J0NJUS5BU1g6UkJUWi5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zLlVTRAEAAAAp7XYiAgAAAA05LjI1MjIwMTMzMzc2AD221pl12t0IiqqFonXa3QgmQ0lRLkRCOlhCMFQuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMy5VU0QBAAAA0zPeKQIAAAAOMjEuMjUzODIyNjM0NTkAPbbWmXXa3QgXqIeiddrdCCtDSVEuTkFTREFRR006UVFRLklRX0NMT1NFUFJJQ0UuMjAyNS83LzIuVVNEAQAAAA66ewACAAAABTU1MC44AD221pl12t0IG0KKonXa3QgsQ0lRLk5BU0RBUUdNOkFHSVguSVFfQ0xPU0VQUklDRS4yMDI1LzcvMi5VU0QBAAAAI/cAcAIAAAAFMzEuMjYAPbbWmXXa3QjEzuCjddrdCCtDSVEuTkFTREFRR006U01ILklRX0NMT1NFUFJJQ0UuMjAyNS83LzIuVVNEAQAAAGDCNgACAAAABjI4MS4yNQA9ttaZddrdCNca5qN12t0IJ0NJUS5CQVRTOklHVi5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yLlVTRAEAAADNOoYAAgAAAAYxMDguODEAPbbWmXXa3Qh+ouejddrdCCxDSVEuTkFTREFRR006Qk9UWi5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yLlVTRAEAAAD3/QgWAgAAAAUzMi40OQA9ttaZddrdCFpv6aN12t0IK0NJUS5OQVNEQVFHTTpBSVEuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMi5VU0QBAAAA6dxiIQIAAAAFNDMuNDkAPbbWmXXa3QgT5+qjddrdCChDSVEuQVJDQTpBUlRZLklRX0NMT1NFUFJJQ0UuMjAyNS83LzIuVVNE</t>
-  </si>
-  <si>
-    <t>AQAAAG4faSECAAAABDQwLjcAPbbWmXXa3QhyT4ikddrdCCxDSVEuTkFTREFRR006Uk9CVC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yLlVTRAEAAABcY9kgAgAAAAU0OC40NwA9ttaZddrdCImdiKR12t0IKENJUS5BUkNBOklHUFQuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMi5VU0QBAAAAzAJeAQIAAAAFNDguOTIAPbbWmXXa3QhGlO2jddrdCChDSVEuQkFUUzpXVEFJLklRX0NMT1NFUFJJQ0UuMjAyNS83LzIuVVNEAQAAAGBOb2QCAAAABTI0LjM2AD221pl12t0I/W+DonXa3QgoQ0lRLkFSQ0E6VEhOUS5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yLlVTRAEAAACuw34kAgAAAAU1NC42MQA9ttaZddrdCIqqhaJ12t0ILENJUS5OQVNEQVFHTTpGRFRYLklRX0NMT1NFUFJJQ0UuMjAyNS83LzIuVVNEAQAAAL2lnSYCAAAABTM4LjU0AD221pl12t0IF6iHonXa3QgoQ0lRLkFSQ0E6Q0hBVC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yLlVTRAEAAAAAMDVtAgAAAAU0OC4yNQA9ttaZddrdCBtCiqJ12t0IKENJUS5BUkNBOkxPVVAuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMi5VU0QBAAAAWVwPIgIAAAAHNjEuMTE0NAA9ttaZddrdCMTO4KN12t0IKENJUS5BUkNBOkxSTlouSVFfQ0xPU0VQUklDRS4yMDI1LzcvMi5VU0QBAAAAtXbDJgIAAAAHNDMuODQyNwA9ttaZddrdCDCl4qN12t0IJ0NJUS5BUkNBOkFJUy5JUV9DTE9TRVBSSUNF</t>
-  </si>
-  <si>
-    <t>LjIwMjUvNy8yLlVTRAEAAACYl59wAgAAAAcyNy43ODY0AD221pl12t0I4yrko3Xa3QgsQ0lRLk5BU0RBUUdNOldJU0UuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMi5VU0QBAAAA6bBDbgIAAAAFMzYuMjMAPbbWmXXa3Qhab+mjddrdCCdDSVEuTFNFOlJCT1QuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMi5VU0QBAAAAjnskFAIAAAAFMTUuMDgAPbbWmXXa3QgT5+qjddrdCChDSVEuWFRSQTpYQUlYLklRX0NMT1NFUFJJQ0UuMjAyNS83LzIuVVNEAQAAADXs4iICAAAADzE1OS40Njc3MzQzNjcxNgA9ttaZddrdCA5lh6R12t0IJ0NJUS5CSVQ6V1RBSS5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yLlVTRAEAAABNulsjAgAAAA43Mi45MTU2ODUzNjQxNgA9ttaZddrdCFGzh6R12t0IJ0NJUS5MU0U6QUlBRy5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yLlVTRAEAAADwnYIkAgAAAA8yMy45MzUwOTEyNzMxMzYAPbbWmXXa3QhGlO2jddrdCCdDSVEuQVNYOlJCVFouSVFfQ0xPU0VQUklDRS4yMDI1LzcvMi5VU0QBAAAAKe12IgIAAAANOS4xNDQ2NTkwNDYyNAA9ttaZddrdCM37f6J12t0IJkNJUS5EQjpYQjBULklRX0NMT1NFUFJJQ0UuMjAyNS83LzIuVVNEAQAAANMz3ikCAAAADzIxLjEyODEyMDU4NzkxNgA9ttaZddrdCN73gaJ12t0IK0NJUS5OQVNEQVFHTTpRUVEuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMS5VU0QBAAAADrp7AAIA</t>
-  </si>
-  <si>
-    <t>AAAGNTQ2Ljk5AD221pl12t0IF6iHonXa3QgsQ0lRLk5BU0RBUUdNOkFHSVguSVFfQ0xPU0VQUklDRS4yMDI1LzcvMS5VU0QBAAAAI/cAcAIAAAAFMzEuMDIAPbbWmXXa3QgbQoqiddrdCCtDSVEuTkFTREFRR006U01ILklRX0NMT1NFUFJJQ0UuMjAyNS83LzEuVVNEAQAAAGDCNgACAAAABjI3NS44NAA9ttaZddrdCMTO4KN12t0IJ0NJUS5CQVRTOklHVi5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xLlVTRAEAAADNOoYAAgAAAAYxMDguMjQAPbbWmXXa3QhPfeKjddrdCCxDSVEuTkFTREFRR006Qk9UWi5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xLlVTRAEAAAD3/QgWAgAAAAUzMi4xNAA9ttaZddrdCOMq5KN12t0IK0NJUS5OQVNEQVFHTTpBSVEuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMS5VU0QBAAAA6dxiIQIAAAAENDMuMgA9ttaZddrdCNca5qN12t0IKENJUS5BUkNBOkFSVFkuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMS5VU0QBAAAAbh9pIQIAAAAFNDAuNDIAPbbWmXXa3Qh+ouejddrdCCxDSVEuTkFTREFRR006Uk9CVC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xLlVTRAEAAABcY9kgAgAAAAU0Ny45OQA9ttaZddrdCK5ThqR12t0IKENJUS5BUkNBOklHUFQuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMS5VU0QBAAAAzAJeAQIAAAAENDguNAA9ttaZddrdCNHIhqR12t0IKENJUS5CQVRTOldUQUkuSVFfQ0xPU0VQUklDRS4y</t>
-  </si>
-  <si>
-    <t>MDI1LzcvMS5VU0QBAAAAYE5vZAIAAAAGMjQuMTM0AD221pl12t0Id1Xto3Xa3QgoQ0lRLkFSQ0E6VEhOUS5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xLlVTRAEAAACuw34kAgAAAAU1My45NAA9ttaZddrdCJq+f6J12t0ILENJUS5OQVNEQVFHTTpGRFRYLklRX0NMT1NFUFJJQ0UuMjAyNS83LzEuVVNEAQAAAL2lnSYCAAAABTM4LjYyAD221pl12t0I3veBonXa3QgoQ0lRLkFSQ0E6Q0hBVC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xLlVTRAEAAAAAMDVtAgAAAAU0Ny45OQA9ttaZddrdCDtbg6J12t0IKENJUS5BUkNBOkxPVVAuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMS5VU0QBAAAAWVwPIgIAAAAHNjEuMDA1OQA9ttaZddrdCIqqhaJ12t0IKENJUS5BUkNBOkxSTlouSVFfQ0xPU0VQUklDRS4yMDI1LzcvMS5VU0QBAAAAtXbDJgIAAAAGNDMuNjUxAD221pl12t0IxM7go3Xa3QgnQ0lRLkFSQ0E6QUlTLklRX0NMT1NFUFJJQ0UuMjAyNS83LzEuVVNEAQAAAJiXn3ACAAAABTI3LjYyAD221pl12t0IT33io3Xa3QgsQ0lRLk5BU0RBUUdNOldJU0UuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMS5VU0QBAAAA6bBDbgIAAAAEMzUuOAA9ttaZddrdCOMq5KN12t0IJ0NJUS5MU0U6UkJPVC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xLlVTRAEAAACOeyQUAgAAAAcxNC45OTI1AD221pl12t0I1xrmo3Xa3QgoQ0lRLlhUUkE6WEFJWC5J</t>
-  </si>
-  <si>
-    <t>UV9DTE9TRVBSSUNFLjIwMjUvNy8xLlVTRAEAAAA17OIiAgAAAA8xNTguOTg3NjM5Nzc3MjIAPbbWmXXa3Qhfe+ejddrdCCdDSVEuQklUOldUQUkuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMS5VU0QBAAAATbpbIwIAAAANNzEuOTI0NjYxNTYwNwA9ttaZddrdCFpv6aN12t0IJ0NJUS5MU0U6QUlBRy5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xLlVTRAEAAADwnYIkAgAAAA4yMy43NDg0OTIxNTU4NQA9ttaZddrdCFOq6qN12t0IJ0NJUS5BU1g6UkJUWi5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xLlVTRAEAAAAp7XYiAgAAAA05LjE3OTI1MTQ3NTY0AD221pl12t0Id1Xto3Xa3QgmQ0lRLkRCOlhCMFQuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMS5VU0QBAAAA0zPeKQIAAAAPMjEuMzQ2Njc0NTEyOTU4AD221pl12t0Imr5/onXa3QgsQ0lRLk5BU0RBUUdNOlFRUS5JUV9DTE9TRVBSSUNFLjIwMjUvNi8zMC5VU0QBAAAADrp7AAIAAAAGNTUxLjY0AOHL1pl12t0I3veBonXa3QgtQ0lRLk5BU0RBUUdNOkFHSVguSVFfQ0xPU0VQUklDRS4yMDI1LzYvMzAuVVNEAQAAACP3AHACAAAABjMxLjcxNQDhy9aZddrdCDtbg6J12t0ILENJUS5OQVNEQVFHTTpTTUguSVFfQ0xPU0VQUklDRS4yMDI1LzYvMzAuVVNEAQAAAGDCNgACAAAABjI3OC44OADhy9aZddrdCJKDhaJ12t0IKENJUS5CQVRTOklHVi5JUV9DTE9TRVBSSUNFLjIwMjUv</t>
-  </si>
-  <si>
-    <t>Ni8zMC5VU0QBAAAAzTqGAAIAAAAFMTA5LjUA4cvWmXXa3QgXqIeiddrdCC1DSVEuTkFTREFRR006Qk9UWi5JUV9DTE9TRVBSSUNFLjIwMjUvNi8zMC5VU0QBAAAA9/0IFgIAAAAFMzIuNjUA4cvWmXXa3QgLG4qiddrdCCxDSVEuTkFTREFRR006QUlRLklRX0NMT1NFUFJJQ0UuMjAyNS82LzMwLlVTRAEAAADp3GIhAgAAAAU0My42OQDhy9aZddrdCOMq5KN12t0IKUNJUS5BUkNBOkFSVFkuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMzAuVVNEAQAAAG4faSECAAAAAjQxAOHL1pl12t0IYwbmo3Xa3QgtQ0lRLk5BU0RBUUdNOlJPQlQuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMzAuVVNEAQAAAFxj2SACAAAABDQ4LjMA4cvWmXXa3Qhfe+ejddrdCClDSVEuQVJDQTpJR1BULklRX0NMT1NFUFJJQ0UuMjAyNS82LzMwLlVTRAEAAADMAl4BAgAAAAY0OS4xNDUA4cvWmXXa3Qhab+mjddrdCClDSVEuQkFUUzpXVEFJLklRX0NMT1NFUFJJQ0UuMjAyNS82LzMwLlVTRAEAAABgTm9kAgAAAAUyNC41NgDhy9aZddrdCFOq6qN12t0IKUNJUS5BUkNBOlRITlEuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMzAuVVNEAQAAAK7DfiQCAAAAAjU1AOHL1pl12t0ITVzso3Xa3QgtQ0lRLk5BU0RBUUdNOkZEVFguSVFfQ0xPU0VQUklDRS4yMDI1LzYvMzAuVVNEAQAAAL2lnSYCAAAABTM5LjAxAOHL1pl12t0IIhuFpHXa3QgpQ0lRLkFSQ0E6Q0hB</t>
-  </si>
-  <si>
-    <t>VC5JUV9DTE9TRVBSSUNFLjIwMjUvNi8zMC5VU0QBAAAAADA1bQIAAAAFNDguNzgA4cvWmXXa3Qje94GiddrdCClDSVEuQVJDQTpMT1VQLklRX0NMT1NFUFJJQ0UuMjAyNS82LzMwLlVTRAEAAABZXA8iAgAAAAU2Mi42MQDhy9aZddrdCDtbg6J12t0IKUNJUS5BUkNBOkxSTlouSVFfQ0xPU0VQUklDRS4yMDI1LzYvMzAuVVNEAQAAALV2wyYCAAAABzQ0LjcyODgA4cvWmXXa3QiSg4WiddrdCChDSVEuQVJDQTpBSVMuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMzAuVVNEAQAAAJiXn3ACAAAABjI4LjEyNQDhy9aZddrdCBeoh6J12t0ILUNJUS5OQVNEQVFHTTpXSVNFLklRX0NMT1NFUFJJQ0UuMjAyNS82LzMwLlVTRAEAAADpsENuAgAAAAUzNi4xNgDhy9aZddrdCAsbiqJ12t0IKENJUS5MU0U6UkJPVC5JUV9DTE9TRVBSSUNFLjIwMjUvNi8zMC5VU0QBAAAAjnskFAIAAAAGMTUuMDY1AOHL1pl12t0IxM7go3Xa3QgpQ0lRLlhUUkE6WEFJWC5JUV9DTE9TRVBSSUNFLjIwMjUvNi8zMC5VU0QBAAAANeziIgIAAAAPMTYwLjgyMjA3ODY4OTc0AOHL1pl12t0IT33io3Xa3QgoQ0lRLkJJVDpXVEFJLklRX0NMT1NFUFJJQ0UuMjAyNS82LzMwLlVTRAEAAABNulsjAgAAAA43Mi43NTM5NjM1OTU5NQDhy9aZddrdCF9756N12t0IKENJUS5MU0U6QUlBRy5JUV9DTE9TRVBSSUNFLjIwMjUvNi8zMC5VU0QBAAAA8J2CJAIAAAAP</t>
-  </si>
-  <si>
-    <t>MjQuMTg2ODc0OTE2NTY4AOHL1pl12t0IWm/po3Xa3QgoQ0lRLkFTWDpSQlRaLklRX0NMT1NFUFJJQ0UuMjAyNS82LzMwLlVTRAEAAAAp7XYiAgAAAA05LjQyMTA5NzQ5MzIxAOHL1pl12t0IU6rqo3Xa3QgnQ0lRLkRCOlhCMFQuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMzAuVVNEAQAAANMz3ikCAAAADzIxLjQ3NTA0NDA0MDYwNgDhy9aZddrdCE1c7KN12t0ILENJUS5OQVNEQVFHTTpRUVEuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMjcuVVNEAQAAAA66ewACAAAABjU0OC4wOQDhy9aZddrdCEaU7aN12t0ILUNJUS5OQVNEQVFHTTpBR0lYLklRX0NMT1NFUFJJQ0UuMjAyNS82LzI3LlVTRAEAAAAj9wBwAgAAAAUzMS42NQDhy9aZddrdCHdV7aN12t0ILENJUS5OQVNEQVFHTTpTTUguSVFfQ0xPU0VQUklDRS4yMDI1LzYvMjcuVVNEAQAAAGDCNgACAAAABjI3OC40MgDhy9aZddrdCJq+f6J12t0IKENJUS5CQVRTOklHVi5JUV9DTE9TRVBSSUNFLjIwMjUvNi8yNy5VU0QBAAAAzTqGAAIAAAAGMTA3Ljc4AOHL1pl12t0IpD6EonXa3QgtQ0lRLk5BU0RBUUdNOkJPVFouSVFfQ0xPU0VQUklDRS4yMDI1LzYvMjcuVVNEAQAAAPf9CBYCAAAABTMyLjUyAOHL1pl12t0IF6iHonXa3QgsQ0lRLk5BU0RBUUdNOkFJUS5JUV9DTE9TRVBSSUNFLjIwMjUvNi8yNy5VU0QBAAAA6dxiIQIAAAAFNDMuMzcA4cvWmXXa3QgLG4qiddrd</t>
-  </si>
-  <si>
-    <t>CClDSVEuQVJDQTpBUlRZLklRX0NMT1NFUFJJQ0UuMjAyNS82LzI3LlVTRAEAAABuH2khAgAAAAU0MC42NADhy9aZddrdCMTO4KN12t0ILUNJUS5OQVNEQVFHTTpST0JULklRX0NMT1NFUFJJQ0UuMjAyNS82LzI3LlVTRAEAAABcY9kgAgAAAAU0OC4wOADhy9aZddrdCE994qN12t0IKUNJUS5BUkNBOklHUFQuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMjcuVVNEAQAAAMwCXgECAAAABTQ4Ljg1AOHL1pl12t0I4yrko3Xa3QgpQ0lRLkJBVFM6V1RBSS5JUV9DTE9TRVBSSUNFLjIwMjUvNi8yNy5VU0QBAAAAYE5vZAIAAAAFMjQuMzEA4cvWmXXa3QhjBuajddrdCClDSVEuQVJDQTpUSE5RLklRX0NMT1NFUFJJQ0UuMjAyNS82LzI3LlVTRAEAAACuw34kAgAAAAU1NC41OADhy9aZddrdCFOq6qN12t0ILUNJUS5OQVNEQVFHTTpGRFRYLklRX0NMT1NFUFJJQ0UuMjAyNS82LzI3LlVTRAEAAAC9pZ0mAgAAAAQzOC45AOHL1pl12t0IVx7so3Xa3QgpQ0lRLkFSQ0E6Q0hBVC5JUV9DTE9TRVBSSUNFLjIwMjUvNi8yNy5VU0QBAAAAADA1bQIAAAAFNDguMjYA4cvWmXXa3QjJ4YukddrdCClDSVEuQVJDQTpMT1VQLklRX0NMT1NFUFJJQ0UuMjAyNS82LzI3LlVTRAEAAABZXA8iAgAAAAc2MS4zMzg5AOHL1pl12t0Id1Xto3Xa3QgpQ0lRLkFSQ0E6TFJOWi5JUV9DTE9TRVBSSUNFLjIwMjUvNi8yNy5VU0QBAAAAtXbDJgIAAAAH</t>
-  </si>
-  <si>
-    <t>NDQuNTQzNQDhy9aZddrdCJq+f6J12t0IKENJUS5BUkNBOkFJUy5JUV9DTE9TRVBSSUNFLjIwMjUvNi8yNy5VU0QBAAAAmJefcAIAAAAHMjcuOTI4NADhy9aZddrdCNzQgaJ12t0ILUNJUS5OQVNEQVFHTTpXSVNFLklRX0NMT1NFUFJJQ0UuMjAyNS82LzI3LlVTRAEAAADpsENuAgAAAAYzNS45NTUA4cvWmXXa3Qg7W4OiddrdCChDSVEuTFNFOlJCT1QuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMjcuVVNEAQAAAI57JBQCAAAABjE1LjA4NQDhy9aZddrdCAsbiqJ12t0IKUNJUS5YVFJBOlhBSVguSVFfQ0xPU0VQUklDRS4yMDI1LzYvMjcuVVNEAQAAADXs4iICAAAADzE2MC4xODc0NjM0MDUzNgDhy9aZddrdCMTO4KN12t0IKENJUS5CSVQ6V1RBSS5JUV9DTE9TRVBSSUNFLjIwMjUvNi8yNy5VU0QBAAAATbpbIwIAAAAONzIuNzI0MDc3MzM3NDEA4cvWmXXa3QhPfeKjddrdCChDSVEuTFNFOkFJQUcuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMjcuVVNEAQAAAPCdgiQCAAAADzI0LjEwNjIwMDAyODA4NgDhy9aZddrdCOMq5KN12t0IKENJUS5BU1g6UkJUWi5JUV9DTE9TRVBSSUNFLjIwMjUvNi8yNy5VU0QBAAAAKe12IgIAAAAMOS4yOTA0NzQzMjMyAOHL1pl12t0IYwbmo3Xa3QgnQ0lRLkRCOlhCMFQuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMjcuVVNEAQAAANMz3ikCAAAADzIxLjMxOTI3MzU4MTk0OADhy9aZddrdCF97</t>
-  </si>
-  <si>
-    <t>56N12t0ILENJUS5OQVNEQVFHTTpRUVEuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMjYuVVNEAQAAAA66ewACAAAABjU0Ni4yMgDhy9aZddrdCFpv6aN12t0ILUNJUS5OQVNEQVFHTTpBR0lYLklRX0NMT1NFUFJJQ0UuMjAyNS82LzI2LlVTRAEAAAAj9wBwAgAAAAUzMS40NwDhy9aZddrdCIwshqR12t0ILENJUS5OQVNEQVFHTTpTTUguSVFfQ0xPU0VQUklDRS4yMDI1LzYvMjYuVVNEAQAAAGDCNgACAAAABTI3Ny4yAOHL1pl12t0Id1Xto3Xa3QgoQ0lRLkJBVFM6SUdWLklRX0NMT1NFUFJJQ0UuMjAyNS82LzI2LlVTRAEAAADNOoYAAgAAAAYxMDguNzEA4cvWmXXa3Qiavn+iddrdCC1DSVEuTkFTREFRR006Qk9UWi5JUV9DTE9TRVBSSUNFLjIwMjUvNi8yNi5VU0QBAAAA9/0IFgIAAAAFMzIuMjgA4cvWmXXa3Qjc0IGiddrdCCxDSVEuTkFTREFRR006QUlRLklRX0NMT1NFUFJJQ0UuMjAyNS82LzI2LlVTRAEAAADp3GIhAgAAAAU0My40OADhy9aZddrdCDtbg6J12t0IKUNJUS5BUkNBOkFSVFkuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMjYuVVNEAQAAAG4faSECAAAABTQwLjcxAOHL1pl12t0IkoOFonXa3QgtQ0lRLk5BU0RBUUdNOlJPQlQuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMjYuVVNEAQAAAFxj2SACAAAABTQ4LjAyAOHL1pl12t0InX+HonXa3QgpQ0lRLkFSQ0E6SUdQVC5JUV9DTE9TRVBSSUNFLjIwMjUvNi8y</t>
-  </si>
-  <si>
-    <t>Ni5VU0QBAAAAzAJeAQIAAAAFNDguNTkA4cvWmXXa3QhPfeKjddrdCClDSVEuQkFUUzpXVEFJLklRX0NMT1NFUFJJQ0UuMjAyNS82LzI2LlVTRAEAAABgTm9kAgAAAAUyNC40MgDhy9aZddrdCOMq5KN12t0IKUNJUS5BUkNBOlRITlEuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMjYuVVNEAQAAAK7DfiQCAAAABTU0LjU4AOHL1pl12t0IYwbmo3Xa3QgtQ0lRLk5BU0RBUUdNOkZEVFguSVFfQ0xPU0VQUklDRS4yMDI1LzYvMjYuVVNEAQAAAL2lnSYCAAAABTM4LjYyAOHL1pl12t0IX3vno3Xa3QgpQ0lRLkFSQ0E6Q0hBVC5JUV9DTE9TRVBSSUNFLjIwMjUvNi8yNi5VU0QBAAAAADA1bQIAAAAFNDguNTgA4cvWmXXa3Qhab+mjddrdCClDSVEuQVJDQTpMT1VQLklRX0NMT1NFUFJJQ0UuMjAyNS82LzI2LlVTRAEAAABZXA8iAgAAAAc2MS42ODg3AOHL1pl12t0IU6rqo3Xa3QgpQ0lRLkFSQ0E6TFJOWi5JUV9DTE9TRVBSSUNFLjIwMjUvNi8yNi5VU0QBAAAAtXbDJgIAAAAFNDQuMjUA4cvWmXXa3QhXHuyjddrdCChDSVEuQVJDQTpBSVMuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMjYuVVNEAQAAAJiXn3ACAAAABzI4LjAwNjIA4cvWmXXa3Qiavn+iddrdCC1DSVEuTkFTREFRR006V0lTRS5JUV9DTE9TRVBSSUNFLjIwMjUvNi8yNi5VU0QBAAAA6bBDbgIAAAAFMzUuODYA4cvWmXXa3Qjc0IGiddrdCChDSVEuTFNFOlJCT1Qu</t>
-  </si>
-  <si>
-    <t>SVFfQ0xPU0VQUklDRS4yMDI1LzYvMjYuVVNEAQAAAI57JBQCAAAABjE0LjkyNQDhy9aZddrdCGVGg6J12t0IKUNJUS5YVFJBOlhBSVguSVFfQ0xPU0VQUklDRS4yMDI1LzYvMjYuVVNEAQAAADXs4iICAAAADTE1OS4xMDE1NDQyNTYA4cvWmXXa3QjRKYSiddrdCChDSVEuQklUOldUQUkuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMjYuVVNEAQAAAE26WyMCAAAADjcyLjMzMjcwOTQyMTY4AOHL1pl12t0InX+HonXa3QgoQ0lRLkxTRTpBSUFHLklRX0NMT1NFUFJJQ0UuMjAyNS82LzI2LlVTRAEAAADwnYIkAgAAAA8yMy45MjI0NDYzNDI2ODYA4cvWmXXa3QgLG4qiddrdCChDSVEuQVNYOlJCVFouSVFfQ0xPU0VQUklDRS4yMDI1LzYvMjYuVVNEAQAAACntdiICAAAADTkuMTMwMTc4Njc1MjUA4cvWmXXa3QjEzuCjddrdCCdDSVEuREI6WEIwVC5JUV9DTE9TRVBSSUNFLjIwMjUvNi8yNi5VU0QBAAAA0zPeKQIAAAAPMjAuODQ5MzIxNDgzMzEyAOHL1pl12t0I7vHlo3Xa3QgsQ0lRLk5BU0RBUUdNOlFRUS5JUV9DTE9TRVBSSUNFLjIwMjUvNi8yNS5VU0QBAAAADrp7AAIAAAAGNTQxLjE2AOHL1pl12t0IX3vno3Xa3QgtQ0lRLk5BU0RBUUdNOkFHSVguSVFfQ0xPU0VQUklDRS4yMDI1LzYvMjUuVVNEAQAAACP3AHACAAAABTMwLjc4AOHL1pl12t0IWm/po3Xa3QgsQ0lRLk5BU0RBUUdNOlNNSC5JUV9DTE9TRVBSSUNF</t>
-  </si>
-  <si>
-    <t>LjIwMjUvNi8yNS5VU0QBAAAAYMI2AAIAAAAFMjc1LjIA4cvWmXXa3QhTquqjddrdCChDSVEuQkFUUzpJR1YuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMjUuVVNEAQAAAM06hgACAAAABjEwNy43NwDhy9aZddrdCFce7KN12t0ILUNJUS5OQVNEQVFHTTpCT1RaLklRX0NMT1NFUFJJQ0UuMjAyNS82LzI1LlVTRAEAAAD3/QgWAgAAAAUzMS41NADhy9aZddrdCH+ri6R12t0ILENJUS5OQVNEQVFHTTpBSVEuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMjUuVVNEAQAAAOncYiECAAAABTQzLjA4AOHL1pl12t0Id1Xto3Xa3QgpQ0lRLkFSQ0E6QVJUWS5JUV9DTE9TRVBSSUNFLjIwMjUvNi8yNS5VU0QBAAAAbh9pIQIAAAAFNDAuMDQA4cvWmXXa3QhlRoOiddrdCC1DSVEuTkFTREFRR006Uk9CVC5JUV9DTE9TRVBSSUNFLjIwMjUvNi8yNS5VU0QBAAAAXGPZIAIAAAAFNDcuMTMA4cvWmXXa3QjRKYSiddrdCClDSVEuQVJDQTpJR1BULklRX0NMT1NFUFJJQ0UuMjAyNS82LzI1LlVTRAEAAADMAl4BAgAAAAU0OC4yOQDhy9aZddrdCJ1/h6J12t0IKUNJUS5CQVRTOldUQUkuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMjUuVVNEAQAAAGBOb2QCAAAABTI0LjA1AOHL1pl12t0ICxuKonXa3QgpQ0lRLkFSQ0E6VEhOUS5JUV9DTE9TRVBSSUNFLjIwMjUvNi8yNS5VU0QBAAAArsN+JAIAAAAHNTMuNzQ5OQDhy9aZddrdCMTO4KN12t0ILUNJ</t>
-  </si>
-  <si>
-    <t>US5OQVNEQVFHTTpGRFRYLklRX0NMT1NFUFJJQ0UuMjAyNS82LzI1LlVTRAEAAAC9pZ0mAgAAAAUzOC4xNQDhy9aZddrdCEZX4qN12t0IKUNJUS5BUkNBOkNIQVQuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMjUuVVNEAQAAAAAwNW0CAAAABTQ3LjY5AOHL1pl12t0I4yrko3Xa3QgpQ0lRLkFSQ0E6TE9VUC5JUV9DTE9TRVBSSUNFLjIwMjUvNi8yNS5VU0QBAAAAWVwPIgIAAAAHNjAuNDE1MQDhy9aZddrdCIVb6aN12t0IKUNJUS5BUkNBOkxSTlouSVFfQ0xPU0VQUklDRS4yMDI1LzYvMjUuVVNEAQAAALV2wyYCAAAABjQzLjgzNwDhy9aZddrdCFOq6qN12t0IKENJUS5BUkNBOkFJUy5JUV9DTE9TRVBSSUNFLjIwMjUvNi8yNS5VU0QBAAAAmJefcAIAAAAHMjcuNjc2OADhy9aZddrdCFce7KN12t0ILUNJUS5OQVNEQVFHTTpXSVNFLklRX0NMT1NFUFJJQ0UuMjAyNS82LzI1LlVTRAEAAADpsENuAgAAAAUzNS4yMQDhy9aZddrdCBc2i6R12t0IKENJUS5MU0U6UkJPVC5JUV9DTE9TRVBSSUNFLjIwMjUvNi8yNS5VU0QBAAAAjnskFAIAAAAGMTQuNzM1AOHL1pl12t0Id1Xto3Xa3QgpQ0lRLlhUUkE6WEFJWC5JUV9DTE9TRVBSSUNFLjIwMjUvNi8yNS5VU0QBAAAANeziIgIAAAAOMTU4LjIxNDE2MTEyMDQA4cvWmXXa3Qiavn+iddrdCChDSVEuQklUOldUQUkuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMjUuVVNEAQAAAE26</t>
-  </si>
-  <si>
-    <t>WyMCAAAADjcxLjQ0NTE4MDc4MjI1AOHL1pl12t0I3NCBonXa3QgoQ0lRLkxTRTpBSUFHLklRX0NMT1NFUFJJQ0UuMjAyNS82LzI1LlVTRAEAAADwnYIkAgAAAA8yMy41ODk1ODI5MzQ4ODEA4cvWmXXa3Qidf4eiddrdCChDSVEuQVNYOlJCVFouSVFfQ0xPU0VQUklDRS4yMDI1LzYvMjUuVVNEAQAAACntdiICAAAADTguOTY0MDM5OTgyNzQA4cvWmXXa3QgLG4qiddrdCCdDSVEuREI6WEIwVC5JUV9DTE9TRVBSSUNFLjIwMjUvNi8yNS5VU0QBAAAA0zPeKQIAAAANMjAuNjcyMDE0ODc4OQDhy9aZddrdCLun4KN12t0ILENJUS5OQVNEQVFHTTpRUVEuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMjQuVVNEAQAAAA66ewACAAAABjUzOS43OADhy9aZddrdCEZX4qN12t0ILUNJUS5OQVNEQVFHTTpBR0lYLklRX0NMT1NFUFJJQ0UuMjAyNS82LzI0LlVTRAEAAAAj9wBwAgAAAAUzMC45NADhy9aZddrdCOMq5KN12t0ILENJUS5OQVNEQVFHTTpTTUguSVFfQ0xPU0VQUklDRS4yMDI1LzYvMjQuVVNEAQAAAGDCNgACAAAABjI3MS41NADhy9aZddrdCO7x5aN12t0IKENJUS5CQVRTOklHVi5JUV9DTE9TRVBSSUNFLjIwMjUvNi8yNC5VU0QBAAAAzTqGAAIAAAAGMTA4LjA1AOHL1pl12t0IX3vno3Xa3QgtQ0lRLk5BU0RBUUdNOkJPVFouSVFfQ0xPU0VQUklDRS4yMDI1LzYvMjQuVVNEAQAAAPf9CBYCAAAABTMxLjQ0AOHL1pl1</t>
-  </si>
-  <si>
-    <t>2t0IVx7so3Xa3QgsQ0lRLk5BU0RBUUdNOkFJUS5JUV9DTE9TRVBSSUNFLjIwMjUvNi8yNC5VU0QBAAAA6dxiIQIAAAAENDMuMQDhy9aZddrdCA2aiqR12t0IKUNJUS5BUkNBOkFSVFkuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMjQuVVNEAQAAAG4faSECAAAABTM5LjY2AOHL1pl12t0Id1Xto3Xa3QgtQ0lRLk5BU0RBUUdNOlJPQlQuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMjQuVVNEAQAAAFxj2SACAAAABTQ2Ljk1AOHL1pl12t0Imr5/onXa3QgpQ0lRLkFSQ0E6SUdQVC5JUV9DTE9TRVBSSUNFLjIwMjUvNi8yNC5VU0QBAAAAzAJeAQIAAAAFNDcuOTMA4cvWmXXa3Qjc0IGiddrdCClDSVEuQkFUUzpXVEFJLklRX0NMT1NFUFJJQ0UuMjAyNS82LzI0LlVTRAEAAABgTm9kAgAAAAUyMy45MwDhy9aZddrdCGVGg6J12t0IKUNJUS5BUkNBOlRITlEuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMjQuVVNEAQAAAK7DfiQCAAAABTUzLjM2AOHL1pl12t0IkoOFonXa3QgtQ0lRLk5BU0RBUUdNOkZEVFguSVFfQ0xPU0VQUklDRS4yMDI1LzYvMjQuVVNEAQAAAL2lnSYCAAAABzM4LjA0MTIA4cvWmXXa3Qi7p+CjddrdCClDSVEuQVJDQTpDSEFULklRX0NMT1NFUFJJQ0UuMjAyNS82LzI0LlVTRAEAAAAAMDVtAgAAAAU0Ny41MwDhy9aZddrdCEZX4qN12t0IKUNJUS5BUkNBOkxPVVAuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMjQuVVNE</t>
-  </si>
-  <si>
-    <t>AQAAAFlcDyICAAAABjU5LjkzOADhy9aZddrdCOID5KN12t0IKUNJUS5BUkNBOkxSTlouSVFfQ0xPU0VQUklDRS4yMDI1LzYvMjQuVVNEAQAAALV2wyYCAAAABzQzLjczOTcA4cvWmXXa3Qju8eWjddrdCChDSVEuQVJDQTpBSVMuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMjQuVVNEAQAAAJiXn3ACAAAABTI3LjU5AOHL1pl12t0IX3vno3Xa3QgtQ0lRLk5BU0RBUUdNOldJU0UuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMjQuVVNEAQAAAOmwQ24CAAAABTM1LjM1AOHL1pl12t0IhVvpo3Xa3QgoQ0lRLkxTRTpSQk9ULklRX0NMT1NFUFJJQ0UuMjAyNS82LzI0LlVTRAEAAACOeyQUAgAAAAYxNC43MDUA4cvWmXXa3QhTquqjddrdCClDSVEuWFRSQTpYQUlYLklRX0NMT1NFUFJJQ0UuMjAyNS82LzI0LlVTRAEAAAA17OIiAgAAAA8xNTcuNzYyNTMwNTc4NTIA4cvWmXXa3Qh3Ve2jddrdCChDSVEuQklUOldUQUkuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMjQuVVNEAQAAAE26WyMCAAAADjcxLjYwMTM0OTAxNzU0AOHL1pl12t0Imr5/onXa3QgoQ0lRLkxTRTpBSUFHLklRX0NMT1NFUFJJQ0UuMjAyNS82LzI0LlVTRAEAAADwnYIkAgAAAA8yMy40NzU4NjczMzc5ODQA4cvWmXXa3Qjc0IGiddrdCChDSVEuQVNYOlJCVFouSVFfQ0xPU0VQUklDRS4yMDI1LzYvMjQuVVNEAQAAACntdiICAAAADTguOTc3ODY0NTg3OTMA4cvWmXXa</t>
-  </si>
-  <si>
-    <t>3QiCMYOiddrdCCdDSVEuREI6WEIwVC5JUV9DTE9TRVBSSUNFLjIwMjUvNi8yNC5VU0QBAAAA0zPeKQIAAAAPMjAuNTIwOTkwODE5NjEyAOHL1pl12t0IkoOFonXa3QgsQ0lRLk5BU0RBUUdNOlFRUS5JUV9DTE9TRVBSSUNFLjIwMjUvNi8yMy5VU0QBAAAADrp7AAIAAAAGNTMxLjY1AOHL1pl12t0InX+HonXa3QgtQ0lRLk5BU0RBUUdNOkFHSVguSVFfQ0xPU0VQUklDRS4yMDI1LzYvMjMuVVNEAQAAACP3AHACAAAABTMwLjI0AOHL1pl12t0ICxuKonXa3QgsQ0lRLk5BU0RBUUdNOlNNSC5JUV9DTE9TRVBSSUNFLjIwMjUvNi8yMy5VU0QBAAAAYMI2AAIAAAAGMjYxLjkyAOHL1pl12t0I4gPko3Xa3QgoQ0lRLkJBVFM6SUdWLklRX0NMT1NFUFJJQ0UuMjAyNS82LzIzLlVTRAEAAADNOoYAAgAAAAYxMDYuMzcA4cvWmXXa3Qju8eWjddrdCC1DSVEuTkFTREFRR006Qk9UWi5JUV9DTE9TRVBSSUNFLjIwMjUvNi8yMy5VU0QBAAAA9/0IFgIAAAAFMzAuNzQA4cvWmXXa3Qhfe+ejddrdCCxDSVEuTkFTREFRR006QUlRLklRX0NMT1NFUFJJQ0UuMjAyNS82LzIzLlVTRAEAAADp3GIhAgAAAAU0MS45NgDhy9aZddrdCIVb6aN12t0IKUNJUS5BUkNBOkFSVFkuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMjMuVVNEAQAAAG4faSECAAAABTM4LjU2AOHL1pl12t0IU6rqo3Xa3QgtQ0lRLk5BU0RBUUdNOlJPQlQuSVFfQ0xPU0VQ</t>
-  </si>
-  <si>
-    <t>UklDRS4yMDI1LzYvMjMuVVNEAQAAAFxj2SACAAAABTQ1LjgzAOHL1pl12t0IVx7so3Xa3QgpQ0lRLkFSQ0E6SUdQVC5JUV9DTE9TRVBSSUNFLjIwMjUvNi8yMy5VU0QBAAAAzAJeAQIAAAAENDYuNgDhy9aZddrdCL5LiqR12t0IKUNJUS5CQVRTOldUQUkuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMjMuVVNEAQAAAGBOb2QCAAAABDIzLjIA4cvWmXXa3Qjc0IGiddrdCClDSVEuQVJDQTpUSE5RLklRX0NMT1NFUFJJQ0UuMjAyNS82LzIzLlVTRAEAAACuw34kAgAAAAU1Mi4wMwDhy9aZddrdCIIxg6J12t0ILUNJUS5OQVNEQVFHTTpGRFRYLklRX0NMT1NFUFJJQ0UuMjAyNS82LzIzLlVTRAEAAAC9pZ0mAgAAAAYzNy4xMTUA4cvWmXXa3QiSg4WiddrdCClDSVEuQVJDQTpDSEFULklRX0NMT1NFUFJJQ0UuMjAyNS82LzIzLlVTRAEAAAAAMDVtAgAAAAU0NS45NQDhy9aZddrdCIRYh6J12t0IKUNJUS5BUkNBOkxPVVAuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMjMuVVNEAQAAAFlcDyICAAAABzU3LjgyMDEA4cvWmXXa3QgLG4qiddrdCClDSVEuQVJDQTpMUk5aLklRX0NMT1NFUFJJQ0UuMjAyNS82LzIzLlVTRAEAAAC1dsMmAgAAAAY0Mi45NDUA4cvWmXXa3Qi7p+CjddrdCChDSVEuQVJDQTpBSVMuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMjMuVVNEAQAAAJiXn3ACAAAABzI2LjQyNjUA4cvWmXXa3QhGV+KjddrdCC1DSVEu</t>
-  </si>
-  <si>
-    <t>TkFTREFRR006V0lTRS5JUV9DTE9TRVBSSUNFLjIwMjUvNi8yMy5VU0QBAAAA6bBDbgIAAAAGMzMuODk1AOHL1pl12t0I/lPno3Xa3QgoQ0lRLkxTRTpSQk9ULklRX0NMT1NFUFJJQ0UuMjAyNS82LzIzLlVTRAEAAACOeyQUAgAAAAYxNC4zNjUA4cvWmXXa3QiFW+mjddrdCClDSVEuWFRSQTpYQUlYLklRX0NMT1NFUFJJQ0UuMjAyNS82LzIzLlVTRAEAAAA17OIiAgAAAA8xNTMuNjcwMzYwMTUwMDIA4cvWmXXa3QhTquqjddrdCChDSVEuQklUOldUQUkuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMjMuVVNEAQAAAE26WyMCAAAADjY5LjM0NDQxMzY4MzQ0AOHL1pl12t0IVx7so3Xa3QgoQ0lRLkxTRTpBSUFHLklRX0NMT1NFUFJJQ0UuMjAyNS82LzIzLlVTRAEAAADwnYIkAgAAAA8yMi44ODE2NzYyOTYxMzIA4cvWmXXa3QjM/YmkddrdCChDSVEuQVNYOlJCVFouSVFfQ0xPU0VQUklDRS4yMDI1LzYvMjMuVVNEAQAAACntdiICAAAADDguODA2NDg4OTg3NgDhy9aZddrdCHdV7aN12t0IJ0NJUS5EQjpYQjBULklRX0NMT1NFUFJJQ0UuMjAyNS82LzIzLlVTRAEAAADTM94pAgAAAA8yMC4xNjE1ODgxODYxMjQA4cvWmXXa3Qiavn+iddrdCCxDSVEuTkFTREFRR006UVFRLklRX0NMT1NFUFJJQ0UuMjAyNS82LzIwLlVTRAEAAAAOunsAAgAAAAY1MjYuODMA4cvWmXXa3QjRKYSiddrdCC1DSVEuTkFTREFRR006QUdJWC5J</t>
-  </si>
-  <si>
-    <t>UV9DTE9TRVBSSUNFLjIwMjUvNi8yMC5VU0QBAAAAI/cAcAIAAAACMzAA4cvWmXXa3QiEWIeiddrdCCxDSVEuTkFTREFRR006U01ILklRX0NMT1NFUFJJQ0UuMjAyNS82LzIwLlVTRAEAAABgwjYAAgAAAAYyNjAuMjcA4cvWmXXa3Qj584middrdCChDSVEuQkFUUzpJR1YuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMjAuVVNEAQAAAM06hgACAAAABjEwNS4xMQDhy9aZddrdCLun4KN12t0ILUNJUS5OQVNEQVFHTTpCT1RaLklRX0NMT1NFUFJJQ0UuMjAyNS82LzIwLlVTRAEAAAD3/QgWAgAAAAUzMC40NQDhy9aZddrdCEZX4qN12t0ILENJUS5OQVNEQVFHTTpBSVEuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMjAuVVNEAQAAAOncYiECAAAABDQxLjUA4cvWmXXa3QjiA+SjddrdCClDSVEuQVJDQTpBUlRZLklRX0NMT1NFUFJJQ0UuMjAyNS82LzIwLlVTRAEAAABuH2khAgAAAAUzOC40NADhy9aZddrdCO7x5aN12t0ILUNJUS5OQVNEQVFHTTpST0JULklRX0NMT1NFUFJJQ0UuMjAyNS82LzIwLlVTRAEAAABcY9kgAgAAAAU0NS41NwDhy9aZddrdCFOq6qN12t0IKUNJUS5BUkNBOklHUFQuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMjAuVVNEAQAAAMwCXgECAAAABTQ2LjM1AOHL1pl12t0IVx7so3Xa3QgpQ0lRLkJBVFM6V1RBSS5JUV9DTE9TRVBSSUNFLjIwMjUvNi8yMC5VU0QBAAAAYE5vZAIAAAAFMjMuMDYA4cvWmXXa3Qi7</t>
-  </si>
-  <si>
-    <t>OYmkddrdCClDSVEuQVJDQTpUSE5RLklRX0NMT1NFUFJJQ0UuMjAyNS82LzIwLlVTRAEAAACuw34kAgAAAAU1MS43MgDhy9aZddrdCHdV7aN12t0ILUNJUS5OQVNEQVFHTTpGRFRYLklRX0NMT1NFUFJJQ0UuMjAyNS82LzIwLlVTRAEAAAC9pZ0mAgAAAAQzNi44AOHL1pl12t0IQYJ/onXa3QgpQ0lRLkFSQ0E6Q0hBVC5JUV9DTE9TRVBSSUNFLjIwMjUvNi8yMC5VU0QBAAAAADA1bQIAAAAFNDYuMDMA4cvWmXXa3Qjc0IGiddrdCClDSVEuQVJDQTpMT1VQLklRX0NMT1NFUFJJQ0UuMjAyNS82LzIwLlVTRAEAAABZXA8iAgAAAAc1Ny41MTgzAOHL1pl12t0IgjGDonXa3QgpQ0lRLkFSQ0E6TFJOWi5JUV9DTE9TRVBSSUNFLjIwMjUvNi8yMC5VU0QBAAAAtXbDJgIAAAAGNDIuNDg1AC/h1pl12t0I+fOJonXa3QgoQ0lRLkFSQ0E6QUlTLklRX0NMT1NFUFJJQ0UuMjAyNS82LzIwLlVTRAEAAACYl59wAgAAAAcyNi4zMzQ5AC/h1pl12t0Iu6fgo3Xa3QgtQ0lRLk5BU0RBUUdNOldJU0UuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMjAuVVNEAQAAAOmwQ24CAAAABTM0LjAzAC/h1pl12t0IpS/io3Xa3QgoQ0lRLkxTRTpSQk9ULklRX0NMT1NFUFJJQ0UuMjAyNS82LzIwLlVTRAEAAACOeyQUAgAAAAYxNC4zNjUAL+HWmXXa3QjiA+SjddrdCClDSVEuWFRSQTpYQUlYLklRX0NMT1NFUFJJQ0UuMjAyNS82LzIwLlVTRAEAAAA1</t>
-  </si>
-  <si>
-    <t>7OIiAgAAAA0xNTMuOTA4MjMxNTA4AC/h1pl12t0Ibd3lo3Xa3QgoQ0lRLkJJVDpXVEFJLklRX0NMT1NFUFJJQ0UuMjAyNS82LzIwLlVTRAEAAABNulsjAgAAAA02OS41MTgxMDAwNzQ0AC/h1pl12t0I/lPno3Xa3QgoQ0lRLkxTRTpBSUFHLklRX0NMT1NFUFJJQ0UuMjAyNS82LzIwLlVTRAEAAADwnYIkAgAAAA8yMi44MzcwNTMyOTI1MDgAL+HWmXXa3QiIQemjddrdCChDSVEuQVNYOlJCVFouSVFfQ0xPU0VQUklDRS4yMDI1LzYvMjAuVVNEAQAAACntdiICAAAADTguODQ2NTI2NjU0MjYAL+HWmXXa3QiJnYikddrdCCdDSVEuREI6WEIwVC5JUV9DTE9TRVBSSUNFLjIwMjUvNi8yMC5VU0QBAAAA0zPeKQIAAAAPMjAuMjI4MjY4Mzg5ODA4AC/h1pl12t0Id1Xto3Xa3QgsQ0lRLk5BU0RBUUdNOlFRUS5JUV9DTE9TRVBSSUNFLjIwMjUvNi8xOS5VU0QBAAAADrp7AAMAAAAAAC/h1pl12t0IQYJ/onXa3QgtQ0lRLk5BU0RBUUdNOkFHSVguSVFfQ0xPU0VQUklDRS4yMDI1LzYvMTkuVVNEAQAAACP3AHADAAAAAAAv4daZddrdCMqpgaJ12t0ILENJUS5OQVNEQVFHTTpTTUguSVFfQ0xPU0VQUklDRS4yMDI1LzYvMTkuVVNEAQAAAGDCNgADAAAAAAAv4daZddrdCIIxg6J12t0IKENJUS5CQVRTOklHVi5JUV9DTE9TRVBSSUNFLjIwMjUvNi8xOS5VU0QBAAAAzTqGAAMAAAAAAC/h1pl12t0IkoOFonXa3QgtQ0lRLk5B</t>
-  </si>
-  <si>
-    <t>U0RBUUdNOkJPVFouSVFfQ0xPU0VQUklDRS4yMDI1LzYvMTkuVVNEAQAAAPf9CBYDAAAAAAAv4daZddrdCIRYh6J12t0ILENJUS5OQVNEQVFHTTpBSVEuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMTkuVVNEAQAAAOncYiEDAAAAAAAv4daZddrdCKUv4qN12t0IKUNJUS5BUkNBOkFSVFkuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMTkuVVNEAQAAAG4faSEDAAAAAAAv4daZddrdCOID5KN12t0ILUNJUS5OQVNEQVFHTTpST0JULklRX0NMT1NFUFJJQ0UuMjAyNS82LzE5LlVTRAEAAABcY9kgAwAAAAAAL+HWmXXa3Qht3eWjddrdCClDSVEuQVJDQTpJR1BULklRX0NMT1NFUFJJQ0UuMjAyNS82LzE5LlVTRAEAAADMAl4BAwAAAAAAL+HWmXXa3Qj+U+ejddrdCClDSVEuQkFUUzpXVEFJLklRX0NMT1NFUFJJQ0UuMjAyNS82LzE5LlVTRAEAAABgTm9kAwAAAAAAL+HWmXXa3QiIQemjddrdCClDSVEuQVJDQTpUSE5RLklRX0NMT1NFUFJJQ0UuMjAyNS82LzE5LlVTRAEAAACuw34kAwAAAAAAL+HWmXXa3QhTquqjddrdCC1DSVEuTkFTREFRR006RkRUWC5JUV9DTE9TRVBSSUNFLjIwMjUvNi8xOS5VU0QBAAAAvaWdJgMAAAAAAC/h1pl12t0IVx7so3Xa3QgpQ0lRLkFSQ0E6Q0hBVC5JUV9DTE9TRVBSSUNFLjIwMjUvNi8xOS5VU0QBAAAAADA1bQMAAAAAAC/h1pl12t0IQYJ/onXa3QgpQ0lRLkFSQ0E6TE9VUC5JUV9DTE9TRVBS</t>
-  </si>
-  <si>
-    <t>SUNFLjIwMjUvNi8xOS5VU0QBAAAAWVwPIgMAAAAAAC/h1pl12t0IyqmBonXa3QgpQ0lRLkFSQ0E6TFJOWi5JUV9DTE9TRVBSSUNFLjIwMjUvNi8xOS5VU0QBAAAAtXbDJgMAAAAAAC/h1pl12t0I+hyDonXa3QgoQ0lRLkFSQ0E6QUlTLklRX0NMT1NFUFJJQ0UuMjAyNS82LzE5LlVTRAEAAACYl59wAwAAAAAAL+HWmXXa3QiSg4WiddrdCC1DSVEuTkFTREFRR006V0lTRS5JUV9DTE9TRVBSSUNFLjIwMjUvNi8xOS5VU0QBAAAA6bBDbgMAAAAAAC/h1pl12t0IhFiHonXa3QgoQ0lRLkxTRTpSQk9ULklRX0NMT1NFUFJJQ0UuMjAyNS82LzE5LlVTRAEAAACOeyQUAgAAAAUxNC4yNAAv4daZddrdCPnziaJ12t0IKUNJUS5YVFJBOlhBSVguSVFfQ0xPU0VQUklDRS4yMDI1LzYvMTkuVVNEAQAAADXs4iICAAAADzE1Mi4wMTgzNDg2NDY5NgAv4daZddrdCLun4KN12t0IKENJUS5CSVQ6V1RBSS5JUV9DTE9TRVBSSUNFLjIwMjUvNi8xOS5VU0QBAAAATbpbIwIAAAAONjguNzk1ODcxNTcwMDkAL+HWmXXa3Qht3eWjddrdCChDSVEuTFNFOkFJQUcuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMTkuVVNEAQAAAPCdgiQCAAAADTIyLjY4NjY5NTM4NTkAL+HWmXXa3Qj+U+ejddrdCChDSVEuQVNYOlJCVFouSVFfQ0xPU0VQUklDRS4yMDI1LzYvMTkuVVNEAQAAACntdiICAAAADTguODAyODM5NjI1MzYAL+HWmXXa3QiIQemjddrd</t>
-  </si>
-  <si>
-    <t>CCdDSVEuREI6WEIwVC5JUV9DTE9TRVBSSUNFLjIwMjUvNi8xOS5VU0QBAAAA0zPeKQIAAAAOMjAuMTAzMjExMDEyMjMAL+HWmXXa3QhTquqjddrdCCxDSVEuTkFTREFRR006UVFRLklRX0NMT1NFUFJJQ0UuMjAyNS82LzE4LlVTRAEAAAAOunsAAgAAAAY1MjguOTkAL+HWmXXa3QhXHuyjddrdCC1DSVEuTkFTREFRR006QUdJWC5JUV9DTE9TRVBSSUNFLjIwMjUvNi8xOC5VU0QBAAAAI/cAcAIAAAAHMzAuMzE1MQAv4daZddrdCHJPiKR12t0ILENJUS5OQVNEQVFHTTpTTUguSVFfQ0xPU0VQUklDRS4yMDI1LzYvMTguVVNEAQAAAGDCNgACAAAABjI2Mi41OQAv4daZddrdCHdV7aN12t0IKENJUS5CQVRTOklHVi5JUV9DTE9TRVBSSUNFLjIwMjUvNi8xOC5VU0QBAAAAzTqGAAIAAAAGMTA2LjA5AC/h1pl12t0I+hyDonXa3QgtQ0lRLk5BU0RBUUdNOkJPVFouSVFfQ0xPU0VQUklDRS4yMDI1LzYvMTguVVNEAQAAAPf9CBYCAAAABTMxLjA0AC/h1pl12t0Id1yFonXa3QgsQ0lRLk5BU0RBUUdNOkFJUS5JUV9DTE9TRVBSSUNFLjIwMjUvNi8xOC5VU0QBAAAA6dxiIQIAAAAFNDEuODgAL+HWmXXa3QiEWIeiddrdCClDSVEuQVJDQTpBUlRZLklRX0NMT1NFUFJJQ0UuMjAyNS82LzE4LlVTRAEAAABuH2khAgAAAAUzOC43NgAv4daZddrdCPnziaJ12t0ILUNJUS5OQVNEQVFHTTpST0JULklRX0NMT1NFUFJJQ0UuMjAy</t>
-  </si>
-  <si>
-    <t>NS82LzE4LlVTRAEAAABcY9kgAgAAAAU0Ni4xMQAv4daZddrdCLun4KN12t0IKUNJUS5BUkNBOklHUFQuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMTguVVNEAQAAAMwCXgECAAAABTQ2Ljc3AC/h1pl12t0IpS/io3Xa3QgpQ0lRLkJBVFM6V1RBSS5JUV9DTE9TRVBSSUNFLjIwMjUvNi8xOC5VU0QBAAAAYE5vZAIAAAAFMjMuMjgAL+HWmXXa3QjiA+SjddrdCClDSVEuQVJDQTpUSE5RLklRX0NMT1NFUFJJQ0UuMjAyNS82LzE4LlVTRAEAAACuw34kAgAAAAU1Mi4xNwAv4daZddrdCIhB6aN12t0ILUNJUS5OQVNEQVFHTTpGRFRYLklRX0NMT1NFUFJJQ0UuMjAyNS82LzE4LlVTRAEAAAC9pZ0mAgAAAAUzNy4xNwAv4daZddrdCLWV6qN12t0IKUNJUS5BUkNBOkNIQVQuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMTguVVNEAQAAAAAwNW0CAAAABTQ2LjE2AC/h1pl12t0IVx7so3Xa3QgpQ0lRLkFSQ0E6TE9VUC5JUV9DTE9TRVBSSUNFLjIwMjUvNi8xOC5VU0QBAAAAWVwPIgIAAAAHNTguMTc3NAAv4daZddrdCFGzh6R12t0IKUNJUS5BUkNBOkxSTlouSVFfQ0xPU0VQUklDRS4yMDI1LzYvMTguVVNEAQAAALV2wyYCAAAABzQyLjg5MTUAL+HWmXXa3QimFu2jddrdCChDSVEuQVJDQTpBSVMuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMTguVVNEAQAAAJiXn3ACAAAABjI2LjcyNQAv4daZddrdCEGCf6J12t0ILUNJUS5OQVNEQVFH</t>
-  </si>
-  <si>
-    <t>TTpXSVNFLklRX0NMT1NFUFJJQ0UuMjAyNS82LzE4LlVTRAEAAADpsENuAgAAAAQzMy45AC/h1pl12t0IyqmBonXa3QgoQ0lRLkxTRTpSQk9ULklRX0NMT1NFUFJJQ0UuMjAyNS82LzE4LlVTRAEAAACOeyQUAgAAAAUxNC40OQAv4daZddrdCIRYh6J12t0IKUNJUS5YVFJBOlhBSVguSVFfQ0xPU0VQUklDRS4yMDI1LzYvMTguVVNEAQAAADXs4iICAAAADzE1NC40MTE0MjU5MjYzNAAv4daZddrdCPnziaJ12t0IKENJUS5CSVQ6V1RBSS5JUV9DTE9TRVBSSUNFLjIwMjUvNi8xOC5VU0QBAAAATbpbIwIAAAAONjkuNzMwNDc2ODQzMDYAL+HWmXXa3Qi7p+CjddrdCChDSVEuTFNFOkFJQUcuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMTguVVNEAQAAAPCdgiQCAAAADzIzLjA0ODUyNzQ2NTIzNgAv4daZddrdCKkI4qN12t0IKENJUS5BU1g6UkJUWi5JUV9DTE9TRVBSSUNFLjIwMjUvNi8xOC5VU0QBAAAAKe12IgIAAAANOC44ODg3NDM5NjkxNwAv4daZddrdCOID5KN12t0IJ0NJUS5EQjpYQjBULklRX0NMT1NFUFJJQ0UuMjAyNS82LzE4LlVTRAEAAADTM94pAgAAAA4yMC40NDQ1OTgwMTcyNQAv4daZddrdCG3d5aN12t0ILENJUS5OQVNEQVFHTTpRUVEuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMTcuVVNEAQAAAA66ewACAAAABjUyOS4wOAAv4daZddrdCP5T56N12t0ILUNJUS5OQVNEQVFHTTpBR0lYLklRX0NMT1NFUFJJ</t>
-  </si>
-  <si>
-    <t>Q0UuMjAyNS82LzE3LlVTRAEAAAAj9wBwAgAAAAQzMC4zAC/h1pl12t0IVx7so3Xa3QgsQ0lRLk5BU0RBUUdNOlNNSC5JUV9DTE9TRVBSSUNFLjIwMjUvNi8xNy5VU0QBAAAAYMI2AAIAAAAGMjYxLjU5AC/h1pl12t0I/T2HpHXa3QgoQ0lRLkJBVFM6SUdWLklRX0NMT1NFUFJJQ0UuMjAyNS82LzE3LlVTRAEAAADNOoYAAgAAAAYxMDYuNjUAL+HWmXXa3QimFu2jddrdCC1DSVEuTkFTREFRR006Qk9UWi5JUV9DTE9TRVBSSUNFLjIwMjUvNi8xNy5VU0QBAAAA9/0IFgIAAAAFMzAuNzkAL+HWmXXa3QhBgn+iddrdCCxDSVEuTkFTREFRR006QUlRLklRX0NMT1NFUFJJQ0UuMjAyNS82LzE3LlVTRAEAAADp3GIhAgAAAAU0MS45MwAv4daZddrdCMqpgaJ12t0IKUNJUS5BUkNBOkFSVFkuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMTcuVVNEAQAAAG4faSECAAAABTM4LjYzAC/h1pl12t0I+hyDonXa3QgtQ0lRLk5BU0RBUUdNOlJPQlQuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMTcuVVNEAQAAAFxj2SACAAAABTQ1Ljc4AC/h1pl12t0Id1yFonXa3QgpQ0lRLkFSQ0E6SUdQVC5JUV9DTE9TRVBSSUNFLjIwMjUvNi8xNy5VU0QBAAAAzAJeAQIAAAAHNDYuNjUwNwAv4daZddrdCLun4KN12t0IKUNJUS5CQVRTOldUQUkuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMTcuVVNEAQAAAGBOb2QCAAAABTIzLjA2AC/h1pl12t0IqQjio3Xa</t>
-  </si>
-  <si>
-    <t>3QgpQ0lRLkFSQ0E6VEhOUS5JUV9DTE9TRVBSSUNFLjIwMjUvNi8xNy5VU0QBAAAArsN+JAIAAAAENTIuMwAv4daZddrdCOID5KN12t0ILUNJUS5OQVNEQVFHTTpGRFRYLklRX0NMT1NFUFJJQ0UuMjAyNS82LzE3LlVTRAEAAAC9pZ0mAgAAAAIzNwAv4daZddrdCG3d5aN12t0IKUNJUS5BUkNBOkNIQVQuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMTcuVVNEAQAAAAAwNW0CAAAAAjQ2AC/h1pl12t0I/lPno3Xa3QgpQ0lRLkFSQ0E6TE9VUC5JUV9DTE9TRVBSSUNFLjIwMjUvNi8xNy5VU0QBAAAAWVwPIgIAAAAGNTcuNTIyAC/h1pl12t0IiEHpo3Xa3QgpQ0lRLkFSQ0E6TFJOWi5JUV9DTE9TRVBSSUNFLjIwMjUvNi8xNy5VU0QBAAAAtXbDJgIAAAAHNDIuNzQ4MwAv4daZddrdCLWV6qN12t0IKENJUS5BUkNBOkFJUy5JUV9DTE9TRVBSSUNFLjIwMjUvNi8xNy5VU0QBAAAAmJefcAIAAAAHMjYuNjU2NQAv4daZddrdCKYW7aN12t0ILUNJUS5OQVNEQVFHTTpXSVNFLklRX0NMT1NFUFJJQ0UuMjAyNS82LzE3LlVTRAEAAADpsENuAgAAAAczMy43MDUxAC/h1pl12t0IQYJ/onXa3QgoQ0lRLkxTRTpSQk9ULklRX0NMT1NFUFJJQ0UuMjAyNS82LzE3LlVTRAEAAACOeyQUAgAAAAUxNC41NAAv4daZddrdCMqpgaJ12t0IKUNJUS5YVFJBOlhBSVguSVFfQ0xPU0VQUklDRS4yMDI1LzYvMTcuVVNEAQAAADXs4iICAAAADzE1</t>
-  </si>
-  <si>
-    <t>NC41Njk1NTE3NDgzNgAv4daZddrdCPocg6J12t0IKENJUS5CSVQ6V1RBSS5JUV9DTE9TRVBSSUNFLjIwMjUvNi8xNy5VU0QBAAAATbpbIwIAAAAONjkuNDU5NDkwNjM0MzEAL+HWmXXa3Qh3XIWiddrdCChDSVEuTFNFOkFJQUcuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMTcuVVNEAQAAAPCdgiQCAAAADzIzLjA2Njk1NDY0OTc5MgAv4daZddrdCHAxh6J12t0IKENJUS5BU1g6UkJUWi5JUV9DTE9TRVBSSUNFLjIwMjUvNi8xNy5VU0QBAAAAKe12IgIAAAANOC45MTU5MTMzNzIzOQAv4daZddrdCPnziaJ12t0IJ0NJUS5EQjpYQjBULklRX0NMT1NFUFJJQ0UuMjAyNS82LzE3LlVTRAEAAADTM94pAgAAAA8yMC4yNjk2Nzg0NjgxNjQAL+HWmXXa3Qgw3eOjddrdCCxDSVEuTkFTREFRR006UVFRLklRX0NMT1NFUFJJQ0UuMjAyNS82LzE2LlVTRAEAAAAOunsAAgAAAAY1MzQuMjkAL+HWmXXa3QjoyOWjddrdCC1DSVEuTkFTREFRR006QUdJWC5JUV9DTE9TRVBSSUNFLjIwMjUvNi8xNi5VU0QBAAAAI/cAcAIAAAAFMzAuNTUAL+HWmXXa3Qj+U+ejddrdCCxDSVEuTkFTREFRR006U01ILklRX0NMT1NFUFJJQ0UuMjAyNS82LzE2LlVTRAEAAABgwjYAAgAAAAYyNjMuMzgAL+HWmXXa3QiIQemjddrdCChDSVEuQkFUUzpJR1YuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMTYuVVNEAQAAAM06hgACAAAABTEwNy40AC/h1pl12t0I</t>
-  </si>
-  <si>
-    <t>tZXqo3Xa3QgtQ0lRLk5BU0RBUUdNOkJPVFouSVFfQ0xPU0VQUklDRS4yMDI1LzYvMTYuVVNEAQAAAPf9CBYCAAAABTMxLjI3AC/h1pl12t0IVx7so3Xa3QgsQ0lRLk5BU0RBUUdNOkFJUS5JUV9DTE9TRVBSSUNFLjIwMjUvNi8xNi5VU0QBAAAA6dxiIQIAAAAFNDIuMzIAL+HWmXXa3QjRyIakddrdCClDSVEuQVJDQTpBUlRZLklRX0NMT1NFUFJJQ0UuMjAyNS82LzE2LlVTRAEAAABuH2khAgAAAAUzOC45NQAv4daZddrdCMqpgaJ12t0ILUNJUS5OQVNEQVFHTTpST0JULklRX0NMT1NFUFJJQ0UuMjAyNS82LzE2LlVTRAEAAABcY9kgAgAAAAU0Ni4zNAAv4daZddrdCPocg6J12t0IKUNJUS5BUkNBOklHUFQuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMTYuVVNEAQAAAMwCXgECAAAABTQ3LjA4AC/h1pl12t0Id1yFonXa3QgpQ0lRLkJBVFM6V1RBSS5JUV9DTE9TRVBSSUNFLjIwMjUvNi8xNi5VU0QBAAAAYE5vZAIAAAAFMjMuMjMAL+HWmXXa3QhwMYeiddrdCClDSVEuQVJDQTpUSE5RLklRX0NMT1NFUFJJQ0UuMjAyNS82LzE2LlVTRAEAAACuw34kAgAAAAc1Mi4zMTYyAC/h1pl12t0I+fOJonXa3QgtQ0lRLk5BU0RBUUdNOkZEVFguSVFfQ0xPU0VQUklDRS4yMDI1LzYvMTYuVVNEAQAAAL2lnSYCAAAABTM3LjI4AC/h1pl12t0InYDgo3Xa3QgpQ0lRLkFSQ0E6Q0hBVC5JUV9DTE9TRVBSSUNFLjIwMjUvNi8xNi5V</t>
-  </si>
-  <si>
-    <t>U0QBAAAAADA1bQIAAAAFNDYuMjcAL+HWmXXa3QipCOKjddrdCClDSVEuQVJDQTpMT1VQLklRX0NMT1NFUFJJQ0UuMjAyNS82LzE2LlVTRAEAAABZXA8iAgAAAAc1Ny43OTQyAC/h1pl12t0IET7no3Xa3QgpQ0lRLkFSQ0E6TFJOWi5JUV9DTE9TRVBSSUNFLjIwMjUvNi8xNi5VU0QBAAAAtXbDJgIAAAAHNDIuNDk5MQAv4daZddrdCHca6aN12t0IKENJUS5BUkNBOkFJUy5JUV9DTE9TRVBSSUNFLjIwMjUvNi8xNi5VU0QBAAAAmJefcAIAAAAHMjYuNjU3NAAv4daZddrdCLWV6qN12t0ILUNJUS5OQVNEQVFHTTpXSVNFLklRX0NMT1NFUFJJQ0UuMjAyNS82LzE2LlVTRAEAAADpsENuAgAAAAczNC4wODQyAC/h1pl12t0Ig9/ro3Xa3QgoQ0lRLkxTRTpSQk9ULklRX0NMT1NFUFJJQ0UuMjAyNS82LzE2LlVTRAEAAACOeyQUAgAAAAYxNC42MTUAL+HWmXXa3QiuU4akddrdCClDSVEuWFRSQTpYQUlYLklRX0NMT1NFUFJJQ0UuMjAyNS82LzE2LlVTRAEAAAA17OIiAgAAAA8xNTUuMTk3NTg5NTMxMDQAL+HWmXXa3QimFu2jddrdCChDSVEuQklUOldUQUkuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMTYuVVNEAQAAAE26WyMCAAAADjY5LjcwNjgwMjY0NTU1AC/h1pl12t0IQYJ/onXa3QgoQ0lRLkxTRTpBSUFHLklRX0NMT1NFUFJJQ0UuMjAyNS82LzE2LlVTRAEAAADwnYIkAgAAAA8yMy4xNTA0NTIxMDIyNjYAL+HWmXXa</t>
-  </si>
-  <si>
-    <t>3Qh3XIWiddrdCChDSVEuQVNYOlJCVFouSVFfQ0xPU0VQUklDRS4yMDI1LzYvMTYuVVNEAQAAACntdiICAAAADDguOTY2MTQ4MjEzNAAv4daZddrdCHAxh6J12t0IJ0NJUS5EQjpYQjBULklRX0NMT1NFUFJJQ0UuMjAyNS82LzE2LlVTRAEAAADTM94pAgAAAA8yMC4zNTkyNTM2ODA0MTYAL+HWmXXa3QjmzImiddrdCCxDSVEuTkFTREFRR006UVFRLklRX0NMT1NFUFJJQ0UuMjAyNS82LzEzLlVTRAEAAAAOunsAAgAAAAY1MjYuOTYAL+HWmXXa3QidgOCjddrdCC1DSVEuTkFTREFRR006QUdJWC5JUV9DTE9TRVBSSUNFLjIwMjUvNi8xMy5VU0QBAAAAI/cAcAIAAAAFMzAuMDIAL+HWmXXa3QipCOKjddrdCCxDSVEuTkFTREFRR006U01ILklRX0NMT1NFUFJJQ0UuMjAyNS82LzEzLlVTRAEAAABgwjYAAgAAAAYyNTYuOTkAL+HWmXXa3Qgw3eOjddrdCChDSVEuQkFUUzpJR1YuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMTMuVVNEAQAAAM06hgACAAAABjEwNi4yNwAv4daZddrdCOjI5aN12t0ILUNJUS5OQVNEQVFHTTpCT1RaLklRX0NMT1NFUFJJQ0UuMjAyNS82LzEzLlVTRAEAAAD3/QgWAgAAAAUzMC45MQAv4daZddrdCLWV6qN12t0ILENJUS5OQVNEQVFHTTpBSVEuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMTMuVVNEAQAAAOncYiECAAAABDQxLjYAL+HWmXXa3QiD3+ujddrdCClDSVEuQVJDQTpBUlRZLklRX0NMT1NF</t>
-  </si>
-  <si>
-    <t>UFJJQ0UuMjAyNS82LzEzLlVTRAEAAABuH2khAgAAAAQzNy45AC/h1pl12t0IWZCFpHXa3QgtQ0lRLk5BU0RBUUdNOlJPQlQuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMTMuVVNEAQAAAFxj2SACAAAABTQ1LjUxAC/h1pl12t0Iphbto3Xa3QgpQ0lRLkFSQ0E6SUdQVC5JUV9DTE9TRVBSSUNFLjIwMjUvNi8xMy5VU0QBAAAAzAJeAQIAAAACNDYAL+HWmXXa3QhBgn+iddrdCClDSVEuQkFUUzpXVEFJLklRX0NMT1NFUFJJQ0UuMjAyNS82LzEzLlVTRAEAAABgTm9kAgAAAAUyMi42NgAv4daZddrdCMqpgaJ12t0IKUNJUS5BUkNBOlRITlEuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMTMuVVNEAQAAAK7DfiQCAAAABzUxLjUyMDIAL+HWmXXa3QhDCYOiddrdCC1DSVEuTkFTREFRR006RkRUWC5JUV9DTE9TRVBSSUNFLjIwMjUvNi8xMy5VU0QBAAAAvaWdJgIAAAAEMzYuNQAv4daZddrdCObMiaJ12t0IKUNJUS5BUkNBOkNIQVQuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMTMuVVNEAQAAAAAwNW0CAAAABTQ0LjgzAC/h1pl12t0InYDgo3Xa3QgpQ0lRLkFSQ0E6TE9VUC5JUV9DTE9TRVBSSUNFLjIwMjUvNi8xMy5VU0QBAAAAWVwPIgIAAAAHNTYuMzMwMwAv4daZddrdCJjh4aN12t0IKUNJUS5BUkNBOkxSTlouSVFfQ0xPU0VQUklDRS4yMDI1LzYvMTMuVVNEAQAAALV2wyYCAAAABzQxLjk5MDUAL+HWmXXa3Qgw3eOjddrdCChD</t>
-  </si>
-  <si>
-    <t>SVEuQVJDQTpBSVMuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMTMuVVNEAQAAAJiXn3ACAAAABjI1Ljk1NQAv4daZddrdCOjI5aN12t0ILUNJUS5OQVNEQVFHTTpXSVNFLklRX0NMT1NFUFJJQ0UuMjAyNS82LzEzLlVTRAEAAADpsENuAgAAAAUzMy4wNwAv4daZddrdCBE+56N12t0IKENJUS5MU0U6UkJPVC5JUV9DTE9TRVBSSUNFLjIwMjUvNi8xMy5VU0QBAAAAjnskFAIAAAAGMTQuMzg1AC/h1pl12t0Idxrpo3Xa3QgpQ0lRLlhUUkE6WEFJWC5JUV9DTE9TRVBSSUNFLjIwMjUvNi8xMy5VU0QBAAAANeziIgIAAAAOMTUyLjk5OTY1MzIyMjgAL+HWmXXa3QhGlO2jddrdCChDSVEuQklUOldUQUkuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMTMuVVNEAQAAAE26WyMCAAAADTY4LjU3MDEwNzUwMzYAL+HWmXXa3QimFu2jddrdCChDSVEuTFNFOkFJQUcuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMTMuVVNEAQAAAPCdgiQCAAAADjIyLjk3MTA5OTIwODQ3AC/h1pl12t0IQYJ/onXa3QgoQ0lRLkFTWDpSQlRaLklRX0NMT1NFUFJJQ0UuMjAyNS82LzEzLlVTRAEAAAAp7XYiAgAAAA04Ljg3OTYzMDIzMzc2AC/h1pl12t0IyqmBonXa3QgnQ0lRLkRCOlhCMFQuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMTMuVVNEAQAAANMz3ikCAAAADjIwLjM5NzY0MTg5MTU4AC/h1pl12t0IQwmDonXa3QgsQ0lRLk5BU0RBUUdNOlFRUS5JUV9DTE9T</t>
-  </si>
-  <si>
-    <t>RVBSSUNFLjIwMjUvNi8xMi5VU0QBAAAADrp7AAIAAAAGNTMzLjY2AC/h1pl12t0Id1yFonXa3QgtQ0lRLk5BU0RBUUdNOkFHSVguSVFfQ0xPU0VQUklDRS4yMDI1LzYvMTIuVVNEAQAAACP3AHACAAAABTMwLjQ4AC/h1pl12t0IcDGHonXa3QgsQ0lRLk5BU0RBUUdNOlNNSC5JUV9DTE9TRVBSSUNFLjIwMjUvNi8xMi5VU0QBAAAAYMI2AAIAAAAGMjYzLjE1AC/h1pl12t0ImOHho3Xa3QgoQ0lRLkJBVFM6SUdWLklRX0NMT1NFUFJJQ0UuMjAyNS82LzEyLlVTRAEAAADNOoYAAgAAAAYxMDcuMDQAL+HWmXXa3Qgw3eOjddrdCC1DSVEuTkFTREFRR006Qk9UWi5JUV9DTE9TRVBSSUNFLjIwMjUvNi8xMi5VU0QBAAAA9/0IFgIAAAAFMzEuNDEAL+HWmXXa3QjoyOWjddrdCCxDSVEuTkFTREFRR006QUlRLklRX0NMT1NFUFJJQ0UuMjAyNS82LzEyLlVTRAEAAADp3GIhAgAAAAU0Mi4xOQAv4daZddrdCBE+56N12t0IKUNJUS5BUkNBOkFSVFkuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMTIuVVNEAQAAAG4faSECAAAABTM4LjYzAC/h1pl12t0Idxrpo3Xa3QgtQ0lRLk5BU0RBUUdNOlJPQlQuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMTIuVVNEAQAAAFxj2SACAAAABTQ2LjM2AC/h1pl12t0InYDqo3Xa3QgpQ0lRLkFSQ0E6SUdQVC5JUV9DTE9TRVBSSUNFLjIwMjUvNi8xMi5VU0QBAAAAzAJeAQIAAAAFNDYuODYAL+HWmXXa</t>
-  </si>
-  <si>
-    <t>3QiD3+ujddrdCClDSVEuQkFUUzpXVEFJLklRX0NMT1NFUFJJQ0UuMjAyNS82LzEyLlVTRAEAAABgTm9kAgAAAAUyMy4xMgAv4daZddrdCEGCf6J12t0IKUNJUS5BUkNBOlRITlEuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMTIuVVNEAQAAAK7DfiQCAAAABzUyLjU1NTEAL+HWmXXa3QitgoGiddrdCC1DSVEuTkFTREFRR006RkRUWC5JUV9DTE9TRVBSSUNFLjIwMjUvNi8xMi5VU0QBAAAAvaWdJgIAAAAFMzcuMjgAL+HWmXXa3QhDCYOiddrdCClDSVEuQVJDQTpDSEFULklRX0NMT1NFUFJJQ0UuMjAyNS82LzEyLlVTRAEAAAAAMDVtAgAAAAU0NS42MQAv4daZddrdCHdchaJ12t0IKUNJUS5BUkNBOkxPVVAuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMTIuVVNEAQAAAFlcDyICAAAABTU3LjQ4AC/h1pl12t0IcDGHonXa3QgpQ0lRLkFSQ0E6TFJOWi5JUV9DTE9TRVBSSUNFLjIwMjUvNi8xMi5VU0QBAAAAtXbDJgIAAAAHNDIuNTgyNgAv4daZddrdCObMiaJ12t0IKENJUS5BUkNBOkFJUy5JUV9DTE9TRVBSSUNFLjIwMjUvNi8xMi5VU0QBAAAAmJefcAIAAAAHMjYuNDg5MwAv4daZddrdCJ2A4KN12t0ILUNJUS5OQVNEQVFHTTpXSVNFLklRX0NMT1NFUFJJQ0UuMjAyNS82LzEyLlVTRAEAAADpsENuAgAAAAUzNC4wNgAv4daZddrdCHq05aN12t0IKENJUS5MU0U6UkJPVC5JUV9DTE9TRVBSSUNFLjIwMjUvNi8xMi5VU0QB</t>
-  </si>
-  <si>
-    <t>AAAAjnskFAIAAAAFMTQuNTgAL+HWmXXa3QgRKeejddrdCClDSVEuWFRSQTpYQUlYLklRX0NMT1NFUFJJQ0UuMjAyNS82LzEyLlVTRAEAAAA17OIiAgAAAA8xNTQuMDc0MDc0MDE5ODQAL+HWmXXa3Qh3GumjddrdCChDSVEuQklUOldUQUkuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMTIuVVNEAQAAAE26WyMCAAAADjY5LjM0MDI3Nzc1MzM3AC/h1pl12t0InYDqo3Xa3QgoQ0lRLkxTRTpBSUFHLklRX0NMT1NFUFJJQ0UuMjAyNS82LzEyLlVTRAEAAADwnYIkAgAAAA8yMy4yMTk4ODk5NTczOTYAL+HWmXXa3QiD3+ujddrdCChDSVEuQVNYOlJCVFouSVFfQ0xPU0VQUklDRS4yMDI1LzYvMTIuVVNEAQAAACntdiICAAAADTkuMDQ0MDc5Mjg3NTcAL+HWmXXa3Qh/q4ukddrdCCdDSVEuREI6WEIwVC5JUV9DTE9TRVBSSUNFLjIwMjUvNi8xMi5VU0QBAAAA0zPeKQIAAAAPMjAuNzQ3Njg1MTc3ODgyAC/h1pl12t0Iphbto3Xa3QgsQ0lRLk5BU0RBUUdNOlFRUS5JUV9DTE9TRVBSSUNFLjIwMjUvNi8xMS5VU0QBAAAADrp7AAIAAAAGNTMyLjQxAC/h1pl12t0IQwmDonXa3QgtQ0lRLk5BU0RBUUdNOkFHSVguSVFfQ0xPU0VQUklDRS4yMDI1LzYvMTEuVVNEAQAAACP3AHACAAAABjMwLjQ0NQAv4daZddrdCHdchaJ12t0ILENJUS5OQVNEQVFHTTpTTUguSVFfQ0xPU0VQUklDRS4yMDI1LzYvMTEuVVNEAQAAAGDCNgACAAAA</t>
-  </si>
-  <si>
-    <t>BjI2MS44OAAv4daZddrdCEoKh6J12t0IKENJUS5CQVRTOklHVi5JUV9DTE9TRVBSSUNFLjIwMjUvNi8xMS5VU0QBAAAAzTqGAAIAAAAGMTA1Ljc5AC/h1pl12t0I5syJonXa3QgtQ0lRLk5BU0RBUUdNOkJPVFouSVFfQ0xPU0VQUklDRS4yMDI1LzYvMTEuVVNEAQAAAPf9CBYCAAAABTMxLjUzAC/h1pl12t0InYDgo3Xa3QgsQ0lRLk5BU0RBUUdNOkFJUS5JUV9DTE9TRVBSSUNFLjIwMjUvNi8xMS5VU0QBAAAA6dxiIQIAAAAFNDIuMTEAL+HWmXXa3QiY4eGjddrdCClDSVEuQVJDQTpBUlRZLklRX0NMT1NFUFJJQ0UuMjAyNS82LzExLlVTRAEAAABuH2khAgAAAAUzOC40MwAv4daZddrdCDDd46N12t0ILUNJUS5OQVNEQVFHTTpST0JULklRX0NMT1NFUFJJQ0UuMjAyNS82LzExLlVTRAEAAABcY9kgAgAAAAU0Ni41NgAv4daZddrdCHca6aN12t0IKUNJUS5BUkNBOklHUFQuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMTEuVVNEAQAAAMwCXgECAAAABTQ3LjA1AC/h1pl12t0InYDqo3Xa3QgpQ0lRLkJBVFM6V1RBSS5JUV9DTE9TRVBSSUNFLjIwMjUvNi8xMS5VU0QBAAAAYE5vZAIAAAAFMjMuMTMAzfbWmXXa3QiD3+ujddrdCClDSVEuQVJDQTpUSE5RLklRX0NMT1NFUFJJQ0UuMjAyNS82LzExLlVTRAEAAACuw34kAgAAAAU1Mi44MwDN9taZddrdCL3WiaR12t0ILUNJUS5OQVNEQVFHTTpGRFRYLklRX0NMT1NFUFJJ</t>
-  </si>
-  <si>
-    <t>Q0UuMjAyNS82LzExLlVTRAEAAAC9pZ0mAgAAAAUzNi45NwDN9taZddrdCKYW7aN12t0ILENJUS5OQVNEQVFHTTpRUVEuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMTIuVVNEAQAAAA66ewACAAAABjU4MC4wNQBkkbipddrdCG9u4ql12t0ILUNJUS5OQVNEQVFHTTpXSVNFLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEyLlVTRAEAAADpsENuAgAAAAczOS42MDI1AGSRuKl12t0Ib27iqXXa3QgpQ0lRLkFSQ0E6TE9VUC5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xMi5VU0QBAAAAWVwPIgIAAAAFNjUuNTYAZJG4qXXa3QhvbuKpddrdCC1DSVEuTkFTREFRR006QUdJWC5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xMi5VU0QBAAAAI/cAcAIAAAAHMzMuMTQwNgBkkbipddrdCG9u4ql12t0IKENJUS5MU0U6UkJPVC5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xMi5VU0QBAAAAjnskFAIAAAAGMTUuMTQ1AGSRuKl12t0Ija3iqXXa3QgoQ0lRLkFSQ0E6QUlTLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEyLlVTRAEAAACYl59wAgAAAAYzMC41MTUAZJG4qXXa3QiNreKpddrdCCxDSVEuTkFTREFRR006U01ILklRX0NMT1NFUFJJQ0UuMjAyNS84LzEyLlVTRAEAAABgwjYAAgAAAAUzMDAuMQBkkbipddrdCI2t4ql12t0IKUNJUS5YVFJBOlhBSVguSVFfQ0xPU0VQUklDRS4yMDI1LzgvMTIuVVNEAQAAADXs4iICAAAADzE2My45NTA1MDIwMTA1NgBk</t>
-  </si>
-  <si>
-    <t>kbipddrdCI2t4ql12t0IKUNJUS5BUkNBOlRITlEuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMTIuVVNEAQAAAK7DfiQCAAAABTU2Ljk3AGSRuKl12t0IpjDiqXXa3QgoQ0lRLkJBVFM6SUdWLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEyLlVTRAEAAADNOoYAAgAAAAYxMDkuNTYAZJG4qXXa3QimMOKpddrdCChDSVEuQklUOldUQUkuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMTIuVVNEAQAAAE26WyMCAAAADjc2LjgwMzY0MjMxODk2AGSRuKl12t0Ib27iqXXa3QgpQ0lRLkJBVFM6V1RBSS5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xMi5VU0QBAAAAYE5vZAIAAAAFMjUuODkAZJG4qXXa3QhvbuKpddrdCClDSVEuQVJDQTpMUk5aLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEyLlVTRAEAAAC1dsMmAgAAAAc0Mi4wODkyAGSRuKl12t0Ib27iqXXa3QgtQ0lRLk5BU0RBUUdNOkJPVFouSVFfQ0xPU0VQUklDRS4yMDI1LzgvMTIuVVNEAQAAAPf9CBYCAAAABTMzLjg4AGSRuKl12t0Ib27iqXXa3QgoQ0lRLkxTRTpBSUFHLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEyLlVTRAEAAADwnYIkAgAAAA4yNC45ODkxODgwMTY5MQBkkbipddrdCG9u4ql12t0IJ0NJUS5EQjpYQjBULklRX0NMT1NFUFJJQ0UuMjAyNS84LzEyLlVTRAEAAADTM94pAgAAAA0yMi4zNTU4MjUzNTk2AGSRuKl12t0Ib27iqXXa3QgpQ0lRLkFSQ0E6SUdQVC5JUV9DTE9T</t>
-  </si>
-  <si>
-    <t>RVBSSUNFLjIwMjUvOC8xMi5VU0QBAAAAzAJeAQIAAAAFNTAuOTgAZJG4qXXa3QimMOKpddrdCClDSVEuQVJDQTpDSEFULklRX0NMT1NFUFJJQ0UuMjAyNS84LzEyLlVTRAEAAAAAMDVtAgAAAAU1NS4xNABkkbipddrdCKYw4ql12t0ILENJUS5OQVNEQVFHTTpBSVEuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMTIuVVNEAQAAAOncYiECAAAABTQ1LjM0AGSRuKl12t0IpjDiqXXa3QgoQ0lRLkFTWDpSQlRaLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEyLlVTRAEAAAAp7XYiAgAAAA05LjQ0MjU5Mjk2MjQ1AGSRuKl12t0IpjDiqXXa3QgpQ0lRLkFSQ0E6QVJUWS5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xMi5VU0QBAAAAbh9pIQIAAAAFNDMuMDQAZJG4qXXa3QimMOKpddrdCC1DSVEuTkFTREFRR006Uk9CVC5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xMi5VU0QBAAAAXGPZIAIAAAAHNTAuMDgyMgBkkbipddrdCKYw4ql12t0ILUNJUS5OQVNEQVFHTTpGRFRYLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEyLlVTRAEAAAC9pZ0mAgAAAAczOS40NDU0AGSRuKl12t0IpjDiqXXa3Qg=</t>
+    <t>BAABTAVMT0NBTAFI/////wFQmAcAACxDSVEuTkFTREFRR006QUdJWC5JUV9DTE9TRVBSSUNFLjIwMjUvNC84LlVTRAEAAAAj9wBwAgAAAAUyMS41OQDpPFlxdtrdCKwIFnN22t0IKENJUS5BUkNBOkFSVFkuSVFfQ0xPU0VQUklDRS4yMDI1LzQvOC5VU0QBAAAAbh9pIQIAAAAFMjcuODUA6TxZcXba3Qjf2iRzdtrdCChDSVEuQVJDQTpMT1VQLklRX0NMT1NFUFJJQ0UuMjAyNS80LzguVVNEAQAAAFlcDyICAAAABjM5LjkxNwDpPFlxdtrdCJrpFHN22t0IK0NJUS5OQVNEQVFHTTpRUVEuSVFfQ0xPU0VQUklDRS4yMDI1LzQvNy5VU0QBAAAADrp7AAIAAAAGNDIzLjY5AOk8WXF22t0I02oZc3ba3QgrQ0lRLk5BU0RBUUdNOlNNSC5JUV9DTE9TRVBSSUNFLjIwMjUvNC83LlVTRAEAAABgwjYAAgAAAAUxODQuOQDpPFlxdtrdCHcbGnN22t0IKENJUS5BUkNBOkNIQVQuSVFfQ0xPU0VQUklDRS4yMDI1LzQvNy5VU0QBAAAAADA1bQIAAAAFMzEuMDcA6TxZcXba3QggUCFzdtrdCCxDSVEuTkFTREFRR006V0lTRS5JUV9DTE9TRVBSSUNFLjIwMjUvNC83LlVTRAEAAADpsENuAgAAAAUyNi41NADpPFlxdtrdCBDqEXN22t0IK0NJUS5OQVNEQVFHTTpBSVEuSVFfQ0xPU0VQUklDRS4yMDI1LzQvNC5VU0QBAAAA6dxiIQIAAAAEMzIuNADpPFlxdtrdCLGAGHN22t0IKENJUS5BUkNBOlRITlEuSVFfQ0xPU0VQUklDRS4yMDI1</t>
+  </si>
+  <si>
+    <t>LzQvNC5VU0QBAAAArsN+JAIAAAAFMzkuNDUA6TxZcXba3Qh3GxpzdtrdCChDSVEuQVJDQTpMT1VQLklRX0NMT1NFUFJJQ0UuMjAyNS80LzQuVVNEAQAAAFlcDyICAAAABzM5LjQ3MjIA6TxZcXba3Qia6RRzdtrdCCdDSVEuTFNFOlJCT1QuSVFfQ0xPU0VQUklDRS4yMDI1LzQvNC5VU0QBAAAAjnskFAIAAAAFMTEuNjcA6TxZcXba3Qh8NhdzdtrdCCZDSVEuREI6WEIwVC5JUV9DTE9TRVBSSUNFLjIwMjUvNC80LlVTRAEAAADTM94pAgAAAA4xNy4wNjAzMDk3ODQ3OQDpPFlxdtrdCNJYEHN22t0ILENJUS5OQVNEQVFHTTpGRFRYLklRX0NMT1NFUFJJQ0UuMjAyNS80LzMuVVNEAQAAAL2lnSYCAAAABTI5Ljk3AOk8WXF22t0IfDYXc3ba3QgsQ0lRLk5BU0RBUUdNOldJU0UuSVFfQ0xPU0VQUklDRS4yMDI1LzQvMy5VU0QBAAAA6bBDbgIAAAAHMjguNzUxNADpPFlxdtrdCBDqEXN22t0IKENJUS5YVFJBOlhBSVguSVFfQ0xPU0VQUklDRS4yMDI1LzQvMy5VU0QBAAAANeziIgIAAAAOMTI3LjE4NjE4NTUzMjIA6TxZcXba3Qje5hJzdtrdCCdDSVEuTFNFOkFJQUcuSVFfQ0xPU0VQUklDRS4yMDI1LzQvMy5VU0QBAAAA8J2CJAIAAAAOMTguNzI1ODA1Mzg4MDQA6TxZcXba3QgCFx5zdtrdCCtDSVEuTkFTREFRR006QUlRLklRX0NMT1NFUFJJQ0UuMjAyNS80LzIuVVNEAQAAAOncYiECAAAABTM2Ljk5AOk8WXF22t0I</t>
+  </si>
+  <si>
+    <t>0lgQc3ba3QgoQ0lRLkJBVFM6V1RBSS5JUV9DTE9TRVBSSUNFLjIwMjUvNC8yLlVTRAEAAABgTm9kAgAAAAQxOS41AOk8WXF22t0I02oZc3ba3QgoQ0lRLkFSQ0E6TFJOWi5JUV9DTE9TRVBSSUNFLjIwMjUvNC8yLlVTRAEAAAC1dsMmAgAAAAczNS4yOTc2AOk8WXF22t0ImukUc3ba3QgnQ0lRLkxTRTpSQk9ULklRX0NMT1NFUFJJQ0UuMjAyNS80LzIuVVNEAQAAAI57JBQCAAAABjEzLjAxNQDpPFlxdtrdCHw2F3N22t0IJ0NJUS5CQVRTOklHVi5JUV9DTE9TRVBSSUNFLjIwMjUvNC8xLlVTRAEAAADNOoYAAgAAAAU5MC4zMgDpPFlxdtrdCN7mEnN22t0IKENJUS5BUkNBOkNIQVQuSVFfQ0xPU0VQUklDRS4yMDI1LzQvMS5VU0QBAAAAADA1bQIAAAAEMzUuMwDpPFlxdtrdCHw2F3N22t0IJ0NJUS5BUkNBOkFJUy5JUV9DTE9TRVBSSUNFLjIwMjUvNC8xLlVTRAEAAACYl59wAgAAAAcyMS42ODE0AOk8WXF22t0IlUwbc3ba3QgnQ0lRLkxTRTpBSUFHLklRX0NMT1NFUFJJQ0UuMjAyNS80LzEuVVNEAQAAAPCdgiQCAAAADjE5LjcxMjI2NTU0OTI1AOk8WXF22t0I9ZQUc3ba3QgmQ0lRLkRCOlhCMFQuSVFfQ0xPU0VQUklDRS4yMDI1LzQvMS5VU0QBAAAA0zPeKQIAAAAPMTguNTc3OTEyMjYwNDg4AOk8WXF22t0ImukUc3ba3QgtQ0lRLk5BU0RBUUdNOkFHSVguSVFfQ0xPU0VQUklDRS4yMDI1LzMvMzEuVVNEAQAA</t>
+  </si>
+  <si>
+    <t>ACP3AHACAAAABTI0LjUzAKlRWXF22t0IquEVc3ba3QgpQ0lRLkJBVFM6V1RBSS5JUV9DTE9TRVBSSUNFLjIwMjUvMy8zMS5VU0QBAAAAYE5vZAIAAAACMTkAqVFZcXba3Qgh0BJzdtrdCClDSVEuWFRSQTpYQUlYLklRX0NMT1NFUFJJQ0UuMjAyNS8zLzMxLlVTRAEAAAA17OIiAgAAAA8xMzAuNTAxNTEzMTQ0MTYAqVFZcXba3Qj+DhdzdtrdCChDSVEuQVNYOlJCVFouSVFfQ0xPU0VQUklDRS4yMDI1LzMvMzEuVVNEAQAAACntdiICAAAACzguMTA3NzcwOTgzAKlRWXF22t0I45kpc3ba3QgsQ0lRLk5BU0RBUUdNOlNNSC5JUV9DTE9TRVBSSUNFLjIwMjUvMy8yOC5VU0QBAAAAYMI2AAIAAAAGMjEyLjE3AKlRWXF22t0IEOoRc3ba3QgtQ0lRLk5BU0RBUUdNOlJPQlQuSVFfQ0xPU0VQUklDRS4yMDI1LzMvMjguVVNEAQAAAFxj2SACAAAABTQxLjIzAKlRWXF22t0IsrsUc3ba3QgpQ0lRLkFSQ0E6TFJOWi5JUV9DTE9TRVBSSUNFLjIwMjUvMy8yOC5VU0QBAAAAtXbDJgIAAAAHMzUuMDU3NwCpUVlxdtrdCNJYEHN22t0ILUNJUS5OQVNEQVFHTTpXSVNFLklRX0NMT1NFUFJJQ0UuMjAyNS8zLzI4LlVTRAEAAADpsENuAgAAAAUzMC44MgCpUVlxdtrdCD8tKHN22t0IKENJUS5CSVQ6V1RBSS5JUV9DTE9TRVBSSUNFLjIwMjUvMy8yOC5VU0QBAAAATbpbIwIAAAANNTguNTQ2MzYwNDc3NACpUVlxdtrdCM3zGXN22t0I</t>
+  </si>
+  <si>
+    <t>KENJUS5CQVRTOklHVi5JUV9DTE9TRVBSSUNFLjIwMjUvMy8yNy5VU0QBAAAAzTqGAAIAAAAFOTIuNTIAqVFZcXba3Qj+DhdzdtrdCCxDSVEuTkFTREFRR006QUlRLklRX0NMT1NFUFJJQ0UuMjAyNS8zLzI3LlVTRAEAAADp3GIhAgAAAAUzNy42MgCpUVlxdtrdCLGAGHN22t0IKUNJUS5BUkNBOklHUFQuSVFfQ0xPU0VQUklDRS4yMDI1LzMvMjcuVVNEAQAAAMwCXgECAAAABTQyLjE3AKlRWXF22t0I0lgQc3ba3QgsQ0lRLk5BU0RBUUdNOlNNSC5JUV9DTE9TRVBSSUNFLjIwMjUvMy8yNi5VU0QBAAAAYMI2AAIAAAAGMjIyLjAxAKlRWXF22t0IzfMZc3ba3QgpQ0lRLkFSQ0E6TFJOWi5JUV9DTE9TRVBSSUNFLjIwMjUvMy8yNi5VU0QBAAAAtXbDJgIAAAAFMzYuNzgAqVFZcXba3QjSWBBzdtrdCClDSVEuWFRSQTpYQUlYLklRX0NMT1NFUFJJQ0UuMjAyNS8zLzI2LlVTRAEAAAA17OIiAgAAAA8xMzcuNTMyMzU1NDc0MjQAqVFZcXba3QjIQxlzdtrdCC1DSVEuTkFTREFRR006Uk9CVC5JUV9DTE9TRVBSSUNFLjIwMjUvMy8yNS5VU0QBAAAAXGPZIAIAAAAENDMuNwCpUVlxdtrdCOlUKHN22t0IKUNJUS5YVFJBOlhBSVguSVFfQ0xPU0VQUklDRS4yMDI1LzMvMjQuVVNEAQAAADXs4iICAAAADjEzOC43MzU4MTg1MjM2AKlRWXF22t0IVLoSc3ba3QgtQ0lRLk5BU0RBUUdNOlJPQlQuSVFfQ0xPU0VQUklDRS4yMDI1</t>
+  </si>
+  <si>
+    <t>LzMvMjEuVVNEAQAAAFxj2SACAAAABTQyLjY0AKlRWXF22t0I+fslc3ba3QgtQ0lRLk5BU0RBUUdNOkZEVFguSVFfQ0xPU0VQUklDRS4yMDI1LzMvMjEuVVNEAQAAAL2lnSYCAAAABDMzLjIAqVFZcXba3QjN8xlzdtrdCClDSVEuQVJDQTpUSE5RLklRX0NMT1NFUFJJQ0UuMjAyNS8zLzIwLlVTRAEAAACuw34kAgAAAAU0Ni45NgCpUVlxdtrdCP4OF3N22t0IKUNJUS5BUkNBOklHUFQuSVFfQ0xPU0VQUklDRS4yMDI1LzMvMTQuVVNEAQAAAMwCXgECAAAABTQyLjYxAGVmWXF22t0IzFgYc3ba3QgoQ0lRLkxTRTpBSUFHLklRX0NMT1NFUFJJQ0UuMjAyNS8zLzE0LlVTRAEAAADwnYIkAgAAAA8yMC41NDUzNDQxNjg4MjIAZWZZcXba3QgCwxFzdtrdCClDSVEuQVJDQTpDSEFULklRX0NMT1NFUFJJQ0UuMjAyNS82LzExLlVTRAEAAAAAMDVtAgAAAAU0NS4yNQAUZexxdtrdCAPBKXN22t0IKUNJUS5BUkNBOkxPVVAuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMTEuVVNEAQAAAFlcDyICAAAABzU3LjQ2MzkAFGXscXba3QhqcxtzdtrdCChDSVEuQVJDQTpBSVMuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMTEuVVNEAQAAAJiXn3ACAAAABzI2LjMxOTUAFGXscXba3Qi8ChBzdtrdCC1DSVEuTkFTREFRR006V0lTRS5JUV9DTE9TRVBSSUNFLjIwMjUvNi8xMS5VU0QBAAAA6bBDbgIAAAAFMzQuMjQAFGXscXba3Qg8RhFzdtrdCChD</t>
+  </si>
+  <si>
+    <t>SVEuTFNFOlJCT1QuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMTEuVVNEAQAAAI57JBQCAAAABTE0LjU5ABRl7HF22t0IkyMdc3ba3QgpQ0lRLlhUUkE6WEFJWC5JUV9DTE9TRVBSSUNFLjIwMjUvNi8xMS5VU0QBAAAANeziIgIAAAANMTUzLjg4MTQ4ODM0NAAUZexxdtrdCKy6E3N22t0IKENJUS5CSVQ6V1RBSS5JUV9DTE9TRVBSSUNFLjIwMjUvNi8xMS5VU0QBAAAATbpbIwIAAAAONjkuOTI0MjA3NjUxMjQAFGXscXba3QgysxZzdtrdCChDSVEuTFNFOkFJQUcuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMTEuVVNEAQAAAPCdgiQCAAAADzIzLjQ1NzIyNDkwNDA2NAAUZexxdtrdCNT5F3N22t0IKENJUS5BU1g6UkJUWi5JUV9DTE9TRVBSSUNFLjIwMjUvNi8xMS5VU0QBAAAAKe12IgIAAAANOS4wNjYwMjM1OTQyOQAUZexxdtrdCP97KHN22t0IJ0NJUS5EQjpYQjBULklRX0NMT1NFUFJJQ0UuMjAyNS82LzExLlVTRAEAAADTM94pAgAAAA4yMC44NjU4NzA0NzE3MgAUZexxdtrdCPn7JXN22t0ILENJUS5OQVNEQVFHTTpRUVEuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMTAuVVNEAQAAAA66ewACAAAABjUzNC4yMQAUZexxdtrdCMnFJHN22t0ILUNJUS5OQVNEQVFHTTpBR0lYLklRX0NMT1NFUFJJQ0UuMjAyNS82LzEwLlVTRAEAAAAj9wBwAgAAAAYzMC40NzUAFGXscXba3Qh6/hpzdtrdCC1DSVEuTkFTREFRR006Qk9UWi5J</t>
+  </si>
+  <si>
+    <t>UV9DTE9TRVBSSUNFLjIwMjUvNi8xMC5VU0QBAAAA9/0IFgIAAAAEMzEuNgBhjOxxdtrdCLwKEHN22t0ILENJUS5OQVNEQVFHTTpBSVEuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMTAuVVNEAQAAAOncYiECAAAABTQyLjA4AGGM7HF22t0IPEYRc3ba3QgpQ0lRLkFSQ0E6QVJUWS5JUV9DTE9TRVBSSUNFLjIwMjUvNi8xMC5VU0QBAAAAbh9pIQIAAAAFMzguMzMAYYzscXba3QjDBCVzdtrdCC1DSVEuTkFTREFRR006Uk9CVC5JUV9DTE9TRVBSSUNFLjIwMjUvNi8xMC5VU0QBAAAAXGPZIAIAAAAFNDYuNTgAYYzscXba3QisuhNzdtrdCClDSVEuQVJDQTpJR1BULklRX0NMT1NFUFJJQ0UuMjAyNS82LzEwLlVTRAEAAADMAl4BAgAAAAU0Ny40MQBhjOxxdtrdCOxRJnN22t0IKUNJUS5CQVRTOldUQUkuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMTAuVVNEAQAAAGBOb2QCAAAABTIzLjA0AGGM7HF22t0Iyj0nc3ba3QgpQ0lRLkFSQ0E6VEhOUS5JUV9DTE9TRVBSSUNFLjIwMjUvNi8xMC5VU0QBAAAArsN+JAIAAAAHNTIuNjE1NwBhjOxxdtrdCDK1H3N22t0ILUNJUS5OQVNEQVFHTTpGRFRYLklRX0NMT1NFUFJJQ0UuMjAyNS82LzEwLlVTRAEAAAC9pZ0mAgAAAAUzNy4yNwBhjOxxdtrdCG5RIHN22t0IKUNJUS5BUkNBOkNIQVQuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMTAuVVNEAQAAAAAwNW0CAAAABTQ1LjQxAGGM7HF22t0I</t>
+  </si>
+  <si>
+    <t>IFAhc3ba3QgpQ0lRLkFSQ0E6TE9VUC5JUV9DTE9TRVBSSUNFLjIwMjUvNi8xMC5VU0QBAAAAWVwPIgIAAAAHNTYuODI0MgBhjOxxdtrdCC3XGnN22t0IKENJUS5BUkNBOkFJUy5JUV9DTE9TRVBSSUNFLjIwMjUvNi8xMC5VU0QBAAAAmJefcAIAAAAHMjYuMjk2OQBhjOxxdtrdCPadIXN22t0ILUNJUS5OQVNEQVFHTTpXSVNFLklRX0NMT1NFUFJJQ0UuMjAyNS82LzEwLlVTRAEAAADpsENuAgAAAAUzNC40NwBhjOxxdtrdCHjEI3N22t0IKENJUS5MU0U6UkJPVC5JUV9DTE9TRVBSSUNFLjIwMjUvNi8xMC5VU0QBAAAAjnskFAIAAAAFMTQuNTEAYYzscXba3Qg8RhFzdtrdCClDSVEuWFRSQTpYQUlYLklRX0NMT1NFUFJJQ0UuMjAyNS82LzEwLlVTRAEAAAA17OIiAgAAAA8xNTIuNTIzNDA3MTIyNDIAYYzscXba3QiTIx1zdtrdCChDSVEuQklUOldUQUkuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMTAuVVNEAQAAAE26WyMCAAAADjY5LjAxMTE4OTc0NzU2AGGM7HF22t0IrLoTc3ba3QgoQ0lRLkxTRTpBSUFHLklRX0NMT1NFUFJJQ0UuMjAyNS82LzEwLlVTRAEAAADwnYIkAgAAAA8yMy4xMzAzMzYxMDE0NzQAYYzscXba3QgDRx5zdtrdCChDSVEuQVNYOlJCVFouSVFfQ0xPU0VQUklDRS4yMDI1LzYvMTAuVVNEAQAAACntdiICAAAADDkuMDY0ODIzMjcwMQBhjOxxdtrdCLDVHnN22t0IJ0NJUS5EQjpYQjBULklRX0NM</t>
+  </si>
+  <si>
+    <t>T1NFUFJJQ0UuMjAyNS82LzEwLlVTRAEAAADTM94pAgAAAA8yMC43Mzc2MTEzMjAyMzgAYYzscXba3QgysxZzdtrdCCtDSVEuTkFTREFRR006UVFRLklRX0NMT1NFUFJJQ0UuMjAyNS82LzkuVVNEAQAAAA66ewACAAAABTUzMC43AGGM7HF22t0I1PkXc3ba3QgsQ0lRLk5BU0RBUUdNOkFHSVguSVFfQ0xPU0VQUklDRS4yMDI1LzYvOS5VU0QBAAAAI/cAcAIAAAAFMzAuNDUAYYzscXba3QiV7iZzdtrdCCtDSVEuTkFTREFRR006U01ILklRX0NMT1NFUFJJQ0UuMjAyNS82LzkuVVNEAQAAAGDCNgACAAAABjI1Ni45NgBhjOxxdtrdCC3XGnN22t0ILENJUS5OQVNEQVFHTTpCT1RaLklRX0NMT1NFUFJJQ0UuMjAyNS82LzkuVVNEAQAAAPf9CBYCAAAABDMxLjQAYYzscXba3QgDwSlzdtrdCCtDSVEuTkFTREFRR006QUlRLklRX0NMT1NFUFJJQ0UuMjAyNS82LzkuVVNEAQAAAOncYiECAAAABDQxLjkAYYzscXba3QhqcxtzdtrdCCxDSVEuTkFTREFRR006Uk9CVC5JUV9DTE9TRVBSSUNFLjIwMjUvNi85LlVTRAEAAABcY9kgAgAAAAU0Ni40MwBhjOxxdtrdCLwKEHN22t0IKENJUS5BUkNBOklHUFQuSVFfQ0xPU0VQUklDRS4yMDI1LzYvOS5VU0QBAAAAzAJeAQIAAAAFNDYuOTEAYYzscXba3QisuhNzdtrdCChDSVEuQkFUUzpXVEFJLklRX0NMT1NFUFJJQ0UuMjAyNS82LzkuVVNEAQAAAGBOb2QCAAAABTIzLjA1AGGM</t>
+  </si>
+  <si>
+    <t>7HF22t0IkCMmc3ba3QgoQ0lRLkFSQ0E6VEhOUS5JUV9DTE9TRVBSSUNFLjIwMjUvNi85LlVTRAEAAACuw34kAgAAAAU1Mi40MgBhjOxxdtrdCMo9J3N22t0ILENJUS5OQVNEQVFHTTpGRFRYLklRX0NMT1NFUFJJQ0UuMjAyNS82LzkuVVNEAQAAAL2lnSYCAAAABzM3LjE2MjMAYYzscXba3QgysxZzdtrdCChDSVEuQVJDQTpDSEFULklRX0NMT1NFUFJJQ0UuMjAyNS82LzkuVVNEAQAAAAAwNW0CAAAABTQ1LjQzAGGM7HF22t0I1PkXc3ba3QgoQ0lRLkFSQ0E6TE9VUC5JUV9DTE9TRVBSSUNFLjIwMjUvNi85LlVTRAEAAABZXA8iAgAAAAc1Ny4zMTM2AGGM7HF22t0I/3soc3ba3QgoQ0lRLkFSQ0E6TFJOWi5JUV9DTE9TRVBSSUNFLjIwMjUvNi85LlVTRAEAAAC1dsMmAgAAAAU0Mi44NgBhjOxxdtrdCJjiJ3N22t0ILENJUS5OQVNEQVFHTTpXSVNFLklRX0NMT1NFUFJJQ0UuMjAyNS82LzkuVVNEAQAAAOmwQ24CAAAABDM0LjIAYYzscXba3QjSdiFzdtrdCCdDSVEuTFNFOlJCT1QuSVFfQ0xPU0VQUklDRS4yMDI1LzYvOS5VU0QBAAAAjnskFAIAAAAGMTQuNTI1AGGM7HF22t0IeMQjc3ba3QgnQ0lRLkJJVDpXVEFJLklRX0NMT1NFUFJJQ0UuMjAyNS82LzkuVVNEAQAAAE26WyMCAAAADjY4LjYwMDEzNjk5NTkyAGGM7HF22t0IvAoQc3ba3QgnQ0lRLkxTRTpBSUFHLklRX0NMT1NFUFJJQ0UuMjAyNS82LzkuVVNE</t>
+  </si>
+  <si>
+    <t>AQAAAPCdgiQCAAAADjIzLjAxOTk4MzE4ODc0AGGM7HF22t0IPEYRc3ba3QgnQ0lRLkFTWDpSQlRaLklRX0NMT1NFUFJJQ0UuMjAyNS82LzkuVVNEAQAAACntdiIDAAAAAABhjOxxdtrdCMMEJXN22t0IJkNJUS5EQjpYQjBULklRX0NMT1NFUFJJQ0UuMjAyNS82LzkuVVNEAQAAANMz3ikCAAAADzIwLjYzNzEzMTc1ODcyNgBhjOxxdtrdCPS6FXN22t0IK0NJUS5OQVNEQVFHTTpRUVEuSVFfQ0xPU0VQUklDRS4yMDI1LzYvNi5VU0QBAAAADrp7AAIAAAAGNTI5LjkyAGGM7HF22t0IMrMWc3ba3QgsQ0lRLk5BU0RBUUdNOkFHSVguSVFfQ0xPU0VQUklDRS4yMDI1LzYvNi5VU0QBAAAAI/cAcAIAAAAFMzAuMzIAYYzscXba3QjU+RdzdtrdCCtDSVEuTkFTREFRR006U01ILklRX0NMT1NFUFJJQ0UuMjAyNS82LzYuVVNEAQAAAGDCNgACAAAABjI1Mi43MwBhjOxxdtrdCDK1H3N22t0IJ0NJUS5CQVRTOklHVi5JUV9DTE9TRVBSSUNFLjIwMjUvNi82LlVTRAEAAADNOoYAAgAAAAYxMDUuOTgAYYzscXba3QhuUSBzdtrdCCxDSVEuTkFTREFRR006Qk9UWi5JUV9DTE9TRVBSSUNFLjIwMjUvNi82LlVTRAEAAAD3/QgWAgAAAAQzMS40AGGM7HF22t0IIFAhc3ba3QgrQ0lRLk5BU0RBUUdNOkFJUS5JUV9DTE9TRVBSSUNFLjIwMjUvNi82LlVTRAEAAADp3GIhAgAAAAU0MS42MgBhjOxxdtrdCC3XGnN22t0IKENJUS5BUkNB</t>
+  </si>
+  <si>
+    <t>OkFSVFkuSVFfQ0xPU0VQUklDRS4yMDI1LzYvNi5VU0QBAAAAbh9pIQIAAAAFMzguMTQAYYzscXba3QiTIx1zdtrdCChDSVEuQVJDQTpJR1BULklRX0NMT1NFUFJJQ0UuMjAyNS82LzYuVVNEAQAAAMwCXgECAAAABTQ2LjQ5AGGM7HF22t0IvAoQc3ba3QgoQ0lRLkJBVFM6V1RBSS5JUV9DTE9TRVBSSUNFLjIwMjUvNi82LlVTRAEAAABgTm9kAgAAAAcyMi45NDg0AGGM7HF22t0IPEYRc3ba3QgoQ0lRLkFSQ0E6VEhOUS5JUV9DTE9TRVBSSUNFLjIwMjUvNi82LlVTRAEAAACuw34kAgAAAAQ1Mi4xAGGM7HF22t0IA0cec3ba3QgsQ0lRLk5BU0RBUUdNOkZEVFguSVFfQ0xPU0VQUklDRS4yMDI1LzYvNi5VU0QBAAAAvaWdJgIAAAAFMzcuMTUAYYzscXba3QisuhNzdtrdCChDSVEuQVJDQTpDSEFULklRX0NMT1NFUFJJQ0UuMjAyNS82LzYuVVNEAQAAAAAwNW0CAAAABTQ0LjM0AGGM7HF22t0IsNUec3ba3QgoQ0lRLkFSQ0E6TE9VUC5JUV9DTE9TRVBSSUNFLjIwMjUvNi82LlVTRAEAAABZXA8iAgAAAAY1Ny4yMTMAYYzscXba3QjU+RdzdtrdCChDSVEuQVJDQTpMUk5aLklRX0NMT1NFUFJJQ0UuMjAyNS82LzYuVVNEAQAAALV2wyYCAAAABzQyLjg1MzkAYYzscXba3Qj5+yVzdtrdCCdDSVEuQVJDQTpBSVMuSVFfQ0xPU0VQUklDRS4yMDI1LzYvNi5VU0QBAAAAmJefcAIAAAAGMjUuODU3AGGM7HF22t0IPy0oc3ba</t>
+  </si>
+  <si>
+    <t>3QgsQ0lRLk5BU0RBUUdNOldJU0UuSVFfQ0xPU0VQUklDRS4yMDI1LzYvNi5VU0QBAAAA6bBDbgIAAAAFMzMuNTkAYrPscXba3QgDwSlzdtrdCCdDSVEuTFNFOlJCT1QuSVFfQ0xPU0VQUklDRS4yMDI1LzYvNi5VU0QBAAAAjnskFAIAAAAFMTQuNDQAYrPscXba3Qgt1xpzdtrdCCdDSVEuQklUOldUQUkuSVFfQ0xPU0VQUklDRS4yMDI1LzYvNi5VU0QBAAAATbpbIwIAAAAONjcuNzQ4NTQ4MDI2NDIAYrPscXba3QhqcxtzdtrdCCdDSVEuTFNFOkFJQUcuSVFfQ0xPU0VQUklDRS4yMDI1LzYvNi5VU0QBAAAA8J2CJAIAAAAPMjIuODk0MDEwNzE1NTc2AGKz7HF22t0IzOMPc3ba3QgnQ0lRLkFTWDpSQlRaLklRX0NMT1NFUFJJQ0UuMjAyNS82LzYuVVNEAQAAACntdiICAAAACzguOTg4MjUzNjEzAGKz7HF22t0IqwoRc3ba3QgmQ0lRLkRCOlhCMFQuSVFfQ0xPU0VQUklDRS4yMDI1LzYvNi5VU0QBAAAA0zPeKQIAAAAPMjAuNDU3ODA2NjM1NTEyAGKz7HF22t0Iyj0nc3ba3QgrQ0lRLk5BU0RBUUdNOlFRUS5JUV9DTE9TRVBSSUNFLjIwMjUvNi81LlVTRAEAAAAOunsAAgAAAAY1MjQuNzkAYrPscXba3QisuhNzdtrdCCxDSVEuTkFTREFRR006QUdJWC5JUV9DTE9TRVBSSUNFLjIwMjUvNi81LlVTRAEAAAAj9wBwAgAAAAUyOS44NwBis+xxdtrdCP97KHN22t0IK0NJUS5OQVNEQVFHTTpTTUguSVFfQ0xPU0VQUklD</t>
+  </si>
+  <si>
+    <t>RS4yMDI1LzYvNS5VU0QBAAAAYMI2AAIAAAAFMjUxLjMAYrPscXba3Qj0uhVzdtrdCCdDSVEuQkFUUzpJR1YuSVFfQ0xPU0VQUklDRS4yMDI1LzYvNS5VU0QBAAAAzTqGAAIAAAAGMTA0LjY2AGKz7HF22t0IMrMWc3ba3QgsQ0lRLk5BU0RBUUdNOkJPVFouSVFfQ0xPU0VQUklDRS4yMDI1LzYvNS5VU0QBAAAA9/0IFgIAAAAFMzEuMjgAYrPscXba3QjSdiFzdtrdCCtDSVEuTkFTREFRR006QUlRLklRX0NMT1NFUFJJQ0UuMjAyNS82LzUuVVNEAQAAAOncYiECAAAABDQxLjIAYrPscXba3Qh4xCNzdtrdCChDSVEuQVJDQTpBUlRZLklRX0NMT1NFUFJJQ0UuMjAyNS82LzUuVVNEAQAAAG4faSECAAAABTM3LjY5AGKz7HF22t0ILdcac3ba3QgoQ0lRLkFSQ0E6SUdQVC5JUV9DTE9TRVBSSUNFLjIwMjUvNi81LlVTRAEAAADMAl4BAgAAAAU0Ni4xNgBis+xxdtrdCMMEJXN22t0IKENJUS5CQVRTOldUQUkuSVFfQ0xPU0VQUklDRS4yMDI1LzYvNS5VU0QBAAAAYE5vZAIAAAAFMjIuNjgAYrPscXba3QiQIyZzdtrdCCxDSVEuTkFTREFRR006RkRUWC5JUV9DTE9TRVBSSUNFLjIwMjUvNi81LlVTRAEAAAC9pZ0mAgAAAAUzNi43MQBis+xxdtrdCDK1H3N22t0IKENJUS5BUkNBOkNIQVQuSVFfQ0xPU0VQUklDRS4yMDI1LzYvNS5VU0QBAAAAADA1bQIAAAAFNDMuNjMAYrPscXba3QjSpBNzdtrdCChDSVEuQVJDQTpMT1VQ</t>
+  </si>
+  <si>
+    <t>LklRX0NMT1NFUFJJQ0UuMjAyNS82LzUuVVNEAQAAAFlcDyICAAAABzU2LjY2NDEAYrPscXba3QhuUSBzdtrdCChDSVEuQVJDQTpMUk5aLklRX0NMT1NFUFJJQ0UuMjAyNS82LzUuVVNEAQAAALV2wyYCAAAABzQyLjYyOTYAYrPscXba3Qj0uhVzdtrdCCdDSVEuQVJDQTpBSVMuSVFfQ0xPU0VQUklDRS4yMDI1LzYvNS5VU0QBAAAAmJefcAIAAAAHMjUuNjQ0NQBis+xxdtrdCDKzFnN22t0ILENJUS5OQVNEQVFHTTpXSVNFLklRX0NMT1NFUFJJQ0UuMjAyNS82LzUuVVNEAQAAAOmwQ24CAAAABTMyLjk3AGKz7HF22t0I1PkXc3ba3QgnQ0lRLkxTRTpSQk9ULklRX0NMT1NFUFJJQ0UuMjAyNS82LzUuVVNEAQAAAI57JBQCAAAABjE0LjQ2NQBis+xxdtrdCCBQIXN22t0IKENJUS5YVFJBOlhBSVguSVFfQ0xPU0VQUklDRS4yMDI1LzYvNS5VU0QBAAAANeziIgIAAAAPMTUyLjA4OTc3NDM3MTg2AGKz7HF22t0ILdcac3ba3QgnQ0lRLkxTRTpBSUFHLklRX0NMT1NFUFJJQ0UuMjAyNS82LzUuVVNEAQAAAPCdgiQCAAAADjIyLjkxNjcyMzMwNzg3AGKz7HF22t0IA0cec3ba3QgnQ0lRLkFTWDpSQlRaLklRX0NMT1NFUFJJQ0UuMjAyNS82LzUuVVNEAQAAACntdiICAAAADTkuMDQ4Nzk5NTgxNDUAYrPscXba3Qiw1R5zdtrdCCtDSVEuTkFTREFRR006UVFRLklRX0NMT1NFUFJJQ0UuMjAyNS82LzQuVVNEAQAAAA66ewAC</t>
+  </si>
+  <si>
+    <t>AAAABjUyOC43NwBis+xxdtrdCMzjD3N22t0ILENJUS5OQVNEQVFHTTpBR0lYLklRX0NMT1NFUFJJQ0UuMjAyNS82LzQuVVNEAQAAACP3AHACAAAABDI5LjgAYrPscXba3QirChFzdtrdCCtDSVEuTkFTREFRR006U01ILklRX0NMT1NFUFJJQ0UuMjAyNS82LzQuVVNEAQAAAGDCNgACAAAABjI1MS43NQBis+xxdtrdCD8tKHN22t0IJ0NJUS5CQVRTOklHVi5JUV9DTE9TRVBSSUNFLjIwMjUvNi80LlVTRAEAAADNOoYAAgAAAAUxMDQuOABis+xxdtrdCMCTFXN22t0ILENJUS5OQVNEQVFHTTpCT1RaLklRX0NMT1NFUFJJQ0UuMjAyNS82LzQuVVNEAQAAAPf9CBYCAAAABDMxLjQAYrPscXba3QgysxZzdtrdCCtDSVEuTkFTREFRR006QUlRLklRX0NMT1NFUFJJQ0UuMjAyNS82LzQuVVNEAQAAAOncYiECAAAABTQxLjM1AGKz7HF22t0I1PkXc3ba3QgoQ0lRLkFSQ0E6QVJUWS5JUV9DTE9TRVBSSUNFLjIwMjUvNi80LlVTRAEAAABuH2khAgAAAAUzNy45NQBis+xxdtrdCAPBKXN22t0ILENJUS5OQVNEQVFHTTpST0JULklRX0NMT1NFUFJJQ0UuMjAyNS82LzQuVVNEAQAAAFxj2SACAAAABTQ1LjYzAGKz7HF22t0IanMbc3ba3QgoQ0lRLkFSQ0E6SUdQVC5JUV9DTE9TRVBSSUNFLjIwMjUvNi80LlVTRAEAAADMAl4BAgAAAAU0Ni4zNABis+xxdtrdCJUOHXN22t0IKENJUS5CQVRTOldUQUkuSVFfQ0xPU0VQUklDRS4y</t>
+  </si>
+  <si>
+    <t>MDI1LzYvNC5VU0QBAAAAYE5vZAIAAAAFMjIuNzcAYrPscXba3QhQFidzdtrdCChDSVEuQVJDQTpUSE5RLklRX0NMT1NFUFJJQ0UuMjAyNS82LzQuVVNEAQAAAK7DfiQCAAAABzUxLjUxOTEAYrPscXba3Qj/eyhzdtrdCChDSVEuQVJDQTpDSEFULklRX0NMT1NFUFJJQ0UuMjAyNS82LzQuVVNEAQAAAAAwNW0CAAAABDQ0LjEAYrPscXba3QjM4w9zdtrdCChDSVEuQVJDQTpMT1VQLklRX0NMT1NFUFJJQ0UuMjAyNS82LzQuVVNEAQAAAFlcDyICAAAABTU2LjM1AGKz7HF22t0IqwoRc3ba3QgoQ0lRLkFSQ0E6TFJOWi5JUV9DTE9TRVBSSUNFLjIwMjUvNi80LlVTRAEAAAC1dsMmAgAAAAc0Mi4yMDgxAGKz7HF22t0IoZokc3ba3QgnQ0lRLkFSQ0E6QUlTLklRX0NMT1NFUFJJQ0UuMjAyNS82LzQuVVNEAQAAAJiXn3ACAAAABTI1LjU4AGKz7HF22t0I0qQTc3ba3QgsQ0lRLk5BU0RBUUdNOldJU0UuSVFfQ0xPU0VQUklDRS4yMDI1LzYvNC5VU0QBAAAA6bBDbgIAAAAFMzMuNzEAYrPscXba3QgysxZzdtrdCCdDSVEuTFNFOlJCT1QuSVFfQ0xPU0VQUklDRS4yMDI1LzYvNC5VU0QBAAAAjnskFAIAAAAFMTQuMzYAYrPscXba3QjU+RdzdtrdCChDSVEuWFRSQTpYQUlYLklRX0NMT1NFUFJJQ0UuMjAyNS82LzQuVVNEAQAAADXs4iICAAAADjE1MC4zOTQxNTA1MjE2AGKz7HF22t0IeMQjc3ba3QgnQ0lRLkJJVDpXVEFJ</t>
+  </si>
+  <si>
+    <t>LklRX0NMT1NFUFJJQ0UuMjAyNS82LzQuVVNEAQAAAE26WyMCAAAADTY2Ljk4Mjc0ODc0NzIAYrPscXba3QjDBCVzdtrdCCdDSVEuTFNFOkFJQUcuSVFfQ0xPU0VQUklDRS4yMDI1LzYvNC5VU0QBAAAA8J2CJAIAAAAPMjIuNjg5NzgyNDAwODc0AGKz7HF22t0IkCMmc3ba3QgnQ0lRLkFTWDpSQlRaLklRX0NMT1NFUFJJQ0UuMjAyNS82LzQuVVNEAQAAACntdiICAAAADTkuMDE1MzgyNjE3MzYAYrPscXba3Qgt1xpzdtrdCCxDSVEuTkFTREFRR006QUdJWC5JUV9DTE9TRVBSSUNFLjIwMjUvNi8zLlVTRAEAAAAj9wBwAgAAAAcyOS41NjU2AGKz7HF22t0IzOMPc3ba3QgrQ0lRLk5BU0RBUUdNOlNNSC5JUV9DTE9TRVBSSUNFLjIwMjUvNi8zLlVTRAEAAABgwjYAAgAAAAYyNDguNzkAYrPscXba3QirChFzdtrdCCdDSVEuQkFUUzpJR1YuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMy5VU0QBAAAAzTqGAAIAAAAGMTA0Ljk5AGKz7HF22t0IIFAhc3ba3QgsQ0lRLk5BU0RBUUdNOkJPVFouSVFfQ0xPU0VQUklDRS4yMDI1LzYvMy5VU0QBAAAA9/0IFgIAAAAEMzEuMwBis+xxdtrdCNKkE3N22t0IK0NJUS5OQVNEQVFHTTpBSVEuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMy5VU0QBAAAA6dxiIQIAAAAFNDAuOTYAYrPscXba3QjSdiFzdtrdCChDSVEuQVJDQTpBUlRZLklRX0NMT1NFUFJJQ0UuMjAyNS82LzMuVVNEAQAAAG4f</t>
+  </si>
+  <si>
+    <t>aSECAAAABTM3LjY3AGKz7HF22t0IwJMVc3ba3QgsQ0lRLk5BU0RBUUdNOlJPQlQuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMy5VU0QBAAAAXGPZIAIAAAAFNDUuMzIAYrPscXba3QiVDh1zdtrdCChDSVEuQVJDQTpJR1BULklRX0NMT1NFUFJJQ0UuMjAyNS82LzMuVVNEAQAAAMwCXgECAAAABTQ1LjgzAGKz7HF22t0IA0cec3ba3QgoQ0lRLkJBVFM6V1RBSS5JUV9DTE9TRVBSSUNFLjIwMjUvNi8zLlVTRAEAAABgTm9kAgAAAAUyMi42NgBis+xxdtrdCB+uHnN22t0IKENJUS5BUkNBOlRITlEuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMy5VU0QBAAAArsN+JAIAAAAHNTEuMTI4NABis+xxdtrdCC3XGnN22t0IKENJUS5BUkNBOkNIQVQuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMy5VU0QBAAAAADA1bQIAAAAFNDMuMzEAYrPscXba3QgytR9zdtrdCChDSVEuQVJDQTpMT1VQLklRX0NMT1NFUFJJQ0UuMjAyNS82LzMuVVNEAQAAAFlcDyICAAAABzU1LjgyMTkAYrPscXba3QhuUSBzdtrdCChDSVEuQVJDQTpMUk5aLklRX0NMT1NFUFJJQ0UuMjAyNS82LzMuVVNEAQAAALV2wyYCAAAABjQyLjE3NgBis+xxdtrdCKsKEXN22t0IJ0NJUS5BUkNBOkFJUy5JUV9DTE9TRVBSSUNFLjIwMjUvNi8zLlVTRAEAAACYl59wAgAAAAcyNS4yNzI3AGKz7HF22t0IA8Epc3ba3QgsQ0lRLk5BU0RBUUdNOldJU0UuSVFfQ0xPU0VQUklDRS4y</t>
+  </si>
+  <si>
+    <t>MDI1LzYvMy5VU0QBAAAA6bBDbgIAAAAHMzMuMDUzOQBis+xxdtrdCNKkE3N22t0IJ0NJUS5MU0U6UkJPVC5JUV9DTE9TRVBSSUNFLjIwMjUvNi8zLlVTRAEAAACOeyQUAgAAAAYxNC4yNDUAYrPscXba3QhqcxtzdtrdCChDSVEuWFRSQTpYQUlYLklRX0NMT1NFUFJJQ0UuMjAyNS82LzMuVVNEAQAAADXs4iICAAAADzE0OS42NDE1OTc0OTA4OABis+xxdtrdCMCTFXN22t0IJ0NJUS5CSVQ6V1RBSS5JUV9DTE9TRVBSSUNFLjIwMjUvNi8zLlVTRAEAAABNulsjAgAAAA42Ni4wNTk4NDc1NTQxNABis+xxdtrdCDKzFnN22t0IJ0NJUS5MU0U6QUlBRy5JUV9DTE9TRVBSSUNFLjIwMjUvNi8zLlVTRAEAAADwnYIkAgAAAA4yMi40Mjc0MDQ5NjM1MwBis+xxdtrdCNT5F3N22t0IJ0NJUS5BU1g6UkJUWi5JUV9DTE9TRVBSSUNFLjIwMjUvNi8zLlVTRAEAAAAp7XYiAgAAAA04Ljg0NzY3MDEzODg5AGKz7HF22t0I/3soc3ba3QgmQ0lRLkRCOlhCMFQuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMy5VU0QBAAAA0zPeKQIAAAAPMjAuMTUyNDYzMzExNzI4AGKz7HF22t0ILdcac3ba3QgsQ0lRLk5BU0RBUUdNOkFHSVguSVFfQ0xPU0VQUklDRS4yMDI1LzYvMi5VU0QBAAAAI/cAcAIAAAAFMjkuMzQAYrPscXba3QiY4idzdtrdCCtDSVEuTkFTREFRR006U01ILklRX0NMT1NFUFJJQ0UuMjAyNS82LzIuVVNEAQAAAGDCNgACAAAA</t>
+  </si>
+  <si>
+    <t>BTI0My4zAGKz7HF22t0IRlsjc3ba3QgsQ0lRLk5BU0RBUUdNOkJPVFouSVFfQ0xPU0VQUklDRS4yMDI1LzYvMi5VU0QBAAAA9/0IFgIAAAAFMzAuOTcAYrPscXba3QjM4w9zdtrdCCtDSVEuTkFTREFRR006QUlRLklRX0NMT1NFUFJJQ0UuMjAyNS82LzIuVVNEAQAAAOncYiECAAAABTQwLjczAGKz7HF22t0I0qQTc3ba3QgoQ0lRLkFSQ0E6QVJUWS5JUV9DTE9TRVBSSUNFLjIwMjUvNi8yLlVTRAEAAABuH2khAgAAAAQzNy4xAGKz7HF22t0IwwQlc3ba3QgsQ0lRLk5BU0RBUUdNOlJPQlQuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMi5VU0QBAAAAXGPZIAIAAAAFNDQuNzYAYrPscXba3QjAkxVzdtrdCChDSVEuQVJDQTpJR1BULklRX0NMT1NFUFJJQ0UuMjAyNS82LzIuVVNEAQAAAMwCXgECAAAABTQ1LjI5ALLc7HF22t0IMrMWc3ba3QgoQ0lRLkJBVFM6V1RBSS5JUV9DTE9TRVBSSUNFLjIwMjUvNi8yLlVTRAEAAABgTm9kAgAAAAUyMi4zNQCy3OxxdtrdCNT5F3N22t0IKENJUS5BUkNBOlRITlEuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMi5VU0QBAAAArsN+JAIAAAAHNTAuNjY0OQCy3OxxdtrdCJAjJnN22t0ILENJUS5OQVNEQVFHTTpGRFRYLklRX0NMT1NFUFJJQ0UuMjAyNS82LzIuVVNEAQAAAL2lnSYCAAAABTM1LjcxALLc7HF22t0IUBYnc3ba3QgoQ0lRLkFSQ0E6TE9VUC5JUV9DTE9TRVBSSUNFLjIwMjUv</t>
+  </si>
+  <si>
+    <t>Ni8yLlVTRAEAAABZXA8iAgAAAAU1NS4xMwCy3OxxdtrdCCBQIXN22t0IKENJUS5BUkNBOkxSTlouSVFfQ0xPU0VQUklDRS4yMDI1LzYvMi5VU0QBAAAAtXbDJgIAAAAHNDEuNjUwNwCy3OxxdtrdCNJ2IXN22t0ILENJUS5OQVNEQVFHTTpXSVNFLklRX0NMT1NFUFJJQ0UuMjAyNS82LzIuVVNEAQAAAOmwQ24CAAAABDMyLjYAstzscXba3QjM4w9zdtrdCCdDSVEuTFNFOlJCT1QuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMi5VU0QBAAAAjnskFAIAAAAFMTQuMDMAstzscXba3QirChFzdtrdCChDSVEuWFRSQTpYQUlYLklRX0NMT1NFUFJJQ0UuMjAyNS82LzIuVVNEAQAAADXs4iICAAAADzE0Ny43MTI3MTcyODI2NACy3OxxdtrdCHjEI3N22t0IJ0NJUS5CSVQ6V1RBSS5JUV9DTE9TRVBSSUNFLjIwMjUvNi8yLlVTRAEAAABNulsjAgAAAA42NC43NDE1MzcwNDk5NACy3OxxdtrdCMCTFXN22t0IJ0NJUS5MU0U6QUlBRy5JUV9DTE9TRVBSSUNFLjIwMjUvNi8yLlVTRAEAAADwnYIkAgAAAA8yMi4xMDM1ODAwMzY4NjQAstzscXba3QgysxZzdtrdCCdDSVEuQVNYOlJCVFouSVFfQ0xPU0VQUklDRS4yMDI1LzYvMi5VU0QBAAAAKe12IgIAAAANOC44NDY0NTM2Mjg3MgCy3OxxdtrdCL/SF3N22t0IJkNJUS5EQjpYQjBULklRX0NMT1NFUFJJQ0UuMjAyNS82LzIuVVNEAQAAANMz3ikCAAAADzIwLjM0MDgwNTEyMjI0NACy</t>
+  </si>
+  <si>
+    <t>3OxxdtrdCB+uHnN22t0ILENJUS5OQVNEQVFHTTpRUVEuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMzAuVVNEAQAAAA66ewACAAAABjUxOS4xMQCy3OxxdtrdCDK1H3N22t0ILUNJUS5OQVNEQVFHTTpBR0lYLklRX0NMT1NFUFJJQ0UuMjAyNS81LzMwLlVTRAEAAAAj9wBwAgAAAAUyOC45NwCy3OxxdtrdCG5RIHN22t0ILENJUS5OQVNEQVFHTTpTTUguSVFfQ0xPU0VQUklDRS4yMDI1LzUvMzAuVVNEAQAAAGDCNgACAAAABjIzOS43NQCy3OxxdtrdCC3XGnN22t0IKENJUS5CQVRTOklHVi5JUV9DTE9TRVBSSUNFLjIwMjUvNS8zMC5VU0QBAAAAzTqGAAIAAAAGMTAzLjY1ALLc7HF22t0IanMbc3ba3QgsQ0lRLk5BU0RBUUdNOkFJUS5JUV9DTE9TRVBSSUNFLjIwMjUvNS8zMC5VU0QBAAAA6dxiIQIAAAAENDAuMwCy3OxxdtrdCMzjD3N22t0IKUNJUS5BUkNBOkFSVFkuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMzAuVVNEAQAAAG4faSECAAAABTM2LjgyALLc7HF22t0IqwoRc3ba3QgtQ0lRLk5BU0RBUUdNOlJPQlQuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMzAuVVNEAQAAAFxj2SACAAAABTQ0LjU3ALLc7HF22t0IlQ4dc3ba3QgpQ0lRLkFSQ0E6SUdQVC5JUV9DTE9TRVBSSUNFLjIwMjUvNS8zMC5VU0QBAAAAzAJeAQIAAAAFNDQuNzEAstzscXba3QjSpBNzdtrdCClDSVEuQkFUUzpXVEFJLklRX0NMT1NFUFJJQ0UuMjAy</t>
+  </si>
+  <si>
+    <t>NS81LzMwLlVTRAEAAABgTm9kAgAAAAUyMi4wOACy3OxxdtrdCANHHnN22t0IKUNJUS5BUkNBOlRITlEuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMzAuVVNEAQAAAK7DfiQCAAAABzUwLjE2MzcAstzscXba3Qi/0hdzdtrdCC1DSVEuTkFTREFRR006RkRUWC5JUV9DTE9TRVBSSUNFLjIwMjUvNS8zMC5VU0QBAAAAvaWdJgIAAAAHMzUuNDcxMgCy3OxxdtrdCP97KHN22t0IKUNJUS5BUkNBOkNIQVQuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMzAuVVNEAQAAAAAwNW0CAAAABTQxLjc2ALLc7HF22t0I+fslc3ba3QgpQ0lRLkFSQ0E6TE9VUC5JUV9DTE9TRVBSSUNFLjIwMjUvNS8zMC5VU0QBAAAAWVwPIgIAAAAHNTQuMTQ1MQCy3OxxdtrdCMnFJHN22t0IKUNJUS5BUkNBOkxSTlouSVFfQ0xPU0VQUklDRS4yMDI1LzUvMzAuVVNEAQAAALV2wyYCAAAABzQxLjA1OTgAstzscXba3QikqRpzdtrdCC1DSVEuTkFTREFRR006V0lTRS5JUV9DTE9TRVBSSUNFLjIwMjUvNS8zMC5VU0QBAAAA6bBDbgIAAAAHMzIuNjA0OQCy3OxxdtrdCAPBKXN22t0IKENJUS5MU0U6UkJPVC5JUV9DTE9TRVBSSUNFLjIwMjUvNS8zMC5VU0QBAAAAjnskFAIAAAAFMTQuMDUAstzscXba3QjM4w9zdtrdCClDSVEuWFRSQTpYQUlYLklRX0NMT1NFUFJJQ0UuMjAyNS81LzMwLlVTRAEAAAA17OIiAgAAAA8xNDYuNzYwNDY3NTM5OTYAstzscXba3Qir</t>
+  </si>
+  <si>
+    <t>ChFzdtrdCChDSVEuQklUOldUQUkuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMzAuVVNEAQAAAE26WyMCAAAADjY0LjQ2MTU5MDg1MzE0ALLc7HF22t0IkCMmc3ba3QgoQ0lRLkxTRTpBSUFHLklRX0NMT1NFUFJJQ0UuMjAyNS81LzMwLlVTRAEAAADwnYIkAgAAAA4yMi4wMDg0MDg3OTY4NgCy3OxxdtrdCACPE3N22t0IKENJUS5BU1g6UkJUWi5JUV9DTE9TRVBSSUNFLjIwMjUvNS8zMC5VU0QBAAAAKe12IgIAAAALOS4wMDg0MjkzMTgAstzscXba3QhQFidzdtrdCCdDSVEuREI6WEIwVC5JUV9DTE9TRVBSSUNFLjIwMjUvNS8zMC5VU0QBAAAA0zPeKQIAAAAPMjAuNTUzNzI3NDU0OTE2ALLc7HF22t0IwJMVc3ba3QgsQ0lRLk5BU0RBUUdNOlFRUS5JUV9DTE9TRVBSSUNFLjIwMjUvNS8yOS5VU0QBAAAADrp7AAIAAAAGNTE5LjkzALLc7HF22t0IMrMWc3ba3QgtQ0lRLk5BU0RBUUdNOkFHSVguSVFfQ0xPU0VQUklDRS4yMDI1LzUvMjkuVVNEAQAAACP3AHACAAAABTI4LjcyALLc7HF22t0I+Cghc3ba3QgsQ0lRLk5BU0RBUUdNOlNNSC5JUV9DTE9TRVBSSUNFLjIwMjUvNS8yOS5VU0QBAAAAYMI2AAIAAAAGMjQ0LjA4ALLc7HF22t0I0nYhc3ba3QgoQ0lRLkJBVFM6SUdWLklRX0NMT1NFUFJJQ0UuMjAyNS81LzI5LlVTRAEAAADNOoYAAgAAAAYxMDIuMzUAstzscXba3QikqRpzdtrdCCxDSVEuTkFTREFRR006QUlR</t>
+  </si>
+  <si>
+    <t>LklRX0NMT1NFUFJJQ0UuMjAyNS81LzI5LlVTRAEAAADp3GIhAgAAAAU0MC40NQCy3OxxdtrdCCGvI3N22t0IKUNJUS5BUkNBOkFSVFkuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMjkuVVNEAQAAAG4faSECAAAABTM2Ljg5ALLc7HF22t0IwwQlc3ba3QgpQ0lRLkFSQ0E6SUdQVC5JUV9DTE9TRVBSSUNFLjIwMjUvNS8yOS5VU0QBAAAAzAJeAQIAAAAFNDUuMjIAstzscXba3Qgfrh5zdtrdCClDSVEuQkFUUzpXVEFJLklRX0NMT1NFUFJJQ0UuMjAyNS81LzI5LlVTRAEAAABgTm9kAgAAAAUyMi4xNgCy3OxxdtrdCACPE3N22t0IKUNJUS5BUkNBOlRITlEuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMjkuVVNEAQAAAK7DfiQCAAAABzUwLjY4MzcAstzscXba3QgytR9zdtrdCC1DSVEuTkFTREFRR006RkRUWC5JUV9DTE9TRVBSSUNFLjIwMjUvNS8yOS5VU0QBAAAAvaWdJgIAAAAFMzUuMzUAstzscXba3QjAkxVzdtrdCClDSVEuQVJDQTpDSEFULklRX0NMT1NFUFJJQ0UuMjAyNS81LzI5LlVTRAEAAAAAMDVtAgAAAAQ0Mi4yALLc7HF22t0I/X0Wc3ba3QgpQ0lRLkFSQ0E6TE9VUC5JUV9DTE9TRVBSSUNFLjIwMjUvNS8yOS5VU0QBAAAAWVwPIgIAAAAHNTQuNDA3OQCy3OxxdtrdCL/SF3N22t0IKUNJUS5BUkNBOkxSTlouSVFfQ0xPU0VQUklDRS4yMDI1LzUvMjkuVVNEAQAAALV2wyYCAAAABzQwLjk1MTYAstzscXba3Qh9</t>
+  </si>
+  <si>
+    <t>KiBzdtrdCChDSVEuQVJDQTpBSVMuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMjkuVVNEAQAAAJiXn3ACAAAABzI0LjU3NTQAstzscXba3QikqRpzdtrdCChDSVEuTFNFOlJCT1QuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMjkuVVNEAQAAAI57JBQCAAAABTE0LjE1ALLc7HF22t0IlQ4dc3ba3QgpQ0lRLlhUUkE6WEFJWC5JUV9DTE9TRVBSSUNFLjIwMjUvNS8yOS5VU0QBAAAANeziIgIAAAAPMTQ2LjgyNDIyNDU0NTE4ALLc7HF22t0IA0cec3ba3QgoQ0lRLkxTRTpBSUFHLklRX0NMT1NFUFJJQ0UuMjAyNS81LzI5LlVTRAEAAADwnYIkAgAAAA4yMi4zMzA0Mzc1OTkyNQCy3OxxdtrdCMzjD3N22t0IKENJUS5BU1g6UkJUWi5JUV9DTE9TRVBSSUNFLjIwMjUvNS8yOS5VU0QBAAAAKe12IgIAAAANOS4xNTc2OTgwMDQ0OQCy3OxxdtrdCKsKEXN22t0IJ0NJUS5EQjpYQjBULklRX0NMT1NFUFJJQ0UuMjAyNS81LzI5LlVTRAEAAADTM94pAgAAAA8yMC45NDc2MTk1OTIyODQAstzscXba3QiY4idzdtrdCCxDSVEuTkFTREFRR006UVFRLklRX0NMT1NFUFJJQ0UuMjAyNS81LzI4LlVTRAEAAAAOunsAAgAAAAY1MTguOTEAstzscXba3QjAkxVzdtrdCC1DSVEuTkFTREFRR006QUdJWC5JUV9DTE9TRVBSSUNFLjIwMjUvNS8yOC5VU0QBAAAAI/cAcAIAAAAFMjkuMDUAstzscXba3Qj9fRZzdtrdCCxDSVEuTkFTREFRR006U01I</t>
+  </si>
+  <si>
+    <t>LklRX0NMT1NFUFJJQ0UuMjAyNS81LzI4LlVTRAEAAABgwjYAAgAAAAYyNDIuMzYAstzscXba3Qi/0hdzdtrdCChDSVEuQkFUUzpJR1YuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMjguVVNEAQAAAM06hgACAAAABjEwMy4wOACy3OxxdtrdCD8tKHN22t0ILUNJUS5OQVNEQVFHTTpCT1RaLklRX0NMT1NFUFJJQ0UuMjAyNS81LzI4LlVTRAEAAAD3/QgWAgAAAAUzMS4wOACy3OxxdtrdCAPBKXN22t0ILENJUS5OQVNEQVFHTTpBSVEuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMjguVVNEAQAAAOncYiECAAAABTQwLjUyALLc7HF22t0IanMbc3ba3QgpQ0lRLkFSQ0E6QVJUWS5JUV9DTE9TRVBSSUNFLjIwMjUvNS8yOC5VU0QBAAAAbh9pIQIAAAAFMzYuOTEAstzscXba3QiQIyZzdtrdCC1DSVEuTkFTREFRR006Uk9CVC5JUV9DTE9TRVBSSUNFLjIwMjUvNS8yOC5VU0QBAAAAXGPZIAIAAAAFNDQuNzUAstzscXba3QhQFidzdtrdCClDSVEuQkFUUzpXVEFJLklRX0NMT1NFUFJJQ0UuMjAyNS81LzI4LlVTRAEAAABgTm9kAgAAAAUyMi4zNQCy3OxxdtrdCMzjD3N22t0IKUNJUS5BUkNBOlRITlEuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMjguVVNEAQAAAK7DfiQCAAAABzUwLjg2NTIAstzscXba3QirChFzdtrdCC1DSVEuTkFTREFRR006RkRUWC5JUV9DTE9TRVBSSUNFLjIwMjUvNS8yOC5VU0QBAAAAvaWdJgIAAAAHMzUuNTQ2</t>
+  </si>
+  <si>
+    <t>NwCy3OxxdtrdCP97KHN22t0IKUNJUS5BUkNBOkNIQVQuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMjguVVNEAQAAAAAwNW0CAAAABzQyLjQ3MDkAstzscXba3QgAjxNzdtrdCClDSVEuQVJDQTpMT1VQLklRX0NMT1NFUFJJQ0UuMjAyNS81LzI4LlVTRAEAAABZXA8iAgAAAAc1NC44NjE3ALLc7HF22t0I/X0Wc3ba3QgpQ0lRLkFSQ0E6TFJOWi5JUV9DTE9TRVBSSUNFLjIwMjUvNS8yOC5VU0QBAAAAtXbDJgIAAAAHNDEuMTU3MwCy3OxxdtrdCL/SF3N22t0IKENJUS5BUkNBOkFJUy5JUV9DTE9TRVBSSUNFLjIwMjUvNS8yOC5VU0QBAAAAmJefcAIAAAAHMjQuNzU5OQCy3OxxdtrdCNJ2IXN22t0ILUNJUS5OQVNEQVFHTTpXSVNFLklRX0NMT1NFUFJJQ0UuMjAyNS81LzI4LlVTRAEAAADpsENuAgAAAAczMi43NTM0ALLc7HF22t0IIa8jc3ba3QgoQ0lRLkxTRTpSQk9ULklRX0NMT1NFUFJJQ0UuMjAyNS81LzI4LlVTRAEAAACOeyQUAgAAAAUxNC4xNgCy3OxxdtrdCL/vJHN22t0IKUNJUS5YVFJBOlhBSVguSVFfQ0xPU0VQUklDRS4yMDI1LzUvMjguVVNEAQAAADXs4iICAAAADjE0Ny40MzYxODcwODM1ALLc7HF22t0IpKkac3ba3QgoQ0lRLkFTWDpSQlRaLklRX0NMT1NFUFJJQ0UuMjAyNS81LzI4LlVTRAEAAAAp7XYiAgAAAA04Ljk0MzI0NjAyMTIyALLc7HF22t0IzOMPc3ba3QgnQ0lRLkRCOlhCMFQuSVFfQ0xP</t>
+  </si>
+  <si>
+    <t>U0VQUklDRS4yMDI1LzUvMjguVVNEAQAAANMz3ikCAAAADTIwLjQ1NjI5MDk0ODgAstzscXba3QirChFzdtrdCCxDSVEuTkFTREFRR006UVFRLklRX0NMT1NFUFJJQ0UuMjAyNS81LzI3LlVTRAEAAAAOunsAAgAAAAY1MjEuMjIAstzscXba3Qh9KiBzdtrdCC1DSVEuTkFTREFRR006QUdJWC5JUV9DTE9TRVBSSUNFLjIwMjUvNS8yNy5VU0QBAAAAI/cAcAIAAAAFMjkuMjcAstzscXba3QgAjxNzdtrdCCxDSVEuTkFTREFRR006U01ILklRX0NMT1NFUFJJQ0UuMjAyNS81LzI3LlVTRAEAAABgwjYAAgAAAAYyNDQuOTcAstzscXba3Qj4KCFzdtrdCChDSVEuQkFUUzpJR1YuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMjcuVVNEAQAAAM06hgACAAAABTEwMy44ALLc7HF22t0IwJMVc3ba3QgtQ0lRLk5BU0RBUUdNOkJPVFouSVFfQ0xPU0VQUklDRS4yMDI1LzUvMjcuVVNEAQAAAPf9CBYCAAAABTMxLjUxALLc7HF22t0IanMbc3ba3QgsQ0lRLk5BU0RBUUdNOkFJUS5JUV9DTE9TRVBSSUNFLjIwMjUvNS8yNy5VU0QBAAAA6dxiIQIAAAAFNDAuNzkAstzscXba3QiVDh1zdtrdCClDSVEuQVJDQTpBUlRZLklRX0NMT1NFUFJJQ0UuMjAyNS81LzI3LlVTRAEAAABuH2khAgAAAAUzNy4xNACy3OxxdtrdCANHHnN22t0ILUNJUS5OQVNEQVFHTTpST0JULklRX0NMT1NFUFJJQ0UuMjAyNS81LzI3LlVTRAEAAABcY9kgAgAAAAU0</t>
+  </si>
+  <si>
+    <t>NS4zOACy3OxxdtrdCKSpGnN22t0IKUNJUS5CQVRTOldUQUkuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMjcuVVNEAQAAAGBOb2QCAAAABTIyLjU2ALLc7HF22t0IH64ec3ba3QgpQ0lRLkFSQ0E6VEhOUS5JUV9DTE9TRVBSSUNFLjIwMjUvNS8yNy5VU0QBAAAArsN+JAIAAAAHNTEuMTQ2MgCy3OxxdtrdCDeOH3N22t0ILUNJUS5OQVNEQVFHTTpGRFRYLklRX0NMT1NFUFJJQ0UuMjAyNS81LzI3LlVTRAEAAAC9pZ0mAgAAAAUzNS42NQCy3OxxdtrdCKsKEXN22t0IKUNJUS5BUkNBOkNIQVQuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMjcuVVNEAQAAAAAwNW0CAAAABTQyLjY4ALLc7HF22t0IRlsjc3ba3QgpQ0lRLkFSQ0E6TE9VUC5JUV9DTE9TRVBSSUNFLjIwMjUvNS8yNy5VU0QBAAAAWVwPIgIAAAAHNTQuOTQ3MwCy3OxxdtrdCACPE3N22t0IKUNJUS5BUkNBOkxSTlouSVFfQ0xPU0VQUklDRS4yMDI1LzUvMjcuVVNEAQAAALV2wyYCAAAABzQxLjQ4MjUAstzscXba3QgDwSlzdtrdCChDSVEuQVJDQTpBSVMuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMjcuVVNEAQAAAJiXn3ACAAAABzI0Ljc4NzcAstzscXba3QjAkxVzdtrdCC1DSVEuTkFTREFRR006V0lTRS5JUV9DTE9TRVBSSUNFLjIwMjUvNS8yNy5VU0QBAAAA6bBDbgIAAAAGMzMuMDQ1ALLc7HF22t0I/X0Wc3ba3QgoQ0lRLkxTRTpSQk9ULklRX0NMT1NFUFJJQ0Uu</t>
+  </si>
+  <si>
+    <t>MjAyNS81LzI3LlVTRAEAAACOeyQUAgAAAAQxNC4yALLc7HF22t0Iv9IXc3ba3QgpQ0lRLlhUUkE6WEFJWC5JUV9DTE9TRVBSSUNFLjIwMjUvNS8yNy5VU0QBAAAANeziIgIAAAAPMTQ3LjM4MTU0NjE1NjI0ALLc7HF22t0IUBYnc3ba3QgoQ0lRLkJJVDpXVEFJLklRX0NMT1NFUFJJQ0UuMjAyNS81LzI3LlVTRAEAAABNulsjAgAAAA42NS43Nzg3MzQ5OTAzNgCy3OxxdtrdCKSpGnN22t0IKENJUS5BU1g6UkJUWi5JUV9DTE9TRVBSSUNFLjIwMjUvNS8yNy5VU0QBAAAAKe12IgIAAAAMOC44NjE5ODIzNTA0ALLc7HF22t0I6VQoc3ba3QgnQ0lRLkRCOlhCMFQuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMjcuVVNEAQAAANMz3ikCAAAADjIwLjQxNDg3MTkxNDEyALLc7HF22t0IoZokc3ba3QgtQ0lRLk5BU0RBUUdNOkFHSVguSVFfQ0xPU0VQUklDRS4yMDI1LzUvMjMuVVNEAQAAACP3AHACAAAABDI4LjUAstzscXba3QikvA9zdtrdCCxDSVEuTkFTREFRR006U01ILklRX0NMT1NFUFJJQ0UuMjAyNS81LzIzLlVTRAEAAABgwjYAAgAAAAYyMzcuNDQAstzscXba3QgcehNzdtrdCChDSVEuQkFUUzpJR1YuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMjMuVVNEAQAAAM06hgACAAAABjEwMS45MwCy3OxxdtrdCCGvI3N22t0ILUNJUS5OQVNEQVFHTTpCT1RaLklRX0NMT1NFUFJJQ0UuMjAyNS81LzIzLlVTRAEAAAD3/QgWAgAA</t>
+  </si>
+  <si>
+    <t>AAUzMC41NwCy3OxxdtrdCGZsFXN22t0ILENJUS5OQVNEQVFHTTpBSVEuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMjMuVVNEAQAAAOncYiECAAAABTM5Ljk1ALLc7HF22t0I/X0Wc3ba3QgpQ0lRLkFSQ0E6QVJUWS5JUV9DTE9TRVBSSUNFLjIwMjUvNS8yMy5VU0QBAAAAbh9pIQIAAAAFMzYuMTQAstzscXba3Qi/0hdzdtrdCC1DSVEuTkFTREFRR006Uk9CVC5JUV9DTE9TRVBSSUNFLjIwMjUvNS8yMy5VU0QBAAAAXGPZIAIAAAAFNDQuMjEAstzscXba3Qi/7yRzdtrdCClDSVEuQVJDQTpJR1BULklRX0NMT1NFUFJJQ0UuMjAyNS81LzIzLlVTRAEAAADMAl4BAgAAAAU0NC40OQCy3OxxdtrdCJAjJnN22t0IKUNJUS5BUkNBOlRITlEuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMjMuVVNEAQAAAK7DfiQCAAAABzUwLjI3MjUAstzscXba3Qj4KCFzdtrdCC1DSVEuTkFTREFRR006RkRUWC5JUV9DTE9TRVBSSUNFLjIwMjUvNS8yMy5VU0QBAAAAvaWdJgIAAAAHMzQuOTk0NACy3OxxdtrdCNJ2IXN22t0IKUNJUS5BUkNBOkxPVVAuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMjMuVVNEAQAAAFlcDyICAAAABzUzLjc1MjIAstzscXba3QikvA9zdtrdCClDSVEuQVJDQTpMUk5aLklRX0NMT1NFUFJJQ0UuMjAyNS81LzIzLlVTRAEAAAC1dsMmAgAAAAc0MC41Njk3ALLc7HF22t0IqwoRc3ba3QgoQ0lRLkFSQ0E6QUlTLklRX0NMT1NF</t>
+  </si>
+  <si>
+    <t>UFJJQ0UuMjAyNS81LzIzLlVTRAEAAACYl59wAgAAAAYyNC4wOTUAstzscXba3QiXjRJzdtrdCC1DSVEuTkFTREFRR006V0lTRS5JUV9DTE9TRVBSSUNFLjIwMjUvNS8yMy5VU0QBAAAA6bBDbgIAAAAHMzEuOTAzNACy3OxxdtrdCGZsFXN22t0IKENJUS5MU0U6UkJPVC5JUV9DTE9TRVBSSUNFLjIwMjUvNS8yMy5VU0QBAAAAjnskFAIAAAAFMTMuOTIAstzscXba3Qj9fRZzdtrdCClDSVEuWFRSQTpYQUlYLklRX0NMT1NFUFJJQ0UuMjAyNS81LzIzLlVTRAEAAAA17OIiAgAAAA8xNDQuODAzMzU0ODE1MTIAstzscXba3Qi/0hdzdtrdCChDSVEuQklUOldUQUkuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMjMuVVNEAQAAAE26WyMCAAAADjYzLjk4MDUwNTQ3MzY1ALLc7HF22t0IH64ec3ba3QgoQ0lRLkxTRTpBSUFHLklRX0NMT1NFUFJJQ0UuMjAyNS81LzIzLlVTRAEAAADwnYIkAgAAAA8yMi4wNDM0NjA2NDk1ODQAstzscXba3QifAyBzdtrdCChDSVEuQVNYOlJCVFouSVFfQ0xPU0VQUklDRS4yMDI1LzUvMjMuVVNEAQAAACntdiICAAAADTguODg5NjA4Mjk0MjUAstzscXba3Qh9KiBzdtrdCCdDSVEuREI6WEIwVC5JUV9DTE9TRVBSSUNFLjIwMjUvNS8yMy5VU0QBAAAA0zPeKQIAAAAPMjAuMjA2Mjc5MDM2MDM2ALLc7HF22t0IpKkac3ba3QgsQ0lRLk5BU0RBUUdNOlFRUS5JUV9DTE9TRVBSSUNFLjIwMjUvNS8y</t>
+  </si>
+  <si>
+    <t>Mi5VU0QBAAAADrp7AAIAAAADNTE0ALLc7HF22t0IlQ4dc3ba3QgsQ0lRLk5BU0RBUUdNOlNNSC5JUV9DTE9TRVBSSUNFLjIwMjUvNS8yMi5VU0QBAAAAYMI2AAIAAAAGMjQwLjgxAK0N7XF22t0IpLwPc3ba3QgoQ0lRLkJBVFM6SUdWLklRX0NMT1NFUFJJQ0UuMjAyNS81LzIyLlVTRAEAAADNOoYAAgAAAAYxMDIuNzEArQ3tcXba3QirChFzdtrdCC1DSVEuTkFTREFRR006Qk9UWi5JUV9DTE9TRVBSSUNFLjIwMjUvNS8yMi5VU0QBAAAA9/0IFgIAAAAFMzAuNzUArQ3tcXba3QiXjRJzdtrdCCxDSVEuTkFTREFRR006QUlRLklRX0NMT1NFUFJJQ0UuMjAyNS81LzIyLlVTRAEAAADp3GIhAgAAAAQ0MC4zAK0N7XF22t0IHHoTc3ba3QgpQ0lRLkFSQ0E6QVJUWS5JUV9DTE9TRVBSSUNFLjIwMjUvNS8yMi5VU0QBAAAAbh9pIQIAAAAFMzYuMzYArQ3tcXba3QgCFx5zdtrdCC1DSVEuTkFTREFRR006Uk9CVC5JUV9DTE9TRVBSSUNFLjIwMjUvNS8yMi5VU0QBAAAAXGPZIAIAAAAFNDQuNTcArQ3tcXba3Qi/0hdzdtrdCClDSVEuQVJDQTpJR1BULklRX0NMT1NFUFJJQ0UuMjAyNS81LzIyLlVTRAEAAADMAl4BAgAAAAU0NC45MQCtDe1xdtrdCJjiJ3N22t0IKUNJUS5CQVRTOldUQUkuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMjIuVVNEAQAAAGBOb2QCAAAABTIyLjIxAK0N7XF22t0IPy0oc3ba3QgpQ0lRLkFSQ0E6VEhO</t>
+  </si>
+  <si>
+    <t>US5JUV9DTE9TRVBSSUNFLjIwMjUvNS8yMi5VU0QBAAAArsN+JAIAAAAFNTAuMzUArQ3tcXba3QgDwSlzdtrdCC1DSVEuTkFTREFRR006RkRUWC5JUV9DTE9TRVBSSUNFLjIwMjUvNS8yMi5VU0QBAAAAvaWdJgIAAAAFMzUuMjQArQ3tcXba3QikqRpzdtrdCClDSVEuQVJDQTpMT1VQLklRX0NMT1NFUFJJQ0UuMjAyNS81LzIyLlVTRAEAAABZXA8iAgAAAAc1My44MjQ3AK0N7XF22t0IlUwbc3ba3QgpQ0lRLkFSQ0E6TFJOWi5JUV9DTE9TRVBSSUNFLjIwMjUvNS8yMi5VU0QBAAAAtXbDJgIAAAAHNDAuNjg3NACtDe1xdtrdCKS8D3N22t0IKENJUS5BUkNBOkFJUy5JUV9DTE9TRVBSSUNFLjIwMjUvNS8yMi5VU0QBAAAAmJefcAIAAAAHMjQuMzA4OACtDe1xdtrdCKsKEXN22t0ILUNJUS5OQVNEQVFHTTpXSVNFLklRX0NMT1NFUFJJQ0UuMjAyNS81LzIyLlVTRAEAAADpsENuAgAAAAUzMi4xNwCtDe1xdtrdCJeNEnN22t0IKENJUS5MU0U6UkJPVC5JUV9DTE9TRVBSSUNFLjIwMjUvNS8yMi5VU0QBAAAAjnskFAIAAAAFMTQuMTIArQ3tcXba3QgcehNzdtrdCClDSVEuWFRSQTpYQUlYLklRX0NMT1NFUFJJQ0UuMjAyNS81LzIyLlVTRAEAAAA17OIiAgAAAA8xNDYuMzE2MTQ1NzI3NDQArQ3tcXba3QjpVChzdtrdCChDSVEuQklUOldUQUkuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMjIuVVNEAQAAAE26WyMCAAAADjY1</t>
+  </si>
+  <si>
+    <t>LjAwMDU2NDEyMjEzAK0N7XF22t0IZmwVc3ba3QgoQ0lRLkxTRTpBSUFHLklRX0NMT1NFUFJJQ0UuMjAyNS81LzIyLlVTRAEAAADwnYIkAgAAAA8yMi4zMDExNDM5ODQ0NzkArQ3tcXba3Qj9fRZzdtrdCChDSVEuQVNYOlJCVFouSVFfQ0xPU0VQUklDRS4yMDI1LzUvMjIuVVNEAQAAACntdiICAAAADDguNzYyNTg5MDAxOQCtDe1xdtrdCCGvI3N22t0IJ0NJUS5EQjpYQjBULklRX0NMT1NFUFJJQ0UuMjAyNS81LzIyLlVTRAEAAADTM94pAgAAAA8yMC4xMjYzNjgwNDA0NTQArQ3tcXba3Qi/7yRzdtrdCCxDSVEuTkFTREFRR006UVFRLklRX0NMT1NFUFJJQ0UuMjAyNS81LzIxLlVTRAEAAAAOunsAAgAAAAY1MTMuMDQArQ3tcXba3QikqRpzdtrdCCxDSVEuTkFTREFRR006U01ILklRX0NMT1NFUFJJQ0UuMjAyNS81LzIxLlVTRAEAAABgwjYAAgAAAAYyNDEuNDcArQ3tcXba3QiQIyZzdtrdCChDSVEuQkFUUzpJR1YuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMjEuVVNEAQAAAM06hgACAAAABjEwMi4xNwCtDe1xdtrdCFAWJ3N22t0ILENJUS5OQVNEQVFHTTpBSVEuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMjEuVVNEAQAAAOncYiECAAAABTQwLjIyAK0N7XF22t0Il40Sc3ba3QgpQ0lRLkFSQ0E6QVJUWS5JUV9DTE9TRVBSSUNFLjIwMjUvNS8yMS5VU0QBAAAAbh9pIQIAAAAFMzYuMTIArQ3tcXba3QgcehNzdtrdCC1D</t>
+  </si>
+  <si>
+    <t>SVEuTkFTREFRR006Uk9CVC5JUV9DTE9TRVBSSUNFLjIwMjUvNS8yMS5VU0QBAAAAXGPZIAIAAAAFNDQuMjUArQ3tcXba3Qj4KCFzdtrdCClDSVEuQVJDQTpJR1BULklRX0NMT1NFUFJJQ0UuMjAyNS81LzIxLlVTRAEAAADMAl4BAgAAAAU0NC44OACtDe1xdtrdCGZsFXN22t0IKUNJUS5CQVRTOldUQUkuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMjEuVVNEAQAAAGBOb2QCAAAABzIxLjkxNTYArQ3tcXba3Qj9fRZzdtrdCClDSVEuQVJDQTpUSE5RLklRX0NMT1NFUFJJQ0UuMjAyNS81LzIxLlVTRAEAAACuw34kAgAAAAY1MC40MzUArQ3tcXba3Qi/0hdzdtrdCC1DSVEuTkFTREFRR006RkRUWC5JUV9DTE9TRVBSSUNFLjIwMjUvNS8yMS5VU0QBAAAAvaWdJgIAAAAHMzUuMTM1MwCtDe1xdtrdCNJ2IXN22t0IKUNJUS5BUkNBOkNIQVQuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMjEuVVNEAQAAAAAwNW0CAAAABTQxLjc0AK0N7XF22t0IpKkac3ba3QgpQ0lRLkFSQ0E6TFJOWi5JUV9DTE9TRVBSSUNFLjIwMjUvNS8yMS5VU0QBAAAAtXbDJgIAAAAFMzkuOTEArQ3tcXba3QifAyBzdtrdCChDSVEuQVJDQTpBSVMuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMjEuVVNEAQAAAJiXn3ACAAAABzI0LjAyODIArQ3tcXba3Qh9KiBzdtrdCChDSVEuTFNFOlJCT1QuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMjEuVVNEAQAAAI57JBQCAAAA</t>
+  </si>
+  <si>
+    <t>BTE0LjIzAK0N7XF22t0IpLwPc3ba3QgpQ0lRLlhUUkE6WEFJWC5JUV9DTE9TRVBSSUNFLjIwMjUvNS8yMS5VU0QBAAAANeziIgIAAAAOMTQ3LjQzMTY4MTYwODIArQ3tcXba3QirChFzdtrdCChDSVEuQklUOldUQUkuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMjEuVVNEAQAAAE26WyMCAAAADTY2LjA3MzI1MDk0MDcArQ3tcXba3Qi7+RxzdtrdCChDSVEuTFNFOkFJQUcuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMjEuVVNEAQAAAPCdgiQCAAAADzIyLjU1NTc1NDIwNjE2NwCtDe1xdtrdCGZsFXN22t0IKENJUS5BU1g6UkJUWi5JUV9DTE9TRVBSSUNFLjIwMjUvNS8yMS5VU0QBAAAAKe12IgIAAAAMOC45MjA0OTEyNzE4AK0N7XF22t0I/X0Wc3ba3QgnQ0lRLkRCOlhCMFQuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMjEuVVNEAQAAANMz3ikCAAAADjIwLjM3NDE5MjA4Njg4AK0N7XF22t0Im6sXc3ba3QgsQ0lRLk5BU0RBUUdNOlFRUS5JUV9DTE9TRVBSSUNFLjIwMjUvNS8yMC5VU0QBAAAADrp7AAIAAAAGNTIwLjI3AK0N7XF22t0IrhwZc3ba3QgtQ0lRLk5BU0RBUUdNOkFHSVguSVFfQ0xPU0VQUklDRS4yMDI1LzUvMjAuVVNEAQAAACP3AHACAAAABTI5LjE5AK0N7XF22t0IAhcec3ba3QgsQ0lRLk5BU0RBUUdNOlNNSC5JUV9DTE9TRVBSSUNFLjIwMjUvNS8yMC5VU0QBAAAAYMI2AAIAAAAGMjQ1LjU0AK0N7XF22t0I</t>
+  </si>
+  <si>
+    <t>H64ec3ba3QgoQ0lRLkJBVFM6SUdWLklRX0NMT1NFUFJJQ0UuMjAyNS81LzIwLlVTRAEAAADNOoYAAgAAAAYxMDQuNjkArQ3tcXba3QgDwSlzdtrdCC1DSVEuTkFTREFRR006Qk9UWi5JUV9DTE9TRVBSSUNFLjIwMjUvNS8yMC5VU0QBAAAA9/0IFgIAAAAFMzEuMTkArQ3tcXba3QiVTBtzdtrdCClDSVEuQVJDQTpBUlRZLklRX0NMT1NFUFJJQ0UuMjAyNS81LzIwLlVTRAEAAABuH2khAgAAAAUzNi43OACtDe1xdtrdCKS8D3N22t0ILUNJUS5OQVNEQVFHTTpST0JULklRX0NMT1NFUFJJQ0UuMjAyNS81LzIwLlVTRAEAAABcY9kgAgAAAAU0NS4zMwCtDe1xdtrdCD/jEHN22t0IKUNJUS5BUkNBOklHUFQuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMjAuVVNEAQAAAMwCXgECAAAABTQ1LjQ4AK0N7XF22t0ICnkSc3ba3QgpQ0lRLkJBVFM6V1RBSS5JUV9DTE9TRVBSSUNFLjIwMjUvNS8yMC5VU0QBAAAAYE5vZAIAAAAEMjIuMwCtDe1xdtrdCBx6E3N22t0IKUNJUS5BUkNBOlRITlEuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMjAuVVNEAQAAAK7DfiQCAAAABTUxLjMzAK0N7XF22t0I/X0Wc3ba3QgtQ0lRLk5BU0RBUUdNOkZEVFguSVFfQ0xPU0VQUklDRS4yMDI1LzUvMjAuVVNEAQAAAL2lnSYCAAAABTM1LjY0AK0N7XF22t0Im6sXc3ba3QgpQ0lRLkFSQ0E6Q0hBVC5JUV9DTE9TRVBSSUNFLjIwMjUvNS8yMC5VU0QBAAAA</t>
+  </si>
+  <si>
+    <t>ADA1bQIAAAAFNDEuNzIArQ3tcXba3QiuHBlzdtrdCClDSVEuQVJDQTpMT1VQLklRX0NMT1NFUFJJQ0UuMjAyNS81LzIwLlVTRAEAAABZXA8iAgAAAAc1NC4wNDgyAK0N7XF22t0ImP0ic3ba3QgpQ0lRLkFSQ0E6TFJOWi5JUV9DTE9TRVBSSUNFLjIwMjUvNS8yMC5VU0QBAAAAtXbDJgIAAAAFNDAuNjcArQ3tcXba3QjJxSRzdtrdCChDSVEuQVJDQTpBSVMuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMjAuVVNEAQAAAJiXn3ACAAAABjI0LjQ3NQCtDe1xdtrdCKSpGnN22t0IKUNJUS5YVFJBOlhBSVguSVFfQ0xPU0VQUklDRS4yMDI1LzUvMjAuVVNEAQAAADXs4iICAAAADzE0Ny4yNDE2MTIyMTk3OACtDe1xdtrdCKS8D3N22t0IKENJUS5CSVQ6V1RBSS5JUV9DTE9TRVBSSUNFLjIwMjUvNS8yMC5VU0QBAAAATbpbIwIAAAANNjUuOTc2MTMxNDg4NgCtDe1xdtrdCD/jEHN22t0IKENJUS5MU0U6QUlBRy5JUV9DTE9TRVBSSUNFLjIwMjUvNS8yMC5VU0QBAAAA8J2CJAIAAAAPMjIuNTk5NzkxNDUyMzk2AK0N7XF22t0ICnkSc3ba3QgoQ0lRLkFTWDpSQlRaLklRX0NMT1NFUFJJQ0UuMjAyNS81LzIwLlVTRAEAAAAp7XYiAgAAAAY4Ljg4MzIArQ3tcXba3QgcehNzdtrdCCdDSVEuREI6WEIwVC5JUV9DTE9TRVBSSUNFLjIwMjUvNS8yMC5VU0QBAAAA0zPeKQIAAAAPMjAuMzQyMjY1MjUxNDY4AK0N7XF22t0I6VQoc3ba</t>
+  </si>
+  <si>
+    <t>3QgsQ0lRLk5BU0RBUUdNOlFRUS5JUV9DTE9TRVBSSUNFLjIwMjUvNS8xOS5VU0QBAAAADrp7AAIAAAAGNTIyLjAxAK0N7XF22t0IZmwVc3ba3QgtQ0lRLk5BU0RBUUdNOkFHSVguSVFfQ0xPU0VQUklDRS4yMDI1LzUvMTkuVVNEAQAAACP3AHACAAAABTI5LjIxAK0N7XF22t0IrhwZc3ba3QgsQ0lRLk5BU0RBUUdNOlNNSC5JUV9DTE9TRVBSSUNFLjIwMjUvNS8xOS5VU0QBAAAAYMI2AAIAAAAGMjQ2LjAxAK0N7XF22t0IS5ojc3ba3QgoQ0lRLkJBVFM6SUdWLklRX0NMT1NFUFJJQ0UuMjAyNS81LzE5LlVTRAEAAADNOoYAAgAAAAYxMDQuOTQArQ3tcXba3Qi/7yRzdtrdCC1DSVEuTkFTREFRR006Qk9UWi5JUV9DTE9TRVBSSUNFLjIwMjUvNS8xOS5VU0QBAAAA9/0IFgIAAAAFMzAuOTkArQ3tcXba3QikqRpzdtrdCClDSVEuQVJDQTpBUlRZLklRX0NMT1NFUFJJQ0UuMjAyNS81LzE5LlVTRAEAAABuH2khAgAAAAUzNi44MgCtDe1xdtrdCJAjJnN22t0ILUNJUS5OQVNEQVFHTTpST0JULklRX0NMT1NFUFJJQ0UuMjAyNS81LzE5LlVTRAEAAABcY9kgAgAAAAU0NS4wNgCtDe1xdtrdCFAWJ3N22t0IKUNJUS5BUkNBOklHUFQuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMTkuVVNEAQAAAMwCXgECAAAABTQ1LjY1AK0N7XF22t0IP+MQc3ba3QgpQ0lRLkJBVFM6V1RBSS5JUV9DTE9TRVBSSUNFLjIwMjUvNS8xOS5VU0QB</t>
+  </si>
+  <si>
+    <t>AAAAYE5vZAIAAAAEMjIuMgCtDe1xdtrdCAp5EnN22t0IKUNJUS5BUkNBOlRITlEuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMTkuVVNEAQAAAK7DfiQCAAAABzUxLjM1OTYArQ3tcXba3Qj5ZBNzdtrdCC1DSVEuTkFTREFRR006RkRUWC5JUV9DTE9TRVBSSUNFLjIwMjUvNS8xOS5VU0QBAAAAvaWdJgIAAAAFMzUuODYArQ3tcXba3QjSdiFzdtrdCClDSVEuQVJDQTpDSEFULklRX0NMT1NFUFJJQ0UuMjAyNS81LzE5LlVTRAEAAAAAMDVtAgAAAAU0MS43MwCtDe1xdtrdCGZsFXN22t0IKUNJUS5BUkNBOkxPVVAuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMTkuVVNEAQAAAFlcDyICAAAABzUzLjkyMTYArQ3tcXba3Qj9fRZzdtrdCClDSVEuQVJDQTpMUk5aLklRX0NMT1NFUFJJQ0UuMjAyNS81LzE5LlVTRAEAAAC1dsMmAgAAAAU0MC44MwCtDe1xdtrdCJurF3N22t0IKENJUS5BUkNBOkFJUy5JUV9DTE9TRVBSSUNFLjIwMjUvNS8xOS5VU0QBAAAAmJefcAIAAAAHMjQuNTI1OQCtDe1xdtrdCJ8DIHN22t0ILUNJUS5OQVNEQVFHTTpXSVNFLklRX0NMT1NFUFJJQ0UuMjAyNS81LzE5LlVTRAEAAADpsENuAgAAAAUzMi42MgCtDe1xdtrdCKSpGnN22t0IKUNJUS5YVFJBOlhBSVguSVFfQ0xPU0VQUklDRS4yMDI1LzUvMTkuVVNEAQAAADXs4iICAAAADzE0Ny4zOTkyMzQzNzY5MgCtDe1xdtrdCH0qIHN22t0IKENJUS5CSVQ6</t>
+  </si>
+  <si>
+    <t>V1RBSS5JUV9DTE9TRVBSSUNFLjIwMjUvNS8xOS5VU0QBAAAATbpbIwIAAAAONjUuNjI3MTEwOTk3NzkArQ3tcXba3Qj4KCFzdtrdCChDSVEuQVNYOlJCVFouSVFfQ0xPU0VQUklDRS4yMDI1LzUvMTkuVVNEAQAAACntdiICAAAADDguOTE5MzM4MTU3NgCtDe1xdtrdCKS8D3N22t0IJ0NJUS5EQjpYQjBULklRX0NMT1NFUFJJQ0UuMjAyNS81LzE5LlVTRAEAAADTM94pAgAAAA4yMC4wMTgwMTM5NTY3OACtDe1xdtrdCPlkE3N22t0ILENJUS5OQVNEQVFHTTpRUVEuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMTYuVVNEAQAAAA66ewACAAAABjUyMS41MQCtDe1xdtrdCAIXHnN22t0ILUNJUS5OQVNEQVFHTTpBR0lYLklRX0NMT1NFUFJJQ0UuMjAyNS81LzE2LlVTRAEAAAAj9wBwAgAAAAcyOS4zMDU0AK0N7XF22t0IZmwVc3ba3QgsQ0lRLk5BU0RBUUdNOlNNSC5JUV9DTE9TRVBSSUNFLjIwMjUvNS8xNi5VU0QBAAAAYMI2AAIAAAAGMjQ2LjQyAK0N7XF22t0I/X0Wc3ba3QgoQ0lRLkJBVFM6SUdWLklRX0NMT1NFUFJJQ0UuMjAyNS81LzE2LlVTRAEAAADNOoYAAgAAAAYxMDUuMTYArQ3tcXba3QibqxdzdtrdCC1DSVEuTkFTREFRR006Qk9UWi5JUV9DTE9TRVBSSUNFLjIwMjUvNS8xNi5VU0QBAAAA9/0IFgIAAAAGMzEuMjA1AK0N7XF22t0IrhwZc3ba3QgsQ0lRLk5BU0RBUUdNOkFJUS5JUV9DTE9TRVBSSUNFLjIw</t>
+  </si>
+  <si>
+    <t>MjUvNS8xNi5VU0QBAAAA6dxiIQIAAAAFNDAuOTMArQ3tcXba3Qgfrh5zdtrdCC1DSVEuTkFTREFRR006Uk9CVC5JUV9DTE9TRVBSSUNFLjIwMjUvNS8xNi5VU0QBAAAAXGPZIAIAAAAFNDUuMjkArQ3tcXba3QiVTBtzdtrdCClDSVEuQVJDQTpJR1BULklRX0NMT1NFUFJJQ0UuMjAyNS81LzE2LlVTRAEAAADMAl4BAgAAAAU0NS43NQCtDe1xdtrdCLv5HHN22t0IKUNJUS5BUkNBOlRITlEuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMTYuVVNEAQAAAK7DfiQCAAAABjUxLjIyMwCtDe1xdtrdCKS8D3N22t0ILUNJUS5OQVNEQVFHTTpGRFRYLklRX0NMT1NFUFJJQ0UuMjAyNS81LzE2LlVTRAEAAAC9pZ0mAgAAAAczNS44NjYyAK0N7XF22t0IP+MQc3ba3QgpQ0lRLkFSQ0E6Q0hBVC5JUV9DTE9TRVBSSUNFLjIwMjUvNS8xNi5VU0QBAAAAADA1bQIAAAAFNDEuNzEArQ3tcXba3QgKeRJzdtrdCClDSVEuQVJDQTpMT1VQLklRX0NMT1NFUFJJQ0UuMjAyNS81LzE2LlVTRAEAAABZXA8iAgAAAAc1NC4yNDEyAK0N7XF22t0IZmwVc3ba3QgpQ0lRLkFSQ0E6TFJOWi5JUV9DTE9TRVBSSUNFLjIwMjUvNS8xNi5VU0QBAAAAtXbDJgIAAAAHNDAuODg1OACtDe1xdtrdCP19FnN22t0IKENJUS5BUkNBOkFJUy5JUV9DTE9TRVBSSUNFLjIwMjUvNS8xNi5VU0QBAAAAmJefcAIAAAAHMjQuNjEwMwCtDe1xdtrdCJurF3N22t0ILUNJ</t>
+  </si>
+  <si>
+    <t>US5OQVNEQVFHTTpXSVNFLklRX0NMT1NFUFJJQ0UuMjAyNS81LzE2LlVTRAEAAADpsENuAgAAAAUzMy4xNwCtDe1xdtrdCJX1GHN22t0IKENJUS5MU0U6UkJPVC5JUV9DTE9TRVBSSUNFLjIwMjUvNS8xNi5VU0QBAAAAjnskFAIAAAAGMTQuMjE1AK0N7XF22t0IPy0oc3ba3QgpQ0lRLlhUUkE6WEFJWC5JUV9DTE9TRVBSSUNFLjIwMjUvNS8xNi5VU0QBAAAANeziIgIAAAAOMTQ3LjM1MzE3MDY4NDUArQ3tcXba3QgDwSlzdtrdCChDSVEuQklUOldUQUkuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMTYuVVNEAQAAAE26WyMCAAAADTY1Ljk1MzQxNTgzMDUArQ3tcXba3QjIdRpzdtrdCChDSVEuTFNFOkFJQUcuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMTYuVVNEAQAAAPCdgiQCAAAADzIyLjYxMzM2NTE1MjU4NQCtDe1xdtrdCOlUKHN22t0IJ0NJUS5EQjpYQjBULklRX0NMT1NFUFJJQ0UuMjAyNS81LzE2LlVTRAEAAADTM94pAgAAAA4yMC4zMTY1MDUwNzkyNQCtDe1xdtrdCKS8D3N22t0ILENJUS5OQVNEQVFHTTpRUVEuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMTUuVVNEAQAAAA66ewACAAAABjUxOS4yNQCtDe1xdtrdCD/jEHN22t0ILUNJUS5OQVNEQVFHTTpBR0lYLklRX0NMT1NFUFJJQ0UuMjAyNS81LzE1LlVTRAEAAAAj9wBwAgAAAAUyOS4yMQCtDe1xdtrdCAp5EnN22t0ILENJUS5OQVNEQVFHTTpTTUguSVFfQ0xP</t>
+  </si>
+  <si>
+    <t>U0VQUklDRS4yMDI1LzUvMTUuVVNEAQAAAGDCNgACAAAABjI0Ny4xMwCtDe1xdtrdCPlkE3N22t0IKENJUS5CQVRTOklHVi5JUV9DTE9TRVBSSUNFLjIwMjUvNS8xNS5VU0QBAAAAzTqGAAIAAAAFMTA0LjQArQ3tcXba3Qj5+yVzdtrdCC1DSVEuTkFTREFRR006Qk9UWi5JUV9DTE9TRVBSSUNFLjIwMjUvNS8xNS5VU0QBAAAA9/0IFgIAAAAFMzEuMDUArQ3tcXba3QibqxdzdtrdCCxDSVEuTkFTREFRR006QUlRLklRX0NMT1NFUFJJQ0UuMjAyNS81LzE1LlVTRAEAAADp3GIhAgAAAAU0MC44MQCtDe1xdtrdCJX1GHN22t0IKUNJUS5BUkNBOkFSVFkuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMTUuVVNEAQAAAG4faSECAAAABTM2LjgxAK0N7XF22t0Iv+8kc3ba3QgtQ0lRLk5BU0RBUUdNOlJPQlQuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMTUuVVNEAQAAAFxj2SACAAAABDQ1LjEArQ3tcXba3QiQIyZzdtrdCClDSVEuQVJDQTpJR1BULklRX0NMT1NFUFJJQ0UuMjAyNS81LzE1LlVTRAEAAADMAl4BAgAAAAU0NS4yOACtDe1xdtrdCMh1GnN22t0IKUNJUS5BUkNBOlRITlEuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMTUuVVNEAQAAAK7DfiQCAAAABzUwLjk2MTkArQ3tcXba3QhQFidzdtrdCC1DSVEuTkFTREFRR006RkRUWC5JUV9DTE9TRVBSSUNFLjIwMjUvNS8xNS5VU0QBAAAAvaWdJgIAAAAHMzUuODMzNQCtDe1xdtrd</t>
+  </si>
+  <si>
+    <t>CKS8D3N22t0IKUNJUS5BUkNBOkNIQVQuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMTUuVVNEAQAAAAAwNW0CAAAABTQxLjI1AK0N7XF22t0IP+MQc3ba3QgpQ0lRLkFSQ0E6TE9VUC5JUV9DTE9TRVBSSUNFLjIwMjUvNS8xNS5VU0QBAAAAWVwPIgIAAAAHNTQuMDc4NgCtDe1xdtrdCK9jEnN22t0IKUNJUS5BUkNBOkxSTlouSVFfQ0xPU0VQUklDRS4yMDI1LzUvMTUuVVNEAQAAALV2wyYCAAAABzQwLjM4ODYArQ3tcXba3Qj5ZBNzdtrdCChDSVEuQVJDQTpBSVMuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMTUuVVNEAQAAAJiXn3ACAAAABzI0LjQ1OTkArQ3tcXba3QhLmiNzdtrdCC1DSVEuTkFTREFRR006V0lTRS5JUV9DTE9TRVBSSUNFLjIwMjUvNS8xNS5VU0QBAAAA6bBDbgIAAAAFMzIuNzQArQ3tcXba3QhmbBVzdtrdCChDSVEuTFNFOlJCT1QuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMTUuVVNEAQAAAI57JBQCAAAABTE0LjI0AK0N7XF22t0I/X0Wc3ba3QgpQ0lRLlhUUkE6WEFJWC5JUV9DTE9TRVBSSUNFLjIwMjUvNS8xNS5VU0QBAAAANeziIgIAAAAPMTQ3LjExNDA5NDAwNDE2ADVD7XF22t0IfSogc3ba3QgoQ0lRLkJJVDpXVEFJLklRX0NMT1NFUFJJQ0UuMjAyNS81LzE1LlVTRAEAAABNulsjAgAAAA42NS43ODI5OTc3ODI3MwA1Q+1xdtrdCPgoIXN22t0IKENJUS5MU0U6QUlBRy5JUV9DTE9TRVBSSUNFLjIw</t>
+  </si>
+  <si>
+    <t>MjUvNS8xNS5VU0QBAAAA8J2CJAIAAAAOMjIuNDY1MTA1Nzc4NjYANUPtcXba3QjIdRpzdtrdCCdDSVEuREI6WEIwVC5JUV9DTE9TRVBSSUNFLjIwMjUvNS8xNS5VU0QBAAAA0zPeKQIAAAAPMjAuMjk1MzAyMDE5NTUyADVD7XF22t0I0nYhc3ba3QgsQ0lRLk5BU0RBUUdNOlNNSC5JUV9DTE9TRVBSSUNFLjIwMjUvNS8xNC5VU0QBAAAAYMI2AAIAAAAGMjQ3Ljk5ADVD7XF22t0Ir2MSc3ba3QgoQ0lRLkJBVFM6SUdWLklRX0NMT1NFUFJJQ0UuMjAyNS81LzE0LlVTRAEAAADNOoYAAgAAAAUxMDQuOAA1Q+1xdtrdCPlkE3N22t0ILUNJUS5OQVNEQVFHTTpCT1RaLklRX0NMT1NFUFJJQ0UuMjAyNS81LzE0LlVTRAEAAAD3/QgWAgAAAAUzMS4wOQA1Q+1xdtrdCD3cH3N22t0ILENJUS5OQVNEQVFHTTpBSVEuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMTQuVVNEAQAAAOncYiECAAAABTQwLjk5ADVD7XF22t0IZmwVc3ba3QgpQ0lRLkFSQ0E6QVJUWS5JUV9DTE9TRVBSSUNFLjIwMjUvNS8xNC5VU0QBAAAAbh9pIQIAAAAFMzcuMTQANUPtcXba3Qj9fRZzdtrdCC1DSVEuTkFTREFRR006Uk9CVC5JUV9DTE9TRVBSSUNFLjIwMjUvNS8xNC5VU0QBAAAAXGPZIAIAAAAFNDUuMTgANUPtcXba3QibqxdzdtrdCClDSVEuQVJDQTpJR1BULklRX0NMT1NFUFJJQ0UuMjAyNS81LzE0LlVTRAEAAADMAl4BAgAAAAU0NS42NgA1Q+1x</t>
+  </si>
+  <si>
+    <t>dtrdCJX1GHN22t0IKUNJUS5CQVRTOldUQUkuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMTQuVVNEAQAAAGBOb2QCAAAABDIyLjMANUPtcXba3QjIdRpzdtrdCC1DSVEuTkFTREFRR006RkRUWC5JUV9DTE9TRVBSSUNFLjIwMjUvNS8xNC5VU0QBAAAAvaWdJgIAAAAFMzUuOTMANUPtcXba3Qgfrh5zdtrdCClDSVEuQVJDQTpMUk5aLklRX0NMT1NFUFJJQ0UuMjAyNS81LzE0LlVTRAEAAAC1dsMmAgAAAAU0MC42NwA1Q+1xdtrdCJuVD3N22t0IKENJUS5BUkNBOkFJUy5JUV9DTE9TRVBSSUNFLjIwMjUvNS8xNC5VU0QBAAAAmJefcAIAAAAFMjQuNjUANUPtcXba3Qg/4xBzdtrdCC1DSVEuTkFTREFRR006V0lTRS5JUV9DTE9TRVBSSUNFLjIwMjUvNS8xNC5VU0QBAAAA6bBDbgIAAAAFMzMuMTMANUPtcXba3QiVTBtzdtrdCChDSVEuTFNFOlJCT1QuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMTQuVVNEAQAAAI57JBQCAAAABjE0LjI5NQA1Q+1xdtrdCI5CFXN22t0IKUNJUS5YVFJBOlhBSVguSVFfQ0xPU0VQUklDRS4yMDI1LzUvMTQuVVNEAQAAADXs4iICAAAADjE0Ny4wMTQ2NzQ2MjIyADVD7XF22t0IDFcWc3ba3QgoQ0lRLkJJVDpXVEFJLklRX0NMT1NFUFJJQ0UuMjAyNS81LzE0LlVTRAEAAABNulsjAgAAAA02Ni4zODI4ODM0MDUzADVD7XF22t0Im6sXc3ba3QgoQ0lRLkxTRTpBSUFHLklRX0NMT1NFUFJJQ0UuMjAy</t>
+  </si>
+  <si>
+    <t>NS81LzE0LlVTRAEAAADwnYIkAgAAAA4yMi43MzIxMDk2MDQ1NQA1Q+1xdtrdCJX1GHN22t0IKENJUS5BU1g6UkJUWi5JUV9DTE9TRVBSSUNFLjIwMjUvNS8xNC5VU0QBAAAAKe12IgIAAAANOC45MjIxMjQ4MDY0OAA1Q+1xdtrdCLv5HHN22t0IJ0NJUS5EQjpYQjBULklRX0NMT1NFUFJJQ0UuMjAyNS81LzE0LlVTRAEAAADTM94pAgAAAA4yMC40MjU2NzQ5MjQyNwA1Q+1xdtrdCAIXHnN22t0ILENJUS5OQVNEQVFHTTpRUVEuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMTMuVVNEAQAAAA66ewACAAAABjUxNS41OQA1Q+1xdtrdCAPBKXN22t0IKENJUS5CQVRTOklHVi5JUV9DTE9TRVBSSUNFLjIwMjUvNS8xMy5VU0QBAAAAzTqGAAIAAAAGMTA0LjczADVD7XF22t0Im5UPc3ba3QgtQ0lRLk5BU0RBUUdNOkJPVFouSVFfQ0xPU0VQUklDRS4yMDI1LzUvMTMuVVNEAQAAAPf9CBYCAAAABTMxLjAzADVD7XF22t0IP+MQc3ba3QgsQ0lRLk5BU0RBUUdNOkFJUS5JUV9DTE9TRVBSSUNFLjIwMjUvNS8xMy5VU0QBAAAA6dxiIQIAAAAFNDAuNzEANUPtcXba3QivYxJzdtrdCClDSVEuQVJDQTpBUlRZLklRX0NMT1NFUFJJQ0UuMjAyNS81LzEzLlVTRAEAAABuH2khAgAAAAUzNi42NwA1Q+1xdtrdCPlkE3N22t0ILUNJUS5OQVNEQVFHTTpST0JULklRX0NMT1NFUFJJQ0UuMjAyNS81LzEzLlVTRAEAAABcY9kgAgAAAAU0NS4y</t>
+  </si>
+  <si>
+    <t>MgA1Q+1xdtrdCAxXFnN22t0IKUNJUS5BUkNBOklHUFQuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMTMuVVNEAQAAAMwCXgECAAAABDQ1LjMANUPtcXba3QibqxdzdtrdCClDSVEuQkFUUzpXVEFJLklRX0NMT1NFUFJJQ0UuMjAyNS81LzEzLlVTRAEAAABgTm9kAgAAAAUyMi4xMQA1Q+1xdtrdCJX1GHN22t0IKUNJUS5BUkNBOlRITlEuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMTMuVVNEAQAAAK7DfiQCAAAABzUxLjE0MDUANUPtcXba3QhHsydzdtrdCC1DSVEuTkFTREFRR006RkRUWC5JUV9DTE9TRVBSSUNFLjIwMjUvNS8xMy5VU0QBAAAAvaWdJgIAAAAFMzYuMDIANUPtcXba3QikSyNzdtrdCClDSVEuQVJDQTpDSEFULklRX0NMT1NFUFJJQ0UuMjAyNS81LzEzLlVTRAEAAAAAMDVtAgAAAAU0MC45MgA1Q+1xdtrdCMh1GnN22t0IKENJUS5BUkNBOkFJUy5JUV9DTE9TRVBSSUNFLjIwMjUvNS8xMy5VU0QBAAAAmJefcAIAAAAHMjQuNDQ5NwA1Q+1xdtrdCJuVD3N22t0ILUNJUS5OQVNEQVFHTTpXSVNFLklRX0NMT1NFUFJJQ0UuMjAyNS81LzEzLlVTRAEAAADpsENuAgAAAAUzMy4yMwA1Q+1xdtrdCD/jEHN22t0IKENJUS5MU0U6UkJPVC5JUV9DTE9TRVBSSUNFLjIwMjUvNS8xMy5VU0QBAAAAjnskFAIAAAAGMTQuMzA1ADVD7XF22t0Ir2MSc3ba3QgpQ0lRLlhUUkE6WEFJWC5JUV9DTE9TRVBSSUNFLjIwMjUvNS8x</t>
+  </si>
+  <si>
+    <t>My5VU0QBAAAANeziIgIAAAAPMTQ2LjEyMjkwNTA2MDA4ADVD7XF22t0IHFATc3ba3QgoQ0lRLkJJVDpXVEFJLklRX0NMT1NFUFJJQ0UuMjAyNS81LzEzLlVTRAEAAABNulsjAgAAAA42NS45MTA2MTQ1Mzk2NAA1Q+1xdtrdCOlUKHN22t0IKENJUS5MU0U6QUlBRy5JUV9DTE9TRVBSSUNFLjIwMjUvNS8xMy5VU0QBAAAA8J2CJAIAAAAPMjIuNTQyMzU0ODgxMjI4ADVD7XF22t0IjkIVc3ba3QgoQ0lRLkFTWDpSQlRaLklRX0NMT1NFUFJJQ0UuMjAyNS81LzEzLlVTRAEAAAAp7XYiAgAAAA04Ljg4NTg3MzA4MTI1ADVD7XF22t0IlfUYc3ba3QgnQ0lRLkRCOlhCMFQuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMTMuVVNEAQAAANMz3ikCAAAADzIwLjE1NDE4OTk0ODU2OAA1Q+1xdtrdCL/vJHN22t0ILENJUS5OQVNEQVFHTTpRUVEuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMTIuVVNEAQAAAA66ewACAAAABjUwNy44NQA1Q+1xdtrdCJAjJnN22t0ILUNJUS5OQVNEQVFHTTpBR0lYLklRX0NMT1NFUFJJQ0UuMjAyNS81LzEyLlVTRAEAAAAj9wBwAgAAAAYyOC40MDUANUPtcXba3QjIdRpzdtrdCChDSVEuQkFUUzpJR1YuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMTIuVVNEAQAAAM06hgACAAAABjEwMi43OAA1Q+1xdtrdCFAWJ3N22t0ILENJUS5OQVNEQVFHTTpBSVEuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMTIuVVNEAQAAAOnc</t>
+  </si>
+  <si>
+    <t>YiECAAAABTM5LjkyADVD7XF22t0IP+MQc3ba3QgpQ0lRLkFSQ0E6QVJUWS5JUV9DTE9TRVBSSUNFLjIwMjUvNS8xMi5VU0QBAAAAbh9pIQIAAAAFMzUuNzYANUPtcXba3QivYxJzdtrdCC1DSVEuTkFTREFRR006Uk9CVC5JUV9DTE9TRVBSSUNFLjIwMjUvNS8xMi5VU0QBAAAAXGPZIAIAAAAFNDQuNTMANUPtcXba3QgcUBNzdtrdCClDSVEuQVJDQTpJR1BULklRX0NMT1NFUFJJQ0UuMjAyNS81LzEyLlVTRAEAAADMAl4BAgAAAAU0NC4zNgA1Q+1xdtrdCBqFI3N22t0IKUNJUS5CQVRTOldUQUkuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMTIuVVNEAQAAAGBOb2QCAAAABTIxLjU4ADVD7XF22t0IjkIVc3ba3QgpQ0lRLkFSQ0E6VEhOUS5JUV9DTE9TRVBSSUNFLjIwMjUvNS8xMi5VU0QBAAAArsN+JAIAAAAFNDkuODgANUPtcXba3QgMVxZzdtrdCC1DSVEuTkFTREFRR006RkRUWC5JUV9DTE9TRVBSSUNFLjIwMjUvNS8xMi5VU0QBAAAAvaWdJgIAAAAFMzUuMTIANUPtcXba3QibqxdzdtrdCClDSVEuQVJDQTpDSEFULklRX0NMT1NFUFJJQ0UuMjAyNS81LzEyLlVTRAEAAAAAMDVtAgAAAAUzOS43NQA1Q+1xdtrdCPgoIXN22t0IKUNJUS5BUkNBOkxPVVAuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMTIuVVNEAQAAAFlcDyICAAAABzUyLjg4NDIANUPtcXba3QjIdRpzdtrdCChDSVEuQVJDQTpBSVMuSVFfQ0xPU0VQUklD</t>
+  </si>
+  <si>
+    <t>RS4yMDI1LzUvMTIuVVNEAQAAAJiXn3ACAAAABzIzLjY1MDgANUPtcXba3QjSdiFzdtrdCClDSVEuWFRSQTpYQUlYLklRX0NMT1NFUFJJQ0UuMjAyNS81LzEyLlVTRAEAAAA17OIiAgAAAA8xNDMuMTMzNTQ4Mjc0MzIANUPtcXba3QiblQ9zdtrdCChDSVEuQklUOldUQUkuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMTIuVVNEAQAAAE26WyMCAAAADjY0LjExNjUzNTA2NDQ2ADVD7XF22t0IHFATc3ba3QgoQ0lRLkxTRTpBSUFHLklRX0NMT1NFUFJJQ0UuMjAyNS81LzEyLlVTRAEAAADwnYIkAgAAAA8yMS43NzczMjU2ODk1MjUANUPtcXba3Qg93B9zdtrdCChDSVEuQVNYOlJCVFouSVFfQ0xPU0VQUklDRS4yMDI1LzUvMTIuVVNEAQAAACntdiICAAAADTguNTEwMjMxNDAxOTUANUPtcXba3QiOQhVzdtrdCCdDSVEuREI6WEIwVC5JUV9DTE9TRVBSSUNFLjIwMjUvNS8xMi5VU0QBAAAA0zPeKQIAAAAPMjAuMjEzNDk5MzgyNjE4ADVD7XF22t0IDFcWc3ba3QgrQ0lRLk5BU0RBUUdNOlFRUS5JUV9DTE9TRVBSSUNFLjIwMjUvNS85LlVTRAEAAAAOunsAAgAAAAY0ODcuOTcANUPtcXba3Qi3hBdzdtrdCCxDSVEuTkFTREFRR006QUdJWC5JUV9DTE9TRVBSSUNFLjIwMjUvNS85LlVTRAEAAAAj9wBwAgAAAAcyNi45ODk1ADVD7XF22t0IlfUYc3ba3QgrQ0lRLk5BU0RBUUdNOlNNSC5JUV9DTE9TRVBSSUNFLjIwMjUvNS85</t>
+  </si>
+  <si>
+    <t>LlVTRAEAAABgwjYAAgAAAAUyMjMuNAA1Q+1xdtrdCH0qIHN22t0ILENJUS5OQVNEQVFHTTpCT1RaLklRX0NMT1NFUFJJQ0UuMjAyNS81LzkuVVNEAQAAAPf9CBYCAAAABTI5LjM0ADVD7XF22t0IH64ec3ba3QgsQ0lRLk5BU0RBUUdNOlJPQlQuSVFfQ0xPU0VQUklDRS4yMDI1LzUvOS5VU0QBAAAAXGPZIAIAAAAFNDIuOTcANUPtcXba3QiblQ9zdtrdCChDSVEuQVJDQTpJR1BULklRX0NMT1NFUFJJQ0UuMjAyNS81LzkuVVNEAQAAAMwCXgECAAAABTQyLjQ4ADVD7XF22t0IP+MQc3ba3QgoQ0lRLkJBVFM6V1RBSS5JUV9DTE9TRVBSSUNFLjIwMjUvNS85LlVTRAEAAABgTm9kAgAAAAUyMC41OAA1Q+1xdtrdCK9jEnN22t0IKENJUS5BUkNBOlRITlEuSVFfQ0xPU0VQUklDRS4yMDI1LzUvOS5VU0QBAAAArsN+JAIAAAAFNDcuMjUANUPtcXba3QiOQhVzdtrdCCxDSVEuTkFTREFRR006RkRUWC5JUV9DTE9TRVBSSUNFLjIwMjUvNS85LlVTRAEAAAC9pZ0mAgAAAAUzMy43NwA1Q+1xdtrdCAxXFnN22t0IKENJUS5BUkNBOkNIQVQuSVFfQ0xPU0VQUklDRS4yMDI1LzUvOS5VU0QBAAAAADA1bQIAAAAHMzcuNTU1OAA1Q+1xdtrdCLeEF3N22t0IKENJUS5BUkNBOkxPVVAuSVFfQ0xPU0VQUklDRS4yMDI1LzUvOS5VU0QBAAAAWVwPIgIAAAAHNTAuMzk1NgA1Q+1xdtrdCJX1GHN22t0IKENJUS5BUkNBOkxSTlouSVFf</t>
+  </si>
+  <si>
+    <t>Q0xPU0VQUklDRS4yMDI1LzUvOS5VU0QBAAAAtXbDJgIAAAAHMzcuNzE2MwA1Q+1xdtrdCLv5HHN22t0IJ0NJUS5BUkNBOkFJUy5JUV9DTE9TRVBSSUNFLjIwMjUvNS85LlVTRAEAAACYl59wAgAAAAcyMi42MjUzADVD7XF22t0IAhcec3ba3QgsQ0lRLk5BU0RBUUdNOldJU0UuSVFfQ0xPU0VQUklDRS4yMDI1LzUvOS5VU0QBAAAA6bBDbgIAAAAFMzAuODUAq2ztcXba3QjIdRpzdtrdCCdDSVEuQklUOldUQUkuSVFfQ0xPU0VQUklDRS4yMDI1LzUvOS5VU0QBAAAATbpbIwIAAAAONjEuNjYwNjU3OTY3ODcAq2ztcXba3QiblQ9zdtrdCCdDSVEuTFNFOkFJQUcuSVFfQ0xPU0VQUklDRS4yMDI1LzUvOS5VU0QBAAAA8J2CJAIAAAAPMjAuODU3OTMzMDgxNzQ0AKts7XF22t0I+rQQc3ba3QgnQ0lRLkFTWDpSQlRaLklRX0NMT1NFUFJJQ0UuMjAyNS81LzkuVVNEAQAAACntdiICAAAADTguNDk2NDM4NDMwNjgAq2ztcXba3QieThJzdtrdCCZDSVEuREI6WEIwVC5JUV9DTE9TRVBSSUNFLjIwMjUvNS85LlVTRAEAAADTM94pAgAAAA8xOS4zMzk3OTI3MDM3NTQAq2ztcXba3QgcUBNzdtrdCCtDSVEuTkFTREFRR006UVFRLklRX0NMT1NFUFJJQ0UuMjAyNS81LzguVVNEAQAAAA66ewACAAAABjQ4OC4yOQCrbO1xdtrdCJVMG3N22t0ILENJUS5OQVNEQVFHTTpBR0lYLklRX0NMT1NFUFJJQ0UuMjAyNS81LzguVVNEAQAA</t>
+  </si>
+  <si>
+    <t>ACP3AHACAAAABDI3LjEAq2ztcXba3Qi3hBdzdtrdCCtDSVEuTkFTREFRR006U01ILklRX0NMT1NFUFJJQ0UuMjAyNS81LzguVVNEAQAAAGDCNgACAAAABjIyMS45NQCrbO1xdtrdCJX1GHN22t0IJ0NJUS5CQVRTOklHVi5JUV9DTE9TRVBSSUNFLjIwMjUvNS84LlVTRAEAAADNOoYAAgAAAAYxMDAuNDEAq2ztcXba3QiY/SJzdtrdCCxDSVEuTkFTREFRR006Qk9UWi5JUV9DTE9TRVBSSUNFLjIwMjUvNS84LlVTRAEAAAD3/QgWAgAAAAUyOS40OQCrbO1xdtrdCCmwJHN22t0IK0NJUS5OQVNEQVFHTTpBSVEuSVFfQ0xPU0VQUklDRS4yMDI1LzUvOC5VU0QBAAAA6dxiIQIAAAAFMzguMzEAq2ztcXba3QjIdRpzdtrdCCxDSVEuTkFTREFRR006Uk9CVC5JUV9DTE9TRVBSSUNFLjIwMjUvNS84LlVTRAEAAABcY9kgAgAAAAU0My4xMgCrbO1xdtrdCAPBKXN22t0IKENJUS5BUkNBOklHUFQuSVFfQ0xPU0VQUklDRS4yMDI1LzUvOC5VU0QBAAAAzAJeAQIAAAAENDIuNQCrbO1xdtrdCJuVD3N22t0IKENJUS5CQVRTOldUQUkuSVFfQ0xPU0VQUklDRS4yMDI1LzUvOC5VU0QBAAAAYE5vZAIAAAAFMjAuNjEAq2ztcXba3Qj6tBBzdtrdCChDSVEuQVJDQTpUSE5RLklRX0NMT1NFUFJJQ0UuMjAyNS81LzguVVNEAQAAAK7DfiQCAAAABTQ3LjM3AKts7XF22t0Ink4Sc3ba3QgsQ0lRLk5BU0RBUUdNOkZEVFguSVFfQ0xPU0VQ</t>
+  </si>
+  <si>
+    <t>UklDRS4yMDI1LzUvOC5VU0QBAAAAvaWdJgIAAAAEMzMuOQCrbO1xdtrdCBxQE3N22t0IKENJUS5BUkNBOkNIQVQuSVFfQ0xPU0VQUklDRS4yMDI1LzUvOC5VU0QBAAAAADA1bQIAAAAFMzcuNzUAq2ztcXba3QjpVChzdtrdCChDSVEuQVJDQTpMT1VQLklRX0NMT1NFUFJJQ0UuMjAyNS81LzguVVNEAQAAAFlcDyICAAAABzUxLjA5MDEAq2ztcXba3QiOQhVzdtrdCChDSVEuQVJDQTpMUk5aLklRX0NMT1NFUFJJQ0UuMjAyNS81LzguVVNEAQAAALV2wyYCAAAABzM3Ljk3MDkAq2ztcXba3QgMVxZzdtrdCCdDSVEuQVJDQTpBSVMuSVFfQ0xPU0VQUklDRS4yMDI1LzUvOC5VU0QBAAAAmJefcAIAAAAHMjIuNzIxNQCrbO1xdtrdCMh1GnN22t0IK0NJUS5OQVNEQVFHTTpRUVEuSVFfQ0xPU0VQUklDRS4yMDI1LzUvNy5VU0QBAAAADrp7AAIAAAAFNDgzLjMAq2ztcXba3QiOQhVzdtrdCCxDSVEuTkFTREFRR006QUdJWC5JUV9DTE9TRVBSSUNFLjIwMjUvNS83LlVTRAEAAAAj9wBwAgAAAAUyNi4zNQCrbO1xdtrdCAxXFnN22t0IJ0NJUS5CQVRTOklHVi5JUV9DTE9TRVBSSUNFLjIwMjUvNS83LlVTRAEAAADNOoYAAgAAAAU5OC43OACrbO1xdtrdCJX1GHN22t0ILENJUS5OQVNEQVFHTTpCT1RaLklRX0NMT1NFUFJJQ0UuMjAyNS81LzcuVVNEAQAAAPf9CBYCAAAABTI5LjEyAKts7XF22t0IkCMmc3ba3QgrQ0lRLk5B</t>
+  </si>
+  <si>
+    <t>U0RBUUdNOkFJUS5JUV9DTE9TRVBSSUNFLjIwMjUvNS83LlVTRAEAAADp3GIhAgAAAAUzNy44OQCrbO1xdtrdCNa4GXN22t0ILENJUS5OQVNEQVFHTTpST0JULklRX0NMT1NFUFJJQ0UuMjAyNS81LzcuVVNEAQAAAFxj2SACAAAABTQyLjMyAKts7XF22t0Im5UPc3ba3QgoQ0lRLkJBVFM6V1RBSS5JUV9DTE9TRVBSSUNFLjIwMjUvNS83LlVTRAEAAABgTm9kAgAAAAUyMC4xOACrbO1xdtrdCPq0EHN22t0IKENJUS5BUkNBOkNIQVQuSVFfQ0xPU0VQUklDRS4yMDI1LzUvNy5VU0QBAAAAADA1bQIAAAAHMzcuMjU0NwCrbO1xdtrdCBxQE3N22t0IKENJUS5BUkNBOkxPVVAuSVFfQ0xPU0VQUklDRS4yMDI1LzUvNy5VU0QBAAAAWVwPIgIAAAAHNDkuNTY5NwCrbO1xdtrdCJzOGHN22t0IKENJUS5BUkNBOkxSTlouSVFfQ0xPU0VQUklDRS4yMDI1LzUvNy5VU0QBAAAAtXbDJgIAAAAHMzcuNTUzNgCrbO1xdtrdCCBQIXN22t0IJ0NJUS5BUkNBOkFJUy5JUV9DTE9TRVBSSUNFLjIwMjUvNS83LlVTRAEAAACYl59wAgAAAAcyMi40NTM4AKts7XF22t0I1rgZc3ba3QgsQ0lRLk5BU0RBUUdNOldJU0UuSVFfQ0xPU0VQUklDRS4yMDI1LzUvNy5VU0QBAAAA6bBDbgIAAAAFMzAuMjYAq2ztcXba3QjIdRpzdtrdCChDSVEuWFRSQTpYQUlYLklRX0NMT1NFUFJJQ0UuMjAyNS81LzcuVVNEAQAAADXs4iICAAAADjEzNy40MTkx</t>
+  </si>
+  <si>
+    <t>MzUxNTE0AKts7XF22t0IGoUjc3ba3QgnQ0lRLkFTWDpSQlRaLklRX0NMT1NFUFJJQ0UuMjAyNS81LzcuVVNEAQAAACntdiICAAAADTguMzU3MDEzNjg1OTQAq2ztcXba3QjyOhNzdtrdCCxDSVEuTkFTREFRR006QUdJWC5JUV9DTE9TRVBSSUNFLjIwMjUvNS82LlVTRAEAAAAj9wBwAgAAAAUyNi4zOQCrbO1xdtrdCI5CFXN22t0IK0NJUS5OQVNEQVFHTTpTTUguSVFfQ0xPU0VQUklDRS4yMDI1LzUvNi5VU0QBAAAAYMI2AAIAAAAGMjE1LjU5AKts7XF22t0IDFcWc3ba3QgnQ0lRLkJBVFM6SUdWLklRX0NMT1NFUFJJQ0UuMjAyNS81LzYuVVNEAQAAAM06hgACAAAABTk3Ljk2AKts7XF22t0It4QXc3ba3QgoQ0lRLkFSQ0E6SUdQVC5JUV9DTE9TRVBSSUNFLjIwMjUvNS82LlVTRAEAAADMAl4BAgAAAAU0MS44OACrbO1xdtrdCJuVD3N22t0IKENJUS5BUkNBOlRITlEuSVFfQ0xPU0VQUklDRS4yMDI1LzUvNi5VU0QBAAAArsN+JAIAAAAFNDUuOTMAq2ztcXba3QieThJzdtrdCChDSVEuQVJDQTpDSEFULklRX0NMT1NFUFJJQ0UuMjAyNS81LzYuVVNEAQAAAAAwNW0CAAAABzM3LjQ4MTEAq2ztcXba3QgMVxZzdtrdCChDSVEuQVJDQTpMT1VQLklRX0NMT1NFUFJJQ0UuMjAyNS81LzYuVVNEAQAAAFlcDyICAAAABzQ5LjY2NjgAq2ztcXba3Qi3hBdzdtrdCChDSVEuQVJDQTpMUk5aLklRX0NMT1NFUFJJQ0UuMjAy</t>
+  </si>
+  <si>
+    <t>NS81LzYuVVNEAQAAALV2wyYCAAAABzM3LjQwMjMAq2ztcXba3QiczhhzdtrdCCdDSVEuQVJDQTpBSVMuSVFfQ0xPU0VQUklDRS4yMDI1LzUvNi5VU0QBAAAAmJefcAIAAAAHMjIuNDc4MQCrbO1xdtrdCD3cH3N22t0ILENJUS5OQVNEQVFHTTpXSVNFLklRX0NMT1NFUFJJQ0UuMjAyNS81LzYuVVNEAQAAAOmwQ24CAAAABTMwLjI1AKts7XF22t0I1rgZc3ba3QgoQ0lRLlhUUkE6WEFJWC5JUV9DTE9TRVBSSUNFLjIwMjUvNS82LlVTRAEAAAA17OIiAgAAAA0xMzguMjIwNjA4Mjg4AKts7XF22t0Im5UPc3ba3QgnQ0lRLkJJVDpXVEFJLklRX0NMT1NFUFJJQ0UuMjAyNS81LzYuVVNEAQAAAE26WyMCAAAADTYwLjI3MDA4NjI1NzYAq2ztcXba3Qj6tBBzdtrdCCdDSVEuTFNFOkFJQUcuSVFfQ0xPU0VQUklDRS4yMDI1LzUvNi5VU0QBAAAA8J2CJAIAAAAPMjAuNDM4MjU4NzIzNzE3AKts7XF22t0Ink4Sc3ba3QgmQ0lRLkRCOlhCMFQuSVFfQ0xPU0VQUklDRS4yMDI1LzUvNi5VU0QBAAAA0zPeKQIAAAAOMTkuMjA3ODk4MzI0MTYAq2ztcXba3Qgfrh5zdtrdCCxDSVEuTkFTREFRR006QUdJWC5JUV9DTE9TRVBSSUNFLjIwMjUvNS81LlVTRAEAAAAj9wBwAgAAAAUyNi43MgCrbO1xdtrdCI5CFXN22t0ILENJUS5OQVNEQVFHTTpCT1RaLklRX0NMT1NFUFJJQ0UuMjAyNS81LzUuVVNEAQAAAPf9CBYCAAAABTI5LjI3</t>
+  </si>
+  <si>
+    <t>AKts7XF22t0IyHUac3ba3QgoQ0lRLkJBVFM6V1RBSS5JUV9DTE9TRVBSSUNFLjIwMjUvNS81LlVTRAEAAABgTm9kAgAAAAUyMC40MQCrbO1xdtrdCJVMG3N22t0IKENJUS5BUkNBOlRITlEuSVFfQ0xPU0VQUklDRS4yMDI1LzUvNS5VU0QBAAAArsN+JAIAAAAFNDYuNTQAq2ztcXba3QiOQhVzdtrdCCxDSVEuTkFTREFRR006RkRUWC5JUV9DTE9TRVBSSUNFLjIwMjUvNS81LlVTRAEAAAC9pZ0mAgAAAAQzMy41AKts7XF22t0IDFcWc3ba3QgoQ0lRLkFSQ0E6TE9VUC5JUV9DTE9TRVBSSUNFLjIwMjUvNS81LlVTRAEAAABZXA8iAgAAAAc0OS44MDc0AKts7XF22t0It4QXc3ba3QgmQ0lRLkRCOlhCMFQuSVFfQ0xPU0VQUklDRS4yMDI1LzUvNS5VU0QBAAAA0zPeKQIAAAAPMTkuMjAwMTgxMjY0OTg4AL2T7XF22t0I8joTc3ba3QgrQ0lRLk5BU0RBUUdNOlFRUS5JUV9DTE9TRVBSSUNFLjIwMjUvNS8yLlVTRAEAAAAOunsAAgAAAAY0ODguODMAvZPtcXba3QgBcylzdtrdCCtDSVEuTkFTREFRR006U01ILklRX0NMT1NFUFJJQ0UuMjAyNS81LzIuVVNEAQAAAGDCNgACAAAABjIxOS4wMwC9k+1xdtrdCNa4GXN22t0IKENJUS5BUkNBOkFSVFkuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMi5VU0QBAAAAbh9pIQIAAAAFMzMuOTUAvZPtcXba3QjjmSlzdtrdCCxDSVEuTkFTREFRR006Uk9CVC5JUV9DTE9TRVBSSUNFLjIw</t>
+  </si>
+  <si>
+    <t>MjUvNS8yLlVTRAEAAABcY9kgAgAAAAU0Mi41NwC9k+1xdtrdCPI6E3N22t0IKENJUS5BUkNBOklHUFQuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMi5VU0QBAAAAzAJeAQIAAAAFNDEuOTkAvZPtcXba3QihmiRzdtrdCCxDSVEuTkFTREFRR006RkRUWC5JUV9DTE9TRVBSSUNFLjIwMjUvNS8yLlVTRAEAAAC9pZ0mAgAAAAUzMy43MQC9k+1xdtrdCBEwFnN22t0IKENJUS5BUkNBOkNIQVQuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMi5VU0QBAAAAADA1bQIAAAAFMzcuNzcAvZPtcXba3Qi3hBdzdtrdCChDSVEuQVJDQTpMUk5aLklRX0NMT1NFUFJJQ0UuMjAyNS81LzIuVVNEAQAAALV2wyYCAAAABzM3Ljc5NjQAvZPtcXba3QjpVChzdtrdCCdDSVEuQklUOldUQUkuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMi5VU0QBAAAATbpbIwIAAAANNjAuODY4NTc5MjA4OAC9k+1xdtrdCPq0EHN22t0IJ0NJUS5MU0U6QUlBRy5JUV9DTE9TRVBSSUNFLjIwMjUvNS8yLlVTRAEAAADwnYIkAgAAAA4yMC40NjgyMzI3NTM2NgC9k+1xdtrdCOA3EnN22t0IK0NJUS5OQVNEQVFHTTpRUVEuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMS5VU0QBAAAADrp7AAIAAAAGNDgxLjY4AL2T7XF22t0Ile4mc3ba3QgsQ0lRLk5BU0RBUUdNOkFHSVguSVFfQ0xPU0VQUklDRS4yMDI1LzUvMS5VU0QBAAAAI/cAcAIAAAAFMjUuOTcAvZPtcXba3QjWuBlzdtrd</t>
+  </si>
+  <si>
+    <t>CCtDSVEuTkFTREFRR006QUlRLklRX0NMT1NFUFJJQ0UuMjAyNS81LzEuVVNEAQAAAOncYiECAAAABTM3LjE3AL2T7XF22t0I+rQQc3ba3QgsQ0lRLk5BU0RBUUdNOlJPQlQuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMS5VU0QBAAAAXGPZIAIAAAAFNDEuNjgAvZPtcXba3QjyOhNzdtrdCChDSVEuQVJDQTpJR1BULklRX0NMT1NFUFJJQ0UuMjAyNS81LzEuVVNEAQAAAMwCXgECAAAABTQwLjkxAL2T7XF22t0IkCMmc3ba3QgoQ0lRLkJBVFM6V1RBSS5JUV9DTE9TRVBSSUNFLjIwMjUvNS8xLlVTRAEAAABgTm9kAgAAAAUxOS44NwC9k+1xdtrdCCIRFXN22t0IJ0NJUS5MU0U6QUlBRy5JUV9DTE9TRVBSSUNFLjIwMjUvNS8xLlVTRAEAAADwnYIkAgAAAA8yMC4yNDE4NjA0NTc3MjgAvZPtcXba3Qi3hBdzdtrdCCdDSVEuQVNYOlJCVFouSVFfQ0xPU0VQUklDRS4yMDI1LzUvMS5VU0QBAAAAKe12IgIAAAANOC4yNTg4MTQ1MDkyMgC9k+1xdtrdCJzOGHN22t0IKENJUS5CQVRTOklHVi5JUV9DTE9TRVBSSUNFLjIwMjUvNC8zMC5VU0QBAAAAzTqGAAIAAAAFOTYuMDcAvZPtcXba3Qj6tBBzdtrdCC1DSVEuTkFTREFRR006Qk9UWi5JUV9DTE9TRVBSSUNFLjIwMjUvNC8zMC5VU0QBAAAA9/0IFgIAAAAFMjguNTYAvZPtcXba3QjgNxJzdtrdCClDSVEuQVJDQTpBUlRZLklRX0NMT1NFUFJJQ0UuMjAyNS80LzMwLlVTRAEA</t>
+  </si>
+  <si>
+    <t>AABuH2khAgAAAAUzMi4zNgC9k+1xdtrdCLslE3N22t0IKUNJUS5CQVRTOldUQUkuSVFfQ0xPU0VQUklDRS4yMDI1LzQvMzAuVVNEAQAAAGBOb2QCAAAABTE5LjY0AL2T7XF22t0IIhEVc3ba3QgpQ0lRLkFSQ0E6VEhOUS5JUV9DTE9TRVBSSUNFLjIwMjUvNC8zMC5VU0QBAAAArsN+JAIAAAAFNDQuOTcAvZPtcXba3QhJQhpzdtrdCClDSVEuWFRSQTpYQUlYLklRX0NMT1NFUFJJQ0UuMjAyNS80LzMwLlVTRAEAAAA17OIiAgAAAA4xMzMuNjUxMDA5Nzk0NgC9k+1xdtrdCBEwFnN22t0IKENJUS5BU1g6UkJUWi5JUV9DTE9TRVBSSUNFLjIwMjUvNC8zMC5VU0QBAAAAKe12IgIAAAANOC4xNjM3ODc1OTQxNgC9k+1xdtrdCJzOGHN22t0IJ0NJUS5EQjpYQjBULklRX0NMT1NFUFJJQ0UuMjAyNS80LzMwLlVTRAEAAADTM94pAgAAAA8xOC43MTU2Nzk2MDU4NzIAvZPtcXba3QggUCFzdtrdCCxDSVEuTkFTREFRR006UVFRLklRX0NMT1NFUFJJQ0UuMjAyNS80LzI5LlVTRAEAAAAOunsAAgAAAAY0NzUuNTMAvZPtcXba3QjWuBlzdtrdCC1DSVEuTkFTREFRR006Qk9UWi5JUV9DTE9TRVBSSUNFLjIwMjUvNC8yOS5VU0QBAAAA9/0IFgIAAAAFMjguNjQAvZPtcXba3QjgNxJzdtrdCCxDSVEuTkFTREFRR006QUlRLklRX0NMT1NFUFJJQ0UuMjAyNS80LzI5LlVTRAEAAADp3GIhAgAAAAUzNi45NQC9k+1xdtrdCLslE3N2</t>
+  </si>
+  <si>
+    <t>2t0ILUNJUS5OQVNEQVFHTTpST0JULklRX0NMT1NFUFJJQ0UuMjAyNS80LzI5LlVTRAEAAABcY9kgAgAAAAU0MS43MgC9uu1xdtrdCCIRFXN22t0IKUNJUS5CQVRTOldUQUkuSVFfQ0xPU0VQUklDRS4yMDI1LzQvMjkuVVNEAQAAAGBOb2QCAAAABjE5LjY3NQC9uu1xdtrdCNa4GXN22t0IKUNJUS5BUkNBOlRITlEuSVFfQ0xPU0VQUklDRS4yMDI1LzQvMjkuVVNEAQAAAK7DfiQCAAAAAjQ1AL267XF22t0ISUIac3ba3QgoQ0lRLkxTRTpSQk9ULklRX0NMT1NFUFJJQ0UuMjAyNS80LzI5LlVTRAEAAACOeyQUAgAAAAUxMy4xMQC9uu1xdtrdCBEwFnN22t0IKENJUS5CSVQ6V1RBSS5JUV9DTE9TRVBSSUNFLjIwMjUvNC8yOS5VU0QBAAAATbpbIwIAAAANNTguODM0OTI5MzE2OAC9uu1xdtrdCJzOGHN22t0IKENJUS5BU1g6UkJUWi5JUV9DTE9TRVBSSUNFLjIwMjUvNC8yOS5VU0QBAAAAKe12IgIAAAANOC4yMDQ0NzI4NDYyNAC9uu1xdtrdCH0qIHN22t0ILUNJUS5OQVNEQVFHTTpBR0lYLklRX0NMT1NFUFJJQ0UuMjAyNS80LzI4LlVTRAEAAAAj9wBwAgAAAAcyNS41OTMxAL267XF22t0Im24Pc3ba3QgsQ0lRLk5BU0RBUUdNOlNNSC5JUV9DTE9TRVBSSUNFLjIwMjUvNC8yOC5VU0QBAAAAYMI2AAIAAAAGMjEwLjY1AL267XF22t0I+rQQc3ba3QgpQ0lRLkFSQ0E6QVJUWS5JUV9DTE9TRVBSSUNFLjIwMjUvNC8y</t>
+  </si>
+  <si>
+    <t>OC5VU0QBAAAAbh9pIQIAAAAFMzIuNDEAvbrtcXba3Qgfrh5zdtrdCC1DSVEuTkFTREFRR006Uk9CVC5JUV9DTE9TRVBSSUNFLjIwMjUvNC8yOC5VU0QBAAAAXGPZIAIAAAAFNDEuNDYAvbrtcXba3Qi+kRlzdtrdCClDSVEuQVJDQTpJR1BULklRX0NMT1NFUFJJQ0UuMjAyNS80LzI4LlVTRAEAAADMAl4BAgAAAAU0MC41OAC9uu1xdtrdCElCGnN22t0IKUNJUS5BUkNBOkxPVVAuSVFfQ0xPU0VQUklDRS4yMDI1LzQvMjguVVNEAQAAAFlcDyICAAAABjQ4LjE5MgC9uu1xdtrdCLslE3N22t0IKUNJUS5BUkNBOkxSTlouSVFfQ0xPU0VQUklDRS4yMDI1LzQvMjguVVNEAQAAALV2wyYCAAAABzM2LjY2NDkAvbrtcXba3QgCFx5zdtrdCChDSVEuQklUOldUQUkuSVFfQ0xPU0VQUklDRS4yMDI1LzQvMjguVVNEAQAAAE26WyMCAAAADjU4LjQwMjU0ODY1NTc3AL267XF22t0InM4Yc3ba3QgoQ0lRLkJBVFM6SUdWLklRX0NMT1NFUFJJQ0UuMjAyNS80LzI1LlVTRAEAAADNOoYAAgAAAAU5NC43NgC9uu1xdtrdCOA3EnN22t0ILUNJUS5OQVNEQVFHTTpCT1RaLklRX0NMT1NFUFJJQ0UuMjAyNS80LzI1LlVTRAEAAAD3/QgWAgAAAAUyOC41OQC9uu1xdtrdCJzOGHN22t0ILENJUS5OQVNEQVFHTTpBSVEuSVFfQ0xPU0VQUklDRS4yMDI1LzQvMjUuVVNEAQAAAOncYiECAAAABTM2Ljc3AL267XF22t0Iu/kcc3ba3QgpQ0lR</t>
+  </si>
+  <si>
+    <t>LkFSQ0E6SUdQVC5JUV9DTE9TRVBSSUNFLjIwMjUvNC8yNS5VU0QBAAAAzAJeAQIAAAAFNDAuNzUAvbrtcXba3QhJQhpzdtrdCC1DSVEuTkFTREFRR006RkRUWC5JUV9DTE9TRVBSSUNFLjIwMjUvNC8yNS5VU0QBAAAAvaWdJgIAAAAFMzIuMjIAvbrtcXba3Qi7JRNzdtrdCChDSVEuQVJDQTpBSVMuSVFfQ0xPU0VQUklDRS4yMDI1LzQvMjUuVVNEAQAAAJiXn3ACAAAABzIxLjI4ODIAvbrtcXba3QgRMBZzdtrdCChDSVEuTFNFOlJCT1QuSVFfQ0xPU0VQUklDRS4yMDI1LzQvMjUuVVNEAQAAAI57JBQCAAAABTEzLjAxAL267XF22t0IlF0Xc3ba3QgoQ0lRLkFTWDpSQlRaLklRX0NMT1NFUFJJQ0UuMjAyNS80LzI1LlVTRAEAAAAp7XYiAwAAAAAAvbrtcXba3Qibbg9zdtrdCCxDSVEuTkFTREFRR006UVFRLklRX0NMT1NFUFJJQ0UuMjAyNS80LzI0LlVTRAEAAAAOunsAAgAAAAY0NjcuMzUA2eHtcXba3Qg3ERJzdtrdCCxDSVEuTkFTREFRR006U01ILklRX0NMT1NFUFJJQ0UuMjAyNS80LzI0LlVTRAEAAABgwjYAAgAAAAYyMDguOTcA2eHtcXba3QiczhhzdtrdCC1DSVEuTkFTREFRR006Qk9UWi5JUV9DTE9TRVBSSUNFLjIwMjUvNC8yNC5VU0QBAAAA9/0IFgIAAAAFMjguMTUA2eHtcXba3Qi+kRlzdtrdCClDSVEuQVJDQTpBUlRZLklRX0NMT1NFUFJJQ0UuMjAyNS80LzI0LlVTRAEAAABuH2khAgAAAAUzMS45</t>
+  </si>
+  <si>
+    <t>NADZ4e1xdtrdCElCGnN22t0IKUNJUS5BUkNBOlRITlEuSVFfQ0xPU0VQUklDRS4yMDI1LzQvMjQuVVNEAQAAAK7DfiQCAAAABTQ0LjIxANnh7XF22t0Ile4mc3ba3QgpQ0lRLkFSQ0E6Q0hBVC5JUV9DTE9TRVBSSUNFLjIwMjUvNC8yNC5VU0QBAAAAADA1bQIAAAAFMzUuMjMA2eHtcXba3QgRMBZzdtrdCClDSVEuQVJDQTpMUk5aLklRX0NMT1NFUFJJQ0UuMjAyNS80LzI0LlVTRAEAAAC1dsMmAgAAAAUzNi4xMwDZ4e1xdtrdCJRdF3N22t0ILENJUS5OQVNEQVFHTTpRUVEuSVFfQ0xPU0VQUklDRS4yMDI1LzQvMjMuVVNEAQAAAA66ewACAAAABjQ1NC41NgDZ4e1xdtrdCJjHJnN22t0ILUNJUS5OQVNEQVFHTTpBR0lYLklRX0NMT1NFUFJJQ0UuMjAyNS80LzIzLlVTRAEAAAAj9wBwAgAAAAQyNC4xANnh7XF22t0IvpEZc3ba3QgoQ0lRLkJBVFM6SUdWLklRX0NMT1NFUFJJQ0UuMjAyNS80LzIzLlVTRAEAAADNOoYAAgAAAAU4OC44MQDZ4e1xdtrdCElCGnN22t0ILUNJUS5OQVNEQVFHTTpST0JULklRX0NMT1NFUFJJQ0UuMjAyNS80LzIzLlVTRAEAAABcY9kgAgAAAAQzOS41ANnh7XF22t0I9BATc3ba3QgpQ0lRLkFSQ0E6SUdQVC5JUV9DTE9TRVBSSUNFLjIwMjUvNC8yMy5VU0QBAAAAzAJeAQIAAAAFMzguNzIA2eHtcXba3QjpVChzdtrdCClDSVEuQVJDQTpDSEFULklRX0NMT1NFUFJJQ0UuMjAyNS80LzIz</t>
+  </si>
+  <si>
+    <t>LlVTRAEAAAAAMDVtAgAAAAUzMy43NQDZ4e1xdtrdCJRdF3N22t0IKUNJUS5BUkNBOkxPVVAuSVFfQ0xPU0VQUklDRS4yMDI1LzQvMjMuVVNEAQAAAFlcDyICAAAABjQ1LjI3MwDZ4e1xdtrdCIunGHN22t0IKENJUS5CSVQ6V1RBSS5JUV9DTE9TRVBSSUNFLjIwMjUvNC8yMy5VU0QBAAAATbpbIwIAAAAPNTYuMjk3NjAxNDQ2NjI1ANnh7XF22t0INxESc3ba3QgoQ0lRLkFTWDpSQlRaLklRX0NMT1NFUFJJQ0UuMjAyNS80LzIzLlVTRAEAAAAp7XYiAgAAAAw3LjgyNTg2NDkyOTEA2eHtcXba3QiV7iZzdtrdCC1DSVEuTkFTREFRR006QUdJWC5JUV9DTE9TRVBSSUNFLjIwMjUvNC8yMi5VU0QBAAAAI/cAcAIAAAAHMjIuODk0NwDZ4e1xdtrdCElCGnN22t0IKUNJUS5BUkNBOkFSVFkuSVFfQ0xPU0VQUklDRS4yMDI1LzQvMjIuVVNEAQAAAG4faSECAAAABTI5LjYxANnh7XF22t0I+fslc3ba3QgpQ0lRLkFSQ0E6SUdQVC5JUV9DTE9TRVBSSUNFLjIwMjUvNC8yMi5VU0QBAAAAzAJeAQIAAAAFMzcuNjEA2eHtcXba3QgRMBZzdtrdCClDSVEuQVJDQTpUSE5RLklRX0NMT1NFUFJJQ0UuMjAyNS80LzIyLlVTRAEAAACuw34kAgAAAAU0MS40NwDZ4e1xdtrdCJRdF3N22t0IKUNJUS5BUkNBOkxSTlouSVFfQ0xPU0VQUklDRS4yMDI1LzQvMjIuVVNEAQAAALV2wyYCAAAABTMzLjAzANnh7XF22t0Im24Pc3ba3QgtQ0lR</t>
+  </si>
+  <si>
+    <t>Lk5BU0RBUUdNOldJU0UuSVFfQ0xPU0VQUklDRS4yMDI1LzQvMjIuVVNEAQAAAOmwQ24CAAAABTI3LjgxANnh7XF22t0INxESc3ba3QgpQ0lRLlhUUkE6WEFJWC5JUV9DTE9TRVBSSUNFLjIwMjUvNC8yMi5VU0QBAAAANeziIgIAAAAPMTIzLjgyMDQ1Njg3MjM2ANnh7XF22t0I9BATc3ba3QgnQ0lRLkRCOlhCMFQuSVFfQ0xPU0VQUklDRS4yMDI1LzQvMjIuVVNEAQAAANMz3ikCAAAADzE3LjAxOTg1OTk0NDI3NgDZ4e1xdtrdCElCGnN22t0ILUNJUS5OQVNEQVFHTTpCT1RaLklRX0NMT1NFUFJJQ0UuMjAyNS80LzIxLlVTRAEAAAD3/QgWAgAAAAUyNi4xNwDZ4e1xdtrdCCIRFXN22t0ILENJUS5OQVNEQVFHTTpBSVEuSVFfQ0xPU0VQUklDRS4yMDI1LzQvMjEuVVNEAQAAAOncYiECAAAABTMzLjIzANnh7XF22t0IETAWc3ba3QgtQ0lRLk5BU0RBUUdNOlJPQlQuSVFfQ0xPU0VQUklDRS4yMDI1LzQvMjEuVVNEAQAAAFxj2SACAAAABTM3LjQyANnh7XF22t0IlF0Xc3ba3QgtQ0lRLk5BU0RBUUdNOldJU0UuSVFfQ0xPU0VQUklDRS4yMDI1LzQvMjEuVVNEAQAAAOmwQ24CAAAABTI3LjEzANnh7XF22t0I9BATc3ba3QgoQ0lRLkxTRTpSQk9ULklRX0NMT1NFUFJJQ0UuMjAyNS80LzIxLlVTRAEAAACOeyQUAwAAAAAA2eHtcXba3Qi+kRlzdtrdCChDSVEuQklUOldUQUkuSVFfQ0xPU0VQUklDRS4yMDI1LzQvMjEu</t>
+  </si>
+  <si>
+    <t>VVNEAQAAAE26WyMDAAAAAADZ4e1xdtrdCElCGnN22t0ILUNJUS5OQVNEQVFHTTpBR0lYLklRX0NMT1NFUFJJQ0UuMjAyNS80LzE3LlVTRAEAAAAj9wBwAgAAAAcyMy4yMTIzANnh7XF22t0I+Cghc3ba3QgsQ0lRLk5BU0RBUUdNOlNNSC5JUV9DTE9TRVBSSUNFLjIwMjUvNC8xNy5VU0QBAAAAYMI2AAIAAAAGMTkyLjUzANnh7XF22t0IIhEVc3ba3QgsQ0lRLk5BU0RBUUdNOkFJUS5JUV9DTE9TRVBSSUNFLjIwMjUvNC8xNy5VU0QBAAAA6dxiIQIAAAAEMzMuOQDZ4e1xdtrdCJRdF3N22t0IKUNJUS5BUkNBOkFSVFkuSVFfQ0xPU0VQUklDRS4yMDI1LzQvMTcuVVNEAQAAAG4faSECAAAABDI5LjgA2eHtcXba3QiLpxhzdtrdCClDSVEuQVJDQTpDSEFULklRX0NMT1NFUFJJQ0UuMjAyNS80LzE3LlVTRAEAAAAAMDVtAgAAAAUzMi42MwDZ4e1xdtrdCDcREnN22t0IKUNJUS5BUkNBOkxSTlouSVFfQ0xPU0VQUklDRS4yMDI1LzQvMTcuVVNEAQAAALV2wyYCAAAABjMzLjUxOQDZ4e1xdtrdCPQQE3N22t0IKENJUS5MU0U6UkJPVC5JUV9DTE9TRVBSSUNFLjIwMjUvNC8xNy5VU0QBAAAAjnskFAIAAAAEMTIuMgAZCe5xdtrdCElCGnN22t0IJ0NJUS5EQjpYQjBULklRX0NMT1NFUFJJQ0UuMjAyNS80LzE3LlVTRAEAAADTM94pAgAAAA8xNy42NTA2NzA5MDYwNzYAGQnucXba3Qg93B9zdtrdCC1DSVEuTkFTREFRR006</t>
+  </si>
+  <si>
+    <t>QUdJWC5JUV9DTE9TRVBSSUNFLjIwMjUvNC8xNi5VU0QBAAAAI/cAcAIAAAAFMjMuNDYAGQnucXba3QisCBZzdtrdCChDSVEuQkFUUzpJR1YuSVFfQ0xPU0VQUklDRS4yMDI1LzQvMTYuVVNEAQAAAM06hgACAAAABTg2Ljk0ABkJ7nF22t0IlF0Xc3ba3QgtQ0lRLk5BU0RBUUdNOkZEVFguSVFfQ0xPU0VQUklDRS4yMDI1LzQvMTYuVVNEAQAAAL2lnSYCAAAABTI5Ljg1ABkJ7nF22t0I9BATc3ba3QgoQ0lRLkxTRTpBSUFHLklRX0NMT1NFUFJJQ0UuMjAyNS80LzE2LlVTRAEAAADwnYIkAgAAAA4xOC43ODE5MjA2NTg1OQAZCe5xdtrdCKwIFnN22t0ILENJUS5OQVNEQVFHTTpRUVEuSVFfQ0xPU0VQUklDRS4yMDI1LzQvMTUuVVNEAQAAAA66ewACAAAABjQ1Ny45OQAZCe5xdtrdCIunGHN22t0ILUNJUS5OQVNEQVFHTTpCT1RaLklRX0NMT1NFUFJJQ0UuMjAyNS80LzE1LlVTRAEAAAD3/QgWAgAAAAQyNy4xABkJ7nF22t0I2Y0Qc3ba3QgpQ0lRLkJBVFM6V1RBSS5JUV9DTE9TRVBSSUNFLjIwMjUvNC8xNS5VU0QBAAAAYE5vZAIAAAAFMTguNTEAGQnucXba3QgCFx5zdtrdCClDSVEuWFRSQTpYQUlYLklRX0NMT1NFUFJJQ0UuMjAyNS80LzE1LlVTRAEAAAA17OIiAgAAAA4xMjguNzc2NzM0MjM2MgAZCe5xdtrdCHw2F3N22t0IKENJUS5BU1g6UkJUWi5JUV9DTE9TRVBSSUNFLjIwMjUvNC8xNS5VU0QBAAAAKe12</t>
+  </si>
+  <si>
+    <t>IgIAAAAMNy43NjI3ODk1MDg0ABkJ7nF22t0IreQcc3ba3QgoQ0lRLkJBVFM6SUdWLklRX0NMT1NFUFJJQ0UuMjAyNS80LzE0LlVTRAEAAADNOoYAAgAAAAU4Ny45OAAZCe5xdtrdCCj8EnN22t0ILENJUS5OQVNEQVFHTTpBSVEuSVFfQ0xPU0VQUklDRS4yMDI1LzQvMTQuVVNEAQAAAOncYiECAAAABTM0LjczABkJ7nF22t0IaP0Uc3ba3QgtQ0lRLk5BU0RBUUdNOlJPQlQuSVFfQ0xPU0VQUklDRS4yMDI1LzQvMTQuVVNEAQAAAFxj2SACAAAABTM4Ljc4ABkJ7nF22t0IrAgWc3ba3QgoQ0lRLkFSQ0E6QUlTLklRX0NMT1NFUFJJQ0UuMjAyNS80LzE0LlVTRAEAAACYl59wAgAAAAcyMC4wNzQ5ABkJ7nF22t0INxESc3ba3QgoQ0lRLkJJVDpXVEFJLklRX0NMT1NFUFJJQ0UuMjAyNS80LzE0LlVTRAEAAABNulsjAgAAAA41NS4zODk1OTU2MzI2MwAZCe5xdtrdCHcbGnN22t0ILUNJUS5OQVNEQVFHTTpBR0lYLklRX0NMT1NFUFJJQ0UuMjAyNS80LzExLlVTRAEAAAAj9wBwAgAAAAUyMy45NwAZCe5xdtrdCGj9FHN22t0ILUNJUS5OQVNEQVFHTTpCT1RaLklRX0NMT1NFUFJJQ0UuMjAyNS80LzExLlVTRAEAAAD3/QgWAgAAAAUyNi44NwAZCe5xdtrdCHw2F3N22t0IKUNJUS5BUkNBOkxPVVAuSVFfQ0xPU0VQUklDRS4yMDI1LzQvMTEuVVNEAQAAAFlcDyICAAAABzQ0LjI3NjcAGQnucXba3Qgo/BJzdtrdCCdDSVEu</t>
+  </si>
+  <si>
+    <t>REI6WEIwVC5JUV9DTE9TRVBSSUNFLjIwMjUvNC8xMS5VU0QBAAAA0zPeKQIAAAAOMTcuNDUxODY4NjI1NzEAGQnucXba3QisCBZzdtrdCCxDSVEuTkFTREFRR006U01ILklRX0NMT1NFUFJJQ0UuMjAyNS80LzEwLlVTRAEAAABgwjYAAgAAAAYxOTYuMjEAGQnucXba3QiLpxhzdtrdCClDSVEuQkFUUzpXVEFJLklRX0NMT1NFUFJJQ0UuMjAyNS80LzEwLlVTRAEAAABgTm9kAgAAAAUxNy45MQAZCe5xdtrdCOlUKHN22t0ILUNJUS5OQVNEQVFHTTpGRFRYLklRX0NMT1NFUFJJQ0UuMjAyNS80LzEwLlVTRAEAAAC9pZ0mAgAAAAUyOS44OQAZCe5xdtrdCGj9FHN22t0IKENJUS5CSVQ6V1RBSS5JUV9DTE9TRVBSSUNFLjIwMjUvNC8xMC5VU0QBAAAATbpbIwIAAAAMNTMuNjg1MjcwMDk2ABkJ7nF22t0Ii6cYc3ba3QgoQ0lRLkFTWDpSQlRaLklRX0NMT1NFUFJJQ0UuMjAyNS80LzEwLlVTRAEAAAAp7XYiAgAAAAw3Ljc3NTAxNTU0MDQAGQnucXba3QiV7iZzdtrdCCtDSVEuTkFTREFRR006UVFRLklRX0NMT1NFUFJJQ0UuMjAyNS80LzkuVVNEAQAAAA66ewACAAAAAzQ2NgAZCe5xdtrdCNNqGXN22t0IKENJUS5BUkNBOklHUFQuSVFfQ0xPU0VQUklDRS4yMDI1LzQvOS5VU0QBAAAAzAJeAQIAAAAFMzkuODgA6TxZcXba3Qh8NhdzdtrdCCdDSVEuTFNFOlJCT1QuSVFfQ0xPU0VQUklDRS4yMDI1LzQvOS5VU0QBAAAA</t>
+  </si>
+  <si>
+    <t>jnskFAIAAAAFMTEuMTgA6TxZcXba3Qh3GxpzdtrdCCxDSVEuTkFTREFRR006UVFRLklRX0NMT1NFUFJJQ0UuMjAyNS84LzExLlVTRAEAAAAOunsAAgAAAAY1NzIuODUAyLFPcnba3QiY/SJzdtrdCC1DSVEuTkFTREFRR006QUdJWC5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xMS5VU0QBAAAAI/cAcAIAAAAHMzIuNjU4MwDIsU9ydtrdCD8tKHN22t0ILENJUS5OQVNEQVFHTTpTTUguSVFfQ0xPU0VQUklDRS4yMDI1LzgvMTEuVVNEAQAAAGDCNgACAAAABTI5My40AMixT3J22t0Ij24rc3ba3QgoQ0lRLkJBVFM6SUdWLklRX0NMT1NFUFJJQ0UuMjAyNS84LzExLlVTRAEAAADNOoYAAgAAAAYxMDguMzcAyLFPcnba3QhSbipzdtrdCC1DSVEuTkFTREFRR006Qk9UWi5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xMS5VU0QBAAAA9/0IFgIAAAAFMzMuMzEAyLFPcnba3QiYOxxzdtrdCCxDSVEuTkFTREFRR006QUlRLklRX0NMT1NFUFJJQ0UuMjAyNS84LzExLlVTRAEAAADp3GIhAgAAAAU0NC42OADIsU9ydtrdCK1QHHN22t0IKUNJUS5BUkNBOkFSVFkuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMTEuVVNEAQAAAG4faSECAAAABTQyLjM5AMixT3J22t0Ijs8cc3ba3QgtQ0lRLk5BU0RBUUdNOlJPQlQuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMTEuVVNEAQAAAFxj2SACAAAABTQ5LjA3AMixT3J22t0IN44fc3ba3QgpQ0lRLkFSQ0E6</t>
+  </si>
+  <si>
+    <t>SUdQVC5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xMS5VU0QBAAAAzAJeAQIAAAAFNTAuMjIAyLFPcnba3QiPbitzdtrdCClDSVEuQkFUUzpXVEFJLklRX0NMT1NFUFJJQ0UuMjAyNS84LzExLlVTRAEAAABgTm9kAgAAAAQyNS40AMixT3J22t0I1gEhc3ba3QgpQ0lRLkFSQ0E6VEhOUS5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xMS5VU0QBAAAArsN+JAIAAAAFNTUuODEAyLFPcnba3Qhn4ypzdtrdCC1DSVEuTkFTREFRR006RkRUWC5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xMS5VU0QBAAAAvaWdJgIAAAAHMzguNzcwOQDIsU9ydtrdCE1hInN22t0IKUNJUS5BUkNBOkNIQVQuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMTEuVVNEAQAAAAAwNW0CAAAABTUzLjg3AMixT3J22t0IXYgic3ba3QgpQ0lRLkFSQ0E6TE9VUC5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xMS5VU0QBAAAAWVwPIgIAAAAHNjQuMDkzNgDIsU9ydtrdCKjPJXN22t0IKUNJUS5BUkNBOkxSTlouSVFfQ0xPU0VQUklDRS4yMDI1LzgvMTEuVVNEAQAAALV2wyYCAAAABTQxLjU3AMixT3J22t0Ifa8ic3ba3QgoQ0lRLkFSQ0E6QUlTLklRX0NMT1NFUFJJQ0UuMjAyNS84LzExLlVTRAEAAACYl59wAgAAAAcyOS43Mzc2ALfJT3J22t0IuoMkc3ba3QgtQ0lRLk5BU0RBUUdNOldJU0UuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMTEuVVNEAQAAAOmwQ24CAAAABzM4Ljk2MzQA</t>
+  </si>
+  <si>
+    <t>t8lPcnba3QgOGClzdtrdCChDSVEuTFNFOlJCT1QuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMTEuVVNEAQAAAI57JBQCAAAABTE1LjA3ALfJT3J22t0ImMcmc3ba3QgpQ0lRLlhUUkE6WEFJWC5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xMS5VU0QBAAAANeziIgIAAAAPMTYzLjc5ODcwMTMwMTA2ALfJT3J22t0IGUcqc3ba3QgoQ0lRLkJJVDpXVEFJLklRX0NMT1NFUFJJQ0UuMjAyNS84LzExLlVTRAEAAABNulsjAgAAAA43Ni4wMjA0MDgxNjQzNgC3yU9ydtrdCG28KnN22t0IKENJUS5MU0U6QUlBRy5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xMS5VU0QBAAAA8J2CJAIAAAAPMjQuODE2OTcwMTUzNTU2ALfJT3J22t0ImDscc3ba3QgoQ0lRLkFTWDpSQlRaLklRX0NMT1NFUFJJQ0UuMjAyNS84LzExLlVTRAEAAAAp7XYiAgAAAA05LjQ1ODQwMzg1ODcxALfJT3J22t0IrVAcc3ba3QgnQ0lRLkRCOlhCMFQuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMTEuVVNEAQAAANMz3ikCAAAADzIxLjkzMTgxODE4MjEzNAC3yU9ydtrdCHu6HHN22t0IK0NJUS5OQVNEQVFHTTpRUVEuSVFfQ0xPU0VQUklDRS4yMDI1LzgvOC5VU0QBAAAADrp7AAIAAAAGNTc0LjU1ALfJT3J22t0IN44fc3ba3QgsQ0lRLk5BU0RBUUdNOkFHSVguSVFfQ0xPU0VQUklDRS4yMDI1LzgvOC5VU0QBAAAAI/cAcAIAAAAHMzIuODU4NQC3yU9ydtrdCG28KnN22t0I</t>
+  </si>
+  <si>
+    <t>K0NJUS5OQVNEQVFHTTpTTUguSVFfQ0xPU0VQUklDRS4yMDI1LzgvOC5VU0QBAAAAYMI2AAIAAAAGMjkzLjUzALfJT3J22t0I1gEhc3ba3QgnQ0lRLkJBVFM6SUdWLklRX0NMT1NFUFJJQ0UuMjAyNS84LzguVVNEAQAAAM06hgACAAAABjEwOS42MwC3yU9ydtrdCE+VK3N22t0ILENJUS5OQVNEQVFHTTpCT1RaLklRX0NMT1NFUFJJQ0UuMjAyNS84LzguVVNEAQAAAPf9CBYCAAAABDMzLjYAt8lPcnba3QgnOiJzdtrdCCtDSVEuTkFTREFRR006QUlRLklRX0NMT1NFUFJJQ0UuMjAyNS84LzguVVNEAQAAAOncYiECAAAABTQ0LjkxALfJT3J22t0Ipm0kc3ba3QgoQ0lRLkFSQ0E6QVJUWS5JUV9DTE9TRVBSSUNFLjIwMjUvOC84LlVTRAEAAABuH2khAgAAAAU0Mi41MQC3yU9ydtrdCKjPJXN22t0ILENJUS5OQVNEQVFHTTpST0JULklRX0NMT1NFUFJJQ0UuMjAyNS84LzguVVNEAQAAAFxj2SACAAAABTQ5Ljk2ALfJT3J22t0Ifa8ic3ba3QgoQ0lRLkFSQ0E6SUdQVC5JUV9DTE9TRVBSSUNFLjIwMjUvOC84LlVTRAEAAADMAl4BAgAAAAY1MC4xNjUAt8lPcnba3QhHsydzdtrdCChDSVEuQkFUUzpXVEFJLklRX0NMT1NFUFJJQ0UuMjAyNS84LzguVVNEAQAAAGBOb2QCAAAABTI1LjUzALfJT3J22t0IoZokc3ba3QgoQ0lRLkFSQ0E6VEhOUS5JUV9DTE9TRVBSSUNFLjIwMjUvOC84LlVTRAEAAACuw34kAgAAAAU1Ni4y</t>
+  </si>
+  <si>
+    <t>MQC3yU9ydtrdCAFzKXN22t0ILENJUS5OQVNEQVFHTTpGRFRYLklRX0NMT1NFUFJJQ0UuMjAyNS84LzguVVNEAQAAAL2lnSYCAAAABzM5LjUyNzEAt8lPcnba3Qj4RitzdtrdCChDSVEuQVJDQTpDSEFULklRX0NMT1NFUFJJQ0UuMjAyNS84LzguVVNEAQAAAAAwNW0CAAAABDUzLjgAt8lPcnba3QhelSpzdtrdCChDSVEuQVJDQTpMT1VQLklRX0NMT1NFUFJJQ0UuMjAyNS84LzguVVNEAQAAAFlcDyICAAAABTY0LjU3ALfJT3J22t0ImDscc3ba3QgoQ0lRLkFSQ0E6TFJOWi5JUV9DTE9TRVBSSUNFLjIwMjUvOC84LlVTRAEAAAC1dsMmAgAAAAY0MS42ODIAt8lPcnba3QjdyB1zdtrdCCdDSVEuQVJDQTpBSVMuSVFfQ0xPU0VQUklDRS4yMDI1LzgvOC5VU0QBAAAAmJefcAIAAAAHMjkuNzI5MgC3yU9ydtrdCHu6HHN22t0ILENJUS5OQVNEQVFHTTpXSVNFLklRX0NMT1NFUFJJQ0UuMjAyNS84LzguVVNEAQAAAOmwQ24CAAAABTM4Ljk0ALfJT3J22t0IN44fc3ba3QgnQ0lRLkxTRTpSQk9ULklRX0NMT1NFUFJJQ0UuMjAyNS84LzguVVNEAQAAAI57JBQCAAAABjE1LjE2NQC3yU9ydtrdCNLjK3N22t0IKENJUS5YVFJBOlhBSVguSVFfQ0xPU0VQUklDRS4yMDI1LzgvOC5VU0QBAAAANeziIgIAAAAPMTYzLjY0OTA5MDA1MDMyALfJT3J22t0I1gEhc3ba3QgnQ0lRLkJJVDpXVEFJLklRX0NMT1NFUFJJQ0UuMjAyNS84</t>
+  </si>
+  <si>
+    <t>LzguVVNEAQAAAE26WyMCAAAADjc2LjM0MTU3NzIyMzM2ALfJT3J22t0Ikwosc3ba3QgnQ0lRLkxTRTpBSUFHLklRX0NMT1NFUFJJQ0UuMjAyNS84LzguVVNEAQAAAPCdgiQCAAAADjI0LjY4NjIwOTM2MzU1ALfJT3J22t0IJzoic3ba3QgnQ0lRLkFTWDpSQlRaLklRX0NMT1NFUFJJQ0UuMjAyNS84LzguVVNEAQAAACntdiICAAAADDkuNDk3Mzg5MDI4NwC3yU9ydtrdCF2IInN22t0IJkNJUS5EQjpYQjBULklRX0NMT1NFUFJJQ0UuMjAyNS84LzguVVNEAQAAANMz3ikCAAAADzIyLjE2Mjg1NTgwODIxMgC3yU9ydtrdCKjPJXN22t0IK0NJUS5OQVNEQVFHTTpRUVEuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNy5VU0QBAAAADrp7AAIAAAAGNTY5LjI0ANvfT3J22t0IuoMkc3ba3QgsQ0lRLk5BU0RBUUdNOkFHSVguSVFfQ0xPU0VQUklDRS4yMDI1LzgvNy5VU0QBAAAAI/cAcAIAAAAHMzIuODE3NADb309ydtrdCJjHJnN22t0IK0NJUS5OQVNEQVFHTTpTTUguSVFfQ0xPU0VQUklDRS4yMDI1LzgvNy5VU0QBAAAAYMI2AAIAAAAGMjkxLjEyANvfT3J22t0IuoMkc3ba3QgnQ0lRLkJBVFM6SUdWLklRX0NMT1NFUFJJQ0UuMjAyNS84LzcuVVNEAQAAAM06hgACAAAABTEwOS42ANvfT3J22t0IPy0oc3ba3QgsQ0lRLk5BU0RBUUdNOkJPVFouSVFfQ0xPU0VQUklDRS4yMDI1LzgvNy5VU0QBAAAA9/0IFgIAAAAFMzMuNDMA</t>
+  </si>
+  <si>
+    <t>299Pcnba3QhsvCtzdtrdCCtDSVEuTkFTREFRR006QUlRLklRX0NMT1NFUFJJQ0UuMjAyNS84LzcuVVNEAQAAAOncYiECAAAABTQ0LjcxANvfT3J22t0Ij24rc3ba3QgoQ0lRLkFSQ0E6QVJUWS5JUV9DTE9TRVBSSUNFLjIwMjUvOC83LlVTRAEAAABuH2khAgAAAAQ0Mi41ANvfT3J22t0ImDscc3ba3QgsQ0lRLk5BU0RBUUdNOlJPQlQuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNy5VU0QBAAAAXGPZIAIAAAAHNDkuNzM4MQDb309ydtrdCN3IHXN22t0IKENJUS5BUkNBOklHUFQuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNy5VU0QBAAAAzAJeAQIAAAAFNTAuMjQA299Pcnba3QiJfh5zdtrdCChDSVEuQkFUUzpXVEFJLklRX0NMT1NFUFJJQ0UuMjAyNS84LzcuVVNEAQAAAGBOb2QCAAAABTI1LjQ3ANvfT3J22t0IN44fc3ba3QgoQ0lRLkFSQ0E6VEhOUS5JUV9DTE9TRVBSSUNFLjIwMjUvOC83LlVTRAEAAACuw34kAgAAAAQ1Ni4yANvfT3J22t0I+EYrc3ba3QgsQ0lRLk5BU0RBUUdNOkZEVFguSVFfQ0xPU0VQUklDRS4yMDI1LzgvNy5VU0QBAAAAvaWdJgIAAAAHMzkuNjM5MQDb309ydtrdCNYBIXN22t0IKENJUS5BUkNBOkNIQVQuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNy5VU0QBAAAAADA1bQIAAAAFNTMuMDgA299Pcnba3QjS4ytzdtrdCChDSVEuQVJDQTpMT1VQLklRX0NMT1NFUFJJQ0UuMjAyNS84LzcuVVNEAQAA</t>
+  </si>
+  <si>
+    <t>AFlcDyICAAAABzY0LjkxMzcA299Pcnba3QgnOiJzdtrdCChDSVEuQVJDQTpMUk5aLklRX0NMT1NFUFJJQ0UuMjAyNS84LzcuVVNEAQAAALV2wyYCAAAABzQyLjM0OTQA299Pcnba3QimbSRzdtrdCCdDSVEuQVJDQTpBSVMuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNy5VU0QBAAAAmJefcAIAAAAHMjkuNTI5OADb309ydtrdCJuoJXN22t0ILENJUS5OQVNEQVFHTTpXSVNFLklRX0NMT1NFUFJJQ0UuMjAyNS84LzcuVVNEAQAAAOmwQ24CAAAABzM4LjA4NzQA299Pcnba3QiWoCZzdtrdCCdDSVEuTFNFOlJCT1QuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNy5VU0QBAAAAjnskFAIAAAAFMTUuMTQA299Pcnba3QiY1iJzdtrdCChDSVEuWFRSQTpYQUlYLklRX0NMT1NFUFJJQ0UuMjAyNS84LzcuVVNEAQAAADXs4iICAAAADzE2My4xMzA5NjA2ODYwMgDb309ydtrdCJjWInN22t0IJ0NJUS5CSVQ6V1RBSS5JUV9DTE9TRVBSSUNFLjIwMjUvOC83LlVTRAEAAABNulsjAgAAAA43Ni4xMzM5ODQ2NDY0MgDb309ydtrdCAFzKXN22t0IJ0NJUS5MU0U6QUlBRy5JUV9DTE9TRVBSSUNFLjIwMjUvOC83LlVTRAEAAADwnYIkAgAAAA8yNC44MTQ1NDE1NDU4MTIA299Pcnba3QiRMStzdtrdCCdDSVEuQVNYOlJCVFouSVFfQ0xPU0VQUklDRS4yMDI1LzgvNy5VU0QBAAAAKe12IgIAAAAMOS40NjMxNDgzMTI4ANvfT3J22t0IkTErc3ba</t>
+  </si>
+  <si>
+    <t>3QgmQ0lRLkRCOlhCMFQuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNy5VU0QBAAAA0zPeKQIAAAAPMjIuMTAwNDg4NDg1MzU0ANvfT3J22t0ImDscc3ba3QgrQ0lRLk5BU0RBUUdNOlFRUS5JUV9DTE9TRVBSSUNFLjIwMjUvOC82LlVTRAEAAAAOunsAAgAAAAY1NjcuMzIA299Pcnba3QjdyB1zdtrdCCxDSVEuTkFTREFRR006QUdJWC5JUV9DTE9TRVBSSUNFLjIwMjUvOC82LlVTRAEAAAAj9wBwAgAAAAczMi43MDAyANvfT3J22t0IAhcec3ba3QgrQ0lRLk5BU0RBUUdNOlNNSC5JUV9DTE9TRVBSSUNFLjIwMjUvOC82LlVTRAEAAABgwjYAAgAAAAYyODYuNjIA299Pcnba3Qg3jh9zdtrdCCdDSVEuQkFUUzpJR1YuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNi5VU0QBAAAAzTqGAAIAAAAGMTExLjgxANvfT3J22t0IUm4qc3ba3QgsQ0lRLk5BU0RBUUdNOkJPVFouSVFfQ0xPU0VQUklDRS4yMDI1LzgvNi5VU0QBAAAA9/0IFgIAAAAEMzMuNgDb309ydtrdCNYBIXN22t0IK0NJUS5OQVNEQVFHTTpBSVEuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNi5VU0QBAAAA6dxiIQIAAAAFNDQuNjQA299Pcnba3Qh2CitzdtrdCChDSVEuQVJDQTpBUlRZLklRX0NMT1NFUFJJQ0UuMjAyNS84LzYuVVNEAQAAAG4faSECAAAABTQyLjU3ANvfT3J22t0IJzoic3ba3QgsQ0lRLk5BU0RBUUdNOlJPQlQuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNi5V</t>
+  </si>
+  <si>
+    <t>U0QBAAAAXGPZIAIAAAAFNDkuODkA299Pcnba3QhdiCJzdtrdCChDSVEuQVJDQTpJR1BULklRX0NMT1NFUFJJQ0UuMjAyNS84LzYuVVNEAQAAAMwCXgECAAAABTUwLjA3ANvfT3J22t0Im6glc3ba3QgoQ0lRLkJBVFM6V1RBSS5JUV9DTE9TRVBSSUNFLjIwMjUvOC82LlVTRAEAAABgTm9kAgAAAAUyNS42NgDb309ydtrdCH2vInN22t0IKENJUS5BUkNBOlRITlEuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNi5VU0QBAAAArsN+JAIAAAAFNTYuMTEA299Pcnba3Qi6gyRzdtrdCCxDSVEuTkFTREFRR006RkRUWC5JUV9DTE9TRVBSSUNFLjIwMjUvOC82LlVTRAEAAAC9pZ0mAgAAAAczOS44MTMxANvfT3J22t0ImMcmc3ba3QgoQ0lRLkFSQ0E6Q0hBVC5JUV9DTE9TRVBSSUNFLjIwMjUvOC82LlVTRAEAAAAAMDVtAgAAAAU1Mi40OADb309ydtrdCDoEKHN22t0IKENJUS5BUkNBOkxPVVAuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNi5VU0QBAAAAWVwPIgIAAAAFNjUuMjcA299Pcnba3QgZRypzdtrdCChDSVEuQVJDQTpMUk5aLklRX0NMT1NFUFJJQ0UuMjAyNS84LzYuVVNEAQAAALV2wyYCAAAABzQzLjU4MjcA299Pcnba3QgZRypzdtrdCCdDSVEuQVJDQTpBSVMuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNi5VU0QBAAAAmJefcAIAAAAHMjkuNDI0NQDb309ydtrdCJg7HHN22t0ILENJUS5OQVNEQVFHTTpXSVNFLklRX0NMT1NF</t>
+  </si>
+  <si>
+    <t>UFJJQ0UuMjAyNS84LzYuVVNEAQAAAOmwQ24CAAAABTM4LjAxANvfT3J22t0I3cgdc3ba3QgnQ0lRLkxTRTpSQk9ULklRX0NMT1NFUFJJQ0UuMjAyNS84LzYuVVNEAQAAAI57JBQCAAAABjE0Ljk4NQDb309ydtrdCHu6HHN22t0IKENJUS5YVFJBOlhBSVguSVFfQ0xPU0VQUklDRS4yMDI1LzgvNi5VU0QBAAAANeziIgIAAAAOMTYyLjgwNjkzNTg0NzQA299Pcnba3Qg3jh9zdtrdCCdDSVEuQklUOldUQUkuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNi5VU0QBAAAATbpbIwIAAAAONzUuNzM2MDY0MjI0MDgA299Pcnba3QhSbipzdtrdCCdDSVEuTFNFOkFJQUcuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNi5VU0QBAAAA8J2CJAIAAAAOMjQuNTY0MzUzMDAwMjUA299Pcnba3QjWASFzdtrdCCdDSVEuQVNYOlJCVFouSVFfQ0xPU0VQUklDRS4yMDI1LzgvNi5VU0QBAAAAKe12IgIAAAAMOS42NTIyNTg2ODc1ANvfT3J22t0Ikwosc3ba3QgmQ0lRLkRCOlhCMFQuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNi5VU0QBAAAA0zPeKQIAAAAPMjIuNDYyNDY5NDQ3NjUyAFf1T3J22t0IJzoic3ba3QgrQ0lRLk5BU0RBUUdNOlFRUS5JUV9DTE9TRVBSSUNFLjIwMjUvOC81LlVTRAEAAAAOunsAAgAAAAY1NjAuMjcAV/VPcnba3QhdiCJzdtrdCCxDSVEuTkFTREFRR006QUdJWC5JUV9DTE9TRVBSSUNFLjIwMjUvOC81LlVTRAEAAAAj9wBw</t>
+  </si>
+  <si>
+    <t>AgAAAAczMS45NTMxAFf1T3J22t0Im6glc3ba3QgrQ0lRLk5BU0RBUUdNOlNNSC5JUV9DTE9TRVBSSUNFLjIwMjUvOC81LlVTRAEAAABgwjYAAgAAAAUyODcuMQBX9U9ydtrdCH2vInN22t0IJ0NJUS5CQVRTOklHVi5JUV9DTE9TRVBSSUNFLjIwMjUvOC81LlVTRAEAAADNOoYAAgAAAAYxMTAuNTUAV/VPcnba3QiY1iJzdtrdCCxDSVEuTkFTREFRR006Qk9UWi5JUV9DTE9TRVBSSUNFLjIwMjUvOC81LlVTRAEAAAD3/QgWAgAAAAUzMy45MwBX9U9ydtrdCA4YKXN22t0IK0NJUS5OQVNEQVFHTTpBSVEuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNS5VU0QBAAAA6dxiIQIAAAAFNDQuMTcAV/VPcnba3QgBcylzdtrdCChDSVEuQVJDQTpBUlRZLklRX0NMT1NFUFJJQ0UuMjAyNS84LzUuVVNEAQAAAG4faSECAAAABTQyLjY3AFf1T3J22t0I0uMrc3ba3QgsQ0lRLk5BU0RBUUdNOlJPQlQuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNS5VU0QBAAAAXGPZIAIAAAAHNTAuMDE2OQBX9U9ydtrdCJMKLHN22t0IKENJUS5BUkNBOklHUFQuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNS5VU0QBAAAAzAJeAQIAAAAFNTAuMjIAV/VPcnba3QiCJRxzdtrdCChDSVEuQkFUUzpXVEFJLklRX0NMT1NFUFJJQ0UuMjAyNS84LzUuVVNEAQAAAGBOb2QCAAAABTI1LjE4AFf1T3J22t0I3cgdc3ba3QgoQ0lRLkFSQ0E6VEhOUS5JUV9DTE9TRVBSSUNF</t>
+  </si>
+  <si>
+    <t>LjIwMjUvOC81LlVTRAEAAACuw34kAgAAAAU1NS41MwBX9U9ydtrdCCLwHXN22t0ILENJUS5OQVNEQVFHTTpGRFRYLklRX0NMT1NFUFJJQ0UuMjAyNS84LzUuVVNEAQAAAL2lnSYCAAAABzM5LjAzNDcAV/VPcnba3Qg3jh9zdtrdCChDSVEuQVJDQTpDSEFULklRX0NMT1NFUFJJQ0UuMjAyNS84LzUuVVNEAQAAAAAwNW0CAAAABDUxLjIAV/VPcnba3QiPbitzdtrdCChDSVEuQVJDQTpMT1VQLklRX0NMT1NFUFJJQ0UuMjAyNS84LzUuVVNEAQAAAFlcDyICAAAABjYyLjkzOABX9U9ydtrdCNYBIXN22t0IKENJUS5BUkNBOkxSTlouSVFfQ0xPU0VQUklDRS4yMDI1LzgvNS5VU0QBAAAAtXbDJgIAAAAHNDIuOTI0MQBX9U9ydtrdCE+VK3N22t0IJ0NJUS5BUkNBOkFJUy5JUV9DTE9TRVBSSUNFLjIwMjUvOC81LlVTRAEAAACYl59wAgAAAAcyOS4xNzc4AFf1T3J22t0IJzoic3ba3QgsQ0lRLk5BU0RBUUdNOldJU0UuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNS5VU0QBAAAA6bBDbgIAAAAFMzguMjgAV/VPcnba3QimbSRzdtrdCCdDSVEuTFNFOlJCT1QuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNS5VU0QBAAAAjnskFAIAAAAFMTUuMTEAV/VPcnba3QibqCVzdtrdCChDSVEuWFRSQTpYQUlYLklRX0NMT1NFUFJJQ0UuMjAyNS84LzUuVVNEAQAAADXs4iICAAAADTE2MC45MzU1MTAwNzUAV/VPcnba3QiWoCZzdtrdCCdDSVEu</t>
+  </si>
+  <si>
+    <t>QklUOldUQUkuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNS5VU0QBAAAATbpbIwIAAAAONzUuMTk5NzIyMTUzNzUAV/VPcnba3QiYxyZzdtrdCCdDSVEuTFNFOkFJQUcuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNS5VU0QBAAAA8J2CJAIAAAAOMjQuNDE4MDc4Nzg4MzgAV/VPcnba3QgOGClzdtrdCCdDSVEuQVNYOlJCVFouSVFfQ0xPU0VQUklDRS4yMDI1LzgvNS5VU0QBAAAAKe12IgIAAAANOS42NjE3NzMyNjc3MgBX9U9ydtrdCNAkI3N22t0IJkNJUS5EQjpYQjBULklRX0NMT1NFUFJJQ0UuMjAyNS84LzUuVVNEAQAAANMz3ikCAAAADjIyLjM2MTkzMTIzNDQ1AFf1T3J22t0I+EYrc3ba3QgrQ0lRLk5BU0RBUUdNOlFRUS5JUV9DTE9TRVBSSUNFLjIwMjUvOC80LlVTRAEAAAAOunsAAgAAAAU1NjQuMQBX9U9ydtrdCPhGK3N22t0ILENJUS5OQVNEQVFHTTpBR0lYLklRX0NMT1NFUFJJQ0UuMjAyNS84LzQuVVNEAQAAACP3AHACAAAABzMyLjAyMjcAV/VPcnba3QiCJRxzdtrdCCtDSVEuTkFTREFRR006U01ILklRX0NMT1NFUFJJQ0UuMjAyNS84LzQuVVNEAQAAAGDCNgACAAAABjI5MC4xOQBX9U9ydtrdCN3IHXN22t0IJ0NJUS5CQVRTOklHVi5JUV9DTE9TRVBSSUNFLjIwMjUvOC80LlVTRAEAAADNOoYAAgAAAAYxMTAuOTgAV/VPcnba3Qgi8B1zdtrdCCxDSVEuTkFTREFRR006Qk9UWi5JUV9DTE9TRVBSSUNFLjIw</t>
+  </si>
+  <si>
+    <t>MjUvOC80LlVTRAEAAAD3/QgWAgAAAAUzMy45NwBX9U9ydtrdCDeOH3N22t0IK0NJUS5OQVNEQVFHTTpBSVEuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNC5VU0QBAAAA6dxiIQIAAAAFNDQuMzMAV/VPcnba3QhsvCtzdtrdCChDSVEuQVJDQTpBUlRZLklRX0NMT1NFUFJJQ0UuMjAyNS84LzQuVVNEAQAAAG4faSECAAAABTQzLjEzAFf1T3J22t0I1gEhc3ba3QgsQ0lRLk5BU0RBUUdNOlJPQlQuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNC5VU0QBAAAAXGPZIAIAAAAFNTAuMTEAV/VPcnba3QhSbipzdtrdCChDSVEuQVJDQTpJR1BULklRX0NMT1NFUFJJQ0UuMjAyNS84LzQuVVNEAQAAAMwCXgECAAAABTUwLjY0AFf1T3J22t0IJzoic3ba3QgoQ0lRLkJBVFM6V1RBSS5JUV9DTE9TRVBSSUNFLjIwMjUvOC80LlVTRAEAAABgTm9kAgAAAAUyNS4zMQBX9U9ydtrdCKZtJHN22t0IKENJUS5BUkNBOlRITlEuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNC5VU0QBAAAArsN+JAIAAAAHNTUuNTEzOQBX9U9ydtrdCJuoJXN22t0ILENJUS5OQVNEQVFHTTpGRFRYLklRX0NMT1NFUFJJQ0UuMjAyNS84LzQuVVNEAQAAAL2lnSYCAAAABjM5LjI2NQBX9U9ydtrdCJagJnN22t0IKENJUS5BUkNBOkNIQVQuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNC5VU0QBAAAAADA1bQIAAAAFNTEuMTEAV/VPcnba3QiYxyZzdtrdCChDSVEuQVJDQTpMT1VQ</t>
+  </si>
+  <si>
+    <t>LklRX0NMT1NFUFJJQ0UuMjAyNS84LzQuVVNEAQAAAFlcDyICAAAABzYzLjQ1MTMAV/VPcnba3QgOGClzdtrdCChDSVEuQVJDQTpMUk5aLklRX0NMT1NFUFJJQ0UuMjAyNS84LzQuVVNEAQAAALV2wyYCAAAABTQzLjYyAFf1T3J22t0IOgQoc3ba3QgnQ0lRLkFSQ0E6QUlTLklRX0NMT1NFUFJJQ0UuMjAyNS84LzQuVVNEAQAAAJiXn3ACAAAABzI5LjQ4MzkAV/VPcnba3Qh2CitzdtrdCCxDSVEuTkFTREFRR006V0lTRS5JUV9DTE9TRVBSSUNFLjIwMjUvOC80LlVTRAEAAADpsENuAgAAAAczNy45Nzk3AFf1T3J22t0IZ+Mqc3ba3QgnQ0lRLkxTRTpSQk9ULklRX0NMT1NFUFJJQ0UuMjAyNS84LzQuVVNEAQAAAI57JBQCAAAABjE1LjEzNQBX9U9ydtrdCIIlHHN22t0IKENJUS5YVFJBOlhBSVguSVFfQ0xPU0VQUklDRS4yMDI1LzgvNC5VU0QBAAAANeziIgIAAAAPMTYwLjgwOTcxNjYyMDk4AH8KUHJ22t0I3cgdc3ba3QgnQ0lRLkJJVDpXVEFJLklRX0NMT1NFUFJJQ0UuMjAyNS84LzQuVVNEAQAAAE26WyMCAAAADjc1LjA4Mzg2MzUxNTA5AH8KUHJ22t0IiX4ec3ba3QgnQ0lRLkxTRTpBSUFHLklRX0NMT1NFUFJJQ0UuMjAyNS84LzQuVVNEAQAAAPCdgiQCAAAADzI0LjQwMjc0NjIzNDIxNgB/ClBydtrdCHRmH3N22t0IJ0NJUS5BU1g6UkJUWi5JUV9DTE9TRVBSSUNFLjIwMjUvOC80LlVTRAEAAAAp7XYiAgAA</t>
+  </si>
+  <si>
+    <t>AA05LjM5NjAxNjU1NzU0AH8KUHJ22t0IZ+Mqc3ba3QgmQ0lRLkRCOlhCMFQuSVFfQ0xPU0VQUklDRS4yMDI1LzgvNC5VU0QBAAAA0zPeKQIAAAAOMjIuMDgyMTI4NDAwOTEAfwpQcnba3QjWASFzdtrdCCtDSVEuTkFTREFRR006UVFRLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAAA66ewACAAAABjU1My44OAB/ClBydtrdCFJuKnN22t0ILENJUS5OQVNEQVFHTTpBR0lYLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAACP3AHACAAAABzMxLjM5MDEAfwpQcnba3QgnOiJzdtrdCCtDSVEuTkFTREFRR006U01ILklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAAGDCNgACAAAABjI4My45NQB/ClBydtrdCKZtJHN22t0IJ0NJUS5CQVRTOklHVi5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xLlVTRAEAAADNOoYAAgAAAAYxMDguNjMAfwpQcnba3QibqCVzdtrdCCxDSVEuTkFTREFRR006Qk9UWi5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xLlVTRAEAAAD3/QgWAgAAAAUzMy4xMgB/ClBydtrdCH2vInN22t0IK0NJUS5OQVNEQVFHTTpBSVEuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMS5VU0QBAAAA6dxiIQIAAAAFNDMuNDcAfwpQcnba3QiY1iJzdtrdCChDSVEuQVJDQTpBUlRZLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAAG4faSECAAAABTQyLjI2AH8KUHJ22t0IDhgpc3ba3QgsQ0lRLk5BU0RBUUdN</t>
+  </si>
+  <si>
+    <t>OlJPQlQuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMS5VU0QBAAAAXGPZIAIAAAAHNDkuMDIzMgB/ClBydtrdCGVLKXN22t0IKENJUS5BUkNBOklHUFQuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMS5VU0QBAAAAzAJeAQIAAAAGNDkuNTc4AH8KUHJ22t0IGUcqc3ba3QgoQ0lRLkJBVFM6V1RBSS5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xLlVTRAEAAABgTm9kAgAAAAUyNC42NgB/ClBydtrdCBlHKnN22t0IKENJUS5BUkNBOlRITlEuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMS5VU0QBAAAArsN+JAIAAAAFNTQuNDMAfwpQcnba3QiCJRxzdtrdCCxDSVEuTkFTREFRR006RkRUWC5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xLlVTRAEAAAC9pZ0mAgAAAAczOC40NTk4AH8KUHJ22t0I3cgdc3ba3QgoQ0lRLkFSQ0E6Q0hBVC5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xLlVTRAEAAAAAMDVtAgAAAAU0OS45MQB/ClBydtrdCCLwHXN22t0IKENJUS5BUkNBOkxPVVAuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMS5VU0QBAAAAWVwPIgIAAAAFNjIuMDcAfwpQcnba3Qh0Zh9zdtrdCChDSVEuQVJDQTpMUk5aLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAALV2wyYCAAAABzQzLjY1OTMAfwpQcnba3QhtvCpzdtrdCCdDSVEuQVJDQTpBSVMuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMS5VU0QBAAAAmJefcAIAAAAHMjguOTgzMwB/ClBydtrdCNYB</t>
+  </si>
+  <si>
+    <t>IXN22t0ILENJUS5OQVNEQVFHTTpXSVNFLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAAOmwQ24CAAAABzM2Ljg5MDkAfwpQcnba3QjS4ytzdtrdCCdDSVEuTFNFOlJCT1QuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMS5VU0QBAAAAjnskFAIAAAAFMTQuODgAfwpQcnba3QgnOiJzdtrdCChDSVEuWFRSQTpYQUlYLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAADXs4iICAAAADjE1OS4wMzQ3NTM0NDc5AH8KUHJ22t0IYlgkc3ba3QgnQ0lRLkJJVDpXVEFJLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAAE26WyMCAAAADTczLjYxNzM2NTE3OTYAfwpQcnba3QibqCVzdtrdCCdDSVEuTFNFOkFJQUcuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMS5VU0QBAAAA8J2CJAIAAAAPMjMuOTMwMzc4NTcwMTQ4AH8KUHJ22t0Ifa8ic3ba3QgnQ0lRLkFTWDpSQlRaLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEuVVNEAQAAACntdiICAAAADTkuNDk5MjI1NjEzNDQAfwpQcnba3QiY1iJzdtrdCCZDSVEuREI6WEIwVC5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xLlVTRAEAAADTM94pAgAAAA4yMi4xOTM3NDIwNTU4NwB/ClBydtrdCA4YKXN22t0ILENJUS5OQVNEQVFHTTpRUVEuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzEuVVNEAQAAAA66ewACAAAABjU2NS4wMQB/ClBydtrdCGy8K3N22t0ILUNJUS5OQVNEQVFHTTpBR0lY</t>
+  </si>
+  <si>
+    <t>LklRX0NMT1NFUFJJQ0UuMjAyNS83LzMxLlVTRAEAAAAj9wBwAgAAAAczMi40NTk1AH8KUHJ22t0IbLwrc3ba3QgsQ0lRLk5BU0RBUUdNOlNNSC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMS5VU0QBAAAAYMI2AAIAAAAGMjg4Ljc4AH8KUHJ22t0IgiUcc3ba3QgoQ0lRLkJBVFM6SUdWLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMxLlVTRAEAAADNOoYAAgAAAAYxMTEuNjYAfwpQcnba3QiIoR1zdtrdCC1DSVEuTkFTREFRR006Qk9UWi5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMS5VU0QBAAAA9/0IFgIAAAAFMzMuNDcAfwpQcnba3Qh7uhxzdtrdCCxDSVEuTkFTREFRR006QUlRLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMxLlVTRAEAAADp3GIhAgAAAAU0NC41NwB/ClBydtrdCHRmH3N22t0IKUNJUS5BUkNBOkFSVFkuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzEuVVNEAQAAAG4faSECAAAABTQzLjQ1AH8KUHJ22t0IbLwrc3ba3QgtQ0lRLk5BU0RBUUdNOlJPQlQuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzEuVVNEAQAAAFxj2SACAAAABzQ5Ljk2NTUA1R5Qcnba3QgnOiJzdtrdCClDSVEuQVJDQTpJR1BULklRX0NMT1NFUFJJQ0UuMjAyNS83LzMxLlVTRAEAAADMAl4BAgAAAAU1MC42NwDVHlBydtrdCGJYJHN22t0IKUNJUS5CQVRTOldUQUkuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzEuVVNEAQAAAGBOb2QCAAAABTI1LjQ2</t>
+  </si>
+  <si>
+    <t>ANUeUHJ22t0Im6glc3ba3QgpQ0lRLkFSQ0E6VEhOUS5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMS5VU0QBAAAArsN+JAIAAAAFNTYuMTIA1R5Qcnba3Qh9ryJzdtrdCC1DSVEuTkFTREFRR006RkRUWC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMS5VU0QBAAAAvaWdJgIAAAAHMzkuNjQ2NQDVHlBydtrdCJjHJnN22t0IKUNJUS5BUkNBOkNIQVQuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzEuVVNEAQAAAAAwNW0CAAAABTUxLjU0ANUeUHJ22t0IDhgpc3ba3QgpQ0lRLkFSQ0E6TE9VUC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMS5VU0QBAAAAWVwPIgIAAAAFNjQuMjUA1R5Qcnba3QgpsCRzdtrdCClDSVEuQVJDQTpMUk5aLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMxLlVTRAEAAAC1dsMmAgAAAAc0NC40MjMyANUeUHJ22t0IgiUcc3ba3QgoQ0lRLkFSQ0E6QUlTLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMxLlVTRAEAAACYl59wAgAAAAUyOS42NwDVHlBydtrdCIihHXN22t0ILUNJUS5OQVNEQVFHTTpXSVNFLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMxLlVTRAEAAADpsENuAgAAAAczNy44MzYzANUeUHJ22t0IIvAdc3ba3QgoQ0lRLkxTRTpSQk9ULklRX0NMT1NFUFJJQ0UuMjAyNS83LzMxLlVTRAEAAACOeyQUAgAAAAUxNS4zMgDVHlBydtrdCHRmH3N22t0IKUNJUS5YVFJBOlhBSVguSVFfQ0xPU0VQUklDRS4yMDI1Lzcv</t>
+  </si>
+  <si>
+    <t>MzEuVVNEAQAAADXs4iICAAAADzE2NC40NDc0OTQ4NDg3MgDVHlBydtrdCE+VK3N22t0IKENJUS5CSVQ6V1RBSS5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMS5VU0QBAAAATbpbIwIAAAANNzYuNTI3MTEwNDk5MwDVHlBydtrdCJbaIHN22t0IKENJUS5MU0U6QUlBRy5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMS5VU0QBAAAA8J2CJAIAAAAPMjQuOTU3MzUzMTE4NzYyANUeUHJ22t0IT5Urc3ba3QgoQ0lRLkFTWDpSQlRaLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMxLlVTRAEAAAAp7XYiAgAAAA05LjYwMDY2ODc2MjU5ANUeUHJ22t0I0YElc3ba3QgnQ0lRLkRCOlhCMFQuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzEuVVNEAQAAANMz3ikCAAAADzIyLjMyNjY5ODY5NTQ0NgDVHlBydtrdCJagJnN22t0ILENJUS5OQVNEQVFHTTpRUVEuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzAuVVNEAQAAAA66ewACAAAABjU2OC4wMgDVHlBydtrdCJjWInN22t0ILUNJUS5OQVNEQVFHTTpBR0lYLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMwLlVTRAEAAAAj9wBwAgAAAAczMi40MTYyANUeUHJ22t0IDhgpc3ba3QgsQ0lRLk5BU0RBUUdNOlNNSC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMC5VU0QBAAAAYMI2AAIAAAAGMjk2LjI2ANUeUHJ22t0IOgQoc3ba3QgoQ0lRLkJBVFM6SUdWLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMwLlVTRAEAAADN</t>
+  </si>
+  <si>
+    <t>OoYAAgAAAAYxMTIuNzIA1R5Qcnba3QhelSpzdtrdCC1DSVEuTkFTREFRR006Qk9UWi5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMC5VU0QBAAAA9/0IFgIAAAAEMzMuNwDVHlBydtrdCF6VKnN22t0ILENJUS5OQVNEQVFHTTpBSVEuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzAuVVNEAQAAAOncYiECAAAABTQ0LjgyANUeUHJ22t0IiX4ec3ba3QgpQ0lRLkFSQ0E6QVJUWS5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMC5VU0QBAAAAbh9pIQIAAAAFNDMuNzkA1R5Qcnba3Qh0Zh9zdtrdCC1DSVEuTkFTREFRR006Uk9CVC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMC5VU0QBAAAAXGPZIAIAAAAFNTAuMzIA1R5Qcnba3QiRMStzdtrdCClDSVEuQVJDQTpJR1BULklRX0NMT1NFUFJJQ0UuMjAyNS83LzMwLlVTRAEAAADMAl4BAgAAAAI1MQDVHlBydtrdCJbaIHN22t0IKUNJUS5CQVRTOldUQUkuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzAuVVNEAQAAAGBOb2QCAAAABTI1LjgxANUeUHJ22t0IZ+Mqc3ba3QgpQ0lRLkFSQ0E6VEhOUS5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMC5VU0QBAAAArsN+JAIAAAAFNTYuNDkA1R5Qcnba3QgaEyJzdtrdCC1DSVEuTkFTREFRR006RkRUWC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMC5VU0QBAAAAvaWdJgIAAAAHMzkuODY2MwDVHlBydtrdCGJYJHN22t0IKUNJUS5BUkNBOkNIQVQuSVFfQ0xP</t>
+  </si>
+  <si>
+    <t>U0VQUklDRS4yMDI1LzcvMzAuVVNEAQAAAAAwNW0CAAAABTUxLjI3ANUeUHJ22t0IuoMkc3ba3QgpQ0lRLkFSQ0E6TE9VUC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMC5VU0QBAAAAWVwPIgIAAAAFNjUuMTQA1R5Qcnba3QgOGClzdtrdCClDSVEuQVJDQTpMUk5aLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMwLlVTRAEAAAC1dsMmAgAAAAc0NS4xNTE3ANUeUHJ22t0ImMcmc3ba3QgoQ0lRLkFSQ0E6QUlTLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMwLlVTRAEAAACYl59wAgAAAAcyOS43NzQzANUeUHJ22t0IUm4qc3ba3QgtQ0lRLk5BU0RBUUdNOldJU0UuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzAuVVNEAQAAAOmwQ24CAAAABzM3LjkwODUA1R5Qcnba3QhSbipzdtrdCChDSVEuTFNFOlJCT1QuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzAuVVNEAQAAAI57JBQCAAAABTE1LjQxAEAzUHJ22t0IchAcc3ba3QgpQ0lRLlhUUkE6WEFJWC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zMC5VU0QBAAAANeziIgIAAAAPMTYzLjk5MTI3MzQ2NTkyAEAzUHJ22t0IiKEdc3ba3QgoQ0lRLkJJVDpXVEFJLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMwLlVTRAEAAABNulsjAgAAAA03Ni41MzAwMjY0NDI0AEAzUHJ22t0Idgorc3ba3QgoQ0lRLkxTRTpBSUFHLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMwLlVTRAEAAADwnYIkAgAAAA8yNC45NDI4</t>
+  </si>
+  <si>
+    <t>NzA4MDQyMjIAQDNQcnba3QiW2iBzdtrdCChDSVEuQVNYOlJCVFouSVFfQ0xPU0VQUklDRS4yMDI1LzcvMzAuVVNEAQAAACntdiICAAAADDkuNDIzMDAyNDU0MgBAM1BydtrdCG28KnN22t0IJ0NJUS5EQjpYQjBULklRX0NMT1NFUFJJQ0UuMjAyNS83LzMwLlVTRAEAAADTM94pAgAAAA8yMi4xODE2NTExNzUwMDgAQDNQcnba3QgaEyJzdtrdCCxDSVEuTkFTREFRR006UVFRLklRX0NMT1NFUFJJQ0UuMjAyNS83LzI5LlVTRAEAAAAOunsAAgAAAAY1NjcuMjYAQDNQcnba3QhNYSJzdtrdCC1DSVEuTkFTREFRR006QUdJWC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yOS5VU0QBAAAAI/cAcAIAAAAHMzIuNjA1MwBAM1BydtrdCNGBJXN22t0ILENJUS5OQVNEQVFHTTpTTUguSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjkuVVNEAQAAAGDCNgACAAAABTI5Mi45AEAzUHJ22t0I+fslc3ba3QgoQ0lRLkJBVFM6SUdWLklRX0NMT1NFUFJJQ0UuMjAyNS83LzI5LlVTRAEAAADNOoYAAgAAAAYxMTMuMDEAQDNQcnba3Qg6BChzdtrdCC1DSVEuTkFTREFRR006Qk9UWi5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yOS5VU0QBAAAA9/0IFgIAAAAFMzMuODYAQDNQcnba3QgZRypzdtrdCCxDSVEuTkFTREFRR006QUlRLklRX0NMT1NFUFJJQ0UuMjAyNS83LzI5LlVTRAEAAADp3GIhAgAAAAU0NC44OABAM1BydtrdCG28KnN22t0IKUNJUS5B</t>
+  </si>
+  <si>
+    <t>UkNBOkFSVFkuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjkuVVNEAQAAAG4faSECAAAABTQzLjY1AEAzUHJ22t0IchAcc3ba3QgtQ0lRLk5BU0RBUUdNOlJPQlQuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjkuVVNEAQAAAFxj2SACAAAABzUwLjQ5MDMAQDNQcnba3QiIoR1zdtrdCClDSVEuQVJDQTpJR1BULklRX0NMT1NFUFJJQ0UuMjAyNS83LzI5LlVTRAEAAADMAl4BAgAAAAU1MC44OABAM1BydtrdCCLwHXN22t0IKUNJUS5CQVRTOldUQUkuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjkuVVNEAQAAAGBOb2QCAAAABTI1LjY0AEAzUHJ22t0IdGYfc3ba3QgpQ0lRLkFSQ0E6VEhOUS5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yOS5VU0QBAAAArsN+JAIAAAAFNTYuMjQAQDNQcnba3QiPbitzdtrdCC1DSVEuTkFTREFRR006RkRUWC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yOS5VU0QBAAAAvaWdJgIAAAAHMzkuNzUwMgBAM1BydtrdCBoTInN22t0IKUNJUS5BUkNBOkNIQVQuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjkuVVNEAQAAAAAwNW0CAAAABTUwLjk1AEAzUHJ22t0ITWEic3ba3QgpQ0lRLkFSQ0E6TE9VUC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yOS5VU0QBAAAAWVwPIgIAAAAHNjQuNTUyMQBAM1BydtrdCNGBJXN22t0IKUNJUS5BUkNBOkxSTlouSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjkuVVNEAQAAALV2wyYCAAAABzQ1</t>
+  </si>
+  <si>
+    <t>LjEzMjYAQDNQcnba3QiozyVzdtrdCChDSVEuQVJDQTpBSVMuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjkuVVNEAQAAAJiXn3ACAAAABzI5LjYyNTUAQDNQcnba3QhHsydzdtrdCC1DSVEuTkFTREFRR006V0lTRS5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yOS5VU0QBAAAA6bBDbgIAAAAHMzcuOTMzNQBAM1BydtrdCA4YKXN22t0IKENJUS5MU0U6UkJPVC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yOS5VU0QBAAAAjnskFAIAAAAFMTUuNDMAQDNQcnba3Qj4RitzdtrdCClDSVEuWFRSQTpYQUlYLklRX0NMT1NFUFJJQ0UuMjAyNS83LzI5LlVTRAEAAAA17OIiAgAAAA8xNjMuNTg4MTQ3MDc5MTIAQDNQcnba3QhyEBxzdtrdCChDSVEuQklUOldUQUkuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjkuVVNEAQAAAE26WyMCAAAADjc1Ljk5NDQ2NTU2MjM0AEAzUHJ22t0IiKEdc3ba3QgoQ0lRLkxTRTpBSUFHLklRX0NMT1NFUFJJQ0UuMjAyNS83LzI5LlVTRAEAAADwnYIkAgAAAA8yNC43MzIyMjk3ODk2OTYAQDNQcnba3QgupRxzdtrdCChDSVEuQVNYOlJCVFouSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjkuVVNEAQAAACntdiICAAAADDkuNjMyOTA4MTAxMgBAM1BydtrdCHRmH3N22t0IJ0NJUS5EQjpYQjBULklRX0NMT1NFUFJJQ0UuMjAyNS83LzI5LlVTRAEAAADTM94pAgAAAA8yMi41MjczODM4Mjg4MTIAQDNQcnba3QiTCixz</t>
+  </si>
+  <si>
+    <t>dtrdCCxDSVEuTkFTREFRR006UVFRLklRX0NMT1NFUFJJQ0UuMjAyNS83LzI4LlVTRAEAAAAOunsAAgAAAAY1NjguMTQAoUhQcnba3QiW2iBzdtrdCC1DSVEuTkFTREFRR006QUdJWC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yOC5VU0QBAAAAI/cAcAIAAAAHMzIuNzM0NgChSFBydtrdCGJYJHN22t0ILENJUS5OQVNEQVFHTTpTTUguSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjguVVNEAQAAAGDCNgACAAAABjI5MS40MQChSFBydtrdCNGBJXN22t0IKENJUS5CQVRTOklHVi5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yOC5VU0QBAAAAzTqGAAIAAAAGMTEyLjg4AKFIUHJ22t0Ifa8ic3ba3QgtQ0lRLk5BU0RBUUdNOkJPVFouSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjguVVNEAQAAAPf9CBYCAAAABTM0LjI2AKFIUHJ22t0IR7Mnc3ba3QgsQ0lRLk5BU0RBUUdNOkFJUS5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yOC5VU0QBAAAA6dxiIQIAAAAFNDQuOTMAoUhQcnba3QgOGClzdtrdCClDSVEuQVJDQTpBUlRZLklRX0NMT1NFUFJJQ0UuMjAyNS83LzI4LlVTRAEAAABuH2khAgAAAAU0My40NwChSFBydtrdCDoEKHN22t0ILUNJUS5OQVNEQVFHTTpST0JULklRX0NMT1NFUFJJQ0UuMjAyNS83LzI4LlVTRAEAAABcY9kgAgAAAAc1MS4wNTc2AKFIUHJ22t0Idgorc3ba3QgpQ0lRLkFSQ0E6SUdQVC5JUV9DTE9TRVBSSUNFLjIwMjUv</t>
+  </si>
+  <si>
+    <t>Ny8yOC5VU0QBAAAAzAJeAQIAAAAFNTAuODIAoUhQcnba3Qgi8B1zdtrdCClDSVEuQkFUUzpXVEFJLklRX0NMT1NFUFJJQ0UuMjAyNS83LzI4LlVTRAEAAABgTm9kAgAAAAUyNS42MwChSFBydtrdCHRmH3N22t0IKUNJUS5BUkNBOlRITlEuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjguVVNEAQAAAK7DfiQCAAAABTU2LjkxAKFIUHJ22t0Ikwosc3ba3QgtQ0lRLk5BU0RBUUdNOkZEVFguSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjguVVNEAQAAAL2lnSYCAAAABjQwLjAwNQChSFBydtrdCJbaIHN22t0IKUNJUS5BUkNBOkxPVVAuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjguVVNEAQAAAFlcDyICAAAABzY0LjI4ODYAoUhQcnba3Qj4RitzdtrdCClDSVEuQVJDQTpMUk5aLklRX0NMT1NFUFJJQ0UuMjAyNS83LzI4LlVTRAEAAAC1dsMmAgAAAAc0NS43Nzc5AKFIUHJ22t0IGhMic3ba3QgoQ0lRLkFSQ0E6QUlTLklRX0NMT1NFUFJJQ0UuMjAyNS83LzI4LlVTRAEAAACYl59wAgAAAAcyOS4zNjI2AKFIUHJ22t0IR7Mnc3ba3QgtQ0lRLk5BU0RBUUdNOldJU0UuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjguVVNEAQAAAOmwQ24CAAAABzM4LjQ4MDMAoUhQcnba3QgOGClzdtrdCChDSVEuTFNFOlJCT1QuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjguVVNEAQAAAI57JBQCAAAABjE1LjQ3NQChSFBydtrdCCmwJHN22t0IKUNJUS5Y</t>
+  </si>
+  <si>
+    <t>VFJBOlhBSVguSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjguVVNEAQAAADXs4iICAAAADzE2My42NTMyNjUxNzE3NgChSFBydtrdCPhGK3N22t0IKENJUS5CSVQ6V1RBSS5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yOC5VU0QBAAAATbpbIwIAAAAONzYuMDc0ODMxNTE2NTgAoUhQcnba3QhsvCtzdtrdCChDSVEuTFNFOkFJQUcuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjguVVNEAQAAAPCdgiQCAAAADzI0LjkxNDg3NzA4MjYxOAChSFBydtrdCHIQHHN22t0IKENJUS5BU1g6UkJUWi5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yOC5VU0QBAAAAKe12IgIAAAANOS43MjQ3NTg2NzgzOQChSFBydtrdCIihHXN22t0IJ0NJUS5EQjpYQjBULklRX0NMT1NFUFJJQ0UuMjAyNS83LzI4LlVTRAEAAADTM94pAgAAAA8yMi41Nzk1OTU2MzIwNDgAoUhQcnba3QiW2iBzdtrdCCxDSVEuTkFTREFRR006UVFRLklRX0NMT1NFUFJJQ0UuMjAyNS83LzI1LlVTRAEAAAAOunsAAgAAAAY1NjYuMzcAoUhQcnba3QhsvCtzdtrdCCxDSVEuTkFTREFRR006U01ILklRX0NMT1NFUFJJQ0UuMjAyNS83LzI1LlVTRAEAAABgwjYAAgAAAAYyODcuNDkAoUhQcnba3QgaEyJzdtrdCChDSVEuQkFUUzpJR1YuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjUuVVNEAQAAAM06hgACAAAABjExMi42OQChSFBydtrdCE1hInN22t0ILUNJUS5OQVNEQVFHTTpCT1RaLklR</t>
+  </si>
+  <si>
+    <t>X0NMT1NFUFJJQ0UuMjAyNS83LzI1LlVTRAEAAAD3/QgWAgAAAAUzNC4zMwChSFBydtrdCNGBJXN22t0ILENJUS5OQVNEQVFHTTpBSVEuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjUuVVNEAQAAAOncYiECAAAABTQ0Ljc0AKFIUHJ22t0IXYgic3ba3QgpQ0lRLkFSQ0E6QVJUWS5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yNS5VU0QBAAAAbh9pIQIAAAAFNDMuMDQAoUhQcnba3Qh2CitzdtrdCC1DSVEuTkFTREFRR006Uk9CVC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yNS5VU0QBAAAAXGPZIAIAAAAFNTEuMTYAoUhQcnba3QhPlStzdtrdCClDSVEuQVJDQTpJR1BULklRX0NMT1NFUFJJQ0UuMjAyNS83LzI1LlVTRAEAAADMAl4BAgAAAAU1MC41NQChSFBydtrdCHIQHHN22t0IKUNJUS5CQVRTOldUQUkuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjUuVVNEAQAAAGBOb2QCAAAABDI1LjUAoUhQcnba3QiIoR1zdtrdCClDSVEuQVJDQTpUSE5RLklRX0NMT1NFUFJJQ0UuMjAyNS83LzI1LlVTRAEAAACuw34kAgAAAAQ1Ni41AKFIUHJ22t0ILqUcc3ba3QgtQ0lRLk5BU0RBUUdNOkZEVFguSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjUuVVNEAQAAAL2lnSYCAAAABzM5LjkyMTcAoUhQcnba3Qh0Zh9zdtrdCClDSVEuQVJDQTpDSEFULklRX0NMT1NFUFJJQ0UuMjAyNS83LzI1LlVTRAEAAAAAMDVtAgAAAAU1MS4xNQChSFBydtrdCGy8</t>
+  </si>
+  <si>
+    <t>K3N22t0IKUNJUS5BUkNBOkxSTlouSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjUuVVNEAQAAALV2wyYCAAAABzQ1LjQ2MjQAoUhQcnba3QhNYSJzdtrdCChDSVEuQVJDQTpBSVMuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjUuVVNEAQAAAJiXn3ACAAAABzI5LjEwNzIAoUhQcnba3QjRgSVzdtrdCC1DSVEuTkFTREFRR006V0lTRS5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yNS5VU0QBAAAA6bBDbgIAAAAFMzguNTYAoUhQcnba3QiozyVzdtrdCChDSVEuTFNFOlJCT1QuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjUuVVNEAQAAAI57JBQCAAAABjE1LjQ4NQChSFBydtrdCEezJ3N22t0IKUNJUS5YVFJBOlhBSVguSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjUuVVNEAQAAADXs4iICAAAADjE2My43NTU4Njg1MTg0AKFIUHJ22t0IDhgpc3ba3QgoQ0lRLkJJVDpXVEFJLklRX0NMT1NFUFJJQ0UuMjAyNS83LzI1LlVTRAEAAABNulsjAgAAAAw3NS42NDU1Mzk4OTQAoUhQcnba3QjQJCNzdtrdCChDSVEuTFNFOkFJQUcuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjUuVVNEAQAAAPCdgiQCAAAADzI0Ljc1NDc2MzYzMTM5NgChSFBydtrdCIihHXN22t0IKENJUS5BU1g6UkJUWi5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yNS5VU0QBAAAAKe12IgIAAAANOS42NzMzOTk3OTYyNQChSFBydtrdCC6lHHN22t0IJ0NJUS5EQjpYQjBULklRX0NMT1NF</t>
+  </si>
+  <si>
+    <t>UFJJQ0UuMjAyNS83LzI1LlVTRAEAAADTM94pAgAAAA4yMi41NDIyNTM1MTc1MgChSFBydtrdCHRmH3N22t0ILENJUS5OQVNEQVFHTTpRUVEuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjQuVVNEAQAAAA66ewACAAAABjU2NS4wMQChSFBydtrdCG28KnN22t0ILUNJUS5OQVNEQVFHTTpBR0lYLklRX0NMT1NFUFJJQ0UuMjAyNS83LzI0LlVTRAEAAAAj9wBwAgAAAAUzMi4yOAChSFBydtrdCJbaIHN22t0ILENJUS5OQVNEQVFHTTpTTUguSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjQuVVNEAQAAAGDCNgACAAAABTI4Ny44AKFIUHJ22t0IkTErc3ba3QgoQ0lRLkJBVFM6SUdWLklRX0NMT1NFUFJJQ0UuMjAyNS83LzI0LlVTRAEAAADNOoYAAgAAAAYxMTIuMDkAoUhQcnba3QgaEyJzdtrdCC1DSVEuTkFTREFRR006Qk9UWi5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yNC5VU0QBAAAA9/0IFgIAAAAFMzQuNDkAoUhQcnba3QhdiCJzdtrdCCxDSVEuTkFTREFRR006QUlRLklRX0NMT1NFUFJJQ0UuMjAyNS83LzI0LlVTRAEAAADp3GIhAgAAAAU0NC41OQChSFBydtrdCEezJ3N22t0IKUNJUS5BUkNBOkFSVFkuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjQuVVNEAQAAAG4faSECAAAABTQyLjYyAKFIUHJ22t0IDfEoc3ba3QgtQ0lRLk5BU0RBUUdNOlJPQlQuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjQuVVNEAQAAAFxj2SACAAAABTUw</t>
+  </si>
+  <si>
+    <t>Ljg0AKFIUHJ22t0IOgQoc3ba3QgpQ0lRLkFSQ0E6SUdQVC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yNC5VU0QBAAAAzAJeAQIAAAAFNTAuNDUAoUhQcnba3QgZRypzdtrdCClDSVEuQkFUUzpXVEFJLklRX0NMT1NFUFJJQ0UuMjAyNS83LzI0LlVTRAEAAABgTm9kAgAAAAUyNS4zNgD0b1BydtrdCG28KnN22t0IKUNJUS5BUkNBOlRITlEuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjQuVVNEAQAAAK7DfiQCAAAABzU1Ljg1OTgA9G9Qcnba3QhyEBxzdtrdCC1DSVEuTkFTREFRR006RkRUWC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yNC5VU0QBAAAAvaWdJgIAAAAHMzkuNzU0OAD0b1BydtrdCI9uK3N22t0IKUNJUS5BUkNBOkNIQVQuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjQuVVNEAQAAAAAwNW0CAAAABTUwLjkxAPRvUHJ22t0Iltogc3ba3QgpQ0lRLkFSQ0E6TE9VUC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yNC5VU0QBAAAAWVwPIgIAAAAGNjMuNDQyAPRvUHJ22t0IXpUqc3ba3QgpQ0lRLkFSQ0E6TFJOWi5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yNC5VU0QBAAAAtXbDJgIAAAAHNDQuOTAyMQD0b1BydtrdCBoTInN22t0IKENJUS5BUkNBOkFJUy5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yNC5VU0QBAAAAmJefcAIAAAAHMjkuMDU4MQD0b1BydtrdCGJYJHN22t0IKENJUS5MU0U6UkJPVC5JUV9DTE9TRVBSSUNFLjIwMjUv</t>
+  </si>
+  <si>
+    <t>Ny8yNC5VU0QBAAAAjnskFAIAAAAFMTUuNTQA9G9Qcnba3QjRgSVzdtrdCClDSVEuWFRSQTpYQUlYLklRX0NMT1NFUFJJQ0UuMjAyNS83LzI0LlVTRAEAAAA17OIiAgAAAA8xNjMuNTgyODYyNTA4MzYA9G9Qcnba3Qg6BChzdtrdCChDSVEuQklUOldUQUkuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjQuVVNEAQAAAE26WyMCAAAADjc1LjY0NzM2MzQ1ODE0APRvUHJ22t0IT5Urc3ba3QgoQ0lRLkxTRTpBSUFHLklRX0NMT1NFUFJJQ0UuMjAyNS83LzI0LlVTRAEAAADwnYIkAgAAAA8yNC42MjAzMTk5ODY1MjYA9G9Qcnba3QjS4ytzdtrdCChDSVEuQVNYOlJCVFouSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjQuVVNEAQAAACntdiICAAAADDkuODQzNDMwMDAxNAD0b1BydtrdCEP7G3N22t0IJ0NJUS5EQjpYQjBULklRX0NMT1NFUFJJQ0UuMjAyNS83LzI0LlVTRAEAAADTM94pAgAAAA8yMi44NDM2OTExNDY2NTYA9G9Qcnba3QiIoR1zdtrdCCxDSVEuTkFTREFRR006UVFRLklRX0NMT1NFUFJJQ0UuMjAyNS83LzIzLlVTRAEAAAAOunsAAgAAAAY1NjMuODEA9G9Qcnba3Qgi8B1zdtrdCC1DSVEuTkFTREFRR006QUdJWC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yMy5VU0QBAAAAI/cAcAIAAAAHMzIuMjYzOAD0b1BydtrdCHRmH3N22t0ILENJUS5OQVNEQVFHTTpTTUguSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjMuVVNEAQAA</t>
+  </si>
+  <si>
+    <t>AGDCNgACAAAABjI4Ni42MQD0b1BydtrdCBoTInN22t0IKENJUS5CQVRTOklHVi5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yMy5VU0QBAAAAzTqGAAIAAAAGMTExLjgxAPRvUHJ22t0ITWEic3ba3QgtQ0lRLk5BU0RBUUdNOkJPVFouSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjMuVVNEAQAAAPf9CBYCAAAABTM0LjUzAPRvUHJ22t0I0YElc3ba3QgpQ0lRLkFSQ0E6QVJUWS5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yMy5VU0QBAAAAbh9pIQIAAAAFNDIuNjUA9G9Qcnba3QhdiCJzdtrdCC1DSVEuTkFTREFRR006Uk9CVC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yMy5VU0QBAAAAXGPZIAIAAAAFNTEuMzgA9G9Qcnba3QhHsydzdtrdCClDSVEuQVJDQTpJR1BULklRX0NMT1NFUFJJQ0UuMjAyNS83LzIzLlVTRAEAAADMAl4BAgAAAAU1MC40NAD0b1BydtrdCA3xKHN22t0IKUNJUS5CQVRTOldUQUkuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjMuVVNEAQAAAGBOb2QCAAAABTI1LjMxAPRvUHJ22t0IQ/sbc3ba3QgpQ0lRLkFSQ0E6VEhOUS5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yMy5VU0QBAAAArsN+JAIAAAAFNTUuODcA9G9Qcnba3QiIoR1zdtrdCC1DSVEuTkFTREFRR006RkRUWC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yMy5VU0QBAAAAvaWdJgIAAAAHMzkuNTc3MgD0b1BydtrdCCLwHXN22t0IKUNJUS5BUkNBOkNIQVQuSVFf</t>
+  </si>
+  <si>
+    <t>Q0xPU0VQUklDRS4yMDI1LzcvMjMuVVNEAQAAAAAwNW0CAAAABTUwLjU5APRvUHJ22t0IVC8fc3ba3QgpQ0lRLkFSQ0E6TE9VUC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yMy5VU0QBAAAAWVwPIgIAAAAHNjMuMzUzNQD0b1BydtrdCPhGK3N22t0IKUNJUS5BUkNBOkxSTlouSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjMuVVNEAQAAALV2wyYCAAAABzQ0LjQwODQA9G9Qcnba3QiW2iBzdtrdCChDSVEuQVJDQTpBSVMuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjMuVVNEAQAAAJiXn3ACAAAABzI5LjA1NTcA9G9Qcnba3QhelSpzdtrdCC1DSVEuTkFTREFRR006V0lTRS5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yMy5VU0QBAAAA6bBDbgIAAAAFMzkuMTIA9G9Qcnba3QiozyVzdtrdCClDSVEuWFRSQTpYQUlYLklRX0NMT1NFUFJJQ0UuMjAyNS83LzIzLlVTRAEAAAA17OIiAgAAAA0xNjMuMDI4MTY4OTg4APRvUHJ22t0IR7Mnc3ba3QgoQ0lRLkJJVDpXVEFJLklRX0NMT1NFUFJJQ0UuMjAyNS83LzIzLlVTRAEAAABNulsjAgAAAA03NS44OTIwMTg3NjcyAPRvUHJ22t0IDfEoc3ba3QgoQ0lRLkxTRTpBSUFHLklRX0NMT1NFUFJJQ0UuMjAyNS83LzIzLlVTRAEAAADwnYIkAgAAAA8yNC41MTUwMTc0OTI3NTUA9G9Qcnba3QhlSylzdtrdCChDSVEuQVNYOlJCVFouSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjMuVVNEAQAAACntdiIC</t>
+  </si>
+  <si>
+    <t>AAAADTkuNTY5MjgzNDUxMTEA9G9Qcnba3QiPbitzdtrdCCdDSVEuREI6WEIwVC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yMy5VU0QBAAAA0zPeKQIAAAAOMjIuMTY0MzE5MjQ1MjgA9G9Qcnba3QiPbitzdtrdCCxDSVEuTkFTREFRR006UVFRLklRX0NMT1NFUFJJQ0UuMjAyNS83LzIyLlVTRAEAAAAOunsAAgAAAAY1NjEuMjUA9G9Qcnba3QhULx9zdtrdCC1DSVEuTkFTREFRR006QUdJWC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yMi5VU0QBAAAAI/cAcAIAAAAHMzEuOTc0OQD0b1BydtrdCI9uK3N22t0ILENJUS5OQVNEQVFHTTpTTUguSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjIuVVNEAQAAAGDCNgACAAAABjI4NS4zNwD0b1BydtrdCJbaIHN22t0IKENJUS5CQVRTOklHVi5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yMi5VU0QBAAAAzTqGAAIAAAAFMTEwLjkA9G9Qcnba3Qj4RitzdtrdCC1DSVEuTkFTREFRR006Qk9UWi5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yMi5VU0QBAAAA9/0IFgIAAAAFMzIuODgA9G9Qcnba3QgaEyJzdtrdCCxDSVEuTkFTREFRR006QUlRLklRX0NMT1NFUFJJQ0UuMjAyNS83LzIyLlVTRAEAAADp3GIhAgAAAAU0NC4xOAD0b1BydtrdCE1hInN22t0IKUNJUS5BUkNBOkFSVFkuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjIuVVNEAQAAAG4faSECAAAABTQxLjk1APRvUHJ22t0I0YElc3ba3QgtQ0lR</t>
+  </si>
+  <si>
+    <t>Lk5BU0RBUUdNOlJPQlQuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjIuVVNEAQAAAFxj2SACAAAABTQ5Ljg0APRvUHJ22t0IDfEoc3ba3QgpQ0lRLkFSQ0E6SUdQVC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yMi5VU0QBAAAAzAJeAQIAAAAFNDkuOTQA9G9Qcnba3QjQJCNzdtrdCClDSVEuQkFUUzpXVEFJLklRX0NMT1NFUFJJQ0UuMjAyNS83LzIyLlVTRAEAAABgTm9kAgAAAAYyNC44NzUA9G9Qcnba3Qhn4ypzdtrdCClDSVEuQVJDQTpUSE5RLklRX0NMT1NFUFJJQ0UuMjAyNS83LzIyLlVTRAEAAACuw34kAgAAAAU1NS4zOAD0b1BydtrdCJExK3N22t0ILUNJUS5OQVNEQVFHTTpGRFRYLklRX0NMT1NFUFJJQ0UuMjAyNS83LzIyLlVTRAEAAAC9pZ0mAgAAAAczOS4zNjk2APRvUHJ22t0IQ/sbc3ba3QgpQ0lRLkFSQ0E6Q0hBVC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yMi5VU0QBAAAAADA1bQIAAAAENDkuOAD0b1BydtrdCIihHXN22t0IKUNJUS5BUkNBOkxPVVAuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjIuVVNEAQAAAFlcDyICAAAABzYyLjgwMTcA9G9Qcnba3Qgi8B1zdtrdCClDSVEuQVJDQTpMUk5aLklRX0NMT1NFUFJJQ0UuMjAyNS83LzIyLlVTRAEAAAC1dsMmAgAAAAc0NC4yNDE0APRvUHJ22t0Ibbwqc3ba3QgoQ0lRLkFSQ0E6QUlTLklRX0NMT1NFUFJJQ0UuMjAyNS83LzIyLlVTRAEAAACYl59wAgAAAAUy</t>
+  </si>
+  <si>
+    <t>OC4yNgD0b1BydtrdCBoTInN22t0ILUNJUS5OQVNEQVFHTTpXSVNFLklRX0NMT1NFUFJJQ0UuMjAyNS83LzIyLlVTRAEAAADpsENuAgAAAAczOC4yNTY2APRvUHJ22t0ITWEic3ba3QgoQ0lRLkxTRTpSQk9ULklRX0NMT1NFUFJJQ0UuMjAyNS83LzIyLlVTRAEAAACOeyQUAgAAAAYxNS4zNTUA9G9Qcnba3QjRgSVzdtrdCClDSVEuWFRSQTpYQUlYLklRX0NMT1NFUFJJQ0UuMjAyNS83LzIyLlVTRAEAAAA17OIiAgAAAA4xNjIuNTExNzM3MDYzMgD0b1BydtrdCF2IInN22t0IKENJUS5CSVQ6V1RBSS5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yMi5VU0QBAAAATbpbIwIAAAALNzUuMTE3MzcwODgA9G9Qcnba3QhHsydzdtrdCChDSVEuQVNYOlJCVFouSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjIuVVNEAQAAACntdiICAAAADTkuMzY3MDIyMzI3NDkA9G9Qcnba3QhtvCpzdtrdCCdDSVEuREI6WEIwVC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yMi5VU0QBAAAA0zPeKQIAAAAOMjEuNzExMjY3NjAyMTYAC5dQcnba3QhD+xtzdtrdCCxDSVEuTkFTREFRR006UVFRLklRX0NMT1NFUFJJQ0UuMjAyNS83LzIxLlVTRAEAAAAOunsAAgAAAAY1NjQuMTcAC5dQcnba3QiEjB1zdtrdCC1DSVEuTkFTREFRR006QUdJWC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yMS5VU0QBAAAAI/cAcAIAAAAFMzIuMjYAC5dQcnba3QgupRxzdtrdCCxD</t>
+  </si>
+  <si>
+    <t>SVEuTkFTREFRR006U01ILklRX0NMT1NFUFJJQ0UuMjAyNS83LzIxLlVTRAEAAABgwjYAAgAAAAYyOTAuNTEAC5dQcnba3QhULx9zdtrdCChDSVEuQkFUUzpJR1YuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjEuVVNEAQAAAM06hgACAAAABjExMS4yMQALl1BydtrdCFJuKnN22t0ILUNJUS5OQVNEQVFHTTpCT1RaLklRX0NMT1NFUFJJQ0UuMjAyNS83LzIxLlVTRAEAAAD3/QgWAgAAAAUzMy4wMQALl1BydtrdCJGzIHN22t0ILENJUS5OQVNEQVFHTTpBSVEuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjEuVVNEAQAAAOncYiECAAAABTQ0LjUzAAuXUHJ22t0I0YElc3ba3QgpQ0lRLkFSQ0E6QVJUWS5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yMS5VU0QBAAAAbh9pIQIAAAAFNDIuMjgAC5dQcnba3QiWoCZzdtrdCC1DSVEuTkFTREFRR006Uk9CVC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yMS5VU0QBAAAAXGPZIAIAAAAHNDkuNjIxOAALl1BydtrdCEezJ3N22t0IKUNJUS5BUkNBOklHUFQuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjEuVVNEAQAAAMwCXgECAAAABTUwLjE3AAuXUHJ22t0IDfEoc3ba3QgpQ0lRLkFSQ0E6VEhOUS5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yMS5VU0QBAAAArsN+JAIAAAAFNTUuODkAC5dQcnba3QjQJCNzdtrdCC1DSVEuTkFTREFRR006RkRUWC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yMS5VU0QBAAAA</t>
+  </si>
+  <si>
+    <t>vaWdJgIAAAAHMzkuNjc2NQALl1BydtrdCBlHKnN22t0IKUNJUS5BUkNBOkNIQVQuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjEuVVNEAQAAAAAwNW0CAAAABTUwLjQ2AAuXUHJ22t0ILqUcc3ba3QgpQ0lRLkFSQ0E6TE9VUC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yMS5VU0QBAAAAWVwPIgIAAAAHNjMuNjIyOAALl1BydtrdCFQvH3N22t0IKUNJUS5BUkNBOkxSTlouSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjEuVVNEAQAAALV2wyYCAAAABzQ0LjgzOTEAC5dQcnba3QhelSpzdtrdCChDSVEuQVJDQTpBSVMuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjEuVVNEAQAAAJiXn3ACAAAABTI4Ljg4AAuXUHJ22t0IkbMgc3ba3QgtQ0lRLk5BU0RBUUdNOldJU0UuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMjEuVVNEAQAAAOmwQ24CAAAABjM4LjUyNQALl1BydtrdCGy8K3N22t0IKENJUS5MU0U6UkJPVC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yMS5VU0QBAAAAjnskFAIAAAAGMTUuNDU1AAuXUHJ22t0IC+whc3ba3QgpQ0lRLlhUUkE6WEFJWC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yMS5VU0QBAAAANeziIgIAAAAPMTY0LjE3MTA2MDM1OTU2AAuXUHJ22t0I6UMkc3ba3QgoQ0lRLkJJVDpXVEFJLklRX0NMT1NFUFJJQ0UuMjAyNS83LzIxLlVTRAEAAABNulsjAgAAAA43Ni4yNjI0NDg3NDk2NwALl1BydtrdCA3xKHN22t0IKENJUS5M</t>
+  </si>
+  <si>
+    <t>U0U6QUlBRy5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yMS5VU0QBAAAA8J2CJAIAAAAOMjQuNzI5MjA3NzQyOTMAC5dQcnba3QhlSylzdtrdCCdDSVEuREI6WEIwVC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yMS5VU0QBAAAA0zPeKQIAAAAPMjIuMDg3ODczNDY0ODc2AAuXUHJ22t0I+EYrc3ba3QgsQ0lRLk5BU0RBUUdNOlFRUS5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xOC5VU0QBAAAADrp7AAIAAAAGNTYxLjI2AAuXUHJ22t0IXpUqc3ba3QgtQ0lRLk5BU0RBUUdNOkFHSVguSVFfQ0xPU0VQUklDRS4yMDI1LzcvMTguVVNEAQAAACP3AHACAAAABzMyLjExOTUAC5dQcnba3QhD+xtzdtrdCCxDSVEuTkFTREFRR006U01ILklRX0NMT1NFUFJJQ0UuMjAyNS83LzE4LlVTRAEAAABgwjYAAgAAAAYyOTAuMzEAC5dQcnba3QiEjB1zdtrdCChDSVEuQkFUUzpJR1YuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMTguVVNEAQAAAM06hgACAAAABjExMS4wNgALl1BydtrdCJGzIHN22t0ILUNJUS5OQVNEQVFHTTpCT1RaLklRX0NMT1NFUFJJQ0UuMjAyNS83LzE4LlVTRAEAAAD3/QgWAgAAAAUzMy4xNgALl1BydtrdCGfjKnN22t0ILENJUS5OQVNEQVFHTTpBSVEuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMTguVVNEAQAAAOncYiECAAAABTQ0LjM2AAuXUHJ22t0IC+whc3ba3QgpQ0lRLkFSQ0E6QVJUWS5JUV9DTE9TRVBSSUNFLjIwMjUv</t>
+  </si>
+  <si>
+    <t>Ny8xOC5VU0QBAAAAbh9pIQIAAAAFNDIuMjUAC5dQcnba3QhNYSJzdtrdCC1DSVEuTkFTREFRR006Uk9CVC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xOC5VU0QBAAAAXGPZIAIAAAAHNDkuNDQ1NAALl1BydtrdCNGBJXN22t0IKUNJUS5BUkNBOklHUFQuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMTguVVNEAQAAAMwCXgECAAAABTQ5Ljg4AAuXUHJ22t0IlqAmc3ba3QgpQ0lRLkJBVFM6V1RBSS5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xOC5VU0QBAAAAYE5vZAIAAAAFMjUuMDYAC5dQcnba3QhHsydzdtrdCC1DSVEuTkFTREFRR006RkRUWC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xOC5VU0QBAAAAvaWdJgIAAAAGMzkuNTc1AAuXUHJ22t0IXpUqc3ba3QgpQ0lRLkFSQ0E6Q0hBVC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xOC5VU0QBAAAAADA1bQIAAAAFNDkuOTEAC5dQcnba3QhD+xtzdtrdCClDSVEuQVJDQTpMT1VQLklRX0NMT1NFUFJJQ0UuMjAyNS83LzE4LlVTRAEAAABZXA8iAgAAAAY2Mi44NjQAC5dQcnba3QiEjB1zdtrdCClDSVEuQVJDQTpMUk5aLklRX0NMT1NFUFJJQ0UuMjAyNS83LzE4LlVTRAEAAAC1dsMmAgAAAAc0NC41Mzk0AAuXUHJ22t0IIvAdc3ba3QgoQ0lRLkFSQ0E6QUlTLklRX0NMT1NFUFJJQ0UuMjAyNS83LzE4LlVTRAEAAACYl59wAgAAAAYyOC41OTUAC5dQcnba3QhULx9zdtrdCC1DSVEuTkFT</t>
+  </si>
+  <si>
+    <t>REFRR006V0lTRS5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xOC5VU0QBAAAA6bBDbgIAAAAHMzguNTE0OQALl1BydtrdCHYKK3N22t0IKENJUS5MU0U6UkJPVC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xOC5VU0QBAAAAjnskFAIAAAAGMTUuMzk1AAuXUHJ22t0I6UMkc3ba3QgpQ0lRLlhUUkE6WEFJWC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xOC5VU0QBAAAANeziIgIAAAAPMTYyLjg0MzgyMjkxMzUyAAuXUHJ22t0IElolc3ba3QgoQ0lRLkJJVDpXVEFJLklRX0NMT1NFUFJJQ0UuMjAyNS83LzE4LlVTRAEAAABNulsjAgAAAA43NC45MzAwNjk5NjIxNAALl1BydtrdCJagJnN22t0IKENJUS5MU0U6QUlBRy5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xOC5VU0QBAAAA8J2CJAIAAAAPMjQuMzkyNjM3NzExNjQ0AAuXUHJ22t0IMIwnc3ba3QgoQ0lRLkFTWDpSQlRaLklRX0NMT1NFUFJJQ0UuMjAyNS83LzE4LlVTRAEAAAAp7XYiAgAAAAw5LjMzMjM3NjE2NzQAC5dQcnba3QgN8ShzdtrdCCdDSVEuREI6WEIwVC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xOC5VU0QBAAAA0zPeKQIAAAAPMjEuOTE2MDgzOTI1NDY0AAuXUHJ22t0IOgQoc3ba3QgsQ0lRLk5BU0RBUUdNOlFRUS5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xNy5VU0QBAAAADrp7AAIAAAAFNTYxLjgAC5dQcnba3Qhn4ypzdtrdCC1DSVEuTkFTREFRR006QUdJWC5JUV9D</t>
+  </si>
+  <si>
+    <t>TE9TRVBSSUNFLjIwMjUvNy8xNy5VU0QBAAAAI/cAcAIAAAAGMzEuOTU1AAuXUHJ22t0I3cgdc3ba3QgsQ0lRLk5BU0RBUUdNOlNNSC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xNy5VU0QBAAAAYMI2AAIAAAAGMjkxLjcxAAuXUHJ22t0IVC8fc3ba3QgoQ0lRLkJBVFM6SUdWLklRX0NMT1NFUFJJQ0UuMjAyNS83LzE3LlVTRAEAAADNOoYAAgAAAAYxMTEuMzEAC5dQcnba3QhsvCtzdtrdCC1DSVEuTkFTREFRR006Qk9UWi5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xNy5VU0QBAAAA9/0IFgIAAAAFMzMuMjIAC5dQcnba3QiRsyBzdtrdCCxDSVEuTkFTREFRR006QUlRLklRX0NMT1NFUFJJQ0UuMjAyNS83LzE3LlVTRAEAAADp3GIhAgAAAAU0NC40MwALl1BydtrdCHYKK3N22t0IKUNJUS5BUkNBOkFSVFkuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMTcuVVNEAQAAAG4faSECAAAABDQyLjMAC5dQcnba3QgdRhRzdtrdCC1DSVEuTkFTREFRR006Uk9CVC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xNy5VU0QBAAAAXGPZIAIAAAAHNDkuMzUwOAALl1BydtrdCAvsIXN22t0IKUNJUS5BUkNBOklHUFQuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMTcuVVNEAQAAAMwCXgECAAAABTQ5LjkxAAuXUHJ22t0IDfEoc3ba3QgpQ0lRLkJBVFM6V1RBSS5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xNy5VU0QBAAAAYE5vZAIAAAAFMjQuOTkAC5dQcnba</t>
+  </si>
+  <si>
+    <t>3QhlSylzdtrdCClDSVEuQVJDQTpUSE5RLklRX0NMT1NFUFJJQ0UuMjAyNS83LzE3LlVTRAEAAACuw34kAgAAAAU1NS4xNQALl1BydtrdCI9uK3N22t0ILUNJUS5OQVNEQVFHTTpGRFRYLklRX0NMT1NFUFJJQ0UuMjAyNS83LzE3LlVTRAEAAAC9pZ0mAgAAAAczOS42MDQ1AAuXUHJ22t0IUm4qc3ba3QgpQ0lRLkFSQ0E6Q0hBVC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xNy5VU0QBAAAAADA1bQIAAAAFNDkuODUAC5dQcnba3QiO5xtzdtrdCClDSVEuQVJDQTpMUk5aLklRX0NMT1NFUFJJQ0UuMjAyNS83LzE3LlVTRAEAAAC1dsMmAgAAAAQ0NC4xAAm+UHJ22t0IhIwdc3ba3QgoQ0lRLkFSQ0E6QUlTLklRX0NMT1NFUFJJQ0UuMjAyNS83LzE3LlVTRAEAAACYl59wAgAAAAUyOC41MwAJvlBydtrdCFJuKnN22t0ILUNJUS5OQVNEQVFHTTpXSVNFLklRX0NMT1NFUFJJQ0UuMjAyNS83LzE3LlVTRAEAAADpsENuAgAAAAczOC41MjQ0AAm+UHJ22t0IC+whc3ba3QgoQ0lRLkxTRTpSQk9ULklRX0NMT1NFUFJJQ0UuMjAyNS83LzE3LlVTRAEAAACOeyQUAgAAAAUxNS40MgAJvlBydtrdCOlDJHN22t0IKUNJUS5YVFJBOlhBSVguSVFfQ0xPU0VQUklDRS4yMDI1LzcvMTcuVVNEAQAAADXs4iICAAAADzE2Mi41MjE3MjkwNjA4OAAJvlBydtrdCB1GFHN22t0IKENJUS5CSVQ6V1RBSS5JUV9DTE9TRVBSSUNFLjIwMjUvNy8x</t>
+  </si>
+  <si>
+    <t>Ny5VU0QBAAAATbpbIwIAAAAONzQuNzAxNTg3NjczMDIACb5Qcnba3QgSWiVzdtrdCChDSVEuTFNFOkFJQUcuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMTcuVVNEAQAAAPCdgiQCAAAADjI0LjMxNTMzNDg4NDMzAAm+UHJ22t0IlqAmc3ba3QgoQ0lRLkFTWDpSQlRaLklRX0NMT1NFUFJJQ0UuMjAyNS83LzE3LlVTRAEAAAAp7XYiAgAAAA05LjIzODI0OTU5MjI1AAm+UHJ22t0IMIwnc3ba3QgnQ0lRLkRCOlhCMFQuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMTcuVVNEAQAAANMz3ikCAAAADzIxLjU3NjA4MDY1OTI2NgAJvlBydtrdCI7nG3N22t0ILENJUS5OQVNEQVFHTTpRUVEuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMTYuVVNEAQAAAA66ewACAAAABjU1Ny4yOQAJvlBydtrdCISMHXN22t0ILUNJUS5OQVNEQVFHTTpBR0lYLklRX0NMT1NFUFJJQ0UuMjAyNS83LzE2LlVTRAEAAAAj9wBwAgAAAAczMS43NzEyAAm+UHJ22t0I3cgdc3ba3QgoQ0lRLkJBVFM6SUdWLklRX0NMT1NFUFJJQ0UuMjAyNS83LzE2LlVTRAEAAADNOoYAAgAAAAYxMDkuODEACb5Qcnba3QhULx9zdtrdCC1DSVEuTkFTREFRR006Qk9UWi5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xNi5VU0QBAAAA9/0IFgIAAAAFMzIuNTYACb5Qcnba3Qit5BxzdtrdCCxDSVEuTkFTREFRR006QUlRLklRX0NMT1NFUFJJQ0UuMjAyNS83LzE2LlVTRAEAAADp3GIhAgAA</t>
+  </si>
+  <si>
+    <t>AAU0My45OAAJvlBydtrdCJGzIHN22t0IKUNJUS5BUkNBOkFSVFkuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMTYuVVNEAQAAAG4faSECAAAABTQxLjgzAAm+UHJ22t0IXYgic3ba3QgtQ0lRLk5BU0RBUUdNOlJPQlQuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMTYuVVNEAQAAAFxj2SACAAAABDQ4LjUACb5Qcnba3QgdRhRzdtrdCClDSVEuQVJDQTpJR1BULklRX0NMT1NFUFJJQ0UuMjAyNS83LzE2LlVTRAEAAADMAl4BAgAAAAU0OS43NQAJvlBydtrdCDCMJ3N22t0IKUNJUS5CQVRTOldUQUkuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMTYuVVNEAQAAAGBOb2QCAAAABTI0Ljc1AAm+UHJ22t0IDfEoc3ba3QgpQ0lRLkFSQ0E6VEhOUS5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xNi5VU0QBAAAArsN+JAIAAAAFNTQuNjEACb5Qcnba3QjQJCNzdtrdCC1DSVEuTkFTREFRR006RkRUWC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xNi5VU0QBAAAAvaWdJgIAAAAGMzkuMDQ1AAm+UHJ22t0Ibbwqc3ba3QgpQ0lRLkFSQ0E6Q0hBVC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xNi5VU0QBAAAAADA1bQIAAAAENDkuNQAJvlBydtrdCHYKK3N22t0IKUNJUS5BUkNBOkxPVVAuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMTYuVVNEAQAAAFlcDyICAAAABzYyLjA4OTYACb5Qcnba3Qit5BxzdtrdCChDSVEuQVJDQTpBSVMuSVFfQ0xPU0VQUklDRS4yMDI1</t>
+  </si>
+  <si>
+    <t>LzcvMTYuVVNEAQAAAJiXn3ACAAAABTI4LjE1AAm+UHJ22t0IkbMgc3ba3QgtQ0lRLk5BU0RBUUdNOldJU0UuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMTYuVVNEAQAAAOmwQ24CAAAABzM3LjU1ODcACb5Qcnba3QgZRypzdtrdCChDSVEuTFNFOlJCT1QuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMTYuVVNEAQAAAI57JBQCAAAABTE1LjEzAAm+UHJ22t0IC+whc3ba3QgpQ0lRLlhUUkE6WEFJWC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xNi5VU0QBAAAANeziIgIAAAANMTU5LjM1MDkyMjI3NgAJvlBydtrdCOlDJHN22t0IKENJUS5CSVQ6V1RBSS5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xNi5VU0QBAAAATbpbIwIAAAAONzIuNzQxMDY5MzU1NDQACb5Qcnba3QgSWiVzdtrdCChDSVEuTFNFOkFJQUcuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMTYuVVNEAQAAAPCdgiQCAAAADzIzLjgwMjk4NzQ4MDg4OAAJvlBydtrdCDoEKHN22t0IKENJUS5BU1g6UkJUWi5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xNi5VU0QBAAAAKe12IgIAAAANOS4xMDE2MTYxNjg0NQAJvlBydtrdCNLjK3N22t0IJ0NJUS5EQjpYQjBULklRX0NMT1NFUFJJQ0UuMjAyNS83LzE2LlVTRAEAAADTM94pAgAAAA8yMS4zMzU1MTI0OTQ2MjQACb5Qcnba3QiTCixzdtrdCCxDSVEuTkFTREFRR006UVFRLklRX0NMT1NFUFJJQ0UuMjAyNS83LzE1LlVTRAEAAAAOunsA</t>
+  </si>
+  <si>
+    <t>AgAAAAY1NTYuNzIACb5Qcnba3QiO5xtzdtrdCC1DSVEuTkFTREFRR006QUdJWC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xNS5VU0QBAAAAI/cAcAIAAAAFMzEuNzkACb5Qcnba3QhGdx1zdtrdCCxDSVEuTkFTREFRR006U01ILklRX0NMT1NFUFJJQ0UuMjAyNS83LzE1LlVTRAEAAABgwjYAAgAAAAUyOTAuOAAJvlBydtrdCIyPHHN22t0IKENJUS5CQVRTOklHVi5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xNS5VU0QBAAAAzTqGAAIAAAAGMTA4Ljk5AAm+UHJ22t0IVC8fc3ba3QgtQ0lRLk5BU0RBUUdNOkJPVFouSVFfQ0xPU0VQUklDRS4yMDI1LzcvMTUuVVNEAQAAAPf9CBYCAAAABTMyLjMzAAm+UHJ22t0IC+whc3ba3QgsQ0lRLk5BU0RBUUdNOkFJUS5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xNS5VU0QBAAAA6dxiIQIAAAAFNDMuNzkACb5Qcnba3QjpQyRzdtrdCClDSVEuQVJDQTpBUlRZLklRX0NMT1NFUFJJQ0UuMjAyNS83LzE1LlVTRAEAAABuH2khAgAAAAU0MS43MwAJvlBydtrdCBJaJXN22t0ILUNJUS5OQVNEQVFHTTpST0JULklRX0NMT1NFUFJJQ0UuMjAyNS83LzE1LlVTRAEAAABcY9kgAgAAAAU0OC4xNAAJvlBydtrdCLqDJHN22t0IKUNJUS5BUkNBOklHUFQuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMTUuVVNEAQAAAMwCXgECAAAABDQ5LjYACb5Qcnba3QgwjCdzdtrdCClDSVEuQkFUUzpXVEFJLklRX0NM</t>
+  </si>
+  <si>
+    <t>T1NFUFJJQ0UuMjAyNS83LzE1LlVTRAEAAABgTm9kAgAAAAUyNC41OAAJvlBydtrdCA3xKHN22t0IKUNJUS5BUkNBOlRITlEuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMTUuVVNEAQAAAK7DfiQCAAAABDU0LjQACb5Qcnba3QgdRhRzdtrdCC1DSVEuTkFTREFRR006RkRUWC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xNS5VU0QBAAAAvaWdJgIAAAAHMzguOTU1OQAJvlBydtrdCEZ3HXN22t0IKUNJUS5BUkNBOkNIQVQuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMTUuVVNEAQAAAAAwNW0CAAAABDQ5LjQACb5Qcnba3QiMjxxzdtrdCClDSVEuQVJDQTpMT1VQLklRX0NMT1NFUFJJQ0UuMjAyNS83LzE1LlVTRAEAAABZXA8iAgAAAAc2MS44NDk3AAm+UHJ22t0IVC8fc3ba3QgpQ0lRLkFSQ0E6TFJOWi5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xNS5VU0QBAAAAtXbDJgIAAAAHNDMuNjk1OAAJvlBydtrdCK3kHHN22t0IKENJUS5BUkNBOkFJUy5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xNS5VU0QBAAAAmJefcAIAAAAHMjguMjU5MwAJvlBydtrdCJGzIHN22t0ILUNJUS5OQVNEQVFHTTpXSVNFLklRX0NMT1NFUFJJQ0UuMjAyNS83LzE1LlVTRAEAAADpsENuAgAAAAUzNy4wOQAJvlBydtrdCJMKLHN22t0IKUNJUS5YVFJBOlhBSVguSVFfQ0xPU0VQUklDRS4yMDI1LzcvMTUuVVNEAQAAADXs4iICAAAADDE2MS40MDI2OTM5NAAJvlBy</t>
+  </si>
+  <si>
+    <t>dtrdCDCMJ3N22t0IKENJUS5CSVQ6V1RBSS5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xNS5VU0QBAAAATbpbIwIAAAANNzMuOTU0OTQ2NTk3NAAJvlBydtrdCPXJKHN22t0IKENJUS5MU0U6QUlBRy5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xNS5VU0QBAAAA8J2CJAIAAAAPMjQuMDI0OTY1MTg0MDI0AAm+UHJ22t0IZUspc3ba3QgoQ0lRLkFTWDpSQlRaLklRX0NMT1NFUFJJQ0UuMjAyNS83LzE1LlVTRAEAAAAp7XYiAgAAAA05LjEyODIyNTE4MDkxAAm+UHJ22t0IZ+Mqc3ba3QgnQ0lRLkRCOlhCMFQuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMTUuVVNEAQAAANMz3ikCAAAADjIxLjEwNTQzNDI4MDk2AAm+UHJ22t0IHUYUc3ba3QgsQ0lRLk5BU0RBUUdNOlFRUS5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xNC5VU0QBAAAADrp7AAIAAAAGNTU2LjIxAAm+UHJ22t0IECAqc3ba3QgtQ0lRLk5BU0RBUUdNOkFHSVguSVFfQ0xPU0VQUklDRS4yMDI1LzcvMTQuVVNEAQAAACP3AHACAAAABTMxLjU1AAm+UHJ22t0Ijucbc3ba3QgsQ0lRLk5BU0RBUUdNOlNNSC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xNC5VU0QBAAAAYMI2AAIAAAAGMjg1LjMyAAm+UHJ22t0IkbMgc3ba3QgoQ0lRLkJBVFM6SUdWLklRX0NMT1NFUFJJQ0UuMjAyNS83LzE0LlVTRAEAAADNOoYAAgAAAAYxMDkuMDUACb5Qcnba3QiTCixzdtrdCC1DSVEuTkFTREFR</t>
+  </si>
+  <si>
+    <t>R006Qk9UWi5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xNC5VU0QBAAAA9/0IFgIAAAAFMzIuMjgACb5Qcnba3QgL7CFzdtrdCCxDSVEuTkFTREFRR006QUlRLklRX0NMT1NFUFJJQ0UuMjAyNS83LzE0LlVTRAEAAADp3GIhAgAAAAU0My41MQAJvlBydtrdCIEuJHN22t0ILUNJUS5OQVNEQVFHTTpST0JULklRX0NMT1NFUFJJQ0UuMjAyNS83LzE0LlVTRAEAAABcY9kgAgAAAAU0OC4yOAAJvlBydtrdCBJaJXN22t0IKUNJUS5BUkNBOklHUFQuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMTQuVVNEAQAAAMwCXgECAAAABjQ5LjIzNQAJvlBydtrdCKjPJXN22t0IKUNJUS5CQVRTOldUQUkuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMTQuVVNEAQAAAGBOb2QCAAAABTI0LjQ4AAm+UHJ22t0IECAqc3ba3QgpQ0lRLkFSQ0E6VEhOUS5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xNC5VU0QBAAAArsN+JAIAAAAHNTQuMDExNwAJvlBydtrdCI7nG3N22t0ILUNJUS5OQVNEQVFHTTpGRFRYLklRX0NMT1NFUFJJQ0UuMjAyNS83LzE0LlVTRAEAAAC9pZ0mAgAAAAQzOC43AAm+UHJ22t0IHUYUc3ba3QgpQ0lRLkFSQ0E6Q0hBVC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xNC5VU0QBAAAAADA1bQIAAAAENDguNQAJvlBydtrdCEZ3HXN22t0IKUNJUS5BUkNBOkxPVVAuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMTQuVVNEAQAAAFlcDyICAAAABzYxLjY4</t>
+  </si>
+  <si>
+    <t>NDUACb5Qcnba3QiMjxxzdtrdCClDSVEuQVJDQTpMUk5aLklRX0NMT1NFUFJJQ0UuMjAyNS83LzE0LlVTRAEAAAC1dsMmAgAAAAc0My40NjgyAAm+UHJ22t0IVC8fc3ba3QgoQ0lRLkFSQ0E6QUlTLklRX0NMT1NFUFJJQ0UuMjAyNS83LzE0LlVTRAEAAACYl59wAgAAAAcyNy45Mjk1AAm+UHJ22t0Ijs8cc3ba3QgtQ0lRLk5BU0RBUUdNOldJU0UuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMTQuVVNEAQAAAOmwQ24CAAAABTM2Ljc0AAm+UHJ22t0IElolc3ba3QgoQ0lRLkxTRTpSQk9ULklRX0NMT1NFUFJJQ0UuMjAyNS83LzE0LlVTRAEAAACOeyQUAgAAAAUxNS4xOAAJvlBydtrdCJagJnN22t0IKENJUS5CSVQ6V1RBSS5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xNC5VU0QBAAAATbpbIwIAAAANNzMuMDgwOTY3NDE0NQAJvlBydtrdCDCMJ3N22t0IKENJUS5MU0U6QUlBRy5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xNC5VU0QBAAAA8J2CJAIAAAAPMjMuODIyNTg4MDE0NTEyAAm+UHJ22t0I9ckoc3ba3QgoQ0lRLkFTWDpSQlRaLklRX0NMT1NFUFJJQ0UuMjAyNS83LzE0LlVTRAEAAAAp7XYiAgAAAAw5LjA1MDk2MDg0NjQACb5Qcnba3QjQJCNzdtrdCCdDSVEuREI6WEIwVC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xNC5VU0QBAAAA0zPeKQIAAAAOMjEuMTIxNjI2MzYxNjIACb5Qcnba3QhsvCtzdtrdCCxDSVEuTkFTREFR</t>
+  </si>
+  <si>
+    <t>R006UVFRLklRX0NMT1NFUFJJQ0UuMjAyNS83LzExLlVTRAEAAAAOunsAAgAAAAU1NTQuMgAJvlBydtrdCB1GFHN22t0ILUNJUS5OQVNEQVFHTTpBR0lYLklRX0NMT1NFUFJJQ0UuMjAyNS83LzExLlVTRAEAAAAj9wBwAgAAAAUzMC45MgAJvlBydtrdCFQvH3N22t0ILENJUS5OQVNEQVFHTTpTTUguSVFfQ0xPU0VQUklDRS4yMDI1LzcvMTEuVVNEAQAAAGDCNgACAAAABjI4Ny40OQAJvlBydtrdCI7PHHN22t0IKENJUS5CQVRTOklHVi5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xMS5VU0QBAAAAzTqGAAIAAAAGMTA3LjQ4AAm+UHJ22t0IkbMgc3ba3QgtQ0lRLk5BU0RBUUdNOkJPVFouSVFfQ0xPU0VQUklDRS4yMDI1LzcvMTEuVVNEAQAAAPf9CBYCAAAABTMyLjI3AAm+UHJ22t0Ikwosc3ba3QgsQ0lRLk5BU0RBUUdNOkFJUS5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xMS5VU0QBAAAA6dxiIQIAAAAFNDMuMjgACb5Qcnba3QgL7CFzdtrdCClDSVEuQVJDQTpBUlRZLklRX0NMT1NFUFJJQ0UuMjAyNS83LzExLlVTRAEAAABuH2khAgAAAAU0MS4xOQAJvlBydtrdCIEuJHN22t0IKUNJUS5BUkNBOklHUFQuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMTEuVVNEAQAAAMwCXgECAAAABTQ5LjIyAAm+UHJ22t0IcPAnc3ba3QgpQ0lRLkJBVFM6V1RBSS5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xMS5VU0QBAAAAYE5vZAIAAAAFMjQu</t>
+  </si>
+  <si>
+    <t>MzcACb5Qcnba3QhelSpzdtrdCClDSVEuQVJDQTpUSE5RLklRX0NMT1NFUFJJQ0UuMjAyNS83LzExLlVTRAEAAACuw34kAgAAAAU1My45NQAJvlBydtrdCBAgKnN22t0ILUNJUS5OQVNEQVFHTTpGRFRYLklRX0NMT1NFUFJJQ0UuMjAyNS83LzExLlVTRAEAAAC9pZ0mAgAAAAUzOC41NQB891BydtrdCLXBG3N22t0IKUNJUS5BUkNBOkNIQVQuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMTEuVVNEAQAAAAAwNW0CAAAABTQ4LjE2AHz3UHJ22t0IRncdc3ba3QgpQ0lRLkFSQ0E6TE9VUC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xMS5VU0QBAAAAWVwPIgIAAAAHNjEuMzM2NAB891BydtrdCIyPHHN22t0IKUNJUS5BUkNBOkxSTlouSVFfQ0xPU0VQUklDRS4yMDI1LzcvMTEuVVNEAQAAALV2wyYCAAAABzQzLjI2ODkAfPdQcnba3QjS4ytzdtrdCChDSVEuQVJDQTpBSVMuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMTEuVVNEAQAAAJiXn3ACAAAABjI4LjAyNQB891BydtrdCAvsIXN22t0ILUNJUS5OQVNEQVFHTTpXSVNFLklRX0NMT1NFUFJJQ0UuMjAyNS83LzExLlVTRAEAAADpsENuAgAAAAYzNi41ODUAfPdQcnba3QiBLiRzdtrdCChDSVEuTFNFOlJCT1QuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMTEuVVNEAQAAAI57JBQCAAAABjE1LjIxNQB891BydtrdCBJaJXN22t0IKUNJUS5YVFJBOlhBSVguSVFfQ0xPU0VQUklDRS4yMDI1</t>
+  </si>
+  <si>
+    <t>LzcvMTEuVVNEAQAAADXs4iICAAAADjE2MC4yODUzNDY3MzY5AHz3UHJ22t0IlqAmc3ba3QgoQ0lRLkJJVDpXVEFJLklRX0NMT1NFUFJJQ0UuMjAyNS83LzExLlVTRAEAAABNulsjAgAAAA43My45MjExNzg4MDY2NQB891BydtrdCDCMJ3N22t0IKENJUS5MU0U6QUlBRy5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xMS5VU0QBAAAA8J2CJAIAAAAOMjMuODQ2NTQ4NDExMjkAfPdQcnba3Qj1yShzdtrdCChDSVEuQVNYOlJCVFouSVFfQ0xPU0VQUklDRS4yMDI1LzcvMTEuVVNEAQAAACntdiICAAAADDkuMTcwMzkxNzk2MgB891BydtrdCLXBG3N22t0IJ0NJUS5EQjpYQjBULklRX0NMT1NFUFJJQ0UuMjAyNS83LzExLlVTRAEAAADTM94pAgAAAA4yMS4zNTg5MDUzOTAzNgB891BydtrdCEZ3HXN22t0ILENJUS5OQVNEQVFHTTpRUVEuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMTAuVVNEAQAAAA66ewACAAAABjU1NS40NQB891BydtrdCIyPHHN22t0ILUNJUS5OQVNEQVFHTTpBR0lYLklRX0NMT1NFUFJJQ0UuMjAyNS83LzEwLlVTRAEAAAAj9wBwAgAAAAUzMS4zOAB891BydtrdCFQvH3N22t0ILENJUS5OQVNEQVFHTTpTTUguSVFfQ0xPU0VQUklDRS4yMDI1LzcvMTAuVVNEAQAAAGDCNgACAAAABjI4Ny41MgB891BydtrdCIl+HnN22t0IKENJUS5CQVRTOklHVi5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xMC5VU0QBAAAAzTqG</t>
+  </si>
+  <si>
+    <t>AAIAAAAGMTA5LjE1AHz3UHJ22t0IHUYUc3ba3QgtQ0lRLk5BU0RBUUdNOkJPVFouSVFfQ0xPU0VQUklDRS4yMDI1LzcvMTAuVVNEAQAAAPf9CBYCAAAABTMyLjU0AHz3UHJ22t0IkbMgc3ba3QgsQ0lRLk5BU0RBUUdNOkFJUS5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xMC5VU0QBAAAA6dxiIQIAAAAFNDMuNjUAfPdQcnba3Qi9eSZzdtrdCClDSVEuQVJDQTpBUlRZLklRX0NMT1NFUFJJQ0UuMjAyNS83LzEwLlVTRAEAAABuH2khAgAAAAU0MS4zOAB891BydtrdCDCMJ3N22t0ILUNJUS5OQVNEQVFHTTpST0JULklRX0NMT1NFUFJJQ0UuMjAyNS83LzEwLlVTRAEAAABcY9kgAgAAAAU0OC45MwB891BydtrdCPXJKHN22t0IKUNJUS5BUkNBOklHUFQuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMTAuVVNEAQAAAMwCXgECAAAABTQ5LjQ2AHz3UHJ22t0IZUspc3ba3QgpQ0lRLkJBVFM6V1RBSS5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xMC5VU0QBAAAAYE5vZAIAAAAEMjQuNgB891BydtrdCE+VK3N22t0ILUNJUS5OQVNEQVFHTTpGRFRYLklRX0NMT1NFUFJJQ0UuMjAyNS83LzEwLlVTRAEAAAC9pZ0mAgAAAAczOC44NjI0AHz3UHJ22t0IECAqc3ba3QgpQ0lRLkFSQ0E6Q0hBVC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xMC5VU0QBAAAAADA1bQIAAAAFNDguNDkAfPdQcnba3QiOzxxzdtrdCClDSVEuQVJDQTpMT1VQLklRX0NM</t>
+  </si>
+  <si>
+    <t>T1NFUFJJQ0UuMjAyNS83LzEwLlVTRAEAAABZXA8iAgAAAAc2MS40MzMyAHz3UHJ22t0IkbMgc3ba3QgpQ0lRLkFSQ0E6TFJOWi5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xMC5VU0QBAAAAtXbDJgIAAAAHNDMuNzQ2MQB891BydtrdCHYKK3N22t0IKENJUS5BUkNBOkFJUy5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xMC5VU0QBAAAAmJefcAIAAAAGMjguMTU1AHz3UHJ22t0IHUYUc3ba3QgtQ0lRLk5BU0RBUUdNOldJU0UuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMTAuVVNEAQAAAOmwQ24CAAAABDM3LjEAfPdQcnba3QgL7CFzdtrdCChDSVEuTFNFOlJCT1QuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMTAuVVNEAQAAAI57JBQCAAAABTE1LjMxAHz3UHJ22t0IgS4kc3ba3QgpQ0lRLlhUUkE6WEFJWC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xMC5VU0QBAAAANeziIgIAAAAPMTYxLjQzMDU3NDk2ODM2AHz3UHJ22t0IElolc3ba3QgoQ0lRLkJJVDpXVEFJLklRX0NMT1NFUFJJQ0UuMjAyNS83LzEwLlVTRAEAAABNulsjAgAAAA43NC41OTA5MzAzMTA0NgB891BydtrdCOOZKXN22t0IKENJUS5MU0U6QUlBRy5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xMC5VU0QBAAAA8J2CJAIAAAAPMjQuMDg3MTg1MzM3NzU0AHz3UHJ22t0IECAqc3ba3QgoQ0lRLkFTWDpSQlRaLklRX0NMT1NFUFJJQ0UuMjAyNS83LzEwLlVTRAEAAAAp7XYiAgAA</t>
+  </si>
+  <si>
+    <t>AA05LjIwMTg5MDI2Mjk0AHz3UHJ22t0ItcEbc3ba3QgrQ0lRLk5BU0RBUUdNOlFRUS5JUV9DTE9TRVBSSUNFLjIwMjUvNy85LlVTRAEAAAAOunsAAgAAAAY1NTYuMjUAfPdQcnba3QhGdx1zdtrdCCxDSVEuTkFTREFRR006QUdJWC5JUV9DTE9TRVBSSUNFLjIwMjUvNy85LlVTRAEAAAAj9wBwAgAAAAUzMS42OAB891BydtrdCEx6HHN22t0IK0NJUS5OQVNEQVFHTTpTTUguSVFfQ0xPU0VQUklDRS4yMDI1LzcvOS5VU0QBAAAAYMI2AAIAAAAGMjg1LjQyAHz3UHJ22t0IVC8fc3ba3QgnQ0lRLkJBVFM6SUdWLklRX0NMT1NFUFJJQ0UuMjAyNS83LzkuVVNEAQAAAM06hgACAAAABjExMS40MgB891BydtrdCIEuJHN22t0ILENJUS5OQVNEQVFHTTpCT1RaLklRX0NMT1NFUFJJQ0UuMjAyNS83LzkuVVNEAQAAAPf9CBYCAAAABTMyLjc3AHz3UHJ22t0IHUYUc3ba3QgrQ0lRLk5BU0RBUUdNOkFJUS5JUV9DTE9TRVBSSUNFLjIwMjUvNy85LlVTRAEAAADp3GIhAgAAAAU0My43NwB891BydtrdCBJaJXN22t0IKENJUS5BUkNBOkFSVFkuSVFfQ0xPU0VQUklDRS4yMDI1LzcvOS5VU0QBAAAAbh9pIQIAAAAFNDEuNjcAfPdQcnba3Qi9eSZzdtrdCCxDSVEuTkFTREFRR006Uk9CVC5JUV9DTE9TRVBSSUNFLjIwMjUvNy85LlVTRAEAAABcY9kgAgAAAAU0OS4wOAB891BydtrdCDCMJ3N22t0IKENJUS5BUkNBOklHUFQuSVFf</t>
+  </si>
+  <si>
+    <t>Q0xPU0VQUklDRS4yMDI1LzcvOS5VU0QBAAAAzAJeAQIAAAAFNDkuMjkAfPdQcnba3Qj1yShzdtrdCChDSVEuQkFUUzpXVEFJLklRX0NMT1NFUFJJQ0UuMjAyNS83LzkuVVNEAQAAAGBOb2QCAAAABTI0LjgzAHz3UHJ22t0I0CQjc3ba3QgoQ0lRLkFSQ0E6VEhOUS5JUV9DTE9TRVBSSUNFLjIwMjUvNy85LlVTRAEAAACuw34kAgAAAAU1NS4wNQB891BydtrdCN3IHXN22t0IKENJUS5BUkNBOkNIQVQuSVFfQ0xPU0VQUklDRS4yMDI1LzcvOS5VU0QBAAAAADA1bQIAAAAFNDguNjIAfPdQcnba3QhULx9zdtrdCChDSVEuQVJDQTpMT1VQLklRX0NMT1NFUFJJQ0UuMjAyNS83LzkuVVNEAQAAAFlcDyICAAAABzYyLjUzNDUAfPdQcnba3QiJfh5zdtrdCChDSVEuQVJDQTpMUk5aLklRX0NMT1NFUFJJQ0UuMjAyNS83LzkuVVNEAQAAALV2wyYCAAAABzQ0Ljg5ODcAfPdQcnba3QhJjCBzdtrdCCdDSVEuQVJDQTpBSVMuSVFfQ0xPU0VQUklDRS4yMDI1LzcvOS5VU0QBAAAAmJefcAIAAAAFMjguMDYAfPdQcnba3QhSbipzdtrdCCxDSVEuTkFTREFRR006V0lTRS5JUV9DTE9TRVBSSUNFLjIwMjUvNy85LlVTRAEAAADpsENuAgAAAAUzNy41MQB891BydtrdCEDFIXN22t0IJ0NJUS5MU0U6UkJPVC5JUV9DTE9TRVBSSUNFLjIwMjUvNy85LlVTRAEAAACOeyQUAgAAAAYxNS4yMzUAMBlRcnba3QgwjCdzdtrdCChDSVEuWFRS</t>
+  </si>
+  <si>
+    <t>QTpYQUlYLklRX0NMT1NFUFJJQ0UuMjAyNS83LzkuVVNEAQAAADXs4iICAAAADzE2MS42MjQ5MTIxOTczMgAwGVFydtrdCPXJKHN22t0IJ0NJUS5CSVQ6V1RBSS5JUV9DTE9TRVBSSUNFLjIwMjUvNy85LlVTRAEAAABNulsjAgAAAA43My45NjM5NDI4Njk5NgAwGVFydtrdCHDwJ3N22t0IJ0NJUS5MU0U6QUlBRy5JUV9DTE9TRVBSSUNFLjIwMjUvNy85LlVTRAEAAADwnYIkAgAAAA8yNC4xMTkxNDkxNzI5OTQAMBlRcnba3QiV7iZzdtrdCCdDSVEuQVNYOlJCVFouSVFfQ0xPU0VQUklDRS4yMDI1LzcvOS5VU0QBAAAAKe12IgIAAAAMOS4xMjY1MTc4MjUyADAZUXJ22t0IECAqc3ba3QgmQ0lRLkRCOlhCMFQuSVFfQ0xPU0VQUklDRS4yMDI1LzcvOS5VU0QBAAAA0zPeKQIAAAAPMjEuNDQyMjg1MTc4OTUyADAZUXJ22t0ItcEbc3ba3QgrQ0lRLk5BU0RBUUdNOlFRUS5JUV9DTE9TRVBSSUNFLjIwMjUvNy84LlVTRAEAAAAOunsAAgAAAAY1NTIuMzQAMBlRcnba3QhtYh1zdtrdCCxDSVEuTkFTREFRR006QUdJWC5JUV9DTE9TRVBSSUNFLjIwMjUvNy84LlVTRAEAAAAj9wBwAgAAAAUzMS4yOAAwGVFydtrdCEmMIHN22t0IK0NJUS5OQVNEQVFHTTpTTUguSVFfQ0xPU0VQUklDRS4yMDI1LzcvOC5VU0QBAAAAYMI2AAIAAAAGMjgzLjQ4ADAZUXJ22t0IkTErc3ba3QgnQ0lRLkJBVFM6SUdWLklRX0NMT1NFUFJJQ0Uu</t>
+  </si>
+  <si>
+    <t>MjAyNS83LzguVVNEAQAAAM06hgACAAAABjExMS4wOAAwGVFydtrdCEDFIXN22t0ILENJUS5OQVNEQVFHTTpCT1RaLklRX0NMT1NFUFJJQ0UuMjAyNS83LzguVVNEAQAAAPf9CBYCAAAABTMyLjM2ADAZUXJ22t0IOBkkc3ba3QgrQ0lRLk5BU0RBUUdNOkFJUS5JUV9DTE9TRVBSSUNFLjIwMjUvNy84LlVTRAEAAADp3GIhAgAAAAU0My42OAAwGVFydtrdCBJaJXN22t0IKENJUS5BUkNBOkFSVFkuSVFfQ0xPU0VQUklDRS4yMDI1LzcvOC5VU0QBAAAAbh9pIQIAAAAFNDEuMjEAMBlRcnba3Qi9eSZzdtrdCCxDSVEuTkFTREFRR006Uk9CVC5JUV9DTE9TRVBSSUNFLjIwMjUvNy84LlVTRAEAAABcY9kgAgAAAAU0OC43MgAwGVFydtrdCPERFHN22t0IKENJUS5BUkNBOklHUFQuSVFfQ0xPU0VQUklDRS4yMDI1LzcvOC5VU0QBAAAAzAJeAQIAAAAFNDguOTcAMBlRcnba3QgQICpzdtrdCChDSVEuQkFUUzpXVEFJLklRX0NMT1NFUFJJQ0UuMjAyNS83LzguVVNEAQAAAGBOb2QCAAAABTI0LjU5ADAZUXJ22t0ItcEbc3ba3QgoQ0lRLkFSQ0E6VEhOUS5JUV9DTE9TRVBSSUNFLjIwMjUvNy84LlVTRAEAAACuw34kAgAAAAU1NC43NgAwGVFydtrdCG1iHXN22t0ILENJUS5OQVNEQVFHTTpGRFRYLklRX0NMT1NFUFJJQ0UuMjAyNS83LzguVVNEAQAAAL2lnSYCAAAABTM5LjA2ADAZUXJ22t0ITHocc3ba3QgoQ0lRLkFSQ0E6</t>
+  </si>
+  <si>
+    <t>Q0hBVC5JUV9DTE9TRVBSSUNFLjIwMjUvNy84LlVTRAEAAAAAMDVtAgAAAAU0OC4yNAAwGVFydtrdCGUHH3N22t0IKENJUS5BUkNBOkxPVVAuSVFfQ0xPU0VQUklDRS4yMDI1LzcvOC5VU0QBAAAAWVwPIgIAAAAHNjEuODQ0OAAwGVFydtrdCIl+HnN22t0IJ0NJUS5BUkNBOkFJUy5JUV9DTE9TRVBSSUNFLjIwMjUvNy84LlVTRAEAAACYl59wAgAAAAcyOC4wNTQ2ADAZUXJ22t0IElolc3ba3QgsQ0lRLk5BU0RBUUdNOldJU0UuSVFfQ0xPU0VQUklDRS4yMDI1LzcvOC5VU0QBAAAA6bBDbgIAAAAFMzYuODkAMBlRcnba3Qi9eSZzdtrdCCdDSVEuTFNFOlJCT1QuSVFfQ0xPU0VQUklDRS4yMDI1LzcvOC5VU0QBAAAAjnskFAIAAAAFMTUuMTkAMBlRcnba3QjGZCdzdtrdCChDSVEuWFRSQTpYQUlYLklRX0NMT1NFUFJJQ0UuMjAyNS83LzguVVNEAQAAADXs4iICAAAADzE2MC45NjQ3NTgyNzU3MgAwGVFydtrdCPXJKHN22t0IJ0NJUS5CSVQ6V1RBSS5JUV9DTE9TRVBSSUNFLjIwMjUvNy84LlVTRAEAAABNulsjAgAAAA43My45MDIzNTMzNzc2OAAwGVFydtrdCPERFHN22t0IJ0NJUS5MU0U6QUlBRy5JUV9DTE9TRVBSSUNFLjIwMjUvNy84LlVTRAEAAADwnYIkAgAAAA0yMy45NzY2MTYxMjcyADAZUXJ22t0I0CQjc3ba3QgnQ0lRLkFTWDpSQlRaLklRX0NMT1NFUFJJQ0UuMjAyNS83LzguVVNEAQAAACntdiICAAAA</t>
+  </si>
+  <si>
+    <t>CzkuMDgwODI3MTg4ADAZUXJ22t0IUm4qc3ba3QgmQ0lRLkRCOlhCMFQuSVFfQ0xPU0VQUklDRS4yMDI1LzcvOC5VU0QBAAAA0zPeKQIAAAAPMjEuMjIyMzM5MzExMjE0ADAZUXJ22t0IZQcfc3ba3QgrQ0lRLk5BU0RBUUdNOlFRUS5JUV9DTE9TRVBSSUNFLjIwMjUvNy83LlVTRAEAAAAOunsAAgAAAAY1NTIuMDMAMBlRcnba3Qg93B9zdtrdCCxDSVEuTkFTREFRR006QUdJWC5JUV9DTE9TRVBSSUNFLjIwMjUvNy83LlVTRAEAAAAj9wBwAgAAAAUzMS40NAAwGVFydtrdCEmMIHN22t0IK0NJUS5OQVNEQVFHTTpTTUguSVFfQ0xPU0VQUklDRS4yMDI1LzcvNy5VU0QBAAAAYMI2AAIAAAAGMjc5Ljc2ADAZUXJ22t0Ibbwqc3ba3QgsQ0lRLk5BU0RBUUdNOkJPVFouSVFfQ0xPU0VQUklDRS4yMDI1LzcvNy5VU0QBAAAA9/0IFgIAAAAFMzIuMTYAMBlRcnba3QhAxSFzdtrdCCtDSVEuTkFTREFRR006QUlRLklRX0NMT1NFUFJJQ0UuMjAyNS83LzcuVVNEAQAAAOncYiECAAAABTQzLjU0ADAZUXJ22t0IOBkkc3ba3QgoQ0lRLkFSQ0E6QVJUWS5JUV9DTE9TRVBSSUNFLjIwMjUvNy83LlVTRAEAAABuH2khAgAAAAU0MC45MgAwGVFydtrdCJj9InN22t0ILENJUS5OQVNEQVFHTTpST0JULklRX0NMT1NFUFJJQ0UuMjAyNS83LzcuVVNEAQAAAFxj2SACAAAABTQ4LjUxADAZUXJ22t0IAXMpc3ba3QgoQ0lRLkFSQ0E6SUdQ</t>
+  </si>
+  <si>
+    <t>VC5JUV9DTE9TRVBSSUNFLjIwMjUvNy83LlVTRAEAAADMAl4BAgAAAAU0OC40NAAwGVFydtrdCPERFHN22t0IKENJUS5CQVRTOldUQUkuSVFfQ0xPU0VQUklDRS4yMDI1LzcvNy5VU0QBAAAAYE5vZAIAAAAFMjQuNDgAMBlRcnba3QgQICpzdtrdCChDSVEuQVJDQTpUSE5RLklRX0NMT1NFUFJJQ0UuMjAyNS83LzcuVVNEAQAAAK7DfiQCAAAABTU0LjQ5ADAZUXJ22t0ItcEbc3ba3QgsQ0lRLk5BU0RBUUdNOkZEVFguSVFfQ0xPU0VQUklDRS4yMDI1LzcvNy5VU0QBAAAAvaWdJgIAAAAFMzguOTMAMBlRcnba3QhtYh1zdtrdCChDSVEuQVJDQTpDSEFULklRX0NMT1NFUFJJQ0UuMjAyNS83LzcuVVNEAQAAAAAwNW0CAAAABDQ4LjEAMBlRcnba3QhMehxzdtrdCChDSVEuQVJDQTpMT1VQLklRX0NMT1NFUFJJQ0UuMjAyNS83LzcuVVNEAQAAAFlcDyICAAAABzYxLjc5OTMAMBlRcnba3QhAxSFzdtrdCChDSVEuQVJDQTpMUk5aLklRX0NMT1NFUFJJQ0UuMjAyNS83LzcuVVNEAQAAALV2wyYCAAAABzQ0LjU2MzUAMBlRcnba3Qg4GSRzdtrdCCxDSVEuTkFTREFRR006V0lTRS5JUV9DTE9TRVBSSUNFLjIwMjUvNy83LlVTRAEAAADpsENuAgAAAAQzNi40ADAZUXJ22t0IbEQlc3ba3QgnQ0lRLkxTRTpSQk9ULklRX0NMT1NFUFJJQ0UuMjAyNS83LzcuVVNEAQAAAI57JBQCAAAABjE1LjEzNQAwGVFydtrdCL15JnN22t0I</t>
+  </si>
+  <si>
+    <t>KENJUS5YVFJBOlhBSVguSVFfQ0xPU0VQUklDRS4yMDI1LzcvNy5VU0QBAAAANeziIgIAAAAPMTYxLjM3NTEwMjY4MTUyADAZUXJ22t0IxmQnc3ba3QgnQ0lRLkJJVDpXVEFJLklRX0NMT1NFUFJJQ0UuMjAyNS83LzcuVVNEAQAAAE26WyMCAAAADTcyLjg2MTY2ODQzNDgAMBlRcnba3Qj1yShzdtrdCCdDSVEuTFNFOkFJQUcuSVFfQ0xPU0VQUklDRS4yMDI1LzcvNy5VU0QBAAAA8J2CJAIAAAAPMjQuMDUzMTAyNjU1NTY4ADAZUXJ22t0I8REUc3ba3QgnQ0lRLkFTWDpSQlRaLklRX0NMT1NFUFJJQ0UuMjAyNS83LzcuVVNEAQAAACntdiICAAAADDkuMTEzNDEyODA2NAAwGVFydtrdCG1iHXN22t0IJkNJUS5EQjpYQjBULklRX0NMT1NFUFJJQ0UuMjAyNS83LzcuVVNEAQAAANMz3ikCAAAADzIxLjE5MjA2ODUyMjg1NgAwGVFydtrdCEx6HHN22t0IK0NJUS5OQVNEQVFHTTpRUVEuSVFfQ0xPU0VQUklDRS4yMDI1LzcvNC5VU0QBAAAADrp7AAMAAAAAADAZUXJ22t0IZQcfc3ba3QgsQ0lRLk5BU0RBUUdNOkFHSVguSVFfQ0xPU0VQUklDRS4yMDI1LzcvNC5VU0QBAAAAI/cAcAMAAAAAADAZUXJ22t0IiX4ec3ba3QgrQ0lRLk5BU0RBUUdNOlNNSC5JUV9DTE9TRVBSSUNFLjIwMjUvNy80LlVTRAEAAABgwjYAAwAAAAAAMBlRcnba3QhJjCBzdtrdCCdDSVEuQkFUUzpJR1YuSVFfQ0xPU0VQUklDRS4yMDI1LzcvNC5V</t>
+  </si>
+  <si>
+    <t>U0QBAAAAzTqGAAMAAAAAADAZUXJ22t0IGUcqc3ba3QgrQ0lRLk5BU0RBUUdNOkFJUS5JUV9DTE9TRVBSSUNFLjIwMjUvNy80LlVTRAEAAADp3GIhAwAAAAAAMBlRcnba3QjGZCdzdtrdCChDSVEuQVJDQTpBUlRZLklRX0NMT1NFUFJJQ0UuMjAyNS83LzQuVVNEAQAAAG4faSEDAAAAAAAwGVFydtrdCPXJKHN22t0ILENJUS5OQVNEQVFHTTpST0JULklRX0NMT1NFUFJJQ0UuMjAyNS83LzQuVVNEAQAAAFxj2SADAAAAAAAwGVFydtrdCHDwJ3N22t0IKENJUS5BUkNBOklHUFQuSVFfQ0xPU0VQUklDRS4yMDI1LzcvNC5VU0QBAAAAzAJeAQMAAAAAADAZUXJ22t0IycUkc3ba3QgoQ0lRLkJBVFM6V1RBSS5JUV9DTE9TRVBSSUNFLjIwMjUvNy80LlVTRAEAAABgTm9kAwAAAAAAMBlRcnba3QgQICpzdtrdCChDSVEuQVJDQTpUSE5RLklRX0NMT1NFUFJJQ0UuMjAyNS83LzQuVVNEAQAAAK7DfiQDAAAAAAAwGVFydtrdCLXBG3N22t0ILENJUS5OQVNEQVFHTTpGRFRYLklRX0NMT1NFUFJJQ0UuMjAyNS83LzQuVVNEAQAAAL2lnSYDAAAAAAAwGVFydtrdCJ8DIHN22t0IKENJUS5BUkNBOkNIQVQuSVFfQ0xPU0VQUklDRS4yMDI1LzcvNC5VU0QBAAAAADA1bQMAAAAAAExAUXJ22t0ISYwgc3ba3QgoQ0lRLkFSQ0E6TE9VUC5JUV9DTE9TRVBSSUNFLjIwMjUvNy80LlVTRAEAAABZXA8iAwAAAAAATEBRcnba3QiLMSxzdtrd</t>
+  </si>
+  <si>
+    <t>CChDSVEuQVJDQTpMUk5aLklRX0NMT1NFUFJJQ0UuMjAyNS83LzQuVVNEAQAAALV2wyYDAAAAAABMQFFydtrdCEDFIXN22t0IJ0NJUS5BUkNBOkFJUy5JUV9DTE9TRVBSSUNFLjIwMjUvNy80LlVTRAEAAACYl59wAwAAAAAATEBRcnba3Qg4GSRzdtrdCCxDSVEuTkFTREFRR006V0lTRS5JUV9DTE9TRVBSSUNFLjIwMjUvNy80LlVTRAEAAADpsENuAwAAAAAATEBRcnba3QhsRCVzdtrdCCdDSVEuTFNFOlJCT1QuSVFfQ0xPU0VQUklDRS4yMDI1LzcvNC5VU0QBAAAAjnskFAIAAAAGMTUuMTc1AExAUXJ22t0IvXkmc3ba3QgoQ0lRLlhUUkE6WEFJWC5JUV9DTE9TRVBSSUNFLjIwMjUvNy80LlVTRAEAAAA17OIiAgAAAA8xNjEuMTIxNTgzNDExMzYATEBRcnba3QgQICpzdtrdCCdDSVEuQklUOldUQUkuSVFfQ0xPU0VQUklDRS4yMDI1LzcvNC5VU0QBAAAATbpbIwIAAAANNzMuNDU2NjQ0Njc0NgBMQFFydtrdCLXBG3N22t0IJ0NJUS5MU0U6QUlBRy5JUV9DTE9TRVBSSUNFLjIwMjUvNy80LlVTRAEAAADwnYIkAgAAAA8yNC4xMzg0OTU1MzMzNTgATEBRcnba3QhtYh1zdtrdCCdDSVEuQVNYOlJCVFouSVFfQ0xPU0VQUklDRS4yMDI1LzcvNC5VU0QBAAAAKe12IgIAAAANOS4yMTU5NTU5ODkzMQBMQFFydtrdCJSbEXN22t0IJkNJUS5EQjpYQjBULklRX0NMT1NFUFJJQ0UuMjAyNS83LzQuVVNEAQAAANMz3ikCAAAA</t>
+  </si>
+  <si>
+    <t>DzIxLjUxNTA4MDExMzAzMgBMQFFydtrdCEx6HHN22t0IK0NJUS5OQVNEQVFHTTpRUVEuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMy5VU0QBAAAADrp7AAIAAAAGNTU2LjIyAExAUXJ22t0I8REUc3ba3QgsQ0lRLk5BU0RBUUdNOkFHSVguSVFfQ0xPU0VQUklDRS4yMDI1LzcvMy5VU0QBAAAAI/cAcAIAAAAFMzEuNTQATEBRcnba3QhlBx9zdtrdCCtDSVEuTkFTREFRR006U01ILklRX0NMT1NFUFJJQ0UuMjAyNS83LzMuVVNEAQAAAGDCNgACAAAABjI4My42MgBMQFFydtrdCGxEJXN22t0IJ0NJUS5CQVRTOklHVi5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zLlVTRAEAAADNOoYAAgAAAAYxMTEuMjcATEBRcnba3Qi9eSZzdtrdCCxDSVEuTkFTREFRR006Qk9UWi5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zLlVTRAEAAAD3/QgWAgAAAAUzMi43OQBMQFFydtrdCMZkJ3N22t0IK0NJUS5OQVNEQVFHTTpBSVEuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMy5VU0QBAAAA6dxiIQIAAAACNDQATEBRcnba3Qj1yShzdtrdCChDSVEuQVJDQTpBUlRZLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMuVVNEAQAAAG4faSECAAAABDQxLjMATEBRcnba3QhlSylzdtrdCChDSVEuQVJDQTpJR1BULklRX0NMT1NFUFJJQ0UuMjAyNS83LzMuVVNEAQAAAMwCXgECAAAABTQ5LjE5AExAUXJ22t0I45kpc3ba3QgoQ0lRLkJBVFM6V1RBSS5JUV9DTE9TRVBS</t>
+  </si>
+  <si>
+    <t>SUNFLjIwMjUvNy8zLlVTRAEAAABgTm9kAgAAAAUyNC43OQBMQFFydtrdCD3cH3N22t0IKENJUS5BUkNBOlRITlEuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMy5VU0QBAAAArsN+JAIAAAAFNTUuMzUATEBRcnba3QiUmxFzdtrdCCxDSVEuTkFTREFRR006RkRUWC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zLlVTRAEAAAC9pZ0mAgAAAAUzOS4yNQBMQFFydtrdCEmMIHN22t0IKENJUS5BUkNBOkNIQVQuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMy5VU0QBAAAAADA1bQIAAAAFNDguNzcATEBRcnba3QjxERRzdtrdCChDSVEuQVJDQTpMT1VQLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMuVVNEAQAAAFlcDyICAAAABTYyLjIzAExAUXJ22t0IT5Urc3ba3QgoQ0lRLkFSQ0E6TFJOWi5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zLlVTRAEAAAC1dsMmAgAAAAc0NC44NzUxAExAUXJ22t0IQMUhc3ba3QgnQ0lRLkFSQ0E6QUlTLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMuVVNEAQAAAJiXn3ACAAAABzI4LjA4NzkATEBRcnba3QgTBCRzdtrdCCxDSVEuTkFTREFRR006V0lTRS5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zLlVTRAEAAADpsENuAgAAAAczNi41ODY5AExAUXJ22t0IAXMpc3ba3QgnQ0lRLkxTRTpSQk9ULklRX0NMT1NFUFJJQ0UuMjAyNS83LzMuVVNEAQAAAI57JBQCAAAABTE1LjMyAExAUXJ22t0IECAqc3ba3QgoQ0lRLlhUUkE6</t>
+  </si>
+  <si>
+    <t>WEFJWC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zLlVTRAEAAAA17OIiAgAAAA0xNjIuMzE0NzQ5NTA2AExAUXJ22t0ItcEbc3ba3QgnQ0lRLkxTRTpBSUFHLklRX0NMT1NFUFJJQ0UuMjAyNS83LzMuVVNEAQAAAPCdgiQCAAAADzI0LjM5MzY3NDU1NTMxNwBMQFFydtrdCGFNHXN22t0IJ0NJUS5BU1g6UkJUWi5JUV9DTE9TRVBSSUNFLjIwMjUvNy8zLlVTRAEAAAAp7XYiAgAAAA05LjI1MjIwMTMzMzc2AExAUXJ22t0It2Ucc3ba3QgmQ0lRLkRCOlhCMFQuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMy5VU0QBAAAA0zPeKQIAAAAOMjEuMjUzODIyNjM0NTkATEBRcnba3QhlBx9zdtrdCCtDSVEuTkFTREFRR006UVFRLklRX0NMT1NFUFJJQ0UuMjAyNS83LzIuVVNEAQAAAA66ewACAAAABTU1MC44AExAUXJ22t0IEwQkc3ba3QgsQ0lRLk5BU0RBUUdNOkFHSVguSVFfQ0xPU0VQUklDRS4yMDI1LzcvMi5VU0QBAAAAI/cAcAIAAAAFMzEuMjYATEBRcnba3QjxERRzdtrdCCtDSVEuTkFTREFRR006U01ILklRX0NMT1NFUFJJQ0UuMjAyNS83LzIuVVNEAQAAAGDCNgACAAAABjI4MS4yNQBMQFFydtrdCGxEJXN22t0IJ0NJUS5CQVRTOklHVi5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yLlVTRAEAAADNOoYAAgAAAAYxMDguODEATEBRcnba3Qi9eSZzdtrdCCxDSVEuTkFTREFRR006Qk9UWi5JUV9DTE9TRVBSSUNFLjIwMjUvNy8y</t>
+  </si>
+  <si>
+    <t>LlVTRAEAAAD3/QgWAgAAAAUzMi40OQBMQFFydtrdCMZkJ3N22t0IK0NJUS5OQVNEQVFHTTpBSVEuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMi5VU0QBAAAA6dxiIQIAAAAFNDMuNDkATEBRcnba3Qj1yShzdtrdCChDSVEuQVJDQTpBUlRZLklRX0NMT1NFUFJJQ0UuMjAyNS83LzIuVVNEAQAAAG4faSECAAAABDQwLjcATEBRcnba3Qhw8CdzdtrdCCxDSVEuTkFTREFRR006Uk9CVC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yLlVTRAEAAABcY9kgAgAAAAU0OC40NwBMQFFydtrdCGUHH3N22t0IKENJUS5CQVRTOldUQUkuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMi5VU0QBAAAAYE5vZAIAAAAFMjQuMzYATEBRcnba3QiOzxxzdtrdCChDSVEuQVJDQTpUSE5RLklRX0NMT1NFUFJJQ0UuMjAyNS83LzIuVVNEAQAAAK7DfiQCAAAABTU0LjYxAExAUXJ22t0ISYwgc3ba3QgsQ0lRLk5BU0RBUUdNOkZEVFguSVFfQ0xPU0VQUklDRS4yMDI1LzcvMi5VU0QBAAAAvaWdJgIAAAAFMzguNTQATEBRcnba3QiTCixzdtrdCChDSVEuQVJDQTpDSEFULklRX0NMT1NFUFJJQ0UuMjAyNS83LzIuVVNEAQAAAAAwNW0CAAAABTQ4LjI1AExAUXJ22t0IQMUhc3ba3QgoQ0lRLkFSQ0E6TE9VUC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yLlVTRAEAAABZXA8iAgAAAAc2MS4xMTQ0AExAUXJ22t0IlJsRc3ba3QgoQ0lRLkFSQ0E6TFJOWi5JUV9DTE9T</t>
+  </si>
+  <si>
+    <t>RVBSSUNFLjIwMjUvNy8yLlVTRAEAAAC1dsMmAgAAAAc0My44NDI3AExAUXJ22t0IE6Moc3ba3QgnQ0lRLkFSQ0E6QUlTLklRX0NMT1NFUFJJQ0UuMjAyNS83LzIuVVNEAQAAAJiXn3ACAAAABzI3Ljc4NjQATEBRcnba3QhlSylzdtrdCCxDSVEuTkFTREFRR006V0lTRS5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yLlVTRAEAAADpsENuAgAAAAUzNi4yMwBMQFFydtrdCMnFJHN22t0IJ0NJUS5MU0U6UkJPVC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yLlVTRAEAAACOeyQUAgAAAAUxNS4wOABMQFFydtrdCBAgKnN22t0IKENJUS5YVFJBOlhBSVguSVFfQ0xPU0VQUklDRS4yMDI1LzcvMi5VU0QBAAAANeziIgIAAAAPMTU5LjQ2NzczNDM2NzE2AExAUXJ22t0ItcEbc3ba3QgnQ0lRLkJJVDpXVEFJLklRX0NMT1NFUFJJQ0UuMjAyNS83LzIuVVNEAQAAAE26WyMCAAAADjcyLjkxNTY4NTM2NDE2AExAUXJ22t0IYU0dc3ba3QgnQ0lRLkxTRTpBSUFHLklRX0NMT1NFUFJJQ0UuMjAyNS83LzIuVVNEAQAAAPCdgiQCAAAADzIzLjkzNTA5MTI3MzEzNgBMQFFydtrdCLdlHHN22t0IJ0NJUS5BU1g6UkJUWi5JUV9DTE9TRVBSSUNFLjIwMjUvNy8yLlVTRAEAAAAp7XYiAgAAAA05LjE0NDY1OTA0NjI0AExAUXJ22t0IQMUhc3ba3QgmQ0lRLkRCOlhCMFQuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMi5VU0QBAAAA0zPeKQIAAAAPMjEu</t>
+  </si>
+  <si>
+    <t>MTI4MTIwNTg3OTE2AExAUXJ22t0IEwQkc3ba3QgrQ0lRLk5BU0RBUUdNOlFRUS5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xLlVTRAEAAAAOunsAAgAAAAY1NDYuOTkATEBRcnba3QhsRCVzdtrdCCxDSVEuTkFTREFRR006QUdJWC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xLlVTRAEAAAAj9wBwAgAAAAUzMS4wMgBMQFFydtrdCL15JnN22t0IK0NJUS5OQVNEQVFHTTpTTUguSVFfQ0xPU0VQUklDRS4yMDI1LzcvMS5VU0QBAAAAYMI2AAIAAAAGMjc1Ljg0AExAUXJ22t0IlJsRc3ba3QgnQ0lRLkJBVFM6SUdWLklRX0NMT1NFUFJJQ0UuMjAyNS83LzEuVVNEAQAAAM06hgACAAAABjEwOC4yNABMQFFydtrdCMZkJ3N22t0ILENJUS5OQVNEQVFHTTpCT1RaLklRX0NMT1NFUFJJQ0UuMjAyNS83LzEuVVNEAQAAAPf9CBYCAAAABTMyLjE0AExAUXJ22t0I8REUc3ba3QgrQ0lRLk5BU0RBUUdNOkFJUS5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xLlVTRAEAAADp3GIhAgAAAAQ0My4yAExAUXJ22t0It2Ucc3ba3QgoQ0lRLkFSQ0E6QVJUWS5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xLlVTRAEAAABuH2khAgAAAAU0MC40MgBhZ1FydtrdCGUHH3N22t0ILENJUS5OQVNEQVFHTTpST0JULklRX0NMT1NFUFJJQ0UuMjAyNS83LzEuVVNEAQAAAFxj2SACAAAABTQ3Ljk5AGFnUXJ22t0IPdwfc3ba3QgoQ0lRLkFSQ0E6SUdQVC5JUV9DTE9T</t>
+  </si>
+  <si>
+    <t>RVBSSUNFLjIwMjUvNy8xLlVTRAEAAADMAl4BAgAAAAQ0OC40AGFnUXJ22t0ISYwgc3ba3QgoQ0lRLkJBVFM6V1RBSS5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xLlVTRAEAAABgTm9kAgAAAAYyNC4xMzQAYWdRcnba3QhPlStzdtrdCChDSVEuQVJDQTpUSE5RLklRX0NMT1NFUFJJQ0UuMjAyNS83LzEuVVNEAQAAAK7DfiQCAAAABTUzLjk0AGFnUXJ22t0IlUwbc3ba3QgoQ0lRLkFSQ0E6Q0hBVC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xLlVTRAEAAAAAMDVtAgAAAAU0Ny45OQBhZ1FydtrdCHDwJ3N22t0IKENJUS5BUkNBOkxPVVAuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMS5VU0QBAAAAWVwPIgIAAAAHNjEuMDA1OQBhZ1FydtrdCPn7JXN22t0IKENJUS5BUkNBOkxSTlouSVFfQ0xPU0VQUklDRS4yMDI1LzcvMS5VU0QBAAAAtXbDJgIAAAAGNDMuNjUxAGFnUXJ22t0IlJsRc3ba3QgnQ0lRLkFSQ0E6QUlTLklRX0NMT1NFUFJJQ0UuMjAyNS83LzEuVVNEAQAAAJiXn3ACAAAABTI3LjYyAGFnUXJ22t0Ievgpc3ba3QgsQ0lRLk5BU0RBUUdNOldJU0UuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMS5VU0QBAAAA6bBDbgIAAAAEMzUuOABhZ1FydtrdCPERFHN22t0IJ0NJUS5MU0U6UkJPVC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xLlVTRAEAAACOeyQUAgAAAAcxNC45OTI1AGFnUXJ22t0Ii5obc3ba3QgoQ0lRLlhUUkE6WEFJ</t>
+  </si>
+  <si>
+    <t>WC5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xLlVTRAEAAAA17OIiAgAAAA8xNTguOTg3NjM5Nzc3MjIAYWdRcnba3QhhTR1zdtrdCCdDSVEuQklUOldUQUkuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMS5VU0QBAAAATbpbIwIAAAANNzEuOTI0NjYxNTYwNwBhZ1FydtrdCBMEJHN22t0IJ0NJUS5MU0U6QUlBRy5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xLlVTRAEAAADwnYIkAgAAAA4yMy43NDg0OTIxNTU4NQBhZ1FydtrdCGxEJXN22t0IJ0NJUS5BU1g6UkJUWi5JUV9DTE9TRVBSSUNFLjIwMjUvNy8xLlVTRAEAAAAp7XYiAgAAAA05LjE3OTI1MTQ3NTY0AGFnUXJ22t0IvXkmc3ba3QgmQ0lRLkRCOlhCMFQuSVFfQ0xPU0VQUklDRS4yMDI1LzcvMS5VU0QBAAAA0zPeKQIAAAAPMjEuMzQ2Njc0NTEyOTU4AGFnUXJ22t0IWyUbc3ba3QgtQ0lRLk5BU0RBUUdNOkFHSVguSVFfQ0xPU0VQUklDRS4yMDI1LzYvMzAuVVNEAQAAACP3AHACAAAABjMxLjcxNQBhZ1FydtrdCMZkJ3N22t0ILENJUS5OQVNEQVFHTTpTTUguSVFfQ0xPU0VQUklDRS4yMDI1LzYvMzAuVVNEAQAAAGDCNgACAAAABjI3OC44OABhZ1FydtrdCBOjKHN22t0IKENJUS5CQVRTOklHVi5JUV9DTE9TRVBSSUNFLjIwMjUvNi8zMC5VU0QBAAAAzTqGAAIAAAAFMTA5LjUAYWdRcnba3QiUmxFzdtrdCC1DSVEuTkFTREFRR006Qk9UWi5JUV9DTE9TRVBSSUNFLjIw</t>
+  </si>
+  <si>
+    <t>MjUvNi8zMC5VU0QBAAAA9/0IFgIAAAAFMzIuNjUAYWdRcnba3QhlBx9zdtrdCCxDSVEuTkFTREFRR006QUlRLklRX0NMT1NFUFJJQ0UuMjAyNS82LzMwLlVTRAEAAADp3GIhAgAAAAU0My42OQBhZ1FydtrdCPERFHN22t0IKUNJUS5BUkNBOkFSVFkuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMzAuVVNEAQAAAG4faSECAAAAAjQxAGFnUXJ22t0InwMgc3ba3QgtQ0lRLk5BU0RBUUdNOlJPQlQuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMzAuVVNEAQAAAFxj2SACAAAABDQ4LjMAYWdRcnba3QhJjCBzdtrdCClDSVEuQVJDQTpJR1BULklRX0NMT1NFUFJJQ0UuMjAyNS82LzMwLlVTRAEAAADMAl4BAgAAAAY0OS4xNDUAYWdRcnba3QiTCixzdtrdCClDSVEuQkFUUzpXVEFJLklRX0NMT1NFUFJJQ0UuMjAyNS82LzMwLlVTRAEAAABgTm9kAgAAAAUyNC41NgBhZ1FydtrdCEDFIXN22t0IKUNJUS5BUkNBOlRITlEuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMzAuVVNEAQAAAK7DfiQCAAAAAjU1AGFnUXJ22t0Ile4mc3ba3QgtQ0lRLk5BU0RBUUdNOkZEVFguSVFfQ0xPU0VQUklDRS4yMDI1LzYvMzAuVVNEAQAAAL2lnSYCAAAABTM5LjAxAGFnUXJ22t0IWyUbc3ba3QgpQ0lRLkFSQ0E6TE9VUC5JUV9DTE9TRVBSSUNFLjIwMjUvNi8zMC5VU0QBAAAAWVwPIgIAAAAFNjIuNjEAYWdRcnba3Qh6+ClzdtrdCClDSVEuQVJDQTpMUk5a</t>
+  </si>
+  <si>
+    <t>LklRX0NMT1NFUFJJQ0UuMjAyNS82LzMwLlVTRAEAAAC1dsMmAgAAAAc0NC43Mjg4AGFnUXJ22t0Ii5obc3ba3QgoQ0lRLkFSQ0E6QUlTLklRX0NMT1NFUFJJQ0UuMjAyNS82LzMwLlVTRAEAAACYl59wAgAAAAYyOC4xMjUAYWdRcnba3QhhTR1zdtrdCC1DSVEuTkFTREFRR006V0lTRS5JUV9DTE9TRVBSSUNFLjIwMjUvNi8zMC5VU0QBAAAA6bBDbgIAAAAFMzYuMTYAYWdRcnba3Qi3ZRxzdtrdCChDSVEuTFNFOlJCT1QuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMzAuVVNEAQAAAI57JBQCAAAABjE1LjA2NQBhZ1FydtrdCPERFHN22t0IKUNJUS5YVFJBOlhBSVguSVFfQ0xPU0VQUklDRS4yMDI1LzYvMzAuVVNEAQAAADXs4iICAAAADzE2MC44MjIwNzg2ODk3NABhZ1FydtrdCBMEJHN22t0IKENJUS5CSVQ6V1RBSS5JUV9DTE9TRVBSSUNFLjIwMjUvNi8zMC5VU0QBAAAATbpbIwIAAAAONzIuNzUzOTYzNTk1OTUAYWdRcnba3QgdLyVzdtrdCChDSVEuTFNFOkFJQUcuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMzAuVVNEAQAAAPCdgiQCAAAADzI0LjE4Njg3NDkxNjU2OABhZ1FydtrdCL15JnN22t0IKENJUS5BU1g6UkJUWi5JUV9DTE9TRVBSSUNFLjIwMjUvNi8zMC5VU0QBAAAAKe12IgIAAAANOS40MjEwOTc0OTMyMQBhZ1FydtrdCMZkJ3N22t0IJ0NJUS5EQjpYQjBULklRX0NMT1NFUFJJQ0UuMjAyNS82LzMwLlVT</t>
+  </si>
+  <si>
+    <t>RAEAAADTM94pAgAAAA8yMS40NzUwNDQwNDA2MDYAYWdRcnba3QgToyhzdtrdCCxDSVEuTkFTREFRR006UVFRLklRX0NMT1NFUFJJQ0UuMjAyNS82LzI3LlVTRAEAAAAOunsAAgAAAAY1NDguMDkAYWdRcnba3QiY/SJzdtrdCCxDSVEuTkFTREFRR006U01ILklRX0NMT1NFUFJJQ0UuMjAyNS82LzI3LlVTRAEAAABgwjYAAgAAAAYyNzguNDIAYWdRcnba3QhlBx9zdtrdCChDSVEuQkFUUzpJR1YuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMjcuVVNEAQAAAM06hgACAAAABjEwNy43OABhZ1FydtrdCIl+HnN22t0ILUNJUS5OQVNEQVFHTTpCT1RaLklRX0NMT1NFUFJJQ0UuMjAyNS82LzI3LlVTRAEAAAD3/QgWAgAAAAUzMi41MgBhZ1FydtrdCEmMIHN22t0ILENJUS5OQVNEQVFHTTpBSVEuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMjcuVVNEAQAAAOncYiECAAAABTQzLjM3AGFnUXJ22t0IT5Urc3ba3QgpQ0lRLkFSQ0E6QVJUWS5JUV9DTE9TRVBSSUNFLjIwMjUvNi8yNy5VU0QBAAAAbh9pIQIAAAAFNDAuNjQAYWdRcnba3QiUmxFzdtrdCC1DSVEuTkFTREFRR006Uk9CVC5JUV9DTE9TRVBSSUNFLjIwMjUvNi8yNy5VU0QBAAAAXGPZIAIAAAAFNDguMDgAYWdRcnba3QhAxSFzdtrdCClDSVEuQVJDQTpJR1BULklRX0NMT1NFUFJJQ0UuMjAyNS82LzI3LlVTRAEAAADMAl4BAgAAAAU0OC44NQBhZ1FydtrdCGVLKXN22t0I</t>
+  </si>
+  <si>
+    <t>KUNJUS5CQVRTOldUQUkuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMjcuVVNEAQAAAGBOb2QCAAAABTI0LjMxAGFnUXJ22t0IAXMpc3ba3QgpQ0lRLkFSQ0E6VEhOUS5JUV9DTE9TRVBSSUNFLjIwMjUvNi8yNy5VU0QBAAAArsN+JAIAAAAFNTQuNTgAYWdRcnba3Qh6+ClzdtrdCC1DSVEuTkFTREFRR006RkRUWC5JUV9DTE9TRVBSSUNFLjIwMjUvNi8yNy5VU0QBAAAAvaWdJgIAAAAEMzguOQBhZ1FydtrdCIuaG3N22t0IKUNJUS5BUkNBOkNIQVQuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMjcuVVNEAQAAAAAwNW0CAAAABTQ4LjI2AGFnUXJ22t0IYU0dc3ba3QgpQ0lRLkFSQ0E6TE9VUC5JUV9DTE9TRVBSSUNFLjIwMjUvNi8yNy5VU0QBAAAAWVwPIgIAAAAHNjEuMzM4OQBhZ1FydtrdCLdlHHN22t0IKUNJUS5BUkNBOkxSTlouSVFfQ0xPU0VQUklDRS4yMDI1LzYvMjcuVVNEAQAAALV2wyYCAAAABzQ0LjU0MzUAYWdRcnba3QhbJRtzdtrdCChDSVEuQVJDQTpBSVMuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMjcuVVNEAQAAAJiXn3ACAAAABzI3LjkyODQAYWdRcnba3QgC7yNzdtrdCC1DSVEuTkFTREFRR006V0lTRS5JUV9DTE9TRVBSSUNFLjIwMjUvNi8yNy5VU0QBAAAA6bBDbgIAAAAGMzUuOTU1AGFnUXJ22t0IHS8lc3ba3QgoQ0lRLkxTRTpSQk9ULklRX0NMT1NFUFJJQ0UuMjAyNS82LzI3LlVTRAEAAACOeyQUAgAA</t>
+  </si>
+  <si>
+    <t>AAYxNS4wODUAYWdRcnba3Qi9eSZzdtrdCClDSVEuWFRSQTpYQUlYLklRX0NMT1NFUFJJQ0UuMjAyNS82LzI3LlVTRAEAAAA17OIiAgAAAA8xNjAuMTg3NDYzNDA1MzYAYWdRcnba3QiUmxFzdtrdCChDSVEuQklUOldUQUkuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMjcuVVNEAQAAAE26WyMCAAAADjcyLjcyNDA3NzMzNzQxAGFnUXJ22t0IxmQnc3ba3QgoQ0lRLkxTRTpBSUFHLklRX0NMT1NFUFJJQ0UuMjAyNS82LzI3LlVTRAEAAADwnYIkAgAAAA8yNC4xMDYyMDAwMjgwODYAYWdRcnba3QjxERRzdtrdCChDSVEuQVNYOlJCVFouSVFfQ0xPU0VQUklDRS4yMDI1LzYvMjcuVVNEAQAAACntdiICAAAADDkuMjkwNDc0MzIzMgCBjlFydtrdCBOjKHN22t0IJ0NJUS5EQjpYQjBULklRX0NMT1NFUFJJQ0UuMjAyNS82LzI3LlVTRAEAAADTM94pAgAAAA8yMS4zMTkyNzM1ODE5NDgAgY5Rcnba3QgMLxhzdtrdCCxDSVEuTkFTREFRR006UVFRLklRX0NMT1NFUFJJQ0UuMjAyNS82LzI2LlVTRAEAAAAOunsAAgAAAAY1NDYuMjIAgY5Rcnba3QifAyBzdtrdCC1DSVEuTkFTREFRR006QUdJWC5JUV9DTE9TRVBSSUNFLjIwMjUvNi8yNi5VU0QBAAAAI/cAcAIAAAAFMzEuNDcAgY5Rcnba3QhuUSBzdtrdCCxDSVEuTkFTREFRR006U01ILklRX0NMT1NFUFJJQ0UuMjAyNS82LzI2LlVTRAEAAABgwjYAAgAAAAUyNzcuMgCBjlFy</t>
+  </si>
+  <si>
+    <t>dtrdCNLjK3N22t0IKENJUS5CQVRTOklHVi5JUV9DTE9TRVBSSUNFLjIwMjUvNi8yNi5VU0QBAAAAzTqGAAIAAAAGMTA4LjcxAIGOUXJ22t0IWyUbc3ba3QgsQ0lRLk5BU0RBUUdNOkFJUS5JUV9DTE9TRVBSSUNFLjIwMjUvNi8yNi5VU0QBAAAA6dxiIQIAAAAFNDMuNDgAgY5Rcnba3QhAxSFzdtrdCClDSVEuQVJDQTpBUlRZLklRX0NMT1NFUFJJQ0UuMjAyNS82LzI2LlVTRAEAAABuH2khAgAAAAU0MC43MQCBjlFydtrdCHr4KXN22t0ILUNJUS5OQVNEQVFHTTpST0JULklRX0NMT1NFUFJJQ0UuMjAyNS82LzI2LlVTRAEAAABcY9kgAgAAAAU0OC4wMgCBjlFydtrdCLVtEXN22t0IKUNJUS5BUkNBOklHUFQuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMjYuVVNEAQAAAMwCXgECAAAABTQ4LjU5AIGOUXJ22t0Ii5obc3ba3QgpQ0lRLkJBVFM6V1RBSS5JUV9DTE9TRVBSSUNFLjIwMjUvNi8yNi5VU0QBAAAAYE5vZAIAAAAFMjQuNDIAgY5Rcnba3QjxERRzdtrdCClDSVEuQVJDQTpUSE5RLklRX0NMT1NFUFJJQ0UuMjAyNS82LzI2LlVTRAEAAACuw34kAgAAAAU1NC41OACBjlFydtrdCGFNHXN22t0ILUNJUS5OQVNEQVFHTTpGRFRYLklRX0NMT1NFUFJJQ0UuMjAyNS82LzI2LlVTRAEAAAC9pZ0mAgAAAAUzOC42MgCBjlFydtrdCK1QHHN22t0IKUNJUS5BUkNBOkNIQVQuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMjYuVVNE</t>
+  </si>
+  <si>
+    <t>AQAAAAAwNW0CAAAABTQ4LjU4AIGOUXJ22t0IZQcfc3ba3QgpQ0lRLkFSQ0E6TE9VUC5JUV9DTE9TRVBSSUNFLjIwMjUvNi8yNi5VU0QBAAAAWVwPIgIAAAAHNjEuNjg4NwCBjlFydtrdCOxRJnN22t0IKUNJUS5BUkNBOkxSTlouSVFfQ0xPU0VQUklDRS4yMDI1LzYvMjYuVVNEAQAAALV2wyYCAAAABTQ0LjI1AIGOUXJ22t0IxmQnc3ba3QgoQ0lRLkFSQ0E6QUlTLklRX0NMT1NFUFJJQ0UuMjAyNS82LzI2LlVTRAEAAACYl59wAgAAAAcyOC4wMDYyAIGOUXJ22t0IWyUbc3ba3QgoQ0lRLkxTRTpSQk9ULklRX0NMT1NFUFJJQ0UuMjAyNS82LzI2LlVTRAEAAACOeyQUAgAAAAYxNC45MjUAgY5Rcnba3QgToyhzdtrdCClDSVEuWFRSQTpYQUlYLklRX0NMT1NFUFJJQ0UuMjAyNS82LzI2LlVTRAEAAAA17OIiAgAAAA0xNTkuMTAxNTQ0MjU2AIGOUXJ22t0ImP0ic3ba3QgoQ0lRLkJJVDpXVEFJLklRX0NMT1NFUFJJQ0UuMjAyNS82LzI2LlVTRAEAAABNulsjAgAAAA43Mi4zMzI3MDk0MjE2OACBjlFydtrdCMnFJHN22t0IKENJUS5MU0U6QUlBRy5JUV9DTE9TRVBSSUNFLjIwMjUvNi8yNi5VU0QBAAAA8J2CJAIAAAAPMjMuOTIyNDQ2MzQyNjg2AIGOUXJ22t0IblEgc3ba3QgoQ0lRLkFTWDpSQlRaLklRX0NMT1NFUFJJQ0UuMjAyNS82LzI2LlVTRAEAAAAp7XYiAgAAAA05LjEzMDE3ODY3NTI1AIGOUXJ22t0IA/sT</t>
+  </si>
+  <si>
+    <t>c3ba3QgnQ0lRLkRCOlhCMFQuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMjYuVVNEAQAAANMz3ikCAAAADzIwLjg0OTMyMTQ4MzMxMgCBjlFydtrdCNLjK3N22t0ILENJUS5OQVNEQVFHTTpRUVEuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMjUuVVNEAQAAAA66ewACAAAABjU0MS4xNgCBjlFydtrdCPadIXN22t0ILUNJUS5OQVNEQVFHTTpBR0lYLklRX0NMT1NFUFJJQ0UuMjAyNS82LzI1LlVTRAEAAAAj9wBwAgAAAAUzMC43OACBjlFydtrdCALvI3N22t0ILENJUS5OQVNEQVFHTTpTTUguSVFfQ0xPU0VQUklDRS4yMDI1LzYvMjUuVVNEAQAAAGDCNgACAAAABTI3NS4yAIGOUXJ22t0IDC8Yc3ba3QgoQ0lRLkJBVFM6SUdWLklRX0NMT1NFUFJJQ0UuMjAyNS82LzI1LlVTRAEAAADNOoYAAgAAAAYxMDcuNzcAgY5Rcnba3QgdLyVzdtrdCC1DSVEuTkFTREFRR006Qk9UWi5JUV9DTE9TRVBSSUNFLjIwMjUvNi8yNS5VU0QBAAAA9/0IFgIAAAAFMzEuNTQAgY5Rcnba3QhbJRtzdtrdCClDSVEuQVJDQTpBUlRZLklRX0NMT1NFUFJJQ0UuMjAyNS82LzI1LlVTRAEAAABuH2khAgAAAAU0MC4wNACBjlFydtrdCGFNHXN22t0ILUNJUS5OQVNEQVFHTTpST0JULklRX0NMT1NFUFJJQ0UuMjAyNS82LzI1LlVTRAEAAABcY9kgAgAAAAU0Ny4xMwCBjlFydtrdCK1QHHN22t0IKUNJUS5BUkNBOklHUFQuSVFfQ0xPU0VQUklDRS4yMDI1</t>
+  </si>
+  <si>
+    <t>LzYvMjUuVVNEAQAAAMwCXgECAAAABTQ4LjI5AIGOUXJ22t0IsNUec3ba3QgpQ0lRLkJBVFM6V1RBSS5JUV9DTE9TRVBSSUNFLjIwMjUvNi8yNS5VU0QBAAAAYE5vZAIAAAAFMjQuMDUAgY5Rcnba3Qg93B9zdtrdCClDSVEuQVJDQTpUSE5RLklRX0NMT1NFUFJJQ0UuMjAyNS82LzI1LlVTRAEAAACuw34kAgAAAAc1My43NDk5AIGOUXJ22t0ItW0Rc3ba3QgtQ0lRLk5BU0RBUUdNOkZEVFguSVFfQ0xPU0VQUklDRS4yMDI1LzYvMjUuVVNEAQAAAL2lnSYCAAAABTM4LjE1AIGOUXJ22t0IxmQnc3ba3QgpQ0lRLkFSQ0E6Q0hBVC5JUV9DTE9TRVBSSUNFLjIwMjUvNi8yNS5VU0QBAAAAADA1bQIAAAAFNDcuNjkAgY5Rcnba3QgToyhzdtrdCClDSVEuQVJDQTpMT1VQLklRX0NMT1NFUFJJQ0UuMjAyNS82LzI1LlVTRAEAAABZXA8iAgAAAAc2MC40MTUxAIGOUXJ22t0IZUspc3ba3QgpQ0lRLkFSQ0E6TFJOWi5JUV9DTE9TRVBSSUNFLjIwMjUvNi8yNS5VU0QBAAAAtXbDJgIAAAAGNDMuODM3AIGOUXJ22t0IDC8Yc3ba3QgoQ0lRLkFSQ0E6QUlTLklRX0NMT1NFUFJJQ0UuMjAyNS82LzI1LlVTRAEAAACYl59wAgAAAAcyNy42NzY4AIGOUXJ22t0IRlsjc3ba3QgtQ0lRLk5BU0RBUUdNOldJU0UuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMjUuVVNEAQAAAOmwQ24CAAAABTM1LjIxAIGOUXJ22t0Ievgpc3ba3QgoQ0lRLkxT</t>
+  </si>
+  <si>
+    <t>RTpSQk9ULklRX0NMT1NFUFJJQ0UuMjAyNS82LzI1LlVTRAEAAACOeyQUAgAAAAYxNC43MzUAgY5Rcnba3QiLmhtzdtrdCClDSVEuWFRSQTpYQUlYLklRX0NMT1NFUFJJQ0UuMjAyNS82LzI1LlVTRAEAAAA17OIiAgAAAA4xNTguMjE0MTYxMTIwNACBjlFydtrdCGy8K3N22t0IKENJUS5CSVQ6V1RBSS5JUV9DTE9TRVBSSUNFLjIwMjUvNi8yNS5VU0QBAAAATbpbIwIAAAAONzEuNDQ1MTgwNzgyMjUAgY5Rcnba3Qj2nSFzdtrdCChDSVEuTFNFOkFJQUcuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMjUuVVNEAQAAAPCdgiQCAAAADzIzLjU4OTU4MjkzNDg4MQCBjlFydtrdCALvI3N22t0IKENJUS5BU1g6UkJUWi5JUV9DTE9TRVBSSUNFLjIwMjUvNi8yNS5VU0QBAAAAKe12IgIAAAANOC45NjQwMzk5ODI3NACBjlFydtrdCB0vJXN22t0IJ0NJUS5EQjpYQjBULklRX0NMT1NFUFJJQ0UuMjAyNS82LzI1LlVTRAEAAADTM94pAgAAAA0yMC42NzIwMTQ4Nzg5AIGOUXJ22t0ItW0Rc3ba3QgsQ0lRLk5BU0RBUUdNOlFRUS5JUV9DTE9TRVBSSUNFLjIwMjUvNi8yNC5VU0QBAAAADrp7AAIAAAAGNTM5Ljc4AIGOUXJ22t0I7FEmc3ba3QgtQ0lRLk5BU0RBUUdNOkFHSVguSVFfQ0xPU0VQUklDRS4yMDI1LzYvMjQuVVNEAQAAACP3AHACAAAABTMwLjk0AIGOUXJ22t0IA/sTc3ba3QgsQ0lRLk5BU0RBUUdNOlNNSC5JUV9DTE9T</t>
+  </si>
+  <si>
+    <t>RVBSSUNFLjIwMjUvNi8yNC5VU0QBAAAAYMI2AAIAAAAGMjcxLjU0AIGOUXJ22t0IiX4ec3ba3QgoQ0lRLkJBVFM6SUdWLklRX0NMT1NFUFJJQ0UuMjAyNS82LzI0LlVTRAEAAADNOoYAAgAAAAYxMDguMDUAgY5Rcnba3QgMLxhzdtrdCC1DSVEuTkFTREFRR006Qk9UWi5JUV9DTE9TRVBSSUNFLjIwMjUvNi8yNC5VU0QBAAAA9/0IFgIAAAAFMzEuNDQAgY5Rcnba3Qiw1R5zdtrdCCxDSVEuTkFTREFRR006QUlRLklRX0NMT1NFUFJJQ0UuMjAyNS82LzI0LlVTRAEAAADp3GIhAgAAAAQ0My4xAIGOUXJ22t0InwMgc3ba3QgpQ0lRLkFSQ0E6QVJUWS5JUV9DTE9TRVBSSUNFLjIwMjUvNi8yNC5VU0QBAAAAbh9pIQIAAAAFMzkuNjYAgY5Rcnba3QhuUSBzdtrdCC1DSVEuTkFTREFRR006Uk9CVC5JUV9DTE9TRVBSSUNFLjIwMjUvNi8yNC5VU0QBAAAAXGPZIAIAAAAFNDYuOTUAgY5Rcnba3QhbJRtzdtrdCClDSVEuQkFUUzpXVEFJLklRX0NMT1NFUFJJQ0UuMjAyNS82LzI0LlVTRAEAAABgTm9kAgAAAAUyMy45MwCBjlFydtrdCPn7JXN22t0IKUNJUS5BUkNBOlRITlEuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMjQuVVNEAQAAAK7DfiQCAAAABTUzLjM2AIGOUXJ22t0IAXMpc3ba3QgtQ0lRLk5BU0RBUUdNOkZEVFguSVFfQ0xPU0VQUklDRS4yMDI1LzYvMjQuVVNEAQAAAL2lnSYCAAAABzM4LjA0MTIAgY5Rcnba3Qi1</t>
+  </si>
+  <si>
+    <t>bRFzdtrdCClDSVEuQVJDQTpDSEFULklRX0NMT1NFUFJJQ0UuMjAyNS82LzI0LlVTRAEAAAAAMDVtAgAAAAU0Ny41MwCBjlFydtrdCHr4KXN22t0IKUNJUS5BUkNBOkxPVVAuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMjQuVVNEAQAAAFlcDyICAAAABjU5LjkzOAB8tVFydtrdCAP7E3N22t0IKUNJUS5BUkNBOkxSTlouSVFfQ0xPU0VQUklDRS4yMDI1LzYvMjQuVVNEAQAAALV2wyYCAAAABzQzLjczOTcAfLVRcnba3QiLmhtzdtrdCChDSVEuQVJDQTpBSVMuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMjQuVVNEAQAAAJiXn3ACAAAABTI3LjU5AHy1UXJ22t0IYjgdc3ba3QgtQ0lRLk5BU0RBUUdNOldJU0UuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMjQuVVNEAQAAAOmwQ24CAAAABTM1LjM1AHy1UXJ22t0IAu8jc3ba3QgoQ0lRLkxTRTpSQk9ULklRX0NMT1NFUFJJQ0UuMjAyNS82LzI0LlVTRAEAAACOeyQUAgAAAAYxNC43MDUAfLVRcnba3QgdLyVzdtrdCClDSVEuWFRSQTpYQUlYLklRX0NMT1NFUFJJQ0UuMjAyNS82LzI0LlVTRAEAAAA17OIiAgAAAA8xNTcuNzYyNTMwNTc4NTIAfLVRcnba3QjsUSZzdtrdCChDSVEuQklUOldUQUkuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMjQuVVNEAQAAAE26WyMCAAAADjcxLjYwMTM0OTAxNzU0AHy1UXJ22t0IWyUbc3ba3QgoQ0lRLkFTWDpSQlRaLklRX0NMT1NFUFJJQ0UuMjAyNS82</t>
+  </si>
+  <si>
+    <t>LzI0LlVTRAEAAAAp7XYiAgAAAA04Ljk3Nzg2NDU4NzkzAHy1UXJ22t0Iyj0nc3ba3QgnQ0lRLkRCOlhCMFQuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMjQuVVNEAQAAANMz3ikCAAAADzIwLjUyMDk5MDgxOTYxMgB8tVFydtrdCBOjKHN22t0ILENJUS5OQVNEQVFHTTpRUVEuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMjMuVVNEAQAAAA66ewACAAAABjUzMS42NQB8tVFydtrdCLVtEXN22t0ILUNJUS5OQVNEQVFHTTpBR0lYLklRX0NMT1NFUFJJQ0UuMjAyNS82LzIzLlVTRAEAAAAj9wBwAgAAAAUzMC4yNAB8tVFydtrdCD3cH3N22t0ILENJUS5OQVNEQVFHTTpTTUguSVFfQ0xPU0VQUklDRS4yMDI1LzYvMjMuVVNEAQAAAGDCNgACAAAABjI2MS45MgB8tVFydtrdCAP7E3N22t0IKENJUS5CQVRTOklHVi5JUV9DTE9TRVBSSUNFLjIwMjUvNi8yMy5VU0QBAAAAzTqGAAIAAAAGMTA2LjM3AHy1UXJ22t0IblEgc3ba3QgtQ0lRLk5BU0RBUUdNOkJPVFouSVFfQ0xPU0VQUklDRS4yMDI1LzYvMjMuVVNEAQAAAPf9CBYCAAAABTMwLjc0AHy1UXJ22t0IT5Urc3ba3QgsQ0lRLk5BU0RBUUdNOkFJUS5JUV9DTE9TRVBSSUNFLjIwMjUvNi8yMy5VU0QBAAAA6dxiIQIAAAAFNDEuOTYAfLVRcnba3Qj2nSFzdtrdCClDSVEuQVJDQTpBUlRZLklRX0NMT1NFUFJJQ0UuMjAyNS82LzIzLlVTRAEAAABuH2khAgAAAAUzOC41NgB8tVFy</t>
+  </si>
+  <si>
+    <t>dtrdCAwvGHN22t0ILUNJUS5OQVNEQVFHTTpST0JULklRX0NMT1NFUFJJQ0UuMjAyNS82LzIzLlVTRAEAAABcY9kgAgAAAAU0NS44MwB8tVFydtrdCHr4KXN22t0IKUNJUS5BUkNBOklHUFQuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMjMuVVNEAQAAAMwCXgECAAAABDQ2LjYAfLVRcnba3QhbJRtzdtrdCClDSVEuQVJDQTpUSE5RLklRX0NMT1NFUFJJQ0UuMjAyNS82LzIzLlVTRAEAAACuw34kAgAAAAU1Mi4wMwB8tVFydtrdCIuaG3N22t0ILUNJUS5OQVNEQVFHTTpGRFRYLklRX0NMT1NFUFJJQ0UuMjAyNS82LzIzLlVTRAEAAAC9pZ0mAgAAAAYzNy4xMTUAfLVRcnba3QhiOB1zdtrdCClDSVEuQVJDQTpDSEFULklRX0NMT1NFUFJJQ0UuMjAyNS82LzIzLlVTRAEAAAAAMDVtAgAAAAU0NS45NQB8tVFydtrdCANHHnN22t0IKUNJUS5BUkNBOkxPVVAuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMjMuVVNEAQAAAFlcDyICAAAABzU3LjgyMDEAfLVRcnba3Qiw1R5zdtrdCClDSVEuQVJDQTpMUk5aLklRX0NMT1NFUFJJQ0UuMjAyNS82LzIzLlVTRAEAAAC1dsMmAgAAAAY0Mi45NDUAfLVRcnba3QgD+xNzdtrdCChDSVEuQVJDQTpBSVMuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMjMuVVNEAQAAAJiXn3ACAAAABzI2LjQyNjUAfLVRcnba3QjsUSZzdtrdCC1DSVEuTkFTREFRR006V0lTRS5JUV9DTE9TRVBSSUNFLjIwMjUvNi8y</t>
+  </si>
+  <si>
+    <t>My5VU0QBAAAA6bBDbgIAAAAGMzMuODk1AHy1UXJ22t0Iyj0nc3ba3QgoQ0lRLkxTRTpSQk9ULklRX0NMT1NFUFJJQ0UuMjAyNS82LzIzLlVTRAEAAACOeyQUAgAAAAYxNC4zNjUAfLVRcnba3QgToyhzdtrdCClDSVEuWFRSQTpYQUlYLklRX0NMT1NFUFJJQ0UuMjAyNS82LzIzLlVTRAEAAAA17OIiAgAAAA8xNTMuNjcwMzYwMTUwMDIAfLVRcnba3QgMLxhzdtrdCChDSVEuQklUOldUQUkuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMjMuVVNEAQAAAE26WyMCAAAADjY5LjM0NDQxMzY4MzQ0AHy1UXJ22t0ImP0ic3ba3QgoQ0lRLkxTRTpBSUFHLklRX0NMT1NFUFJJQ0UuMjAyNS82LzIzLlVTRAEAAADwnYIkAgAAAA8yMi44ODE2NzYyOTYxMzIAfLVRcnba3QjjmSlzdtrdCCdDSVEuREI6WEIwVC5JUV9DTE9TRVBSSUNFLjIwMjUvNi8yMy5VU0QBAAAA0zPeKQIAAAAPMjAuMTYxNTg4MTg2MTI0AHy1UXJ22t0IblEgc3ba3QgsQ0lRLk5BU0RBUUdNOlFRUS5JUV9DTE9TRVBSSUNFLjIwMjUvNi8yMC5VU0QBAAAADrp7AAIAAAAGNTI2LjgzAHy1UXJ22t0IZ+Mqc3ba3QgtQ0lRLk5BU0RBUUdNOkFHSVguSVFfQ0xPU0VQUklDRS4yMDI1LzYvMjAuVVNEAQAAACP3AHACAAAAAjMwAOnNUXJ22t0I9p0hc3ba3QgsQ0lRLk5BU0RBUUdNOlNNSC5JUV9DTE9TRVBSSUNFLjIwMjUvNi8yMC5VU0QBAAAAYMI2AAIAAAAGMjYw</t>
+  </si>
+  <si>
+    <t>LjI3AOnNUXJ22t0IAu8jc3ba3QgoQ0lRLkJBVFM6SUdWLklRX0NMT1NFUFJJQ0UuMjAyNS82LzIwLlVTRAEAAADNOoYAAgAAAAYxMDUuMTEA6c1Rcnba3Qi1bRFzdtrdCC1DSVEuTkFTREFRR006Qk9UWi5JUV9DTE9TRVBSSUNFLjIwMjUvNi8yMC5VU0QBAAAA9/0IFgIAAAAFMzAuNDUA6c1Rcnba3QgdLyVzdtrdCCxDSVEuTkFTREFRR006QUlRLklRX0NMT1NFUFJJQ0UuMjAyNS82LzIwLlVTRAEAAADp3GIhAgAAAAQ0MS41AOnNUXJ22t0Ii5obc3ba3QgpQ0lRLkFSQ0E6QVJUWS5JUV9DTE9TRVBSSUNFLjIwMjUvNi8yMC5VU0QBAAAAbh9pIQIAAAAFMzguNDQA6c1Rcnba3QhiOB1zdtrdCC1DSVEuTkFTREFRR006Uk9CVC5JUV9DTE9TRVBSSUNFLjIwMjUvNi8yMC5VU0QBAAAAXGPZIAIAAAAFNDUuNTcA6c1Rcnba3QgMLxhzdtrdCClDSVEuQVJDQTpJR1BULklRX0NMT1NFUFJJQ0UuMjAyNS82LzIwLlVTRAEAAADMAl4BAgAAAAU0Ni4zNQDpzVFydtrdCANHHnN22t0IKUNJUS5CQVRTOldUQUkuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMjAuVVNEAQAAAGBOb2QCAAAABTIzLjA2AOnNUXJ22t0IsNUec3ba3QgpQ0lRLkFSQ0E6VEhOUS5JUV9DTE9TRVBSSUNFLjIwMjUvNi8yMC5VU0QBAAAArsN+JAIAAAAFNTEuNzIA6c1Rcnba3QgytR9zdtrdCC1DSVEuTkFTREFRR006RkRUWC5JUV9DTE9TRVBSSUNFLjIw</t>
+  </si>
+  <si>
+    <t>MjUvNi8yMC5VU0QBAAAAvaWdJgIAAAAEMzYuOADpzVFydtrdCFslG3N22t0IKUNJUS5BUkNBOkNIQVQuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMjAuVVNEAQAAAAAwNW0CAAAABTQ2LjAzAOnNUXJ22t0Iyj0nc3ba3QgpQ0lRLkFSQ0E6TE9VUC5JUV9DTE9TRVBSSUNFLjIwMjUvNi8yMC5VU0QBAAAAWVwPIgIAAAAHNTcuNTE4MwDpzVFydtrdCBOjKHN22t0IKUNJUS5BUkNBOkxSTlouSVFfQ0xPU0VQUklDRS4yMDI1LzYvMjAuVVNEAQAAALV2wyYCAAAABjQyLjQ4NQDpzVFydtrdCA4YKXN22t0IKENJUS5BUkNBOkFJUy5JUV9DTE9TRVBSSUNFLjIwMjUvNi8yMC5VU0QBAAAAmJefcAIAAAAHMjYuMzM0OQDpzVFydtrdCLVtEXN22t0ILUNJUS5OQVNEQVFHTTpXSVNFLklRX0NMT1NFUFJJQ0UuMjAyNS82LzIwLlVTRAEAAADpsENuAgAAAAUzNC4wMwDpzVFydtrdCOOZKXN22t0IKENJUS5MU0U6UkJPVC5JUV9DTE9TRVBSSUNFLjIwMjUvNi8yMC5VU0QBAAAAjnskFAIAAAAGMTQuMzY1AOnNUXJ22t0IA/sTc3ba3QgpQ0lRLlhUUkE6WEFJWC5JUV9DTE9TRVBSSUNFLjIwMjUvNi8yMC5VU0QBAAAANeziIgIAAAANMTUzLjkwODIzMTUwOADpzVFydtrdCHr4KXN22t0IKENJUS5CSVQ6V1RBSS5JUV9DTE9TRVBSSUNFLjIwMjUvNi8yMC5VU0QBAAAATbpbIwIAAAANNjkuNTE4MTAwMDc0NADpzVFydtrdCAwvGHN2</t>
+  </si>
+  <si>
+    <t>2t0IKENJUS5MU0U6QUlBRy5JUV9DTE9TRVBSSUNFLjIwMjUvNi8yMC5VU0QBAAAA8J2CJAIAAAAPMjIuODM3MDUzMjkyNTA4AOnNUXJ22t0I9p0hc3ba3QgoQ0lRLkFTWDpSQlRaLklRX0NMT1NFUFJJQ0UuMjAyNS82LzIwLlVTRAEAAAAp7XYiAgAAAA04Ljg0NjUyNjY1NDI2AOnNUXJ22t0Ixdkjc3ba3QgnQ0lRLkRCOlhCMFQuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMjAuVVNEAQAAANMz3ikCAAAADzIwLjIyODI2ODM4OTgwOADpzVFydtrdCPMZJXN22t0ILENJUS5OQVNEQVFHTTpRUVEuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMTkuVVNEAQAAAA66ewADAAAAAADpzVFydtrdCFslG3N22t0ILENJUS5OQVNEQVFHTTpTTUguSVFfQ0xPU0VQUklDRS4yMDI1LzYvMTkuVVNEAQAAAGDCNgADAAAAAADpzVFydtrdCOxRJnN22t0IKENJUS5CQVRTOklHVi5JUV9DTE9TRVBSSUNFLjIwMjUvNi8xOS5VU0QBAAAAzTqGAAMAAAAAAOnNUXJ22t0IA0cec3ba3QgtQ0lRLk5BU0RBUUdNOkJPVFouSVFfQ0xPU0VQUklDRS4yMDI1LzYvMTkuVVNEAQAAAPf9CBYDAAAAAADpzVFydtrdCLVtEXN22t0ILENJUS5OQVNEQVFHTTpBSVEuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMTkuVVNEAQAAAOncYiEDAAAAAADpzVFydtrdCLDVHnN22t0IKUNJUS5BUkNBOkFSVFkuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMTkuVVNEAQAAAG4faSED</t>
+  </si>
+  <si>
+    <t>AAAAAADpzVFydtrdCH3lE3N22t0ILUNJUS5OQVNEQVFHTTpST0JULklRX0NMT1NFUFJJQ0UuMjAyNS82LzE5LlVTRAEAAABcY9kgAwAAAAAA6c1Rcnba3QgytR9zdtrdCClDSVEuQVJDQTpJR1BULklRX0NMT1NFUFJJQ0UuMjAyNS82LzE5LlVTRAEAAADMAl4BAwAAAAAA6c1Rcnba3QhuUSBzdtrdCClDSVEuQkFUUzpXVEFJLklRX0NMT1NFUFJJQ0UuMjAyNS82LzE5LlVTRAEAAABgTm9kAwAAAAAA6c1Rcnba3QiPbitzdtrdCClDSVEuQVJDQTpUSE5RLklRX0NMT1NFUFJJQ0UuMjAyNS82LzE5LlVTRAEAAACuw34kAwAAAAAA6c1Rcnba3QgpsCRzdtrdCC1DSVEuTkFTREFRR006RkRUWC5JUV9DTE9TRVBSSUNFLjIwMjUvNi8xOS5VU0QBAAAAvaWdJgMAAAAAAOnNUXJ22t0I45kpc3ba3QgpQ0lRLkFSQ0E6Q0hBVC5JUV9DTE9TRVBSSUNFLjIwMjUvNi8xOS5VU0QBAAAAADA1bQMAAAAAAOnNUXJ22t0Iev4ac3ba3QgpQ0lRLkFSQ0E6TFJOWi5JUV9DTE9TRVBSSUNFLjIwMjUvNi8xOS5VU0QBAAAAtXbDJgMAAAAAAOnNUXJ22t0Ievgpc3ba3QgoQ0lRLkFSQ0E6QUlTLklRX0NMT1NFUFJJQ0UuMjAyNS82LzE5LlVTRAEAAACYl59wAwAAAAAA6c1Rcnba3QiLmhtzdtrdCC1DSVEuTkFTREFRR006V0lTRS5JUV9DTE9TRVBSSUNFLjIwMjUvNi8xOS5VU0QBAAAA6bBDbgMAAAAAAOnNUXJ22t0IYjgdc3ba3Qgo</t>
+  </si>
+  <si>
+    <t>Q0lRLkxTRTpSQk9ULklRX0NMT1NFUFJJQ0UuMjAyNS82LzE5LlVTRAEAAACOeyQUAgAAAAUxNC4yNADpzVFydtrdCMXZI3N22t0IKUNJUS5YVFJBOlhBSVguSVFfQ0xPU0VQUklDRS4yMDI1LzYvMTkuVVNEAQAAADXs4iICAAAADzE1Mi4wMTgzNDg2NDY5NgDpzVFydtrdCH3lE3N22t0IKENJUS5CSVQ6V1RBSS5JUV9DTE9TRVBSSUNFLjIwMjUvNi8xOS5VU0QBAAAATbpbIwIAAAAONjguNzk1ODcxNTcwMDkAjuNRcnba3QjzGSVzdtrdCChDSVEuTFNFOkFJQUcuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMTkuVVNEAQAAAPCdgiQCAAAADTIyLjY4NjY5NTM4NTkAjuNRcnba3QjsUSZzdtrdCChDSVEuQVNYOlJCVFouSVFfQ0xPU0VQUklDRS4yMDI1LzYvMTkuVVNEAQAAACntdiICAAAADTguODAyODM5NjI1MzYAjuNRcnba3QjKPSdzdtrdCCdDSVEuREI6WEIwVC5JUV9DTE9TRVBSSUNFLjIwMjUvNi8xOS5VU0QBAAAA0zPeKQIAAAAOMjAuMTAzMjExMDEyMjMAjuNRcnba3QgMLxhzdtrdCCxDSVEuTkFTREFRR006UVFRLklRX0NMT1NFUFJJQ0UuMjAyNS82LzE4LlVTRAEAAAAOunsAAgAAAAY1MjguOTkAjuNRcnba3QgToyhzdtrdCC1DSVEuTkFTREFRR006QUdJWC5JUV9DTE9TRVBSSUNFLjIwMjUvNi8xOC5VU0QBAAAAI/cAcAIAAAAHMzAuMzE1MQCO41FydtrdCHr+GnN22t0IKENJUS5CQVRTOklHVi5JUV9D</t>
+  </si>
+  <si>
+    <t>TE9TRVBSSUNFLjIwMjUvNi8xOC5VU0QBAAAAzTqGAAIAAAAGMTA2LjA5AI7jUXJ22t0InwMgc3ba3QgtQ0lRLk5BU0RBUUdNOkJPVFouSVFfQ0xPU0VQUklDRS4yMDI1LzYvMTguVVNEAQAAAPf9CBYCAAAABTMxLjA0AI7jUXJ22t0IblEgc3ba3QgsQ0lRLk5BU0RBUUdNOkFJUS5JUV9DTE9TRVBSSUNFLjIwMjUvNi8xOC5VU0QBAAAA6dxiIQIAAAAFNDEuODgAjuNRcnba3Qh2CitzdtrdCClDSVEuQVJDQTpBUlRZLklRX0NMT1NFUFJJQ0UuMjAyNS82LzE4LlVTRAEAAABuH2khAgAAAAUzOC43NgCO41FydtrdCPadIXN22t0ILUNJUS5OQVNEQVFHTTpST0JULklRX0NMT1NFUFJJQ0UuMjAyNS82LzE4LlVTRAEAAABcY9kgAgAAAAU0Ni4xMQCO41FydtrdCLVtEXN22t0IKUNJUS5BUkNBOklHUFQuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMTguVVNEAQAAAMwCXgECAAAABTQ2Ljc3AI7jUXJ22t0I45kpc3ba3QgpQ0lRLkJBVFM6V1RBSS5JUV9DTE9TRVBSSUNFLjIwMjUvNi8xOC5VU0QBAAAAYE5vZAIAAAAFMjMuMjgAjuNRcnba3Qh6+ClzdtrdCClDSVEuQVJDQTpUSE5RLklRX0NMT1NFUFJJQ0UuMjAyNS82LzE4LlVTRAEAAACuw34kAgAAAAU1Mi4xNwCO41FydtrdCIuaG3N22t0ILUNJUS5OQVNEQVFHTTpGRFRYLklRX0NMT1NFUFJJQ0UuMjAyNS82LzE4LlVTRAEAAAC9pZ0mAgAAAAUzNy4xNwCO41Fydtrd</t>
+  </si>
+  <si>
+    <t>CAwvGHN22t0IKUNJUS5BUkNBOkNIQVQuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMTguVVNEAQAAAAAwNW0CAAAABTQ2LjE2AI7jUXJ22t0IYjgdc3ba3QgpQ0lRLkFSQ0E6TE9VUC5JUV9DTE9TRVBSSUNFLjIwMjUvNi8xOC5VU0QBAAAAWVwPIgIAAAAHNTguMTc3NACO41FydtrdCANHHnN22t0IKUNJUS5BUkNBOkxSTlouSVFfQ0xPU0VQUklDRS4yMDI1LzYvMTguVVNEAQAAALV2wyYCAAAABzQyLjg5MTUAjuNRcnba3Qiw1R5zdtrdCChDSVEuQVJDQTpBSVMuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMTguVVNEAQAAAJiXn3ACAAAABjI2LjcyNQCO41FydtrdCPMZJXN22t0ILUNJUS5OQVNEQVFHTTpXSVNFLklRX0NMT1NFUFJJQ0UuMjAyNS82LzE4LlVTRAEAAADpsENuAgAAAAQzMy45AI7jUXJ22t0I7FEmc3ba3QgoQ0lRLkxTRTpSQk9ULklRX0NMT1NFUFJJQ0UuMjAyNS82LzE4LlVTRAEAAACOeyQUAgAAAAUxNC40OQCO41FydtrdCMo9J3N22t0IKUNJUS5YVFJBOlhBSVguSVFfQ0xPU0VQUklDRS4yMDI1LzYvMTguVVNEAQAAADXs4iICAAAADzE1NC40MTE0MjU5MjYzNACO41FydtrdCBOjKHN22t0IKENJUS5CSVQ6V1RBSS5JUV9DTE9TRVBSSUNFLjIwMjUvNi8xOC5VU0QBAAAATbpbIwIAAAAONjkuNzMwNDc2ODQzMDYAjuNRcnba3Qi1bRFzdtrdCChDSVEuTFNFOkFJQUcuSVFfQ0xPU0VQUklDRS4yMDI1</t>
+  </si>
+  <si>
+    <t>LzYvMTguVVNEAQAAAPCdgiQCAAAADzIzLjA0ODUyNzQ2NTIzNgCO41FydtrdCJj9InN22t0IKENJUS5BU1g6UkJUWi5JUV9DTE9TRVBSSUNFLjIwMjUvNi8xOC5VU0QBAAAAKe12IgIAAAANOC44ODg3NDM5NjkxNwCO41FydtrdCH3lE3N22t0IJ0NJUS5EQjpYQjBULklRX0NMT1NFUFJJQ0UuMjAyNS82LzE4LlVTRAEAAADTM94pAgAAAA4yMC40NDQ1OTgwMTcyNQCO41FydtrdCCjdFnN22t0ILENJUS5OQVNEQVFHTTpRUVEuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMTcuVVNEAQAAAA66ewACAAAABjUyOS4wOAAS+FFydtrdCAwvGHN22t0ILUNJUS5OQVNEQVFHTTpBR0lYLklRX0NMT1NFUFJJQ0UuMjAyNS82LzE3LlVTRAEAAAAj9wBwAgAAAAQzMC4zABL4UXJ22t0Idgorc3ba3QgsQ0lRLk5BU0RBUUdNOlNNSC5JUV9DTE9TRVBSSUNFLjIwMjUvNi8xNy5VU0QBAAAAYMI2AAIAAAAGMjYxLjU5ABL4UXJ22t0I9p0hc3ba3QgoQ0lRLkJBVFM6SUdWLklRX0NMT1NFUFJJQ0UuMjAyNS82LzE3LlVTRAEAAADNOoYAAgAAAAYxMDYuNjUAEvhRcnba3QjF2SNzdtrdCC1DSVEuTkFTREFRR006Qk9UWi5JUV9DTE9TRVBSSUNFLjIwMjUvNi8xNy5VU0QBAAAA9/0IFgIAAAAFMzAuNzkAEvhRcnba3Qh6/hpzdtrdCClDSVEuQVJDQTpBUlRZLklRX0NMT1NFUFJJQ0UuMjAyNS82LzE3LlVTRAEAAABuH2khAgAAAAUzOC42</t>
+  </si>
+  <si>
+    <t>MwAS+FFydtrdCANHHnN22t0ILUNJUS5OQVNEQVFHTTpST0JULklRX0NMT1NFUFJJQ0UuMjAyNS82LzE3LlVTRAEAAABcY9kgAgAAAAU0NS43OAAS+FFydtrdCLwKEHN22t0IKUNJUS5BUkNBOklHUFQuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMTcuVVNEAQAAAMwCXgECAAAABzQ2LjY1MDcAEvhRcnba3Qi1bRFzdtrdCClDSVEuQkFUUzpXVEFJLklRX0NMT1NFUFJJQ0UuMjAyNS82LzE3LlVTRAEAAABgTm9kAgAAAAUyMy4wNgAS+FFydtrdCLDVHnN22t0IKUNJUS5BUkNBOlRITlEuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMTcuVVNEAQAAAK7DfiQCAAAABDUyLjMAEvhRcnba3Qh95RNzdtrdCC1DSVEuTkFTREFRR006RkRUWC5JUV9DTE9TRVBSSUNFLjIwMjUvNi8xNy5VU0QBAAAAvaWdJgIAAAACMzcAEvhRcnba3QifAyBzdtrdCClDSVEuQVJDQTpDSEFULklRX0NMT1NFUFJJQ0UuMjAyNS82LzE3LlVTRAEAAAAAMDVtAgAAAAI0NgAS+FFydtrdCG5RIHN22t0IKUNJUS5BUkNBOkxPVVAuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMTcuVVNEAQAAAFlcDyICAAAABjU3LjUyMgAS+FFydtrdCCmwJHN22t0IKUNJUS5BUkNBOkxSTlouSVFfQ0xPU0VQUklDRS4yMDI1LzYvMTcuVVNEAQAAALV2wyYCAAAABzQyLjc0ODMAEvhRcnba3QgBcylzdtrdCChDSVEuQVJDQTpBSVMuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMTcuVVNE</t>
+  </si>
+  <si>
+    <t>AQAAAJiXn3ACAAAABzI2LjY1NjUAEvhRcnba3Qh6+ClzdtrdCC1DSVEuTkFTREFRR006V0lTRS5JUV9DTE9TRVBSSUNFLjIwMjUvNi8xNy5VU0QBAAAA6bBDbgIAAAAHMzMuNzA1MQAS+FFydtrdCHr+GnN22t0IKUNJUS5YVFJBOlhBSVguSVFfQ0xPU0VQUklDRS4yMDI1LzYvMTcuVVNEAQAAADXs4iICAAAADzE1NC41Njk1NTE3NDgzNgAS+FFydtrdCIuaG3N22t0IKENJUS5CSVQ6V1RBSS5JUV9DTE9TRVBSSUNFLjIwMjUvNi8xNy5VU0QBAAAATbpbIwIAAAAONjkuNDU5NDkwNjM0MzEAEvhRcnba3QiTIx1zdtrdCChDSVEuTFNFOkFJQUcuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMTcuVVNEAQAAAPCdgiQCAAAADzIzLjA2Njk1NDY0OTc5MgAS+FFydtrdCDxGEXN22t0IKENJUS5BU1g6UkJUWi5JUV9DTE9TRVBSSUNFLjIwMjUvNi8xNy5VU0QBAAAAKe12IgIAAAANOC45MTU5MTMzNzIzOQAS+FFydtrdCOxRJnN22t0IJ0NJUS5EQjpYQjBULklRX0NMT1NFUFJJQ0UuMjAyNS82LzE3LlVTRAEAAADTM94pAgAAAA8yMC4yNjk2Nzg0NjgxNjQAEvhRcnba3Qh95RNzdtrdCCxDSVEuTkFTREFRR006UVFRLklRX0NMT1NFUFJJQ0UuMjAyNS82LzE2LlVTRAEAAAAOunsAAgAAAAY1MzQuMjkAEvhRcnba3QjKPSdzdtrdCC1DSVEuTkFTREFRR006QUdJWC5JUV9DTE9TRVBSSUNFLjIwMjUvNi8xNi5VU0QBAAAAI/cA</t>
+  </si>
+  <si>
+    <t>cAIAAAAFMzAuNTUAEvhRcnba3Qj/eyhzdtrdCCxDSVEuTkFTREFRR006U01ILklRX0NMT1NFUFJJQ0UuMjAyNS82LzE2LlVTRAEAAABgwjYAAgAAAAYyNjMuMzgAEvhRcnba3Qgo3RZzdtrdCChDSVEuQkFUUzpJR1YuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMTYuVVNEAQAAAM06hgACAAAABTEwNy40AH8MUnJ22t0IDC8Yc3ba3QgtQ0lRLk5BU0RBUUdNOkJPVFouSVFfQ0xPU0VQUklDRS4yMDI1LzYvMTYuVVNEAQAAAPf9CBYCAAAABTMxLjI3AH8MUnJ22t0IXpUqc3ba3QgsQ0lRLk5BU0RBUUdNOkFJUS5JUV9DTE9TRVBSSUNFLjIwMjUvNi8xNi5VU0QBAAAA6dxiIQIAAAAFNDIuMzIAfwxScnba3Qh6/hpzdtrdCC1DSVEuTkFTREFRR006Uk9CVC5JUV9DTE9TRVBSSUNFLjIwMjUvNi8xNi5VU0QBAAAAXGPZIAIAAAAFNDYuMzQAfwxScnba3Qj2nSFzdtrdCClDSVEuQVJDQTpJR1BULklRX0NMT1NFUFJJQ0UuMjAyNS82LzE2LlVTRAEAAADMAl4BAgAAAAU0Ny4wOAB/DFJydtrdCMXZI3N22t0IKUNJUS5CQVRTOldUQUkuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMTYuVVNEAQAAAGBOb2QCAAAABTIzLjIzAH8MUnJ22t0I8xklc3ba3QgpQ0lRLkFSQ0E6VEhOUS5JUV9DTE9TRVBSSUNFLjIwMjUvNi8xNi5VU0QBAAAArsN+JAIAAAAHNTIuMzE2MgB/DFJydtrdCLwKEHN22t0ILUNJUS5OQVNEQVFHTTpGRFRYLklR</t>
+  </si>
+  <si>
+    <t>X0NMT1NFUFJJQ0UuMjAyNS82LzE2LlVTRAEAAAC9pZ0mAgAAAAUzNy4yOAB/DFJydtrdCNvPE3N22t0IKUNJUS5BUkNBOkNIQVQuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMTYuVVNEAQAAAAAwNW0CAAAABTQ2LjI3AH8MUnJ22t0IA0cec3ba3QgpQ0lRLkFSQ0E6TE9VUC5JUV9DTE9TRVBSSUNFLjIwMjUvNi8xNi5VU0QBAAAAWVwPIgIAAAAHNTcuNzk0MgB/DFJydtrdCLDVHnN22t0IKUNJUS5BUkNBOkxSTlouSVFfQ0xPU0VQUklDRS4yMDI1LzYvMTYuVVNEAQAAALV2wyYCAAAABzQyLjQ5OTEAfwxScnba3Qgo3RZzdtrdCChDSVEuQVJDQTpBSVMuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMTYuVVNEAQAAAJiXn3ACAAAABzI2LjY1NzQAfwxScnba3QjU+RdzdtrdCC1DSVEuTkFTREFRR006V0lTRS5JUV9DTE9TRVBSSUNFLjIwMjUvNi8xNi5VU0QBAAAA6bBDbgIAAAAHMzQuMDg0MgB/DFJydtrdCJ8DIHN22t0IKENJUS5MU0U6UkJPVC5JUV9DTE9TRVBSSUNFLjIwMjUvNi8xNi5VU0QBAAAAjnskFAIAAAAGMTQuNjE1AH8MUnJ22t0IblEgc3ba3QgoQ0lRLkJJVDpXVEFJLklRX0NMT1NFUFJJQ0UuMjAyNS82LzE2LlVTRAEAAABNulsjAgAAAA42OS43MDY4MDI2NDU1NQB/DFJydtrdCAPBKXN22t0IKENJUS5MU0U6QUlBRy5JUV9DTE9TRVBSSUNFLjIwMjUvNi8xNi5VU0QBAAAA8J2CJAIAAAAPMjMuMTUwNDUy</t>
+  </si>
+  <si>
+    <t>MTAyMjY2AH8MUnJ22t0IanMbc3ba3QgnQ0lRLkRCOlhCMFQuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMTYuVVNEAQAAANMz3ikCAAAADzIwLjM1OTI1MzY4MDQxNgB/DFJydtrdCLwKEHN22t0ILENJUS5OQVNEQVFHTTpRUVEuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMTMuVVNEAQAAAA66ewACAAAABjUyNi45NgB/DFJydtrdCDxGEXN22t0ILUNJUS5OQVNEQVFHTTpBR0lYLklRX0NMT1NFUFJJQ0UuMjAyNS82LzEzLlVTRAEAAAAj9wBwAgAAAAUzMC4wMgB/DFJydtrdCJMjHXN22t0ILENJUS5OQVNEQVFHTTpTTUguSVFfQ0xPU0VQUklDRS4yMDI1LzYvMTMuVVNEAQAAAGDCNgACAAAABjI1Ni45OQB/DFJydtrdCMo9J3N22t0IKENJUS5CQVRTOklHVi5JUV9DTE9TRVBSSUNFLjIwMjUvNi8xMy5VU0QBAAAAzTqGAAIAAAAGMTA2LjI3AH8MUnJ22t0IKN0Wc3ba3QgtQ0lRLk5BU0RBUUdNOkJPVFouSVFfQ0xPU0VQUklDRS4yMDI1LzYvMTMuVVNEAQAAAPf9CBYCAAAABTMwLjkxAH8MUnJ22t0I1PkXc3ba3QgsQ0lRLk5BU0RBUUdNOkFJUS5JUV9DTE9TRVBSSUNFLjIwMjUvNi8xMy5VU0QBAAAA6dxiIQIAAAAENDEuNgB/DFJydtrdCP97KHN22t0IKUNJUS5BUkNBOkFSVFkuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMTMuVVNEAQAAAG4faSECAAAABDM3LjkAfwxScnba3Qj5+yVzdtrdCC1DSVEuTkFTREFRR006Uk9C</t>
+  </si>
+  <si>
+    <t>VC5JUV9DTE9TRVBSSUNFLjIwMjUvNi8xMy5VU0QBAAAAXGPZIAIAAAAFNDUuNTEAfwxScnba3QgBcylzdtrdCClDSVEuQVJDQTpJR1BULklRX0NMT1NFUFJJQ0UuMjAyNS82LzEzLlVTRAEAAADMAl4BAgAAAAI0NgB/DFJydtrdCHr+GnN22t0IKUNJUS5CQVRTOldUQUkuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMTMuVVNEAQAAAGBOb2QCAAAABTIyLjY2AJ8iUnJ22t0Ixdkjc3ba3QgtQ0lRLk5BU0RBUUdNOkZEVFguSVFfQ0xPU0VQUklDRS4yMDI1LzYvMTMuVVNEAQAAAL2lnSYCAAAABDM2LjUAnyJScnba3Qi8ChBzdtrdCClDSVEuQVJDQTpDSEFULklRX0NMT1NFUFJJQ0UuMjAyNS82LzEzLlVTRAEAAAAAMDVtAgAAAAU0NC44MwCfIlJydtrdCDxGEXN22t0IKUNJUS5BUkNBOkxPVVAuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMTMuVVNEAQAAAFlcDyICAAAABzU2LjMzMDMAnyJScnba3QjzGSVzdtrdCClDSVEuQVJDQTpMUk5aLklRX0NMT1NFUFJJQ0UuMjAyNS82LzEzLlVTRAEAAAC1dsMmAgAAAAc0MS45OTA1AJ8iUnJ22t0I288Tc3ba3QgoQ0lRLkFSQ0E6QUlTLklRX0NMT1NFUFJJQ0UuMjAyNS82LzEzLlVTRAEAAACYl59wAgAAAAYyNS45NTUAnyJScnba3QjsUSZzdtrdCC1DSVEuTkFTREFRR006V0lTRS5JUV9DTE9TRVBSSUNFLjIwMjUvNi8xMy5VU0QBAAAA6bBDbgIAAAAFMzMuMDcAnyJScnba3QjU</t>
+  </si>
+  <si>
+    <t>+RdzdtrdCChDSVEuTFNFOlJCT1QuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMTMuVVNEAQAAAI57JBQCAAAABjE0LjM4NQCfIlJydtrdCDK1H3N22t0IKUNJUS5YVFJBOlhBSVguSVFfQ0xPU0VQUklDRS4yMDI1LzYvMTMuVVNEAQAAADXs4iICAAAADjE1Mi45OTk2NTMyMjI4AJ8iUnJ22t0IblEgc3ba3QgoQ0lRLkJJVDpXVEFJLklRX0NMT1NFUFJJQ0UuMjAyNS82LzEzLlVTRAEAAABNulsjAgAAAA02OC41NzAxMDc1MDM2AJ8iUnJ22t0IGUcqc3ba3QgoQ0lRLkxTRTpBSUFHLklRX0NMT1NFUFJJQ0UuMjAyNS82LzEzLlVTRAEAAADwnYIkAgAAAA4yMi45NzEwOTkyMDg0NwCfIlJydtrdCHr+GnN22t0IJ0NJUS5EQjpYQjBULklRX0NMT1NFUFJJQ0UuMjAyNS82LzEzLlVTRAEAAADTM94pAgAAAA4yMC4zOTc2NDE4OTE1OACfIlJydtrdCPadIXN22t0ILENJUS5OQVNEQVFHTTpRUVEuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMTIuVVNEAQAAAA66ewACAAAABjUzMy42NgCfIlJydtrdCLwKEHN22t0ILUNJUS5OQVNEQVFHTTpBR0lYLklRX0NMT1NFUFJJQ0UuMjAyNS82LzEyLlVTRAEAAAAj9wBwAgAAAAUzMC40OACfIlJydtrdCDxGEXN22t0ILENJUS5OQVNEQVFHTTpTTUguSVFfQ0xPU0VQUklDRS4yMDI1LzYvMTIuVVNEAQAAAGDCNgACAAAABjI2My4xNQCfIlJydtrdCJMjHXN22t0IKENJUS5CQVRTOklHVi5J</t>
+  </si>
+  <si>
+    <t>UV9DTE9TRVBSSUNFLjIwMjUvNi8xMi5VU0QBAAAAzTqGAAIAAAAGMTA3LjA0AJ8iUnJ22t0I288Tc3ba3QgtQ0lRLk5BU0RBUUdNOkJPVFouSVFfQ0xPU0VQUklDRS4yMDI1LzYvMTIuVVNEAQAAAPf9CBYCAAAABTMxLjQxAJ8iUnJ22t0IA0cec3ba3QgsQ0lRLk5BU0RBUUdNOkFJUS5JUV9DTE9TRVBSSUNFLjIwMjUvNi8xMi5VU0QBAAAA6dxiIQIAAAAFNDIuMTkAnyJScnba3Qiw1R5zdtrdCClDSVEuQVJDQTpBUlRZLklRX0NMT1NFUFJJQ0UuMjAyNS82LzEyLlVTRAEAAABuH2khAgAAAAUzOC42MwCfIlJydtrdCCjdFnN22t0ILUNJUS5OQVNEQVFHTTpST0JULklRX0NMT1NFUFJJQ0UuMjAyNS82LzEyLlVTRAEAAABcY9kgAgAAAAU0Ni4zNgCfIlJydtrdCKGaJHN22t0IKUNJUS5BUkNBOklHUFQuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMTIuVVNEAQAAAMwCXgECAAAABTQ2Ljg2AJ8iUnJ22t0I45kpc3ba3QgpQ0lRLkJBVFM6V1RBSS5JUV9DTE9TRVBSSUNFLjIwMjUvNi8xMi5VU0QBAAAAYE5vZAIAAAAFMjMuMTIAnyJScnba3Qh6/hpzdtrdCC1DSVEuTkFTREFRR006RkRUWC5JUV9DTE9TRVBSSUNFLjIwMjUvNi8xMi5VU0QBAAAAvaWdJgIAAAAFMzcuMjgAnyJScnba3QgDwSlzdtrdCClDSVEuQVJDQTpDSEFULklRX0NMT1NFUFJJQ0UuMjAyNS82LzEyLlVTRAEAAAAAMDVtAgAAAAU0NS42MQAUZexx</t>
+  </si>
+  <si>
+    <t>dtrdCGpzG3N22t0IKUNJUS5BUkNBOkxSTlouSVFfQ0xPU0VQUklDRS4yMDI1LzYvMTIuVVNEAQAAALV2wyYCAAAABzQyLjU4MjYAFGXscXba3QjzGSVzdtrdCChDSVEuQVJDQTpBSVMuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMTIuVVNEAQAAAJiXn3ACAAAABzI2LjQ4OTMAFGXscXba3QjbzxNzdtrdCC1DSVEuTkFTREFRR006V0lTRS5JUV9DTE9TRVBSSUNFLjIwMjUvNi8xMi5VU0QBAAAA6bBDbgIAAAAFMzQuMDYAFGXscXba3QjsUSZzdtrdCChDSVEuTFNFOlJCT1QuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMTIuVVNEAQAAAI57JBQCAAAABTE0LjU4ABRl7HF22t0Iyj0nc3ba3QgpQ0lRLlhUUkE6WEFJWC5JUV9DTE9TRVBSSUNFLjIwMjUvNi8xMi5VU0QBAAAANeziIgIAAAAPMTU0LjA3NDA3NDAxOTg0ABRl7HF22t0IKN0Wc3ba3QgoQ0lRLkJJVDpXVEFJLklRX0NMT1NFUFJJQ0UuMjAyNS82LzEyLlVTRAEAAABNulsjAgAAAA42OS4zNDAyNzc3NTMzNwAUZexxdtrdCNT5F3N22t0IKENJUS5MU0U6QUlBRy5JUV9DTE9TRVBSSUNFLjIwMjUvNi8xMi5VU0QBAAAA8J2CJAIAAAAPMjMuMjE5ODg5OTU3Mzk2ABRl7HF22t0I/3soc3ba3QgoQ0lRLkFTWDpSQlRaLklRX0NMT1NFUFJJQ0UuMjAyNS82LzEyLlVTRAEAAAAp7XYiAgAAAA05LjA0NDA3OTI4NzU3ABRl7HF22t0Iev4ac3ba3QgsQ0lRLk5BU0RBUUdN</t>
+  </si>
+  <si>
+    <t>OlFRUS5JUV9DTE9TRVBSSUNFLjIwMjUvNi8xMS5VU0QBAAAADrp7AAIAAAAGNTMyLjQxABRl7HF22t0I9p0hc3ba3QgtQ0lRLk5BU0RBUUdNOkFHSVguSVFfQ0xPU0VQUklDRS4yMDI1LzYvMTEuVVNEAQAAACP3AHACAAAABjMwLjQ0NQAUZexxdtrdCMXZI3N22t0IKENJUS5CQVRTOklHVi5JUV9DTE9TRVBSSUNFLjIwMjUvNi8xMS5VU0QBAAAAzTqGAAIAAAAGMTA1Ljc5ABRl7HF22t0IvAoQc3ba3QgtQ0lRLk5BU0RBUUdNOkJPVFouSVFfQ0xPU0VQUklDRS4yMDI1LzYvMTEuVVNEAQAAAPf9CBYCAAAABTMxLjUzABRl7HF22t0IPEYRc3ba3QgsQ0lRLk5BU0RBUUdNOkFJUS5JUV9DTE9TRVBSSUNFLjIwMjUvNi8xMS5VU0QBAAAA6dxiIQIAAAAFNDIuMTEAFGXscXba3QgDRx5zdtrdCClDSVEuQVJDQTpBUlRZLklRX0NMT1NFUFJJQ0UuMjAyNS82LzExLlVTRAEAAABuH2khAgAAAAUzOC40MwAUZexxdtrdCLDVHnN22t0ILUNJUS5OQVNEQVFHTTpST0JULklRX0NMT1NFUFJJQ0UuMjAyNS82LzExLlVTRAEAAABcY9kgAgAAAAU0Ni41NgAUZexxdtrdCCjdFnN22t0IKUNJUS5BUkNBOklHUFQuSVFfQ0xPU0VQUklDRS4yMDI1LzYvMTEuVVNEAQAAAMwCXgECAAAABTQ3LjA1ABRl7HF22t0I1PkXc3ba3QgpQ0lRLkJBVFM6V1RBSS5JUV9DTE9TRVBSSUNFLjIwMjUvNi8xMS5VU0QBAAAAYE5vZAIAAAAFMjMu</t>
+  </si>
+  <si>
+    <t>MTMAFGXscXba3QgytR9zdtrdCClDSVEuQVJDQTpUSE5RLklRX0NMT1NFUFJJQ0UuMjAyNS82LzExLlVTRAEAAACuw34kAgAAAAU1Mi44MwAUZexxdtrdCG5RIHN22t0ILUNJUS5OQVNEQVFHTTpGRFRYLklRX0NMT1NFUFJJQ0UuMjAyNS82LzExLlVTRAEAAAC9pZ0mAgAAAAUzNi45NwAUZexxdtrdCCBQIXN22t0ILENJUS5OQVNEQVFHTTpRUVEuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMTIuVVNEAQAAAA66ewACAAAABjU4MC4wNQCEnE9ydtrdCGfjKnN22t0ILUNJUS5OQVNEQVFHTTpXSVNFLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEyLlVTRAEAAADpsENuAgAAAAczOS42MDI1AMixT3J22t0IZ+Mqc3ba3QgpQ0lRLkFSQ0E6TE9VUC5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xMi5VU0QBAAAAWVwPIgIAAAAFNjUuNTYAyLFPcnba3QiJfh5zdtrdCC1DSVEuTkFTREFRR006QUdJWC5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xMi5VU0QBAAAAI/cAcAIAAAAHMzMuMTQwNgCEnE9ydtrdCPhGK3N22t0IKENJUS5MU0U6UkJPVC5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xMi5VU0QBAAAAjnskFAIAAAAGMTUuMTQ1AMixT3J22t0I0uMrc3ba3QgoQ0lRLkFSQ0E6QUlTLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEyLlVTRAEAAACYl59wAgAAAAYzMC41MTUAyLFPcnba3Qj4RitzdtrdCCxDSVEuTkFTREFRR006U01ILklRX0NMT1NF</t>
+  </si>
+  <si>
+    <t>UFJJQ0UuMjAyNS84LzEyLlVTRAEAAABgwjYAAgAAAAUzMDAuMQCEnE9ydtrdCE1hInN22t0IKUNJUS5YVFJBOlhBSVguSVFfQ0xPU0VQUklDRS4yMDI1LzgvMTIuVVNEAQAAADXs4iICAAAADzE2My45NTA1MDIwMTA1NgDIsU9ydtrdCE1hInN22t0IKUNJUS5BUkNBOlRITlEuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMTIuVVNEAQAAAK7DfiQCAAAABTU2Ljk3AMixT3J22t0I0uMrc3ba3QgoQ0lRLkJBVFM6SUdWLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEyLlVTRAEAAADNOoYAAgAAAAYxMDkuNTYAhJxPcnba3QimbSRzdtrdCChDSVEuQklUOldUQUkuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMTIuVVNEAQAAAE26WyMCAAAADjc2LjgwMzY0MjMxODk2AMixT3J22t0IXYgic3ba3QgpQ0lRLkJBVFM6V1RBSS5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xMi5VU0QBAAAAYE5vZAIAAAAFMjUuODkAyLFPcnba3QhelSpzdtrdCClDSVEuQVJDQTpMUk5aLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEyLlVTRAEAAAC1dsMmAgAAAAc0Mi4wODkyAMixT3J22t0IN44fc3ba3QgtQ0lRLk5BU0RBUUdNOkJPVFouSVFfQ0xPU0VQUklDRS4yMDI1LzgvMTIuVVNEAQAAAPf9CBYCAAAABTMzLjg4AMixT3J22t0IqM8lc3ba3QgoQ0lRLkxTRTpBSUFHLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEyLlVTRAEAAADwnYIkAgAAAA4yNC45ODkxODgw</t>
+  </si>
+  <si>
+    <t>MTY5MQDIsU9ydtrdCKjPJXN22t0IJ0NJUS5EQjpYQjBULklRX0NMT1NFUFJJQ0UuMjAyNS84LzEyLlVTRAEAAADTM94pAgAAAA0yMi4zNTU4MjUzNTk2AMixT3J22t0ImNYic3ba3QgpQ0lRLkFSQ0E6SUdQVC5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xMi5VU0QBAAAAzAJeAQIAAAAFNTAuOTgAyLFPcnba3QgpsCRzdtrdCClDSVEuQVJDQTpDSEFULklRX0NMT1NFUFJJQ0UuMjAyNS84LzEyLlVTRAEAAAAAMDVtAgAAAAU1NS4xNADIsU9ydtrdCK1QHHN22t0ILENJUS5OQVNEQVFHTTpBSVEuSVFfQ0xPU0VQUklDRS4yMDI1LzgvMTIuVVNEAQAAAOncYiECAAAABTQ1LjM0AMixT3J22t0ImNYic3ba3QgoQ0lRLkFTWDpSQlRaLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEyLlVTRAEAAAAp7XYiAgAAAA05LjQ0MjU5Mjk2MjQ1AMixT3J22t0Ifa8ic3ba3QgpQ0lRLkFSQ0E6QVJUWS5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xMi5VU0QBAAAAbh9pIQIAAAAFNDMuMDQAyLFPcnba3QiYxyZzdtrdCC1DSVEuTkFTREFRR006Uk9CVC5JUV9DTE9TRVBSSUNFLjIwMjUvOC8xMi5VU0QBAAAAXGPZIAIAAAAHNTAuMDgyMgDIsU9ydtrdCKGaJHN22t0ILUNJUS5OQVNEQVFHTTpGRFRYLklRX0NMT1NFUFJJQ0UuMjAyNS84LzEyLlVTRAEAAAC9pZ0mAgAAAAczOS40NDU0AMixT3J22t0IrVAcc3ba3QgsQ0lRLk5BU0RBUUdNOldJ</t>
+  </si>
+  <si>
+    <t>U0UuSVFfQ0xPU0VQUklDRS4yMDI1LzIvMy5VU0QBAAAA6bBDbgIAAAAFMzYuOTQAGbY/cXba3QjWuBlzdtrdCChDSVEuQklUOldUQUkuSVFfQ0xPU0VQUklDRS4yMDI1LzEvMzEuVVNEAQAAAE26WyMCAAAADTcxLjA5NDQ4MDc4OTYAGbY/cXba3QiuHBlzdtrdCClDSVEuQVJDQTpJR1BULklRX0NMT1NFUFJJQ0UuMjAyNS8xLzMwLlVTRAEAAADMAl4BAgAAAAU0Ny42NwAZtj9xdtrdCJVMG3N22t0IKENJUS5MU0U6QUlBRy5JUV9DTE9TRVBSSUNFLjIwMjUvMS8zMC5VU0QBAAAA8J2CJAIAAAAOMjMuMjU5MDAyNTg0MjYAGbY/cXba3QjMWBhzdtrdCCxDSVEuTkFTREFRR006UVFRLklRX0NMT1NFUFJJQ0UuMjAyNS8xLzI4LlVTRAEAAAAOunsAAgAAAAY1MjEuODEAGbY/cXba3Qgo3RZzdtrdCClDSVEuQVJDQTpDSEFULklRX0NMT1NFUFJJQ0UuMjAyNS8xLzI4LlVTRAEAAAAAMDVtAgAAAAU0MS4xNQAZtj9xdtrdCPS6FXN22t0ILUNJUS5OQVNEQVFHTTpBR0lYLklRX0NMT1NFUFJJQ0UuMjAyNS8xLzI3LlVTRAEAAAAj9wBwAgAAAAUyOS4yNQAZtj9xdtrdCPWUFHN22t0IKUNJUS5BUkNBOkxPVVAuSVFfQ0xPU0VQUklDRS4yMDI1LzEvMjcuVVNEAQAAAFlcDyICAAAABTU1LjM1ABm2P3F22t0IfG0Uc3ba3QgtQ0lRLk5BU0RBUUdNOldJU0UuSVFfQ0xPU0VQUklDRS4yMDI1LzEvMjQuVVNEAQAAAOmwQ24C</t>
+  </si>
+  <si>
+    <t>AAAABTM4LjMyABm2P3F22t0Il40Sc3ba3QgsQ0lRLk5BU0RBUUdNOkFJUS5JUV9DTE9TRVBSSUNFLjIwMjUvMS8yMy5VU0QBAAAA6dxiIQIAAAAFNDAuODEAqt0/cXba3QiUmxFzdtrdCChDSVEuTFNFOlJCT1QuSVFfQ0xPU0VQUklDRS4yMDI1LzEvMjMuVVNEAQAAAI57JBQCAAAABjE0LjgyNQCq3T9xdtrdCDw2EHN22t0ILENJUS5OQVNEQVFHTTpTTUguSVFfQ0xPU0VQUklDRS4yMDI1LzEvMTUuVVNEAQAAAGDCNgACAAAABjI1MS4yMQCq3T9xdtrdCNa4GXN22t0IKUNJUS5BUkNBOkxSTlouSVFfQ0xPU0VQUklDRS4yMDI1LzEvMTUuVVNEAQAAALV2wyYCAAAABzM5LjY0MDEAqt0/cXba3QiuHBlzdtrdCChDSVEuTFNFOlJCT1QuSVFfQ0xPU0VQUklDRS4yMDI1LzEvMTQuVVNEAQAAAI57JBQCAAAABjEzLjgwNQCq3T9xdtrdCK4cGXN22t0IKUNJUS5BUkNBOkFSVFkuSVFfQ0xPU0VQUklDRS4yMDI1LzEvMTMuVVNEAQAAAG4faSECAAAABTM3LjMzAKrdP3F22t0IzFgYc3ba3QgpQ0lRLlhUUkE6WEFJWC5JUV9DTE9TRVBSSUNFLjIwMjUvMS8xMy5VU0QBAAAANeziIgIAAAAOMTM3LjE2ODUwMjY0MzIAqt0/cXba3Qgo3RZzdtrdCC1DSVEuTkFTREFRR006Uk9CVC5JUV9DTE9TRVBSSUNFLjIwMjUvMS8xMC5VU0QBAAAAXGPZIAIAAAAFNDQuMzcAqt0/cXba3Qj0uhVzdtrdCChDSVEuQVJDQTpUSE5RLklR</t>
+  </si>
+  <si>
+    <t>X0NMT1NFUFJJQ0UuMjAyNS8xLzguVVNEAQAAAK7DfiQCAAAABTUwLjAzAKrdP3F22t0I9ZQUc3ba3QgmQ0lRLkRCOlhCMFQuSVFfQ0xPU0VQUklDRS4yMDI1LzEvOC5VU0QBAAAA0zPeKQIAAAAOMjEuMjc2OTI0NjYzMDUAqt0/cXba3QgdRhRzdtrdCCxDSVEuTkFTREFRR006RkRUWC5JUV9DTE9TRVBSSUNFLjIwMjUvMS83LlVTRAEAAAC9pZ0mAgAAAAQzNi4xAKrdP3F22t0Il40Sc3ba3QgoQ0lRLkFSQ0E6TFJOWi5JUV9DTE9TRVBSSUNFLjIwMjUvMS82LlVTRAEAAAC1dsMmAgAAAAY0MC45NjEAqt0/cXba3QiUmxFzdtrdCCdDSVEuQkFUUzpJR1YuSVFfQ0xPU0VQUklDRS4yMDI1LzEvMy5VU0QBAAAAzTqGAAIAAAAGMTAxLjQ3AKrdP3F22t0IvAoQc3ba3QgrQ0lRLk5BU0RBUUdNOlNNSC5JUV9DTE9TRVBSSUNFLjIwMjUvNC85LlVTRAEAAABgwjYAAgAAAAYyMTAuODMA6TxZcXba3Qh3GxpzdtrdCCdDSVEuQkFUUzpJR1YuSVFfQ0xPU0VQUklDRS4yMDI1LzQvOS5VU0QBAAAAzTqGAAIAAAAFODkuNDkA6TxZcXba3Qgo/BJzdtrdCCxDSVEuTkFTREFRR006Qk9UWi5JUV9DTE9TRVBSSUNFLjIwMjUvNC85LlVTRAEAAAD3/QgWAgAAAAUyNy40OQDpPFlxdtrdCPn7JXN22t0IK0NJUS5OQVNEQVFHTTpBSVEuSVFfQ0xPU0VQUklDRS4yMDI1LzQvOS5VU0QBAAAA6dxiIQIAAAAFMzUuMzQA6TxZcXba3Qho</t>
+  </si>
+  <si>
+    <t>/RRzdtrdCChDSVEuQVJDQTpBUlRZLklRX0NMT1NFUFJJQ0UuMjAyNS80LzkuVVNEAQAAAG4faSECAAAABTMxLjUyAOk8WXF22t0IrAgWc3ba3QgoQ0lRLkFSQ0E6TFJOWi5JUV9DTE9TRVBSSUNFLjIwMjUvNC85LlVTRAEAAAC1dsMmAgAAAAUzNC41MQDpPFlxdtrdCNJYEHN22t0IJ0NJUS5BUkNBOkFJUy5JUV9DTE9TRVBSSUNFLjIwMjUvNC85LlVTRAEAAACYl59wAgAAAAcyMC4zMzg3AOk8WXF22t0IEOoRc3ba3QgnQ0lRLkJBVFM6SUdWLklRX0NMT1NFUFJJQ0UuMjAyNS80LzguVVNEAQAAAM06hgACAAAABTgwLjE1AOk8WXF22t0IfDYXc3ba3QgsQ0lRLk5BU0RBUUdNOkJPVFouSVFfQ0xPU0VQUklDRS4yMDI1LzQvOC5VU0QBAAAA9/0IFgIAAAAFMjQuNTEA6TxZcXba3QiLpxhzdtrdCCxDSVEuTkFTREFRR006Uk9CVC5JUV9DTE9TRVBSSUNFLjIwMjUvNC84LlVTRAEAAABcY9kgAgAAAAUzNS4zOADpPFlxdtrdCNNqGXN22t0IKENJUS5CQVRTOldUQUkuSVFfQ0xPU0VQUklDRS4yMDI1LzQvOC5VU0QBAAAAYE5vZAIAAAAFMTYuNTgA6TxZcXba3Qje5hJzdtrdCCxDSVEuTkFTREFRR006RkRUWC5JUV9DTE9TRVBSSUNFLjIwMjUvNC84LlVTRAEAAAC9pZ0mAgAAAAUyNy44NgDpPFlxdtrdCBVvI3N22t0IJ0NJUS5MU0U6QUlBRy5JUV9DTE9TRVBSSUNFLjIwMjUvNC84LlVTRAEAAADwnYIkAgAAAA4x</t>
+  </si>
+  <si>
+    <t>Ny44OTA0MTE2NTc5OADpPFlxdtrdCNJYEHN22t0IJ0NJUS5BU1g6UkJUWi5JUV9DTE9TRVBSSUNFLjIwMjUvNC84LlVTRAEAAAAp7XYiAgAAAA03LjE5ODcwMDk4Njg5AOk8WXF22t0IEOoRc3ba3QgsQ0lRLk5BU0RBUUdNOlJPQlQuSVFfQ0xPU0VQUklDRS4yMDI1LzQvNy5VU0QBAAAAXGPZIAIAAAAFMzYuMTIA6TxZcXba3Qia6RRzdtrdCChDSVEuQVJDQTpJR1BULklRX0NMT1NFUFJJQ0UuMjAyNS80LzcuVVNEAQAAAMwCXgECAAAABTM1Ljc4AOk8WXF22t0IrAgWc3ba3QgoQ0lRLkJBVFM6V1RBSS5JUV9DTE9TRVBSSUNFLjIwMjUvNC83LlVTRAEAAABgTm9kAgAAAAUxNi45MwDpPFlxdtrdCHw2F3N22t0IKENJUS5BUkNBOlRITlEuSVFfQ0xPU0VQUklDRS4yMDI1LzQvNy5VU0QBAAAArsN+JAIAAAAFMzkuMzUA6TxZcXba3QixgBhzdtrdCChDSVEuQVJDQTpMUk5aLklRX0NMT1NFUFJJQ0UuMjAyNS80LzcuVVNEAQAAALV2wyYCAAAABTMwLjU1AOk8WXF22t0I0lgQc3ba3QgoQ0lRLlhUUkE6WEFJWC5JUV9DTE9TRVBSSUNFLjIwMjUvNC83LlVTRAEAAAA17OIiAgAAAA8xMTcuMTQxOTIwNzE0NTIA6TxZcXba3Qje5hJzdtrdCCdDSVEuQklUOldUQUkuSVFfQ0xPU0VQUklDRS4yMDI1LzQvNy5VU0QBAAAATbpbIwIAAAAONTAuODYzMTA1MDA3MTMA6TxZcXba3Qj4KCFzdtrdCCxDSVEuTkFTREFRR006</t>
+  </si>
+  <si>
+    <t>Uk9CVC5JUV9DTE9TRVBSSUNFLjIwMjUvNC80LlVTRAEAAABcY9kgAgAAAAUzNi40MQDpPFlxdtrdCH0qIHN22t0IKENJUS5BUkNBOklHUFQuSVFfQ0xPU0VQUklDRS4yMDI1LzQvNC5VU0QBAAAAzAJeAQIAAAAFMzUuOTIA6TxZcXba3QjTahlzdtrdCCxDSVEuTkFTREFRR006RkRUWC5JUV9DTE9TRVBSSUNFLjIwMjUvNC80LlVTRAEAAAC9pZ0mAgAAAAIyOADpPFlxdtrdCD3cH3N22t0IJ0NJUS5BUkNBOkFJUy5JUV9DTE9TRVBSSUNFLjIwMjUvNC80LlVTRAEAAACYl59wAgAAAAcxOC42OTIxAOk8WXF22t0IrAgWc3ba3QgrQ0lRLk5BU0RBUUdNOlFRUS5JUV9DTE9TRVBSSUNFLjIwMjUvNC8zLlVTRAEAAAAOunsAAgAAAAY0NTAuNjYA6TxZcXba3QgQ6hFzdtrdCCxDSVEuTkFTREFRR006QUdJWC5JUV9DTE9TRVBSSUNFLjIwMjUvNC8zLlVTRAEAAAAj9wBwAgAAAAcyMy4zOTIxAOk8WXF22t0I3uYSc3ba3QgrQ0lRLk5BU0RBUUdNOlNNSC5JUV9DTE9TRVBSSUNFLjIwMjUvNC8zLlVTRAEAAABgwjYAAgAAAAYxOTUuNTcA6TxZcXba3Qh3GxpzdtrdCChDSVEuQkFUUzpXVEFJLklRX0NMT1NFUFJJQ0UuMjAyNS80LzMuVVNEAQAAAGBOb2QCAAAABjE4LjA4NQDpPFlxdtrdCKwIFnN22t0IKENJUS5BUkNBOkNIQVQuSVFfQ0xPU0VQUklDRS4yMDI1LzQvMy5VU0QBAAAAADA1bQIAAAAFMzMuMjUA6TxZcXba</t>
+  </si>
+  <si>
+    <t>3QixgBhzdtrdCChDSVEuQVJDQTpMT1VQLklRX0NMT1NFUFJJQ0UuMjAyNS80LzMuVVNEAQAAAFlcDyICAAAABzQyLjc1ODYA6TxZcXba3QiJfh5zdtrdCChDSVEuQVJDQTpMUk5aLklRX0NMT1NFUFJJQ0UuMjAyNS80LzMuVVNEAQAAALV2wyYCAAAABjMyLjU5NQDpPFlxdtrdCNNqGXN22t0IJkNJUS5EQjpYQjBULklRX0NMT1NFUFJJQ0UuMjAyNS80LzMuVVNEAQAAANMz3ikCAAAADzE4LjA5NjA4MTQ3MTU0NADpPFlxdtrdCJrpFHN22t0ILENJUS5OQVNEQVFHTTpST0JULklRX0NMT1NFUFJJQ0UuMjAyNS80LzIuVVNEAQAAAFxj2SACAAAABTQxLjQ2AOk8WXF22t0IreQcc3ba3QgsQ0lRLk5BU0RBUUdNOkZEVFguSVFfQ0xPU0VQUklDRS4yMDI1LzQvMi5VU0QBAAAAvaWdJgIAAAAHMzIuMTcxMwDpPFlxdtrdCHcbGnN22t0IJ0NJUS5BUkNBOkFJUy5JUV9DTE9TRVBSSUNFLjIwMjUvNC8yLlVTRAEAAACYl59wAgAAAAcyMi4wMzQ1AOk8WXF22t0IquEVc3ba3QgnQ0lRLkJJVDpXVEFJLklRX0NMT1NFUFJJQ0UuMjAyNS80LzIuVVNEAQAAAE26WyMCAAAADTU4Ljk1MTI1Mzk0MzYA6TxZcXba3QixgBhzdtrdCCtDSVEuTkFTREFRR006UVFRLklRX0NMT1NFUFJJQ0UuMjAyNS80LzEuVVNEAQAAAA66ewACAAAABTQ3Mi43AOk8WXF22t0I0lgQc3ba3QgsQ0lRLk5BU0RBUUdNOkFHSVguSVFfQ0xPU0VQUklD</t>
+  </si>
+  <si>
+    <t>RS4yMDI1LzQvMS5VU0QBAAAAI/cAcAIAAAAFMjUuMDMA6TxZcXba3QgQ6hFzdtrdCCxDSVEuTkFTREFRR006Qk9UWi5JUV9DTE9TRVBSSUNFLjIwMjUvNC8xLlVTRAEAAAD3/QgWAgAAAAUyOC42MwDpPFlxdtrdCPWUFHN22t0IKENJUS5BUkNBOkxPVVAuSVFfQ0xPU0VQUklDRS4yMDI1LzQvMS5VU0QBAAAAWVwPIgIAAAAHNDYuMTMxMwDpPFlxdtrdCLGAGHN22t0ILENJUS5OQVNEQVFHTTpXSVNFLklRX0NMT1NFUFJJQ0UuMjAyNS80LzEuVVNEAQAAAOmwQ24CAAAABTMwLjY4AOk8WXF22t0I02oZc3ba3QgnQ0lRLkxTRTpSQk9ULklRX0NMT1NFUFJJQ0UuMjAyNS80LzEuVVNEAQAAAI57JBQCAAAABDEyLjkA6TxZcXba3Qh3GxpzdtrdCClDSVEuQVJDQTpBUlRZLklRX0NMT1NFUFJJQ0UuMjAyNS8zLzMxLlVTRAEAAABuH2khAgAAAAUzMS40NQCpUVlxdtrdCNJYEHN22t0ILUNJUS5OQVNEQVFHTTpST0JULklRX0NMT1NFUFJJQ0UuMjAyNS8zLzMxLlVTRAEAAABcY9kgAgAAAAU0MC42NwCpUVlxdtrdCBDqEXN22t0ILUNJUS5OQVNEQVFHTTpGRFRYLklRX0NMT1NFUFJJQ0UuMjAyNS8zLzMxLlVTRAEAAAC9pZ0mAgAAAAUzMS40OQCpUVlxdtrdCM3zGXN22t0IKENJUS5MU0U6UkJPVC5JUV9DTE9TRVBSSUNFLjIwMjUvMy8zMS5VU0QBAAAAjnskFAIAAAAGMTIuNzE1AKlRWXF22t0IquEVc3ba3QgoQ0lR</t>
+  </si>
+  <si>
+    <t>LkJJVDpXVEFJLklRX0NMT1NFUFJJQ0UuMjAyNS8zLzMxLlVTRAEAAABNulsjAgAAAA41Ny4wNDcxMjQ5Mjc1MgCpUVlxdtrdCLGAGHN22t0ILENJUS5OQVNEQVFHTTpRUVEuSVFfQ0xPU0VQUklDRS4yMDI1LzMvMjguVVNEAQAAAA66ewACAAAABjQ2OC45NACpUVlxdtrdCNNqGXN22t0ILUNJUS5OQVNEQVFHTTpCT1RaLklRX0NMT1NFUFJJQ0UuMjAyNS8zLzI4LlVTRAEAAAD3/QgWAgAAAAUyOC45NQCpUVlxdtrdCCHQEnN22t0ILENJUS5OQVNEQVFHTTpBSVEuSVFfQ0xPU0VQUklDRS4yMDI1LzMvMjguVVNEAQAAAOncYiECAAAABTM2LjU0AKlRWXF22t0I9ZQUc3ba3QgoQ0lRLkxTRTpSQk9ULklRX0NMT1NFUFJJQ0UuMjAyNS8zLzI4LlVTRAEAAACOeyQUAgAAAAYxMi45NzUAqVFZcXba3QjTahlzdtrdCCdDSVEuREI6WEIwVC5JUV9DTE9TRVBSSUNFLjIwMjUvMy8yOC5VU0QBAAAA0zPeKQIAAAAPMTkuMDY4NDU3NTM2NDMyAKlRWXF22t0IsrsUc3ba3QgtQ0lRLk5BU0RBUUdNOkFHSVguSVFfQ0xPU0VQUklDRS4yMDI1LzMvMjcuVVNEAQAAACP3AHACAAAABTI1LjgyAKlRWXF22t0IquEVc3ba3QgpQ0lRLkJBVFM6V1RBSS5JUV9DTE9TRVBSSUNFLjIwMjUvMy8yNy5VU0QBAAAAYE5vZAIAAAAFMTkuOTQAqVFZcXba3QgQ6hFzdtrdCClDSVEuQVJDQTpUSE5RLklRX0NMT1NFUFJJQ0UuMjAyNS8zLzI3</t>
+  </si>
+  <si>
+    <t>LlVTRAEAAACuw34kAgAAAAU0Ni4yNACpUVlxdtrdCCHQEnN22t0ILUNJUS5OQVNEQVFHTTpGRFRYLklRX0NMT1NFUFJJQ0UuMjAyNS8zLzI3LlVTRAEAAAC9pZ0mAgAAAAUzMi42OACpUVlxdtrdCPWUFHN22t0IKENJUS5MU0U6QUlBRy5JUV9DTE9TRVBSSUNFLjIwMjUvMy8yNy5VU0QBAAAA8J2CJAIAAAAPMjAuNTY1NTkyNjc4Nzg0AKlRWXF22t0I/g4Xc3ba3QgoQ0lRLkFTWDpSQlRaLklRX0NMT1NFUFJJQ0UuMjAyNS8zLzI3LlVTRAEAAAAp7XYiAgAAAA04LjY5NDU1NDg1NjUyAKlRWXF22t0IsYAYc3ba3QgnQ0lRLkRCOlhCMFQuSVFfQ0xPU0VQUklDRS4yMDI1LzMvMjcuVVNEAQAAANMz3ikCAAAADjE5Ljc4NjI2OTQzMDU5AKlRWXF22t0IR7Mnc3ba3QgsQ0lRLk5BU0RBUUdNOlFRUS5JUV9DTE9TRVBSSUNFLjIwMjUvMy8yNi5VU0QBAAAADrp7AAIAAAAGNDg0LjM4AKlRWXF22t0IyEMZc3ba3QgtQ0lRLk5BU0RBUUdNOkJPVFouSVFfQ0xPU0VQUklDRS4yMDI1LzMvMjYuVVNEAQAAAPf9CBYCAAAABTMwLjA0AKlRWXF22t0IIdASc3ba3QgpQ0lRLkFSQ0E6QVJUWS5JUV9DTE9TRVBSSUNFLjIwMjUvMy8yNi5VU0QBAAAAbh9pIQIAAAAFMzMuNDYAqVFZcXba3Qj1lBRzdtrdCClDSVEuQVJDQTpJR1BULklRX0NMT1NFUFJJQ0UuMjAyNS8zLzI2LlVTRAEAAADMAl4BAgAAAAU0Mi43MwCpUVlxdtrd</t>
+  </si>
+  <si>
+    <t>CLK7FHN22t0IKUNJUS5CQVRTOldUQUkuSVFfQ0xPU0VQUklDRS4yMDI1LzMvMjYuVVNEAQAAAGBOb2QCAAAABTIwLjI3AKlRWXF22t0IquEVc3ba3QgtQ0lRLk5BU0RBUUdNOldJU0UuSVFfQ0xPU0VQUklDRS4yMDI1LzMvMjYuVVNEAQAAAOmwQ24CAAAABTMyLjQyAKlRWXF22t0IEOoRc3ba3QgoQ0lRLkxTRTpBSUFHLklRX0NMT1NFUFJJQ0UuMjAyNS8zLzI2LlVTRAEAAADwnYIkAgAAAA8yMC45MDM2NjM0MDMwNjQAqVFZcXba3QjN8xlzdtrdCChDSVEuQkFUUzpJR1YuSVFfQ0xPU0VQUklDRS4yMDI1LzMvMjUuVVNEAQAAAM06hgACAAAABTk2LjM3AKlRWXF22t0I/g4Xc3ba3QgsQ0lRLk5BU0RBUUdNOkFJUS5JUV9DTE9TRVBSSUNFLjIwMjUvMy8yNS5VU0QBAAAA6dxiIQIAAAAFMzguNjkAqVFZcXba3QixgBhzdtrdCClDSVEuQkFUUzpXVEFJLklRX0NMT1NFUFJJQ0UuMjAyNS8zLzI1LlVTRAEAAABgTm9kAgAAAAUyMC44NgCpUVlxdtrdCNJYEHN22t0IKUNJUS5BUkNBOlRITlEuSVFfQ0xPU0VQUklDRS4yMDI1LzMvMjUuVVNEAQAAAK7DfiQCAAAABzQ4LjY4NDMAqVFZcXba3QgCwxFzdtrdCClDSVEuQVJDQTpDSEFULklRX0NMT1NFUFJJQ0UuMjAyNS8zLzI1LlVTRAEAAAAAMDVtAgAAAAczNy44ODc5AKlRWXF22t0IVLoSc3ba3QgpQ0lRLkFSQ0E6TE9VUC5JUV9DTE9TRVBSSUNFLjIwMjUvMy8y</t>
+  </si>
+  <si>
+    <t>NS5VU0QBAAAAWVwPIgIAAAAHNTAuNjg0OACpUVlxdtrdCPWUFHN22t0IKUNJUS5BUkNBOkxSTlouSVFfQ0xPU0VQUklDRS4yMDI1LzMvMjUuVVNEAQAAALV2wyYCAAAABzM4LjA0NDIAqVFZcXba3QiyuxRzdtrdCChDSVEuQVJDQTpBSVMuSVFfQ0xPU0VQUklDRS4yMDI1LzMvMjUuVVNEAQAAAJiXn3ACAAAABzIzLjY4NDUAqVFZcXba3Qiq4RVzdtrdCC1DSVEuTkFTREFRR006QUdJWC5JUV9DTE9TRVBSSUNFLjIwMjUvMy8yNC5VU0QBAAAAI/cAcAIAAAAFMjYuODUAqVFZcXba3QiV7iZzdtrdCCxDSVEuTkFTREFRR006U01ILklRX0NMT1NFUFJJQ0UuMjAyNS8zLzI0LlVTRAEAAABgwjYAAgAAAAYyMzAuNjMAqVFZcXba3QjIQxlzdtrdCChDSVEuQkFUUzpJR1YuSVFfQ0xPU0VQUklDRS4yMDI1LzMvMjQuVVNEAQAAAM06hgACAAAABTk1LjQxAKlRWXF22t0IzfMZc3ba3QgpQ0lRLkFSQ0E6SUdQVC5JUV9DTE9TRVBSSUNFLjIwMjUvMy8yNC5VU0QBAAAAzAJeAQIAAAAFNDMuNzcAqVFZcXba3QiyuxRzdtrdCClDSVEuQVJDQTpUSE5RLklRX0NMT1NFUFJJQ0UuMjAyNS8zLzI0LlVTRAEAAACuw34kAgAAAAU0OC41MwCpUVlxdtrdCKrhFXN22t0IKUNJUS5BUkNBOkNIQVQuSVFfQ0xPU0VQUklDRS4yMDI1LzMvMjQuVVNEAQAAAAAwNW0CAAAABjM3Ljk4NQCpUVlxdtrdCP4OF3N22t0IKUNJUS5BUkNBOkxP</t>
+  </si>
+  <si>
+    <t>VVAuSVFfQ0xPU0VQUklDRS4yMDI1LzMvMjQuVVNEAQAAAFlcDyICAAAABzUxLjA5ODMAqVFZcXba3QixgBhzdtrdCChDSVEuQVJDQTpBSVMuSVFfQ0xPU0VQUklDRS4yMDI1LzMvMjQuVVNEAQAAAJiXn3ACAAAABzIzLjk3NTQAqVFZcXba3QjSWBBzdtrdCC1DSVEuTkFTREFRR006V0lTRS5JUV9DTE9TRVBSSUNFLjIwMjUvMy8yNC5VU0QBAAAA6bBDbgIAAAAFMzMuNDcAqVFZcXba3QgCwxFzdtrdCChDSVEuTFNFOkFJQUcuSVFfQ0xPU0VQUklDRS4yMDI1LzMvMjQuVVNEAQAAAPCdgiQCAAAADzIxLjI5MjU1NDc2NzA1MgCpUVlxdtrdCHxtFHN22t0ILENJUS5OQVNEQVFHTTpBSVEuSVFfQ0xPU0VQUklDRS4yMDI1LzMvMjEuVVNEAQAAAOncYiECAAAABTM3Ljg0AKlRWXF22t0IsYAYc3ba3QgpQ0lRLkJBVFM6V1RBSS5JUV9DTE9TRVBSSUNFLjIwMjUvMy8yMS5VU0QBAAAAYE5vZAIAAAAGMjAuMjE1AKlRWXF22t0IyEMZc3ba3QgpQ0lRLkFSQ0E6TE9VUC5JUV9DTE9TRVBSSUNFLjIwMjUvMy8yMS5VU0QBAAAAWVwPIgIAAAAHNDkuNTg5MwCpUVlxdtrdCFS6EnN22t0IKUNJUS5BUkNBOkxSTlouSVFfQ0xPU0VQUklDRS4yMDI1LzMvMjEuVVNEAQAAALV2wyYCAAAABzM2LjU0NDMAqVFZcXba3Qh8bRRzdtrdCC1DSVEuTkFTREFRR006V0lTRS5JUV9DTE9TRVBSSUNFLjIwMjUvMy8yMS5VU0QBAAAA6bBD</t>
+  </si>
+  <si>
+    <t>bgIAAAAFMzIuNjMAqVFZcXba3QiyuxRzdtrdCChDSVEuTFNFOlJCT1QuSVFfQ0xPU0VQUklDRS4yMDI1LzMvMjEuVVNEAQAAAI57JBQCAAAABTEzLjQzAKlRWXF22t0IquEVc3ba3QgpQ0lRLlhUUkE6WEFJWC5JUV9DTE9TRVBSSUNFLjIwMjUvMy8yMS5VU0QBAAAANeziIgIAAAAOMTM1LjUxMTA4NzAzOTIAqVFZcXba3Qj+DhdzdtrdCCxDSVEuTkFTREFRR006UVFRLklRX0NMT1NFUFJJQ0UuMjAyNS8zLzIwLlVTRAEAAAAOunsAAgAAAAY0NzkuMjYAqVFZcXba3QjSWBBzdtrdCCxDSVEuTkFTREFRR006U01ILklRX0NMT1NFUFJJQ0UuMjAyNS8zLzIwLlVTRAEAAABgwjYAAgAAAAYyMjcuMDUAqVFZcXba3QgCwxFzdtrdCChDSVEuQkFUUzpJR1YuSVFfQ0xPU0VQUklDRS4yMDI1LzMvMjAuVVNEAQAAAM06hgACAAAABTkyLjU3AKlRWXF22t0IzfMZc3ba3QgpQ0lRLkFSQ0E6Q0hBVC5JUV9DTE9TRVBSSUNFLjIwMjUvMy8yMC5VU0QBAAAAADA1bQIAAAAFMzcuMTgAqVFZcXba3QjMWBhzdtrdCClDSVEuQVJDQTpMUk5aLklRX0NMT1NFUFJJQ0UuMjAyNS8zLzIwLlVTRAEAAAC1dsMmAgAAAAYzNi41NjgAZWZZcXba3Qjf2iRzdtrdCC1DSVEuTkFTREFRR006V0lTRS5JUV9DTE9TRVBSSUNFLjIwMjUvMy8yMC5VU0QBAAAA6bBDbgIAAAAFMzIuMzUAZWZZcXba3QjIQxlzdtrdCChDSVEuTFNFOlJCT1QuSVFf</t>
+  </si>
+  <si>
+    <t>Q0xPU0VQUklDRS4yMDI1LzMvMjAuVVNEAQAAAI57JBQCAAAABTEzLjUyAGVmWXF22t0IVLoSc3ba3QgpQ0lRLlhUUkE6WEFJWC5JUV9DTE9TRVBSSUNFLjIwMjUvMy8yMC5VU0QBAAAANeziIgIAAAAPMTM2LjEzMjgxMjQ0NDI0AGVmWXF22t0IfG0Uc3ba3QgoQ0lRLkJJVDpXVEFJLklRX0NMT1NFUFJJQ0UuMjAyNS8zLzIwLlVTRAEAAABNulsjAgAAAA42MS4zOTMyMjkxNDE1MgBlZllxdtrdCLK7FHN22t0IKENJUS5MU0U6QUlBRy5JUV9DTE9TRVBSSUNFLjIwMjUvMy8yMC5VU0QBAAAA8J2CJAIAAAAPMjAuNzU1OTE1NzE1NDcyAGVmWXF22t0IquEVc3ba3QgoQ0lRLkJBVFM6SUdWLklRX0NMT1NFUFJJQ0UuMjAyNS8zLzE5LlVTRAEAAADNOoYAAgAAAAU5Mi45NQBlZllxdtrdCDw2EHN22t0ILENJUS5OQVNEQVFHTTpBSVEuSVFfQ0xPU0VQUklDRS4yMDI1LzMvMTkuVVNEAQAAAOncYiECAAAABTM4LjE1AGVmWXF22t0IAsMRc3ba3QgoQ0lRLkxTRTpSQk9ULklRX0NMT1NFUFJJQ0UuMjAyNS8zLzE5LlVTRAEAAACOeyQUAgAAAAQxMy42AGVmWXF22t0IzfMZc3ba3QgsQ0lRLk5BU0RBUUdNOlNNSC5JUV9DTE9TRVBSSUNFLjIwMjUvMy8xOC5VU0QBAAAAYMI2AAIAAAAGMjI1LjQyAGVmWXF22t0IFW8jc3ba3QgtQ0lRLk5BU0RBUUdNOkJPVFouSVFfQ0xPU0VQUklDRS4yMDI1LzMvMTguVVNEAQAAAPf9</t>
+  </si>
+  <si>
+    <t>CBYCAAAABDMwLjUAZWZZcXba3QjIQxlzdtrdCClDSVEuQVJDQTpBUlRZLklRX0NMT1NFUFJJQ0UuMjAyNS8zLzE4LlVTRAEAAABuH2khAgAAAAUzMy41MQBlZllxdtrdCLK7FHN22t0IKUNJUS5CQVRTOldUQUkuSVFfQ0xPU0VQUklDRS4yMDI1LzMvMTguVVNEAQAAAGBOb2QCAAAABTE5Ljg2AGVmWXF22t0IquEVc3ba3QgpQ0lRLkFSQ0E6VEhOUS5JUV9DTE9TRVBSSUNFLjIwMjUvMy8xOC5VU0QBAAAArsN+JAIAAAAFNDYuNzMAZWZZcXba3Qj+DhdzdtrdCClDSVEuQVJDQTpDSEFULklRX0NMT1NFUFJJQ0UuMjAyNS8zLzE4LlVTRAEAAAAAMDVtAgAAAAUzNy4wOABlZllxdtrdCMxYGHN22t0IKUNJUS5BUkNBOkxSTlouSVFfQ0xPU0VQUklDRS4yMDI1LzMvMTguVVNEAQAAALV2wyYCAAAABzM2LjAyMzcAZWZZcXba3QhUuhJzdtrdCC1DSVEuTkFTREFRR006V0lTRS5JUV9DTE9TRVBSSUNFLjIwMjUvMy8xOC5VU0QBAAAA6bBDbgIAAAAFMzIuNzIAZWZZcXba3Qh8bRRzdtrdCCdDSVEuREI6WEIwVC5JUV9DTE9TRVBSSUNFLjIwMjUvMy8xOC5VU0QBAAAA0zPeKQIAAAAOMjAuMjE0Mjc3OTA1MzEAZWZZcXba3Qg8NhBzdtrdCC1DSVEuTkFTREFRR006QUdJWC5JUV9DTE9TRVBSSUNFLjIwMjUvMy8xNy5VU0QBAAAAI/cAcAIAAAAHMjUuOTk2OABlZllxdtrdCALDEXN22t0ILUNJUS5OQVNEQVFHTTpGRFRY</t>
+  </si>
+  <si>
+    <t>LklRX0NMT1NFUFJJQ0UuMjAyNS8zLzE3LlVTRAEAAAC9pZ0mAgAAAAUzMy4yOQBlZllxdtrdCM3zGXN22t0IKENJUS5BU1g6UkJUWi5JUV9DTE9TRVBSSUNFLjIwMjUvMy8xNy5VU0QBAAAAKe12IgIAAAAMOC44NDA5NzcyMjk3AGVmWXF22t0IIFAhc3ba3QgtQ0lRLk5BU0RBUUdNOkFHSVguSVFfQ0xPU0VQUklDRS4yMDI1LzMvMTQuVVNEAQAAACP3AHACAAAABzI1LjgxOTMAZWZZcXba3QjIQxlzdtrdCCxDSVEuTkFTREFRR006U01ILklRX0NMT1NFUFJJQ0UuMjAyNS8zLzE0LlVTRAEAAABgwjYAAgAAAAYyMjYuNTcAZWZZcXba3Qiq4RVzdtrdCClDSVEuQVJDQTpBUlRZLklRX0NMT1NFUFJJQ0UuMjAyNS8zLzE0LlVTRAEAAABuH2khAgAAAAUzMy45NwBlZllxdtrdCP4OF3N22t0IKUNJUS5BUkNBOlRITlEuSVFfQ0xPU0VQUklDRS4yMDI1LzMvMTQuVVNEAQAAAK7DfiQCAAAABTQ2Ljc2AGVmWXF22t0IVLoSc3ba3QgpQ0lRLkFSQ0E6TE9VUC5JUV9DTE9TRVBSSUNFLjIwMjUvMy8xNC5VU0QBAAAAWVwPIgIAAAAHNDkuMTExNwBlZllxdtrdCHxtFHN22t0IKUNJUS5BUkNBOkxSTlouSVFfQ0xPU0VQUklDRS4yMDI1LzMvMTQuVVNEAQAAALV2wyYCAAAABTM2LjA1AGVmWXF22t0IsrsUc3ba3QgpQ0lRLlhUUkE6WEFJWC5JUV9DTE9TRVBSSUNFLjIwMjUvMy8xNC5VU0QBAAAANeziIgIAAAAPMTM0LjU5</t>
+  </si>
+  <si>
+    <t>NTMwMDI2OTI4AGVmWXF22t0IPDYQc3ba3QgpQ0lRLkFSQ0E6TFJOWi5JUV9DTE9TRVBSSUNFLjIwMjUvMy8xMy5VU0QBAAAAtXbDJgIAAAAHMzQuODQ0OABlZllxdtrdCMhDGXN22t0IKENJUS5BUkNBOkFJUy5JUV9DTE9TRVBSSUNFLjIwMjUvMy8xMy5VU0QBAAAAmJefcAIAAAAHMjIuNjg2NABlZllxdtrdCM3zGXN22t0IKENJUS5BU1g6UkJUWi5JUV9DTE9TRVBSSUNFLjIwMjUvMy8xMy5VU0QBAAAAKe12IgIAAAANOC42NjI1NTY2MTc4MwBlZllxdtrdCMxYGHN22t0ILENJUS5OQVNEQVFHTTpTTUguSVFfQ0xPU0VQUklDRS4yMDI1LzMvMTIuVVNEAQAAAGDCNgACAAAABjIyMC41MgBlZllxdtrdCNYBIXN22t0IKUNJUS5BUkNBOlRITlEuSVFfQ0xPU0VQUklDRS4yMDI1LzMvMTIuVVNEAQAAAK7DfiQCAAAABTQ2LjI3AGVmWXF22t0I/g4Xc3ba3QgpQ0lRLkFSQ0E6TFJOWi5JUV9DTE9TRVBSSUNFLjIwMjUvMy8xMi5VU0QBAAAAtXbDJgIAAAAFMzYuMDEAZWZZcXba3Qh8bRRzdtrdCChDSVEuTFNFOlJCT1QuSVFfQ0xPU0VQUklDRS4yMDI1LzMvMTIuVVNEAQAAAI57JBQCAAAABjEzLjM0NQBlZllxdtrdCLK7FHN22t0IKUNJUS5YVFJBOlhBSVguSVFfQ0xPU0VQUklDRS4yMDI1LzMvMTIuVVNEAQAAADXs4iICAAAADzEzNC4xOTIxMzk3NjY0NABlZllxdtrdCPS6FXN22t0IJ0NJUS5EQjpYQjBULklR</t>
+  </si>
+  <si>
+    <t>X0NMT1NFUFJJQ0UuMjAyNS8zLzEyLlVTRAEAAADTM94pAgAAAA8yMC4wODA3ODYwMzA0NTgAZWZZcXba3QgCwxFzdtrdCC1DSVEuTkFTREFRR006QUdJWC5JUV9DTE9TRVBSSUNFLjIwMjUvMy8xMS5VU0QBAAAAI/cAcAIAAAAFMjUuMzUAZWZZcXba3QgDoxJzdtrdCC1DSVEuTkFTREFRR006Uk9CVC5JUV9DTE9TRVBSSUNFLjIwMjUvMy8xMS5VU0QBAAAAXGPZIAIAAAAFNDEuOTcAZWZZcXba3Qg8NhBzdtrdCClDSVEuWFRSQTpYQUlYLklRX0NMT1NFUFJJQ0UuMjAyNS8zLzExLlVTRAEAAAA17OIiAgAAAA4xMzEuNjg3NjAyNDAyNABlZllxdtrdCPffGXN22t0ILENJUS5OQVNEQVFHTTpTTUguSVFfQ0xPU0VQUklDRS4yMDI1LzMvMTAuVVNEAQAAAGDCNgACAAAABjIxNC41MwBlZllxdtrdCH0qIHN22t0IKUNJUS5BUkNBOkFSVFkuSVFfQ0xPU0VQUklDRS4yMDI1LzMvMTAuVVNEAQAAAG4faSECAAAABTMyLjczAGVmWXF22t0IyEMZc3ba3QgpQ0lRLkFSQ0E6SUdQVC5JUV9DTE9TRVBSSUNFLjIwMjUvMy8xMC5VU0QBAAAAzAJeAQIAAAAHNDEuMDc0OQBlZllxdtrdCP4OF3N22t0IKUNJUS5BUkNBOkxSTlouSVFfQ0xPU0VQUklDRS4yMDI1LzMvMTAuVVNEAQAAALV2wyYCAAAABTM0LjA0AGl9WXF22t0IzFgYc3ba3QgpQ0lRLlhUUkE6WEFJWC5JUV9DTE9TRVBSSUNFLjIwMjUvMy8xMC5VU0QBAAAANezi</t>
+  </si>
+  <si>
+    <t>IgIAAAAOMTMyLjU4OTE0MDU0NzUAaX1ZcXba3QiyuxRzdtrdCChDSVEuQVNYOlJCVFouSVFfQ0xPU0VQUklDRS4yMDI1LzMvMTAuVVNEAQAAACntdiICAAAADTguODkzMjMwODA2MTMAaX1ZcXba3Qj0uhVzdtrdCCdDSVEuQkFUUzpJR1YuSVFfQ0xPU0VQUklDRS4yMDI1LzMvNy5VU0QBAAAAzTqGAAIAAAAFOTMuNDIAaX1ZcXba3QgDoxJzdtrdCCtDSVEuTkFTREFRR006QUlRLklRX0NMT1NFUFJJQ0UuMjAyNS8zLzcuVVNEAQAAAOncYiECAAAABTM4LjQ1AGl9WXF22t0IfG0Uc3ba3QgoQ0lRLkFSQ0E6VEhOUS5JUV9DTE9TRVBSSUNFLjIwMjUvMy83LlVTRAEAAACuw34kAgAAAAc0Ny44NzI1AGl9WXF22t0IPDYQc3ba3QgsQ0lRLk5BU0RBUUdNOkZEVFguSVFfQ0xPU0VQUklDRS4yMDI1LzMvNy5VU0QBAAAAvaWdJgIAAAAFMzMuMjkAaX1ZcXba3QgCwxFzdtrdCCxDSVEuTkFTREFRR006Qk9UWi5JUV9DTE9TRVBSSUNFLjIwMjUvMy82LlVTRAEAAAD3/QgWAgAAAAUzMC45NgBpfVlxdtrdCD3cH3N22t0IKENJUS5BUkNBOkFSVFkuSVFfQ0xPU0VQUklDRS4yMDI1LzMvNi5VU0QBAAAAbh9pIQIAAAAFMzMuNTkAaX1ZcXba3QjIQxlzdtrdCChDSVEuQVJDQTpUSE5RLklRX0NMT1NFUFJJQ0UuMjAyNS8zLzYuVVNEAQAAAK7DfiQCAAAABzQ3LjkwNzYAaX1ZcXba3Qj33xlzdtrdCCxDSVEuTkFTREFRR006</t>
+  </si>
+  <si>
+    <t>RkRUWC5JUV9DTE9TRVBSSUNFLjIwMjUvMy82LlVTRAEAAAC9pZ0mAgAAAAUzMy4yMQBpfVlxdtrdCCjdFnN22t0IKENJUS5BUkNBOkNIQVQuSVFfQ0xPU0VQUklDRS4yMDI1LzMvNi5VU0QBAAAAADA1bQIAAAAFMzcuMzEAaX1ZcXba3QjMWBhzdtrdCChDSVEuWFRSQTpYQUlYLklRX0NMT1NFUFJJQ0UuMjAyNS8zLzYuVVNEAQAAADXs4iICAAAADzEzOC43MDQ3ODY2MTU5MgBpfVlxdtrdCLK7FHN22t0IJkNJUS5EQjpYQjBULklRX0NMT1NFUFJJQ0UuMjAyNS8zLzYuVVNEAQAAANMz3ikCAAAADzIwLjgyMDg3OTM1MjU3NABpfVlxdtrdCPS6FXN22t0ILENJUS5OQVNEQVFHTTpST0JULklRX0NMT1NFUFJJQ0UuMjAyNS8zLzUuVVNEAQAAAFxj2SACAAAABTQ0LjA4AGl9WXF22t0IfG0Uc3ba3QgsQ0lRLk5BU0RBUUdNOkZEVFguSVFfQ0xPU0VQUklDRS4yMDI1LzMvNS5VU0QBAAAAvaWdJgIAAAAFMzQuODYAaX1ZcXba3Qg8NhBzdtrdCChDSVEuQVJDQTpMUk5aLklRX0NMT1NFUFJJQ0UuMjAyNS8zLzUuVVNEAQAAALV2wyYCAAAABzM5LjM4ODMAaX1ZcXba3QgCwxFzdtrdCCdDSVEuQVJDQTpBSVMuSVFfQ0xPU0VQUklDRS4yMDI1LzMvNS5VU0QBAAAAmJefcAIAAAAHMjMuOTUyNABpfVlxdtrdCAOjEnN22t0IKENJUS5BUkNBOklHUFQuSVFfQ0xPU0VQUklDRS4yMDI1LzMvNC5VU0QBAAAAzAJeAQIAAAAF</t>
+  </si>
+  <si>
+    <t>NDMuNTcAaX1ZcXba3Qj33xlzdtrdCCxDSVEuTkFTREFRR006V0lTRS5JUV9DTE9TRVBSSUNFLjIwMjUvMy80LlVTRAEAAADpsENuAgAAAAUzMy43OQBpfVlxdtrdCK4cGXN22t0IJkNJUS5EQjpYQjBULklRX0NMT1NFUFJJQ0UuMjAyNS8zLzQuVVNEAQAAANMz3ikCAAAADzIwLjU4MzQwMzUzOTUzNABpfVlxdtrdCMxYGHN22t0IJ0NJUS5CQVRTOklHVi5JUV9DTE9TRVBSSUNFLjIwMjUvMy8zLlVTRAEAAADNOoYAAgAAAAU5NS42MwBpfVlxdtrdCIl+HnN22t0IK0NJUS5OQVNEQVFHTTpBSVEuSVFfQ0xPU0VQUklDRS4yMDI1LzMvMy5VU0QBAAAA6dxiIQIAAAAFMzguMjYAaX1ZcXba3Qj0uhVzdtrdCCxDSVEuTkFTREFRR006RkRUWC5JUV9DTE9TRVBSSUNFLjIwMjUvMy8zLlVTRAEAAAC9pZ0mAgAAAAQzNC4xAGl9WXF22t0IKN0Wc3ba3QgnQ0lRLkFSQ0E6QUlTLklRX0NMT1NFUFJJQ0UuMjAyNS8zLzMuVVNEAQAAAJiXn3ACAAAABzIzLjIyOTMAaX1ZcXba3QiyuxRzdtrdCCxDSVEuTkFTREFRR006UVFRLklRX0NMT1NFUFJJQ0UuMjAyNS8yLzI4LlVTRAEAAAAOunsAAgAAAAY1MDguMTcAaX1ZcXba3QgDoxJzdtrdCCxDSVEuTkFTREFRR006U01ILklRX0NMT1NFUFJJQ0UuMjAyNS8yLzI4LlVTRAEAAABgwjYAAgAAAAYyMzIuNzcAaX1ZcXba3Qh8bRRzdtrdCC1DSVEuTkFTREFRR006Qk9UWi5JUV9D</t>
+  </si>
+  <si>
+    <t>TE9TRVBSSUNFLjIwMjUvMi8yOC5VU0QBAAAA9/0IFgIAAAAFMzIuMDcAaX1ZcXba3Qg8NhBzdtrdCClDSVEuQVJDQTpJR1BULklRX0NMT1NFUFJJQ0UuMjAyNS8yLzI4LlVTRAEAAADMAl4BAgAAAAQ0NC42AGl9WXF22t0IAsMRc3ba3QgtQ0lRLk5BU0RBUUdNOkFHSVguSVFfQ0xPU0VQUklDRS4yMDI1LzIvMjcuVVNEAQAAACP3AHACAAAABTI3Ljg1ANaTWXF22t0I998Zc3ba3QgpQ0lRLkJBVFM6V1RBSS5JUV9DTE9TRVBSSUNFLjIwMjUvMi8yNy5VU0QBAAAAYE5vZAIAAAAFMjEuMzYA1pNZcXba3QiuHBlzdtrdCC1DSVEuTkFTREFRR006Qk9UWi5JUV9DTE9TRVBSSUNFLjIwMjUvMi8yNi5VU0QBAAAA9/0IFgIAAAAFMzMuMjMA1pNZcXba3QgCFx5zdtrdCClDSVEuQVJDQTpDSEFULklRX0NMT1NFUFJJQ0UuMjAyNS8yLzI2LlVTRAEAAAAAMDVtAgAAAAU0MC41OQDWk1lxdtrdCMxYGHN22t0ILUNJUS5OQVNEQVFHTTpXSVNFLklRX0NMT1NFUFJJQ0UuMjAyNS8yLzI2LlVTRAEAAADpsENuAgAAAAUzNS45MwDWk1lxdtrdCCjdFnN22t0ILUNJUS5OQVNEQVFHTTpBR0lYLklRX0NMT1NFUFJJQ0UuMjAyNS8yLzI1LlVTRAEAAAAj9wBwAgAAAAUyOC40NwDWk1lxdtrdCPS6FXN22t0ILENJUS5OQVNEQVFHTTpBSVEuSVFfQ0xPU0VQUklDRS4yMDI1LzIvMjUuVVNEAQAAAOncYiECAAAABTM5Ljc2ANaTWXF2</t>
+  </si>
+  <si>
+    <t>2t0I9ZQUc3ba3QgpQ0lRLkFSQ0E6TE9VUC5JUV9DTE9TRVBSSUNFLjIwMjUvMi8yNS5VU0QBAAAAWVwPIgIAAAAENTMuMQDWk1lxdtrdCHxtFHN22t0ILENJUS5OQVNEQVFHTTpTTUguSVFfQ0xPU0VQUklDRS4yMDI1LzIvMjQuVVNEAQAAAGDCNgACAAAABjI0My40MgDWk1lxdtrdCALDEXN22t0IKUNJUS5BUkNBOklHUFQuSVFfQ0xPU0VQUklDRS4yMDI1LzIvMjQuVVNEAQAAAMwCXgECAAAABTQ2LjE3ANaTWXF22t0IA6MSc3ba3QgoQ0lRLkxTRTpBSUFHLklRX0NMT1NFUFJJQ0UuMjAyNS8yLzI0LlVTRAEAAADwnYIkAgAAAA8yMi45NzkyMzk1OTE2MDIA1pNZcXba3Qg8NhBzdtrdCChDSVEuQVNYOlJCVFouSVFfQ0xPU0VQUklDRS4yMDI1LzIvMTkuVVNEAQAAACntdiICAAAADTkuOTE5NDUyMDI1MzIA1pNZcXba3Qj33xlzdtrdCClDSVEuQVJDQTpUSE5RLklRX0NMT1NFUFJJQ0UuMjAyNS8yLzE4LlVTRAEAAACuw34kAgAAAAU1NS4yMgDWk1lxdtrdCK4cGXN22t0IJ0NJUS5EQjpYQjBULklRX0NMT1NFUFJJQ0UuMjAyNS8yLzE4LlVTRAEAAADTM94pAgAAAA4yMi41MjMyNzY0OTU0OQA8s1lxdtrdCK3kHHN22t0ILENJUS5OQVNEQVFHTTpTTUguSVFfQ0xPU0VQUklDRS4yMDI1LzIvMTMuVVNEAQAAAGDCNgACAAAABjI1MS45MgA8s1lxdtrdCMxYGHN22t0IKUNJUS5BUkNBOkxSTlouSVFfQ0xPU0VQ</t>
+  </si>
+  <si>
+    <t>UklDRS4yMDI1LzIvMTMuVVNEAQAAALV2wyYCAAAABjQ0Ljg2NwA8s1lxdtrdCCjdFnN22t0IKENJUS5CQVRTOklHVi5JUV9DTE9TRVBSSUNFLjIwMjUvMi8xMi5VU0QBAAAAzTqGAAIAAAAGMTA0Ljk2ADyzWXF22t0I9LoVc3ba3QgpQ0lRLkFSQ0E6QVJUWS5JUV9DTE9TRVBSSUNFLjIwMjUvMi8xMS5VU0QBAAAAbh9pIQIAAAAFNDAuMTkAPLNZcXba3Qj1lBRzdtrdCClDSVEuWFRSQTpYQUlYLklRX0NMT1NFUFJJQ0UuMjAyNS8yLzExLlVTRAEAAAA17OIiAgAAAA8xNDkuNDQ2NDU2MjE3MTIAPLNZcXba3Qh8bRRzdtrdCC1DSVEuTkFTREFRR006Uk9CVC5JUV9DTE9TRVBSSUNFLjIwMjUvMi8xMC5VU0QBAAAAXGPZIAIAAAAENDguMwA8s1lxdtrdCAOjEnN22t0IKENJUS5CSVQ6V1RBSS5JUV9DTE9TRVBSSUNFLjIwMjUvMi8xMC5VU0QBAAAATbpbIwIAAAANNzEuOTY2MTgyMDY0NgA8s1lxdtrdCJSbEXN22t0IJkNJUS5EQjpYQjBULklRX0NMT1NFUFJJQ0UuMjAyNS8yLzcuVVNEAQAAANMz3ikCAAAADjIyLjA1NzkxMTA1Njc5ADyzWXF22t0IPDYQc3ba3QgnQ0lRLkxTRTpSQk9ULklRX0NMT1NFUFJJQ0UuMjAyNS81LzguVVNEAQAAAI57JBQCAAAABDEzLjcAq2ztcXba3QhQFidzdtrdCCZDSVEuREI6WEIwVC5JUV9DTE9TRVBSSUNFLjIwMjUvNS84LlVTRAEAAADTM94pAgAAAA8xOS4yNTEzMjQ4MzM1</t>
+  </si>
+  <si>
+    <t>NjgAq2ztcXba3Qjf2iRzdtrdCCtDSVEuTkFTREFRR006U01ILklRX0NMT1NFUFJJQ0UuMjAyNS81LzcuVVNEAQAAAGDCNgACAAAABjIyMC4wMgCrbO1xdtrdCLeEF3N22t0ILENJUS5OQVNEQVFHTTpGRFRYLklRX0NMT1NFUFJJQ0UuMjAyNS81LzcuVVNEAQAAAL2lnSYCAAAABTMzLjQ0AKts7XF22t0Ink4Sc3ba3QgrQ0lRLk5BU0RBUUdNOlFRUS5JUV9DTE9TRVBSSUNFLjIwMjUvNS82LlVTRAEAAAAOunsAAgAAAAY0ODEuNDEAq2ztcXba3Qj4KCFzdtrdCCtDSVEuTkFTREFRR006QUlRLklRX0NMT1NFUFJJQ0UuMjAyNS81LzYuVVNEAQAAAOncYiECAAAABTM3Ljc4AKts7XF22t0IfSogc3ba3QgoQ0lRLkJBVFM6V1RBSS5JUV9DTE9TRVBSSUNFLjIwMjUvNS82LlVTRAEAAABgTm9kAgAAAAUyMC4xNQCrbO1xdtrdCPq0EHN22t0IJ0NJUS5MU0U6UkJPVC5JUV9DTE9TRVBSSUNFLjIwMjUvNS82LlVTRAEAAACOeyQUAgAAAAUxMy4zOACrbO1xdtrdCMh1GnN22t0IJ0NJUS5BU1g6UkJUWi5JUV9DTE9TRVBSSUNFLjIwMjUvNS82LlVTRAEAAAAp7XYiAgAAAAw4LjQ1MjgwNTcwMzQAq2ztcXba3QjyOhNzdtrdCCtDSVEuTkFTREFRR006U01ILklRX0NMT1NFUFJJQ0UuMjAyNS81LzUuVVNEAQAAAGDCNgACAAAABjIxNy42MQCrbO1xdtrdCLv5HHN22t0IJ0NJUS5CQVRTOklHVi5JUV9DTE9TRVBSSUNFLjIw</t>
+  </si>
+  <si>
+    <t>MjUvNS81LlVTRAEAAADNOoYAAgAAAAU5OS4zNwCrbO1xdtrdCNa4GXN22t0IKENJUS5BUkNBOkFSVFkuSVFfQ0xPU0VQUklDRS4yMDI1LzUvNS5VU0QBAAAAbh9pIQIAAAAFMzMuODgAq2ztcXba3QgCFx5zdtrdCCdDSVEuQVJDQTpBSVMuSVFfQ0xPU0VQUklDRS4yMDI1LzUvNS5VU0QBAAAAmJefcAIAAAAHMjIuNTE4MgCrbO1xdtrdCJzOGHN22t0IKENJUS5YVFJBOlhBSVguSVFfQ0xPU0VQUklDRS4yMDI1LzUvNS5VU0QBAAAANeziIgIAAAAPMTM5LjI3NzIxNzY0OTE0AL2T7XF22t0Im5UPc3ba3QgnQ0lRLkJJVDpXVEFJLklRX0NMT1NFUFJJQ0UuMjAyNS81LzUuVVNEAQAAAE26WyMCAAAADjYxLjA1MTMxOTgyMzU5AL2T7XF22t0I+rQQc3ba3QgnQ0lRLkxTRTpBSUFHLklRX0NMT1NFUFJJQ0UuMjAyNS81LzUuVVNEAQAAAPCdgiQDAAAAAAC9k+1xdtrdCJ5OEnN22t0ILENJUS5OQVNEQVFHTTpCT1RaLklRX0NMT1NFUFJJQ0UuMjAyNS81LzIuVVNEAQAAAPf9CBYCAAAABTI5LjI4AL2T7XF22t0IyHUac3ba3QgoQ0lRLkJBVFM6V1RBSS5JUV9DTE9TRVBSSUNFLjIwMjUvNS8yLlVTRAEAAABgTm9kAgAAAAUyMC40NwC9k+1xdtrdCCIRFXN22t0IKENJUS5BUkNBOkxPVVAuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMi5VU0QBAAAAWVwPIgIAAAAHNDkuNjgyMQC9k+1xdtrdCJzOGHN22t0IJ0NJUS5BU1g6</t>
+  </si>
+  <si>
+    <t>UkJUWi5JUV9DTE9TRVBSSUNFLjIwMjUvNS8yLlVTRAEAAAAp7XYiAgAAAAo4LjM3NzM2ODIyAL2T7XF22t0InM4Yc3ba3QgrQ0lRLk5BU0RBUUdNOlNNSC5JUV9DTE9TRVBSSUNFLjIwMjUvNS8xLlVTRAEAAABgwjYAAgAAAAUyMTIuMwC9k+1xdtrdCMh1GnN22t0IKENJUS5BUkNBOkFSVFkuSVFfQ0xPU0VQUklDRS4yMDI1LzUvMS5VU0QBAAAAbh9pIQIAAAAFMzMuMDkAvZPtcXba3QjgNxJzdtrdCChDSVEuQVJDQTpUSE5RLklRX0NMT1NFUFJJQ0UuMjAyNS81LzEuVVNEAQAAAK7DfiQCAAAABzQ1LjI4MjEAvZPtcXba3QgRMBZzdtrdCCxDSVEuTkFTREFRR006RkRUWC5JUV9DTE9TRVBSSUNFLjIwMjUvNS8xLlVTRAEAAAC9pZ0mAgAAAAUzMy4wNQC9k+1xdtrdCLeEF3N22t0IJ0NJUS5CSVQ6V1RBSS5JUV9DTE9TRVBSSUNFLjIwMjUvNS8xLlVTRAEAAABNulsjAwAAAAAAvZPtcXba3QgRMBZzdtrdCCZDSVEuREI6WEIwVC5JUV9DTE9TRVBSSUNFLjIwMjUvNS8xLlVTRAEAAADTM94pAwAAAAAAvZPtcXba3Qjf2iRzdtrdCCxDSVEuTkFTREFRR006UVFRLklRX0NMT1NFUFJJQ0UuMjAyNS80LzMwLlVTRAEAAAAOunsAAgAAAAY0NzUuNDcAvZPtcXba3QjWuBlzdtrdCC1DSVEuTkFTREFRR006QUdJWC5JUV9DTE9TRVBSSUNFLjIwMjUvNC8zMC5VU0QBAAAAI/cAcAIAAAAFMjUuNjQAvZPtcXba3QhJQhpz</t>
+  </si>
+  <si>
+    <t>dtrdCClDSVEuQVJDQTpJR1BULklRX0NMT1NFUFJJQ0UuMjAyNS80LzMwLlVTRAEAAADMAl4BAgAAAAU0MC42NQC9k+1xdtrdCBqFI3N22t0IKENJUS5MU0U6QUlBRy5JUV9DTE9TRVBSSUNFLjIwMjUvNC8zMC5VU0QBAAAA8J2CJAIAAAAPMTkuNTc1NzM4OTkzMTkyAL2T7XF22t0IlF0Xc3ba3QgsQ0lRLk5BU0RBUUdNOlNNSC5JUV9DTE9TRVBSSUNFLjIwMjUvNC8yOS5VU0QBAAAAYMI2AAIAAAAGMjEwLjI5AL2T7XF22t0I+rQQc3ba3QgpQ0lRLkFSQ0E6QVJUWS5JUV9DTE9TRVBSSUNFLjIwMjUvNC8yOS5VU0QBAAAAbh9pIQIAAAAFMzIuNTUAvbrtcXba3Qj4KCFzdtrdCC1DSVEuTkFTREFRR006V0lTRS5JUV9DTE9TRVBSSUNFLjIwMjUvNC8yOS5VU0QBAAAA6bBDbgIAAAAFMzAuNDQAvbrtcXba3QgiERVzdtrdCClDSVEuWFRSQTpYQUlYLklRX0NMT1NFUFJJQ0UuMjAyNS80LzI5LlVTRAEAAAA17OIiAgAAAA0xMzQuMDYyOTI3NDg4AL267XF22t0IlF0Xc3ba3QgoQ0lRLkJBVFM6SUdWLklRX0NMT1NFUFJJQ0UuMjAyNS80LzI4LlVTRAEAAADNOoYAAgAAAAY5NC44NzUAvbrtcXba3QjgNxJzdtrdCC1DSVEuTkFTREFRR006Qk9UWi5JUV9DTE9TRVBSSUNFLjIwMjUvNC8yOC5VU0QBAAAA9/0IFgIAAAAFMjguNTEAvbrtcXba3Qi7JRNzdtrdCCxDSVEuTkFTREFRR006QUlRLklRX0NMT1NFUFJJQ0Uu</t>
+  </si>
+  <si>
+    <t>MjAyNS80LzI4LlVTRAEAAADp3GIhAgAAAAQzNi44AL267XF22t0IPdwfc3ba3QgoQ0lRLkFSQ0E6QUlTLklRX0NMT1NFUFJJQ0UuMjAyNS80LzI4LlVTRAEAAACYl59wAgAAAAcyMS4zNTE1AL267XF22t0IIhEVc3ba3QgtQ0lRLk5BU0RBUUdNOldJU0UuSVFfQ0xPU0VQUklDRS4yMDI1LzQvMjguVVNEAQAAAOmwQ24CAAAABTMwLjU0AL267XF22t0IETAWc3ba3QgoQ0lRLkxTRTpSQk9ULklRX0NMT1NFUFJJQ0UuMjAyNS80LzI4LlVTRAEAAACOeyQUAgAAAAUxMi45NgC9uu1xdtrdCJRdF3N22t0ILUNJUS5OQVNEQVFHTTpBR0lYLklRX0NMT1NFUFJJQ0UuMjAyNS80LzI1LlVTRAEAAAAj9wBwAgAAAAcyNS40OTMyAL267XF22t0Im24Pc3ba3QgsQ0lRLk5BU0RBUUdNOlNNSC5JUV9DTE9TRVBSSUNFLjIwMjUvNC8yNS5VU0QBAAAAYMI2AAIAAAAGMjExLjk3AL267XF22t0I+rQQc3ba3QgpQ0lRLkFSQ0E6QVJUWS5JUV9DTE9TRVBSSUNFLjIwMjUvNC8yNS5VU0QBAAAAbh9pIQIAAAAFMzIuNDcAvbrtcXba3Qi+kRlzdtrdCClDSVEuQVJDQTpMT1VQLklRX0NMT1NFUFJJQ0UuMjAyNS80LzI1LlVTRAEAAABZXA8iAgAAAAc0OC4wMzU0AL267XF22t0IlUwbc3ba3QgpQ0lRLkFSQ0E6TFJOWi5JUV9DTE9TRVBSSUNFLjIwMjUvNC8yNS5VU0QBAAAAtXbDJgIAAAAHMzYuNjg4OQC9uu1xdtrdCCIRFXN22t0I</t>
+  </si>
+  <si>
+    <t>J0NJUS5EQjpYQjBULklRX0NMT1NFUFJJQ0UuMjAyNS80LzI1LlVTRAEAAADTM94pAgAAAA4xOC41NjgxODE4MTIyNADZ4e1xdtrdCNmNEHN22t0IKENJUS5CQVRTOklHVi5JUV9DTE9TRVBSSUNFLjIwMjUvNC8yNC5VU0QBAAAAzTqGAAIAAAAEOTMuMgDZ4e1xdtrdCOOZKXN22t0IKUNJUS5CQVRTOldUQUkuSVFfQ0xPU0VQUklDRS4yMDI1LzQvMjQuVVNEAQAAAGBOb2QCAAAABTE5LjI5ANnh7XF22t0IuyUTc3ba3QgtQ0lRLk5BU0RBUUdNOkZEVFguSVFfQ0xPU0VQUklDRS4yMDI1LzQvMjQuVVNEAQAAAL2lnSYCAAAABTMxLjg4ANnh7XF22t0IIhEVc3ba3QgoQ0lRLkJJVDpXVEFJLklRX0NMT1NFUFJJQ0UuMjAyNS80LzI0LlVTRAEAAABNulsjAgAAAA41Ny41MjI0MjUzMzMxNADZ4e1xdtrdCJtuD3N22t0IKENJUS5MU0U6QUlBRy5JUV9DTE9TRVBSSUNFLjIwMjUvNC8yNC5VU0QBAAAA8J2CJAIAAAAOMTkuMzgyODE0NTc5MTQA2eHtcXba3QjZjRBzdtrdCChDSVEuQVNYOlJCVFouSVFfQ0xPU0VQUklDRS4yMDI1LzQvMjQuVVNEAQAAACntdiICAAAADTcuOTc2NzE1OTI1MzYA2eHtcXba3Qg3ERJzdtrdCClDSVEuQkFUUzpXVEFJLklRX0NMT1NFUFJJQ0UuMjAyNS80LzIzLlVTRAEAAABgTm9kAgAAAAUxOC40NgDZ4e1xdtrdCCIRFXN22t0IKUNJUS5BUkNBOlRITlEuSVFfQ0xPU0VQUklDRS4yMDI1</t>
+  </si>
+  <si>
+    <t>LzQvMjMuVVNEAQAAAK7DfiQCAAAABTQyLjcyANnh7XF22t0IETAWc3ba3QgoQ0lRLkxTRTpSQk9ULklRX0NMT1NFUFJJQ0UuMjAyNS80LzIzLlVTRAEAAACOeyQUAgAAAAYxMi42MzUA2eHtcXba3Qibbg9zdtrdCClDSVEuWFRSQTpYQUlYLklRX0NMT1NFUFJJQ0UuMjAyNS80LzIzLlVTRAEAAAA17OIiAgAAAA4xMjguNDMwMTQ2NjIxNwDZ4e1xdtrdCNmNEHN22t0IJ0NJUS5EQjpYQjBULklRX0NMT1NFUFJJQ0UuMjAyNS80LzIzLlVTRAEAAADTM94pAgAAAA4xNy45OTAyMjM5MzcyOQDZ4e1xdtrdCL6RGXN22t0ILUNJUS5OQVNEQVFHTTpST0JULklRX0NMT1NFUFJJQ0UuMjAyNS80LzIyLlVTRAEAAABcY9kgAgAAAAUzOC4yMwDZ4e1xdtrdCCIRFXN22t0ILUNJUS5OQVNEQVFHTTpGRFRYLklRX0NMT1NFUFJJQ0UuMjAyNS80LzIyLlVTRAEAAAC9pZ0mAgAAAAUyOS44MQDZ4e1xdtrdCIunGHN22t0IKENJUS5BUkNBOkFJUy5JUV9DTE9TRVBSSUNFLjIwMjUvNC8yMi5VU0QBAAAAmJefcAIAAAAHMTkuNTI5MQDZ4e1xdtrdCNmNEHN22t0IKENJUS5CSVQ6V1RBSS5JUV9DTE9TRVBSSUNFLjIwMjUvNC8yMi5VU0QBAAAATbpbIwIAAAANNTMuNTUyOTc4OTgyOQDZ4e1xdtrdCN/aJHN22t0IKENJUS5MU0U6QUlBRy5JUV9DTE9TRVBSSUNFLjIwMjUvNC8yMi5VU0QBAAAA8J2CJAIAAAAPMTguMTU4NzExNDY4</t>
+  </si>
+  <si>
+    <t>MzI2ANnh7XF22t0IvpEZc3ba3QgoQ0lRLkJBVFM6SUdWLklRX0NMT1NFUFJJQ0UuMjAyNS80LzIxLlVTRAEAAADNOoYAAgAAAAU4My45MQDZ4e1xdtrdCBVvI3N22t0IKUNJUS5CQVRTOldUQUkuSVFfQ0xPU0VQUklDRS4yMDI1LzQvMjEuVVNEAQAAAGBOb2QCAAAABTE3LjQyANnh7XF22t0Ii6cYc3ba3QgpQ0lRLkFSQ0E6Q0hBVC5JUV9DTE9TRVBSSUNFLjIwMjUvNC8yMS5VU0QBAAAAADA1bQIAAAAFMzEuNzIA2eHtcXba3Qibbg9zdtrdCClDSVEuQVJDQTpMT1VQLklRX0NMT1NFUFJJQ0UuMjAyNS80LzIxLlVTRAEAAABZXA8iAgAAAAc0Mi4yMTg3ANnh7XF22t0I2Y0Qc3ba3QgpQ0lRLkFSQ0E6TFJOWi5JUV9DTE9TRVBSSUNFLjIwMjUvNC8yMS5VU0QBAAAAtXbDJgIAAAAHMzIuNDc1MQDZ4e1xdtrdCDcREnN22t0IKENJUS5CQVRTOklHVi5JUV9DTE9TRVBSSUNFLjIwMjUvNC8xNy5VU0QBAAAAzTqGAAIAAAAFODYuNTkA2eHtcXba3QisCBZzdtrdCC1DSVEuTkFTREFRR006Uk9CVC5JUV9DTE9TRVBSSUNFLjIwMjUvNC8xNy5VU0QBAAAAXGPZIAIAAAAFMzguMjIA2eHtcXba3QggUCFzdtrdCClDSVEuQVJDQTpUSE5RLklRX0NMT1NFUFJJQ0UuMjAyNS80LzE3LlVTRAEAAACuw34kAgAAAAc0MS41MDk0ANnh7XF22t0Im24Pc3ba3QgtQ0lRLk5BU0RBUUdNOkZEVFguSVFfQ0xPU0VQUklDRS4yMDI1</t>
+  </si>
+  <si>
+    <t>LzQvMTcuVVNEAQAAAL2lnSYCAAAABTI5Ljg0ANnh7XF22t0I2Y0Qc3ba3QgoQ0lRLkFSQ0E6QUlTLklRX0NMT1NFUFJJQ0UuMjAyNS80LzE3LlVTRAEAAACYl59wAgAAAAcxOS42MjM4ANnh7XF22t0IvpEZc3ba3QgsQ0lRLk5BU0RBUUdNOlFRUS5JUV9DTE9TRVBSSUNFLjIwMjUvNC8xNi5VU0QBAAAADrp7AAIAAAAGNDQ0LjE4ABkJ7nF22t0IIhEVc3ba3QgtQ0lRLk5BU0RBUUdNOkJPVFouSVFfQ0xPU0VQUklDRS4yMDI1LzQvMTYuVVNEAQAAAPf9CBYCAAAABTI2LjUxABkJ7nF22t0Ii6cYc3ba3QgsQ0lRLk5BU0RBUUdNOkFJUS5JUV9DTE9TRVBSSUNFLjIwMjUvNC8xNi5VU0QBAAAA6dxiIQIAAAAEMzMuOQAZCe5xdtrdCH0qIHN22t0IKUNJUS5BUkNBOklHUFQuSVFfQ0xPU0VQUklDRS4yMDI1LzQvMTYuVVNEAQAAAMwCXgECAAAABTM3LjcxABkJ7nF22t0I2Y0Qc3ba3QgpQ0lRLkJBVFM6V1RBSS5JUV9DTE9TRVBSSUNFLjIwMjUvNC8xNi5VU0QBAAAAYE5vZAIAAAAFMTguMDEAGQnucXba3Qg3ERJzdtrdCClDSVEuQVJDQTpMT1VQLklRX0NMT1NFUFJJQ0UuMjAyNS80LzE2LlVTRAEAAABZXA8iAgAAAAc0My42NDM4ABkJ7nF22t0ISUIac3ba3QgoQ0lRLkFTWDpSQlRaLklRX0NMT1NFUFJJQ0UuMjAyNS80LzE2LlVTRAEAAAAp7XYiAgAAAA03LjY4OTM2MDA3NDc2ABkJ7nF22t0IfDYXc3ba3Qgs</t>
+  </si>
+  <si>
+    <t>Q0lRLk5BU0RBUUdNOlNNSC5JUV9DTE9TRVBSSUNFLjIwMjUvNC8xNS5VU0QBAAAAYMI2AAIAAAAGMjAyLjkyABkJ7nF22t0IiX4ec3ba3QgoQ0lRLkJBVFM6SUdWLklRX0NMT1NFUFJJQ0UuMjAyNS80LzE1LlVTRAEAAADNOoYAAgAAAAU4OS4wOQAZCe5xdtrdCL6RGXN22t0IKUNJUS5BUkNBOkFSVFkuSVFfQ0xPU0VQUklDRS4yMDI1LzQvMTUuVVNEAQAAAG4faSECAAAABDMwLjgAGQnucXba3Qg3ERJzdtrdCC1DSVEuTkFTREFRR006Uk9CVC5JUV9DTE9TRVBSSUNFLjIwMjUvNC8xNS5VU0QBAAAAXGPZIAIAAAAFMzguOTQAGQnucXba3Qgo/BJzdtrdCClDSVEuQVJDQTpUSE5RLklRX0NMT1NFUFJJQ0UuMjAyNS80LzE1LlVTRAEAAACuw34kAgAAAAU0Mi45OQAZCe5xdtrdCGj9FHN22t0IKENJUS5CSVQ6V1RBSS5JUV9DTE9TRVBSSUNFLjIwMjUvNC8xNS5VU0QBAAAATbpbIwIAAAAPNTUuNzE0NjA5MDUyMDE1ABkJ7nF22t0Ii6cYc3ba3QgnQ0lRLkRCOlhCMFQuSVFfQ0xPU0VQUklDRS4yMDI1LzQvMTUuVVNEAQAAANMz3ikCAAAADzE3Ljc4NDMxNTk1MTI4NAAZCe5xdtrdCL6RGXN22t0ILENJUS5OQVNEQVFHTTpRUVEuSVFfQ0xPU0VQUklDRS4yMDI1LzQvMTQuVVNEAQAAAA66ewACAAAABjQ1Ny40OAAZCe5xdtrdCElCGnN22t0ILUNJUS5OQVNEQVFHTTpCT1RaLklRX0NMT1NFUFJJQ0UuMjAyNS80</t>
+  </si>
+  <si>
+    <t>LzE0LlVTRAEAAAD3/QgWAgAAAAUyNy4wNAAZCe5xdtrdCJVMG3N22t0IKUNJUS5BUkNBOkxPVVAuSVFfQ0xPU0VQUklDRS4yMDI1LzQvMTQuVVNEAQAAAFlcDyICAAAABzQ0LjI3MTEAGQnucXba3QjZjRBzdtrdCC1DSVEuTkFTREFRR006V0lTRS5JUV9DTE9TRVBSSUNFLjIwMjUvNC8xNC5VU0QBAAAA6bBDbgIAAAAFMjguODcAGQnucXba3QjjmSlzdtrdCChDSVEuTFNFOlJCT1QuSVFfQ0xPU0VQUklDRS4yMDI1LzQvMTQuVVNEAQAAAI57JBQCAAAABTEyLjMyABkJ7nF22t0IvpEZc3ba3QgsQ0lRLk5BU0RBUUdNOlFRUS5JUV9DTE9TRVBSSUNFLjIwMjUvNC8xMS5VU0QBAAAADrp7AAIAAAAFNDU0LjQAGQnucXba3QjQJCNzdtrdCCxDSVEuTkFTREFRR006U01ILklRX0NMT1NFUFJJQ0UuMjAyNS80LzExLlVTRAEAAABgwjYAAgAAAAYyMDEuMzEAGQnucXba3QisCBZzdtrdCClDSVEuQVJDQTpBUlRZLklRX0NMT1NFUFJJQ0UuMjAyNS80LzExLlVTRAEAAABuH2khAgAAAAUzMC40NwAZCe5xdtrdCIunGHN22t0IKUNJUS5BUkNBOlRITlEuSVFfQ0xPU0VQUklDRS4yMDI1LzQvMTEuVVNEAQAAAK7DfiQCAAAABzQyLjI3NzYAGQnucXba3QjSWBBzdtrdCC1DSVEuTkFTREFRR006RkRUWC5JUV9DTE9TRVBSSUNFLjIwMjUvNC8xMS5VU0QBAAAAvaWdJgIAAAAFMzAuMjUAGQnucXba3Qg3ERJzdtrdCClDSVEu</t>
+  </si>
+  <si>
+    <t>QVJDQTpMUk5aLklRX0NMT1NFUFJJQ0UuMjAyNS80LzExLlVTRAEAAAC1dsMmAgAAAAczMy43MDc1ABkJ7nF22t0Idxsac3ba3QgsQ0lRLk5BU0RBUUdNOlFRUS5JUV9DTE9TRVBSSUNFLjIwMjUvNC8xMC5VU0QBAAAADrp7AAIAAAAGNDQ2LjE4ABkJ7nF22t0IfDYXc3ba3QgoQ0lRLkJBVFM6SUdWLklRX0NMT1NFUFJJQ0UuMjAyNS80LzEwLlVTRAEAAADNOoYAAgAAAAU4Ni40OQAZCe5xdtrdCA4YKXN22t0ILUNJUS5OQVNEQVFHTTpCT1RaLklRX0NMT1NFUFJJQ0UuMjAyNS80LzEwLlVTRAEAAAD3/QgWAgAAAAUyNi4zMwAZCe5xdtrdCNNqGXN22t0ILENJUS5OQVNEQVFHTTpBSVEuSVFfQ0xPU0VQUklDRS4yMDI1LzQvMTAuVVNEAQAAAOncYiECAAAABTMzLjgxABkJ7nF22t0I0lgQc3ba3QgtQ0lRLk5BU0RBUUdNOlJPQlQuSVFfQ0xPU0VQUklDRS4yMDI1LzQvMTAuVVNEAQAAAFxj2SACAAAABTM3Ljc4ABkJ7nF22t0IEOoRc3ba3QgpQ0lRLkFSQ0E6SUdQVC5JUV9DTE9TRVBSSUNFLjIwMjUvNC8xMC5VU0QBAAAAzAJeAQIAAAAFMzcuNjYAGQnucXba3Qgo/BJzdtrdCA==</t>
   </si>
 </sst>
 </file>
@@ -1217,7 +1217,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14596610-92A5-4799-A14F-45751BFABF50}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38F162C5-1AEC-474B-9719-3502EDB62840}">
   <dimension ref="A1:HU1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1924,7 +1924,7 @@
   <dimension ref="A1:X157"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="68" workbookViewId="0">
-      <selection activeCell="Y2" sqref="Y2"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
